--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F536A7B-6A2A-4A47-8A37-99B9F9DC4BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69621A8-8AFA-4CD6-970A-550D73C0EE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$C$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$I$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$308</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$511</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4722" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4723" uniqueCount="1361">
   <si>
     <t>faction</t>
   </si>
@@ -4255,6 +4255,9 @@
   </si>
   <si>
     <t>Independent Hero*</t>
+  </si>
+  <si>
+    <t>unique</t>
   </si>
 </sst>
 </file>
@@ -4704,27 +4707,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:I308"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I290" sqref="I290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -4749,11 +4754,14 @@
       <c r="H1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A65" si="0">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C2, " ", "_")), "] ", LOWER(SUBSTITUTE(E2, " ", "_")))</f>
         <v>[angmar] shade</v>
@@ -4779,11 +4787,14 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] wild_warg_chieftain</v>
@@ -4809,11 +4820,14 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] barrow-wight</v>
@@ -4839,11 +4853,14 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_captain</v>
@@ -4869,11 +4886,14 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] golfimbul</v>
@@ -4899,11 +4919,14 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] witch_king</v>
@@ -4929,11 +4952,14 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] gulavhar</v>
@@ -4959,11 +4985,14 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_dwimmerlaik</v>
@@ -4989,11 +5018,14 @@
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_tainted</v>
@@ -5019,11 +5051,14 @@
       <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] buhrdur</v>
@@ -5049,11 +5084,14 @@
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_shaman</v>
@@ -5079,11 +5117,14 @@
       <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] cave_troll</v>
@@ -5109,11 +5150,14 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] dead_marsh_spectre</v>
@@ -5139,11 +5183,14 @@
       <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_warg_rider</v>
@@ -5169,11 +5216,14 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] wild_warg</v>
@@ -5199,11 +5249,14 @@
       <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_warrior</v>
@@ -5229,11 +5282,14 @@
       <c r="H17" t="b">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_troll_chieftan</v>
@@ -5259,11 +5315,14 @@
       <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] black_numenorean_marshall</v>
@@ -5289,11 +5348,14 @@
       <c r="H19" t="b">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] ringwraith</v>
@@ -5319,11 +5381,14 @@
       <c r="H20" t="b">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_taskmaster</v>
@@ -5349,11 +5414,14 @@
       <c r="H21" t="b">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_captain</v>
@@ -5379,11 +5447,14 @@
       <c r="H22" t="b">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] sauron</v>
@@ -5409,11 +5480,14 @@
       <c r="H23" t="b">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] witch_king</v>
@@ -5439,11 +5513,14 @@
       <c r="H24" t="b">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] shelob</v>
@@ -5469,11 +5546,14 @@
       <c r="H25" t="b">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_drummer</v>
@@ -5499,11 +5579,14 @@
       <c r="H26" t="b">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_shaman</v>
@@ -5529,11 +5612,14 @@
       <c r="H27" t="b">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_war_catapult</v>
@@ -5559,11 +5645,14 @@
       <c r="H28" t="b">
         <v>0</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_siege_bow</v>
@@ -5589,11 +5678,14 @@
       <c r="H29" t="b">
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_troll</v>
@@ -5619,11 +5711,14 @@
       <c r="H30" t="b">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] morgul_knight</v>
@@ -5649,11 +5744,14 @@
       <c r="H31" t="b">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] warg_rider</v>
@@ -5679,11 +5777,14 @@
       <c r="H32" t="b">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] black_numenorean</v>
@@ -5709,11 +5810,14 @@
       <c r="H33" t="b">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_tracker</v>
@@ -5739,11 +5843,14 @@
       <c r="H34" t="b">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_warrior</v>
@@ -5769,11 +5876,14 @@
       <c r="H35" t="b">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[halls_of_thranduil] thranduil</v>
@@ -5799,11 +5909,14 @@
       <c r="H36" t="b">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] thrydan_wolfsbane</v>
@@ -5829,11 +5942,14 @@
       <c r="H37" t="b">
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] gorulf_ironskin</v>
@@ -5859,11 +5975,14 @@
       <c r="H38" t="b">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] ugluk</v>
@@ -5889,11 +6008,14 @@
       <c r="H39" t="b">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] vrasku</v>
@@ -5919,11 +6041,14 @@
       <c r="H40" t="b">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] frida_tallspear</v>
@@ -5949,11 +6074,14 @@
       <c r="H41" t="b">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] mauhur</v>
@@ -5979,11 +6107,14 @@
       <c r="H42" t="b">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_captain</v>
@@ -6009,11 +6140,14 @@
       <c r="H43" t="b">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_scout_captain</v>
@@ -6039,11 +6173,14 @@
       <c r="H44" t="b">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_chieftan</v>
@@ -6069,11 +6206,14 @@
       <c r="H45" t="b">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] wild_man_oathmaker</v>
@@ -6099,11 +6239,14 @@
       <c r="H46" t="b">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] sharku</v>
@@ -6129,11 +6272,14 @@
       <c r="H47" t="b">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] snaga</v>
@@ -6159,11 +6305,14 @@
       <c r="H48" t="b">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] orc_captain</v>
@@ -6189,11 +6338,14 @@
       <c r="H49" t="b">
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] saruman</v>
@@ -6219,11 +6371,14 @@
       <c r="H50" t="b">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] lurtz</v>
@@ -6249,11 +6404,14 @@
       <c r="H51" t="b">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_drummer</v>
@@ -6279,11 +6437,14 @@
       <c r="H52" t="b">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] grima</v>
@@ -6309,11 +6470,14 @@
       <c r="H53" t="b">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_shaman</v>
@@ -6339,11 +6503,14 @@
       <c r="H54" t="b">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] isengard_assault_ballista</v>
@@ -6369,11 +6536,14 @@
       <c r="H55" t="b">
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] isengard_troll</v>
@@ -6399,11 +6569,14 @@
       <c r="H56" t="b">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_demolition_team</v>
@@ -6429,11 +6602,14 @@
       <c r="H57" t="b">
         <v>0</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] crebain</v>
@@ -6459,11 +6635,14 @@
       <c r="H58" t="b">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_berserker</v>
@@ -6489,11 +6668,14 @@
       <c r="H59" t="b">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] feral_uruk-hai</v>
@@ -6519,11 +6701,14 @@
       <c r="H60" t="b">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_horseman</v>
@@ -6549,11 +6734,14 @@
       <c r="H61" t="b">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_huscarl</v>
@@ -6579,11 +6767,14 @@
       <c r="H62" t="b">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] warg_rider</v>
@@ -6609,11 +6800,14 @@
       <c r="H63" t="b">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_warrior</v>
@@ -6639,11 +6833,14 @@
       <c r="H64" t="b">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_scout</v>
@@ -6669,11 +6866,14 @@
       <c r="H65" t="b">
         <v>0</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" s="4" t="str">
         <f t="shared" ref="A66:A129" si="1">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C66, " ", "_")), "] ", LOWER(SUBSTITUTE(E66, " ", "_")))</f>
         <v>[isengard] dunlending_warrior</v>
@@ -6699,11 +6899,14 @@
       <c r="H66" t="b">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[isengard] wild_man_of_dunland</v>
@@ -6729,11 +6932,14 @@
       <c r="H67" t="b">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[isengard] orc_warrior</v>
@@ -6759,11 +6965,14 @@
       <c r="H68" t="b">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] orophin</v>
@@ -6789,11 +6998,14 @@
       <c r="H69" t="b">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] rumil</v>
@@ -6819,11 +7031,14 @@
       <c r="H70" t="b">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_captain</v>
@@ -6849,11 +7064,14 @@
       <c r="H71" t="b">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] haldir</v>
@@ -6879,11 +7097,14 @@
       <c r="H72" t="b">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_captain</v>
@@ -6909,11 +7130,14 @@
       <c r="H73" t="b">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadriel</v>
@@ -6939,11 +7163,14 @@
       <c r="H74" t="b">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1">
       <c r="A75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] celeborn</v>
@@ -6969,11 +7196,14 @@
       <c r="H75" t="b">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_stormcaller</v>
@@ -6999,11 +7229,14 @@
       <c r="H76" t="b">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_sentinel</v>
@@ -7029,11 +7262,14 @@
       <c r="H77" t="b">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_knight</v>
@@ -7059,11 +7295,14 @@
       <c r="H78" t="b">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] guard_of_the_galadhrim_court</v>
@@ -7089,11 +7328,14 @@
       <c r="H79" t="b">
         <v>0</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_warrior</v>
@@ -7119,11 +7361,14 @@
       <c r="H80" t="b">
         <v>0</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_warrior</v>
@@ -7149,11 +7394,14 @@
       <c r="H81" t="b">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] ingold</v>
@@ -7179,11 +7427,14 @@
       <c r="H82" t="b">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] irolas</v>
@@ -7209,11 +7460,14 @@
       <c r="H83" t="b">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] knight_of_the_white_tower</v>
@@ -7239,11 +7493,14 @@
       <c r="H84" t="b">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] king_of_men</v>
@@ -7269,11 +7526,14 @@
       <c r="H85" t="b">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] cirion</v>
@@ -7299,11 +7559,14 @@
       <c r="H86" t="b">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] madril</v>
@@ -7329,11 +7592,14 @@
       <c r="H87" t="b">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] captain_of_minas_tirith</v>
@@ -7359,11 +7625,14 @@
       <c r="H88" t="b">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] aragorn,_king_elessar</v>
@@ -7389,11 +7658,14 @@
       <c r="H89" t="b">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] gandalf_the_white</v>
@@ -7419,11 +7691,14 @@
       <c r="H90" t="b">
         <v>0</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1">
       <c r="A91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] boromir</v>
@@ -7449,11 +7724,14 @@
       <c r="H91" t="b">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] faramir</v>
@@ -7479,11 +7757,14 @@
       <c r="H92" t="b">
         <v>0</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] hurin</v>
@@ -7509,11 +7790,14 @@
       <c r="H93" t="b">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] denethor</v>
@@ -7539,11 +7823,14 @@
       <c r="H94" t="b">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1">
       <c r="A95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] pippin</v>
@@ -7569,11 +7856,14 @@
       <c r="H95" t="b">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] anborn</v>
@@ -7599,11 +7889,14 @@
       <c r="H96" t="b">
         <v>0</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] mablung</v>
@@ -7629,11 +7922,14 @@
       <c r="H97" t="b">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] beregond</v>
@@ -7659,11 +7955,14 @@
       <c r="H98" t="b">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] damrod</v>
@@ -7689,11 +7988,14 @@
       <c r="H99" t="b">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] gondor_battlecry_trebuchet</v>
@@ -7719,11 +8021,14 @@
       <c r="H100" t="b">
         <v>0</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] avenger_bolt_thrower</v>
@@ -7749,11 +8054,14 @@
       <c r="H101" t="b">
         <v>0</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] knight_of_minas_tirith</v>
@@ -7779,11 +8087,14 @@
       <c r="H102" t="b">
         <v>0</v>
       </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] guard_of_the_fountain_court</v>
@@ -7809,11 +8120,14 @@
       <c r="H103" t="b">
         <v>0</v>
       </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1">
       <c r="A104" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] citadel_guard</v>
@@ -7839,11 +8153,14 @@
       <c r="H104" t="b">
         <v>0</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] osgiliath_veteran</v>
@@ -7869,11 +8186,14 @@
       <c r="H105" t="b">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] ranger_of_gondor</v>
@@ -7899,11 +8219,14 @@
       <c r="H106" t="b">
         <v>1</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] warrior_of_minas_tirith</v>
@@ -7929,11 +8252,14 @@
       <c r="H107" t="b">
         <v>0</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] great_beast_of_gorgoroth</v>
@@ -7959,11 +8285,14 @@
       <c r="H108" t="b">
         <v>0</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] mordor_troll_chieftan</v>
@@ -7989,11 +8318,14 @@
       <c r="H109" t="b">
         <v>0</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] shagrat</v>
@@ -8019,11 +8351,14 @@
       <c r="H110" t="b">
         <v>0</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] goroth</v>
@@ -8049,11 +8384,14 @@
       <c r="H111" t="b">
         <v>0</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] muzgur</v>
@@ -8079,11 +8417,14 @@
       <c r="H112" t="b">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] black_numenorean_marshall</v>
@@ -8109,11 +8450,14 @@
       <c r="H113" t="b">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] captain_of_the_black_guard</v>
@@ -8139,11 +8483,14 @@
       <c r="H114" t="b">
         <v>0</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] guritz</v>
@@ -8169,11 +8516,14 @@
       <c r="H115" t="b">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] kardush</v>
@@ -8199,11 +8549,14 @@
       <c r="H116" t="b">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gothmog's_enforcer</v>
@@ -8229,11 +8582,14 @@
       <c r="H117" t="b">
         <v>0</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] zagdush</v>
@@ -8259,11 +8615,14 @@
       <c r="H118" t="b">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gorbag</v>
@@ -8289,11 +8648,14 @@
       <c r="H119" t="b">
         <v>0</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] mordor_uruk-hai_captain</v>
@@ -8319,11 +8681,14 @@
       <c r="H120" t="b">
         <v>0</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] ringwraith</v>
@@ -8349,11 +8714,14 @@
       <c r="H121" t="b">
         <v>0</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] grishnak</v>
@@ -8379,11 +8747,14 @@
       <c r="H122" t="b">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] morannon_orc_captain</v>
@@ -8409,11 +8780,14 @@
       <c r="H123" t="b">
         <v>0</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] orc_taskmaster</v>
@@ -8439,11 +8813,14 @@
       <c r="H124" t="b">
         <v>0</v>
       </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] orc_captain</v>
@@ -8469,11 +8846,14 @@
       <c r="H125" t="b">
         <v>0</v>
       </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1">
       <c r="A126" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] witch_king</v>
@@ -8499,11 +8879,14 @@
       <c r="H126" t="b">
         <v>0</v>
       </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1">
       <c r="A127" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gothmog</v>
@@ -8529,11 +8912,14 @@
       <c r="H127" t="b">
         <v>0</v>
       </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1">
       <c r="A128" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] khamul</v>
@@ -8559,11 +8945,14 @@
       <c r="H128" t="b">
         <v>0</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1">
       <c r="A129" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] the_betrayer</v>
@@ -8589,11 +8978,14 @@
       <c r="H129" t="b">
         <v>0</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1">
       <c r="A130" s="4" t="str">
         <f t="shared" ref="A130:A193" si="2">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C130, " ", "_")), "] ", LOWER(SUBSTITUTE(E130, " ", "_")))</f>
         <v>[mordor] the_dark_marshall</v>
@@ -8619,11 +9011,14 @@
       <c r="H130" t="b">
         <v>0</v>
       </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1">
       <c r="A131" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_knight_of_umbar</v>
@@ -8649,11 +9044,14 @@
       <c r="H131" t="b">
         <v>0</v>
       </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1">
       <c r="A132" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_shadow_lord</v>
@@ -8679,11 +9077,14 @@
       <c r="H132" t="b">
         <v>0</v>
       </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1">
       <c r="A133" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_undying</v>
@@ -8709,11 +9110,14 @@
       <c r="H133" t="b">
         <v>0</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1">
       <c r="A134" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_dwimmerlaik</v>
@@ -8739,11 +9143,14 @@
       <c r="H134" t="b">
         <v>0</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1">
       <c r="A135" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_tainted</v>
@@ -8769,11 +9176,14 @@
       <c r="H135" t="b">
         <v>0</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1">
       <c r="A136" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] razgush</v>
@@ -8799,11 +9209,14 @@
       <c r="H136" t="b">
         <v>0</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1">
       <c r="A137" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mouth_of_sauron</v>
@@ -8829,11 +9242,14 @@
       <c r="H137" t="b">
         <v>0</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1">
       <c r="A138" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] shelob</v>
@@ -8859,11 +9275,14 @@
       <c r="H138" t="b">
         <v>0</v>
       </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1">
       <c r="A139" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_guard_drummer</v>
@@ -8889,11 +9308,14 @@
       <c r="H139" t="b">
         <v>0</v>
       </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="I139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" hidden="1">
       <c r="A140" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_drummer</v>
@@ -8919,11 +9341,14 @@
       <c r="H140" t="b">
         <v>0</v>
       </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="I140" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1">
       <c r="A141" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_shaman</v>
@@ -8949,11 +9374,14 @@
       <c r="H141" t="b">
         <v>0</v>
       </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" hidden="1">
       <c r="A142" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_war_catapult</v>
@@ -8979,11 +9407,14 @@
       <c r="H142" t="b">
         <v>0</v>
       </c>
-      <c r="I142">
+      <c r="I142" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10" hidden="1">
       <c r="A143" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_siege_bow</v>
@@ -9009,11 +9440,14 @@
       <c r="H143" t="b">
         <v>0</v>
       </c>
-      <c r="I143">
+      <c r="I143" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10" hidden="1">
       <c r="A144" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_troll</v>
@@ -9039,11 +9473,14 @@
       <c r="H144" t="b">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="I144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1">
       <c r="A145" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morgul_knight</v>
@@ -9069,11 +9506,14 @@
       <c r="H145" t="b">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1">
       <c r="A146" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_guard_of_barad-dur</v>
@@ -9099,11 +9539,14 @@
       <c r="H146" t="b">
         <v>0</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1">
       <c r="A147" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] warg_rider</v>
@@ -9129,11 +9572,14 @@
       <c r="H147" t="b">
         <v>0</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1">
       <c r="A148" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morgul_stalker</v>
@@ -9159,11 +9605,14 @@
       <c r="H148" t="b">
         <v>0</v>
       </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="I148" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1">
       <c r="A149" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_numenorean</v>
@@ -9189,11 +9638,14 @@
       <c r="H149" t="b">
         <v>0</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" hidden="1">
       <c r="A150" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_uruk-hai</v>
@@ -9219,11 +9671,14 @@
       <c r="H150" t="b">
         <v>0</v>
       </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="I150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1">
       <c r="A151" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morannon_orc</v>
@@ -9249,11 +9704,14 @@
       <c r="H151" t="b">
         <v>0</v>
       </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="I151" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1">
       <c r="A152" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_warrior</v>
@@ -9279,11 +9737,14 @@
       <c r="H152" t="b">
         <v>0</v>
       </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" hidden="1">
       <c r="A153" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_tracker</v>
@@ -9309,11 +9770,14 @@
       <c r="H153" t="b">
         <v>1</v>
       </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="I153" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] druzhag</v>
@@ -9339,11 +9803,14 @@
       <c r="H154" t="b">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] ashrak</v>
@@ -9369,11 +9836,14 @@
       <c r="H155" t="b">
         <v>0</v>
       </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] groblog</v>
@@ -9399,11 +9869,14 @@
       <c r="H156" t="b">
         <v>0</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_captain</v>
@@ -9429,11 +9902,14 @@
       <c r="H157" t="b">
         <v>0</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="I157" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_captain</v>
@@ -9459,11 +9935,14 @@
       <c r="H158" t="b">
         <v>0</v>
       </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="I158" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" hidden="1">
       <c r="A159" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] the_balrog</v>
@@ -9489,11 +9968,14 @@
       <c r="H159" t="b">
         <v>0</v>
       </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1">
       <c r="A160" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] dragon</v>
@@ -9519,11 +10001,14 @@
       <c r="H160" t="b">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="I160" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" hidden="1">
       <c r="A161" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] durburz</v>
@@ -9549,11 +10034,14 @@
       <c r="H161" t="b">
         <v>0</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1">
       <c r="A162" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] the_watcher_in_the_water</v>
@@ -9579,11 +10067,14 @@
       <c r="H162" t="b">
         <v>0</v>
       </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" hidden="1">
       <c r="A163" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] cave_drake</v>
@@ -9609,11 +10100,14 @@
       <c r="H163" t="b">
         <v>0</v>
       </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" hidden="1">
       <c r="A164" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_shaman</v>
@@ -9639,11 +10133,14 @@
       <c r="H164" t="b">
         <v>0</v>
       </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="I164" t="b">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" hidden="1">
       <c r="A165" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_shaman</v>
@@ -9669,11 +10166,14 @@
       <c r="H165" t="b">
         <v>0</v>
       </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="I165" t="b">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" hidden="1">
       <c r="A166" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] dweller_in_the_dark</v>
@@ -9699,11 +10199,14 @@
       <c r="H166" t="b">
         <v>0</v>
       </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="I166" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" hidden="1">
       <c r="A167" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_drummers</v>
@@ -9729,11 +10232,14 @@
       <c r="H167" t="b">
         <v>0</v>
       </c>
-      <c r="I167">
+      <c r="I167" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167">
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10" hidden="1">
       <c r="A168" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_drum</v>
@@ -9759,11 +10265,14 @@
       <c r="H168" t="b">
         <v>0</v>
       </c>
-      <c r="I168">
+      <c r="I168" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10" hidden="1">
       <c r="A169" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] cave_troll</v>
@@ -9789,11 +10298,14 @@
       <c r="H169" t="b">
         <v>0</v>
       </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="I169" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1">
       <c r="A170" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] bat_swarm</v>
@@ -9819,11 +10331,14 @@
       <c r="H170" t="b">
         <v>0</v>
       </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="I170" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" hidden="1">
       <c r="A171" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] warg_marauder</v>
@@ -9849,11 +10364,14 @@
       <c r="H171" t="b">
         <v>1</v>
       </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="I171" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" hidden="1">
       <c r="A172" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield</v>
@@ -9879,11 +10397,14 @@
       <c r="H172" t="b">
         <v>0</v>
       </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="I172" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" hidden="1">
       <c r="A173" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_prowler</v>
@@ -9909,11 +10430,14 @@
       <c r="H173" t="b">
         <v>0</v>
       </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="I173" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" hidden="1">
       <c r="A174" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] wild_warg</v>
@@ -9939,11 +10463,14 @@
       <c r="H174" t="b">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" hidden="1">
       <c r="A175" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_warrior</v>
@@ -9969,11 +10496,14 @@
       <c r="H175" t="b">
         <v>0</v>
       </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="I175" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] elladan_&amp;_elrohir</v>
@@ -9999,11 +10529,14 @@
       <c r="H176" t="b">
         <v>0</v>
       </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] erestor</v>
@@ -10029,11 +10562,14 @@
       <c r="H177" t="b">
         <v>0</v>
       </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] cirdan</v>
@@ -10059,11 +10595,14 @@
       <c r="H178" t="b">
         <v>0</v>
       </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_captain</v>
@@ -10089,11 +10628,14 @@
       <c r="H179" t="b">
         <v>0</v>
       </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="I179" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] gildor_inglorion</v>
@@ -10119,11 +10661,14 @@
       <c r="H180" t="b">
         <v>0</v>
       </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] lindir</v>
@@ -10149,11 +10694,14 @@
       <c r="H181" t="b">
         <v>0</v>
       </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] arwen</v>
@@ -10179,11 +10727,14 @@
       <c r="H182" t="b">
         <v>0</v>
       </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" hidden="1">
       <c r="A183" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] elrond</v>
@@ -10209,11 +10760,14 @@
       <c r="H183" t="b">
         <v>0</v>
       </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" hidden="1">
       <c r="A184" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] gil-galad</v>
@@ -10239,11 +10793,14 @@
       <c r="H184" t="b">
         <v>0</v>
       </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" hidden="1">
       <c r="A185" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] glorfindel</v>
@@ -10269,11 +10826,14 @@
       <c r="H185" t="b">
         <v>0</v>
       </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" hidden="1">
       <c r="A186" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_stormcaller</v>
@@ -10299,11 +10859,14 @@
       <c r="H186" t="b">
         <v>0</v>
       </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" hidden="1">
       <c r="A187" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] rivendell_knight</v>
@@ -10329,11 +10892,14 @@
       <c r="H187" t="b">
         <v>1</v>
       </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="I187" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" hidden="1">
       <c r="A188" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_warrior</v>
@@ -10359,11 +10925,14 @@
       <c r="H188" t="b">
         <v>0</v>
       </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="I188" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" hidden="1">
       <c r="A189" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] wood_elf_warrior</v>
@@ -10389,11 +10958,14 @@
       <c r="H189" t="b">
         <v>0</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="I189" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] deorwine</v>
@@ -10419,11 +10991,14 @@
       <c r="H190" t="b">
         <v>0</v>
       </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] erkenbrand</v>
@@ -10449,11 +11024,14 @@
       <c r="H191" t="b">
         <v>0</v>
       </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="I191" t="b">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] elfhelm</v>
@@ -10479,11 +11057,14 @@
       <c r="H192" t="b">
         <v>0</v>
       </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="I192" t="b">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] grimbold</v>
@@ -10509,11 +11090,14 @@
       <c r="H193" t="b">
         <v>0</v>
       </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="4" t="str">
         <f t="shared" ref="A194:A257" si="3">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C194, " ", "_")), "] ", LOWER(SUBSTITUTE(E194, " ", "_")))</f>
         <v>[rohan] gamling</v>
@@ -10539,11 +11123,14 @@
       <c r="H194" t="b">
         <v>0</v>
       </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] hama</v>
@@ -10569,11 +11156,14 @@
       <c r="H195" t="b">
         <v>0</v>
       </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] captain_of_rohan</v>
@@ -10599,11 +11189,14 @@
       <c r="H196" t="b">
         <v>0</v>
       </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="I196" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" hidden="1">
       <c r="A197" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] helm_hammerhand</v>
@@ -10629,11 +11222,14 @@
       <c r="H197" t="b">
         <v>0</v>
       </c>
-      <c r="I197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" hidden="1">
       <c r="A198" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] theoden</v>
@@ -10659,11 +11255,14 @@
       <c r="H198" t="b">
         <v>0</v>
       </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" hidden="1">
       <c r="A199" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eorl_the_young</v>
@@ -10689,11 +11288,14 @@
       <c r="H199" t="b">
         <v>0</v>
       </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" hidden="1">
       <c r="A200" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eomer</v>
@@ -10719,11 +11321,14 @@
       <c r="H200" t="b">
         <v>0</v>
       </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" hidden="1">
       <c r="A201" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] theodred</v>
@@ -10749,11 +11354,14 @@
       <c r="H201" t="b">
         <v>0</v>
       </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" hidden="1">
       <c r="A202" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] aldor</v>
@@ -10779,11 +11387,14 @@
       <c r="H202" t="b">
         <v>1</v>
       </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" hidden="1">
       <c r="A203" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] haleth</v>
@@ -10809,11 +11420,14 @@
       <c r="H203" t="b">
         <v>0</v>
       </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" hidden="1">
       <c r="A204" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] merry</v>
@@ -10839,11 +11453,14 @@
       <c r="H204" t="b">
         <v>0</v>
       </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" hidden="1">
       <c r="A205" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] dernhelm</v>
@@ -10869,11 +11486,14 @@
       <c r="H205" t="b">
         <v>0</v>
       </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" hidden="1">
       <c r="A206" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] king's_huntsman</v>
@@ -10899,11 +11519,14 @@
       <c r="H206" t="b">
         <v>1</v>
       </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" hidden="1">
       <c r="A207" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eowyn</v>
@@ -10929,11 +11552,14 @@
       <c r="H207" t="b">
         <v>0</v>
       </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" hidden="1">
       <c r="A208" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] son_of_eorl</v>
@@ -10959,11 +11585,14 @@
       <c r="H208" t="b">
         <v>0</v>
       </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="I208" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" hidden="1">
       <c r="A209" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rider_of_rohan</v>
@@ -10989,11 +11618,14 @@
       <c r="H209" t="b">
         <v>0</v>
       </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="I209" t="b">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" hidden="1">
       <c r="A210" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rohan_royal_guard</v>
@@ -11019,11 +11651,14 @@
       <c r="H210" t="b">
         <v>0</v>
       </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="I210" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" hidden="1">
       <c r="A211" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rohan_outrider</v>
@@ -11049,11 +11684,14 @@
       <c r="H211" t="b">
         <v>1</v>
       </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="I211" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" hidden="1">
       <c r="A212" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] warrior_of_rohan</v>
@@ -11079,11 +11717,14 @@
       <c r="H212" t="b">
         <v>0</v>
       </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="I212" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] herald_of_the_dead</v>
@@ -11109,11 +11750,14 @@
       <c r="H213" t="b">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="I213" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] warrior_of_the_dead</v>
@@ -11139,11 +11783,14 @@
       <c r="H214" t="b">
         <v>0</v>
       </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="I214" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" hidden="1">
       <c r="A215" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] the_king_of_the_dead</v>
@@ -11169,11 +11816,14 @@
       <c r="H215" t="b">
         <v>0</v>
       </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" hidden="1">
       <c r="A216" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] rider_of_the_dead</v>
@@ -11199,11 +11849,14 @@
       <c r="H216" t="b">
         <v>0</v>
       </c>
-      <c r="I216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="I216" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" hidden="1">
       <c r="A217" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] warrior_of_the_dead</v>
@@ -11229,11 +11882,14 @@
       <c r="H217" t="b">
         <v>0</v>
       </c>
-      <c r="I217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+      <c r="I217" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] brorgir</v>
@@ -11259,11 +11915,14 @@
       <c r="H218" t="b">
         <v>0</v>
       </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_war_priest</v>
@@ -11289,11 +11948,14 @@
       <c r="H219" t="b">
         <v>0</v>
       </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+      <c r="I219" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_captain</v>
@@ -11319,11 +11981,14 @@
       <c r="H220" t="b">
         <v>0</v>
       </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="I220" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" hidden="1">
       <c r="A221" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] the_dragon_emperor</v>
@@ -11349,11 +12014,14 @@
       <c r="H221" t="b">
         <v>0</v>
       </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" hidden="1">
       <c r="A222" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] amdur</v>
@@ -11379,11 +12047,14 @@
       <c r="H222" t="b">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" hidden="1">
       <c r="A223" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] khamul</v>
@@ -11409,11 +12080,14 @@
       <c r="H223" t="b">
         <v>0</v>
       </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1">
       <c r="A224" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] rutabi</v>
@@ -11439,11 +12113,14 @@
       <c r="H224" t="b">
         <v>0</v>
       </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1">
       <c r="A225" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_dragon_knight</v>
@@ -11469,11 +12146,14 @@
       <c r="H225" t="b">
         <v>0</v>
       </c>
-      <c r="I225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1">
       <c r="A226" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] rhunish_war_drake</v>
@@ -11499,11 +12179,14 @@
       <c r="H226" t="b">
         <v>0</v>
       </c>
-      <c r="I226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="I226" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1">
       <c r="A227" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] black_dragon_kataphrakt</v>
@@ -11529,11 +12212,14 @@
       <c r="H227" t="b">
         <v>0</v>
       </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="I227" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" hidden="1">
       <c r="A228" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_kataphrakt</v>
@@ -11559,11 +12245,14 @@
       <c r="H228" t="b">
         <v>0</v>
       </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="I228" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" hidden="1">
       <c r="A229" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] dragon_cult_acolyte</v>
@@ -11589,11 +12278,14 @@
       <c r="H229" t="b">
         <v>0</v>
       </c>
-      <c r="I229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="I229" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1">
       <c r="A230" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] black_dragon_warrior</v>
@@ -11619,11 +12311,14 @@
       <c r="H230" t="b">
         <v>0</v>
       </c>
-      <c r="I230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="I230" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1">
       <c r="A231" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_warrior</v>
@@ -11649,11 +12344,14 @@
       <c r="H231" t="b">
         <v>0</v>
       </c>
-      <c r="I231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="I231" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] frodo_baggins</v>
@@ -11679,11 +12377,14 @@
       <c r="H232" t="b">
         <v>0</v>
       </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] samwise_gamgee</v>
@@ -11709,11 +12410,14 @@
       <c r="H233" t="b">
         <v>0</v>
       </c>
-      <c r="I233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" hidden="1">
       <c r="A234" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] gandalf_the_grey</v>
@@ -11739,11 +12443,14 @@
       <c r="H234" t="b">
         <v>0</v>
       </c>
-      <c r="I234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" hidden="1">
       <c r="A235" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] aragorn,_strider</v>
@@ -11769,11 +12476,14 @@
       <c r="H235" t="b">
         <v>0</v>
       </c>
-      <c r="I235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" hidden="1">
       <c r="A236" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] legolas</v>
@@ -11799,11 +12509,14 @@
       <c r="H236" t="b">
         <v>0</v>
       </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" hidden="1">
       <c r="A237" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] gimli</v>
@@ -11829,11 +12542,14 @@
       <c r="H237" t="b">
         <v>0</v>
       </c>
-      <c r="I237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" hidden="1">
       <c r="A238" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] boromir_of_gondor</v>
@@ -11859,11 +12575,14 @@
       <c r="H238" t="b">
         <v>0</v>
       </c>
-      <c r="I238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1">
       <c r="A239" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] smeagol</v>
@@ -11889,11 +12608,14 @@
       <c r="H239" t="b">
         <v>0</v>
       </c>
-      <c r="I239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" hidden="1">
       <c r="A240" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] bill_the_pony</v>
@@ -11919,11 +12641,14 @@
       <c r="H240" t="b">
         <v>0</v>
       </c>
-      <c r="I240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" hidden="1">
       <c r="A241" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] meriadoc_brandybuck</v>
@@ -11949,11 +12674,14 @@
       <c r="H241" t="b">
         <v>0</v>
       </c>
-      <c r="I241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" hidden="1">
       <c r="A242" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] peregrin_took</v>
@@ -11979,11 +12707,14 @@
       <c r="H242" t="b">
         <v>0</v>
       </c>
-      <c r="I242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
       <c r="A243" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] captain_of_dol_amroth</v>
@@ -12009,11 +12740,14 @@
       <c r="H243" t="b">
         <v>0</v>
       </c>
-      <c r="I243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="I243" t="b">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" hidden="1">
       <c r="A244" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] prince_imrahil</v>
@@ -12039,11 +12773,14 @@
       <c r="H244" t="b">
         <v>0</v>
       </c>
-      <c r="I244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" hidden="1">
       <c r="A245" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] forlong_the_fat</v>
@@ -12069,11 +12806,14 @@
       <c r="H245" t="b">
         <v>0</v>
       </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" hidden="1">
       <c r="A246" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] angbor_the_fearless</v>
@@ -12099,11 +12839,14 @@
       <c r="H246" t="b">
         <v>0</v>
       </c>
-      <c r="I246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" hidden="1">
       <c r="A247" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] duinhir</v>
@@ -12129,11 +12872,14 @@
       <c r="H247" t="b">
         <v>0</v>
       </c>
-      <c r="I247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" hidden="1">
       <c r="A248" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] knight_of_dol_amroth</v>
@@ -12159,11 +12905,14 @@
       <c r="H248" t="b">
         <v>0</v>
       </c>
-      <c r="I248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="I248" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" hidden="1">
       <c r="A249" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] axeman_of_lossarnach</v>
@@ -12189,11 +12938,14 @@
       <c r="H249" t="b">
         <v>0</v>
       </c>
-      <c r="I249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="I249" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" hidden="1">
       <c r="A250" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] man-at-arms_of_dol_amroth</v>
@@ -12219,11 +12971,14 @@
       <c r="H250" t="b">
         <v>0</v>
       </c>
-      <c r="I250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="I250" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" hidden="1">
       <c r="A251" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] blackroot_vale_archer</v>
@@ -12249,11 +13004,14 @@
       <c r="H251" t="b">
         <v>1</v>
       </c>
-      <c r="I251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="I251" t="b">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" hidden="1">
       <c r="A252" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] clansman_of_lamedon</v>
@@ -12279,11 +13037,14 @@
       <c r="H252" t="b">
         <v>0</v>
       </c>
-      <c r="I252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="I252" t="b">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
       <c r="A253" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] brorgir</v>
@@ -12309,11 +13070,14 @@
       <c r="H253" t="b">
         <v>0</v>
       </c>
-      <c r="I253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
       <c r="A254" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] easterling_war_priest</v>
@@ -12339,11 +13103,14 @@
       <c r="H254" t="b">
         <v>0</v>
       </c>
-      <c r="I254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="I254" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
       <c r="A255" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] easterling_captain</v>
@@ -12369,11 +13136,14 @@
       <c r="H255" t="b">
         <v>0</v>
       </c>
-      <c r="I255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="I255" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" hidden="1">
       <c r="A256" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] the_dragon_emperor</v>
@@ -12399,11 +13169,14 @@
       <c r="H256" t="b">
         <v>0</v>
       </c>
-      <c r="I256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" hidden="1">
       <c r="A257" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] rutabi</v>
@@ -12429,11 +13202,14 @@
       <c r="H257" t="b">
         <v>0</v>
       </c>
-      <c r="I257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" hidden="1">
       <c r="A258" s="4" t="str">
         <f t="shared" ref="A258:A308" si="4">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C258, " ", "_")), "] ", LOWER(SUBSTITUTE(E258, " ", "_")))</f>
         <v>[the_host_of_the_dragon_emperor] easterling_dragon_knight</v>
@@ -12459,11 +13235,14 @@
       <c r="H258" t="b">
         <v>0</v>
       </c>
-      <c r="I258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" hidden="1">
       <c r="A259" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] rhunish_war_drake</v>
@@ -12489,11 +13268,14 @@
       <c r="H259" t="b">
         <v>0</v>
       </c>
-      <c r="I259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
+      <c r="I259" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" hidden="1">
       <c r="A260" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] easterling_kataphrakt</v>
@@ -12519,11 +13301,14 @@
       <c r="H260" t="b">
         <v>0</v>
       </c>
-      <c r="I260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
+      <c r="I260" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1">
       <c r="A261" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] black_dragon_kataphrakt</v>
@@ -12549,11 +13334,14 @@
       <c r="H261" t="b">
         <v>0</v>
       </c>
-      <c r="I261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
+      <c r="I261" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" hidden="1">
       <c r="A262" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] dragon_cult_acolyte</v>
@@ -12579,11 +13367,14 @@
       <c r="H262" t="b">
         <v>0</v>
       </c>
-      <c r="I262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
+      <c r="I262" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" hidden="1">
       <c r="A263" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] easterling_warrior</v>
@@ -12609,11 +13400,14 @@
       <c r="H263" t="b">
         <v>0</v>
       </c>
-      <c r="I263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
+      <c r="I263" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" hidden="1">
       <c r="A264" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] black_dragon_warrior</v>
@@ -12639,11 +13433,14 @@
       <c r="H264" t="b">
         <v>0</v>
       </c>
-      <c r="I264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="I264" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
       <c r="A265" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] king's_champion</v>
@@ -12669,11 +13466,14 @@
       <c r="H265" t="b">
         <v>0</v>
       </c>
-      <c r="I265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
+      <c r="I265" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
       <c r="A266" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] mardin</v>
@@ -12699,11 +13499,14 @@
       <c r="H266" t="b">
         <v>0</v>
       </c>
-      <c r="I266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
       <c r="A267" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_king</v>
@@ -12729,11 +13532,14 @@
       <c r="H267" t="b">
         <v>0</v>
       </c>
-      <c r="I267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="I267" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
       <c r="A268" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_captain</v>
@@ -12759,11 +13565,14 @@
       <c r="H268" t="b">
         <v>0</v>
       </c>
-      <c r="I268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="I268" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" hidden="1">
       <c r="A269" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] durin</v>
@@ -12789,11 +13598,14 @@
       <c r="H269" t="b">
         <v>0</v>
       </c>
-      <c r="I269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" hidden="1">
       <c r="A270" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] shieldbearer</v>
@@ -12819,11 +13631,14 @@
       <c r="H270" t="b">
         <v>0</v>
       </c>
-      <c r="I270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" hidden="1">
       <c r="A271" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ballista</v>
@@ -12849,11 +13664,14 @@
       <c r="H271" t="b">
         <v>0</v>
       </c>
-      <c r="I271">
+      <c r="I271" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271">
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:10" hidden="1">
       <c r="A272" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] vault_warden_team</v>
@@ -12879,11 +13697,14 @@
       <c r="H272" t="b">
         <v>0</v>
       </c>
-      <c r="I272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
+      <c r="I272" t="b">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" hidden="1">
       <c r="A273" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] iron_guard</v>
@@ -12909,11 +13730,14 @@
       <c r="H273" t="b">
         <v>0</v>
       </c>
-      <c r="I273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
+      <c r="I273" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" hidden="1">
       <c r="A274" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] khazad_guard</v>
@@ -12939,11 +13763,14 @@
       <c r="H274" t="b">
         <v>0</v>
       </c>
-      <c r="I274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
+      <c r="I274" t="b">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" hidden="1">
       <c r="A275" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ranger</v>
@@ -12969,11 +13796,14 @@
       <c r="H275" t="b">
         <v>0</v>
       </c>
-      <c r="I275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
+      <c r="I275" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" hidden="1">
       <c r="A276" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_warrior</v>
@@ -12999,11 +13829,14 @@
       <c r="H276" t="b">
         <v>0</v>
       </c>
-      <c r="I276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
+      <c r="I276" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
       <c r="A277" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] king's_champion</v>
@@ -13029,11 +13862,14 @@
       <c r="H277" t="b">
         <v>0</v>
       </c>
-      <c r="I277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
+      <c r="I277" t="b">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
       <c r="A278" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] floi_stonehand</v>
@@ -13059,11 +13895,14 @@
       <c r="H278" t="b">
         <v>0</v>
       </c>
-      <c r="I278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
+      <c r="I278" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10">
       <c r="A279" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_king</v>
@@ -13089,11 +13928,14 @@
       <c r="H279" t="b">
         <v>0</v>
       </c>
-      <c r="I279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
+      <c r="I279" t="b">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10">
       <c r="A280" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_captain</v>
@@ -13119,11 +13961,14 @@
       <c r="H280" t="b">
         <v>0</v>
       </c>
-      <c r="I280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
+      <c r="I280" t="b">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" hidden="1">
       <c r="A281" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] balin</v>
@@ -13149,11 +13994,14 @@
       <c r="H281" t="b">
         <v>0</v>
       </c>
-      <c r="I281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9">
+      <c r="I281" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" hidden="1">
       <c r="A282" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] gimli</v>
@@ -13179,11 +14027,14 @@
       <c r="H282" t="b">
         <v>0</v>
       </c>
-      <c r="I282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
+      <c r="I282" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" hidden="1">
       <c r="A283" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] shieldbearer</v>
@@ -13209,11 +14060,14 @@
       <c r="H283" t="b">
         <v>0</v>
       </c>
-      <c r="I283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
+      <c r="I283" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" hidden="1">
       <c r="A284" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_ballista</v>
@@ -13239,11 +14093,14 @@
       <c r="H284" t="b">
         <v>0</v>
       </c>
-      <c r="I284">
+      <c r="I284" t="b">
+        <v>0</v>
+      </c>
+      <c r="J284">
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:10" hidden="1">
       <c r="A285" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] vault_warden_team</v>
@@ -13269,11 +14126,14 @@
       <c r="H285" t="b">
         <v>0</v>
       </c>
-      <c r="I285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
+      <c r="I285" t="b">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" hidden="1">
       <c r="A286" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] iron_guard</v>
@@ -13299,11 +14159,14 @@
       <c r="H286" t="b">
         <v>0</v>
       </c>
-      <c r="I286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
+      <c r="I286" t="b">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" hidden="1">
       <c r="A287" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] khazad_guard</v>
@@ -13329,11 +14192,14 @@
       <c r="H287" t="b">
         <v>0</v>
       </c>
-      <c r="I287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
+      <c r="I287" t="b">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" hidden="1">
       <c r="A288" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_ranger</v>
@@ -13359,11 +14225,14 @@
       <c r="H288" t="b">
         <v>0</v>
       </c>
-      <c r="I288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
+      <c r="I288" t="b">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" hidden="1">
       <c r="A289" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_warrior</v>
@@ -13389,11 +14258,14 @@
       <c r="H289" t="b">
         <v>0</v>
       </c>
-      <c r="I289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
+      <c r="I289" t="b">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
       <c r="A290" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] herald_of_the_dead</v>
@@ -13419,11 +14291,14 @@
       <c r="H290" t="b">
         <v>0</v>
       </c>
-      <c r="I290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
+      <c r="I290" t="b">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" hidden="1">
       <c r="A291" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] aragorn,_strider</v>
@@ -13449,11 +14324,14 @@
       <c r="H291" t="b">
         <v>0</v>
       </c>
-      <c r="I291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
+      <c r="I291" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" hidden="1">
       <c r="A292" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] the_king_of_the_dead</v>
@@ -13479,11 +14357,14 @@
       <c r="H292" t="b">
         <v>0</v>
       </c>
-      <c r="I292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
+      <c r="I292" t="b">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" hidden="1">
       <c r="A293" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] legolas</v>
@@ -13509,11 +14390,14 @@
       <c r="H293" t="b">
         <v>0</v>
       </c>
-      <c r="I293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
+      <c r="I293" t="b">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" hidden="1">
       <c r="A294" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] gimli</v>
@@ -13539,11 +14423,14 @@
       <c r="H294" t="b">
         <v>0</v>
       </c>
-      <c r="I294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
+      <c r="I294" t="b">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" hidden="1">
       <c r="A295" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] rider_of_the_dead</v>
@@ -13569,11 +14456,14 @@
       <c r="H295" t="b">
         <v>0</v>
       </c>
-      <c r="I295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
+      <c r="I295" t="b">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" hidden="1">
       <c r="A296" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] warrior_of_the_dead</v>
@@ -13599,11 +14489,14 @@
       <c r="H296" t="b">
         <v>0</v>
       </c>
-      <c r="I296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
+      <c r="I296" t="b">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
       <c r="A297" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] hasharin</v>
@@ -13629,11 +14522,14 @@
       <c r="H297" t="b">
         <v>0</v>
       </c>
-      <c r="I297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
+      <c r="I297" t="b">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10">
       <c r="A298" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_king</v>
@@ -13659,11 +14555,14 @@
       <c r="H298" t="b">
         <v>0</v>
       </c>
-      <c r="I298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
+      <c r="I298" t="b">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10">
       <c r="A299" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_chieftan</v>
@@ -13689,11 +14588,14 @@
       <c r="H299" t="b">
         <v>0</v>
       </c>
-      <c r="I299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
+      <c r="I299" t="b">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" hidden="1">
       <c r="A300" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] suladan</v>
@@ -13719,11 +14621,14 @@
       <c r="H300" t="b">
         <v>0</v>
       </c>
-      <c r="I300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
+      <c r="I300" t="b">
+        <v>1</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" hidden="1">
       <c r="A301" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] the_golden_king</v>
@@ -13749,11 +14654,14 @@
       <c r="H301" t="b">
         <v>0</v>
       </c>
-      <c r="I301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
+      <c r="I301" t="b">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" hidden="1">
       <c r="A302" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] the_betrayer</v>
@@ -13779,11 +14687,14 @@
       <c r="H302" t="b">
         <v>0</v>
       </c>
-      <c r="I302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
+      <c r="I302" t="b">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" hidden="1">
       <c r="A303" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] serpent_rider</v>
@@ -13809,11 +14720,14 @@
       <c r="H303" t="b">
         <v>0</v>
       </c>
-      <c r="I303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
+      <c r="I303" t="b">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" hidden="1">
       <c r="A304" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_raider</v>
@@ -13839,11 +14753,14 @@
       <c r="H304" t="b">
         <v>0</v>
       </c>
-      <c r="I304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
+      <c r="I304" t="b">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" hidden="1">
       <c r="A305" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] abrakhan_merchant_guard</v>
@@ -13869,11 +14786,14 @@
       <c r="H305" t="b">
         <v>0</v>
       </c>
-      <c r="I305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
+      <c r="I305" t="b">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" hidden="1">
       <c r="A306" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] watcher_of_karna</v>
@@ -13899,11 +14819,14 @@
       <c r="H306" t="b">
         <v>0</v>
       </c>
-      <c r="I306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
+      <c r="I306" t="b">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" hidden="1">
       <c r="A307" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] serpent_guard</v>
@@ -13929,11 +14852,14 @@
       <c r="H307" t="b">
         <v>0</v>
       </c>
-      <c r="I307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
+      <c r="I307" t="b">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" hidden="1">
       <c r="A308" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_warrior</v>
@@ -13959,13 +14885,22 @@
       <c r="H308" t="b">
         <v>0</v>
       </c>
-      <c r="I308">
+      <c r="I308" t="b">
+        <v>0</v>
+      </c>
+      <c r="J308">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I308" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I308">
+  <autoFilter ref="A1:J308" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Hero of Fortitude"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J308">
     <sortCondition ref="C2:C308"/>
     <sortCondition ref="F2:F308"/>
     <sortCondition descending="1" ref="G2:G308"/>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69621A8-8AFA-4CD6-970A-550D73C0EE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44293550-50C2-4FFD-A2B6-AFB58EB17209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$C$189</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$332</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$511</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4723" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4974" uniqueCount="1426">
   <si>
     <t>faction</t>
   </si>
@@ -4258,6 +4258,201 @@
   </si>
   <si>
     <t>unique</t>
+  </si>
+  <si>
+    <t>Baldo Tulpenny</t>
+  </si>
+  <si>
+    <t>Bandobras Took</t>
+  </si>
+  <si>
+    <t>Bilbo Baggins</t>
+  </si>
+  <si>
+    <t>Farmer Maggot</t>
+  </si>
+  <si>
+    <t>Farmer Tolman Cotton</t>
+  </si>
+  <si>
+    <t>Folco Boffin</t>
+  </si>
+  <si>
+    <t>Fredegar Bolger</t>
+  </si>
+  <si>
+    <t>Frodo of the Nine Fingers</t>
+  </si>
+  <si>
+    <t>Grip, Fang and Wolf</t>
+  </si>
+  <si>
+    <t>Hamfast 'Gaffer' Gamgee</t>
+  </si>
+  <si>
+    <t>Hobbit Archer</t>
+  </si>
+  <si>
+    <t>Hobbit Militia</t>
+  </si>
+  <si>
+    <t>Battlin' Brandybucks</t>
+  </si>
+  <si>
+    <t>Holfoot Bracegirdle</t>
+  </si>
+  <si>
+    <t>Lobelia Sackville-Baggins</t>
+  </si>
+  <si>
+    <t>Lotho Sackville-Baggins</t>
+  </si>
+  <si>
+    <t>Meriadoc, Captain of the Shire</t>
+  </si>
+  <si>
+    <t>Paladin Took</t>
+  </si>
+  <si>
+    <t>Peregrin, Captain of the Shire</t>
+  </si>
+  <si>
+    <t>Robin Smallburrow</t>
+  </si>
+  <si>
+    <t>Rosie Cotton</t>
+  </si>
+  <si>
+    <t>Samwise the Brave</t>
+  </si>
+  <si>
+    <t>Will Whitfoot</t>
+  </si>
+  <si>
+    <t>OPT0531</t>
+  </si>
+  <si>
+    <t>OPT0532</t>
+  </si>
+  <si>
+    <t>OPT0533</t>
+  </si>
+  <si>
+    <t>OPT0534</t>
+  </si>
+  <si>
+    <t>OPT0535</t>
+  </si>
+  <si>
+    <t>OPT0536</t>
+  </si>
+  <si>
+    <t>OPT0537</t>
+  </si>
+  <si>
+    <t>OPT0538</t>
+  </si>
+  <si>
+    <t>OPT0539</t>
+  </si>
+  <si>
+    <t>OPT0540</t>
+  </si>
+  <si>
+    <t>OPT0541</t>
+  </si>
+  <si>
+    <t>OPT0542</t>
+  </si>
+  <si>
+    <t>OPT0543</t>
+  </si>
+  <si>
+    <t>OPT0544</t>
+  </si>
+  <si>
+    <t>OPT0545</t>
+  </si>
+  <si>
+    <t>OPT0546</t>
+  </si>
+  <si>
+    <t>[the_shire] gandalf_the_grey</t>
+  </si>
+  <si>
+    <t>[the_shire] baldo_tulpenny</t>
+  </si>
+  <si>
+    <t>[the_shire] bandobras_took</t>
+  </si>
+  <si>
+    <t>[the_shire] bilbo_baggins</t>
+  </si>
+  <si>
+    <t>[the_shire] farmer_maggot</t>
+  </si>
+  <si>
+    <t>[the_shire] farmer_tolman_cotton</t>
+  </si>
+  <si>
+    <t>[the_shire] folco_boffin</t>
+  </si>
+  <si>
+    <t>[the_shire] fredegar_bolger</t>
+  </si>
+  <si>
+    <t>[the_shire] frodo_of_the_nine_fingers</t>
+  </si>
+  <si>
+    <t>[the_shire] hamfast_'gaffer'_gamgee</t>
+  </si>
+  <si>
+    <t>[the_shire] holfoot_bracegirdle</t>
+  </si>
+  <si>
+    <t>[the_shire] lobelia_sackville-baggins</t>
+  </si>
+  <si>
+    <t>[the_shire] lotho_sackville-baggins</t>
+  </si>
+  <si>
+    <t>[the_shire] meriadoc,_captain_of_the_shire</t>
+  </si>
+  <si>
+    <t>[the_shire] paladin_took</t>
+  </si>
+  <si>
+    <t>[the_shire] peregrin,_captain_of_the_shire</t>
+  </si>
+  <si>
+    <t>[the_shire] robin_smallburrow</t>
+  </si>
+  <si>
+    <t>[the_shire] rosie_cotton</t>
+  </si>
+  <si>
+    <t>[the_shire] samwise_the_brave</t>
+  </si>
+  <si>
+    <t>[the_shire] will_whitfoot</t>
+  </si>
+  <si>
+    <t>Hobbit Shirriff</t>
+  </si>
+  <si>
+    <t>['[the_shire] hobbit_archer', '[the_shire] hobbit_militia', '[the_shire] rosie_cotton', '[the_shire] hobbit_shirriff']</t>
+  </si>
+  <si>
+    <t>['[the_shire] grip,_fang_and_wolf', '[the_shire] hobbit_archer', '[the_shire] hobbit_militia', '[the_shire] rosie_cotton', '[the_shire] hobbit_shirriff']</t>
+  </si>
+  <si>
+    <t>["Battlin' Brandybucks"]</t>
+  </si>
+  <si>
+    <t>['Tookish Hunters']</t>
+  </si>
+  <si>
+    <t>Tookish Hunters</t>
   </si>
 </sst>
 </file>
@@ -4357,7 +4552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4391,6 +4586,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4707,25 +4905,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J308"/>
+  <dimension ref="A1:J332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I290" sqref="I290"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G323" sqref="G323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4926,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] witch_king</v>
@@ -4959,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] gulavhar</v>
@@ -4992,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_dwimmerlaik</v>
@@ -5025,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_tainted</v>
@@ -5058,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] buhrdur</v>
@@ -5091,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_shaman</v>
@@ -5124,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] cave_troll</v>
@@ -5157,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] dead_marsh_spectre</v>
@@ -5190,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_warg_rider</v>
@@ -5223,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] wild_warg</v>
@@ -5256,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_warrior</v>
@@ -5454,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] sauron</v>
@@ -5487,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] witch_king</v>
@@ -5520,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] shelob</v>
@@ -5553,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_drummer</v>
@@ -5586,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_shaman</v>
@@ -5619,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_war_catapult</v>
@@ -5652,7 +5850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_siege_bow</v>
@@ -5685,7 +5883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_troll</v>
@@ -5718,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] morgul_knight</v>
@@ -5751,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] warg_rider</v>
@@ -5784,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] black_numenorean</v>
@@ -5817,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_tracker</v>
@@ -5850,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_warrior</v>
@@ -5883,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[halls_of_thranduil] thranduil</v>
@@ -6345,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] saruman</v>
@@ -6378,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] lurtz</v>
@@ -6411,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_drummer</v>
@@ -6444,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] grima</v>
@@ -6477,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_shaman</v>
@@ -6510,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] isengard_assault_ballista</v>
@@ -6543,7 +6741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] isengard_troll</v>
@@ -6576,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_demolition_team</v>
@@ -6609,7 +6807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] crebain</v>
@@ -6642,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_berserker</v>
@@ -6675,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] feral_uruk-hai</v>
@@ -6708,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_horseman</v>
@@ -6741,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_huscarl</v>
@@ -6774,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] warg_rider</v>
@@ -6807,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_warrior</v>
@@ -6840,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_scout</v>
@@ -6873,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="4" t="str">
         <f t="shared" ref="A66:A129" si="1">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C66, " ", "_")), "] ", LOWER(SUBSTITUTE(E66, " ", "_")))</f>
         <v>[isengard] dunlending_warrior</v>
@@ -6906,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10">
       <c r="A67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[isengard] wild_man_of_dunland</v>
@@ -6939,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10">
       <c r="A68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[isengard] orc_warrior</v>
@@ -7137,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10">
       <c r="A74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadriel</v>
@@ -7170,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10">
       <c r="A75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] celeborn</v>
@@ -7203,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10">
       <c r="A76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_stormcaller</v>
@@ -7236,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10">
       <c r="A77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_sentinel</v>
@@ -7269,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10">
       <c r="A78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_knight</v>
@@ -7302,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10">
       <c r="A79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] guard_of_the_galadhrim_court</v>
@@ -7335,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10">
       <c r="A80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_warrior</v>
@@ -7368,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1">
+    <row r="81" spans="1:10">
       <c r="A81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_warrior</v>
@@ -7632,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10">
       <c r="A89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] aragorn,_king_elessar</v>
@@ -7665,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10">
       <c r="A90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] gandalf_the_white</v>
@@ -7698,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10">
       <c r="A91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] boromir</v>
@@ -7731,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10">
       <c r="A92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] faramir</v>
@@ -7764,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10">
       <c r="A93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] hurin</v>
@@ -7797,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10">
       <c r="A94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] denethor</v>
@@ -7830,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1">
+    <row r="95" spans="1:10">
       <c r="A95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] pippin</v>
@@ -7863,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10">
       <c r="A96" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] anborn</v>
@@ -7896,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10">
       <c r="A97" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] mablung</v>
@@ -7929,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10">
       <c r="A98" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] beregond</v>
@@ -7962,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10">
       <c r="A99" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] damrod</v>
@@ -7995,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1">
+    <row r="100" spans="1:10">
       <c r="A100" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] gondor_battlecry_trebuchet</v>
@@ -8028,7 +8226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10">
       <c r="A101" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] avenger_bolt_thrower</v>
@@ -8061,7 +8259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10">
       <c r="A102" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] knight_of_minas_tirith</v>
@@ -8094,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1">
+    <row r="103" spans="1:10">
       <c r="A103" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] guard_of_the_fountain_court</v>
@@ -8127,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1">
+    <row r="104" spans="1:10">
       <c r="A104" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] citadel_guard</v>
@@ -8160,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1">
+    <row r="105" spans="1:10">
       <c r="A105" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] osgiliath_veteran</v>
@@ -8193,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1">
+    <row r="106" spans="1:10">
       <c r="A106" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] ranger_of_gondor</v>
@@ -8226,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1">
+    <row r="107" spans="1:10">
       <c r="A107" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] warrior_of_minas_tirith</v>
@@ -8853,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1">
+    <row r="126" spans="1:10">
       <c r="A126" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] witch_king</v>
@@ -8886,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1">
+    <row r="127" spans="1:10">
       <c r="A127" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gothmog</v>
@@ -8919,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1">
+    <row r="128" spans="1:10">
       <c r="A128" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] khamul</v>
@@ -8952,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1">
+    <row r="129" spans="1:10">
       <c r="A129" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] the_betrayer</v>
@@ -8985,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1">
+    <row r="130" spans="1:10">
       <c r="A130" s="4" t="str">
         <f t="shared" ref="A130:A193" si="2">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C130, " ", "_")), "] ", LOWER(SUBSTITUTE(E130, " ", "_")))</f>
         <v>[mordor] the_dark_marshall</v>
@@ -9018,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1">
+    <row r="131" spans="1:10">
       <c r="A131" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_knight_of_umbar</v>
@@ -9051,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1">
+    <row r="132" spans="1:10">
       <c r="A132" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_shadow_lord</v>
@@ -9084,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1">
+    <row r="133" spans="1:10">
       <c r="A133" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_undying</v>
@@ -9117,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1">
+    <row r="134" spans="1:10">
       <c r="A134" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_dwimmerlaik</v>
@@ -9150,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1">
+    <row r="135" spans="1:10">
       <c r="A135" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_tainted</v>
@@ -9183,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1">
+    <row r="136" spans="1:10">
       <c r="A136" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] razgush</v>
@@ -9216,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1">
+    <row r="137" spans="1:10">
       <c r="A137" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mouth_of_sauron</v>
@@ -9249,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1">
+    <row r="138" spans="1:10">
       <c r="A138" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] shelob</v>
@@ -9282,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1">
+    <row r="139" spans="1:10">
       <c r="A139" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_guard_drummer</v>
@@ -9315,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1">
+    <row r="140" spans="1:10">
       <c r="A140" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_drummer</v>
@@ -9348,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1">
+    <row r="141" spans="1:10">
       <c r="A141" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_shaman</v>
@@ -9381,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1">
+    <row r="142" spans="1:10">
       <c r="A142" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_war_catapult</v>
@@ -9414,7 +9612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1">
+    <row r="143" spans="1:10">
       <c r="A143" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_siege_bow</v>
@@ -9447,7 +9645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1">
+    <row r="144" spans="1:10">
       <c r="A144" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_troll</v>
@@ -9480,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1">
+    <row r="145" spans="1:10">
       <c r="A145" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morgul_knight</v>
@@ -9513,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1">
+    <row r="146" spans="1:10">
       <c r="A146" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_guard_of_barad-dur</v>
@@ -9546,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1">
+    <row r="147" spans="1:10">
       <c r="A147" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] warg_rider</v>
@@ -9579,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1">
+    <row r="148" spans="1:10">
       <c r="A148" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morgul_stalker</v>
@@ -9612,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1">
+    <row r="149" spans="1:10">
       <c r="A149" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_numenorean</v>
@@ -9645,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1">
+    <row r="150" spans="1:10">
       <c r="A150" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_uruk-hai</v>
@@ -9678,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1">
+    <row r="151" spans="1:10">
       <c r="A151" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morannon_orc</v>
@@ -9711,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1">
+    <row r="152" spans="1:10">
       <c r="A152" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_warrior</v>
@@ -9744,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1">
+    <row r="153" spans="1:10">
       <c r="A153" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_tracker</v>
@@ -9942,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1">
+    <row r="159" spans="1:10">
       <c r="A159" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] the_balrog</v>
@@ -9975,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1">
+    <row r="160" spans="1:10">
       <c r="A160" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] dragon</v>
@@ -10008,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1">
+    <row r="161" spans="1:10">
       <c r="A161" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] durburz</v>
@@ -10041,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1">
+    <row r="162" spans="1:10">
       <c r="A162" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] the_watcher_in_the_water</v>
@@ -10074,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1">
+    <row r="163" spans="1:10">
       <c r="A163" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] cave_drake</v>
@@ -10107,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1">
+    <row r="164" spans="1:10">
       <c r="A164" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_shaman</v>
@@ -10140,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1">
+    <row r="165" spans="1:10">
       <c r="A165" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_shaman</v>
@@ -10173,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1">
+    <row r="166" spans="1:10">
       <c r="A166" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] dweller_in_the_dark</v>
@@ -10206,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1">
+    <row r="167" spans="1:10">
       <c r="A167" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_drummers</v>
@@ -10239,7 +10437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1">
+    <row r="168" spans="1:10">
       <c r="A168" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_drum</v>
@@ -10272,7 +10470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1">
+    <row r="169" spans="1:10">
       <c r="A169" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] cave_troll</v>
@@ -10305,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1">
+    <row r="170" spans="1:10">
       <c r="A170" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] bat_swarm</v>
@@ -10338,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1">
+    <row r="171" spans="1:10">
       <c r="A171" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] warg_marauder</v>
@@ -10371,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1">
+    <row r="172" spans="1:10">
       <c r="A172" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield</v>
@@ -10404,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1">
+    <row r="173" spans="1:10">
       <c r="A173" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_prowler</v>
@@ -10437,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1">
+    <row r="174" spans="1:10">
       <c r="A174" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] wild_warg</v>
@@ -10470,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1">
+    <row r="175" spans="1:10">
       <c r="A175" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_warrior</v>
@@ -10734,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1">
+    <row r="183" spans="1:10">
       <c r="A183" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] elrond</v>
@@ -10767,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1">
+    <row r="184" spans="1:10">
       <c r="A184" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] gil-galad</v>
@@ -10800,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1">
+    <row r="185" spans="1:10">
       <c r="A185" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] glorfindel</v>
@@ -10833,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1">
+    <row r="186" spans="1:10">
       <c r="A186" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_stormcaller</v>
@@ -10866,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1">
+    <row r="187" spans="1:10">
       <c r="A187" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] rivendell_knight</v>
@@ -10899,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1">
+    <row r="188" spans="1:10">
       <c r="A188" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_warrior</v>
@@ -10932,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1">
+    <row r="189" spans="1:10">
       <c r="A189" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] wood_elf_warrior</v>
@@ -11196,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1">
+    <row r="197" spans="1:10">
       <c r="A197" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] helm_hammerhand</v>
@@ -11229,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1">
+    <row r="198" spans="1:10">
       <c r="A198" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] theoden</v>
@@ -11262,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1">
+    <row r="199" spans="1:10">
       <c r="A199" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eorl_the_young</v>
@@ -11295,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1">
+    <row r="200" spans="1:10">
       <c r="A200" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eomer</v>
@@ -11328,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1">
+    <row r="201" spans="1:10">
       <c r="A201" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] theodred</v>
@@ -11361,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1">
+    <row r="202" spans="1:10">
       <c r="A202" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] aldor</v>
@@ -11394,7 +11592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1">
+    <row r="203" spans="1:10">
       <c r="A203" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] haleth</v>
@@ -11427,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1">
+    <row r="204" spans="1:10">
       <c r="A204" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] merry</v>
@@ -11460,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1">
+    <row r="205" spans="1:10">
       <c r="A205" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] dernhelm</v>
@@ -11493,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1">
+    <row r="206" spans="1:10">
       <c r="A206" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] king's_huntsman</v>
@@ -11526,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1">
+    <row r="207" spans="1:10">
       <c r="A207" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eowyn</v>
@@ -11559,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1">
+    <row r="208" spans="1:10">
       <c r="A208" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] son_of_eorl</v>
@@ -11592,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1">
+    <row r="209" spans="1:10">
       <c r="A209" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rider_of_rohan</v>
@@ -11625,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1">
+    <row r="210" spans="1:10">
       <c r="A210" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rohan_royal_guard</v>
@@ -11658,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1">
+    <row r="211" spans="1:10">
       <c r="A211" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rohan_outrider</v>
@@ -11691,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1">
+    <row r="212" spans="1:10">
       <c r="A212" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] warrior_of_rohan</v>
@@ -11790,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1">
+    <row r="215" spans="1:10">
       <c r="A215" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] the_king_of_the_dead</v>
@@ -11823,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1">
+    <row r="216" spans="1:10">
       <c r="A216" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] rider_of_the_dead</v>
@@ -11856,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1">
+    <row r="217" spans="1:10">
       <c r="A217" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] warrior_of_the_dead</v>
@@ -11988,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1">
+    <row r="221" spans="1:10">
       <c r="A221" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] the_dragon_emperor</v>
@@ -12021,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1">
+    <row r="222" spans="1:10">
       <c r="A222" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] amdur</v>
@@ -12054,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1">
+    <row r="223" spans="1:10">
       <c r="A223" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] khamul</v>
@@ -12087,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1">
+    <row r="224" spans="1:10">
       <c r="A224" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] rutabi</v>
@@ -12120,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1">
+    <row r="225" spans="1:10">
       <c r="A225" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_dragon_knight</v>
@@ -12153,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1">
+    <row r="226" spans="1:10">
       <c r="A226" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] rhunish_war_drake</v>
@@ -12186,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1">
+    <row r="227" spans="1:10">
       <c r="A227" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] black_dragon_kataphrakt</v>
@@ -12219,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1">
+    <row r="228" spans="1:10">
       <c r="A228" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_kataphrakt</v>
@@ -12252,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1">
+    <row r="229" spans="1:10">
       <c r="A229" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] dragon_cult_acolyte</v>
@@ -12285,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1">
+    <row r="230" spans="1:10">
       <c r="A230" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] black_dragon_warrior</v>
@@ -12318,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1">
+    <row r="231" spans="1:10">
       <c r="A231" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_warrior</v>
@@ -12417,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1">
+    <row r="234" spans="1:10">
       <c r="A234" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] gandalf_the_grey</v>
@@ -12450,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1">
+    <row r="235" spans="1:10">
       <c r="A235" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] aragorn,_strider</v>
@@ -12483,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1">
+    <row r="236" spans="1:10">
       <c r="A236" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] legolas</v>
@@ -12516,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1">
+    <row r="237" spans="1:10">
       <c r="A237" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] gimli</v>
@@ -12549,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1">
+    <row r="238" spans="1:10">
       <c r="A238" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] boromir_of_gondor</v>
@@ -12582,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1">
+    <row r="239" spans="1:10">
       <c r="A239" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] smeagol</v>
@@ -12615,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1">
+    <row r="240" spans="1:10">
       <c r="A240" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] bill_the_pony</v>
@@ -12648,7 +12846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1">
+    <row r="241" spans="1:10">
       <c r="A241" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] meriadoc_brandybuck</v>
@@ -12681,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1">
+    <row r="242" spans="1:10">
       <c r="A242" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] peregrin_took</v>
@@ -12747,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1">
+    <row r="244" spans="1:10">
       <c r="A244" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] prince_imrahil</v>
@@ -12780,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1">
+    <row r="245" spans="1:10">
       <c r="A245" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] forlong_the_fat</v>
@@ -12813,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1">
+    <row r="246" spans="1:10">
       <c r="A246" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] angbor_the_fearless</v>
@@ -12846,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1">
+    <row r="247" spans="1:10">
       <c r="A247" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] duinhir</v>
@@ -12879,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1">
+    <row r="248" spans="1:10">
       <c r="A248" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] knight_of_dol_amroth</v>
@@ -12912,7 +13110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1">
+    <row r="249" spans="1:10">
       <c r="A249" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] axeman_of_lossarnach</v>
@@ -12945,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1">
+    <row r="250" spans="1:10">
       <c r="A250" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] man-at-arms_of_dol_amroth</v>
@@ -12978,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1">
+    <row r="251" spans="1:10">
       <c r="A251" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] blackroot_vale_archer</v>
@@ -13011,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1">
+    <row r="252" spans="1:10">
       <c r="A252" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] clansman_of_lamedon</v>
@@ -13143,7 +13341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1">
+    <row r="256" spans="1:10">
       <c r="A256" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] the_dragon_emperor</v>
@@ -13176,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1">
+    <row r="257" spans="1:10">
       <c r="A257" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] rutabi</v>
@@ -13209,9 +13407,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1">
+    <row r="258" spans="1:10">
       <c r="A258" s="4" t="str">
-        <f t="shared" ref="A258:A308" si="4">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C258, " ", "_")), "] ", LOWER(SUBSTITUTE(E258, " ", "_")))</f>
+        <f t="shared" ref="A258:A321" si="4">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C258, " ", "_")), "] ", LOWER(SUBSTITUTE(E258, " ", "_")))</f>
         <v>[the_host_of_the_dragon_emperor] easterling_dragon_knight</v>
       </c>
       <c r="B258" t="s">
@@ -13242,7 +13440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1">
+    <row r="259" spans="1:10">
       <c r="A259" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] rhunish_war_drake</v>
@@ -13275,7 +13473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1">
+    <row r="260" spans="1:10">
       <c r="A260" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] easterling_kataphrakt</v>
@@ -13308,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1">
+    <row r="261" spans="1:10">
       <c r="A261" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] black_dragon_kataphrakt</v>
@@ -13341,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1">
+    <row r="262" spans="1:10">
       <c r="A262" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] dragon_cult_acolyte</v>
@@ -13374,7 +13572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1">
+    <row r="263" spans="1:10">
       <c r="A263" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] easterling_warrior</v>
@@ -13407,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1">
+    <row r="264" spans="1:10">
       <c r="A264" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] black_dragon_warrior</v>
@@ -13572,7 +13770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1">
+    <row r="269" spans="1:10">
       <c r="A269" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] durin</v>
@@ -13605,7 +13803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1">
+    <row r="270" spans="1:10">
       <c r="A270" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] shieldbearer</v>
@@ -13638,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1">
+    <row r="271" spans="1:10">
       <c r="A271" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ballista</v>
@@ -13671,7 +13869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1">
+    <row r="272" spans="1:10">
       <c r="A272" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] vault_warden_team</v>
@@ -13704,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1">
+    <row r="273" spans="1:10">
       <c r="A273" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] iron_guard</v>
@@ -13737,7 +13935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1">
+    <row r="274" spans="1:10">
       <c r="A274" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] khazad_guard</v>
@@ -13770,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1">
+    <row r="275" spans="1:10">
       <c r="A275" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ranger</v>
@@ -13803,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1">
+    <row r="276" spans="1:10">
       <c r="A276" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_warrior</v>
@@ -13968,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1">
+    <row r="281" spans="1:10">
       <c r="A281" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] balin</v>
@@ -14001,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1">
+    <row r="282" spans="1:10">
       <c r="A282" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] gimli</v>
@@ -14034,7 +14232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1">
+    <row r="283" spans="1:10">
       <c r="A283" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] shieldbearer</v>
@@ -14067,7 +14265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1">
+    <row r="284" spans="1:10">
       <c r="A284" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_ballista</v>
@@ -14100,7 +14298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1">
+    <row r="285" spans="1:10">
       <c r="A285" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] vault_warden_team</v>
@@ -14133,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1">
+    <row r="286" spans="1:10">
       <c r="A286" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] iron_guard</v>
@@ -14166,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1">
+    <row r="287" spans="1:10">
       <c r="A287" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] khazad_guard</v>
@@ -14199,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1">
+    <row r="288" spans="1:10">
       <c r="A288" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_ranger</v>
@@ -14232,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1">
+    <row r="289" spans="1:10">
       <c r="A289" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_warrior</v>
@@ -14298,7 +14496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1">
+    <row r="291" spans="1:10">
       <c r="A291" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] aragorn,_strider</v>
@@ -14331,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1">
+    <row r="292" spans="1:10">
       <c r="A292" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] the_king_of_the_dead</v>
@@ -14364,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1">
+    <row r="293" spans="1:10">
       <c r="A293" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] legolas</v>
@@ -14397,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1">
+    <row r="294" spans="1:10">
       <c r="A294" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] gimli</v>
@@ -14430,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1">
+    <row r="295" spans="1:10">
       <c r="A295" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] rider_of_the_dead</v>
@@ -14463,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1">
+    <row r="296" spans="1:10">
       <c r="A296" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] warrior_of_the_dead</v>
@@ -14595,7 +14793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1">
+    <row r="300" spans="1:10">
       <c r="A300" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] suladan</v>
@@ -14628,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1">
+    <row r="301" spans="1:10">
       <c r="A301" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] the_golden_king</v>
@@ -14661,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1">
+    <row r="302" spans="1:10">
       <c r="A302" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] the_betrayer</v>
@@ -14694,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1">
+    <row r="303" spans="1:10">
       <c r="A303" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] serpent_rider</v>
@@ -14727,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1">
+    <row r="304" spans="1:10">
       <c r="A304" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_raider</v>
@@ -14760,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1">
+    <row r="305" spans="1:10">
       <c r="A305" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] abrakhan_merchant_guard</v>
@@ -14793,7 +14991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1">
+    <row r="306" spans="1:10">
       <c r="A306" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] watcher_of_karna</v>
@@ -14826,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1">
+    <row r="307" spans="1:10">
       <c r="A307" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] serpent_guard</v>
@@ -14859,7 +15057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1">
+    <row r="308" spans="1:10">
       <c r="A308" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_warrior</v>
@@ -14892,14 +15090,800 @@
         <v>0</v>
       </c>
     </row>
+    <row r="309" spans="1:10">
+      <c r="A309" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] gandalf_the_grey</v>
+      </c>
+      <c r="B309" t="s">
+        <v>206</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D309" t="s">
+        <v>3</v>
+      </c>
+      <c r="E309" t="s">
+        <v>167</v>
+      </c>
+      <c r="F309" t="s">
+        <v>7</v>
+      </c>
+      <c r="G309">
+        <v>170</v>
+      </c>
+      <c r="H309" t="b">
+        <v>0</v>
+      </c>
+      <c r="I309" t="b">
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10">
+      <c r="A310" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] baldo_tulpenny</v>
+      </c>
+      <c r="B310" t="s">
+        <v>206</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F310" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310">
+        <v>40</v>
+      </c>
+      <c r="H310" t="b">
+        <v>0</v>
+      </c>
+      <c r="I310" t="b">
+        <v>1</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10">
+      <c r="A311" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] bandobras_took</v>
+      </c>
+      <c r="B311" t="s">
+        <v>206</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F311" t="s">
+        <v>7</v>
+      </c>
+      <c r="G311">
+        <v>40</v>
+      </c>
+      <c r="H311" t="b">
+        <v>0</v>
+      </c>
+      <c r="I311" t="b">
+        <v>1</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10">
+      <c r="A312" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] bilbo_baggins</v>
+      </c>
+      <c r="B312" t="s">
+        <v>206</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F312" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312">
+        <v>40</v>
+      </c>
+      <c r="H312" t="b">
+        <v>0</v>
+      </c>
+      <c r="I312" t="b">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10">
+      <c r="A313" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] farmer_maggot</v>
+      </c>
+      <c r="B313" t="s">
+        <v>206</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F313" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313">
+        <v>45</v>
+      </c>
+      <c r="H313" t="b">
+        <v>0</v>
+      </c>
+      <c r="I313" t="b">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10">
+      <c r="A314" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] farmer_tolman_cotton</v>
+      </c>
+      <c r="B314" t="s">
+        <v>206</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F314" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314">
+        <v>35</v>
+      </c>
+      <c r="H314" t="b">
+        <v>0</v>
+      </c>
+      <c r="I314" t="b">
+        <v>1</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10">
+      <c r="A315" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] folco_boffin</v>
+      </c>
+      <c r="B315" t="s">
+        <v>206</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F315" t="s">
+        <v>22</v>
+      </c>
+      <c r="G315">
+        <v>20</v>
+      </c>
+      <c r="H315" t="b">
+        <v>0</v>
+      </c>
+      <c r="I315" t="b">
+        <v>1</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10">
+      <c r="A316" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] fredegar_bolger</v>
+      </c>
+      <c r="B316" t="s">
+        <v>206</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F316" t="s">
+        <v>22</v>
+      </c>
+      <c r="G316">
+        <v>10</v>
+      </c>
+      <c r="H316" t="b">
+        <v>0</v>
+      </c>
+      <c r="I316" t="b">
+        <v>1</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10">
+      <c r="A317" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] frodo_of_the_nine_fingers</v>
+      </c>
+      <c r="B317" t="s">
+        <v>206</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F317" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317">
+        <v>60</v>
+      </c>
+      <c r="H317" t="b">
+        <v>0</v>
+      </c>
+      <c r="I317" t="b">
+        <v>1</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10">
+      <c r="A318" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] grip,_fang_and_wolf</v>
+      </c>
+      <c r="B318" t="s">
+        <v>206</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318" t="b">
+        <v>0</v>
+      </c>
+      <c r="I318" t="b">
+        <v>1</v>
+      </c>
+      <c r="J318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10">
+      <c r="A319" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] hamfast_'gaffer'_gamgee</v>
+      </c>
+      <c r="B319" t="s">
+        <v>206</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F319" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319">
+        <v>30</v>
+      </c>
+      <c r="H319" t="b">
+        <v>0</v>
+      </c>
+      <c r="I319" t="b">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10">
+      <c r="A320" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] hobbit_archer</v>
+      </c>
+      <c r="B320" t="s">
+        <v>206</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F320" t="s">
+        <v>12</v>
+      </c>
+      <c r="G320">
+        <v>5</v>
+      </c>
+      <c r="H320" t="b">
+        <v>1</v>
+      </c>
+      <c r="I320" t="b">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10">
+      <c r="A321" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>[the_shire] hobbit_militia</v>
+      </c>
+      <c r="B321" t="s">
+        <v>206</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F321" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321">
+        <v>4</v>
+      </c>
+      <c r="H321" t="b">
+        <v>0</v>
+      </c>
+      <c r="I321" t="b">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10">
+      <c r="A322" s="4" t="str">
+        <f t="shared" ref="A322:A332" si="5">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C322, " ", "_")), "] ", LOWER(SUBSTITUTE(E322, " ", "_")))</f>
+        <v>[the_shire] holfoot_bracegirdle</v>
+      </c>
+      <c r="B322" t="s">
+        <v>206</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F322" t="s">
+        <v>10</v>
+      </c>
+      <c r="G322">
+        <v>30</v>
+      </c>
+      <c r="H322" t="b">
+        <v>0</v>
+      </c>
+      <c r="I322" t="b">
+        <v>1</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10">
+      <c r="A323" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_shire] lobelia_sackville-baggins</v>
+      </c>
+      <c r="B323" t="s">
+        <v>206</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F323" t="s">
+        <v>22</v>
+      </c>
+      <c r="G323">
+        <v>15</v>
+      </c>
+      <c r="H323" t="b">
+        <v>0</v>
+      </c>
+      <c r="I323" t="b">
+        <v>1</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
+      <c r="A324" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_shire] lotho_sackville-baggins</v>
+      </c>
+      <c r="B324" t="s">
+        <v>206</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F324" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324">
+        <v>30</v>
+      </c>
+      <c r="H324" t="b">
+        <v>0</v>
+      </c>
+      <c r="I324" t="b">
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10">
+      <c r="A325" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_shire] meriadoc,_captain_of_the_shire</v>
+      </c>
+      <c r="B325" t="s">
+        <v>206</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F325" t="s">
+        <v>7</v>
+      </c>
+      <c r="G325">
+        <v>45</v>
+      </c>
+      <c r="H325" t="b">
+        <v>0</v>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10">
+      <c r="A326" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_shire] paladin_took</v>
+      </c>
+      <c r="B326" t="s">
+        <v>206</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F326" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326">
+        <v>25</v>
+      </c>
+      <c r="H326" t="b">
+        <v>0</v>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10">
+      <c r="A327" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_shire] peregrin,_captain_of_the_shire</v>
+      </c>
+      <c r="B327" t="s">
+        <v>206</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F327" t="s">
+        <v>7</v>
+      </c>
+      <c r="G327">
+        <v>45</v>
+      </c>
+      <c r="H327" t="b">
+        <v>0</v>
+      </c>
+      <c r="I327" t="b">
+        <v>1</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10">
+      <c r="A328" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_shire] robin_smallburrow</v>
+      </c>
+      <c r="B328" t="s">
+        <v>206</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F328" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328">
+        <v>20</v>
+      </c>
+      <c r="H328" t="b">
+        <v>0</v>
+      </c>
+      <c r="I328" t="b">
+        <v>1</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10">
+      <c r="A329" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_shire] rosie_cotton</v>
+      </c>
+      <c r="B329" t="s">
+        <v>206</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F329" t="s">
+        <v>44</v>
+      </c>
+      <c r="G329">
+        <v>15</v>
+      </c>
+      <c r="H329" t="b">
+        <v>0</v>
+      </c>
+      <c r="I329" t="b">
+        <v>1</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10">
+      <c r="A330" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_shire] samwise_the_brave</v>
+      </c>
+      <c r="B330" t="s">
+        <v>206</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F330" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330">
+        <v>45</v>
+      </c>
+      <c r="H330" t="b">
+        <v>0</v>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10">
+      <c r="A331" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_shire] will_whitfoot</v>
+      </c>
+      <c r="B331" t="s">
+        <v>206</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F331" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331">
+        <v>30</v>
+      </c>
+      <c r="H331" t="b">
+        <v>0</v>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10">
+      <c r="A332" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_shire] hobbit_shirriff</v>
+      </c>
+      <c r="B332" t="s">
+        <v>206</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F332" t="s">
+        <v>12</v>
+      </c>
+      <c r="G332">
+        <v>5</v>
+      </c>
+      <c r="H332" t="b">
+        <v>0</v>
+      </c>
+      <c r="I332" t="b">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J308" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Hero of Fortitude"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J332" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J308">
     <sortCondition ref="C2:C308"/>
     <sortCondition ref="F2:F308"/>
@@ -14912,19 +15896,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <dimension ref="A1:H531"/>
+  <dimension ref="A1:H547"/>
   <sheetViews>
-    <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="D523" sqref="D523"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D552" sqref="D552"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -22728,7 +23713,7 @@
         <v>236</v>
       </c>
       <c r="D323" t="s">
-        <v>633</v>
+        <v>286</v>
       </c>
       <c r="E323">
         <v>30</v>
@@ -27746,8 +28731,396 @@
         <v>1</v>
       </c>
     </row>
+    <row r="532" spans="1:8">
+      <c r="A532" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C532" t="s">
+        <v>167</v>
+      </c>
+      <c r="D532" t="s">
+        <v>725</v>
+      </c>
+      <c r="E532">
+        <v>25</v>
+      </c>
+      <c r="G532">
+        <v>0</v>
+      </c>
+      <c r="H532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C533" t="s">
+        <v>167</v>
+      </c>
+      <c r="D533" t="s">
+        <v>264</v>
+      </c>
+      <c r="E533">
+        <v>10</v>
+      </c>
+      <c r="F533" t="s">
+        <v>258</v>
+      </c>
+      <c r="G533">
+        <v>0</v>
+      </c>
+      <c r="H533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="A534" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D534" t="s">
+        <v>286</v>
+      </c>
+      <c r="E534">
+        <v>30</v>
+      </c>
+      <c r="G534">
+        <v>0</v>
+      </c>
+      <c r="H534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="A535" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E535">
+        <v>1</v>
+      </c>
+      <c r="F535" t="s">
+        <v>404</v>
+      </c>
+      <c r="G535">
+        <v>0</v>
+      </c>
+      <c r="H535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E536">
+        <v>1</v>
+      </c>
+      <c r="F536" t="s">
+        <v>404</v>
+      </c>
+      <c r="G536">
+        <v>0</v>
+      </c>
+      <c r="H536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D537" t="s">
+        <v>442</v>
+      </c>
+      <c r="E537">
+        <v>5</v>
+      </c>
+      <c r="G537">
+        <v>0</v>
+      </c>
+      <c r="H537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D538" t="s">
+        <v>662</v>
+      </c>
+      <c r="E538">
+        <v>5</v>
+      </c>
+      <c r="F538" t="s">
+        <v>258</v>
+      </c>
+      <c r="G538">
+        <v>0</v>
+      </c>
+      <c r="H538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D539" t="s">
+        <v>314</v>
+      </c>
+      <c r="E539">
+        <v>5</v>
+      </c>
+      <c r="G539">
+        <v>0</v>
+      </c>
+      <c r="H539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D540" t="s">
+        <v>442</v>
+      </c>
+      <c r="E540">
+        <v>5</v>
+      </c>
+      <c r="G540">
+        <v>0</v>
+      </c>
+      <c r="H540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D541" t="s">
+        <v>662</v>
+      </c>
+      <c r="E541">
+        <v>5</v>
+      </c>
+      <c r="F541" t="s">
+        <v>258</v>
+      </c>
+      <c r="G541">
+        <v>0</v>
+      </c>
+      <c r="H541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D542" t="s">
+        <v>314</v>
+      </c>
+      <c r="E542">
+        <v>5</v>
+      </c>
+      <c r="G542">
+        <v>0</v>
+      </c>
+      <c r="H542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D543" t="s">
+        <v>442</v>
+      </c>
+      <c r="E543">
+        <v>5</v>
+      </c>
+      <c r="G543">
+        <v>0</v>
+      </c>
+      <c r="H543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D544" t="s">
+        <v>662</v>
+      </c>
+      <c r="E544">
+        <v>5</v>
+      </c>
+      <c r="F544" t="s">
+        <v>258</v>
+      </c>
+      <c r="G544">
+        <v>0</v>
+      </c>
+      <c r="H544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D545" t="s">
+        <v>314</v>
+      </c>
+      <c r="E545">
+        <v>5</v>
+      </c>
+      <c r="G545">
+        <v>0</v>
+      </c>
+      <c r="H545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D546" t="s">
+        <v>442</v>
+      </c>
+      <c r="E546">
+        <v>5</v>
+      </c>
+      <c r="G546">
+        <v>0</v>
+      </c>
+      <c r="H546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D547" t="s">
+        <v>662</v>
+      </c>
+      <c r="E547">
+        <v>5</v>
+      </c>
+      <c r="F547" t="s">
+        <v>258</v>
+      </c>
+      <c r="G547">
+        <v>0</v>
+      </c>
+      <c r="H547">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H511" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H525">
     <sortCondition ref="B2:B525"/>
     <sortCondition ref="C2:C525"/>
@@ -27766,12 +29139,12 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="74.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -27788,7 +29161,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.6">
+    <row r="2" spans="1:4" ht="60">
       <c r="A2" s="6" t="s">
         <v>133</v>
       </c>
@@ -27802,7 +29175,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2">
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="6" t="s">
         <v>96</v>
       </c>
@@ -27816,7 +29189,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="115.2">
+    <row r="4" spans="1:4" ht="135">
       <c r="A4" s="6" t="s">
         <v>125</v>
       </c>
@@ -27830,7 +29203,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="100.8">
+    <row r="5" spans="1:4" ht="105">
       <c r="A5" s="6" t="s">
         <v>848</v>
       </c>
@@ -27840,7 +29213,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="72">
+    <row r="6" spans="1:4" ht="90">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -27854,7 +29227,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72">
+    <row r="7" spans="1:4" ht="75">
       <c r="A7" s="6" t="s">
         <v>853</v>
       </c>
@@ -27868,7 +29241,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57.6">
+    <row r="8" spans="1:4" ht="60">
       <c r="A8" s="6" t="s">
         <v>71</v>
       </c>
@@ -27882,7 +29255,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8">
+    <row r="9" spans="1:4" ht="45">
       <c r="A9" s="6" t="s">
         <v>860</v>
       </c>
@@ -27896,7 +29269,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="144">
+    <row r="10" spans="1:4" ht="180">
       <c r="A10" s="6" t="s">
         <v>864</v>
       </c>
@@ -27906,7 +29279,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="115.2">
+    <row r="11" spans="1:4" ht="120">
       <c r="A11" s="6" t="s">
         <v>866</v>
       </c>
@@ -27916,7 +29289,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="43.2">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" s="6" t="s">
         <v>243</v>
       </c>
@@ -27930,7 +29303,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="86.4">
+    <row r="13" spans="1:4" ht="90">
       <c r="A13" s="6" t="s">
         <v>871</v>
       </c>
@@ -27944,7 +29317,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57.6">
+    <row r="14" spans="1:4" ht="75">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -27958,7 +29331,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="244.8">
+    <row r="15" spans="1:4" ht="255">
       <c r="A15" s="6" t="s">
         <v>877</v>
       </c>
@@ -27968,7 +29341,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="273.60000000000002">
+    <row r="16" spans="1:4" ht="285">
       <c r="A16" s="6" t="s">
         <v>879</v>
       </c>
@@ -27978,7 +29351,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="360">
+    <row r="17" spans="1:4" ht="405">
       <c r="A17" s="6" t="s">
         <v>881</v>
       </c>
@@ -27988,7 +29361,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="43.2">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="6" t="s">
         <v>883</v>
       </c>
@@ -28002,7 +29375,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="100.8">
+    <row r="19" spans="1:4" ht="105">
       <c r="A19" s="6" t="s">
         <v>887</v>
       </c>
@@ -28012,7 +29385,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="100.8">
+    <row r="20" spans="1:4" ht="105">
       <c r="A20" s="6" t="s">
         <v>889</v>
       </c>
@@ -28022,7 +29395,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="72">
+    <row r="21" spans="1:4" ht="75">
       <c r="A21" s="6" t="s">
         <v>244</v>
       </c>
@@ -28036,7 +29409,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="129.6">
+    <row r="22" spans="1:4" ht="135">
       <c r="A22" s="6" t="s">
         <v>247</v>
       </c>
@@ -28046,7 +29419,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="72">
+    <row r="23" spans="1:4" ht="90">
       <c r="A23" s="6" t="s">
         <v>241</v>
       </c>
@@ -28060,7 +29433,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8">
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" s="6" t="s">
         <v>897</v>
       </c>
@@ -28074,7 +29447,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="43.2">
+    <row r="25" spans="1:4" ht="45">
       <c r="A25" s="6" t="s">
         <v>901</v>
       </c>
@@ -28088,7 +29461,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="409.6">
+    <row r="26" spans="1:4" ht="409.5">
       <c r="A26" s="6" t="s">
         <v>905</v>
       </c>
@@ -28098,7 +29471,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" ht="158.4">
+    <row r="27" spans="1:4" ht="165">
       <c r="A27" s="6" t="s">
         <v>907</v>
       </c>
@@ -28108,7 +29481,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="230.4">
+    <row r="28" spans="1:4" ht="255">
       <c r="A28" s="6" t="s">
         <v>909</v>
       </c>
@@ -28118,7 +29491,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" ht="43.2">
+    <row r="29" spans="1:4" ht="60">
       <c r="A29" s="6" t="s">
         <v>911</v>
       </c>
@@ -28132,7 +29505,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="43.2">
+    <row r="30" spans="1:4" ht="45">
       <c r="A30" s="6" t="s">
         <v>245</v>
       </c>
@@ -28144,7 +29517,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.2">
+    <row r="31" spans="1:4" ht="45">
       <c r="A31" s="6" t="s">
         <v>248</v>
       </c>
@@ -28155,7 +29528,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="100.8">
+    <row r="32" spans="1:4" ht="120">
       <c r="A32" s="6" t="s">
         <v>208</v>
       </c>
@@ -28169,7 +29542,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="172.8">
+    <row r="33" spans="1:4" ht="180">
       <c r="A33" s="6" t="s">
         <v>246</v>
       </c>
@@ -28179,7 +29552,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" s="6" t="s">
         <v>919</v>
       </c>
@@ -28193,7 +29566,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="100.8">
+    <row r="35" spans="1:4" ht="120">
       <c r="A35" s="6" t="s">
         <v>923</v>
       </c>
@@ -28203,7 +29576,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="331.2">
+    <row r="36" spans="1:4" ht="375">
       <c r="A36" s="6" t="s">
         <v>925</v>
       </c>
@@ -28213,7 +29586,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" ht="72">
+    <row r="37" spans="1:4" ht="75">
       <c r="A37" s="6" t="s">
         <v>927</v>
       </c>
@@ -28227,7 +29600,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.2">
+    <row r="38" spans="1:4" ht="45">
       <c r="A38" s="6" t="s">
         <v>931</v>
       </c>
@@ -28241,7 +29614,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="72">
+    <row r="39" spans="1:4" ht="75">
       <c r="A39" s="6" t="s">
         <v>935</v>
       </c>
@@ -28251,7 +29624,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" ht="244.8">
+    <row r="40" spans="1:4" ht="300">
       <c r="A40" s="6" t="s">
         <v>937</v>
       </c>
@@ -28261,7 +29634,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" ht="115.2">
+    <row r="41" spans="1:4" ht="135">
       <c r="A41" s="6" t="s">
         <v>939</v>
       </c>
@@ -28271,7 +29644,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" ht="43.2">
+    <row r="42" spans="1:4" ht="45">
       <c r="A42" s="6" t="s">
         <v>941</v>
       </c>
@@ -28285,7 +29658,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="115.2">
+    <row r="43" spans="1:4" ht="120">
       <c r="A43" s="6" t="s">
         <v>945</v>
       </c>
@@ -28295,7 +29668,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4" ht="129.6">
+    <row r="44" spans="1:4" ht="135">
       <c r="A44" s="6" t="s">
         <v>58</v>
       </c>
@@ -28309,7 +29682,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="129.6">
+    <row r="45" spans="1:4" ht="150">
       <c r="A45" s="6" t="s">
         <v>950</v>
       </c>
@@ -28323,7 +29696,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="43.2">
+    <row r="46" spans="1:4" ht="60">
       <c r="A46" s="6" t="s">
         <v>953</v>
       </c>
@@ -28337,7 +29710,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="57.6">
+    <row r="47" spans="1:4" ht="60">
       <c r="A47" s="6" t="s">
         <v>957</v>
       </c>
@@ -28351,7 +29724,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="115.2">
+    <row r="48" spans="1:4" ht="135">
       <c r="A48" s="6" t="s">
         <v>210</v>
       </c>
@@ -28365,7 +29738,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="43.2">
+    <row r="49" spans="1:4" ht="45">
       <c r="A49" s="6" t="s">
         <v>964</v>
       </c>
@@ -28379,7 +29752,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="86.4">
+    <row r="50" spans="1:4" ht="90">
       <c r="A50" s="6" t="s">
         <v>967</v>
       </c>
@@ -28393,7 +29766,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="57.6">
+    <row r="51" spans="1:4" ht="75">
       <c r="A51" s="6" t="s">
         <v>209</v>
       </c>
@@ -28407,7 +29780,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="201.6">
+    <row r="52" spans="1:4" ht="210">
       <c r="A52" s="6" t="s">
         <v>973</v>
       </c>
@@ -28417,7 +29790,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:4" ht="360">
+    <row r="53" spans="1:4" ht="405">
       <c r="A53" s="6" t="s">
         <v>975</v>
       </c>
@@ -28427,7 +29800,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:4" ht="72">
+    <row r="54" spans="1:4" ht="75">
       <c r="A54" s="6" t="s">
         <v>977</v>
       </c>
@@ -28441,7 +29814,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="115.2">
+    <row r="55" spans="1:4" ht="135">
       <c r="A55" s="6" t="s">
         <v>981</v>
       </c>
@@ -28455,7 +29828,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="259.2">
+    <row r="56" spans="1:4" ht="300">
       <c r="A56" s="6" t="s">
         <v>984</v>
       </c>
@@ -28465,7 +29838,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:4" ht="115.2">
+    <row r="57" spans="1:4" ht="135">
       <c r="A57" s="6" t="s">
         <v>986</v>
       </c>
@@ -28479,7 +29852,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="288">
+    <row r="58" spans="1:4" ht="315">
       <c r="A58" s="6" t="s">
         <v>990</v>
       </c>
@@ -28489,7 +29862,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="1:4" ht="216">
+    <row r="59" spans="1:4" ht="255">
       <c r="A59" s="6" t="s">
         <v>992</v>
       </c>
@@ -28499,7 +29872,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:4" ht="43.2">
+    <row r="60" spans="1:4" ht="45">
       <c r="A60" s="6" t="s">
         <v>211</v>
       </c>
@@ -28513,7 +29886,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.8">
+    <row r="61" spans="1:4" ht="30">
       <c r="A61" s="6" t="s">
         <v>997</v>
       </c>
@@ -28527,7 +29900,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="409.6">
+    <row r="62" spans="1:4" ht="409.5">
       <c r="A62" s="6" t="s">
         <v>1001</v>
       </c>
@@ -28537,7 +29910,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" ht="409.6">
+    <row r="63" spans="1:4" ht="409.5">
       <c r="A63" s="6" t="s">
         <v>1003</v>
       </c>
@@ -28547,7 +29920,7 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:4" ht="43.2">
+    <row r="64" spans="1:4" ht="45">
       <c r="A64" s="6" t="s">
         <v>1005</v>
       </c>
@@ -28561,7 +29934,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="43.2">
+    <row r="65" spans="1:4" ht="45">
       <c r="A65" s="6" t="s">
         <v>1008</v>
       </c>
@@ -28575,7 +29948,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="158.4">
+    <row r="66" spans="1:4" ht="165">
       <c r="A66" s="6" t="s">
         <v>1012</v>
       </c>
@@ -28585,7 +29958,7 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="1:4" ht="43.2">
+    <row r="67" spans="1:4" ht="45">
       <c r="A67" s="6" t="s">
         <v>1014</v>
       </c>
@@ -28599,7 +29972,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="403.2">
+    <row r="68" spans="1:4" ht="409.5">
       <c r="A68" s="6" t="s">
         <v>1017</v>
       </c>
@@ -28609,7 +29982,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="1:4" ht="72">
+    <row r="69" spans="1:4" ht="75">
       <c r="A69" s="6" t="s">
         <v>1019</v>
       </c>
@@ -28623,7 +29996,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="187.2">
+    <row r="70" spans="1:4" ht="210">
       <c r="A70" s="6" t="s">
         <v>1022</v>
       </c>
@@ -28633,7 +30006,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="1:4" ht="244.8">
+    <row r="71" spans="1:4" ht="270">
       <c r="A71" s="6" t="s">
         <v>1024</v>
       </c>
@@ -28643,7 +30016,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="1:4" ht="374.4">
+    <row r="72" spans="1:4" ht="390">
       <c r="A72" s="6" t="s">
         <v>1026</v>
       </c>
@@ -28653,7 +30026,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:4" ht="100.8">
+    <row r="73" spans="1:4" ht="105">
       <c r="A73" s="6" t="s">
         <v>1028</v>
       </c>
@@ -28667,7 +30040,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="100.8">
+    <row r="74" spans="1:4" ht="105">
       <c r="A74" s="6" t="s">
         <v>1031</v>
       </c>
@@ -28677,7 +30050,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="1:4" ht="43.2">
+    <row r="75" spans="1:4" ht="60">
       <c r="A75" s="6" t="s">
         <v>1033</v>
       </c>
@@ -28691,7 +30064,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="144">
+    <row r="76" spans="1:4" ht="150">
       <c r="A76" s="6" t="s">
         <v>1036</v>
       </c>
@@ -28701,7 +30074,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" ht="72">
+    <row r="77" spans="1:4" ht="90">
       <c r="A77" s="6" t="s">
         <v>1038</v>
       </c>
@@ -28715,7 +30088,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="158.4">
+    <row r="78" spans="1:4" ht="165">
       <c r="A78" s="6" t="s">
         <v>1040</v>
       </c>
@@ -28725,7 +30098,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="1:4" ht="360">
+    <row r="79" spans="1:4" ht="390">
       <c r="A79" s="6" t="s">
         <v>1042</v>
       </c>
@@ -28735,7 +30108,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" ht="28.8">
+    <row r="80" spans="1:4" ht="30">
       <c r="A80" s="6" t="s">
         <v>1044</v>
       </c>
@@ -28752,17 +30125,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
-    <col min="2" max="2" width="111.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="111.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -28776,7 +30149,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" s="9" t="s">
         <v>1294</v>
       </c>
@@ -28787,7 +30160,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="9" t="s">
         <v>1295</v>
       </c>
@@ -28798,7 +30171,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="9" t="s">
         <v>1296</v>
       </c>
@@ -28809,7 +30182,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="9" t="s">
         <v>1064</v>
       </c>
@@ -28820,7 +30193,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="9" t="s">
         <v>1297</v>
       </c>
@@ -28831,7 +30204,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="9" t="s">
         <v>1065</v>
       </c>
@@ -28842,7 +30215,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="9" t="s">
         <v>1066</v>
       </c>
@@ -28853,7 +30226,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="9" t="s">
         <v>1298</v>
       </c>
@@ -28864,7 +30237,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="9" t="s">
         <v>1299</v>
       </c>
@@ -28875,7 +30248,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="9" t="s">
         <v>1066</v>
       </c>
@@ -28886,7 +30259,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8">
+    <row r="12" spans="1:3" ht="30">
       <c r="A12" s="14" t="s">
         <v>1317</v>
       </c>
@@ -28897,7 +30270,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="14" t="s">
         <v>1318</v>
       </c>
@@ -28908,7 +30281,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" s="9" t="s">
         <v>1054</v>
       </c>
@@ -28919,7 +30292,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="9" t="s">
         <v>1055</v>
       </c>
@@ -28930,7 +30303,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8">
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" s="9" t="s">
         <v>1056</v>
       </c>
@@ -28941,7 +30314,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" s="9" t="s">
         <v>1057</v>
       </c>
@@ -28952,7 +30325,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="9" t="s">
         <v>1058</v>
       </c>
@@ -28963,7 +30336,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8">
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" s="9" t="s">
         <v>1059</v>
       </c>
@@ -28974,7 +30347,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8">
+    <row r="20" spans="1:3" ht="30">
       <c r="A20" s="9" t="s">
         <v>1060</v>
       </c>
@@ -29007,7 +30380,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8">
+    <row r="23" spans="1:3" ht="30">
       <c r="A23" s="9" t="s">
         <v>1063</v>
       </c>
@@ -29029,7 +30402,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="57.6">
+    <row r="25" spans="1:3" ht="60">
       <c r="A25" s="12" t="s">
         <v>1068</v>
       </c>
@@ -29040,7 +30413,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="57.6">
+    <row r="26" spans="1:3" ht="60">
       <c r="A26" s="12" t="s">
         <v>1069</v>
       </c>
@@ -29051,7 +30424,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="57.6">
+    <row r="27" spans="1:3" ht="60">
       <c r="A27" s="12" t="s">
         <v>1070</v>
       </c>
@@ -29062,7 +30435,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="57.6">
+    <row r="28" spans="1:3" ht="60">
       <c r="A28" s="12" t="s">
         <v>1071</v>
       </c>
@@ -29073,7 +30446,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="57.6">
+    <row r="29" spans="1:3" ht="60">
       <c r="A29" s="12" t="s">
         <v>1072</v>
       </c>
@@ -29084,7 +30457,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="57.6">
+    <row r="30" spans="1:3" ht="60">
       <c r="A30" s="12" t="s">
         <v>1073</v>
       </c>
@@ -29095,7 +30468,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="57.6">
+    <row r="31" spans="1:3" ht="60">
       <c r="A31" s="12" t="s">
         <v>1074</v>
       </c>
@@ -29106,7 +30479,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="57.6">
+    <row r="32" spans="1:3" ht="60">
       <c r="A32" s="12" t="s">
         <v>1075</v>
       </c>
@@ -29117,7 +30490,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="57.6">
+    <row r="33" spans="1:3" ht="60">
       <c r="A33" s="12" t="s">
         <v>1076</v>
       </c>
@@ -29128,7 +30501,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="57.6">
+    <row r="34" spans="1:3" ht="60">
       <c r="A34" s="12" t="s">
         <v>1077</v>
       </c>
@@ -29139,7 +30512,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="57.6">
+    <row r="35" spans="1:3" ht="60">
       <c r="A35" s="12" t="s">
         <v>1078</v>
       </c>
@@ -29150,7 +30523,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="57.6">
+    <row r="36" spans="1:3" ht="60">
       <c r="A36" s="12" t="s">
         <v>1079</v>
       </c>
@@ -29161,7 +30534,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="57.6">
+    <row r="37" spans="1:3" ht="60">
       <c r="A37" s="12" t="s">
         <v>1080</v>
       </c>
@@ -29172,7 +30545,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="57.6">
+    <row r="38" spans="1:3" ht="60">
       <c r="A38" s="12" t="s">
         <v>1081</v>
       </c>
@@ -29183,7 +30556,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="57.6">
+    <row r="39" spans="1:3" ht="60">
       <c r="A39" s="12" t="s">
         <v>1082</v>
       </c>
@@ -29216,7 +30589,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="57.6">
+    <row r="42" spans="1:3" ht="60">
       <c r="A42" s="12" t="s">
         <v>1085</v>
       </c>
@@ -29227,7 +30600,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8">
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" s="9" t="s">
         <v>1087</v>
       </c>
@@ -29238,7 +30611,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8">
+    <row r="44" spans="1:3" ht="30">
       <c r="A44" s="9" t="s">
         <v>1088</v>
       </c>
@@ -29249,7 +30622,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.8">
+    <row r="45" spans="1:3" ht="30">
       <c r="A45" s="9" t="s">
         <v>1089</v>
       </c>
@@ -29260,7 +30633,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8">
+    <row r="46" spans="1:3" ht="30">
       <c r="A46" s="9" t="s">
         <v>1090</v>
       </c>
@@ -29271,7 +30644,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.8">
+    <row r="47" spans="1:3" ht="30">
       <c r="A47" s="9" t="s">
         <v>1091</v>
       </c>
@@ -29282,7 +30655,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8">
+    <row r="48" spans="1:3" ht="30">
       <c r="A48" s="9" t="s">
         <v>1092</v>
       </c>
@@ -29293,7 +30666,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.8">
+    <row r="49" spans="1:3" ht="30">
       <c r="A49" s="9" t="s">
         <v>1093</v>
       </c>
@@ -29304,7 +30677,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.8">
+    <row r="50" spans="1:3" ht="30">
       <c r="A50" s="9" t="s">
         <v>1094</v>
       </c>
@@ -29315,7 +30688,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="28.8">
+    <row r="51" spans="1:3" ht="45">
       <c r="A51" s="12" t="s">
         <v>1096</v>
       </c>
@@ -29326,7 +30699,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.8">
+    <row r="52" spans="1:3" ht="45">
       <c r="A52" s="12" t="s">
         <v>1097</v>
       </c>
@@ -29337,7 +30710,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.8">
+    <row r="53" spans="1:3" ht="45">
       <c r="A53" s="12" t="s">
         <v>1098</v>
       </c>
@@ -29348,7 +30721,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.8">
+    <row r="54" spans="1:3" ht="45">
       <c r="A54" s="12" t="s">
         <v>1099</v>
       </c>
@@ -29359,7 +30732,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28.8">
+    <row r="55" spans="1:3" ht="45">
       <c r="A55" s="12" t="s">
         <v>1100</v>
       </c>
@@ -29370,7 +30743,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28.8">
+    <row r="56" spans="1:3" ht="45">
       <c r="A56" s="12" t="s">
         <v>1101</v>
       </c>
@@ -29381,7 +30754,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28.8">
+    <row r="57" spans="1:3" ht="45">
       <c r="A57" s="12" t="s">
         <v>1102</v>
       </c>
@@ -29392,7 +30765,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28.8">
+    <row r="58" spans="1:3" ht="45">
       <c r="A58" s="12" t="s">
         <v>1103</v>
       </c>
@@ -29403,7 +30776,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="28.8">
+    <row r="59" spans="1:3" ht="45">
       <c r="A59" s="12" t="s">
         <v>1104</v>
       </c>
@@ -29414,7 +30787,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="28.8">
+    <row r="60" spans="1:3" ht="45">
       <c r="A60" s="12" t="s">
         <v>1105</v>
       </c>
@@ -29425,7 +30798,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.8">
+    <row r="61" spans="1:3" ht="45">
       <c r="A61" s="12" t="s">
         <v>1106</v>
       </c>
@@ -29436,7 +30809,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.8">
+    <row r="62" spans="1:3" ht="45">
       <c r="A62" s="12" t="s">
         <v>1107</v>
       </c>
@@ -29447,7 +30820,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.8">
+    <row r="63" spans="1:3" ht="45">
       <c r="A63" s="12" t="s">
         <v>1108</v>
       </c>
@@ -29469,7 +30842,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="28.8">
+    <row r="65" spans="1:3" ht="45">
       <c r="A65" s="12" t="s">
         <v>1110</v>
       </c>
@@ -29480,7 +30853,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8">
+    <row r="66" spans="1:3" ht="45">
       <c r="A66" s="12" t="s">
         <v>1111</v>
       </c>
@@ -29491,7 +30864,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28.8">
+    <row r="67" spans="1:3" ht="45">
       <c r="A67" s="12" t="s">
         <v>1112</v>
       </c>
@@ -29502,7 +30875,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.8">
+    <row r="68" spans="1:3" ht="45">
       <c r="A68" s="12" t="s">
         <v>1113</v>
       </c>
@@ -29524,7 +30897,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="43.2">
+    <row r="70" spans="1:3" ht="45">
       <c r="A70" s="9" t="s">
         <v>1116</v>
       </c>
@@ -29535,7 +30908,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="43.2">
+    <row r="71" spans="1:3" ht="45">
       <c r="A71" s="9" t="s">
         <v>1117</v>
       </c>
@@ -29546,7 +30919,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="43.2">
+    <row r="72" spans="1:3" ht="45">
       <c r="A72" s="9" t="s">
         <v>1118</v>
       </c>
@@ -29557,7 +30930,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="43.2">
+    <row r="73" spans="1:3" ht="45">
       <c r="A73" s="9" t="s">
         <v>1119</v>
       </c>
@@ -29568,7 +30941,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="43.2">
+    <row r="74" spans="1:3" ht="45">
       <c r="A74" s="9" t="s">
         <v>1120</v>
       </c>
@@ -29579,7 +30952,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.2">
+    <row r="75" spans="1:3" ht="45">
       <c r="A75" s="9" t="s">
         <v>1121</v>
       </c>
@@ -29590,7 +30963,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="43.2">
+    <row r="76" spans="1:3" ht="45">
       <c r="A76" s="9" t="s">
         <v>1122</v>
       </c>
@@ -29601,7 +30974,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="43.2">
+    <row r="77" spans="1:3" ht="45">
       <c r="A77" s="9" t="s">
         <v>1123</v>
       </c>
@@ -29612,7 +30985,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="43.2">
+    <row r="78" spans="1:3" ht="45">
       <c r="A78" s="9" t="s">
         <v>1124</v>
       </c>
@@ -29623,7 +30996,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="43.2">
+    <row r="79" spans="1:3" ht="45">
       <c r="A79" s="9" t="s">
         <v>1125</v>
       </c>
@@ -29634,7 +31007,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="43.2">
+    <row r="80" spans="1:3" ht="45">
       <c r="A80" s="9" t="s">
         <v>1126</v>
       </c>
@@ -29645,7 +31018,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="43.2">
+    <row r="81" spans="1:3" ht="45">
       <c r="A81" s="9" t="s">
         <v>1127</v>
       </c>
@@ -29656,7 +31029,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="43.2">
+    <row r="82" spans="1:3" ht="45">
       <c r="A82" s="9" t="s">
         <v>1128</v>
       </c>
@@ -29667,7 +31040,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="43.2">
+    <row r="83" spans="1:3" ht="45">
       <c r="A83" s="9" t="s">
         <v>1129</v>
       </c>
@@ -29678,7 +31051,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="43.2">
+    <row r="84" spans="1:3" ht="45">
       <c r="A84" s="9" t="s">
         <v>1130</v>
       </c>
@@ -29689,7 +31062,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="43.2">
+    <row r="85" spans="1:3" ht="45">
       <c r="A85" s="9" t="s">
         <v>1131</v>
       </c>
@@ -29700,7 +31073,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="43.2">
+    <row r="86" spans="1:3" ht="45">
       <c r="A86" s="9" t="s">
         <v>1132</v>
       </c>
@@ -29711,7 +31084,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="43.2">
+    <row r="87" spans="1:3" ht="45">
       <c r="A87" s="9" t="s">
         <v>1133</v>
       </c>
@@ -29722,7 +31095,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="43.2">
+    <row r="88" spans="1:3" ht="45">
       <c r="A88" s="9" t="s">
         <v>1134</v>
       </c>
@@ -29733,7 +31106,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="43.2">
+    <row r="89" spans="1:3" ht="45">
       <c r="A89" s="9" t="s">
         <v>1135</v>
       </c>
@@ -29744,7 +31117,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="43.2">
+    <row r="90" spans="1:3" ht="45">
       <c r="A90" s="9" t="s">
         <v>1136</v>
       </c>
@@ -29755,7 +31128,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="43.2">
+    <row r="91" spans="1:3" ht="45">
       <c r="A91" s="9" t="s">
         <v>1137</v>
       </c>
@@ -29766,7 +31139,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="43.2">
+    <row r="92" spans="1:3" ht="45">
       <c r="A92" s="9" t="s">
         <v>1138</v>
       </c>
@@ -29777,7 +31150,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="43.2">
+    <row r="93" spans="1:3" ht="45">
       <c r="A93" s="9" t="s">
         <v>1139</v>
       </c>
@@ -29788,7 +31161,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="43.2">
+    <row r="94" spans="1:3" ht="45">
       <c r="A94" s="9" t="s">
         <v>1140</v>
       </c>
@@ -29799,7 +31172,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="43.2">
+    <row r="95" spans="1:3" ht="45">
       <c r="A95" s="9" t="s">
         <v>1141</v>
       </c>
@@ -29810,7 +31183,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="43.2">
+    <row r="96" spans="1:3" ht="45">
       <c r="A96" s="9" t="s">
         <v>1142</v>
       </c>
@@ -29821,7 +31194,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="43.2">
+    <row r="97" spans="1:3" ht="45">
       <c r="A97" s="9" t="s">
         <v>1143</v>
       </c>
@@ -29832,7 +31205,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="43.2">
+    <row r="98" spans="1:3" ht="45">
       <c r="A98" s="9" t="s">
         <v>1144</v>
       </c>
@@ -29876,7 +31249,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="43.2">
+    <row r="102" spans="1:3" ht="45">
       <c r="A102" s="9" t="s">
         <v>1148</v>
       </c>
@@ -30008,7 +31381,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="28.8">
+    <row r="114" spans="1:3" ht="30">
       <c r="A114" s="12" t="s">
         <v>1162</v>
       </c>
@@ -30019,7 +31392,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="28.8">
+    <row r="115" spans="1:3" ht="30">
       <c r="A115" s="12" t="s">
         <v>1163</v>
       </c>
@@ -30030,7 +31403,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="28.8">
+    <row r="116" spans="1:3" ht="30">
       <c r="A116" s="12" t="s">
         <v>1164</v>
       </c>
@@ -30041,7 +31414,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="28.8">
+    <row r="117" spans="1:3" ht="30">
       <c r="A117" s="12" t="s">
         <v>1165</v>
       </c>
@@ -30052,7 +31425,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="28.8">
+    <row r="118" spans="1:3" ht="30">
       <c r="A118" s="12" t="s">
         <v>1166</v>
       </c>
@@ -30063,7 +31436,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="28.8">
+    <row r="119" spans="1:3" ht="30">
       <c r="A119" s="12" t="s">
         <v>1167</v>
       </c>
@@ -30074,7 +31447,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="28.8">
+    <row r="120" spans="1:3" ht="30">
       <c r="A120" s="12" t="s">
         <v>1168</v>
       </c>
@@ -30085,7 +31458,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="28.8">
+    <row r="121" spans="1:3" ht="30">
       <c r="A121" s="12" t="s">
         <v>1169</v>
       </c>
@@ -30096,7 +31469,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="28.8">
+    <row r="122" spans="1:3" ht="30">
       <c r="A122" s="12" t="s">
         <v>1170</v>
       </c>
@@ -30107,7 +31480,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="28.8">
+    <row r="123" spans="1:3" ht="30">
       <c r="A123" s="12" t="s">
         <v>1171</v>
       </c>
@@ -30118,7 +31491,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28.8">
+    <row r="124" spans="1:3" ht="30">
       <c r="A124" s="12" t="s">
         <v>1172</v>
       </c>
@@ -30129,7 +31502,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="28.8">
+    <row r="125" spans="1:3" ht="30">
       <c r="A125" s="12" t="s">
         <v>1173</v>
       </c>
@@ -30173,7 +31546,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="28.8">
+    <row r="129" spans="1:3" ht="30">
       <c r="A129" s="12" t="s">
         <v>1177</v>
       </c>
@@ -30184,7 +31557,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="28.8">
+    <row r="130" spans="1:3" ht="30">
       <c r="A130" s="12" t="s">
         <v>1178</v>
       </c>
@@ -30195,7 +31568,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="28.8">
+    <row r="131" spans="1:3" ht="30">
       <c r="A131" s="12" t="s">
         <v>1179</v>
       </c>
@@ -30250,7 +31623,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="28.8">
+    <row r="136" spans="1:3" ht="30">
       <c r="A136" s="12" t="s">
         <v>1181</v>
       </c>
@@ -30261,7 +31634,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="28.8">
+    <row r="137" spans="1:3" ht="30">
       <c r="A137" s="12" t="s">
         <v>1182</v>
       </c>
@@ -30272,7 +31645,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="28.8">
+    <row r="138" spans="1:3" ht="30">
       <c r="A138" s="12" t="s">
         <v>1183</v>
       </c>
@@ -30283,7 +31656,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="28.8">
+    <row r="139" spans="1:3" ht="30">
       <c r="A139" s="12" t="s">
         <v>1184</v>
       </c>
@@ -30294,7 +31667,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="28.8">
+    <row r="140" spans="1:3" ht="30">
       <c r="A140" s="12" t="s">
         <v>1185</v>
       </c>
@@ -30305,7 +31678,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="28.8">
+    <row r="141" spans="1:3" ht="30">
       <c r="A141" s="12" t="s">
         <v>1186</v>
       </c>
@@ -30316,7 +31689,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="28.8">
+    <row r="142" spans="1:3" ht="30">
       <c r="A142" s="12" t="s">
         <v>1187</v>
       </c>
@@ -30338,7 +31711,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="43.2">
+    <row r="144" spans="1:3" ht="60">
       <c r="A144" s="12" t="s">
         <v>1189</v>
       </c>
@@ -30349,7 +31722,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="43.2">
+    <row r="145" spans="1:3" ht="60">
       <c r="A145" s="12" t="s">
         <v>1190</v>
       </c>
@@ -30360,7 +31733,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="43.2">
+    <row r="146" spans="1:3" ht="45">
       <c r="A146" s="12" t="s">
         <v>1191</v>
       </c>
@@ -30371,7 +31744,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="43.2">
+    <row r="147" spans="1:3" ht="45">
       <c r="A147" s="12" t="s">
         <v>1192</v>
       </c>
@@ -30382,7 +31755,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="43.2">
+    <row r="148" spans="1:3" ht="45">
       <c r="A148" s="12" t="s">
         <v>1193</v>
       </c>
@@ -30393,7 +31766,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="43.2">
+    <row r="149" spans="1:3" ht="45">
       <c r="A149" s="12" t="s">
         <v>1194</v>
       </c>
@@ -30404,7 +31777,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="43.2">
+    <row r="150" spans="1:3" ht="45">
       <c r="A150" s="12" t="s">
         <v>1195</v>
       </c>
@@ -30437,7 +31810,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="43.2">
+    <row r="153" spans="1:3" ht="45">
       <c r="A153" s="12" t="s">
         <v>1198</v>
       </c>
@@ -30448,7 +31821,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="43.2">
+    <row r="154" spans="1:3" ht="45">
       <c r="A154" s="12" t="s">
         <v>1199</v>
       </c>
@@ -30459,7 +31832,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="28.8">
+    <row r="155" spans="1:3" ht="30">
       <c r="A155" s="12" t="s">
         <v>1201</v>
       </c>
@@ -30470,7 +31843,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="28.8">
+    <row r="156" spans="1:3" ht="30">
       <c r="A156" s="12" t="s">
         <v>1202</v>
       </c>
@@ -30481,7 +31854,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="28.8">
+    <row r="157" spans="1:3" ht="30">
       <c r="A157" s="12" t="s">
         <v>1203</v>
       </c>
@@ -30492,7 +31865,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="28.8">
+    <row r="158" spans="1:3" ht="30">
       <c r="A158" s="12" t="s">
         <v>1204</v>
       </c>
@@ -30503,7 +31876,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="28.8">
+    <row r="159" spans="1:3" ht="30">
       <c r="A159" s="12" t="s">
         <v>1205</v>
       </c>
@@ -30514,7 +31887,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="28.8">
+    <row r="160" spans="1:3" ht="30">
       <c r="A160" s="12" t="s">
         <v>1207</v>
       </c>
@@ -30525,7 +31898,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="28.8">
+    <row r="161" spans="1:3" ht="30">
       <c r="A161" s="12" t="s">
         <v>1208</v>
       </c>
@@ -30536,7 +31909,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="28.8">
+    <row r="162" spans="1:3" ht="30">
       <c r="A162" s="12" t="s">
         <v>1209</v>
       </c>
@@ -30547,7 +31920,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="28.8">
+    <row r="163" spans="1:3" ht="30">
       <c r="A163" s="12" t="s">
         <v>1210</v>
       </c>
@@ -30558,7 +31931,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="28.8">
+    <row r="164" spans="1:3" ht="30">
       <c r="A164" s="12" t="s">
         <v>1211</v>
       </c>
@@ -30569,7 +31942,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" ht="30">
       <c r="A165" s="12" t="s">
         <v>1212</v>
       </c>
@@ -30580,7 +31953,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="28.8">
+    <row r="166" spans="1:3" ht="45">
       <c r="A166" s="12" t="s">
         <v>1213</v>
       </c>
@@ -30591,7 +31964,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="28.8">
+    <row r="167" spans="1:3" ht="45">
       <c r="A167" s="12" t="s">
         <v>1214</v>
       </c>
@@ -30602,7 +31975,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="28.8">
+    <row r="168" spans="1:3" ht="45">
       <c r="A168" s="12" t="s">
         <v>1215</v>
       </c>
@@ -30613,7 +31986,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="28.8">
+    <row r="169" spans="1:3" ht="45">
       <c r="A169" s="12" t="s">
         <v>1216</v>
       </c>
@@ -30624,7 +31997,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="28.8">
+    <row r="170" spans="1:3" ht="45">
       <c r="A170" s="12" t="s">
         <v>1217</v>
       </c>
@@ -30635,7 +32008,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="28.8">
+    <row r="171" spans="1:3" ht="45">
       <c r="A171" s="12" t="s">
         <v>1218</v>
       </c>
@@ -30646,7 +32019,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="28.8">
+    <row r="172" spans="1:3" ht="30">
       <c r="A172" s="12" t="s">
         <v>1220</v>
       </c>
@@ -30657,7 +32030,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="28.8">
+    <row r="173" spans="1:3" ht="30">
       <c r="A173" s="12" t="s">
         <v>1221</v>
       </c>
@@ -30668,7 +32041,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="28.8">
+    <row r="174" spans="1:3" ht="30">
       <c r="A174" s="12" t="s">
         <v>1222</v>
       </c>
@@ -30679,7 +32052,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="28.8">
+    <row r="175" spans="1:3" ht="30">
       <c r="A175" s="12" t="s">
         <v>1223</v>
       </c>
@@ -30690,7 +32063,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="28.8">
+    <row r="176" spans="1:3" ht="30">
       <c r="A176" s="12" t="s">
         <v>1224</v>
       </c>
@@ -30701,7 +32074,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="28.8">
+    <row r="177" spans="1:3" ht="30">
       <c r="A177" s="12" t="s">
         <v>1225</v>
       </c>
@@ -30712,7 +32085,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="28.8">
+    <row r="178" spans="1:3" ht="30">
       <c r="A178" s="12" t="s">
         <v>1226</v>
       </c>
@@ -30778,7 +32151,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="28.8">
+    <row r="184" spans="1:3" ht="45">
       <c r="A184" s="12" t="s">
         <v>1234</v>
       </c>
@@ -30789,7 +32162,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="28.8">
+    <row r="185" spans="1:3" ht="45">
       <c r="A185" s="12" t="s">
         <v>1235</v>
       </c>
@@ -30800,7 +32173,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="28.8">
+    <row r="186" spans="1:3" ht="45">
       <c r="A186" s="12" t="s">
         <v>1236</v>
       </c>
@@ -30811,7 +32184,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="28.8">
+    <row r="187" spans="1:3" ht="45">
       <c r="A187" s="12" t="s">
         <v>1237</v>
       </c>
@@ -30822,7 +32195,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="28.8">
+    <row r="188" spans="1:3" ht="45">
       <c r="A188" s="12" t="s">
         <v>1238</v>
       </c>
@@ -30833,7 +32206,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="28.8">
+    <row r="189" spans="1:3" ht="45">
       <c r="A189" s="12" t="s">
         <v>1239</v>
       </c>
@@ -30844,7 +32217,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="43.2">
+    <row r="190" spans="1:3" ht="45">
       <c r="A190" t="s">
         <v>1339</v>
       </c>
@@ -30855,7 +32228,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="43.2">
+    <row r="191" spans="1:3" ht="45">
       <c r="A191" t="s">
         <v>1340</v>
       </c>
@@ -30866,7 +32239,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="43.2">
+    <row r="192" spans="1:3" ht="45">
       <c r="A192" t="s">
         <v>1341</v>
       </c>
@@ -30877,7 +32250,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="43.2">
+    <row r="193" spans="1:3" ht="45">
       <c r="A193" t="s">
         <v>1342</v>
       </c>
@@ -30888,7 +32261,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="43.2">
+    <row r="194" spans="1:3" ht="45">
       <c r="A194" t="s">
         <v>1343</v>
       </c>
@@ -30899,7 +32272,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="43.2">
+    <row r="195" spans="1:3" ht="45">
       <c r="A195" t="s">
         <v>1344</v>
       </c>
@@ -30910,7 +32283,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="43.2">
+    <row r="196" spans="1:3" ht="45">
       <c r="A196" t="s">
         <v>1345</v>
       </c>
@@ -30921,7 +32294,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="43.2">
+    <row r="197" spans="1:3" ht="45">
       <c r="A197" t="s">
         <v>1346</v>
       </c>
@@ -30943,7 +32316,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="43.2">
+    <row r="199" spans="1:3" ht="45">
       <c r="A199" t="s">
         <v>1348</v>
       </c>
@@ -30954,7 +32327,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="43.2">
+    <row r="200" spans="1:3" ht="45">
       <c r="A200" t="s">
         <v>1349</v>
       </c>
@@ -30965,7 +32338,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="43.2">
+    <row r="201" spans="1:3" ht="45">
       <c r="A201" t="s">
         <v>1350</v>
       </c>
@@ -30973,6 +32346,226 @@
         <v>1358</v>
       </c>
       <c r="C201" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="30">
+      <c r="A206" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C221" s="7" t="s">
         <v>869</v>
       </c>
     </row>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72563A-7B9F-437D-BE09-29DCBE442977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE328DB-CD61-48CF-B0D8-7E635F7EF880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="hero_constraints" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$C$224</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$358</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$600</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$C$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$389</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$608</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5388" uniqueCount="1535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="1632">
   <si>
     <t>faction</t>
   </si>
@@ -3067,9 +3067,6 @@
     <t>The Misty Mountains</t>
   </si>
   <si>
-    <t>&lt;b&gt;"The Eagles are coming!"&lt;/b&gt; - Eagle models from this army list gain a bonus of+ 1 to their Strength on a turn in which they charged.</t>
-  </si>
-  <si>
     <t>['The Fellowship', "Radagast's Alliance", "Thorin's Company"]</t>
   </si>
   <si>
@@ -4780,6 +4777,300 @@
   </si>
   <si>
     <t>[rohan] meriadoc_brandybuck</t>
+  </si>
+  <si>
+    <t>Arathorn</t>
+  </si>
+  <si>
+    <t>Arvedui, Last King of Arnor</t>
+  </si>
+  <si>
+    <t>Beechbone</t>
+  </si>
+  <si>
+    <t>Bill Ferny</t>
+  </si>
+  <si>
+    <t>Captain of Arnor</t>
+  </si>
+  <si>
+    <t>Swap Shield for Bow</t>
+  </si>
+  <si>
+    <t>Captain of Numenor</t>
+  </si>
+  <si>
+    <t>Dunedain</t>
+  </si>
+  <si>
+    <t>Elendil</t>
+  </si>
+  <si>
+    <t>Ent</t>
+  </si>
+  <si>
+    <t>Ghan-Buri-Ghan</t>
+  </si>
+  <si>
+    <t>Great Eagle</t>
+  </si>
+  <si>
+    <t>Gwaihir</t>
+  </si>
+  <si>
+    <t>Halbarad</t>
+  </si>
+  <si>
+    <t>Banner of Arwen Evenstar</t>
+  </si>
+  <si>
+    <t>Harry Goatleaf</t>
+  </si>
+  <si>
+    <t>Isildur</t>
+  </si>
+  <si>
+    <t>The Ring</t>
+  </si>
+  <si>
+    <t>Malbeth the Seer</t>
+  </si>
+  <si>
+    <t>Quickbeam</t>
+  </si>
+  <si>
+    <t>Ranger of the North</t>
+  </si>
+  <si>
+    <t>Rowan Thistlewood, Ruffian Enforcer</t>
+  </si>
+  <si>
+    <t>Ruffian</t>
+  </si>
+  <si>
+    <t>Whip</t>
+  </si>
+  <si>
+    <t>Sharkey and Worm</t>
+  </si>
+  <si>
+    <t>Sid Briarthorn, Ruffian Chief</t>
+  </si>
+  <si>
+    <t>Ted Sandyman</t>
+  </si>
+  <si>
+    <t>Treebeard</t>
+  </si>
+  <si>
+    <t>Merry &amp; Pippin</t>
+  </si>
+  <si>
+    <t>Warrior of Arnor</t>
+  </si>
+  <si>
+    <t>Swap Spear and Shield for Banner</t>
+  </si>
+  <si>
+    <t>Warrior of Numenor</t>
+  </si>
+  <si>
+    <t>Woses Warrior</t>
+  </si>
+  <si>
+    <t>treebeard_m&amp;p</t>
+  </si>
+  <si>
+    <t>OPT0602</t>
+  </si>
+  <si>
+    <t>OPT0603</t>
+  </si>
+  <si>
+    <t>OPT0604</t>
+  </si>
+  <si>
+    <t>OPT0605</t>
+  </si>
+  <si>
+    <t>OPT0606</t>
+  </si>
+  <si>
+    <t>OPT0607</t>
+  </si>
+  <si>
+    <t>OPT0608</t>
+  </si>
+  <si>
+    <t>OPT0609</t>
+  </si>
+  <si>
+    <t>OPT0610</t>
+  </si>
+  <si>
+    <t>OPT0611</t>
+  </si>
+  <si>
+    <t>OPT0612</t>
+  </si>
+  <si>
+    <t>OPT0613</t>
+  </si>
+  <si>
+    <t>OPT0614</t>
+  </si>
+  <si>
+    <t>OPT0615</t>
+  </si>
+  <si>
+    <t>OPT0616</t>
+  </si>
+  <si>
+    <t>OPT0617</t>
+  </si>
+  <si>
+    <t>OPT0618</t>
+  </si>
+  <si>
+    <t>OPT0619</t>
+  </si>
+  <si>
+    <t>OPT0620</t>
+  </si>
+  <si>
+    <t>OPT0621</t>
+  </si>
+  <si>
+    <t>OPT0622</t>
+  </si>
+  <si>
+    <t>OPT0623</t>
+  </si>
+  <si>
+    <t>OPT0624</t>
+  </si>
+  <si>
+    <t>OPT0625</t>
+  </si>
+  <si>
+    <t>OPT0626</t>
+  </si>
+  <si>
+    <t>OPT0627</t>
+  </si>
+  <si>
+    <t>OPT0628</t>
+  </si>
+  <si>
+    <t>OPT0629</t>
+  </si>
+  <si>
+    <t>OPT0630</t>
+  </si>
+  <si>
+    <t>OPT0631</t>
+  </si>
+  <si>
+    <t>OPT0632</t>
+  </si>
+  <si>
+    <t>[the_shire] dunedain</t>
+  </si>
+  <si>
+    <t>[arnor] arvedui,_last_king_of_arnor</t>
+  </si>
+  <si>
+    <t>[arnor] captain_of_arnor</t>
+  </si>
+  <si>
+    <t>[arnor] malbeth_the_seer</t>
+  </si>
+  <si>
+    <t>['[arnor] warrior_of_arnor', '[arnor] hobbit_archer']</t>
+  </si>
+  <si>
+    <t>[fangorn] beechbone</t>
+  </si>
+  <si>
+    <t>[fangorn] quickbeam</t>
+  </si>
+  <si>
+    <t>[fangorn] treebeard</t>
+  </si>
+  <si>
+    <t>['[fangorn] ent']</t>
+  </si>
+  <si>
+    <t>[numenor] captain_of_numenor</t>
+  </si>
+  <si>
+    <t>[numenor] elendil</t>
+  </si>
+  <si>
+    <t>[numenor] isildur</t>
+  </si>
+  <si>
+    <t>['[numenor] warrior_of_numenor']</t>
+  </si>
+  <si>
+    <t>[sharkey's_rogues] harry_goatleaf</t>
+  </si>
+  <si>
+    <t>[sharkey's_rogues] rowan_thistlewood,_ruffian_enforcer</t>
+  </si>
+  <si>
+    <t>[sharkey's_rogues] sharkey_and_worm</t>
+  </si>
+  <si>
+    <t>[sharkey's_rogues] sid_briarthorn,_ruffian_chief</t>
+  </si>
+  <si>
+    <t>[sharkey's_rogues] ted_sandyman</t>
+  </si>
+  <si>
+    <t>[sharkey's_rogues] lotho_sackville-baggins</t>
+  </si>
+  <si>
+    <t>['[the_shire] hobbit_militia']</t>
+  </si>
+  <si>
+    <t>[the_misty_mountains] gwaihir</t>
+  </si>
+  <si>
+    <t>['[the_misty_mountains] great_eagle']</t>
+  </si>
+  <si>
+    <t>[the_rangers] arathorn</t>
+  </si>
+  <si>
+    <t>[the_rangers] dunedain</t>
+  </si>
+  <si>
+    <t>[the_rangers] halbarad</t>
+  </si>
+  <si>
+    <t>[the_rangers] ranger_of_the_north</t>
+  </si>
+  <si>
+    <t>[the_rangers] aragorn,_strider</t>
+  </si>
+  <si>
+    <t>['[the_rangers] dunedain', '[the_rangers] ranger_of_the_north']</t>
+  </si>
+  <si>
+    <t>[wildmen_of_druadan] ghan-buri-ghan</t>
+  </si>
+  <si>
+    <t>['[wildmen_of_druadan] woses_warrior']</t>
+  </si>
+  <si>
+    <t>["[sharkey's_rogues] ruffian"]</t>
+  </si>
+  <si>
+    <t>[wildmen_of_druadan] woses_warrior_cpt</t>
+  </si>
+  <si>
+    <t>[sharkey's_rogues] ruffian_cpt</t>
   </si>
 </sst>
 </file>
@@ -5232,11 +5523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:J370"/>
+  <dimension ref="A1:J391"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E241" sqref="E241"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5245,7 +5536,7 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
@@ -5280,7 +5571,7 @@
         <v>155</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>154</v>
@@ -5301,7 +5592,7 @@
         <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -5334,7 +5625,7 @@
         <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -5367,7 +5658,7 @@
         <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -5400,7 +5691,7 @@
         <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -5433,7 +5724,7 @@
         <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -5499,7 +5790,7 @@
         <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -5598,7 +5889,7 @@
         <v>241</v>
       </c>
       <c r="E11" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -5631,7 +5922,7 @@
         <v>241</v>
       </c>
       <c r="E12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -5664,7 +5955,7 @@
         <v>241</v>
       </c>
       <c r="E13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -5697,7 +5988,7 @@
         <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -5730,7 +6021,7 @@
         <v>241</v>
       </c>
       <c r="E15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -5763,7 +6054,7 @@
         <v>241</v>
       </c>
       <c r="E16" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -5796,7 +6087,7 @@
         <v>241</v>
       </c>
       <c r="E17" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -6987,7 +7278,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G53">
         <v>25</v>
@@ -10317,7 +10608,7 @@
         <v>965</v>
       </c>
       <c r="E154" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -10350,7 +10641,7 @@
         <v>965</v>
       </c>
       <c r="E155" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -10383,7 +10674,7 @@
         <v>965</v>
       </c>
       <c r="E156" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -10416,7 +10707,7 @@
         <v>965</v>
       </c>
       <c r="E157" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -10449,7 +10740,7 @@
         <v>965</v>
       </c>
       <c r="E158" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -10482,7 +10773,7 @@
         <v>965</v>
       </c>
       <c r="E159" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F159" t="s">
         <v>15</v>
@@ -10515,7 +10806,7 @@
         <v>965</v>
       </c>
       <c r="E160" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F160" t="s">
         <v>7</v>
@@ -10548,7 +10839,7 @@
         <v>965</v>
       </c>
       <c r="E161" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F161" t="s">
         <v>7</v>
@@ -10581,7 +10872,7 @@
         <v>965</v>
       </c>
       <c r="E162" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F162" t="s">
         <v>44</v>
@@ -10614,7 +10905,7 @@
         <v>965</v>
       </c>
       <c r="E163" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F163" t="s">
         <v>22</v>
@@ -10647,7 +10938,7 @@
         <v>965</v>
       </c>
       <c r="E164" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F164" t="s">
         <v>22</v>
@@ -10680,7 +10971,7 @@
         <v>965</v>
       </c>
       <c r="E165" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F165" t="s">
         <v>22</v>
@@ -10713,7 +11004,7 @@
         <v>965</v>
       </c>
       <c r="E166" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F166" t="s">
         <v>12</v>
@@ -10746,7 +11037,7 @@
         <v>965</v>
       </c>
       <c r="E167" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F167" t="s">
         <v>12</v>
@@ -10779,7 +11070,7 @@
         <v>965</v>
       </c>
       <c r="E168" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F168" t="s">
         <v>12</v>
@@ -10812,7 +11103,7 @@
         <v>241</v>
       </c>
       <c r="E169" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F169" t="s">
         <v>12</v>
@@ -10845,7 +11136,7 @@
         <v>965</v>
       </c>
       <c r="E170" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F170" t="s">
         <v>12</v>
@@ -10878,7 +11169,7 @@
         <v>965</v>
       </c>
       <c r="E171" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F171" t="s">
         <v>12</v>
@@ -10911,7 +11202,7 @@
         <v>965</v>
       </c>
       <c r="E172" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F172" t="s">
         <v>12</v>
@@ -10944,7 +11235,7 @@
         <v>965</v>
       </c>
       <c r="E173" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F173" t="s">
         <v>12</v>
@@ -10977,7 +11268,7 @@
         <v>241</v>
       </c>
       <c r="E174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F174" t="s">
         <v>12</v>
@@ -11010,7 +11301,7 @@
         <v>965</v>
       </c>
       <c r="E175" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F175" t="s">
         <v>12</v>
@@ -11058,7 +11349,7 @@
         <v>1</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -11967,7 +12258,7 @@
         <v>132</v>
       </c>
       <c r="E204" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F204" t="s">
         <v>44</v>
@@ -12726,7 +13017,7 @@
         <v>206</v>
       </c>
       <c r="E227" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F227" t="s">
         <v>12</v>
@@ -12759,7 +13050,7 @@
         <v>206</v>
       </c>
       <c r="E228" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F228" t="s">
         <v>12</v>
@@ -12825,7 +13116,7 @@
         <v>206</v>
       </c>
       <c r="E230" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F230" t="s">
         <v>12</v>
@@ -13125,7 +13416,7 @@
         <v>183</v>
       </c>
       <c r="F239" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G239">
         <v>30</v>
@@ -13158,7 +13449,7 @@
         <v>182</v>
       </c>
       <c r="F240" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G240">
         <v>25</v>
@@ -13815,7 +14106,7 @@
         <v>206</v>
       </c>
       <c r="E260" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F260" t="s">
         <v>12</v>
@@ -13848,7 +14139,7 @@
         <v>206</v>
       </c>
       <c r="E261" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F261" t="s">
         <v>12</v>
@@ -13947,7 +14238,7 @@
         <v>206</v>
       </c>
       <c r="E264" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F264" t="s">
         <v>12</v>
@@ -15426,7 +15717,7 @@
         <v>204</v>
       </c>
       <c r="C309" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -15459,13 +15750,13 @@
         <v>204</v>
       </c>
       <c r="C310" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D310" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E310" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F310" t="s">
         <v>10</v>
@@ -15492,13 +15783,13 @@
         <v>204</v>
       </c>
       <c r="C311" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D311" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E311" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F311" t="s">
         <v>7</v>
@@ -15525,13 +15816,13 @@
         <v>204</v>
       </c>
       <c r="C312" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D312" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E312" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F312" t="s">
         <v>10</v>
@@ -15558,13 +15849,13 @@
         <v>204</v>
       </c>
       <c r="C313" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D313" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E313" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F313" t="s">
         <v>10</v>
@@ -15591,13 +15882,13 @@
         <v>204</v>
       </c>
       <c r="C314" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D314" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E314" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F314" t="s">
         <v>10</v>
@@ -15624,13 +15915,13 @@
         <v>204</v>
       </c>
       <c r="C315" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D315" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E315" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F315" t="s">
         <v>22</v>
@@ -15657,13 +15948,13 @@
         <v>204</v>
       </c>
       <c r="C316" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D316" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E316" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F316" t="s">
         <v>22</v>
@@ -15690,13 +15981,13 @@
         <v>204</v>
       </c>
       <c r="C317" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D317" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E317" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F317" t="s">
         <v>10</v>
@@ -15723,16 +16014,16 @@
         <v>204</v>
       </c>
       <c r="C318" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D318" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E318" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F318" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -15756,13 +16047,13 @@
         <v>204</v>
       </c>
       <c r="C319" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D319" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E319" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F319" t="s">
         <v>10</v>
@@ -15789,13 +16080,13 @@
         <v>204</v>
       </c>
       <c r="C320" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D320" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E320" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F320" t="s">
         <v>12</v>
@@ -15822,13 +16113,13 @@
         <v>204</v>
       </c>
       <c r="C321" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D321" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E321" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F321" t="s">
         <v>12</v>
@@ -15848,20 +16139,20 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="4" t="str">
-        <f t="shared" ref="A322:A370" si="5">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C322, " ", "_")), "] ", LOWER(SUBSTITUTE(E322, " ", "_")))</f>
+        <f t="shared" ref="A322:A385" si="5">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C322, " ", "_")), "] ", LOWER(SUBSTITUTE(E322, " ", "_")))</f>
         <v>[the_shire] holfoot_bracegirdle</v>
       </c>
       <c r="B322" t="s">
         <v>204</v>
       </c>
       <c r="C322" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D322" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E322" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F322" t="s">
         <v>10</v>
@@ -15888,13 +16179,13 @@
         <v>204</v>
       </c>
       <c r="C323" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D323" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E323" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F323" t="s">
         <v>22</v>
@@ -15921,13 +16212,13 @@
         <v>204</v>
       </c>
       <c r="C324" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D324" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E324" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F324" t="s">
         <v>10</v>
@@ -15954,13 +16245,13 @@
         <v>204</v>
       </c>
       <c r="C325" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D325" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E325" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F325" t="s">
         <v>7</v>
@@ -15987,13 +16278,13 @@
         <v>204</v>
       </c>
       <c r="C326" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D326" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E326" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F326" t="s">
         <v>10</v>
@@ -16020,13 +16311,13 @@
         <v>204</v>
       </c>
       <c r="C327" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D327" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E327" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F327" t="s">
         <v>7</v>
@@ -16053,13 +16344,13 @@
         <v>204</v>
       </c>
       <c r="C328" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D328" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E328" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F328" t="s">
         <v>10</v>
@@ -16086,13 +16377,13 @@
         <v>204</v>
       </c>
       <c r="C329" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D329" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E329" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F329" t="s">
         <v>44</v>
@@ -16119,13 +16410,13 @@
         <v>204</v>
       </c>
       <c r="C330" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D330" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E330" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F330" t="s">
         <v>10</v>
@@ -16152,13 +16443,13 @@
         <v>204</v>
       </c>
       <c r="C331" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D331" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E331" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F331" t="s">
         <v>10</v>
@@ -16177,7 +16468,7 @@
       </c>
     </row>
     <row r="332" spans="1:10">
-      <c r="A332" s="15" t="str">
+      <c r="A332" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] hobbit_shirriff</v>
       </c>
@@ -16185,13 +16476,13 @@
         <v>204</v>
       </c>
       <c r="C332" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D332" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E332" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F332" t="s">
         <v>12</v>
@@ -16210,7 +16501,7 @@
       </c>
     </row>
     <row r="333" spans="1:10">
-      <c r="A333" s="15" t="str">
+      <c r="A333" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_arbalester</v>
       </c>
@@ -16218,13 +16509,13 @@
         <v>205</v>
       </c>
       <c r="C333" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D333" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E333" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F333" t="s">
         <v>12</v>
@@ -16243,7 +16534,7 @@
       </c>
     </row>
     <row r="334" spans="1:10">
-      <c r="A334" s="15" t="str">
+      <c r="A334" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_bo'sun</v>
       </c>
@@ -16251,13 +16542,13 @@
         <v>205</v>
       </c>
       <c r="C334" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D334" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E334" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F334" t="s">
         <v>10</v>
@@ -16284,13 +16575,13 @@
         <v>205</v>
       </c>
       <c r="C335" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D335" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E335" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F335" t="s">
         <v>10</v>
@@ -16317,13 +16608,13 @@
         <v>205</v>
       </c>
       <c r="C336" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D336" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E336" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F336" t="s">
         <v>12</v>
@@ -16350,13 +16641,13 @@
         <v>205</v>
       </c>
       <c r="C337" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D337" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E337" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F337" t="s">
         <v>12</v>
@@ -16375,7 +16666,7 @@
       </c>
     </row>
     <row r="338" spans="1:10">
-      <c r="A338" s="15" t="str">
+      <c r="A338" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] dalamyr,_fleetmaster_of_umbar</v>
       </c>
@@ -16383,13 +16674,13 @@
         <v>205</v>
       </c>
       <c r="C338" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D338" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E338" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F338" t="s">
         <v>15</v>
@@ -16408,7 +16699,7 @@
       </c>
     </row>
     <row r="339" spans="1:10">
-      <c r="A339" s="15" t="str">
+      <c r="A339" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] delgamar,_gatemaster_of_umbar</v>
       </c>
@@ -16416,13 +16707,13 @@
         <v>205</v>
       </c>
       <c r="C339" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D339" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E339" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F339" t="s">
         <v>7</v>
@@ -16441,7 +16732,7 @@
       </c>
     </row>
     <row r="340" spans="1:10">
-      <c r="A340" s="15" t="str">
+      <c r="A340" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] half_troll</v>
       </c>
@@ -16449,13 +16740,13 @@
         <v>205</v>
       </c>
       <c r="C340" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D340" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E340" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F340" t="s">
         <v>12</v>
@@ -16488,7 +16779,7 @@
         <v>209</v>
       </c>
       <c r="E341" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F341" t="s">
         <v>10</v>
@@ -16521,7 +16812,7 @@
         <v>917</v>
       </c>
       <c r="E342" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F342" t="s">
         <v>12</v>
@@ -16554,7 +16845,7 @@
         <v>917</v>
       </c>
       <c r="E343" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F343" t="s">
         <v>10</v>
@@ -16573,7 +16864,7 @@
       </c>
     </row>
     <row r="344" spans="1:10">
-      <c r="A344" s="15" t="str">
+      <c r="A344" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_horseman</v>
       </c>
@@ -16587,7 +16878,7 @@
         <v>917</v>
       </c>
       <c r="E344" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F344" t="s">
         <v>12</v>
@@ -16606,7 +16897,7 @@
       </c>
     </row>
     <row r="345" spans="1:10">
-      <c r="A345" s="15" t="str">
+      <c r="A345" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_king</v>
       </c>
@@ -16620,7 +16911,7 @@
         <v>917</v>
       </c>
       <c r="E345" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F345" t="s">
         <v>7</v>
@@ -16639,7 +16930,7 @@
       </c>
     </row>
     <row r="346" spans="1:10">
-      <c r="A346" s="15" t="str">
+      <c r="A346" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_warrior</v>
       </c>
@@ -16653,7 +16944,7 @@
         <v>917</v>
       </c>
       <c r="E346" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F346" t="s">
         <v>12</v>
@@ -16680,13 +16971,13 @@
         <v>205</v>
       </c>
       <c r="C347" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D347" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E347" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F347" t="s">
         <v>10</v>
@@ -16713,13 +17004,13 @@
         <v>205</v>
       </c>
       <c r="C348" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D348" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E348" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F348" t="s">
         <v>12</v>
@@ -16746,13 +17037,13 @@
         <v>205</v>
       </c>
       <c r="C349" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D349" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E349" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F349" t="s">
         <v>10</v>
@@ -16771,7 +17062,7 @@
       </c>
     </row>
     <row r="350" spans="1:10">
-      <c r="A350" s="15" t="str">
+      <c r="A350" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_warrior</v>
       </c>
@@ -16779,13 +17070,13 @@
         <v>205</v>
       </c>
       <c r="C350" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D350" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E350" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F350" t="s">
         <v>12</v>
@@ -16804,7 +17095,7 @@
       </c>
     </row>
     <row r="351" spans="1:10">
-      <c r="A351" s="15" t="str">
+      <c r="A351" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_serpent_horde] raza,_fang_of_the_serpent</v>
       </c>
@@ -16818,7 +17109,7 @@
         <v>209</v>
       </c>
       <c r="E351" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F351" t="s">
         <v>10</v>
@@ -16837,7 +17128,7 @@
       </c>
     </row>
     <row r="352" spans="1:10">
-      <c r="A352" s="15" t="str">
+      <c r="A352" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] the_mumak_war_leader</v>
       </c>
@@ -16845,13 +17136,13 @@
         <v>205</v>
       </c>
       <c r="C352" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D352" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E352" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F352" t="s">
         <v>15</v>
@@ -16878,13 +17169,13 @@
         <v>205</v>
       </c>
       <c r="C353" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D353" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E353" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F353" t="s">
         <v>10</v>
@@ -16917,7 +17208,7 @@
         <v>209</v>
       </c>
       <c r="E354" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F354" t="s">
         <v>10</v>
@@ -16944,7 +17235,7 @@
         <v>205</v>
       </c>
       <c r="C355" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D355" t="s">
         <v>95</v>
@@ -16977,7 +17268,7 @@
         <v>205</v>
       </c>
       <c r="C356" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D356" t="s">
         <v>209</v>
@@ -17010,7 +17301,7 @@
         <v>205</v>
       </c>
       <c r="C357" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D357" t="s">
         <v>239</v>
@@ -17043,7 +17334,7 @@
         <v>205</v>
       </c>
       <c r="C358" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D358" t="s">
         <v>239</v>
@@ -17068,43 +17359,1094 @@
       </c>
     </row>
     <row r="359" spans="1:10">
-      <c r="A359" s="4"/>
+      <c r="A359" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_rangers] arathorn</v>
+      </c>
+      <c r="B359" t="s">
+        <v>204</v>
+      </c>
+      <c r="C359" t="s">
+        <v>851</v>
+      </c>
+      <c r="D359" t="s">
+        <v>851</v>
+      </c>
+      <c r="E359" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F359" t="s">
+        <v>7</v>
+      </c>
+      <c r="G359">
+        <v>75</v>
+      </c>
+      <c r="H359" t="b">
+        <v>0</v>
+      </c>
+      <c r="I359" t="b">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360" spans="1:10">
-      <c r="A360" s="4"/>
+      <c r="A360" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[arnor] arvedui,_last_king_of_arnor</v>
+      </c>
+      <c r="B360" t="s">
+        <v>204</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E360" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F360" t="s">
+        <v>7</v>
+      </c>
+      <c r="G360">
+        <v>80</v>
+      </c>
+      <c r="H360" t="b">
+        <v>0</v>
+      </c>
+      <c r="I360" t="b">
+        <v>1</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
     </row>
     <row r="361" spans="1:10">
-      <c r="A361" s="4"/>
+      <c r="A361" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[fangorn] beechbone</v>
+      </c>
+      <c r="B361" t="s">
+        <v>204</v>
+      </c>
+      <c r="C361" t="s">
+        <v>948</v>
+      </c>
+      <c r="D361" t="s">
+        <v>948</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F361" t="s">
+        <v>10</v>
+      </c>
+      <c r="G361">
+        <v>160</v>
+      </c>
+      <c r="H361" t="b">
+        <v>0</v>
+      </c>
+      <c r="I361" t="b">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
     </row>
     <row r="362" spans="1:10">
-      <c r="A362" s="15"/>
+      <c r="A362" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[sharkey's_rogues] bill_ferny</v>
+      </c>
+      <c r="B362" t="s">
+        <v>205</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E362" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F362" t="s">
+        <v>10</v>
+      </c>
+      <c r="G362">
+        <v>40</v>
+      </c>
+      <c r="H362" t="b">
+        <v>0</v>
+      </c>
+      <c r="I362" t="b">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
     </row>
     <row r="363" spans="1:10">
-      <c r="A363" s="15"/>
+      <c r="A363" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[arnor] captain_of_arnor</v>
+      </c>
+      <c r="B363" t="s">
+        <v>204</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E363" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F363" t="s">
+        <v>10</v>
+      </c>
+      <c r="G363">
+        <v>55</v>
+      </c>
+      <c r="H363" t="b">
+        <v>0</v>
+      </c>
+      <c r="I363" t="b">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
     </row>
     <row r="364" spans="1:10">
-      <c r="A364" s="15"/>
+      <c r="A364" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[numenor] captain_of_numenor</v>
+      </c>
+      <c r="B364" t="s">
+        <v>204</v>
+      </c>
+      <c r="C364" t="s">
+        <v>939</v>
+      </c>
+      <c r="D364" t="s">
+        <v>939</v>
+      </c>
+      <c r="E364" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F364" t="s">
+        <v>10</v>
+      </c>
+      <c r="G364">
+        <v>50</v>
+      </c>
+      <c r="H364" t="b">
+        <v>0</v>
+      </c>
+      <c r="I364" t="b">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365" spans="1:10">
-      <c r="A365" s="4"/>
+      <c r="A365" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_rangers] dunedain</v>
+      </c>
+      <c r="B365" t="s">
+        <v>204</v>
+      </c>
+      <c r="C365" t="s">
+        <v>851</v>
+      </c>
+      <c r="D365" t="s">
+        <v>851</v>
+      </c>
+      <c r="E365" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F365" t="s">
+        <v>44</v>
+      </c>
+      <c r="G365">
+        <v>25</v>
+      </c>
+      <c r="H365" t="b">
+        <v>0</v>
+      </c>
+      <c r="I365" t="b">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366" spans="1:10">
-      <c r="A366" s="4"/>
+      <c r="A366" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[numenor] elendil</v>
+      </c>
+      <c r="B366" t="s">
+        <v>204</v>
+      </c>
+      <c r="C366" t="s">
+        <v>939</v>
+      </c>
+      <c r="D366" t="s">
+        <v>939</v>
+      </c>
+      <c r="E366" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F366" t="s">
+        <v>15</v>
+      </c>
+      <c r="G366">
+        <v>185</v>
+      </c>
+      <c r="H366" t="b">
+        <v>0</v>
+      </c>
+      <c r="I366" t="b">
+        <v>1</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="1:10">
-      <c r="A367" s="4"/>
+      <c r="A367" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[fangorn] ent</v>
+      </c>
+      <c r="B367" t="s">
+        <v>204</v>
+      </c>
+      <c r="C367" t="s">
+        <v>948</v>
+      </c>
+      <c r="D367" t="s">
+        <v>948</v>
+      </c>
+      <c r="E367" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F367" t="s">
+        <v>12</v>
+      </c>
+      <c r="G367">
+        <v>120</v>
+      </c>
+      <c r="H367" t="b">
+        <v>0</v>
+      </c>
+      <c r="I367" t="b">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
     </row>
     <row r="368" spans="1:10">
-      <c r="A368" s="15"/>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" s="15"/>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" s="15"/>
+      <c r="A368" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[wildmen_of_druadan] ghan-buri-ghan</v>
+      </c>
+      <c r="B368" t="s">
+        <v>204</v>
+      </c>
+      <c r="C368" t="s">
+        <v>921</v>
+      </c>
+      <c r="D368" t="s">
+        <v>921</v>
+      </c>
+      <c r="E368" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F368" t="s">
+        <v>7</v>
+      </c>
+      <c r="G368">
+        <v>65</v>
+      </c>
+      <c r="H368" t="b">
+        <v>0</v>
+      </c>
+      <c r="I368" t="b">
+        <v>1</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10">
+      <c r="A369" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_misty_mountains] great_eagle</v>
+      </c>
+      <c r="B369" t="s">
+        <v>204</v>
+      </c>
+      <c r="C369" t="s">
+        <v>984</v>
+      </c>
+      <c r="D369" t="s">
+        <v>984</v>
+      </c>
+      <c r="E369" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F369" t="s">
+        <v>12</v>
+      </c>
+      <c r="G369">
+        <v>100</v>
+      </c>
+      <c r="H369" t="b">
+        <v>0</v>
+      </c>
+      <c r="I369" t="b">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10">
+      <c r="A370" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_misty_mountains] gwaihir</v>
+      </c>
+      <c r="B370" t="s">
+        <v>204</v>
+      </c>
+      <c r="C370" t="s">
+        <v>984</v>
+      </c>
+      <c r="D370" t="s">
+        <v>984</v>
+      </c>
+      <c r="E370" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F370" t="s">
+        <v>15</v>
+      </c>
+      <c r="G370">
+        <v>150</v>
+      </c>
+      <c r="H370" t="b">
+        <v>0</v>
+      </c>
+      <c r="I370" t="b">
+        <v>1</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10">
+      <c r="A371" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_rangers] halbarad</v>
+      </c>
+      <c r="B371" t="s">
+        <v>204</v>
+      </c>
+      <c r="C371" t="s">
+        <v>851</v>
+      </c>
+      <c r="D371" t="s">
+        <v>851</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F371" t="s">
+        <v>10</v>
+      </c>
+      <c r="G371">
+        <v>70</v>
+      </c>
+      <c r="H371" t="b">
+        <v>0</v>
+      </c>
+      <c r="I371" t="b">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10">
+      <c r="A372" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[sharkey's_rogues] harry_goatleaf</v>
+      </c>
+      <c r="B372" t="s">
+        <v>205</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E372" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F372" t="s">
+        <v>22</v>
+      </c>
+      <c r="G372">
+        <v>40</v>
+      </c>
+      <c r="H372" t="b">
+        <v>0</v>
+      </c>
+      <c r="I372" t="b">
+        <v>1</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10">
+      <c r="A373" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[numenor] isildur</v>
+      </c>
+      <c r="B373" t="s">
+        <v>204</v>
+      </c>
+      <c r="C373" t="s">
+        <v>939</v>
+      </c>
+      <c r="D373" t="s">
+        <v>939</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F373" t="s">
+        <v>7</v>
+      </c>
+      <c r="G373">
+        <v>120</v>
+      </c>
+      <c r="H373" t="b">
+        <v>0</v>
+      </c>
+      <c r="I373" t="b">
+        <v>1</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10">
+      <c r="A374" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[arnor] malbeth_the_seer</v>
+      </c>
+      <c r="B374" t="s">
+        <v>204</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F374" t="s">
+        <v>10</v>
+      </c>
+      <c r="G374">
+        <v>70</v>
+      </c>
+      <c r="H374" t="b">
+        <v>0</v>
+      </c>
+      <c r="I374" t="b">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10">
+      <c r="A375" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[fangorn] quickbeam</v>
+      </c>
+      <c r="B375" t="s">
+        <v>204</v>
+      </c>
+      <c r="C375" t="s">
+        <v>948</v>
+      </c>
+      <c r="D375" t="s">
+        <v>948</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F375" t="s">
+        <v>10</v>
+      </c>
+      <c r="G375">
+        <v>140</v>
+      </c>
+      <c r="H375" t="b">
+        <v>0</v>
+      </c>
+      <c r="I375" t="b">
+        <v>1</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10">
+      <c r="A376" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[the_rangers] ranger_of_the_north</v>
+      </c>
+      <c r="B376" t="s">
+        <v>204</v>
+      </c>
+      <c r="C376" t="s">
+        <v>851</v>
+      </c>
+      <c r="D376" t="s">
+        <v>851</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F376" t="s">
+        <v>44</v>
+      </c>
+      <c r="G376">
+        <v>30</v>
+      </c>
+      <c r="H376" t="b">
+        <v>0</v>
+      </c>
+      <c r="I376" t="b">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10">
+      <c r="A377" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[sharkey's_rogues] rowan_thistlewood,_ruffian_enforcer</v>
+      </c>
+      <c r="B377" t="s">
+        <v>205</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F377" t="s">
+        <v>10</v>
+      </c>
+      <c r="G377">
+        <v>45</v>
+      </c>
+      <c r="H377" t="b">
+        <v>0</v>
+      </c>
+      <c r="I377" t="b">
+        <v>1</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10">
+      <c r="A378" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[sharkey's_rogues] ruffian</v>
+      </c>
+      <c r="B378" t="s">
+        <v>205</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F378" t="s">
+        <v>12</v>
+      </c>
+      <c r="G378">
+        <v>5</v>
+      </c>
+      <c r="H378" t="b">
+        <v>0</v>
+      </c>
+      <c r="I378" t="b">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10">
+      <c r="A379" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[sharkey's_rogues] sharkey_and_worm</v>
+      </c>
+      <c r="B379" t="s">
+        <v>205</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F379" t="s">
+        <v>15</v>
+      </c>
+      <c r="G379">
+        <v>60</v>
+      </c>
+      <c r="H379" t="b">
+        <v>0</v>
+      </c>
+      <c r="I379" t="b">
+        <v>1</v>
+      </c>
+      <c r="J379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10">
+      <c r="A380" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[sharkey's_rogues] sid_briarthorn,_ruffian_chief</v>
+      </c>
+      <c r="B380" t="s">
+        <v>205</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F380" t="s">
+        <v>7</v>
+      </c>
+      <c r="G380">
+        <v>45</v>
+      </c>
+      <c r="H380" t="b">
+        <v>0</v>
+      </c>
+      <c r="I380" t="b">
+        <v>1</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10">
+      <c r="A381" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[sharkey's_rogues] ted_sandyman</v>
+      </c>
+      <c r="B381" t="s">
+        <v>205</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F381" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381">
+        <v>20</v>
+      </c>
+      <c r="H381" t="b">
+        <v>0</v>
+      </c>
+      <c r="I381" t="b">
+        <v>1</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10">
+      <c r="A382" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[fangorn] treebeard</v>
+      </c>
+      <c r="B382" t="s">
+        <v>204</v>
+      </c>
+      <c r="C382" t="s">
+        <v>948</v>
+      </c>
+      <c r="D382" t="s">
+        <v>948</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F382" t="s">
+        <v>15</v>
+      </c>
+      <c r="G382">
+        <v>190</v>
+      </c>
+      <c r="H382" t="b">
+        <v>0</v>
+      </c>
+      <c r="I382" t="b">
+        <v>1</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10">
+      <c r="A383" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[arnor] warrior_of_arnor</v>
+      </c>
+      <c r="B383" t="s">
+        <v>204</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F383" t="s">
+        <v>12</v>
+      </c>
+      <c r="G383">
+        <v>8</v>
+      </c>
+      <c r="H383" t="b">
+        <v>0</v>
+      </c>
+      <c r="I383" t="b">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10">
+      <c r="A384" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[numenor] warrior_of_numenor</v>
+      </c>
+      <c r="B384" t="s">
+        <v>204</v>
+      </c>
+      <c r="C384" t="s">
+        <v>939</v>
+      </c>
+      <c r="D384" t="s">
+        <v>939</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F384" t="s">
+        <v>12</v>
+      </c>
+      <c r="G384">
+        <v>8</v>
+      </c>
+      <c r="H384" t="b">
+        <v>0</v>
+      </c>
+      <c r="I384" t="b">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10">
+      <c r="A385" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>[wildmen_of_druadan] woses_warrior</v>
+      </c>
+      <c r="B385" t="s">
+        <v>204</v>
+      </c>
+      <c r="C385" t="s">
+        <v>921</v>
+      </c>
+      <c r="D385" t="s">
+        <v>921</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F385" t="s">
+        <v>12</v>
+      </c>
+      <c r="G385">
+        <v>9</v>
+      </c>
+      <c r="H385" t="b">
+        <v>0</v>
+      </c>
+      <c r="I385" t="b">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10">
+      <c r="A386" s="4" t="str">
+        <f t="shared" ref="A386:A391" si="6">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C386, " ", "_")), "] ", LOWER(SUBSTITUTE(E386, " ", "_")))</f>
+        <v>[the_shire] dunedain</v>
+      </c>
+      <c r="B386" t="s">
+        <v>204</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D386" t="s">
+        <v>851</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F386" t="s">
+        <v>44</v>
+      </c>
+      <c r="G386">
+        <v>25</v>
+      </c>
+      <c r="H386" t="b">
+        <v>0</v>
+      </c>
+      <c r="I386" t="b">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10">
+      <c r="A387" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>[arnor] hobbit_archer</v>
+      </c>
+      <c r="B387" t="s">
+        <v>204</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F387" t="s">
+        <v>12</v>
+      </c>
+      <c r="G387">
+        <v>5</v>
+      </c>
+      <c r="H387" t="b">
+        <v>1</v>
+      </c>
+      <c r="I387" t="b">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10">
+      <c r="A388" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>[the_rangers] aragorn,_strider</v>
+      </c>
+      <c r="B388" t="s">
+        <v>204</v>
+      </c>
+      <c r="C388" t="s">
+        <v>851</v>
+      </c>
+      <c r="D388" t="s">
+        <v>3</v>
+      </c>
+      <c r="E388" t="s">
+        <v>4</v>
+      </c>
+      <c r="F388" t="s">
+        <v>7</v>
+      </c>
+      <c r="G388">
+        <v>160</v>
+      </c>
+      <c r="H388" t="b">
+        <v>0</v>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10">
+      <c r="A389" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>[sharkey's_rogues] lotho_sackville-baggins</v>
+      </c>
+      <c r="B389" t="s">
+        <v>205</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F389" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389">
+        <v>30</v>
+      </c>
+      <c r="H389" t="b">
+        <v>0</v>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10">
+      <c r="A390" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B390" t="s">
+        <v>205</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F390" t="s">
+        <v>10</v>
+      </c>
+      <c r="G390">
+        <v>5</v>
+      </c>
+      <c r="H390" t="b">
+        <v>0</v>
+      </c>
+      <c r="I390" t="b">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10">
+      <c r="A391" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B391" t="s">
+        <v>204</v>
+      </c>
+      <c r="C391" t="s">
+        <v>921</v>
+      </c>
+      <c r="D391" t="s">
+        <v>921</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F391" t="s">
+        <v>10</v>
+      </c>
+      <c r="G391">
+        <v>9</v>
+      </c>
+      <c r="H391" t="b">
+        <v>0</v>
+      </c>
+      <c r="I391" t="b">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J358" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
+  <autoFilter ref="A1:J389" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J308">
     <sortCondition ref="C2:C308"/>
     <sortCondition ref="F2:F308"/>
@@ -17117,11 +18459,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <dimension ref="A1:H602"/>
+  <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C355" sqref="C355"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A606" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E616" sqref="E616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17130,7 +18472,7 @@
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17167,7 +18509,7 @@
         <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D2" t="s">
         <v>308</v>
@@ -17193,10 +18535,10 @@
         <v>241</v>
       </c>
       <c r="C3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D3" t="s">
         <v>1276</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1277</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -17216,7 +18558,7 @@
         <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D4" t="s">
         <v>312</v>
@@ -17239,7 +18581,7 @@
         <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D5" t="s">
         <v>308</v>
@@ -17265,7 +18607,7 @@
         <v>241</v>
       </c>
       <c r="C6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D6" t="s">
         <v>286</v>
@@ -17288,10 +18630,10 @@
         <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D7" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -17314,7 +18656,7 @@
         <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D8" t="s">
         <v>312</v>
@@ -17337,7 +18679,7 @@
         <v>241</v>
       </c>
       <c r="C9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D9" t="s">
         <v>320</v>
@@ -17360,7 +18702,7 @@
         <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D10" t="s">
         <v>291</v>
@@ -17383,7 +18725,7 @@
         <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D11" t="s">
         <v>286</v>
@@ -17406,10 +18748,10 @@
         <v>241</v>
       </c>
       <c r="C12" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D12" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -17432,7 +18774,7 @@
         <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D13" t="s">
         <v>312</v>
@@ -17455,7 +18797,7 @@
         <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D14" t="s">
         <v>332</v>
@@ -17478,7 +18820,7 @@
         <v>241</v>
       </c>
       <c r="C15" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D15" t="s">
         <v>308</v>
@@ -19673,7 +21015,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B106" t="s">
         <v>42</v>
@@ -25098,7 +26440,7 @@
         <v>70</v>
       </c>
       <c r="D330" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E330">
         <v>1</v>
@@ -25810,7 +27152,7 @@
         <v>137</v>
       </c>
       <c r="D359" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E359">
         <v>1</v>
@@ -26340,7 +27682,7 @@
         <v>206</v>
       </c>
       <c r="C381" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D381" t="s">
         <v>286</v>
@@ -26363,7 +27705,7 @@
         <v>206</v>
       </c>
       <c r="C382" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D382" t="s">
         <v>695</v>
@@ -26386,7 +27728,7 @@
         <v>206</v>
       </c>
       <c r="C383" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D383" t="s">
         <v>697</v>
@@ -26412,7 +27754,7 @@
         <v>206</v>
       </c>
       <c r="C384" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D384" t="s">
         <v>286</v>
@@ -26435,7 +27777,7 @@
         <v>206</v>
       </c>
       <c r="C385" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D385" t="s">
         <v>697</v>
@@ -26461,7 +27803,7 @@
         <v>206</v>
       </c>
       <c r="C386" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D386" t="s">
         <v>409</v>
@@ -26484,7 +27826,7 @@
         <v>206</v>
       </c>
       <c r="C387" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D387" t="s">
         <v>312</v>
@@ -26507,7 +27849,7 @@
         <v>206</v>
       </c>
       <c r="C388" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D388" t="s">
         <v>356</v>
@@ -26628,7 +27970,7 @@
         <v>206</v>
       </c>
       <c r="C393" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D393" t="s">
         <v>286</v>
@@ -26651,7 +27993,7 @@
         <v>206</v>
       </c>
       <c r="C394" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D394" t="s">
         <v>695</v>
@@ -26674,7 +28016,7 @@
         <v>206</v>
       </c>
       <c r="C395" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D395" t="s">
         <v>697</v>
@@ -27763,7 +29105,7 @@
         <v>244</v>
       </c>
       <c r="C440" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D440" t="s">
         <v>286</v>
@@ -27786,7 +29128,7 @@
         <v>244</v>
       </c>
       <c r="C441" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D441" t="s">
         <v>695</v>
@@ -27809,7 +29151,7 @@
         <v>244</v>
       </c>
       <c r="C442" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D442" t="s">
         <v>754</v>
@@ -27835,7 +29177,7 @@
         <v>244</v>
       </c>
       <c r="C443" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D443" t="s">
         <v>286</v>
@@ -27858,7 +29200,7 @@
         <v>244</v>
       </c>
       <c r="C444" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D444" t="s">
         <v>409</v>
@@ -27881,7 +29223,7 @@
         <v>244</v>
       </c>
       <c r="C445" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D445" t="s">
         <v>312</v>
@@ -27904,7 +29246,7 @@
         <v>244</v>
       </c>
       <c r="C446" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D446" t="s">
         <v>356</v>
@@ -27930,7 +29272,7 @@
         <v>244</v>
       </c>
       <c r="C447" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D447" t="s">
         <v>754</v>
@@ -28051,7 +29393,7 @@
         <v>244</v>
       </c>
       <c r="C452" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D452" t="s">
         <v>286</v>
@@ -28074,7 +29416,7 @@
         <v>244</v>
       </c>
       <c r="C453" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D453" t="s">
         <v>695</v>
@@ -28097,7 +29439,7 @@
         <v>244</v>
       </c>
       <c r="C454" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D454" t="s">
         <v>697</v>
@@ -28123,7 +29465,7 @@
         <v>244</v>
       </c>
       <c r="C455" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D455" t="s">
         <v>754</v>
@@ -28339,7 +29681,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="5" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B464" t="s">
         <v>243</v>
@@ -28699,7 +30041,7 @@
         <v>28</v>
       </c>
       <c r="D479" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E479">
         <v>2</v>
@@ -29044,7 +30386,7 @@
     </row>
     <row r="494" spans="1:8">
       <c r="A494" s="5" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B494" t="s">
         <v>246</v>
@@ -29067,7 +30409,7 @@
     </row>
     <row r="495" spans="1:8">
       <c r="A495" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B495" t="s">
         <v>246</v>
@@ -29090,7 +30432,7 @@
     </row>
     <row r="496" spans="1:8">
       <c r="A496" s="5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B496" t="s">
         <v>246</v>
@@ -29113,7 +30455,7 @@
     </row>
     <row r="497" spans="1:8">
       <c r="A497" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B497" t="s">
         <v>245</v>
@@ -29136,7 +30478,7 @@
     </row>
     <row r="498" spans="1:8">
       <c r="A498" s="5" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B498" t="s">
         <v>245</v>
@@ -29159,7 +30501,7 @@
     </row>
     <row r="499" spans="1:8">
       <c r="A499" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B499" t="s">
         <v>245</v>
@@ -29182,7 +30524,7 @@
     </row>
     <row r="500" spans="1:8">
       <c r="A500" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B500" t="s">
         <v>245</v>
@@ -29208,7 +30550,7 @@
     </row>
     <row r="501" spans="1:8">
       <c r="A501" s="5" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B501" t="s">
         <v>245</v>
@@ -29231,7 +30573,7 @@
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B502" t="s">
         <v>245</v>
@@ -29254,7 +30596,7 @@
     </row>
     <row r="503" spans="1:8">
       <c r="A503" s="5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B503" t="s">
         <v>245</v>
@@ -29277,7 +30619,7 @@
     </row>
     <row r="504" spans="1:8">
       <c r="A504" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B504" t="s">
         <v>245</v>
@@ -29300,7 +30642,7 @@
     </row>
     <row r="505" spans="1:8">
       <c r="A505" s="5" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B505" s="5" t="s">
         <v>209</v>
@@ -29326,7 +30668,7 @@
     </row>
     <row r="506" spans="1:8">
       <c r="A506" s="5" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B506" s="5" t="s">
         <v>209</v>
@@ -29349,7 +30691,7 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B507" s="5" t="s">
         <v>209</v>
@@ -29375,7 +30717,7 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B508" s="5" t="s">
         <v>209</v>
@@ -29398,7 +30740,7 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B509" s="5" t="s">
         <v>209</v>
@@ -29421,7 +30763,7 @@
     </row>
     <row r="510" spans="1:8">
       <c r="A510" s="5" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B510" s="5" t="s">
         <v>209</v>
@@ -29444,7 +30786,7 @@
     </row>
     <row r="511" spans="1:8">
       <c r="A511" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B511" s="5" t="s">
         <v>209</v>
@@ -29470,7 +30812,7 @@
     </row>
     <row r="512" spans="1:8">
       <c r="A512" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B512" s="5" t="s">
         <v>209</v>
@@ -29493,7 +30835,7 @@
     </row>
     <row r="513" spans="1:8">
       <c r="A513" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B513" s="5" t="s">
         <v>209</v>
@@ -29516,7 +30858,7 @@
     </row>
     <row r="514" spans="1:8">
       <c r="A514" s="5" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B514" s="5" t="s">
         <v>209</v>
@@ -29539,7 +30881,7 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B515" s="5" t="s">
         <v>209</v>
@@ -29565,7 +30907,7 @@
     </row>
     <row r="516" spans="1:8">
       <c r="A516" s="5" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B516" s="5" t="s">
         <v>209</v>
@@ -29588,7 +30930,7 @@
     </row>
     <row r="517" spans="1:8">
       <c r="A517" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B517" s="5" t="s">
         <v>209</v>
@@ -29614,7 +30956,7 @@
     </row>
     <row r="518" spans="1:8">
       <c r="A518" s="5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B518" s="5" t="s">
         <v>209</v>
@@ -29637,7 +30979,7 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" s="5" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B519" s="5" t="s">
         <v>209</v>
@@ -29663,7 +31005,7 @@
     </row>
     <row r="520" spans="1:8">
       <c r="A520" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B520" s="5" t="s">
         <v>209</v>
@@ -29686,7 +31028,7 @@
     </row>
     <row r="521" spans="1:8">
       <c r="A521" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B521" t="s">
         <v>209</v>
@@ -29712,7 +31054,7 @@
     </row>
     <row r="522" spans="1:8">
       <c r="A522" s="5" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B522" t="s">
         <v>209</v>
@@ -29738,7 +31080,7 @@
     </row>
     <row r="523" spans="1:8">
       <c r="A523" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B523" t="s">
         <v>209</v>
@@ -29764,7 +31106,7 @@
     </row>
     <row r="524" spans="1:8">
       <c r="A524" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B524" s="5" t="s">
         <v>209</v>
@@ -29790,7 +31132,7 @@
     </row>
     <row r="525" spans="1:8">
       <c r="A525" s="5" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B525" s="5" t="s">
         <v>209</v>
@@ -29813,13 +31155,13 @@
     </row>
     <row r="526" spans="1:8">
       <c r="A526" s="5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B526" t="s">
         <v>965</v>
       </c>
       <c r="C526" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D526" t="s">
         <v>320</v>
@@ -29836,13 +31178,13 @@
     </row>
     <row r="527" spans="1:8">
       <c r="A527" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B527" t="s">
         <v>965</v>
       </c>
       <c r="C527" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D527" t="s">
         <v>310</v>
@@ -29859,13 +31201,13 @@
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="5" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B528" t="s">
         <v>965</v>
       </c>
       <c r="C528" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D528" t="s">
         <v>312</v>
@@ -29882,13 +31224,13 @@
     </row>
     <row r="529" spans="1:8">
       <c r="A529" s="5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B529" t="s">
         <v>965</v>
       </c>
       <c r="C529" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D529" t="s">
         <v>310</v>
@@ -29908,13 +31250,13 @@
     </row>
     <row r="530" spans="1:8">
       <c r="A530" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B530" t="s">
         <v>965</v>
       </c>
       <c r="C530" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D530" t="s">
         <v>312</v>
@@ -29931,13 +31273,13 @@
     </row>
     <row r="531" spans="1:8">
       <c r="A531" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B531" t="s">
         <v>965</v>
       </c>
       <c r="C531" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D531" t="s">
         <v>320</v>
@@ -29954,10 +31296,10 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B532" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C532" t="s">
         <v>165</v>
@@ -29977,10 +31319,10 @@
     </row>
     <row r="533" spans="1:8">
       <c r="A533" s="5" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B533" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C533" t="s">
         <v>165</v>
@@ -30003,13 +31345,13 @@
     </row>
     <row r="534" spans="1:8">
       <c r="A534" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B534" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C534" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D534" t="s">
         <v>284</v>
@@ -30026,16 +31368,16 @@
     </row>
     <row r="535" spans="1:8">
       <c r="A535" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B535" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C535" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D535" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E535">
         <v>1</v>
@@ -30052,16 +31394,16 @@
     </row>
     <row r="536" spans="1:8">
       <c r="A536" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B536" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C536" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D536" t="s">
         <v>1366</v>
-      </c>
-      <c r="D536" t="s">
-        <v>1367</v>
       </c>
       <c r="E536">
         <v>1</v>
@@ -30078,13 +31420,13 @@
     </row>
     <row r="537" spans="1:8">
       <c r="A537" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B537" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C537" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D537" t="s">
         <v>440</v>
@@ -30101,13 +31443,13 @@
     </row>
     <row r="538" spans="1:8">
       <c r="A538" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B538" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C538" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D538" t="s">
         <v>660</v>
@@ -30127,13 +31469,13 @@
     </row>
     <row r="539" spans="1:8">
       <c r="A539" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B539" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C539" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D539" t="s">
         <v>312</v>
@@ -30150,13 +31492,13 @@
     </row>
     <row r="540" spans="1:8">
       <c r="A540" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B540" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C540" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D540" t="s">
         <v>440</v>
@@ -30173,13 +31515,13 @@
     </row>
     <row r="541" spans="1:8">
       <c r="A541" s="5" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B541" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C541" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D541" t="s">
         <v>660</v>
@@ -30199,13 +31541,13 @@
     </row>
     <row r="542" spans="1:8">
       <c r="A542" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B542" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C542" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D542" t="s">
         <v>312</v>
@@ -30222,13 +31564,13 @@
     </row>
     <row r="543" spans="1:8">
       <c r="A543" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B543" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C543" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D543" t="s">
         <v>440</v>
@@ -30245,13 +31587,13 @@
     </row>
     <row r="544" spans="1:8">
       <c r="A544" s="5" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B544" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C544" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D544" t="s">
         <v>660</v>
@@ -30271,13 +31613,13 @@
     </row>
     <row r="545" spans="1:8">
       <c r="A545" s="5" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B545" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C545" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D545" t="s">
         <v>312</v>
@@ -30294,13 +31636,13 @@
     </row>
     <row r="546" spans="1:8">
       <c r="A546" s="5" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B546" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C546" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D546" t="s">
         <v>440</v>
@@ -30317,13 +31659,13 @@
     </row>
     <row r="547" spans="1:8">
       <c r="A547" s="5" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B547" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C547" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D547" t="s">
         <v>660</v>
@@ -30343,13 +31685,13 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B548" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C548" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D548" t="s">
         <v>356</v>
@@ -30369,13 +31711,13 @@
     </row>
     <row r="549" spans="1:8">
       <c r="A549" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B549" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C549" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D549" t="s">
         <v>391</v>
@@ -30395,13 +31737,13 @@
     </row>
     <row r="550" spans="1:8">
       <c r="A550" s="5" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B550" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C550" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D550" t="s">
         <v>312</v>
@@ -30418,13 +31760,13 @@
     </row>
     <row r="551" spans="1:8">
       <c r="A551" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B551" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C551" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D551" t="s">
         <v>362</v>
@@ -30441,13 +31783,13 @@
     </row>
     <row r="552" spans="1:8">
       <c r="A552" s="5" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B552" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C552" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D552" t="s">
         <v>320</v>
@@ -30464,13 +31806,13 @@
     </row>
     <row r="553" spans="1:8">
       <c r="A553" s="5" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B553" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C553" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D553" t="s">
         <v>356</v>
@@ -30490,13 +31832,13 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="5" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B554" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C554" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D554" t="s">
         <v>391</v>
@@ -30516,13 +31858,13 @@
     </row>
     <row r="555" spans="1:8">
       <c r="A555" s="5" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B555" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C555" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D555" t="s">
         <v>312</v>
@@ -30539,13 +31881,13 @@
     </row>
     <row r="556" spans="1:8">
       <c r="A556" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B556" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C556" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D556" t="s">
         <v>362</v>
@@ -30562,13 +31904,13 @@
     </row>
     <row r="557" spans="1:8">
       <c r="A557" s="5" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B557" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C557" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D557" t="s">
         <v>356</v>
@@ -30588,13 +31930,13 @@
     </row>
     <row r="558" spans="1:8">
       <c r="A558" s="5" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B558" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C558" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D558" t="s">
         <v>312</v>
@@ -30611,13 +31953,13 @@
     </row>
     <row r="559" spans="1:8">
       <c r="A559" s="5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B559" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C559" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D559" t="s">
         <v>320</v>
@@ -30634,16 +31976,16 @@
     </row>
     <row r="560" spans="1:8">
       <c r="A560" s="5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B560" t="s">
         <v>917</v>
       </c>
       <c r="C560" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D560" t="s">
         <v>1429</v>
-      </c>
-      <c r="D560" t="s">
-        <v>1430</v>
       </c>
       <c r="E560">
         <v>0</v>
@@ -30657,16 +31999,16 @@
     </row>
     <row r="561" spans="1:8">
       <c r="A561" s="5" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B561" t="s">
         <v>917</v>
       </c>
       <c r="C561" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D561" t="s">
         <v>1431</v>
-      </c>
-      <c r="D561" t="s">
-        <v>1432</v>
       </c>
       <c r="E561">
         <v>30</v>
@@ -30683,13 +32025,13 @@
     </row>
     <row r="562" spans="1:8">
       <c r="A562" s="5" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B562" t="s">
         <v>917</v>
       </c>
       <c r="C562" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D562" t="s">
         <v>262</v>
@@ -30709,16 +32051,16 @@
     </row>
     <row r="563" spans="1:8">
       <c r="A563" s="5" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B563" t="s">
         <v>917</v>
       </c>
       <c r="C563" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D563" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E563">
         <v>30</v>
@@ -30735,13 +32077,13 @@
     </row>
     <row r="564" spans="1:8">
       <c r="A564" s="5" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B564" t="s">
         <v>917</v>
       </c>
       <c r="C564" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D564" t="s">
         <v>262</v>
@@ -30761,16 +32103,16 @@
     </row>
     <row r="565" spans="1:8">
       <c r="A565" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B565" t="s">
         <v>917</v>
       </c>
       <c r="C565" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D565" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E565">
         <v>0</v>
@@ -30784,16 +32126,16 @@
     </row>
     <row r="566" spans="1:8">
       <c r="A566" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B566" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C566" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D566" t="s">
         <v>1436</v>
-      </c>
-      <c r="D566" t="s">
-        <v>1437</v>
       </c>
       <c r="E566">
         <v>10</v>
@@ -30810,16 +32152,16 @@
     </row>
     <row r="567" spans="1:8">
       <c r="A567" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B567" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C567" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D567" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E567">
         <v>5</v>
@@ -30833,13 +32175,13 @@
     </row>
     <row r="568" spans="1:8">
       <c r="A568" s="5" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B568" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C568" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D568" t="s">
         <v>312</v>
@@ -30856,13 +32198,13 @@
     </row>
     <row r="569" spans="1:8">
       <c r="A569" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B569" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C569" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D569" t="s">
         <v>816</v>
@@ -30879,13 +32221,13 @@
     </row>
     <row r="570" spans="1:8">
       <c r="A570" s="5" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B570" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C570" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D570" t="s">
         <v>286</v>
@@ -30902,16 +32244,16 @@
     </row>
     <row r="571" spans="1:8">
       <c r="A571" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B571" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C571" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D571" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E571">
         <v>1</v>
@@ -30925,13 +32267,13 @@
     </row>
     <row r="572" spans="1:8">
       <c r="A572" s="5" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B572" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C572" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D572" t="s">
         <v>320</v>
@@ -30948,16 +32290,16 @@
     </row>
     <row r="573" spans="1:8">
       <c r="A573" s="5" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B573" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C573" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D573" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E573">
         <v>10</v>
@@ -30974,16 +32316,16 @@
     </row>
     <row r="574" spans="1:8">
       <c r="A574" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B574" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C574" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D574" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E574">
         <v>5</v>
@@ -30997,13 +32339,13 @@
     </row>
     <row r="575" spans="1:8">
       <c r="A575" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B575" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C575" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D575" t="s">
         <v>312</v>
@@ -31020,13 +32362,13 @@
     </row>
     <row r="576" spans="1:8">
       <c r="A576" s="5" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B576" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C576" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D576" t="s">
         <v>816</v>
@@ -31043,13 +32385,13 @@
     </row>
     <row r="577" spans="1:8">
       <c r="A577" s="5" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B577" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C577" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D577" t="s">
         <v>286</v>
@@ -31066,16 +32408,16 @@
     </row>
     <row r="578" spans="1:8">
       <c r="A578" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B578" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C578" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D578" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E578">
         <v>1</v>
@@ -31089,13 +32431,13 @@
     </row>
     <row r="579" spans="1:8">
       <c r="A579" s="5" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B579" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C579" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D579" t="s">
         <v>320</v>
@@ -31112,16 +32454,16 @@
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="5" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B580" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C580" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D580" t="s">
         <v>1444</v>
-      </c>
-      <c r="D580" t="s">
-        <v>1445</v>
       </c>
       <c r="E580">
         <v>30</v>
@@ -31135,16 +32477,16 @@
     </row>
     <row r="581" spans="1:8">
       <c r="A581" s="5" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B581" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C581" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D581" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E581">
         <v>20</v>
@@ -31158,16 +32500,16 @@
     </row>
     <row r="582" spans="1:8">
       <c r="A582" s="5" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B582" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C582" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D582" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E582">
         <v>20</v>
@@ -31181,16 +32523,16 @@
     </row>
     <row r="583" spans="1:8">
       <c r="A583" s="5" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B583" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C583" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D583" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E583">
         <v>20</v>
@@ -31204,16 +32546,16 @@
     </row>
     <row r="584" spans="1:8">
       <c r="A584" s="5" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B584" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C584" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D584" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E584">
         <v>15</v>
@@ -31227,16 +32569,16 @@
     </row>
     <row r="585" spans="1:8">
       <c r="A585" s="5" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B585" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C585" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D585" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E585">
         <v>10</v>
@@ -31250,16 +32592,16 @@
     </row>
     <row r="586" spans="1:8">
       <c r="A586" s="5" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B586" t="s">
         <v>209</v>
       </c>
       <c r="C586" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D586" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E586">
         <v>30</v>
@@ -31273,16 +32615,16 @@
     </row>
     <row r="587" spans="1:8">
       <c r="A587" s="5" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B587" t="s">
         <v>209</v>
       </c>
       <c r="C587" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D587" t="s">
         <v>1451</v>
-      </c>
-      <c r="D587" t="s">
-        <v>1452</v>
       </c>
       <c r="E587">
         <v>25</v>
@@ -31296,16 +32638,16 @@
     </row>
     <row r="588" spans="1:8">
       <c r="A588" s="5" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B588" t="s">
         <v>209</v>
       </c>
       <c r="C588" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D588" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E588">
         <v>20</v>
@@ -31319,16 +32661,16 @@
     </row>
     <row r="589" spans="1:8">
       <c r="A589" s="5" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B589" t="s">
         <v>209</v>
       </c>
       <c r="C589" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D589" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E589">
         <v>20</v>
@@ -31342,16 +32684,16 @@
     </row>
     <row r="590" spans="1:8">
       <c r="A590" s="5" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B590" t="s">
         <v>209</v>
       </c>
       <c r="C590" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D590" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E590">
         <v>20</v>
@@ -31365,16 +32707,16 @@
     </row>
     <row r="591" spans="1:8">
       <c r="A591" s="5" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B591" t="s">
         <v>209</v>
       </c>
       <c r="C591" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D591" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E591">
         <v>15</v>
@@ -31388,16 +32730,16 @@
     </row>
     <row r="592" spans="1:8">
       <c r="A592" s="5" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B592" t="s">
         <v>209</v>
       </c>
       <c r="C592" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D592" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E592">
         <v>10</v>
@@ -31411,10 +32753,10 @@
     </row>
     <row r="593" spans="1:8">
       <c r="A593" s="5" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B593" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C593" t="s">
         <v>119</v>
@@ -31437,10 +32779,10 @@
     </row>
     <row r="594" spans="1:8">
       <c r="A594" s="5" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B594" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C594" t="s">
         <v>119</v>
@@ -31463,10 +32805,10 @@
     </row>
     <row r="595" spans="1:8">
       <c r="A595" s="5" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B595" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C595" t="s">
         <v>119</v>
@@ -31489,10 +32831,10 @@
     </row>
     <row r="596" spans="1:8">
       <c r="A596" s="5" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B596" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C596" t="s">
         <v>146</v>
@@ -31515,10 +32857,10 @@
     </row>
     <row r="597" spans="1:8">
       <c r="A597" s="5" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B597" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C597" t="s">
         <v>146</v>
@@ -31538,10 +32880,10 @@
     </row>
     <row r="598" spans="1:8">
       <c r="A598" s="5" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B598" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C598" t="s">
         <v>97</v>
@@ -31564,10 +32906,10 @@
     </row>
     <row r="599" spans="1:8">
       <c r="A599" s="5" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B599" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C599" t="s">
         <v>97</v>
@@ -31587,10 +32929,10 @@
     </row>
     <row r="600" spans="1:8">
       <c r="A600" s="5" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B600" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C600" t="s">
         <v>97</v>
@@ -31610,10 +32952,10 @@
     </row>
     <row r="601" spans="1:8">
       <c r="A601" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B601" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C601" t="s">
         <v>98</v>
@@ -31633,10 +32975,10 @@
     </row>
     <row r="602" spans="1:8">
       <c r="A602" s="5" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B602" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C602" t="s">
         <v>98</v>
@@ -31654,8 +32996,751 @@
         <v>1</v>
       </c>
     </row>
+    <row r="603" spans="1:8">
+      <c r="A603" s="5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E603">
+        <v>0</v>
+      </c>
+      <c r="G603">
+        <v>0</v>
+      </c>
+      <c r="H603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B604" t="s">
+        <v>939</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D604" t="s">
+        <v>262</v>
+      </c>
+      <c r="E604">
+        <v>10</v>
+      </c>
+      <c r="F604" t="s">
+        <v>256</v>
+      </c>
+      <c r="G604">
+        <v>0</v>
+      </c>
+      <c r="H604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
+      <c r="A605" s="5" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B605" t="s">
+        <v>939</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D605" t="s">
+        <v>356</v>
+      </c>
+      <c r="E605">
+        <v>5</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
+      <c r="A606" s="5" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B606" t="s">
+        <v>939</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D606" t="s">
+        <v>350</v>
+      </c>
+      <c r="E606">
+        <v>5</v>
+      </c>
+      <c r="G606">
+        <v>0</v>
+      </c>
+      <c r="H606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B607" t="s">
+        <v>939</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D607" t="s">
+        <v>289</v>
+      </c>
+      <c r="E607">
+        <v>5</v>
+      </c>
+      <c r="G607">
+        <v>0</v>
+      </c>
+      <c r="H607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="A608" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B608" t="s">
+        <v>939</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D608" t="s">
+        <v>312</v>
+      </c>
+      <c r="E608">
+        <v>5</v>
+      </c>
+      <c r="G608">
+        <v>0</v>
+      </c>
+      <c r="H608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="A609" s="5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B609" t="s">
+        <v>851</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D609" t="s">
+        <v>320</v>
+      </c>
+      <c r="E609">
+        <v>1</v>
+      </c>
+      <c r="G609">
+        <v>0</v>
+      </c>
+      <c r="H609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="A610" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B610" t="s">
+        <v>939</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D610" t="s">
+        <v>262</v>
+      </c>
+      <c r="E610">
+        <v>10</v>
+      </c>
+      <c r="F610" t="s">
+        <v>256</v>
+      </c>
+      <c r="G610">
+        <v>0</v>
+      </c>
+      <c r="H610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
+      <c r="A611" s="5" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B611" t="s">
+        <v>939</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D611" t="s">
+        <v>312</v>
+      </c>
+      <c r="E611">
+        <v>5</v>
+      </c>
+      <c r="G611">
+        <v>0</v>
+      </c>
+      <c r="H611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
+      <c r="A612" s="5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B612" t="s">
+        <v>851</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E612">
+        <v>40</v>
+      </c>
+      <c r="G612">
+        <v>0</v>
+      </c>
+      <c r="H612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
+      <c r="A613" s="5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B613" t="s">
+        <v>851</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D613" t="s">
+        <v>262</v>
+      </c>
+      <c r="E613">
+        <v>10</v>
+      </c>
+      <c r="F613" t="s">
+        <v>256</v>
+      </c>
+      <c r="G613">
+        <v>0</v>
+      </c>
+      <c r="H613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
+      <c r="A614" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B614" t="s">
+        <v>939</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D614" t="s">
+        <v>262</v>
+      </c>
+      <c r="E614">
+        <v>10</v>
+      </c>
+      <c r="F614" t="s">
+        <v>256</v>
+      </c>
+      <c r="G614">
+        <v>0</v>
+      </c>
+      <c r="H614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
+      <c r="A615" s="5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B615" t="s">
+        <v>939</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D615" t="s">
+        <v>312</v>
+      </c>
+      <c r="E615">
+        <v>5</v>
+      </c>
+      <c r="G615">
+        <v>0</v>
+      </c>
+      <c r="H615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
+      <c r="A616" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B616" t="s">
+        <v>939</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E616">
+        <v>0</v>
+      </c>
+      <c r="G616">
+        <v>0</v>
+      </c>
+      <c r="H616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
+      <c r="A617" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B617" t="s">
+        <v>851</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D617" t="s">
+        <v>262</v>
+      </c>
+      <c r="E617">
+        <v>10</v>
+      </c>
+      <c r="F617" t="s">
+        <v>256</v>
+      </c>
+      <c r="G617">
+        <v>0</v>
+      </c>
+      <c r="H617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
+      <c r="A618" s="5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B618" t="s">
+        <v>851</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D618" t="s">
+        <v>320</v>
+      </c>
+      <c r="E618">
+        <v>1</v>
+      </c>
+      <c r="G618">
+        <v>0</v>
+      </c>
+      <c r="H618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
+      <c r="A619" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D619" t="s">
+        <v>356</v>
+      </c>
+      <c r="E619">
+        <v>1</v>
+      </c>
+      <c r="F619" t="s">
+        <v>317</v>
+      </c>
+      <c r="G619">
+        <v>0</v>
+      </c>
+      <c r="H619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
+      <c r="A620" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E620">
+        <v>1</v>
+      </c>
+      <c r="G620">
+        <v>0</v>
+      </c>
+      <c r="H620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
+      <c r="A621" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B621" t="s">
+        <v>948</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E621">
+        <v>10</v>
+      </c>
+      <c r="F621" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G621">
+        <v>0</v>
+      </c>
+      <c r="H621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
+      <c r="A622" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E622">
+        <v>25</v>
+      </c>
+      <c r="G622">
+        <v>0</v>
+      </c>
+      <c r="H622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
+      <c r="A623" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B623" t="s">
+        <v>939</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D623" t="s">
+        <v>286</v>
+      </c>
+      <c r="E623">
+        <v>25</v>
+      </c>
+      <c r="G623">
+        <v>0</v>
+      </c>
+      <c r="H623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
+      <c r="A624" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B624" t="s">
+        <v>939</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D624" t="s">
+        <v>356</v>
+      </c>
+      <c r="E624">
+        <v>1</v>
+      </c>
+      <c r="F624" t="s">
+        <v>317</v>
+      </c>
+      <c r="G624">
+        <v>0</v>
+      </c>
+      <c r="H624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
+      <c r="A625" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B625" t="s">
+        <v>939</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D625" t="s">
+        <v>312</v>
+      </c>
+      <c r="E625">
+        <v>1</v>
+      </c>
+      <c r="G625">
+        <v>0</v>
+      </c>
+      <c r="H625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="A626" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B626" t="s">
+        <v>939</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D626" t="s">
+        <v>320</v>
+      </c>
+      <c r="E626">
+        <v>1</v>
+      </c>
+      <c r="G626">
+        <v>0</v>
+      </c>
+      <c r="H626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
+      <c r="A627" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D627" t="s">
+        <v>320</v>
+      </c>
+      <c r="E627">
+        <v>1</v>
+      </c>
+      <c r="G627">
+        <v>0</v>
+      </c>
+      <c r="H627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
+      <c r="A628" s="5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D628" t="s">
+        <v>284</v>
+      </c>
+      <c r="E628">
+        <v>30</v>
+      </c>
+      <c r="G628">
+        <v>0</v>
+      </c>
+      <c r="H628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
+      <c r="A629" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B629" t="s">
+        <v>851</v>
+      </c>
+      <c r="C629" t="s">
+        <v>4</v>
+      </c>
+      <c r="D629" t="s">
+        <v>709</v>
+      </c>
+      <c r="E629">
+        <v>40</v>
+      </c>
+      <c r="G629">
+        <v>0</v>
+      </c>
+      <c r="H629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
+      <c r="A630" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B630" t="s">
+        <v>851</v>
+      </c>
+      <c r="C630" t="s">
+        <v>4</v>
+      </c>
+      <c r="D630" t="s">
+        <v>262</v>
+      </c>
+      <c r="E630">
+        <v>10</v>
+      </c>
+      <c r="F630" t="s">
+        <v>256</v>
+      </c>
+      <c r="G630">
+        <v>0</v>
+      </c>
+      <c r="H630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
+      <c r="A631" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B631" t="s">
+        <v>851</v>
+      </c>
+      <c r="C631" t="s">
+        <v>4</v>
+      </c>
+      <c r="D631" t="s">
+        <v>648</v>
+      </c>
+      <c r="E631">
+        <v>5</v>
+      </c>
+      <c r="F631" t="s">
+        <v>351</v>
+      </c>
+      <c r="G631">
+        <v>0</v>
+      </c>
+      <c r="H631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="A632" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B632" t="s">
+        <v>851</v>
+      </c>
+      <c r="C632" t="s">
+        <v>4</v>
+      </c>
+      <c r="D632" t="s">
+        <v>356</v>
+      </c>
+      <c r="E632">
+        <v>5</v>
+      </c>
+      <c r="G632">
+        <v>0</v>
+      </c>
+      <c r="H632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
+      <c r="A633" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B633" t="s">
+        <v>851</v>
+      </c>
+      <c r="C633" t="s">
+        <v>4</v>
+      </c>
+      <c r="D633" t="s">
+        <v>440</v>
+      </c>
+      <c r="E633">
+        <v>5</v>
+      </c>
+      <c r="G633">
+        <v>0</v>
+      </c>
+      <c r="H633">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H600" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
+  <autoFilter ref="A1:H608" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H525">
     <sortCondition ref="B2:B525"/>
     <sortCondition ref="C2:C525"/>
@@ -31670,8 +33755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32049,7 +34134,7 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45">
@@ -32378,31 +34463,31 @@
         <v>984</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>986</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="315">
       <c r="A58" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>988</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>989</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" ht="255">
       <c r="A59" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>990</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>991</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -32412,209 +34497,209 @@
         <v>209</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>992</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>993</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30">
       <c r="A61" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>997</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="409.5">
       <c r="A62" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>999</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>1000</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="409.5">
       <c r="A63" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>1001</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>1002</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" ht="45">
       <c r="A64" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>1003</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>1004</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>867</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="45">
       <c r="A65" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>1008</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="165">
       <c r="A66" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>1010</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>1011</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" ht="45">
       <c r="A67" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>1013</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>997</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="409.5">
       <c r="A68" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>1015</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>1016</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" ht="75">
       <c r="A69" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>1017</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>1018</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>941</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="210">
       <c r="A70" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>1020</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>1021</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" ht="270">
       <c r="A71" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>1022</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>1023</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" ht="390">
       <c r="A72" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>1024</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>1025</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" ht="105">
       <c r="A73" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>1026</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>1027</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>867</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="105">
       <c r="A74" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>1029</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>1030</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" ht="60">
       <c r="A75" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>1031</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>1032</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>867</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="150">
       <c r="A76" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>1034</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>1035</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" ht="90">
       <c r="A77" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>1036</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>1037</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>867</v>
@@ -32625,30 +34710,30 @@
     </row>
     <row r="78" spans="1:4" ht="165">
       <c r="A78" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>1038</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>1039</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="390">
       <c r="A79" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>1040</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>1041</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" ht="30">
       <c r="A80" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>1042</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>1043</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -32660,11 +34745,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32676,21 +34761,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1045</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" s="9" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>867</v>
@@ -32698,10 +34783,10 @@
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="9" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>867</v>
@@ -32709,10 +34794,10 @@
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="9" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>867</v>
@@ -32720,10 +34805,10 @@
     </row>
     <row r="5" spans="1:3" ht="30">
       <c r="A5" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>867</v>
@@ -32731,10 +34816,10 @@
     </row>
     <row r="6" spans="1:3" ht="30">
       <c r="A6" s="9" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>867</v>
@@ -32742,10 +34827,10 @@
     </row>
     <row r="7" spans="1:3" ht="30">
       <c r="A7" s="9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>867</v>
@@ -32753,10 +34838,10 @@
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>867</v>
@@ -32764,10 +34849,10 @@
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="9" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>867</v>
@@ -32775,10 +34860,10 @@
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>1293</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>1294</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>867</v>
@@ -32786,10 +34871,10 @@
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>867</v>
@@ -32797,10 +34882,10 @@
     </row>
     <row r="12" spans="1:3" ht="30">
       <c r="A12" s="14" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>867</v>
@@ -32808,10 +34893,10 @@
     </row>
     <row r="13" spans="1:3" ht="30">
       <c r="A13" s="14" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>867</v>
@@ -32819,10 +34904,10 @@
     </row>
     <row r="14" spans="1:3" ht="30">
       <c r="A14" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>867</v>
@@ -32830,10 +34915,10 @@
     </row>
     <row r="15" spans="1:3" ht="30">
       <c r="A15" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>867</v>
@@ -32841,10 +34926,10 @@
     </row>
     <row r="16" spans="1:3" ht="30">
       <c r="A16" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>867</v>
@@ -32852,10 +34937,10 @@
     </row>
     <row r="17" spans="1:3" ht="30">
       <c r="A17" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>867</v>
@@ -32863,10 +34948,10 @@
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="A18" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>867</v>
@@ -32874,10 +34959,10 @@
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>867</v>
@@ -32885,10 +34970,10 @@
     </row>
     <row r="20" spans="1:3" ht="30">
       <c r="A20" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>867</v>
@@ -32896,7 +34981,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>867</v>
@@ -32907,7 +34992,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>867</v>
@@ -32918,10 +35003,10 @@
     </row>
     <row r="23" spans="1:3" ht="30">
       <c r="A23" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>867</v>
@@ -32929,7 +35014,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>867</v>
@@ -32940,10 +35025,10 @@
     </row>
     <row r="25" spans="1:3" ht="60">
       <c r="A25" s="12" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>867</v>
@@ -32951,10 +35036,10 @@
     </row>
     <row r="26" spans="1:3" ht="60">
       <c r="A26" s="12" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>867</v>
@@ -32962,10 +35047,10 @@
     </row>
     <row r="27" spans="1:3" ht="60">
       <c r="A27" s="12" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>867</v>
@@ -32973,10 +35058,10 @@
     </row>
     <row r="28" spans="1:3" ht="60">
       <c r="A28" s="12" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>867</v>
@@ -32984,10 +35069,10 @@
     </row>
     <row r="29" spans="1:3" ht="60">
       <c r="A29" s="12" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>867</v>
@@ -32995,21 +35080,21 @@
     </row>
     <row r="30" spans="1:3" ht="60">
       <c r="A30" s="12" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="60">
       <c r="A31" s="12" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>867</v>
@@ -33017,10 +35102,10 @@
     </row>
     <row r="32" spans="1:3" ht="60">
       <c r="A32" s="12" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>867</v>
@@ -33028,10 +35113,10 @@
     </row>
     <row r="33" spans="1:3" ht="60">
       <c r="A33" s="12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>867</v>
@@ -33039,10 +35124,10 @@
     </row>
     <row r="34" spans="1:3" ht="60">
       <c r="A34" s="12" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>867</v>
@@ -33050,10 +35135,10 @@
     </row>
     <row r="35" spans="1:3" ht="60">
       <c r="A35" s="12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>867</v>
@@ -33061,10 +35146,10 @@
     </row>
     <row r="36" spans="1:3" ht="60">
       <c r="A36" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>867</v>
@@ -33072,10 +35157,10 @@
     </row>
     <row r="37" spans="1:3" ht="60">
       <c r="A37" s="12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>867</v>
@@ -33083,10 +35168,10 @@
     </row>
     <row r="38" spans="1:3" ht="60">
       <c r="A38" s="12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>867</v>
@@ -33094,10 +35179,10 @@
     </row>
     <row r="39" spans="1:3" ht="60">
       <c r="A39" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>867</v>
@@ -33105,7 +35190,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>867</v>
@@ -33116,7 +35201,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>867</v>
@@ -33127,10 +35212,10 @@
     </row>
     <row r="42" spans="1:3" ht="60">
       <c r="A42" s="12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>867</v>
@@ -33138,10 +35223,10 @@
     </row>
     <row r="43" spans="1:3" ht="30">
       <c r="A43" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>867</v>
@@ -33149,10 +35234,10 @@
     </row>
     <row r="44" spans="1:3" ht="30">
       <c r="A44" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>867</v>
@@ -33160,10 +35245,10 @@
     </row>
     <row r="45" spans="1:3" ht="30">
       <c r="A45" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>867</v>
@@ -33171,10 +35256,10 @@
     </row>
     <row r="46" spans="1:3" ht="30">
       <c r="A46" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>867</v>
@@ -33182,10 +35267,10 @@
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>867</v>
@@ -33193,10 +35278,10 @@
     </row>
     <row r="48" spans="1:3" ht="30">
       <c r="A48" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>867</v>
@@ -33204,10 +35289,10 @@
     </row>
     <row r="49" spans="1:3" ht="30">
       <c r="A49" s="9" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>867</v>
@@ -33215,10 +35300,10 @@
     </row>
     <row r="50" spans="1:3" ht="30">
       <c r="A50" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>1092</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>1093</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>867</v>
@@ -33226,10 +35311,10 @@
     </row>
     <row r="51" spans="1:3" ht="45">
       <c r="A51" s="12" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>867</v>
@@ -33237,10 +35322,10 @@
     </row>
     <row r="52" spans="1:3" ht="45">
       <c r="A52" s="12" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>867</v>
@@ -33248,10 +35333,10 @@
     </row>
     <row r="53" spans="1:3" ht="45">
       <c r="A53" s="12" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>867</v>
@@ -33259,10 +35344,10 @@
     </row>
     <row r="54" spans="1:3" ht="45">
       <c r="A54" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>867</v>
@@ -33270,10 +35355,10 @@
     </row>
     <row r="55" spans="1:3" ht="45">
       <c r="A55" s="12" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>867</v>
@@ -33281,10 +35366,10 @@
     </row>
     <row r="56" spans="1:3" ht="45">
       <c r="A56" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>867</v>
@@ -33292,10 +35377,10 @@
     </row>
     <row r="57" spans="1:3" ht="45">
       <c r="A57" s="12" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>867</v>
@@ -33303,10 +35388,10 @@
     </row>
     <row r="58" spans="1:3" ht="45">
       <c r="A58" s="12" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>867</v>
@@ -33314,10 +35399,10 @@
     </row>
     <row r="59" spans="1:3" ht="45">
       <c r="A59" s="12" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>867</v>
@@ -33325,10 +35410,10 @@
     </row>
     <row r="60" spans="1:3" ht="45">
       <c r="A60" s="12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>867</v>
@@ -33336,10 +35421,10 @@
     </row>
     <row r="61" spans="1:3" ht="45">
       <c r="A61" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>867</v>
@@ -33347,10 +35432,10 @@
     </row>
     <row r="62" spans="1:3" ht="45">
       <c r="A62" s="12" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>867</v>
@@ -33358,10 +35443,10 @@
     </row>
     <row r="63" spans="1:3" ht="45">
       <c r="A63" s="12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>867</v>
@@ -33369,7 +35454,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="12" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>867</v>
@@ -33380,10 +35465,10 @@
     </row>
     <row r="65" spans="1:3" ht="45">
       <c r="A65" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>867</v>
@@ -33391,10 +35476,10 @@
     </row>
     <row r="66" spans="1:3" ht="45">
       <c r="A66" s="12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>867</v>
@@ -33402,10 +35487,10 @@
     </row>
     <row r="67" spans="1:3" ht="45">
       <c r="A67" s="12" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>867</v>
@@ -33413,10 +35498,10 @@
     </row>
     <row r="68" spans="1:3" ht="45">
       <c r="A68" s="12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>867</v>
@@ -33424,7 +35509,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>867</v>
@@ -33435,10 +35520,10 @@
     </row>
     <row r="70" spans="1:3" ht="45">
       <c r="A70" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>867</v>
@@ -33446,10 +35531,10 @@
     </row>
     <row r="71" spans="1:3" ht="45">
       <c r="A71" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>867</v>
@@ -33457,10 +35542,10 @@
     </row>
     <row r="72" spans="1:3" ht="45">
       <c r="A72" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>867</v>
@@ -33468,10 +35553,10 @@
     </row>
     <row r="73" spans="1:3" ht="45">
       <c r="A73" s="9" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>867</v>
@@ -33479,10 +35564,10 @@
     </row>
     <row r="74" spans="1:3" ht="45">
       <c r="A74" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>867</v>
@@ -33490,10 +35575,10 @@
     </row>
     <row r="75" spans="1:3" ht="45">
       <c r="A75" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>867</v>
@@ -33501,10 +35586,10 @@
     </row>
     <row r="76" spans="1:3" ht="45">
       <c r="A76" s="9" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>867</v>
@@ -33512,10 +35597,10 @@
     </row>
     <row r="77" spans="1:3" ht="45">
       <c r="A77" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>867</v>
@@ -33523,10 +35608,10 @@
     </row>
     <row r="78" spans="1:3" ht="45">
       <c r="A78" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>867</v>
@@ -33534,10 +35619,10 @@
     </row>
     <row r="79" spans="1:3" ht="45">
       <c r="A79" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>867</v>
@@ -33545,10 +35630,10 @@
     </row>
     <row r="80" spans="1:3" ht="45">
       <c r="A80" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>867</v>
@@ -33556,10 +35641,10 @@
     </row>
     <row r="81" spans="1:3" ht="45">
       <c r="A81" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>867</v>
@@ -33567,10 +35652,10 @@
     </row>
     <row r="82" spans="1:3" ht="45">
       <c r="A82" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>867</v>
@@ -33578,10 +35663,10 @@
     </row>
     <row r="83" spans="1:3" ht="45">
       <c r="A83" s="9" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>867</v>
@@ -33589,10 +35674,10 @@
     </row>
     <row r="84" spans="1:3" ht="45">
       <c r="A84" s="9" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>867</v>
@@ -33600,10 +35685,10 @@
     </row>
     <row r="85" spans="1:3" ht="45">
       <c r="A85" s="9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>867</v>
@@ -33611,10 +35696,10 @@
     </row>
     <row r="86" spans="1:3" ht="45">
       <c r="A86" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>867</v>
@@ -33622,10 +35707,10 @@
     </row>
     <row r="87" spans="1:3" ht="45">
       <c r="A87" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>867</v>
@@ -33633,10 +35718,10 @@
     </row>
     <row r="88" spans="1:3" ht="45">
       <c r="A88" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>867</v>
@@ -33644,10 +35729,10 @@
     </row>
     <row r="89" spans="1:3" ht="45">
       <c r="A89" s="9" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>867</v>
@@ -33655,10 +35740,10 @@
     </row>
     <row r="90" spans="1:3" ht="45">
       <c r="A90" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>867</v>
@@ -33666,10 +35751,10 @@
     </row>
     <row r="91" spans="1:3" ht="45">
       <c r="A91" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>867</v>
@@ -33677,10 +35762,10 @@
     </row>
     <row r="92" spans="1:3" ht="45">
       <c r="A92" s="9" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>867</v>
@@ -33688,10 +35773,10 @@
     </row>
     <row r="93" spans="1:3" ht="45">
       <c r="A93" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>867</v>
@@ -33699,10 +35784,10 @@
     </row>
     <row r="94" spans="1:3" ht="45">
       <c r="A94" s="9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>867</v>
@@ -33710,10 +35795,10 @@
     </row>
     <row r="95" spans="1:3" ht="45">
       <c r="A95" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>867</v>
@@ -33721,10 +35806,10 @@
     </row>
     <row r="96" spans="1:3" ht="45">
       <c r="A96" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>867</v>
@@ -33732,10 +35817,10 @@
     </row>
     <row r="97" spans="1:3" ht="45">
       <c r="A97" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>867</v>
@@ -33743,10 +35828,10 @@
     </row>
     <row r="98" spans="1:3" ht="45">
       <c r="A98" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>867</v>
@@ -33754,7 +35839,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>867</v>
@@ -33765,7 +35850,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>867</v>
@@ -33776,7 +35861,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>867</v>
@@ -33787,10 +35872,10 @@
     </row>
     <row r="102" spans="1:3" ht="45">
       <c r="A102" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>1144</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>1145</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>867</v>
@@ -33798,10 +35883,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>867</v>
@@ -33809,10 +35894,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="12" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>867</v>
@@ -33820,10 +35905,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>867</v>
@@ -33831,10 +35916,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>867</v>
@@ -33842,21 +35927,21 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="12" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>867</v>
@@ -33864,10 +35949,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>867</v>
@@ -33875,10 +35960,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="12" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>867</v>
@@ -33886,21 +35971,21 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="12" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>867</v>
@@ -33908,10 +35993,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="12" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>1156</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>1157</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>867</v>
@@ -33919,10 +36004,10 @@
     </row>
     <row r="114" spans="1:3" ht="30">
       <c r="A114" s="12" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>867</v>
@@ -33930,21 +36015,21 @@
     </row>
     <row r="115" spans="1:3" ht="30">
       <c r="A115" s="12" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30">
       <c r="A116" s="12" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>867</v>
@@ -33952,10 +36037,10 @@
     </row>
     <row r="117" spans="1:3" ht="30">
       <c r="A117" s="12" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>867</v>
@@ -33963,10 +36048,10 @@
     </row>
     <row r="118" spans="1:3" ht="30">
       <c r="A118" s="12" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>867</v>
@@ -33974,10 +36059,10 @@
     </row>
     <row r="119" spans="1:3" ht="30">
       <c r="A119" s="12" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>867</v>
@@ -33985,10 +36070,10 @@
     </row>
     <row r="120" spans="1:3" ht="30">
       <c r="A120" s="12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>867</v>
@@ -33996,10 +36081,10 @@
     </row>
     <row r="121" spans="1:3" ht="30">
       <c r="A121" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>867</v>
@@ -34007,10 +36092,10 @@
     </row>
     <row r="122" spans="1:3" ht="30">
       <c r="A122" s="12" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>867</v>
@@ -34018,10 +36103,10 @@
     </row>
     <row r="123" spans="1:3" ht="30">
       <c r="A123" s="12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>867</v>
@@ -34029,10 +36114,10 @@
     </row>
     <row r="124" spans="1:3" ht="30">
       <c r="A124" s="12" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>867</v>
@@ -34040,10 +36125,10 @@
     </row>
     <row r="125" spans="1:3" ht="30">
       <c r="A125" s="12" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>867</v>
@@ -34051,7 +36136,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>867</v>
@@ -34062,7 +36147,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>867</v>
@@ -34073,7 +36158,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="12" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>867</v>
@@ -34084,10 +36169,10 @@
     </row>
     <row r="129" spans="1:3" ht="30">
       <c r="A129" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>867</v>
@@ -34095,10 +36180,10 @@
     </row>
     <row r="130" spans="1:3" ht="30">
       <c r="A130" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>867</v>
@@ -34106,10 +36191,10 @@
     </row>
     <row r="131" spans="1:3" ht="30">
       <c r="A131" s="12" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>867</v>
@@ -34117,10 +36202,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>867</v>
@@ -34128,10 +36213,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>867</v>
@@ -34139,10 +36224,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>867</v>
@@ -34150,10 +36235,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>867</v>
@@ -34161,87 +36246,87 @@
     </row>
     <row r="136" spans="1:3" ht="30">
       <c r="A136" s="12" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="30">
       <c r="A137" s="12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="30">
       <c r="A138" s="12" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="30">
       <c r="A139" s="12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30">
       <c r="A140" s="12" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30">
       <c r="A141" s="12" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="30">
       <c r="A142" s="12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>867</v>
@@ -34249,10 +36334,10 @@
     </row>
     <row r="144" spans="1:3" ht="60">
       <c r="A144" s="12" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>867</v>
@@ -34260,10 +36345,10 @@
     </row>
     <row r="145" spans="1:3" ht="60">
       <c r="A145" s="12" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>867</v>
@@ -34271,10 +36356,10 @@
     </row>
     <row r="146" spans="1:3" ht="45">
       <c r="A146" s="12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>867</v>
@@ -34282,10 +36367,10 @@
     </row>
     <row r="147" spans="1:3" ht="45">
       <c r="A147" s="12" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>867</v>
@@ -34293,10 +36378,10 @@
     </row>
     <row r="148" spans="1:3" ht="45">
       <c r="A148" s="12" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>867</v>
@@ -34304,10 +36389,10 @@
     </row>
     <row r="149" spans="1:3" ht="45">
       <c r="A149" s="12" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>867</v>
@@ -34315,10 +36400,10 @@
     </row>
     <row r="150" spans="1:3" ht="45">
       <c r="A150" s="12" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>867</v>
@@ -34326,7 +36411,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="12" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>867</v>
@@ -34337,7 +36422,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="12" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>867</v>
@@ -34348,10 +36433,10 @@
     </row>
     <row r="153" spans="1:3" ht="45">
       <c r="A153" s="12" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>867</v>
@@ -34359,10 +36444,10 @@
     </row>
     <row r="154" spans="1:3" ht="45">
       <c r="A154" s="12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>867</v>
@@ -34370,10 +36455,10 @@
     </row>
     <row r="155" spans="1:3" ht="30">
       <c r="A155" s="12" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>867</v>
@@ -34381,10 +36466,10 @@
     </row>
     <row r="156" spans="1:3" ht="30">
       <c r="A156" s="12" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>867</v>
@@ -34392,10 +36477,10 @@
     </row>
     <row r="157" spans="1:3" ht="30">
       <c r="A157" s="12" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>867</v>
@@ -34403,10 +36488,10 @@
     </row>
     <row r="158" spans="1:3" ht="30">
       <c r="A158" s="12" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>867</v>
@@ -34414,10 +36499,10 @@
     </row>
     <row r="159" spans="1:3" ht="30">
       <c r="A159" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>1199</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>1200</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>867</v>
@@ -34425,10 +36510,10 @@
     </row>
     <row r="160" spans="1:3" ht="30">
       <c r="A160" s="12" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>1273</v>
@@ -34436,10 +36521,10 @@
     </row>
     <row r="161" spans="1:3" ht="30">
       <c r="A161" s="12" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>1273</v>
@@ -34447,10 +36532,10 @@
     </row>
     <row r="162" spans="1:3" ht="30">
       <c r="A162" s="12" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>1273</v>
@@ -34458,21 +36543,21 @@
     </row>
     <row r="163" spans="1:3" ht="30">
       <c r="A163" s="12" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="30">
       <c r="A164" s="12" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>1273</v>
@@ -34480,10 +36565,10 @@
     </row>
     <row r="165" spans="1:3" ht="30">
       <c r="A165" s="12" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>867</v>
@@ -34491,10 +36576,10 @@
     </row>
     <row r="166" spans="1:3" ht="45">
       <c r="A166" s="12" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>867</v>
@@ -34502,10 +36587,10 @@
     </row>
     <row r="167" spans="1:3" ht="45">
       <c r="A167" s="12" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>867</v>
@@ -34513,10 +36598,10 @@
     </row>
     <row r="168" spans="1:3" ht="45">
       <c r="A168" s="12" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>867</v>
@@ -34524,10 +36609,10 @@
     </row>
     <row r="169" spans="1:3" ht="45">
       <c r="A169" s="12" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>867</v>
@@ -34535,21 +36620,21 @@
     </row>
     <row r="170" spans="1:3" ht="45">
       <c r="A170" s="12" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="45">
       <c r="A171" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>1212</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>1213</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>867</v>
@@ -34557,10 +36642,10 @@
     </row>
     <row r="172" spans="1:3" ht="30">
       <c r="A172" s="12" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>867</v>
@@ -34568,10 +36653,10 @@
     </row>
     <row r="173" spans="1:3" ht="30">
       <c r="A173" s="12" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>867</v>
@@ -34579,10 +36664,10 @@
     </row>
     <row r="174" spans="1:3" ht="30">
       <c r="A174" s="12" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>867</v>
@@ -34590,10 +36675,10 @@
     </row>
     <row r="175" spans="1:3" ht="30">
       <c r="A175" s="12" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>867</v>
@@ -34601,10 +36686,10 @@
     </row>
     <row r="176" spans="1:3" ht="30">
       <c r="A176" s="12" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>867</v>
@@ -34612,10 +36697,10 @@
     </row>
     <row r="177" spans="1:3" ht="30">
       <c r="A177" s="12" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>867</v>
@@ -34623,10 +36708,10 @@
     </row>
     <row r="178" spans="1:3" ht="30">
       <c r="A178" s="12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B178" s="7" t="s">
         <v>1220</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>1221</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>867</v>
@@ -34634,10 +36719,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="12" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>867</v>
@@ -34645,10 +36730,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>867</v>
@@ -34656,10 +36741,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="12" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>867</v>
@@ -34667,10 +36752,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="12" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>867</v>
@@ -34678,10 +36763,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>1226</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>1227</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>867</v>
@@ -34689,10 +36774,10 @@
     </row>
     <row r="184" spans="1:3" ht="45">
       <c r="A184" s="12" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>867</v>
@@ -34700,10 +36785,10 @@
     </row>
     <row r="185" spans="1:3" ht="45">
       <c r="A185" s="12" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>867</v>
@@ -34711,10 +36796,10 @@
     </row>
     <row r="186" spans="1:3" ht="45">
       <c r="A186" s="12" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>867</v>
@@ -34722,10 +36807,10 @@
     </row>
     <row r="187" spans="1:3" ht="45">
       <c r="A187" s="12" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>867</v>
@@ -34733,10 +36818,10 @@
     </row>
     <row r="188" spans="1:3" ht="45">
       <c r="A188" s="12" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>867</v>
@@ -34744,10 +36829,10 @@
     </row>
     <row r="189" spans="1:3" ht="45">
       <c r="A189" s="12" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>1233</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>1234</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>867</v>
@@ -34755,10 +36840,10 @@
     </row>
     <row r="190" spans="1:3" ht="45">
       <c r="A190" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>867</v>
@@ -34766,10 +36851,10 @@
     </row>
     <row r="191" spans="1:3" ht="45">
       <c r="A191" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>867</v>
@@ -34777,10 +36862,10 @@
     </row>
     <row r="192" spans="1:3" ht="45">
       <c r="A192" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>867</v>
@@ -34788,10 +36873,10 @@
     </row>
     <row r="193" spans="1:3" ht="45">
       <c r="A193" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>867</v>
@@ -34799,10 +36884,10 @@
     </row>
     <row r="194" spans="1:3" ht="45">
       <c r="A194" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>867</v>
@@ -34810,10 +36895,10 @@
     </row>
     <row r="195" spans="1:3" ht="45">
       <c r="A195" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>867</v>
@@ -34821,10 +36906,10 @@
     </row>
     <row r="196" spans="1:3" ht="45">
       <c r="A196" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>867</v>
@@ -34832,10 +36917,10 @@
     </row>
     <row r="197" spans="1:3" ht="45">
       <c r="A197" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>867</v>
@@ -34843,7 +36928,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>867</v>
@@ -34854,10 +36939,10 @@
     </row>
     <row r="199" spans="1:3" ht="45">
       <c r="A199" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>867</v>
@@ -34865,10 +36950,10 @@
     </row>
     <row r="200" spans="1:3" ht="45">
       <c r="A200" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>867</v>
@@ -34876,10 +36961,10 @@
     </row>
     <row r="201" spans="1:3" ht="45">
       <c r="A201" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>867</v>
@@ -34887,10 +36972,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>867</v>
@@ -34898,10 +36983,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>867</v>
@@ -34909,10 +36994,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>867</v>
@@ -34920,10 +37005,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>867</v>
@@ -34931,10 +37016,10 @@
     </row>
     <row r="206" spans="1:3" ht="30">
       <c r="A206" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>867</v>
@@ -34942,10 +37027,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>867</v>
@@ -34953,10 +37038,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>867</v>
@@ -34964,10 +37049,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>867</v>
@@ -34975,10 +37060,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>867</v>
@@ -34986,10 +37071,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>867</v>
@@ -34997,10 +37082,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>867</v>
@@ -35008,10 +37093,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>867</v>
@@ -35019,10 +37104,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>867</v>
@@ -35030,43 +37115,43 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>867</v>
@@ -35074,10 +37159,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="4" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>867</v>
@@ -35085,10 +37170,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>867</v>
@@ -35096,76 +37181,76 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="4" t="s">
-        <v>1413</v>
+        <v>1599</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="45">
+    <row r="222" spans="1:3">
       <c r="A222" s="4" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>1234</v>
+        <v>1412</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>1414</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="45">
-      <c r="A223" s="15" t="s">
-        <v>1454</v>
+      <c r="A223" s="4" t="s">
+        <v>1452</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="4" t="s">
-        <v>1455</v>
+    <row r="224" spans="1:3" ht="45">
+      <c r="A224" s="15" t="s">
+        <v>1453</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1456</v>
+        <v>1233</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="30">
-      <c r="A225" s="15" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>1464</v>
+    <row r="225" spans="1:3">
+      <c r="A225" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>1455</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="30">
-      <c r="A226" s="4" t="s">
-        <v>1458</v>
+      <c r="A226" s="15" t="s">
+        <v>1456</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="30">
-      <c r="A227" s="15" t="s">
-        <v>1459</v>
+      <c r="A227" s="4" t="s">
+        <v>1457</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>867</v>
@@ -35173,21 +37258,21 @@
     </row>
     <row r="228" spans="1:3" ht="30">
       <c r="A228" s="15" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="30">
-      <c r="A229" s="4" t="s">
-        <v>1461</v>
+      <c r="A229" s="15" t="s">
+        <v>1459</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>867</v>
@@ -35195,10 +37280,10 @@
     </row>
     <row r="230" spans="1:3" ht="30">
       <c r="A230" s="4" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>867</v>
@@ -35206,21 +37291,21 @@
     </row>
     <row r="231" spans="1:3" ht="30">
       <c r="A231" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B231" s="8" t="s">
         <v>1463</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>1464</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" ht="30">
       <c r="A232" s="4" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>867</v>
@@ -35228,29 +37313,29 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="15" t="s">
-        <v>1467</v>
+      <c r="A234" s="4" t="s">
+        <v>1465</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="4" t="s">
-        <v>1468</v>
+      <c r="A235" s="15" t="s">
+        <v>1466</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>1470</v>
@@ -35261,28 +37346,303 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="4" t="s">
-        <v>1527</v>
+        <v>1467</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>1529</v>
+        <v>1469</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="15" t="s">
+    <row r="237" spans="1:3" ht="30">
+      <c r="A237" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B237" s="8" t="s">
         <v>1528</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>1529</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>867</v>
       </c>
     </row>
+    <row r="238" spans="1:3" ht="30">
+      <c r="A238" s="15" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="8" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C224" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}"/>
+  <autoFilter ref="A1:C261" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE328DB-CD61-48CF-B0D8-7E635F7EF880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38B3A4-E40D-4DE3-8D95-6D54D62B2CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1634">
   <si>
     <t>faction</t>
   </si>
@@ -5071,6 +5071,12 @@
   </si>
   <si>
     <t>[sharkey's_rogues] ruffian_cpt</t>
+  </si>
+  <si>
+    <t>['Rohan']</t>
+  </si>
+  <si>
+    <t>['The Dead of Dunharrow', 'Fangorn', 'The Fellowship', 'The Fiefdoms', 'Halls of Thranduil', 'Lothlorien', 'Minas Tirith', 'The Misty Mountains', 'The Rangers', 'Rivendell', 'The Shire', 'The White Council']</t>
   </si>
 </sst>
 </file>
@@ -18251,7 +18257,7 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386" s="4" t="str">
-        <f t="shared" ref="A386:A391" si="6">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C386, " ", "_")), "] ", LOWER(SUBSTITUTE(E386, " ", "_")))</f>
+        <f t="shared" ref="A386:A389" si="6">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C386, " ", "_")), "] ", LOWER(SUBSTITUTE(E386, " ", "_")))</f>
         <v>[the_shire] dunedain</v>
       </c>
       <c r="B386" t="s">
@@ -18461,7 +18467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
   <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A606" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E616" sqref="E616"/>
     </sheetView>
@@ -33755,8 +33761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34193,8 +34199,12 @@
       <c r="B35" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>1633</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="375">
       <c r="A36" s="6" t="s">

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38B3A4-E40D-4DE3-8D95-6D54D62B2CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57215DF-66B4-44BB-94DC-0BFA34AFA88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5771" uniqueCount="1634">
   <si>
     <t>faction</t>
   </si>
@@ -5031,9 +5031,6 @@
     <t>[sharkey's_rogues] lotho_sackville-baggins</t>
   </si>
   <si>
-    <t>['[the_shire] hobbit_militia']</t>
-  </si>
-  <si>
     <t>[the_misty_mountains] gwaihir</t>
   </si>
   <si>
@@ -5077,6 +5074,9 @@
   </si>
   <si>
     <t>['The Dead of Dunharrow', 'Fangorn', 'The Fellowship', 'The Fiefdoms', 'Halls of Thranduil', 'Lothlorien', 'Minas Tirith', 'The Misty Mountains', 'The Rangers', 'Rivendell', 'The Shire', 'The White Council']</t>
+  </si>
+  <si>
+    <t>["[sharkey's_rogues] hobbit_militia"]</t>
   </si>
 </sst>
 </file>
@@ -5529,11 +5529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:J391"/>
+  <dimension ref="A1:J392"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A392" sqref="A392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18389,7 +18389,7 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B390" t="s">
         <v>205</v>
@@ -18421,7 +18421,7 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B391" t="s">
         <v>204</v>
@@ -18448,6 +18448,39 @@
         <v>0</v>
       </c>
       <c r="J391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10">
+      <c r="A392" s="4" t="str">
+        <f t="shared" ref="A392" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
+        <v>[sharkey's_rogues] hobbit_militia</v>
+      </c>
+      <c r="B392" t="s">
+        <v>205</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F392" t="s">
+        <v>12</v>
+      </c>
+      <c r="G392">
+        <v>4</v>
+      </c>
+      <c r="H392" t="b">
+        <v>0</v>
+      </c>
+      <c r="I392" t="b">
+        <v>0</v>
+      </c>
+      <c r="J392">
         <v>0</v>
       </c>
     </row>
@@ -18468,8 +18501,8 @@
   <dimension ref="A1:H633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A606" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E616" sqref="E616"/>
+      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C536" sqref="C536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33761,7 +33794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
@@ -34200,10 +34233,10 @@
         <v>922</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>1632</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="375">
@@ -34759,7 +34792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A253" sqref="A253"/>
+      <selection pane="bottomLeft" activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37491,7 +37524,7 @@
         <v>1612</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>867</v>
@@ -37502,7 +37535,7 @@
         <v>1613</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>867</v>
@@ -37513,7 +37546,7 @@
         <v>1614</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>867</v>
@@ -37524,7 +37557,7 @@
         <v>1615</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>867</v>
@@ -37535,7 +37568,7 @@
         <v>1616</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>1618</v>
+        <v>1633</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>867</v>
@@ -37543,10 +37576,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>867</v>
@@ -37557,7 +37590,7 @@
         <v>1617</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>867</v>
@@ -37565,10 +37598,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B255" s="8" t="s">
         <v>1619</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>1620</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>867</v>
@@ -37576,10 +37609,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>867</v>
@@ -37587,7 +37620,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>867</v>
@@ -37598,10 +37631,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="4" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>867</v>
@@ -37609,7 +37642,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="4" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>867</v>
@@ -37620,10 +37653,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B260" s="8" t="s">
         <v>1625</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>1626</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>867</v>
@@ -37631,10 +37664,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B261" s="8" t="s">
         <v>1627</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>1628</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>867</v>
@@ -37642,10 +37675,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="8" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>867</v>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57215DF-66B4-44BB-94DC-0BFA34AFA88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F857BB-59C7-4FFC-AA2D-F0470359BB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5771" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="1635">
   <si>
     <t>faction</t>
   </si>
@@ -5077,6 +5077,9 @@
   </si>
   <si>
     <t>["[sharkey's_rogues] hobbit_militia"]</t>
+  </si>
+  <si>
+    <t>['Galadhrim Guard Upgrade']</t>
   </si>
 </sst>
 </file>
@@ -5531,23 +5534,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
   <dimension ref="A1:J392"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A392" sqref="A392"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18501,17 +18504,17 @@
   <dimension ref="A1:H633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C536" sqref="C536"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -21997,6 +22000,9 @@
       </c>
       <c r="E145">
         <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>402</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -33798,12 +33804,12 @@
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="74.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -33820,7 +33826,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60">
+    <row r="2" spans="1:4" ht="57.6">
       <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
@@ -33834,7 +33840,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45">
+    <row r="3" spans="1:4" ht="43.2">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
@@ -33848,7 +33854,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="135">
+    <row r="4" spans="1:4" ht="115.2">
       <c r="A4" s="6" t="s">
         <v>124</v>
       </c>
@@ -33862,7 +33868,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="105">
+    <row r="5" spans="1:4" ht="100.8">
       <c r="A5" s="6" t="s">
         <v>846</v>
       </c>
@@ -33872,7 +33878,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="90">
+    <row r="6" spans="1:4" ht="72">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -33886,7 +33892,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75">
+    <row r="7" spans="1:4" ht="72">
       <c r="A7" s="6" t="s">
         <v>851</v>
       </c>
@@ -33900,7 +33906,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60">
+    <row r="8" spans="1:4" ht="57.6">
       <c r="A8" s="6" t="s">
         <v>71</v>
       </c>
@@ -33914,7 +33920,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
+    <row r="9" spans="1:4" ht="28.8">
       <c r="A9" s="6" t="s">
         <v>858</v>
       </c>
@@ -33928,7 +33934,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="180">
+    <row r="10" spans="1:4" ht="144">
       <c r="A10" s="6" t="s">
         <v>862</v>
       </c>
@@ -33938,7 +33944,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="120">
+    <row r="11" spans="1:4" ht="115.2">
       <c r="A11" s="6" t="s">
         <v>864</v>
       </c>
@@ -33948,7 +33954,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="45">
+    <row r="12" spans="1:4" ht="43.2">
       <c r="A12" s="6" t="s">
         <v>241</v>
       </c>
@@ -33962,7 +33968,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90">
+    <row r="13" spans="1:4" ht="86.4">
       <c r="A13" s="6" t="s">
         <v>869</v>
       </c>
@@ -33976,7 +33982,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75">
+    <row r="14" spans="1:4" ht="57.6">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -33990,7 +33996,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="255">
+    <row r="15" spans="1:4" ht="244.8">
       <c r="A15" s="6" t="s">
         <v>875</v>
       </c>
@@ -34000,7 +34006,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="285">
+    <row r="16" spans="1:4" ht="273.60000000000002">
       <c r="A16" s="6" t="s">
         <v>877</v>
       </c>
@@ -34010,7 +34016,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="405">
+    <row r="17" spans="1:4" ht="360">
       <c r="A17" s="6" t="s">
         <v>879</v>
       </c>
@@ -34020,7 +34026,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="43.2">
       <c r="A18" s="6" t="s">
         <v>881</v>
       </c>
@@ -34034,7 +34040,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="105">
+    <row r="19" spans="1:4" ht="100.8">
       <c r="A19" s="6" t="s">
         <v>885</v>
       </c>
@@ -34044,7 +34050,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="105">
+    <row r="20" spans="1:4" ht="100.8">
       <c r="A20" s="6" t="s">
         <v>887</v>
       </c>
@@ -34054,7 +34060,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="75">
+    <row r="21" spans="1:4" ht="72">
       <c r="A21" s="6" t="s">
         <v>242</v>
       </c>
@@ -34068,7 +34074,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="135">
+    <row r="22" spans="1:4" ht="129.6">
       <c r="A22" s="6" t="s">
         <v>245</v>
       </c>
@@ -34078,7 +34084,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="90">
+    <row r="23" spans="1:4" ht="72">
       <c r="A23" s="6" t="s">
         <v>239</v>
       </c>
@@ -34092,7 +34098,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30">
+    <row r="24" spans="1:4" ht="28.8">
       <c r="A24" s="6" t="s">
         <v>895</v>
       </c>
@@ -34106,7 +34112,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45">
+    <row r="25" spans="1:4" ht="43.2">
       <c r="A25" s="6" t="s">
         <v>899</v>
       </c>
@@ -34120,7 +34126,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="409.5">
+    <row r="26" spans="1:4" ht="409.6">
       <c r="A26" s="6" t="s">
         <v>903</v>
       </c>
@@ -34130,7 +34136,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" ht="165">
+    <row r="27" spans="1:4" ht="158.4">
       <c r="A27" s="6" t="s">
         <v>905</v>
       </c>
@@ -34140,7 +34146,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="255">
+    <row r="28" spans="1:4" ht="230.4">
       <c r="A28" s="6" t="s">
         <v>907</v>
       </c>
@@ -34150,7 +34156,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" ht="60">
+    <row r="29" spans="1:4" ht="43.2">
       <c r="A29" s="6" t="s">
         <v>909</v>
       </c>
@@ -34164,7 +34170,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45">
+    <row r="30" spans="1:4" ht="43.2">
       <c r="A30" s="6" t="s">
         <v>243</v>
       </c>
@@ -34176,7 +34182,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45">
+    <row r="31" spans="1:4" ht="43.2">
       <c r="A31" s="6" t="s">
         <v>246</v>
       </c>
@@ -34187,7 +34193,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="120">
+    <row r="32" spans="1:4" ht="100.8">
       <c r="A32" s="6" t="s">
         <v>206</v>
       </c>
@@ -34201,7 +34207,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="180">
+    <row r="33" spans="1:4" ht="172.8">
       <c r="A33" s="6" t="s">
         <v>244</v>
       </c>
@@ -34211,7 +34217,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" s="6" t="s">
         <v>917</v>
       </c>
@@ -34225,7 +34231,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="120">
+    <row r="35" spans="1:4" ht="100.8">
       <c r="A35" s="6" t="s">
         <v>921</v>
       </c>
@@ -34239,7 +34245,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="375">
+    <row r="36" spans="1:4" ht="331.2">
       <c r="A36" s="6" t="s">
         <v>923</v>
       </c>
@@ -34249,7 +34255,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" ht="75">
+    <row r="37" spans="1:4" ht="72">
       <c r="A37" s="6" t="s">
         <v>925</v>
       </c>
@@ -34263,7 +34269,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45">
+    <row r="38" spans="1:4" ht="43.2">
       <c r="A38" s="6" t="s">
         <v>929</v>
       </c>
@@ -34277,7 +34283,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="75">
+    <row r="39" spans="1:4" ht="72">
       <c r="A39" s="6" t="s">
         <v>933</v>
       </c>
@@ -34287,7 +34293,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" ht="300">
+    <row r="40" spans="1:4" ht="244.8">
       <c r="A40" s="6" t="s">
         <v>935</v>
       </c>
@@ -34297,7 +34303,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" ht="135">
+    <row r="41" spans="1:4" ht="115.2">
       <c r="A41" s="6" t="s">
         <v>937</v>
       </c>
@@ -34307,7 +34313,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" ht="45">
+    <row r="42" spans="1:4" ht="43.2">
       <c r="A42" s="6" t="s">
         <v>939</v>
       </c>
@@ -34321,7 +34327,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="120">
+    <row r="43" spans="1:4" ht="115.2">
       <c r="A43" s="6" t="s">
         <v>943</v>
       </c>
@@ -34331,7 +34337,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4" ht="135">
+    <row r="44" spans="1:4" ht="129.6">
       <c r="A44" s="6" t="s">
         <v>58</v>
       </c>
@@ -34345,7 +34351,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="150">
+    <row r="45" spans="1:4" ht="129.6">
       <c r="A45" s="6" t="s">
         <v>948</v>
       </c>
@@ -34359,7 +34365,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="60">
+    <row r="46" spans="1:4" ht="43.2">
       <c r="A46" s="6" t="s">
         <v>951</v>
       </c>
@@ -34373,7 +34379,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="60">
+    <row r="47" spans="1:4" ht="57.6">
       <c r="A47" s="6" t="s">
         <v>955</v>
       </c>
@@ -34387,7 +34393,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="135">
+    <row r="48" spans="1:4" ht="115.2">
       <c r="A48" s="6" t="s">
         <v>208</v>
       </c>
@@ -34401,7 +34407,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45">
+    <row r="49" spans="1:4" ht="43.2">
       <c r="A49" s="6" t="s">
         <v>962</v>
       </c>
@@ -34415,7 +34421,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="90">
+    <row r="50" spans="1:4" ht="86.4">
       <c r="A50" s="6" t="s">
         <v>965</v>
       </c>
@@ -34429,7 +34435,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="75">
+    <row r="51" spans="1:4" ht="57.6">
       <c r="A51" s="6" t="s">
         <v>207</v>
       </c>
@@ -34443,7 +34449,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="210">
+    <row r="52" spans="1:4" ht="201.6">
       <c r="A52" s="6" t="s">
         <v>971</v>
       </c>
@@ -34453,7 +34459,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:4" ht="405">
+    <row r="53" spans="1:4" ht="360">
       <c r="A53" s="6" t="s">
         <v>973</v>
       </c>
@@ -34463,7 +34469,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:4" ht="75">
+    <row r="54" spans="1:4" ht="72">
       <c r="A54" s="6" t="s">
         <v>975</v>
       </c>
@@ -34477,7 +34483,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="135">
+    <row r="55" spans="1:4" ht="115.2">
       <c r="A55" s="6" t="s">
         <v>979</v>
       </c>
@@ -34491,7 +34497,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="300">
+    <row r="56" spans="1:4" ht="259.2">
       <c r="A56" s="6" t="s">
         <v>982</v>
       </c>
@@ -34501,7 +34507,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:4" ht="135">
+    <row r="57" spans="1:4" ht="115.2">
       <c r="A57" s="6" t="s">
         <v>984</v>
       </c>
@@ -34515,7 +34521,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="315">
+    <row r="58" spans="1:4" ht="288">
       <c r="A58" s="6" t="s">
         <v>987</v>
       </c>
@@ -34525,7 +34531,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="1:4" ht="255">
+    <row r="59" spans="1:4" ht="216">
       <c r="A59" s="6" t="s">
         <v>989</v>
       </c>
@@ -34535,7 +34541,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:4" ht="45">
+    <row r="60" spans="1:4" ht="43.2">
       <c r="A60" s="6" t="s">
         <v>209</v>
       </c>
@@ -34549,7 +34555,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="30">
+    <row r="61" spans="1:4" ht="28.8">
       <c r="A61" s="6" t="s">
         <v>994</v>
       </c>
@@ -34563,7 +34569,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="409.5">
+    <row r="62" spans="1:4" ht="409.6">
       <c r="A62" s="6" t="s">
         <v>998</v>
       </c>
@@ -34573,7 +34579,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" ht="409.5">
+    <row r="63" spans="1:4" ht="409.6">
       <c r="A63" s="6" t="s">
         <v>1000</v>
       </c>
@@ -34583,7 +34589,7 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:4" ht="45">
+    <row r="64" spans="1:4" ht="43.2">
       <c r="A64" s="6" t="s">
         <v>1002</v>
       </c>
@@ -34597,7 +34603,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="45">
+    <row r="65" spans="1:4" ht="43.2">
       <c r="A65" s="6" t="s">
         <v>1005</v>
       </c>
@@ -34611,7 +34617,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="165">
+    <row r="66" spans="1:4" ht="158.4">
       <c r="A66" s="6" t="s">
         <v>1009</v>
       </c>
@@ -34621,7 +34627,7 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="1:4" ht="45">
+    <row r="67" spans="1:4" ht="43.2">
       <c r="A67" s="6" t="s">
         <v>1011</v>
       </c>
@@ -34635,7 +34641,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="409.5">
+    <row r="68" spans="1:4" ht="403.2">
       <c r="A68" s="6" t="s">
         <v>1014</v>
       </c>
@@ -34645,7 +34651,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="1:4" ht="75">
+    <row r="69" spans="1:4" ht="72">
       <c r="A69" s="6" t="s">
         <v>1016</v>
       </c>
@@ -34659,7 +34665,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="210">
+    <row r="70" spans="1:4" ht="187.2">
       <c r="A70" s="6" t="s">
         <v>1019</v>
       </c>
@@ -34669,7 +34675,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="1:4" ht="270">
+    <row r="71" spans="1:4" ht="244.8">
       <c r="A71" s="6" t="s">
         <v>1021</v>
       </c>
@@ -34679,7 +34685,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="1:4" ht="390">
+    <row r="72" spans="1:4" ht="374.4">
       <c r="A72" s="6" t="s">
         <v>1023</v>
       </c>
@@ -34689,7 +34695,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:4" ht="105">
+    <row r="73" spans="1:4" ht="100.8">
       <c r="A73" s="6" t="s">
         <v>1025</v>
       </c>
@@ -34703,7 +34709,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="105">
+    <row r="74" spans="1:4" ht="100.8">
       <c r="A74" s="6" t="s">
         <v>1028</v>
       </c>
@@ -34713,7 +34719,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="1:4" ht="60">
+    <row r="75" spans="1:4" ht="43.2">
       <c r="A75" s="6" t="s">
         <v>1030</v>
       </c>
@@ -34727,7 +34733,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="150">
+    <row r="76" spans="1:4" ht="144">
       <c r="A76" s="6" t="s">
         <v>1033</v>
       </c>
@@ -34737,7 +34743,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" ht="90">
+    <row r="77" spans="1:4" ht="72">
       <c r="A77" s="6" t="s">
         <v>1035</v>
       </c>
@@ -34751,7 +34757,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="165">
+    <row r="78" spans="1:4" ht="158.4">
       <c r="A78" s="6" t="s">
         <v>1037</v>
       </c>
@@ -34761,7 +34767,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="1:4" ht="390">
+    <row r="79" spans="1:4" ht="360">
       <c r="A79" s="6" t="s">
         <v>1039</v>
       </c>
@@ -34771,7 +34777,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" ht="30">
+    <row r="80" spans="1:4" ht="28.8">
       <c r="A80" s="6" t="s">
         <v>1041</v>
       </c>
@@ -34790,16 +34796,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B253" sqref="B253"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
-    <col min="2" max="2" width="111.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="111.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -34813,7 +34819,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="28.8">
       <c r="A2" s="9" t="s">
         <v>1287</v>
       </c>
@@ -34824,7 +34830,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:3" ht="28.8">
       <c r="A3" s="9" t="s">
         <v>1288</v>
       </c>
@@ -34835,7 +34841,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="28.8">
       <c r="A4" s="9" t="s">
         <v>1289</v>
       </c>
@@ -34846,7 +34852,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="28.8">
       <c r="A5" s="9" t="s">
         <v>1061</v>
       </c>
@@ -34857,7 +34863,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="28.8">
       <c r="A6" s="9" t="s">
         <v>1290</v>
       </c>
@@ -34868,7 +34874,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="9" t="s">
         <v>1062</v>
       </c>
@@ -34879,7 +34885,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="28.8">
       <c r="A8" s="9" t="s">
         <v>1063</v>
       </c>
@@ -34890,7 +34896,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="28.8">
       <c r="A9" s="9" t="s">
         <v>1291</v>
       </c>
@@ -34901,7 +34907,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="9" t="s">
         <v>1292</v>
       </c>
@@ -34912,7 +34918,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30">
+    <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="9" t="s">
         <v>1063</v>
       </c>
@@ -34923,7 +34929,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30">
+    <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="14" t="s">
         <v>1310</v>
       </c>
@@ -34934,7 +34940,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="28.8">
       <c r="A13" s="14" t="s">
         <v>1311</v>
       </c>
@@ -34945,7 +34951,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" ht="28.8">
       <c r="A14" s="9" t="s">
         <v>1051</v>
       </c>
@@ -34956,7 +34962,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30">
+    <row r="15" spans="1:3" ht="28.8">
       <c r="A15" s="9" t="s">
         <v>1052</v>
       </c>
@@ -34967,7 +34973,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:3" ht="28.8">
       <c r="A16" s="9" t="s">
         <v>1053</v>
       </c>
@@ -34978,7 +34984,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" s="9" t="s">
         <v>1054</v>
       </c>
@@ -34989,7 +34995,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" ht="28.8">
       <c r="A18" s="9" t="s">
         <v>1055</v>
       </c>
@@ -35000,7 +35006,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3" ht="28.8">
       <c r="A19" s="9" t="s">
         <v>1056</v>
       </c>
@@ -35011,7 +35017,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="9" t="s">
         <v>1057</v>
       </c>
@@ -35044,7 +35050,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="9" t="s">
         <v>1060</v>
       </c>
@@ -35066,7 +35072,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="60">
+    <row r="25" spans="1:3" ht="57.6">
       <c r="A25" s="12" t="s">
         <v>1065</v>
       </c>
@@ -35077,7 +35083,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="60">
+    <row r="26" spans="1:3" ht="57.6">
       <c r="A26" s="12" t="s">
         <v>1066</v>
       </c>
@@ -35088,7 +35094,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60">
+    <row r="27" spans="1:3" ht="57.6">
       <c r="A27" s="12" t="s">
         <v>1067</v>
       </c>
@@ -35099,7 +35105,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="60">
+    <row r="28" spans="1:3" ht="57.6">
       <c r="A28" s="12" t="s">
         <v>1068</v>
       </c>
@@ -35110,7 +35116,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60">
+    <row r="29" spans="1:3" ht="57.6">
       <c r="A29" s="12" t="s">
         <v>1069</v>
       </c>
@@ -35121,7 +35127,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="60">
+    <row r="30" spans="1:3" ht="57.6">
       <c r="A30" s="12" t="s">
         <v>1070</v>
       </c>
@@ -35132,7 +35138,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="60">
+    <row r="31" spans="1:3" ht="57.6">
       <c r="A31" s="12" t="s">
         <v>1071</v>
       </c>
@@ -35143,7 +35149,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60">
+    <row r="32" spans="1:3" ht="57.6">
       <c r="A32" s="12" t="s">
         <v>1072</v>
       </c>
@@ -35154,7 +35160,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="60">
+    <row r="33" spans="1:3" ht="57.6">
       <c r="A33" s="12" t="s">
         <v>1073</v>
       </c>
@@ -35165,7 +35171,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60">
+    <row r="34" spans="1:3" ht="57.6">
       <c r="A34" s="12" t="s">
         <v>1074</v>
       </c>
@@ -35176,7 +35182,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60">
+    <row r="35" spans="1:3" ht="57.6">
       <c r="A35" s="12" t="s">
         <v>1075</v>
       </c>
@@ -35187,7 +35193,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="60">
+    <row r="36" spans="1:3" ht="57.6">
       <c r="A36" s="12" t="s">
         <v>1076</v>
       </c>
@@ -35198,7 +35204,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="60">
+    <row r="37" spans="1:3" ht="57.6">
       <c r="A37" s="12" t="s">
         <v>1077</v>
       </c>
@@ -35209,7 +35215,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="60">
+    <row r="38" spans="1:3" ht="57.6">
       <c r="A38" s="12" t="s">
         <v>1078</v>
       </c>
@@ -35220,7 +35226,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="60">
+    <row r="39" spans="1:3" ht="57.6">
       <c r="A39" s="12" t="s">
         <v>1079</v>
       </c>
@@ -35253,7 +35259,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="60">
+    <row r="42" spans="1:3" ht="57.6">
       <c r="A42" s="12" t="s">
         <v>1082</v>
       </c>
@@ -35264,7 +35270,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30">
+    <row r="43" spans="1:3" ht="28.8">
       <c r="A43" s="9" t="s">
         <v>1084</v>
       </c>
@@ -35275,7 +35281,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30">
+    <row r="44" spans="1:3" ht="28.8">
       <c r="A44" s="9" t="s">
         <v>1085</v>
       </c>
@@ -35286,7 +35292,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30">
+    <row r="45" spans="1:3" ht="28.8">
       <c r="A45" s="9" t="s">
         <v>1086</v>
       </c>
@@ -35297,7 +35303,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3" ht="28.8">
       <c r="A46" s="9" t="s">
         <v>1087</v>
       </c>
@@ -35308,7 +35314,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30">
+    <row r="47" spans="1:3" ht="28.8">
       <c r="A47" s="9" t="s">
         <v>1088</v>
       </c>
@@ -35319,7 +35325,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30">
+    <row r="48" spans="1:3" ht="28.8">
       <c r="A48" s="9" t="s">
         <v>1089</v>
       </c>
@@ -35327,10 +35333,10 @@
         <v>1092</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.8">
       <c r="A49" s="9" t="s">
         <v>1090</v>
       </c>
@@ -35338,10 +35344,10 @@
         <v>1092</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.8">
       <c r="A50" s="9" t="s">
         <v>1091</v>
       </c>
@@ -35352,7 +35358,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="45">
+    <row r="51" spans="1:3" ht="28.8">
       <c r="A51" s="12" t="s">
         <v>1093</v>
       </c>
@@ -35363,7 +35369,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45">
+    <row r="52" spans="1:3" ht="28.8">
       <c r="A52" s="12" t="s">
         <v>1094</v>
       </c>
@@ -35374,7 +35380,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="45">
+    <row r="53" spans="1:3" ht="28.8">
       <c r="A53" s="12" t="s">
         <v>1095</v>
       </c>
@@ -35385,7 +35391,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="45">
+    <row r="54" spans="1:3" ht="28.8">
       <c r="A54" s="12" t="s">
         <v>1096</v>
       </c>
@@ -35396,7 +35402,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="45">
+    <row r="55" spans="1:3" ht="28.8">
       <c r="A55" s="12" t="s">
         <v>1097</v>
       </c>
@@ -35407,7 +35413,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45">
+    <row r="56" spans="1:3" ht="28.8">
       <c r="A56" s="12" t="s">
         <v>1098</v>
       </c>
@@ -35418,7 +35424,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="45">
+    <row r="57" spans="1:3" ht="28.8">
       <c r="A57" s="12" t="s">
         <v>1099</v>
       </c>
@@ -35429,7 +35435,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45">
+    <row r="58" spans="1:3" ht="28.8">
       <c r="A58" s="12" t="s">
         <v>1100</v>
       </c>
@@ -35440,7 +35446,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45">
+    <row r="59" spans="1:3" ht="28.8">
       <c r="A59" s="12" t="s">
         <v>1101</v>
       </c>
@@ -35451,7 +35457,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="45">
+    <row r="60" spans="1:3" ht="28.8">
       <c r="A60" s="12" t="s">
         <v>1102</v>
       </c>
@@ -35462,7 +35468,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="45">
+    <row r="61" spans="1:3" ht="28.8">
       <c r="A61" s="12" t="s">
         <v>1103</v>
       </c>
@@ -35473,7 +35479,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="45">
+    <row r="62" spans="1:3" ht="28.8">
       <c r="A62" s="12" t="s">
         <v>1104</v>
       </c>
@@ -35484,7 +35490,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45">
+    <row r="63" spans="1:3" ht="28.8">
       <c r="A63" s="12" t="s">
         <v>1105</v>
       </c>
@@ -35506,7 +35512,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="45">
+    <row r="65" spans="1:3" ht="28.8">
       <c r="A65" s="12" t="s">
         <v>1106</v>
       </c>
@@ -35517,7 +35523,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="45">
+    <row r="66" spans="1:3" ht="28.8">
       <c r="A66" s="12" t="s">
         <v>1107</v>
       </c>
@@ -35528,7 +35534,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="45">
+    <row r="67" spans="1:3" ht="28.8">
       <c r="A67" s="12" t="s">
         <v>1108</v>
       </c>
@@ -35539,7 +35545,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45">
+    <row r="68" spans="1:3" ht="28.8">
       <c r="A68" s="12" t="s">
         <v>1109</v>
       </c>
@@ -35561,7 +35567,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="45">
+    <row r="70" spans="1:3" ht="43.2">
       <c r="A70" s="9" t="s">
         <v>1111</v>
       </c>
@@ -35572,7 +35578,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="45">
+    <row r="71" spans="1:3" ht="43.2">
       <c r="A71" s="9" t="s">
         <v>1112</v>
       </c>
@@ -35583,7 +35589,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="45">
+    <row r="72" spans="1:3" ht="43.2">
       <c r="A72" s="9" t="s">
         <v>1113</v>
       </c>
@@ -35594,7 +35600,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="45">
+    <row r="73" spans="1:3" ht="43.2">
       <c r="A73" s="9" t="s">
         <v>1114</v>
       </c>
@@ -35605,7 +35611,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="45">
+    <row r="74" spans="1:3" ht="43.2">
       <c r="A74" s="9" t="s">
         <v>1115</v>
       </c>
@@ -35616,7 +35622,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45">
+    <row r="75" spans="1:3" ht="43.2">
       <c r="A75" s="9" t="s">
         <v>1116</v>
       </c>
@@ -35627,7 +35633,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="45">
+    <row r="76" spans="1:3" ht="43.2">
       <c r="A76" s="9" t="s">
         <v>1117</v>
       </c>
@@ -35638,7 +35644,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="45">
+    <row r="77" spans="1:3" ht="43.2">
       <c r="A77" s="9" t="s">
         <v>1118</v>
       </c>
@@ -35649,7 +35655,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="45">
+    <row r="78" spans="1:3" ht="43.2">
       <c r="A78" s="9" t="s">
         <v>1119</v>
       </c>
@@ -35660,7 +35666,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="45">
+    <row r="79" spans="1:3" ht="43.2">
       <c r="A79" s="9" t="s">
         <v>1120</v>
       </c>
@@ -35671,7 +35677,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="45">
+    <row r="80" spans="1:3" ht="43.2">
       <c r="A80" s="9" t="s">
         <v>1121</v>
       </c>
@@ -35682,7 +35688,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="45">
+    <row r="81" spans="1:3" ht="43.2">
       <c r="A81" s="9" t="s">
         <v>1122</v>
       </c>
@@ -35693,7 +35699,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="45">
+    <row r="82" spans="1:3" ht="43.2">
       <c r="A82" s="9" t="s">
         <v>1123</v>
       </c>
@@ -35704,7 +35710,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="45">
+    <row r="83" spans="1:3" ht="43.2">
       <c r="A83" s="9" t="s">
         <v>1124</v>
       </c>
@@ -35715,7 +35721,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="45">
+    <row r="84" spans="1:3" ht="43.2">
       <c r="A84" s="9" t="s">
         <v>1125</v>
       </c>
@@ -35726,7 +35732,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="45">
+    <row r="85" spans="1:3" ht="43.2">
       <c r="A85" s="9" t="s">
         <v>1126</v>
       </c>
@@ -35737,7 +35743,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="45">
+    <row r="86" spans="1:3" ht="43.2">
       <c r="A86" s="9" t="s">
         <v>1127</v>
       </c>
@@ -35748,7 +35754,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="45">
+    <row r="87" spans="1:3" ht="43.2">
       <c r="A87" s="9" t="s">
         <v>1128</v>
       </c>
@@ -35759,7 +35765,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="45">
+    <row r="88" spans="1:3" ht="43.2">
       <c r="A88" s="9" t="s">
         <v>1129</v>
       </c>
@@ -35770,7 +35776,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="45">
+    <row r="89" spans="1:3" ht="43.2">
       <c r="A89" s="9" t="s">
         <v>1130</v>
       </c>
@@ -35781,7 +35787,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="45">
+    <row r="90" spans="1:3" ht="43.2">
       <c r="A90" s="9" t="s">
         <v>1131</v>
       </c>
@@ -35792,7 +35798,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="45">
+    <row r="91" spans="1:3" ht="43.2">
       <c r="A91" s="9" t="s">
         <v>1132</v>
       </c>
@@ -35803,7 +35809,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="45">
+    <row r="92" spans="1:3" ht="43.2">
       <c r="A92" s="9" t="s">
         <v>1133</v>
       </c>
@@ -35814,7 +35820,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="45">
+    <row r="93" spans="1:3" ht="43.2">
       <c r="A93" s="9" t="s">
         <v>1134</v>
       </c>
@@ -35825,7 +35831,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="45">
+    <row r="94" spans="1:3" ht="43.2">
       <c r="A94" s="9" t="s">
         <v>1135</v>
       </c>
@@ -35836,7 +35842,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="45">
+    <row r="95" spans="1:3" ht="43.2">
       <c r="A95" s="9" t="s">
         <v>1136</v>
       </c>
@@ -35847,7 +35853,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="45">
+    <row r="96" spans="1:3" ht="43.2">
       <c r="A96" s="9" t="s">
         <v>1137</v>
       </c>
@@ -35858,7 +35864,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="45">
+    <row r="97" spans="1:3" ht="43.2">
       <c r="A97" s="9" t="s">
         <v>1138</v>
       </c>
@@ -35869,7 +35875,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="45">
+    <row r="98" spans="1:3" ht="43.2">
       <c r="A98" s="9" t="s">
         <v>1139</v>
       </c>
@@ -35913,7 +35919,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="45">
+    <row r="102" spans="1:3" ht="43.2">
       <c r="A102" s="9" t="s">
         <v>1143</v>
       </c>
@@ -36045,7 +36051,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="30">
+    <row r="114" spans="1:3" ht="28.8">
       <c r="A114" s="12" t="s">
         <v>1157</v>
       </c>
@@ -36056,7 +36062,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="30">
+    <row r="115" spans="1:3" ht="28.8">
       <c r="A115" s="12" t="s">
         <v>1158</v>
       </c>
@@ -36067,7 +36073,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="30">
+    <row r="116" spans="1:3" ht="28.8">
       <c r="A116" s="12" t="s">
         <v>1159</v>
       </c>
@@ -36078,7 +36084,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="30">
+    <row r="117" spans="1:3" ht="28.8">
       <c r="A117" s="12" t="s">
         <v>1160</v>
       </c>
@@ -36089,7 +36095,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="30">
+    <row r="118" spans="1:3" ht="28.8">
       <c r="A118" s="12" t="s">
         <v>1161</v>
       </c>
@@ -36100,7 +36106,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="30">
+    <row r="119" spans="1:3" ht="28.8">
       <c r="A119" s="12" t="s">
         <v>1162</v>
       </c>
@@ -36111,7 +36117,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="30">
+    <row r="120" spans="1:3" ht="28.8">
       <c r="A120" s="12" t="s">
         <v>1163</v>
       </c>
@@ -36122,7 +36128,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="30">
+    <row r="121" spans="1:3" ht="28.8">
       <c r="A121" s="12" t="s">
         <v>1164</v>
       </c>
@@ -36133,7 +36139,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="30">
+    <row r="122" spans="1:3" ht="28.8">
       <c r="A122" s="12" t="s">
         <v>1165</v>
       </c>
@@ -36144,7 +36150,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="30">
+    <row r="123" spans="1:3" ht="28.8">
       <c r="A123" s="12" t="s">
         <v>1166</v>
       </c>
@@ -36155,7 +36161,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="30">
+    <row r="124" spans="1:3" ht="28.8">
       <c r="A124" s="12" t="s">
         <v>1167</v>
       </c>
@@ -36166,7 +36172,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="30">
+    <row r="125" spans="1:3" ht="28.8">
       <c r="A125" s="12" t="s">
         <v>1168</v>
       </c>
@@ -36210,7 +36216,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="30">
+    <row r="129" spans="1:3" ht="28.8">
       <c r="A129" s="12" t="s">
         <v>1171</v>
       </c>
@@ -36221,7 +36227,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="30">
+    <row r="130" spans="1:3" ht="28.8">
       <c r="A130" s="12" t="s">
         <v>1172</v>
       </c>
@@ -36232,7 +36238,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="30">
+    <row r="131" spans="1:3" ht="28.8">
       <c r="A131" s="12" t="s">
         <v>1173</v>
       </c>
@@ -36287,7 +36293,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="30">
+    <row r="136" spans="1:3" ht="28.8">
       <c r="A136" s="12" t="s">
         <v>1174</v>
       </c>
@@ -36298,7 +36304,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="30">
+    <row r="137" spans="1:3" ht="28.8">
       <c r="A137" s="12" t="s">
         <v>1175</v>
       </c>
@@ -36309,7 +36315,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="30">
+    <row r="138" spans="1:3" ht="28.8">
       <c r="A138" s="12" t="s">
         <v>1176</v>
       </c>
@@ -36320,7 +36326,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="30">
+    <row r="139" spans="1:3" ht="28.8">
       <c r="A139" s="12" t="s">
         <v>1177</v>
       </c>
@@ -36331,7 +36337,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30">
+    <row r="140" spans="1:3" ht="28.8">
       <c r="A140" s="12" t="s">
         <v>1178</v>
       </c>
@@ -36342,7 +36348,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="30">
+    <row r="141" spans="1:3" ht="28.8">
       <c r="A141" s="12" t="s">
         <v>1179</v>
       </c>
@@ -36353,7 +36359,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="30">
+    <row r="142" spans="1:3" ht="28.8">
       <c r="A142" s="12" t="s">
         <v>1180</v>
       </c>
@@ -36375,7 +36381,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="60">
+    <row r="144" spans="1:3" ht="43.2">
       <c r="A144" s="12" t="s">
         <v>1182</v>
       </c>
@@ -36386,7 +36392,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="60">
+    <row r="145" spans="1:3" ht="43.2">
       <c r="A145" s="12" t="s">
         <v>1183</v>
       </c>
@@ -36397,7 +36403,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="45">
+    <row r="146" spans="1:3" ht="43.2">
       <c r="A146" s="12" t="s">
         <v>1184</v>
       </c>
@@ -36408,7 +36414,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="45">
+    <row r="147" spans="1:3" ht="43.2">
       <c r="A147" s="12" t="s">
         <v>1185</v>
       </c>
@@ -36419,7 +36425,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="45">
+    <row r="148" spans="1:3" ht="43.2">
       <c r="A148" s="12" t="s">
         <v>1186</v>
       </c>
@@ -36430,7 +36436,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="45">
+    <row r="149" spans="1:3" ht="43.2">
       <c r="A149" s="12" t="s">
         <v>1187</v>
       </c>
@@ -36441,7 +36447,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="45">
+    <row r="150" spans="1:3" ht="43.2">
       <c r="A150" s="12" t="s">
         <v>1188</v>
       </c>
@@ -36474,7 +36480,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="45">
+    <row r="153" spans="1:3" ht="43.2">
       <c r="A153" s="12" t="s">
         <v>1191</v>
       </c>
@@ -36485,7 +36491,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="45">
+    <row r="154" spans="1:3" ht="43.2">
       <c r="A154" s="12" t="s">
         <v>1192</v>
       </c>
@@ -36496,7 +36502,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="30">
+    <row r="155" spans="1:3" ht="28.8">
       <c r="A155" s="12" t="s">
         <v>1194</v>
       </c>
@@ -36507,7 +36513,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="30">
+    <row r="156" spans="1:3" ht="28.8">
       <c r="A156" s="12" t="s">
         <v>1195</v>
       </c>
@@ -36518,7 +36524,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="30">
+    <row r="157" spans="1:3" ht="28.8">
       <c r="A157" s="12" t="s">
         <v>1196</v>
       </c>
@@ -36529,7 +36535,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="30">
+    <row r="158" spans="1:3" ht="28.8">
       <c r="A158" s="12" t="s">
         <v>1197</v>
       </c>
@@ -36540,7 +36546,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="30">
+    <row r="159" spans="1:3" ht="28.8">
       <c r="A159" s="12" t="s">
         <v>1198</v>
       </c>
@@ -36551,7 +36557,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="30">
+    <row r="160" spans="1:3" ht="28.8">
       <c r="A160" s="12" t="s">
         <v>1200</v>
       </c>
@@ -36562,7 +36568,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="30">
+    <row r="161" spans="1:3" ht="28.8">
       <c r="A161" s="12" t="s">
         <v>1201</v>
       </c>
@@ -36573,7 +36579,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30">
+    <row r="162" spans="1:3" ht="28.8">
       <c r="A162" s="12" t="s">
         <v>1202</v>
       </c>
@@ -36584,7 +36590,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="30">
+    <row r="163" spans="1:3" ht="28.8">
       <c r="A163" s="12" t="s">
         <v>1203</v>
       </c>
@@ -36595,7 +36601,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="30">
+    <row r="164" spans="1:3" ht="28.8">
       <c r="A164" s="12" t="s">
         <v>1204</v>
       </c>
@@ -36606,7 +36612,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="30">
+    <row r="165" spans="1:3">
       <c r="A165" s="12" t="s">
         <v>1205</v>
       </c>
@@ -36617,7 +36623,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="45">
+    <row r="166" spans="1:3" ht="28.8">
       <c r="A166" s="12" t="s">
         <v>1206</v>
       </c>
@@ -36628,7 +36634,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="45">
+    <row r="167" spans="1:3" ht="28.8">
       <c r="A167" s="12" t="s">
         <v>1207</v>
       </c>
@@ -36639,7 +36645,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="45">
+    <row r="168" spans="1:3" ht="28.8">
       <c r="A168" s="12" t="s">
         <v>1208</v>
       </c>
@@ -36650,7 +36656,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="45">
+    <row r="169" spans="1:3" ht="28.8">
       <c r="A169" s="12" t="s">
         <v>1209</v>
       </c>
@@ -36661,7 +36667,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="45">
+    <row r="170" spans="1:3" ht="28.8">
       <c r="A170" s="12" t="s">
         <v>1210</v>
       </c>
@@ -36672,7 +36678,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="45">
+    <row r="171" spans="1:3" ht="28.8">
       <c r="A171" s="12" t="s">
         <v>1211</v>
       </c>
@@ -36683,7 +36689,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="30">
+    <row r="172" spans="1:3" ht="28.8">
       <c r="A172" s="12" t="s">
         <v>1213</v>
       </c>
@@ -36694,7 +36700,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="30">
+    <row r="173" spans="1:3" ht="28.8">
       <c r="A173" s="12" t="s">
         <v>1214</v>
       </c>
@@ -36705,7 +36711,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="30">
+    <row r="174" spans="1:3" ht="28.8">
       <c r="A174" s="12" t="s">
         <v>1215</v>
       </c>
@@ -36716,7 +36722,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="30">
+    <row r="175" spans="1:3" ht="28.8">
       <c r="A175" s="12" t="s">
         <v>1216</v>
       </c>
@@ -36727,7 +36733,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="30">
+    <row r="176" spans="1:3" ht="28.8">
       <c r="A176" s="12" t="s">
         <v>1217</v>
       </c>
@@ -36738,7 +36744,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="30">
+    <row r="177" spans="1:3" ht="28.8">
       <c r="A177" s="12" t="s">
         <v>1218</v>
       </c>
@@ -36749,7 +36755,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="30">
+    <row r="178" spans="1:3" ht="28.8">
       <c r="A178" s="12" t="s">
         <v>1219</v>
       </c>
@@ -36815,7 +36821,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="45">
+    <row r="184" spans="1:3" ht="28.8">
       <c r="A184" s="12" t="s">
         <v>1227</v>
       </c>
@@ -36826,7 +36832,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="45">
+    <row r="185" spans="1:3" ht="28.8">
       <c r="A185" s="12" t="s">
         <v>1228</v>
       </c>
@@ -36837,7 +36843,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="45">
+    <row r="186" spans="1:3" ht="28.8">
       <c r="A186" s="12" t="s">
         <v>1229</v>
       </c>
@@ -36848,7 +36854,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="45">
+    <row r="187" spans="1:3" ht="28.8">
       <c r="A187" s="12" t="s">
         <v>1230</v>
       </c>
@@ -36859,7 +36865,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="45">
+    <row r="188" spans="1:3" ht="28.8">
       <c r="A188" s="12" t="s">
         <v>1231</v>
       </c>
@@ -36870,7 +36876,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="45">
+    <row r="189" spans="1:3" ht="28.8">
       <c r="A189" s="12" t="s">
         <v>1232</v>
       </c>
@@ -36881,7 +36887,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="45">
+    <row r="190" spans="1:3" ht="43.2">
       <c r="A190" t="s">
         <v>1332</v>
       </c>
@@ -36892,7 +36898,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="45">
+    <row r="191" spans="1:3" ht="43.2">
       <c r="A191" t="s">
         <v>1333</v>
       </c>
@@ -36903,7 +36909,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="45">
+    <row r="192" spans="1:3" ht="43.2">
       <c r="A192" t="s">
         <v>1334</v>
       </c>
@@ -36914,7 +36920,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="45">
+    <row r="193" spans="1:3" ht="43.2">
       <c r="A193" t="s">
         <v>1335</v>
       </c>
@@ -36925,7 +36931,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="45">
+    <row r="194" spans="1:3" ht="43.2">
       <c r="A194" t="s">
         <v>1336</v>
       </c>
@@ -36936,7 +36942,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="45">
+    <row r="195" spans="1:3" ht="43.2">
       <c r="A195" t="s">
         <v>1337</v>
       </c>
@@ -36947,7 +36953,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="45">
+    <row r="196" spans="1:3" ht="43.2">
       <c r="A196" t="s">
         <v>1338</v>
       </c>
@@ -36958,7 +36964,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="45">
+    <row r="197" spans="1:3" ht="43.2">
       <c r="A197" t="s">
         <v>1339</v>
       </c>
@@ -36980,7 +36986,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="45">
+    <row r="199" spans="1:3" ht="43.2">
       <c r="A199" t="s">
         <v>1341</v>
       </c>
@@ -36991,7 +36997,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="45">
+    <row r="200" spans="1:3" ht="43.2">
       <c r="A200" t="s">
         <v>1342</v>
       </c>
@@ -37002,7 +37008,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="45">
+    <row r="201" spans="1:3" ht="43.2">
       <c r="A201" t="s">
         <v>1343</v>
       </c>
@@ -37057,7 +37063,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="30">
+    <row r="206" spans="1:3" ht="28.8">
       <c r="A206" s="4" t="s">
         <v>1397</v>
       </c>
@@ -37244,7 +37250,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="45">
+    <row r="223" spans="1:3" ht="28.8">
       <c r="A223" s="4" t="s">
         <v>1452</v>
       </c>
@@ -37255,7 +37261,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="45">
+    <row r="224" spans="1:3" ht="28.8">
       <c r="A224" s="15" t="s">
         <v>1453</v>
       </c>
@@ -37277,7 +37283,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="30">
+    <row r="226" spans="1:3" ht="28.8">
       <c r="A226" s="15" t="s">
         <v>1456</v>
       </c>
@@ -37288,7 +37294,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="30">
+    <row r="227" spans="1:3" ht="28.8">
       <c r="A227" s="4" t="s">
         <v>1457</v>
       </c>
@@ -37299,7 +37305,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="30">
+    <row r="228" spans="1:3" ht="28.8">
       <c r="A228" s="15" t="s">
         <v>1458</v>
       </c>
@@ -37310,7 +37316,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="30">
+    <row r="229" spans="1:3" ht="28.8">
       <c r="A229" s="15" t="s">
         <v>1459</v>
       </c>
@@ -37321,7 +37327,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="30">
+    <row r="230" spans="1:3" ht="28.8">
       <c r="A230" s="4" t="s">
         <v>1460</v>
       </c>
@@ -37332,7 +37338,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="30">
+    <row r="231" spans="1:3" ht="28.8">
       <c r="A231" s="4" t="s">
         <v>1461</v>
       </c>
@@ -37343,7 +37349,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="30">
+    <row r="232" spans="1:3" ht="28.8">
       <c r="A232" s="4" t="s">
         <v>1462</v>
       </c>
@@ -37398,7 +37404,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="30">
+    <row r="237" spans="1:3">
       <c r="A237" s="4" t="s">
         <v>1526</v>
       </c>
@@ -37409,7 +37415,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="30">
+    <row r="238" spans="1:3">
       <c r="A238" s="15" t="s">
         <v>1527</v>
       </c>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F857BB-59C7-4FFC-AA2D-F0470359BB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD391A99-8020-4D51-9021-3CFCB266B208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
     <sheet name="options" sheetId="2" r:id="rId2"/>
     <sheet name="factions" sheetId="3" r:id="rId3"/>
     <sheet name="hero_constraints" sheetId="4" r:id="rId4"/>
+    <sheet name="warning_rules" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$C$261</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$389</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$393</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$608</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5805" uniqueCount="1649">
   <si>
     <t>faction</t>
   </si>
@@ -3315,9 +3316,6 @@
     <t>[the_dead_of_dunharrow] herald_of_the_dead</t>
   </si>
   <si>
-    <t>[the_dead_of_dunharrow] warrior_of_the_dead</t>
-  </si>
-  <si>
     <t>[the_dead_of_dunharrow] the_king_of_the_dead</t>
   </si>
   <si>
@@ -3756,9 +3754,6 @@
     <t>[the_fellowship] peregrin_took</t>
   </si>
   <si>
-    <t>['[the_fellowship] frodo_baggins', '[the_fellowship] samwise_gamgee', '[the_fellowship] gandalf_the_grey', '[the_fellowship] aragorn,_strider', '[the_fellowship] legolas', '[the_fellowship] gimli', '[the_fellowship] boromir_of_gondor', '[the_fellowship] smeagol', '[the_fellowship] bill_the_pony', '[the_fellowship] meriadoc_brandybuck', '[the_fellowship] peregrin_took']</t>
-  </si>
-  <si>
     <t>[the_fiefdoms] captain_of_dol_amroth</t>
   </si>
   <si>
@@ -3987,9 +3982,6 @@
     <t>['[the_host_of_the_dragon_emperor] black_dragon_kataphrakt', '[the_host_of_the_dragon_emperor] black_dragon_warrior']</t>
   </si>
   <si>
-    <t>['[the_fellowship] frodo_baggins', '[the_fellowship] samwise_gamgee', '[the_fellowship] gandalf_the_grey', '[the_fellowship] aragorn,_strider', '[the_fellowship] legolas', '[the_fellowship] gimli', '[the_fellowship] boromir_of_gondor', '[the_fellowship] smeagol', '[the_fellowship] meriadoc_brandybuck', '[the_fellowship] peregrin_took']</t>
-  </si>
-  <si>
     <t>['[the_fellowship] frodo_baggins', '[the_fellowship] samwise_gamgee', '[the_fellowship] gandalf_the_grey', '[the_fellowship] aragorn,_strider', '[the_fellowship] legolas', '[the_fellowship] gimli', '[the_fellowship] boromir_of_gondor', '[the_fellowship] meriadoc_brandybuck', '[the_fellowship] peregrin_took']</t>
   </si>
   <si>
@@ -5080,6 +5072,57 @@
   </si>
   <si>
     <t>['Galadhrim Guard Upgrade']</t>
+  </si>
+  <si>
+    <t>[the_dead_of_dunharrow] warrior_of_the_dead_cpt</t>
+  </si>
+  <si>
+    <t>dependencies</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>requires</t>
+  </si>
+  <si>
+    <t>OPT0633</t>
+  </si>
+  <si>
+    <t>OPT0634</t>
+  </si>
+  <si>
+    <t>OPT0635</t>
+  </si>
+  <si>
+    <t>['[the_fellowship] aragorn,_strider']</t>
+  </si>
+  <si>
+    <t>[the_fellowship] arwen</t>
+  </si>
+  <si>
+    <t>Arwen cannot be chosen unless Aragorn, Strider is in your force.</t>
+  </si>
+  <si>
+    <t>['[the_fellowship] frodo_baggins', '[the_fellowship] samwise_gamgee', '[the_fellowship] gandalf_the_grey', '[the_fellowship] aragorn,_strider', '[the_fellowship] legolas', '[the_fellowship] gimli', '[the_fellowship] boromir_of_gondor', '[the_fellowship] meriadoc_brandybuck', '[the_fellowship] peregrin_took', '[the_fellowship] arwen']</t>
+  </si>
+  <si>
+    <t>['[the_fellowship] frodo_baggins', '[the_fellowship] samwise_gamgee', '[the_fellowship] gandalf_the_grey', '[the_fellowship] aragorn,_strider', '[the_fellowship] legolas', '[the_fellowship] gimli', '[the_fellowship] boromir_of_gondor', '[the_fellowship] smeagol', '[the_fellowship] bill_the_pony', '[the_fellowship] meriadoc_brandybuck', '[the_fellowship] peregrin_took', '[the_fellowship] arwen']</t>
+  </si>
+  <si>
+    <t>['[the_fellowship] frodo_baggins', '[the_fellowship] samwise_gamgee', '[the_fellowship] gandalf_the_grey', '[the_fellowship] aragorn,_strider', '[the_fellowship] legolas', '[the_fellowship] gimli', '[the_fellowship] boromir_of_gondor', '[the_fellowship] smeagol', '[the_fellowship] meriadoc_brandybuck', '[the_fellowship] peregrin_took', '[the_fellowship] arwen']</t>
+  </si>
+  <si>
+    <t>['[the_fellowship] frodo_baggins', '[the_fellowship] samwise_gamgee']</t>
+  </si>
+  <si>
+    <t>Smeagol may only be included in a warband that contains only Frodo and Sam.</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>bow_limit</t>
   </si>
 </sst>
 </file>
@@ -5128,7 +5171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -5175,11 +5218,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5217,6 +5297,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5532,25 +5627,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:J392"/>
+  <dimension ref="A1:J393"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A392" sqref="A392"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C290" sqref="C290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5580,7 +5675,7 @@
         <v>155</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>154</v>
@@ -5601,7 +5696,7 @@
         <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -5634,7 +5729,7 @@
         <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -5667,7 +5762,7 @@
         <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -5700,7 +5795,7 @@
         <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -5733,7 +5828,7 @@
         <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -5799,7 +5894,7 @@
         <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -5898,7 +5993,7 @@
         <v>241</v>
       </c>
       <c r="E11" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -5931,7 +6026,7 @@
         <v>241</v>
       </c>
       <c r="E12" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -5964,7 +6059,7 @@
         <v>241</v>
       </c>
       <c r="E13" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -5997,7 +6092,7 @@
         <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -6030,7 +6125,7 @@
         <v>241</v>
       </c>
       <c r="E15" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -6063,7 +6158,7 @@
         <v>241</v>
       </c>
       <c r="E16" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -6096,7 +6191,7 @@
         <v>241</v>
       </c>
       <c r="E17" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -7287,7 +7382,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G53">
         <v>25</v>
@@ -10617,7 +10712,7 @@
         <v>965</v>
       </c>
       <c r="E154" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -10650,7 +10745,7 @@
         <v>965</v>
       </c>
       <c r="E155" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -10683,7 +10778,7 @@
         <v>965</v>
       </c>
       <c r="E156" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -10716,7 +10811,7 @@
         <v>965</v>
       </c>
       <c r="E157" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -10749,7 +10844,7 @@
         <v>965</v>
       </c>
       <c r="E158" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -10782,7 +10877,7 @@
         <v>965</v>
       </c>
       <c r="E159" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="F159" t="s">
         <v>15</v>
@@ -10815,7 +10910,7 @@
         <v>965</v>
       </c>
       <c r="E160" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="F160" t="s">
         <v>7</v>
@@ -10848,7 +10943,7 @@
         <v>965</v>
       </c>
       <c r="E161" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="F161" t="s">
         <v>7</v>
@@ -10881,7 +10976,7 @@
         <v>965</v>
       </c>
       <c r="E162" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="F162" t="s">
         <v>44</v>
@@ -10914,7 +11009,7 @@
         <v>965</v>
       </c>
       <c r="E163" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="F163" t="s">
         <v>22</v>
@@ -10947,7 +11042,7 @@
         <v>965</v>
       </c>
       <c r="E164" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="F164" t="s">
         <v>22</v>
@@ -10980,7 +11075,7 @@
         <v>965</v>
       </c>
       <c r="E165" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="F165" t="s">
         <v>22</v>
@@ -11013,7 +11108,7 @@
         <v>965</v>
       </c>
       <c r="E166" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="F166" t="s">
         <v>12</v>
@@ -11046,7 +11141,7 @@
         <v>965</v>
       </c>
       <c r="E167" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="F167" t="s">
         <v>12</v>
@@ -11079,7 +11174,7 @@
         <v>965</v>
       </c>
       <c r="E168" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="F168" t="s">
         <v>12</v>
@@ -11112,7 +11207,7 @@
         <v>241</v>
       </c>
       <c r="E169" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="F169" t="s">
         <v>12</v>
@@ -11145,7 +11240,7 @@
         <v>965</v>
       </c>
       <c r="E170" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="F170" t="s">
         <v>12</v>
@@ -11178,7 +11273,7 @@
         <v>965</v>
       </c>
       <c r="E171" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="F171" t="s">
         <v>12</v>
@@ -11211,7 +11306,7 @@
         <v>965</v>
       </c>
       <c r="E172" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="F172" t="s">
         <v>12</v>
@@ -11244,7 +11339,7 @@
         <v>965</v>
       </c>
       <c r="E173" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="F173" t="s">
         <v>12</v>
@@ -11277,7 +11372,7 @@
         <v>241</v>
       </c>
       <c r="E174" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="F174" t="s">
         <v>12</v>
@@ -11310,7 +11405,7 @@
         <v>965</v>
       </c>
       <c r="E175" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="F175" t="s">
         <v>12</v>
@@ -12267,7 +12362,7 @@
         <v>132</v>
       </c>
       <c r="E204" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="F204" t="s">
         <v>44</v>
@@ -12583,9 +12678,8 @@
       </c>
     </row>
     <row r="214" spans="1:10">
-      <c r="A214" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>[the_dead_of_dunharrow] warrior_of_the_dead</v>
+      <c r="A214" s="4" t="s">
+        <v>1632</v>
       </c>
       <c r="B214" t="s">
         <v>204</v>
@@ -13026,7 +13120,7 @@
         <v>206</v>
       </c>
       <c r="E227" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="F227" t="s">
         <v>12</v>
@@ -13059,7 +13153,7 @@
         <v>206</v>
       </c>
       <c r="E228" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F228" t="s">
         <v>12</v>
@@ -13125,7 +13219,7 @@
         <v>206</v>
       </c>
       <c r="E230" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F230" t="s">
         <v>12</v>
@@ -13425,7 +13519,7 @@
         <v>183</v>
       </c>
       <c r="F239" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G239">
         <v>30</v>
@@ -13458,7 +13552,7 @@
         <v>182</v>
       </c>
       <c r="F240" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G240">
         <v>25</v>
@@ -14115,7 +14209,7 @@
         <v>206</v>
       </c>
       <c r="E260" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F260" t="s">
         <v>12</v>
@@ -14148,7 +14242,7 @@
         <v>206</v>
       </c>
       <c r="E261" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="F261" t="s">
         <v>12</v>
@@ -14247,7 +14341,7 @@
         <v>206</v>
       </c>
       <c r="E264" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F264" t="s">
         <v>12</v>
@@ -15765,7 +15859,7 @@
         <v>1016</v>
       </c>
       <c r="E310" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="F310" t="s">
         <v>10</v>
@@ -15798,7 +15892,7 @@
         <v>1016</v>
       </c>
       <c r="E311" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="F311" t="s">
         <v>7</v>
@@ -15831,7 +15925,7 @@
         <v>1016</v>
       </c>
       <c r="E312" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="F312" t="s">
         <v>10</v>
@@ -15864,7 +15958,7 @@
         <v>1016</v>
       </c>
       <c r="E313" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="F313" t="s">
         <v>10</v>
@@ -15897,7 +15991,7 @@
         <v>1016</v>
       </c>
       <c r="E314" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="F314" t="s">
         <v>10</v>
@@ -15930,7 +16024,7 @@
         <v>1016</v>
       </c>
       <c r="E315" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="F315" t="s">
         <v>22</v>
@@ -15963,7 +16057,7 @@
         <v>1016</v>
       </c>
       <c r="E316" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="F316" t="s">
         <v>22</v>
@@ -15996,7 +16090,7 @@
         <v>1016</v>
       </c>
       <c r="E317" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="F317" t="s">
         <v>10</v>
@@ -16029,10 +16123,10 @@
         <v>1016</v>
       </c>
       <c r="E318" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="F318" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -16062,7 +16156,7 @@
         <v>1016</v>
       </c>
       <c r="E319" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="F319" t="s">
         <v>10</v>
@@ -16095,7 +16189,7 @@
         <v>1016</v>
       </c>
       <c r="E320" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="F320" t="s">
         <v>12</v>
@@ -16128,7 +16222,7 @@
         <v>1016</v>
       </c>
       <c r="E321" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="F321" t="s">
         <v>12</v>
@@ -16161,7 +16255,7 @@
         <v>1016</v>
       </c>
       <c r="E322" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="F322" t="s">
         <v>10</v>
@@ -16194,7 +16288,7 @@
         <v>1016</v>
       </c>
       <c r="E323" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="F323" t="s">
         <v>22</v>
@@ -16227,7 +16321,7 @@
         <v>1016</v>
       </c>
       <c r="E324" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="F324" t="s">
         <v>10</v>
@@ -16260,7 +16354,7 @@
         <v>1016</v>
       </c>
       <c r="E325" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="F325" t="s">
         <v>7</v>
@@ -16293,7 +16387,7 @@
         <v>1016</v>
       </c>
       <c r="E326" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="F326" t="s">
         <v>10</v>
@@ -16326,7 +16420,7 @@
         <v>1016</v>
       </c>
       <c r="E327" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="F327" t="s">
         <v>7</v>
@@ -16359,7 +16453,7 @@
         <v>1016</v>
       </c>
       <c r="E328" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="F328" t="s">
         <v>10</v>
@@ -16392,7 +16486,7 @@
         <v>1016</v>
       </c>
       <c r="E329" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="F329" t="s">
         <v>44</v>
@@ -16425,7 +16519,7 @@
         <v>1016</v>
       </c>
       <c r="E330" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="F330" t="s">
         <v>10</v>
@@ -16458,7 +16552,7 @@
         <v>1016</v>
       </c>
       <c r="E331" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="F331" t="s">
         <v>10</v>
@@ -16491,7 +16585,7 @@
         <v>1016</v>
       </c>
       <c r="E332" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="F332" t="s">
         <v>12</v>
@@ -16524,7 +16618,7 @@
         <v>994</v>
       </c>
       <c r="E333" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="F333" t="s">
         <v>12</v>
@@ -16557,7 +16651,7 @@
         <v>994</v>
       </c>
       <c r="E334" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="F334" t="s">
         <v>10</v>
@@ -16590,7 +16684,7 @@
         <v>994</v>
       </c>
       <c r="E335" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="F335" t="s">
         <v>10</v>
@@ -16623,7 +16717,7 @@
         <v>994</v>
       </c>
       <c r="E336" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="F336" t="s">
         <v>12</v>
@@ -16656,7 +16750,7 @@
         <v>994</v>
       </c>
       <c r="E337" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="F337" t="s">
         <v>12</v>
@@ -16689,7 +16783,7 @@
         <v>994</v>
       </c>
       <c r="E338" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="F338" t="s">
         <v>15</v>
@@ -16722,7 +16816,7 @@
         <v>994</v>
       </c>
       <c r="E339" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="F339" t="s">
         <v>7</v>
@@ -16755,7 +16849,7 @@
         <v>1011</v>
       </c>
       <c r="E340" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="F340" t="s">
         <v>12</v>
@@ -16788,7 +16882,7 @@
         <v>209</v>
       </c>
       <c r="E341" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="F341" t="s">
         <v>10</v>
@@ -16821,7 +16915,7 @@
         <v>917</v>
       </c>
       <c r="E342" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="F342" t="s">
         <v>12</v>
@@ -16854,7 +16948,7 @@
         <v>917</v>
       </c>
       <c r="E343" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="F343" t="s">
         <v>10</v>
@@ -16887,7 +16981,7 @@
         <v>917</v>
       </c>
       <c r="E344" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="F344" t="s">
         <v>12</v>
@@ -16920,7 +17014,7 @@
         <v>917</v>
       </c>
       <c r="E345" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="F345" t="s">
         <v>7</v>
@@ -16953,7 +17047,7 @@
         <v>917</v>
       </c>
       <c r="E346" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="F346" t="s">
         <v>12</v>
@@ -16986,7 +17080,7 @@
         <v>1011</v>
       </c>
       <c r="E347" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="F347" t="s">
         <v>10</v>
@@ -17019,7 +17113,7 @@
         <v>1011</v>
       </c>
       <c r="E348" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="F348" t="s">
         <v>12</v>
@@ -17052,7 +17146,7 @@
         <v>1011</v>
       </c>
       <c r="E349" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="F349" t="s">
         <v>10</v>
@@ -17085,7 +17179,7 @@
         <v>1011</v>
       </c>
       <c r="E350" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="F350" t="s">
         <v>12</v>
@@ -17118,7 +17212,7 @@
         <v>209</v>
       </c>
       <c r="E351" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="F351" t="s">
         <v>10</v>
@@ -17151,7 +17245,7 @@
         <v>1011</v>
       </c>
       <c r="E352" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="F352" t="s">
         <v>15</v>
@@ -17166,7 +17260,7 @@
         <v>1</v>
       </c>
       <c r="J352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:10">
@@ -17184,7 +17278,7 @@
         <v>1011</v>
       </c>
       <c r="E353" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="F353" t="s">
         <v>10</v>
@@ -17199,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="J353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -17217,7 +17311,7 @@
         <v>209</v>
       </c>
       <c r="E354" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="F354" t="s">
         <v>10</v>
@@ -17232,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="J354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:10">
@@ -17382,7 +17476,7 @@
         <v>851</v>
       </c>
       <c r="E359" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="F359" t="s">
         <v>7</v>
@@ -17415,7 +17509,7 @@
         <v>1002</v>
       </c>
       <c r="E360" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="F360" t="s">
         <v>7</v>
@@ -17448,7 +17542,7 @@
         <v>948</v>
       </c>
       <c r="E361" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="F361" t="s">
         <v>10</v>
@@ -17481,7 +17575,7 @@
         <v>1035</v>
       </c>
       <c r="E362" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="F362" t="s">
         <v>10</v>
@@ -17514,7 +17608,7 @@
         <v>1002</v>
       </c>
       <c r="E363" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="F363" t="s">
         <v>10</v>
@@ -17547,7 +17641,7 @@
         <v>939</v>
       </c>
       <c r="E364" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="F364" t="s">
         <v>10</v>
@@ -17580,7 +17674,7 @@
         <v>851</v>
       </c>
       <c r="E365" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="F365" t="s">
         <v>44</v>
@@ -17613,7 +17707,7 @@
         <v>939</v>
       </c>
       <c r="E366" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="F366" t="s">
         <v>15</v>
@@ -17646,7 +17740,7 @@
         <v>948</v>
       </c>
       <c r="E367" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="F367" t="s">
         <v>12</v>
@@ -17679,7 +17773,7 @@
         <v>921</v>
       </c>
       <c r="E368" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="F368" t="s">
         <v>7</v>
@@ -17712,7 +17806,7 @@
         <v>984</v>
       </c>
       <c r="E369" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="F369" t="s">
         <v>12</v>
@@ -17745,7 +17839,7 @@
         <v>984</v>
       </c>
       <c r="E370" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="F370" t="s">
         <v>15</v>
@@ -17778,7 +17872,7 @@
         <v>851</v>
       </c>
       <c r="E371" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="F371" t="s">
         <v>10</v>
@@ -17811,7 +17905,7 @@
         <v>1035</v>
       </c>
       <c r="E372" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="F372" t="s">
         <v>22</v>
@@ -17844,7 +17938,7 @@
         <v>939</v>
       </c>
       <c r="E373" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="F373" t="s">
         <v>7</v>
@@ -17877,7 +17971,7 @@
         <v>1002</v>
       </c>
       <c r="E374" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="F374" t="s">
         <v>10</v>
@@ -17910,7 +18004,7 @@
         <v>948</v>
       </c>
       <c r="E375" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="F375" t="s">
         <v>10</v>
@@ -17943,7 +18037,7 @@
         <v>851</v>
       </c>
       <c r="E376" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="F376" t="s">
         <v>44</v>
@@ -17976,7 +18070,7 @@
         <v>1035</v>
       </c>
       <c r="E377" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="F377" t="s">
         <v>10</v>
@@ -18009,7 +18103,7 @@
         <v>1035</v>
       </c>
       <c r="E378" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="F378" t="s">
         <v>12</v>
@@ -18042,7 +18136,7 @@
         <v>1035</v>
       </c>
       <c r="E379" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="F379" t="s">
         <v>15</v>
@@ -18075,7 +18169,7 @@
         <v>1035</v>
       </c>
       <c r="E380" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="F380" t="s">
         <v>7</v>
@@ -18108,7 +18202,7 @@
         <v>1035</v>
       </c>
       <c r="E381" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="F381" t="s">
         <v>10</v>
@@ -18141,7 +18235,7 @@
         <v>948</v>
       </c>
       <c r="E382" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="F382" t="s">
         <v>15</v>
@@ -18174,7 +18268,7 @@
         <v>1002</v>
       </c>
       <c r="E383" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="F383" t="s">
         <v>12</v>
@@ -18207,7 +18301,7 @@
         <v>939</v>
       </c>
       <c r="E384" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="F384" t="s">
         <v>12</v>
@@ -18240,7 +18334,7 @@
         <v>921</v>
       </c>
       <c r="E385" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="F385" t="s">
         <v>12</v>
@@ -18273,7 +18367,7 @@
         <v>851</v>
       </c>
       <c r="E386" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="F386" t="s">
         <v>44</v>
@@ -18306,7 +18400,7 @@
         <v>1016</v>
       </c>
       <c r="E387" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="F387" t="s">
         <v>12</v>
@@ -18372,7 +18466,7 @@
         <v>1016</v>
       </c>
       <c r="E389" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="F389" t="s">
         <v>10</v>
@@ -18392,7 +18486,7 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390" s="4" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="B390" t="s">
         <v>205</v>
@@ -18404,7 +18498,7 @@
         <v>1035</v>
       </c>
       <c r="E390" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="F390" t="s">
         <v>10</v>
@@ -18424,7 +18518,7 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391" s="4" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B391" t="s">
         <v>204</v>
@@ -18436,7 +18530,7 @@
         <v>921</v>
       </c>
       <c r="E391" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="F391" t="s">
         <v>10</v>
@@ -18456,7 +18550,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392" s="4" t="str">
-        <f t="shared" ref="A392" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
+        <f t="shared" ref="A392:A393" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
         <v>[sharkey's_rogues] hobbit_militia</v>
       </c>
       <c r="B392" t="s">
@@ -18469,7 +18563,7 @@
         <v>1016</v>
       </c>
       <c r="E392" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="F392" t="s">
         <v>12</v>
@@ -18487,8 +18581,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="393" spans="1:10">
+      <c r="A393" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[the_fellowship] arwen</v>
+      </c>
+      <c r="B393" t="s">
+        <v>204</v>
+      </c>
+      <c r="C393" t="s">
+        <v>3</v>
+      </c>
+      <c r="D393" t="s">
+        <v>124</v>
+      </c>
+      <c r="E393" t="s">
+        <v>125</v>
+      </c>
+      <c r="F393" t="s">
+        <v>22</v>
+      </c>
+      <c r="G393">
+        <v>60</v>
+      </c>
+      <c r="H393" t="b">
+        <v>0</v>
+      </c>
+      <c r="I393" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J389" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
+  <autoFilter ref="A1:J393" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J308">
     <sortCondition ref="C2:C308"/>
     <sortCondition ref="F2:F308"/>
@@ -18501,20 +18628,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <dimension ref="A1:H633"/>
+  <dimension ref="A1:H636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
+      <pane ySplit="1" topLeftCell="A605" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B636" sqref="B636"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -18551,7 +18678,7 @@
         <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D2" t="s">
         <v>308</v>
@@ -18577,10 +18704,10 @@
         <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D3" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -18600,7 +18727,7 @@
         <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D4" t="s">
         <v>312</v>
@@ -18623,7 +18750,7 @@
         <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="D5" t="s">
         <v>308</v>
@@ -18649,7 +18776,7 @@
         <v>241</v>
       </c>
       <c r="C6" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D6" t="s">
         <v>286</v>
@@ -18672,10 +18799,10 @@
         <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D7" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -18698,7 +18825,7 @@
         <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D8" t="s">
         <v>312</v>
@@ -18721,7 +18848,7 @@
         <v>241</v>
       </c>
       <c r="C9" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D9" t="s">
         <v>320</v>
@@ -18744,7 +18871,7 @@
         <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D10" t="s">
         <v>291</v>
@@ -18767,7 +18894,7 @@
         <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D11" t="s">
         <v>286</v>
@@ -18790,10 +18917,10 @@
         <v>241</v>
       </c>
       <c r="C12" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D12" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -18816,7 +18943,7 @@
         <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D13" t="s">
         <v>312</v>
@@ -18839,7 +18966,7 @@
         <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D14" t="s">
         <v>332</v>
@@ -18862,7 +18989,7 @@
         <v>241</v>
       </c>
       <c r="C15" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D15" t="s">
         <v>308</v>
@@ -21057,7 +21184,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B106" t="s">
         <v>42</v>
@@ -26485,7 +26612,7 @@
         <v>70</v>
       </c>
       <c r="D330" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E330">
         <v>1</v>
@@ -27197,7 +27324,7 @@
         <v>137</v>
       </c>
       <c r="D359" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E359">
         <v>1</v>
@@ -27727,7 +27854,7 @@
         <v>206</v>
       </c>
       <c r="C381" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D381" t="s">
         <v>286</v>
@@ -27750,7 +27877,7 @@
         <v>206</v>
       </c>
       <c r="C382" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D382" t="s">
         <v>695</v>
@@ -27773,7 +27900,7 @@
         <v>206</v>
       </c>
       <c r="C383" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D383" t="s">
         <v>697</v>
@@ -27799,7 +27926,7 @@
         <v>206</v>
       </c>
       <c r="C384" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D384" t="s">
         <v>286</v>
@@ -27822,7 +27949,7 @@
         <v>206</v>
       </c>
       <c r="C385" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D385" t="s">
         <v>697</v>
@@ -27848,7 +27975,7 @@
         <v>206</v>
       </c>
       <c r="C386" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D386" t="s">
         <v>409</v>
@@ -27871,7 +27998,7 @@
         <v>206</v>
       </c>
       <c r="C387" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D387" t="s">
         <v>312</v>
@@ -27894,7 +28021,7 @@
         <v>206</v>
       </c>
       <c r="C388" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D388" t="s">
         <v>356</v>
@@ -28015,7 +28142,7 @@
         <v>206</v>
       </c>
       <c r="C393" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D393" t="s">
         <v>286</v>
@@ -28038,7 +28165,7 @@
         <v>206</v>
       </c>
       <c r="C394" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D394" t="s">
         <v>695</v>
@@ -28061,7 +28188,7 @@
         <v>206</v>
       </c>
       <c r="C395" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D395" t="s">
         <v>697</v>
@@ -29150,7 +29277,7 @@
         <v>244</v>
       </c>
       <c r="C440" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D440" t="s">
         <v>286</v>
@@ -29173,7 +29300,7 @@
         <v>244</v>
       </c>
       <c r="C441" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D441" t="s">
         <v>695</v>
@@ -29196,7 +29323,7 @@
         <v>244</v>
       </c>
       <c r="C442" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D442" t="s">
         <v>754</v>
@@ -29222,7 +29349,7 @@
         <v>244</v>
       </c>
       <c r="C443" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D443" t="s">
         <v>286</v>
@@ -29245,7 +29372,7 @@
         <v>244</v>
       </c>
       <c r="C444" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D444" t="s">
         <v>409</v>
@@ -29268,7 +29395,7 @@
         <v>244</v>
       </c>
       <c r="C445" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D445" t="s">
         <v>312</v>
@@ -29291,7 +29418,7 @@
         <v>244</v>
       </c>
       <c r="C446" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D446" t="s">
         <v>356</v>
@@ -29317,7 +29444,7 @@
         <v>244</v>
       </c>
       <c r="C447" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D447" t="s">
         <v>754</v>
@@ -29438,7 +29565,7 @@
         <v>244</v>
       </c>
       <c r="C452" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D452" t="s">
         <v>286</v>
@@ -29461,7 +29588,7 @@
         <v>244</v>
       </c>
       <c r="C453" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D453" t="s">
         <v>695</v>
@@ -29484,7 +29611,7 @@
         <v>244</v>
       </c>
       <c r="C454" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D454" t="s">
         <v>697</v>
@@ -29510,7 +29637,7 @@
         <v>244</v>
       </c>
       <c r="C455" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D455" t="s">
         <v>754</v>
@@ -29726,7 +29853,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B464" t="s">
         <v>243</v>
@@ -30086,7 +30213,7 @@
         <v>28</v>
       </c>
       <c r="D479" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E479">
         <v>2</v>
@@ -30431,7 +30558,7 @@
     </row>
     <row r="494" spans="1:8">
       <c r="A494" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B494" t="s">
         <v>246</v>
@@ -30454,7 +30581,7 @@
     </row>
     <row r="495" spans="1:8">
       <c r="A495" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B495" t="s">
         <v>246</v>
@@ -30477,7 +30604,7 @@
     </row>
     <row r="496" spans="1:8">
       <c r="A496" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B496" t="s">
         <v>246</v>
@@ -30500,7 +30627,7 @@
     </row>
     <row r="497" spans="1:8">
       <c r="A497" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B497" t="s">
         <v>245</v>
@@ -30523,7 +30650,7 @@
     </row>
     <row r="498" spans="1:8">
       <c r="A498" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B498" t="s">
         <v>245</v>
@@ -30546,7 +30673,7 @@
     </row>
     <row r="499" spans="1:8">
       <c r="A499" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B499" t="s">
         <v>245</v>
@@ -30569,7 +30696,7 @@
     </row>
     <row r="500" spans="1:8">
       <c r="A500" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B500" t="s">
         <v>245</v>
@@ -30595,7 +30722,7 @@
     </row>
     <row r="501" spans="1:8">
       <c r="A501" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B501" t="s">
         <v>245</v>
@@ -30618,7 +30745,7 @@
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B502" t="s">
         <v>245</v>
@@ -30641,7 +30768,7 @@
     </row>
     <row r="503" spans="1:8">
       <c r="A503" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B503" t="s">
         <v>245</v>
@@ -30664,7 +30791,7 @@
     </row>
     <row r="504" spans="1:8">
       <c r="A504" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B504" t="s">
         <v>245</v>
@@ -30687,7 +30814,7 @@
     </row>
     <row r="505" spans="1:8">
       <c r="A505" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B505" s="5" t="s">
         <v>209</v>
@@ -30713,7 +30840,7 @@
     </row>
     <row r="506" spans="1:8">
       <c r="A506" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B506" s="5" t="s">
         <v>209</v>
@@ -30736,7 +30863,7 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B507" s="5" t="s">
         <v>209</v>
@@ -30762,7 +30889,7 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B508" s="5" t="s">
         <v>209</v>
@@ -30785,7 +30912,7 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B509" s="5" t="s">
         <v>209</v>
@@ -30808,7 +30935,7 @@
     </row>
     <row r="510" spans="1:8">
       <c r="A510" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B510" s="5" t="s">
         <v>209</v>
@@ -30831,7 +30958,7 @@
     </row>
     <row r="511" spans="1:8">
       <c r="A511" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B511" s="5" t="s">
         <v>209</v>
@@ -30857,7 +30984,7 @@
     </row>
     <row r="512" spans="1:8">
       <c r="A512" s="5" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="B512" s="5" t="s">
         <v>209</v>
@@ -30880,7 +31007,7 @@
     </row>
     <row r="513" spans="1:8">
       <c r="A513" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B513" s="5" t="s">
         <v>209</v>
@@ -30903,7 +31030,7 @@
     </row>
     <row r="514" spans="1:8">
       <c r="A514" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="B514" s="5" t="s">
         <v>209</v>
@@ -30926,7 +31053,7 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" s="5" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="B515" s="5" t="s">
         <v>209</v>
@@ -30952,7 +31079,7 @@
     </row>
     <row r="516" spans="1:8">
       <c r="A516" s="5" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="B516" s="5" t="s">
         <v>209</v>
@@ -30975,7 +31102,7 @@
     </row>
     <row r="517" spans="1:8">
       <c r="A517" s="5" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="B517" s="5" t="s">
         <v>209</v>
@@ -31001,7 +31128,7 @@
     </row>
     <row r="518" spans="1:8">
       <c r="A518" s="5" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B518" s="5" t="s">
         <v>209</v>
@@ -31024,7 +31151,7 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B519" s="5" t="s">
         <v>209</v>
@@ -31050,7 +31177,7 @@
     </row>
     <row r="520" spans="1:8">
       <c r="A520" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B520" s="5" t="s">
         <v>209</v>
@@ -31073,7 +31200,7 @@
     </row>
     <row r="521" spans="1:8">
       <c r="A521" s="5" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="B521" t="s">
         <v>209</v>
@@ -31099,7 +31226,7 @@
     </row>
     <row r="522" spans="1:8">
       <c r="A522" s="5" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="B522" t="s">
         <v>209</v>
@@ -31125,7 +31252,7 @@
     </row>
     <row r="523" spans="1:8">
       <c r="A523" s="5" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="B523" t="s">
         <v>209</v>
@@ -31151,7 +31278,7 @@
     </row>
     <row r="524" spans="1:8">
       <c r="A524" s="5" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="B524" s="5" t="s">
         <v>209</v>
@@ -31177,7 +31304,7 @@
     </row>
     <row r="525" spans="1:8">
       <c r="A525" s="5" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="B525" s="5" t="s">
         <v>209</v>
@@ -31200,13 +31327,13 @@
     </row>
     <row r="526" spans="1:8">
       <c r="A526" s="5" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B526" t="s">
         <v>965</v>
       </c>
       <c r="C526" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D526" t="s">
         <v>320</v>
@@ -31223,13 +31350,13 @@
     </row>
     <row r="527" spans="1:8">
       <c r="A527" s="5" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="B527" t="s">
         <v>965</v>
       </c>
       <c r="C527" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D527" t="s">
         <v>310</v>
@@ -31246,13 +31373,13 @@
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="5" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B528" t="s">
         <v>965</v>
       </c>
       <c r="C528" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D528" t="s">
         <v>312</v>
@@ -31269,13 +31396,13 @@
     </row>
     <row r="529" spans="1:8">
       <c r="A529" s="5" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="B529" t="s">
         <v>965</v>
       </c>
       <c r="C529" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D529" t="s">
         <v>310</v>
@@ -31295,13 +31422,13 @@
     </row>
     <row r="530" spans="1:8">
       <c r="A530" s="5" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="B530" t="s">
         <v>965</v>
       </c>
       <c r="C530" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D530" t="s">
         <v>312</v>
@@ -31318,13 +31445,13 @@
     </row>
     <row r="531" spans="1:8">
       <c r="A531" s="5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="B531" t="s">
         <v>965</v>
       </c>
       <c r="C531" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D531" t="s">
         <v>320</v>
@@ -31341,7 +31468,7 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" s="5" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B532" t="s">
         <v>1016</v>
@@ -31364,7 +31491,7 @@
     </row>
     <row r="533" spans="1:8">
       <c r="A533" s="5" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B533" t="s">
         <v>1016</v>
@@ -31390,13 +31517,13 @@
     </row>
     <row r="534" spans="1:8">
       <c r="A534" s="5" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B534" t="s">
         <v>1016</v>
       </c>
       <c r="C534" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D534" t="s">
         <v>284</v>
@@ -31413,16 +31540,16 @@
     </row>
     <row r="535" spans="1:8">
       <c r="A535" s="5" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B535" t="s">
         <v>1016</v>
       </c>
       <c r="C535" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D535" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E535">
         <v>1</v>
@@ -31439,16 +31566,16 @@
     </row>
     <row r="536" spans="1:8">
       <c r="A536" s="5" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B536" t="s">
         <v>1016</v>
       </c>
       <c r="C536" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D536" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E536">
         <v>1</v>
@@ -31465,13 +31592,13 @@
     </row>
     <row r="537" spans="1:8">
       <c r="A537" s="5" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B537" t="s">
         <v>1016</v>
       </c>
       <c r="C537" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="D537" t="s">
         <v>440</v>
@@ -31488,13 +31615,13 @@
     </row>
     <row r="538" spans="1:8">
       <c r="A538" s="5" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B538" t="s">
         <v>1016</v>
       </c>
       <c r="C538" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="D538" t="s">
         <v>660</v>
@@ -31514,13 +31641,13 @@
     </row>
     <row r="539" spans="1:8">
       <c r="A539" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B539" t="s">
         <v>1016</v>
       </c>
       <c r="C539" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="D539" t="s">
         <v>312</v>
@@ -31537,13 +31664,13 @@
     </row>
     <row r="540" spans="1:8">
       <c r="A540" s="5" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B540" t="s">
         <v>1016</v>
       </c>
       <c r="C540" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D540" t="s">
         <v>440</v>
@@ -31560,13 +31687,13 @@
     </row>
     <row r="541" spans="1:8">
       <c r="A541" s="5" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B541" t="s">
         <v>1016</v>
       </c>
       <c r="C541" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D541" t="s">
         <v>660</v>
@@ -31586,13 +31713,13 @@
     </row>
     <row r="542" spans="1:8">
       <c r="A542" s="5" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B542" t="s">
         <v>1016</v>
       </c>
       <c r="C542" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D542" t="s">
         <v>312</v>
@@ -31609,13 +31736,13 @@
     </row>
     <row r="543" spans="1:8">
       <c r="A543" s="5" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B543" t="s">
         <v>1016</v>
       </c>
       <c r="C543" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D543" t="s">
         <v>440</v>
@@ -31632,13 +31759,13 @@
     </row>
     <row r="544" spans="1:8">
       <c r="A544" s="5" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B544" t="s">
         <v>1016</v>
       </c>
       <c r="C544" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D544" t="s">
         <v>660</v>
@@ -31658,13 +31785,13 @@
     </row>
     <row r="545" spans="1:8">
       <c r="A545" s="5" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B545" t="s">
         <v>1016</v>
       </c>
       <c r="C545" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D545" t="s">
         <v>312</v>
@@ -31681,13 +31808,13 @@
     </row>
     <row r="546" spans="1:8">
       <c r="A546" s="5" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="B546" t="s">
         <v>1016</v>
       </c>
       <c r="C546" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D546" t="s">
         <v>440</v>
@@ -31704,13 +31831,13 @@
     </row>
     <row r="547" spans="1:8">
       <c r="A547" s="5" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B547" t="s">
         <v>1016</v>
       </c>
       <c r="C547" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D547" t="s">
         <v>660</v>
@@ -31730,13 +31857,13 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" s="5" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B548" t="s">
         <v>994</v>
       </c>
       <c r="C548" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="D548" t="s">
         <v>356</v>
@@ -31756,13 +31883,13 @@
     </row>
     <row r="549" spans="1:8">
       <c r="A549" s="5" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="B549" t="s">
         <v>994</v>
       </c>
       <c r="C549" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="D549" t="s">
         <v>391</v>
@@ -31782,13 +31909,13 @@
     </row>
     <row r="550" spans="1:8">
       <c r="A550" s="5" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B550" t="s">
         <v>994</v>
       </c>
       <c r="C550" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="D550" t="s">
         <v>312</v>
@@ -31805,13 +31932,13 @@
     </row>
     <row r="551" spans="1:8">
       <c r="A551" s="5" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B551" t="s">
         <v>994</v>
       </c>
       <c r="C551" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="D551" t="s">
         <v>362</v>
@@ -31828,13 +31955,13 @@
     </row>
     <row r="552" spans="1:8">
       <c r="A552" s="5" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B552" t="s">
         <v>994</v>
       </c>
       <c r="C552" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="D552" t="s">
         <v>320</v>
@@ -31851,13 +31978,13 @@
     </row>
     <row r="553" spans="1:8">
       <c r="A553" s="5" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B553" t="s">
         <v>994</v>
       </c>
       <c r="C553" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="D553" t="s">
         <v>356</v>
@@ -31877,13 +32004,13 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="5" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B554" t="s">
         <v>994</v>
       </c>
       <c r="C554" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="D554" t="s">
         <v>391</v>
@@ -31903,13 +32030,13 @@
     </row>
     <row r="555" spans="1:8">
       <c r="A555" s="5" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="B555" t="s">
         <v>994</v>
       </c>
       <c r="C555" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="D555" t="s">
         <v>312</v>
@@ -31926,13 +32053,13 @@
     </row>
     <row r="556" spans="1:8">
       <c r="A556" s="5" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B556" t="s">
         <v>994</v>
       </c>
       <c r="C556" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="D556" t="s">
         <v>362</v>
@@ -31949,13 +32076,13 @@
     </row>
     <row r="557" spans="1:8">
       <c r="A557" s="5" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B557" t="s">
         <v>994</v>
       </c>
       <c r="C557" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D557" t="s">
         <v>356</v>
@@ -31975,13 +32102,13 @@
     </row>
     <row r="558" spans="1:8">
       <c r="A558" s="5" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="B558" t="s">
         <v>994</v>
       </c>
       <c r="C558" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D558" t="s">
         <v>312</v>
@@ -31998,13 +32125,13 @@
     </row>
     <row r="559" spans="1:8">
       <c r="A559" s="5" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B559" t="s">
         <v>994</v>
       </c>
       <c r="C559" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D559" t="s">
         <v>320</v>
@@ -32021,16 +32148,16 @@
     </row>
     <row r="560" spans="1:8">
       <c r="A560" s="5" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B560" t="s">
         <v>917</v>
       </c>
       <c r="C560" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D560" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E560">
         <v>0</v>
@@ -32044,16 +32171,16 @@
     </row>
     <row r="561" spans="1:8">
       <c r="A561" s="5" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="B561" t="s">
         <v>917</v>
       </c>
       <c r="C561" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D561" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="E561">
         <v>30</v>
@@ -32070,13 +32197,13 @@
     </row>
     <row r="562" spans="1:8">
       <c r="A562" s="5" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B562" t="s">
         <v>917</v>
       </c>
       <c r="C562" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D562" t="s">
         <v>262</v>
@@ -32096,16 +32223,16 @@
     </row>
     <row r="563" spans="1:8">
       <c r="A563" s="5" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B563" t="s">
         <v>917</v>
       </c>
       <c r="C563" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D563" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="E563">
         <v>30</v>
@@ -32122,13 +32249,13 @@
     </row>
     <row r="564" spans="1:8">
       <c r="A564" s="5" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="B564" t="s">
         <v>917</v>
       </c>
       <c r="C564" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D564" t="s">
         <v>262</v>
@@ -32148,16 +32275,16 @@
     </row>
     <row r="565" spans="1:8">
       <c r="A565" s="5" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B565" t="s">
         <v>917</v>
       </c>
       <c r="C565" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D565" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E565">
         <v>0</v>
@@ -32171,16 +32298,16 @@
     </row>
     <row r="566" spans="1:8">
       <c r="A566" s="5" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B566" t="s">
         <v>1011</v>
       </c>
       <c r="C566" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D566" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E566">
         <v>10</v>
@@ -32197,16 +32324,16 @@
     </row>
     <row r="567" spans="1:8">
       <c r="A567" s="5" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="B567" t="s">
         <v>1011</v>
       </c>
       <c r="C567" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D567" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="E567">
         <v>5</v>
@@ -32220,13 +32347,13 @@
     </row>
     <row r="568" spans="1:8">
       <c r="A568" s="5" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B568" t="s">
         <v>1011</v>
       </c>
       <c r="C568" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D568" t="s">
         <v>312</v>
@@ -32243,13 +32370,13 @@
     </row>
     <row r="569" spans="1:8">
       <c r="A569" s="5" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="B569" t="s">
         <v>1011</v>
       </c>
       <c r="C569" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D569" t="s">
         <v>816</v>
@@ -32266,13 +32393,13 @@
     </row>
     <row r="570" spans="1:8">
       <c r="A570" s="5" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B570" t="s">
         <v>1011</v>
       </c>
       <c r="C570" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D570" t="s">
         <v>286</v>
@@ -32289,16 +32416,16 @@
     </row>
     <row r="571" spans="1:8">
       <c r="A571" s="5" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B571" t="s">
         <v>1011</v>
       </c>
       <c r="C571" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D571" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="E571">
         <v>1</v>
@@ -32312,13 +32439,13 @@
     </row>
     <row r="572" spans="1:8">
       <c r="A572" s="5" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="B572" t="s">
         <v>1011</v>
       </c>
       <c r="C572" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D572" t="s">
         <v>320</v>
@@ -32335,16 +32462,16 @@
     </row>
     <row r="573" spans="1:8">
       <c r="A573" s="5" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="B573" t="s">
         <v>1011</v>
       </c>
       <c r="C573" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D573" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E573">
         <v>10</v>
@@ -32361,16 +32488,16 @@
     </row>
     <row r="574" spans="1:8">
       <c r="A574" s="5" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="B574" t="s">
         <v>1011</v>
       </c>
       <c r="C574" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D574" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="E574">
         <v>5</v>
@@ -32384,13 +32511,13 @@
     </row>
     <row r="575" spans="1:8">
       <c r="A575" s="5" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="B575" t="s">
         <v>1011</v>
       </c>
       <c r="C575" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D575" t="s">
         <v>312</v>
@@ -32407,13 +32534,13 @@
     </row>
     <row r="576" spans="1:8">
       <c r="A576" s="5" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B576" t="s">
         <v>1011</v>
       </c>
       <c r="C576" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D576" t="s">
         <v>816</v>
@@ -32430,13 +32557,13 @@
     </row>
     <row r="577" spans="1:8">
       <c r="A577" s="5" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B577" t="s">
         <v>1011</v>
       </c>
       <c r="C577" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D577" t="s">
         <v>286</v>
@@ -32453,16 +32580,16 @@
     </row>
     <row r="578" spans="1:8">
       <c r="A578" s="5" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="B578" t="s">
         <v>1011</v>
       </c>
       <c r="C578" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D578" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="E578">
         <v>1</v>
@@ -32476,13 +32603,13 @@
     </row>
     <row r="579" spans="1:8">
       <c r="A579" s="5" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="B579" t="s">
         <v>1011</v>
       </c>
       <c r="C579" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D579" t="s">
         <v>320</v>
@@ -32499,16 +32626,16 @@
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="5" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B580" t="s">
         <v>1011</v>
       </c>
       <c r="C580" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D580" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E580">
         <v>30</v>
@@ -32522,16 +32649,16 @@
     </row>
     <row r="581" spans="1:8">
       <c r="A581" s="5" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="B581" t="s">
         <v>1011</v>
       </c>
       <c r="C581" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D581" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E581">
         <v>20</v>
@@ -32545,16 +32672,16 @@
     </row>
     <row r="582" spans="1:8">
       <c r="A582" s="5" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="B582" t="s">
         <v>1011</v>
       </c>
       <c r="C582" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D582" t="s">
         <v>1443</v>
-      </c>
-      <c r="D582" t="s">
-        <v>1446</v>
       </c>
       <c r="E582">
         <v>20</v>
@@ -32568,16 +32695,16 @@
     </row>
     <row r="583" spans="1:8">
       <c r="A583" s="5" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="B583" t="s">
         <v>1011</v>
       </c>
       <c r="C583" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D583" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E583">
         <v>20</v>
@@ -32591,16 +32718,16 @@
     </row>
     <row r="584" spans="1:8">
       <c r="A584" s="5" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="B584" t="s">
         <v>1011</v>
       </c>
       <c r="C584" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D584" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E584">
         <v>15</v>
@@ -32614,16 +32741,16 @@
     </row>
     <row r="585" spans="1:8">
       <c r="A585" s="5" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="B585" t="s">
         <v>1011</v>
       </c>
       <c r="C585" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D585" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="E585">
         <v>10</v>
@@ -32637,16 +32764,16 @@
     </row>
     <row r="586" spans="1:8">
       <c r="A586" s="5" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B586" t="s">
         <v>209</v>
       </c>
       <c r="C586" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D586" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E586">
         <v>30</v>
@@ -32660,16 +32787,16 @@
     </row>
     <row r="587" spans="1:8">
       <c r="A587" s="5" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="B587" t="s">
         <v>209</v>
       </c>
       <c r="C587" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D587" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="E587">
         <v>25</v>
@@ -32683,16 +32810,16 @@
     </row>
     <row r="588" spans="1:8">
       <c r="A588" s="5" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="B588" t="s">
         <v>209</v>
       </c>
       <c r="C588" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D588" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E588">
         <v>20</v>
@@ -32706,16 +32833,16 @@
     </row>
     <row r="589" spans="1:8">
       <c r="A589" s="5" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="B589" t="s">
         <v>209</v>
       </c>
       <c r="C589" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D589" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="E589">
         <v>20</v>
@@ -32729,16 +32856,16 @@
     </row>
     <row r="590" spans="1:8">
       <c r="A590" s="5" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B590" t="s">
         <v>209</v>
       </c>
       <c r="C590" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D590" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E590">
         <v>20</v>
@@ -32752,16 +32879,16 @@
     </row>
     <row r="591" spans="1:8">
       <c r="A591" s="5" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B591" t="s">
         <v>209</v>
       </c>
       <c r="C591" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D591" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E591">
         <v>15</v>
@@ -32775,16 +32902,16 @@
     </row>
     <row r="592" spans="1:8">
       <c r="A592" s="5" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="B592" t="s">
         <v>209</v>
       </c>
       <c r="C592" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D592" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="E592">
         <v>10</v>
@@ -32798,7 +32925,7 @@
     </row>
     <row r="593" spans="1:8">
       <c r="A593" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B593" t="s">
         <v>994</v>
@@ -32824,7 +32951,7 @@
     </row>
     <row r="594" spans="1:8">
       <c r="A594" s="5" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="B594" t="s">
         <v>994</v>
@@ -32850,7 +32977,7 @@
     </row>
     <row r="595" spans="1:8">
       <c r="A595" s="5" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B595" t="s">
         <v>994</v>
@@ -32876,7 +33003,7 @@
     </row>
     <row r="596" spans="1:8">
       <c r="A596" s="5" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="B596" t="s">
         <v>994</v>
@@ -32902,7 +33029,7 @@
     </row>
     <row r="597" spans="1:8">
       <c r="A597" s="5" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="B597" t="s">
         <v>994</v>
@@ -32925,7 +33052,7 @@
     </row>
     <row r="598" spans="1:8">
       <c r="A598" s="5" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B598" t="s">
         <v>994</v>
@@ -32951,7 +33078,7 @@
     </row>
     <row r="599" spans="1:8">
       <c r="A599" s="5" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="B599" t="s">
         <v>994</v>
@@ -32974,7 +33101,7 @@
     </row>
     <row r="600" spans="1:8">
       <c r="A600" s="5" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="B600" t="s">
         <v>994</v>
@@ -32997,7 +33124,7 @@
     </row>
     <row r="601" spans="1:8">
       <c r="A601" s="5" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="B601" t="s">
         <v>994</v>
@@ -33020,7 +33147,7 @@
     </row>
     <row r="602" spans="1:8">
       <c r="A602" s="5" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="B602" t="s">
         <v>994</v>
@@ -33043,16 +33170,16 @@
     </row>
     <row r="603" spans="1:8">
       <c r="A603" s="5" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="B603" t="s">
         <v>1002</v>
       </c>
       <c r="C603" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="D603" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="E603">
         <v>0</v>
@@ -33066,13 +33193,13 @@
     </row>
     <row r="604" spans="1:8">
       <c r="A604" s="5" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="B604" t="s">
         <v>939</v>
       </c>
       <c r="C604" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="D604" t="s">
         <v>262</v>
@@ -33092,13 +33219,13 @@
     </row>
     <row r="605" spans="1:8">
       <c r="A605" s="5" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B605" t="s">
         <v>939</v>
       </c>
       <c r="C605" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="D605" t="s">
         <v>356</v>
@@ -33115,13 +33242,13 @@
     </row>
     <row r="606" spans="1:8">
       <c r="A606" s="5" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="B606" t="s">
         <v>939</v>
       </c>
       <c r="C606" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="D606" t="s">
         <v>350</v>
@@ -33138,13 +33265,13 @@
     </row>
     <row r="607" spans="1:8">
       <c r="A607" s="5" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B607" t="s">
         <v>939</v>
       </c>
       <c r="C607" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="D607" t="s">
         <v>289</v>
@@ -33161,13 +33288,13 @@
     </row>
     <row r="608" spans="1:8">
       <c r="A608" s="5" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="B608" t="s">
         <v>939</v>
       </c>
       <c r="C608" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="D608" t="s">
         <v>312</v>
@@ -33184,13 +33311,13 @@
     </row>
     <row r="609" spans="1:8">
       <c r="A609" s="5" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B609" t="s">
         <v>851</v>
       </c>
       <c r="C609" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="D609" t="s">
         <v>320</v>
@@ -33207,13 +33334,13 @@
     </row>
     <row r="610" spans="1:8">
       <c r="A610" s="5" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="B610" t="s">
         <v>939</v>
       </c>
       <c r="C610" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="D610" t="s">
         <v>262</v>
@@ -33233,13 +33360,13 @@
     </row>
     <row r="611" spans="1:8">
       <c r="A611" s="5" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="B611" t="s">
         <v>939</v>
       </c>
       <c r="C611" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="D611" t="s">
         <v>312</v>
@@ -33256,16 +33383,16 @@
     </row>
     <row r="612" spans="1:8">
       <c r="A612" s="5" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B612" t="s">
         <v>851</v>
       </c>
       <c r="C612" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D612" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E612">
         <v>40</v>
@@ -33279,13 +33406,13 @@
     </row>
     <row r="613" spans="1:8">
       <c r="A613" s="5" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="B613" t="s">
         <v>851</v>
       </c>
       <c r="C613" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D613" t="s">
         <v>262</v>
@@ -33305,13 +33432,13 @@
     </row>
     <row r="614" spans="1:8">
       <c r="A614" s="5" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="B614" t="s">
         <v>939</v>
       </c>
       <c r="C614" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="D614" t="s">
         <v>262</v>
@@ -33331,13 +33458,13 @@
     </row>
     <row r="615" spans="1:8">
       <c r="A615" s="5" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="B615" t="s">
         <v>939</v>
       </c>
       <c r="C615" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="D615" t="s">
         <v>312</v>
@@ -33354,16 +33481,16 @@
     </row>
     <row r="616" spans="1:8">
       <c r="A616" s="5" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="B616" t="s">
         <v>939</v>
       </c>
       <c r="C616" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="D616" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="E616">
         <v>0</v>
@@ -33377,13 +33504,13 @@
     </row>
     <row r="617" spans="1:8">
       <c r="A617" s="5" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="B617" t="s">
         <v>851</v>
       </c>
       <c r="C617" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="D617" t="s">
         <v>262</v>
@@ -33403,13 +33530,13 @@
     </row>
     <row r="618" spans="1:8">
       <c r="A618" s="5" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B618" t="s">
         <v>851</v>
       </c>
       <c r="C618" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="D618" t="s">
         <v>320</v>
@@ -33426,13 +33553,13 @@
     </row>
     <row r="619" spans="1:8">
       <c r="A619" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B619" t="s">
         <v>1035</v>
       </c>
       <c r="C619" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="D619" t="s">
         <v>356</v>
@@ -33452,16 +33579,16 @@
     </row>
     <row r="620" spans="1:8">
       <c r="A620" s="5" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B620" t="s">
         <v>1035</v>
       </c>
       <c r="C620" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="D620" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E620">
         <v>1</v>
@@ -33475,22 +33602,22 @@
     </row>
     <row r="621" spans="1:8">
       <c r="A621" s="5" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B621" t="s">
         <v>948</v>
       </c>
       <c r="C621" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="D621" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="E621">
         <v>10</v>
       </c>
       <c r="F621" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="G621">
         <v>0</v>
@@ -33501,16 +33628,16 @@
     </row>
     <row r="622" spans="1:8">
       <c r="A622" s="5" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B622" t="s">
         <v>1002</v>
       </c>
       <c r="C622" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="D622" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="E622">
         <v>25</v>
@@ -33524,13 +33651,13 @@
     </row>
     <row r="623" spans="1:8">
       <c r="A623" s="5" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B623" t="s">
         <v>939</v>
       </c>
       <c r="C623" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D623" t="s">
         <v>286</v>
@@ -33547,13 +33674,13 @@
     </row>
     <row r="624" spans="1:8">
       <c r="A624" s="5" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B624" t="s">
         <v>939</v>
       </c>
       <c r="C624" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D624" t="s">
         <v>356</v>
@@ -33573,13 +33700,13 @@
     </row>
     <row r="625" spans="1:8">
       <c r="A625" s="5" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B625" t="s">
         <v>939</v>
       </c>
       <c r="C625" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D625" t="s">
         <v>312</v>
@@ -33596,13 +33723,13 @@
     </row>
     <row r="626" spans="1:8">
       <c r="A626" s="5" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B626" t="s">
         <v>939</v>
       </c>
       <c r="C626" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D626" t="s">
         <v>320</v>
@@ -33619,13 +33746,13 @@
     </row>
     <row r="627" spans="1:8">
       <c r="A627" s="5" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="B627" t="s">
         <v>1016</v>
       </c>
       <c r="C627" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="D627" t="s">
         <v>320</v>
@@ -33642,13 +33769,13 @@
     </row>
     <row r="628" spans="1:8">
       <c r="A628" s="5" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="B628" t="s">
         <v>1002</v>
       </c>
       <c r="C628" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D628" t="s">
         <v>284</v>
@@ -33665,7 +33792,7 @@
     </row>
     <row r="629" spans="1:8">
       <c r="A629" s="5" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B629" t="s">
         <v>851</v>
@@ -33688,7 +33815,7 @@
     </row>
     <row r="630" spans="1:8">
       <c r="A630" s="5" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="B630" t="s">
         <v>851</v>
@@ -33714,7 +33841,7 @@
     </row>
     <row r="631" spans="1:8">
       <c r="A631" s="5" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B631" t="s">
         <v>851</v>
@@ -33740,7 +33867,7 @@
     </row>
     <row r="632" spans="1:8">
       <c r="A632" s="5" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B632" t="s">
         <v>851</v>
@@ -33763,7 +33890,7 @@
     </row>
     <row r="633" spans="1:8">
       <c r="A633" s="5" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B633" t="s">
         <v>851</v>
@@ -33781,6 +33908,81 @@
         <v>0</v>
       </c>
       <c r="H633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8">
+      <c r="A634" s="5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B634" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C634" t="s">
+        <v>125</v>
+      </c>
+      <c r="D634" t="s">
+        <v>600</v>
+      </c>
+      <c r="E634">
+        <v>10</v>
+      </c>
+      <c r="F634" t="s">
+        <v>256</v>
+      </c>
+      <c r="G634">
+        <v>0</v>
+      </c>
+      <c r="H634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8">
+      <c r="A635" s="5" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B635" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C635" t="s">
+        <v>125</v>
+      </c>
+      <c r="D635" t="s">
+        <v>262</v>
+      </c>
+      <c r="E635">
+        <v>10</v>
+      </c>
+      <c r="F635" t="s">
+        <v>256</v>
+      </c>
+      <c r="G635">
+        <v>0</v>
+      </c>
+      <c r="H635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
+      <c r="A636" s="5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B636" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C636" t="s">
+        <v>125</v>
+      </c>
+      <c r="D636" t="s">
+        <v>440</v>
+      </c>
+      <c r="E636">
+        <v>5</v>
+      </c>
+      <c r="G636">
+        <v>0</v>
+      </c>
+      <c r="H636">
         <v>1</v>
       </c>
     </row>
@@ -33798,21 +34000,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="74.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -33825,8 +34028,11 @@
       <c r="D1" s="6" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="57.6">
+      <c r="E1" s="20" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60">
       <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
@@ -33839,8 +34045,11 @@
       <c r="D2" s="7" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2">
+      <c r="E2" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
@@ -33853,8 +34062,11 @@
       <c r="D3" s="7" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="115.2">
+      <c r="E3" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="135">
       <c r="A4" s="6" t="s">
         <v>124</v>
       </c>
@@ -33867,8 +34079,11 @@
       <c r="D4" s="7" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="100.8">
+      <c r="E4" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105">
       <c r="A5" s="6" t="s">
         <v>846</v>
       </c>
@@ -33877,8 +34092,11 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="72">
+      <c r="E5" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -33891,8 +34109,11 @@
       <c r="D6" s="7" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="72">
+      <c r="E6" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75">
       <c r="A7" s="6" t="s">
         <v>851</v>
       </c>
@@ -33905,8 +34126,11 @@
       <c r="D7" s="7" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="57.6">
+      <c r="E7" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60">
       <c r="A8" s="6" t="s">
         <v>71</v>
       </c>
@@ -33919,8 +34143,11 @@
       <c r="D8" s="7" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8">
+      <c r="E8" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="6" t="s">
         <v>858</v>
       </c>
@@ -33933,8 +34160,11 @@
       <c r="D9" s="7" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="144">
+      <c r="E9" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="180">
       <c r="A10" s="6" t="s">
         <v>862</v>
       </c>
@@ -33943,8 +34173,11 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="115.2">
+      <c r="E10" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="120">
       <c r="A11" s="6" t="s">
         <v>864</v>
       </c>
@@ -33953,8 +34186,11 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="43.2">
+      <c r="E11" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45">
       <c r="A12" s="6" t="s">
         <v>241</v>
       </c>
@@ -33967,8 +34203,11 @@
       <c r="D12" s="7" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="86.4">
+      <c r="E12" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="90">
       <c r="A13" s="6" t="s">
         <v>869</v>
       </c>
@@ -33981,8 +34220,11 @@
       <c r="D13" s="7" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="57.6">
+      <c r="E13" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -33995,8 +34237,11 @@
       <c r="D14" s="7" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="244.8">
+      <c r="E14" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="255">
       <c r="A15" s="6" t="s">
         <v>875</v>
       </c>
@@ -34005,8 +34250,11 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="273.60000000000002">
+      <c r="E15" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="285">
       <c r="A16" s="6" t="s">
         <v>877</v>
       </c>
@@ -34015,8 +34263,11 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="360">
+      <c r="E16" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="405">
       <c r="A17" s="6" t="s">
         <v>879</v>
       </c>
@@ -34025,8 +34276,11 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="43.2">
+      <c r="E17" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45">
       <c r="A18" s="6" t="s">
         <v>881</v>
       </c>
@@ -34039,8 +34293,11 @@
       <c r="D18" s="7" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="100.8">
+      <c r="E18" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="105">
       <c r="A19" s="6" t="s">
         <v>885</v>
       </c>
@@ -34049,8 +34306,11 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="100.8">
+      <c r="E19" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="105">
       <c r="A20" s="6" t="s">
         <v>887</v>
       </c>
@@ -34059,8 +34319,11 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="72">
+      <c r="E20" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="75">
       <c r="A21" s="6" t="s">
         <v>242</v>
       </c>
@@ -34073,8 +34336,11 @@
       <c r="D21" s="7" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="129.6">
+      <c r="E21" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="135">
       <c r="A22" s="6" t="s">
         <v>245</v>
       </c>
@@ -34083,8 +34349,11 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="72">
+      <c r="E22" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="90">
       <c r="A23" s="6" t="s">
         <v>239</v>
       </c>
@@ -34097,8 +34366,11 @@
       <c r="D23" s="7" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.8">
+      <c r="E23" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="6" t="s">
         <v>895</v>
       </c>
@@ -34111,8 +34383,11 @@
       <c r="D24" s="7" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="43.2">
+      <c r="E24" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45">
       <c r="A25" s="6" t="s">
         <v>899</v>
       </c>
@@ -34125,8 +34400,11 @@
       <c r="D25" s="7" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="409.6">
+      <c r="E25" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="409.5">
       <c r="A26" s="6" t="s">
         <v>903</v>
       </c>
@@ -34135,8 +34413,11 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="158.4">
+      <c r="E26" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="165">
       <c r="A27" s="6" t="s">
         <v>905</v>
       </c>
@@ -34145,8 +34426,11 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" ht="230.4">
+      <c r="E27" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="255">
       <c r="A28" s="6" t="s">
         <v>907</v>
       </c>
@@ -34155,8 +34439,11 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" ht="43.2">
+      <c r="E28" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60">
       <c r="A29" s="6" t="s">
         <v>909</v>
       </c>
@@ -34169,8 +34456,11 @@
       <c r="D29" s="7" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="43.2">
+      <c r="E29" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45">
       <c r="A30" s="6" t="s">
         <v>243</v>
       </c>
@@ -34179,21 +34469,28 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="43.2">
+        <v>1347</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45">
       <c r="A31" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="9" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="100.8">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="120">
       <c r="A32" s="6" t="s">
         <v>206</v>
       </c>
@@ -34206,8 +34503,11 @@
       <c r="D32" s="7" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="172.8">
+      <c r="E32" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="180">
       <c r="A33" s="6" t="s">
         <v>244</v>
       </c>
@@ -34216,8 +34516,11 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" ht="28.8">
+      <c r="E33" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="6" t="s">
         <v>917</v>
       </c>
@@ -34230,8 +34533,11 @@
       <c r="D34" s="7" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="100.8">
+      <c r="E34" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="120">
       <c r="A35" s="6" t="s">
         <v>921</v>
       </c>
@@ -34239,13 +34545,16 @@
         <v>922</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="331.2">
+        <v>1629</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="375">
       <c r="A36" s="6" t="s">
         <v>923</v>
       </c>
@@ -34254,8 +34563,11 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="72">
+      <c r="E36" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="75">
       <c r="A37" s="6" t="s">
         <v>925</v>
       </c>
@@ -34268,8 +34580,11 @@
       <c r="D37" s="7" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="43.2">
+      <c r="E37" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45">
       <c r="A38" s="6" t="s">
         <v>929</v>
       </c>
@@ -34282,8 +34597,11 @@
       <c r="D38" s="7" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="72">
+      <c r="E38" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="75">
       <c r="A39" s="6" t="s">
         <v>933</v>
       </c>
@@ -34292,8 +34610,11 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" ht="244.8">
+      <c r="E39" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="300">
       <c r="A40" s="6" t="s">
         <v>935</v>
       </c>
@@ -34302,8 +34623,11 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" ht="115.2">
+      <c r="E40" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="135">
       <c r="A41" s="6" t="s">
         <v>937</v>
       </c>
@@ -34312,8 +34636,11 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" ht="43.2">
+      <c r="E41" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45">
       <c r="A42" s="6" t="s">
         <v>939</v>
       </c>
@@ -34326,8 +34653,11 @@
       <c r="D42" s="7" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="115.2">
+      <c r="E42" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="120">
       <c r="A43" s="6" t="s">
         <v>943</v>
       </c>
@@ -34336,8 +34666,11 @@
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" ht="129.6">
+      <c r="E43" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="135">
       <c r="A44" s="6" t="s">
         <v>58</v>
       </c>
@@ -34350,8 +34683,11 @@
       <c r="D44" s="7" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="129.6">
+      <c r="E44" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="150">
       <c r="A45" s="6" t="s">
         <v>948</v>
       </c>
@@ -34364,8 +34700,11 @@
       <c r="D45" s="7" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="43.2">
+      <c r="E45" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60">
       <c r="A46" s="6" t="s">
         <v>951</v>
       </c>
@@ -34378,8 +34717,11 @@
       <c r="D46" s="7" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="57.6">
+      <c r="E46" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="60">
       <c r="A47" s="6" t="s">
         <v>955</v>
       </c>
@@ -34392,8 +34734,11 @@
       <c r="D47" s="7" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="115.2">
+      <c r="E47" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="135">
       <c r="A48" s="6" t="s">
         <v>208</v>
       </c>
@@ -34406,8 +34751,11 @@
       <c r="D48" s="7" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="43.2">
+      <c r="E48" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45">
       <c r="A49" s="6" t="s">
         <v>962</v>
       </c>
@@ -34420,8 +34768,11 @@
       <c r="D49" s="7" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="86.4">
+      <c r="E49" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="90">
       <c r="A50" s="6" t="s">
         <v>965</v>
       </c>
@@ -34434,8 +34785,11 @@
       <c r="D50" s="7" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="57.6">
+      <c r="E50" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="75">
       <c r="A51" s="6" t="s">
         <v>207</v>
       </c>
@@ -34448,8 +34802,11 @@
       <c r="D51" s="7" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="201.6">
+      <c r="E51" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="210">
       <c r="A52" s="6" t="s">
         <v>971</v>
       </c>
@@ -34458,8 +34815,11 @@
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" ht="360">
+      <c r="E52" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="405">
       <c r="A53" s="6" t="s">
         <v>973</v>
       </c>
@@ -34468,8 +34828,11 @@
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" ht="72">
+      <c r="E53" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="75">
       <c r="A54" s="6" t="s">
         <v>975</v>
       </c>
@@ -34482,8 +34845,11 @@
       <c r="D54" s="7" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="115.2">
+      <c r="E54" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="135">
       <c r="A55" s="6" t="s">
         <v>979</v>
       </c>
@@ -34496,8 +34862,11 @@
       <c r="D55" s="7" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="259.2">
+      <c r="E55" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="300">
       <c r="A56" s="6" t="s">
         <v>982</v>
       </c>
@@ -34506,8 +34875,11 @@
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" ht="115.2">
+      <c r="E56" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="135">
       <c r="A57" s="6" t="s">
         <v>984</v>
       </c>
@@ -34520,8 +34892,11 @@
       <c r="D57" s="7" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="288">
+      <c r="E57" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="315">
       <c r="A58" s="6" t="s">
         <v>987</v>
       </c>
@@ -34530,8 +34905,11 @@
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" ht="216">
+      <c r="E58" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="255">
       <c r="A59" s="6" t="s">
         <v>989</v>
       </c>
@@ -34540,8 +34918,11 @@
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" ht="43.2">
+      <c r="E59" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45">
       <c r="A60" s="6" t="s">
         <v>209</v>
       </c>
@@ -34554,8 +34935,11 @@
       <c r="D60" s="7" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="28.8">
+      <c r="E60" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30">
       <c r="A61" s="6" t="s">
         <v>994</v>
       </c>
@@ -34568,8 +34952,11 @@
       <c r="D61" s="7" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="409.6">
+      <c r="E61" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="409.5">
       <c r="A62" s="6" t="s">
         <v>998</v>
       </c>
@@ -34578,8 +34965,11 @@
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" ht="409.6">
+      <c r="E62" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="409.5">
       <c r="A63" s="6" t="s">
         <v>1000</v>
       </c>
@@ -34588,8 +34978,11 @@
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" ht="43.2">
+      <c r="E63" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45">
       <c r="A64" s="6" t="s">
         <v>1002</v>
       </c>
@@ -34602,8 +34995,11 @@
       <c r="D64" s="7" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="43.2">
+      <c r="E64" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="45">
       <c r="A65" s="6" t="s">
         <v>1005</v>
       </c>
@@ -34616,8 +35012,11 @@
       <c r="D65" s="7" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="158.4">
+      <c r="E65" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="165">
       <c r="A66" s="6" t="s">
         <v>1009</v>
       </c>
@@ -34626,8 +35025,11 @@
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" ht="43.2">
+      <c r="E66" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="45">
       <c r="A67" s="6" t="s">
         <v>1011</v>
       </c>
@@ -34640,8 +35042,11 @@
       <c r="D67" s="7" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="403.2">
+      <c r="E67" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="409.5">
       <c r="A68" s="6" t="s">
         <v>1014</v>
       </c>
@@ -34650,8 +35055,11 @@
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" ht="72">
+      <c r="E68" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="75">
       <c r="A69" s="6" t="s">
         <v>1016</v>
       </c>
@@ -34664,8 +35072,11 @@
       <c r="D69" s="7" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="187.2">
+      <c r="E69" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="210">
       <c r="A70" s="6" t="s">
         <v>1019</v>
       </c>
@@ -34674,8 +35085,11 @@
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" ht="244.8">
+      <c r="E70" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="270">
       <c r="A71" s="6" t="s">
         <v>1021</v>
       </c>
@@ -34684,8 +35098,11 @@
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" ht="374.4">
+      <c r="E71" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="390">
       <c r="A72" s="6" t="s">
         <v>1023</v>
       </c>
@@ -34694,8 +35111,11 @@
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" ht="100.8">
+      <c r="E72" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="105">
       <c r="A73" s="6" t="s">
         <v>1025</v>
       </c>
@@ -34708,8 +35128,11 @@
       <c r="D73" s="7" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="100.8">
+      <c r="E73" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="105">
       <c r="A74" s="6" t="s">
         <v>1028</v>
       </c>
@@ -34718,8 +35141,11 @@
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" ht="43.2">
+      <c r="E74" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="60">
       <c r="A75" s="6" t="s">
         <v>1030</v>
       </c>
@@ -34732,8 +35158,11 @@
       <c r="D75" s="7" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="144">
+      <c r="E75" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="150">
       <c r="A76" s="6" t="s">
         <v>1033</v>
       </c>
@@ -34742,8 +35171,11 @@
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" ht="72">
+      <c r="E76" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="90">
       <c r="A77" s="6" t="s">
         <v>1035</v>
       </c>
@@ -34756,8 +35188,11 @@
       <c r="D77" s="7" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="158.4">
+      <c r="E77" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="165">
       <c r="A78" s="6" t="s">
         <v>1037</v>
       </c>
@@ -34766,8 +35201,11 @@
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
-    </row>
-    <row r="79" spans="1:4" ht="360">
+      <c r="E78" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="390">
       <c r="A79" s="6" t="s">
         <v>1039</v>
       </c>
@@ -34776,8 +35214,11 @@
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" ht="28.8">
+      <c r="E79" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30">
       <c r="A80" s="6" t="s">
         <v>1041</v>
       </c>
@@ -34786,6 +35227,9 @@
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
+      <c r="E80" s="9">
+        <v>0.33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34796,16 +35240,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
-    <col min="2" max="2" width="111.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="111.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -34816,213 +35260,213 @@
         <v>1044</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" s="9" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="9" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="9" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>1290</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>1293</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="9" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="9" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8">
+    <row r="12" spans="1:3" ht="30">
       <c r="A12" s="14" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="14" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8">
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8">
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8">
+    <row r="20" spans="1:3" ht="30">
       <c r="A20" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>867</v>
@@ -35030,7 +35474,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>867</v>
@@ -35041,7 +35485,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>867</v>
@@ -35050,12 +35494,12 @@
         <v>867</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8">
+    <row r="23" spans="1:3" ht="30">
       <c r="A23" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>867</v>
@@ -35063,7 +35507,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>867</v>
@@ -35072,166 +35516,166 @@
         <v>867</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="57.6">
+    <row r="25" spans="1:3" ht="60">
       <c r="A25" s="12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="57.6">
+    <row r="26" spans="1:3" ht="60">
       <c r="A26" s="12" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="57.6">
+    <row r="27" spans="1:3" ht="60">
       <c r="A27" s="12" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="57.6">
+    <row r="28" spans="1:3" ht="60">
       <c r="A28" s="12" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="57.6">
+    <row r="29" spans="1:3" ht="60">
       <c r="A29" s="12" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="57.6">
+    <row r="30" spans="1:3" ht="60">
       <c r="A30" s="12" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="60">
+      <c r="A31" s="12" t="s">
         <v>1070</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="57.6">
-      <c r="A31" s="12" t="s">
-        <v>1071</v>
-      </c>
       <c r="B31" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="57.6">
+    <row r="32" spans="1:3" ht="60">
       <c r="A32" s="12" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="57.6">
+    <row r="33" spans="1:3" ht="60">
       <c r="A33" s="12" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="57.6">
+    <row r="34" spans="1:3" ht="60">
       <c r="A34" s="12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="57.6">
+    <row r="35" spans="1:3" ht="60">
       <c r="A35" s="12" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="57.6">
+    <row r="36" spans="1:3" ht="60">
       <c r="A36" s="12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="57.6">
+    <row r="37" spans="1:3" ht="60">
       <c r="A37" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="57.6">
+    <row r="38" spans="1:3" ht="60">
       <c r="A38" s="12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="57.6">
+    <row r="39" spans="1:3" ht="60">
       <c r="A39" s="12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>867</v>
@@ -35239,7 +35683,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>867</v>
@@ -35250,7 +35694,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>867</v>
@@ -35259,243 +35703,243 @@
         <v>867</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="57.6">
+    <row r="42" spans="1:3" ht="60">
       <c r="A42" s="12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8">
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8">
+    <row r="44" spans="1:3" ht="30">
       <c r="A44" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.8">
+    <row r="45" spans="1:3" ht="30">
       <c r="A45" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8">
+    <row r="46" spans="1:3" ht="30">
       <c r="A46" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.8">
+    <row r="47" spans="1:3" ht="30">
       <c r="A47" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8">
+    <row r="48" spans="1:3" ht="30">
       <c r="A48" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" s="9" t="s">
         <v>1089</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="28.8">
-      <c r="A49" s="9" t="s">
+      <c r="B49" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30">
+      <c r="A50" s="9" t="s">
         <v>1090</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="28.8">
-      <c r="A50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>1091</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>1092</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="28.8">
+    <row r="51" spans="1:3" ht="45">
       <c r="A51" s="12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.8">
+    <row r="52" spans="1:3" ht="45">
       <c r="A52" s="12" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.8">
+    <row r="53" spans="1:3" ht="45">
       <c r="A53" s="12" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.8">
+    <row r="54" spans="1:3" ht="45">
       <c r="A54" s="12" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28.8">
+    <row r="55" spans="1:3" ht="45">
       <c r="A55" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28.8">
+    <row r="56" spans="1:3" ht="45">
       <c r="A56" s="12" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28.8">
+    <row r="57" spans="1:3" ht="45">
       <c r="A57" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28.8">
+    <row r="58" spans="1:3" ht="45">
       <c r="A58" s="12" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="28.8">
+    <row r="59" spans="1:3" ht="45">
       <c r="A59" s="12" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="28.8">
+    <row r="60" spans="1:3" ht="45">
       <c r="A60" s="12" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.8">
+    <row r="61" spans="1:3" ht="45">
       <c r="A61" s="12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.8">
+    <row r="62" spans="1:3" ht="45">
       <c r="A62" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.8">
+    <row r="63" spans="1:3" ht="45">
       <c r="A63" s="12" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>867</v>
@@ -35503,7 +35947,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="12" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>867</v>
@@ -35512,45 +35956,45 @@
         <v>867</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="28.8">
+    <row r="65" spans="1:3" ht="45">
       <c r="A65" s="12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8">
+    <row r="66" spans="1:3" ht="45">
       <c r="A66" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28.8">
+    <row r="67" spans="1:3" ht="45">
       <c r="A67" s="12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.8">
+    <row r="68" spans="1:3" ht="45">
       <c r="A68" s="12" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>867</v>
@@ -35558,7 +36002,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>867</v>
@@ -35567,320 +36011,320 @@
         <v>867</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="43.2">
+    <row r="70" spans="1:3" ht="45">
       <c r="A70" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="43.2">
+    <row r="71" spans="1:3" ht="45">
       <c r="A71" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="43.2">
+    <row r="72" spans="1:3" ht="45">
       <c r="A72" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="43.2">
+    <row r="73" spans="1:3" ht="45">
       <c r="A73" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="43.2">
+    <row r="74" spans="1:3" ht="45">
       <c r="A74" s="9" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.2">
+    <row r="75" spans="1:3" ht="45">
       <c r="A75" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="43.2">
+    <row r="76" spans="1:3" ht="45">
       <c r="A76" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="43.2">
+    <row r="77" spans="1:3" ht="45">
       <c r="A77" s="9" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="43.2">
+    <row r="78" spans="1:3" ht="45">
       <c r="A78" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="43.2">
+    <row r="79" spans="1:3" ht="45">
       <c r="A79" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="43.2">
+    <row r="80" spans="1:3" ht="45">
       <c r="A80" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="43.2">
+    <row r="81" spans="1:3" ht="45">
       <c r="A81" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="43.2">
+    <row r="82" spans="1:3" ht="45">
       <c r="A82" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="43.2">
+    <row r="83" spans="1:3" ht="45">
       <c r="A83" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="43.2">
+    <row r="84" spans="1:3" ht="45">
       <c r="A84" s="9" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="43.2">
+    <row r="85" spans="1:3" ht="45">
       <c r="A85" s="9" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="43.2">
+    <row r="86" spans="1:3" ht="45">
       <c r="A86" s="9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="43.2">
+    <row r="87" spans="1:3" ht="45">
       <c r="A87" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="43.2">
+    <row r="88" spans="1:3" ht="45">
       <c r="A88" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="43.2">
+    <row r="89" spans="1:3" ht="45">
       <c r="A89" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="43.2">
+    <row r="90" spans="1:3" ht="45">
       <c r="A90" s="9" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="43.2">
+    <row r="91" spans="1:3" ht="45">
       <c r="A91" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="43.2">
+    <row r="92" spans="1:3" ht="45">
       <c r="A92" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="43.2">
+    <row r="93" spans="1:3" ht="45">
       <c r="A93" s="9" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="43.2">
+    <row r="94" spans="1:3" ht="45">
       <c r="A94" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="43.2">
+    <row r="95" spans="1:3" ht="45">
       <c r="A95" s="9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="43.2">
+    <row r="96" spans="1:3" ht="45">
       <c r="A96" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="43.2">
+    <row r="97" spans="1:3" ht="45">
       <c r="A97" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="43.2">
+    <row r="98" spans="1:3" ht="45">
       <c r="A98" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>867</v>
@@ -35888,7 +36332,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>867</v>
@@ -35899,7 +36343,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>867</v>
@@ -35910,7 +36354,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>867</v>
@@ -35919,12 +36363,12 @@
         <v>867</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="43.2">
+    <row r="102" spans="1:3" ht="45">
       <c r="A102" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>1143</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>1144</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>867</v>
@@ -35932,10 +36376,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="12" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>867</v>
@@ -35943,10 +36387,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>867</v>
@@ -35954,10 +36398,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="12" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>867</v>
@@ -35965,10 +36409,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>867</v>
@@ -35976,21 +36420,21 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="12" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>867</v>
@@ -35998,10 +36442,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="12" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>867</v>
@@ -36009,10 +36453,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>867</v>
@@ -36020,21 +36464,21 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="12" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>867</v>
@@ -36042,142 +36486,142 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="12" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>1155</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>1156</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="28.8">
+    <row r="114" spans="1:3" ht="30">
       <c r="A114" s="12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="28.8">
+    <row r="115" spans="1:3" ht="30">
       <c r="A115" s="12" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30">
+      <c r="A116" s="12" t="s">
         <v>1158</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="28.8">
-      <c r="A116" s="12" t="s">
-        <v>1159</v>
-      </c>
       <c r="B116" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="28.8">
+    <row r="117" spans="1:3" ht="30">
       <c r="A117" s="12" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="28.8">
+    <row r="118" spans="1:3" ht="30">
       <c r="A118" s="12" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="28.8">
+    <row r="119" spans="1:3" ht="30">
       <c r="A119" s="12" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="28.8">
+    <row r="120" spans="1:3" ht="30">
       <c r="A120" s="12" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="28.8">
+    <row r="121" spans="1:3" ht="30">
       <c r="A121" s="12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="28.8">
+    <row r="122" spans="1:3" ht="30">
       <c r="A122" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="28.8">
+    <row r="123" spans="1:3" ht="30">
       <c r="A123" s="12" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28.8">
+    <row r="124" spans="1:3" ht="30">
       <c r="A124" s="12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="28.8">
+    <row r="125" spans="1:3" ht="30">
       <c r="A125" s="12" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>867</v>
@@ -36185,7 +36629,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="12" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>867</v>
@@ -36196,7 +36640,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>867</v>
@@ -36207,7 +36651,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="12" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>867</v>
@@ -36216,34 +36660,34 @@
         <v>867</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="28.8">
+    <row r="129" spans="1:3" ht="30">
       <c r="A129" s="12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="28.8">
+    <row r="130" spans="1:3" ht="30">
       <c r="A130" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="28.8">
+    <row r="131" spans="1:3" ht="30">
       <c r="A131" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>867</v>
@@ -36254,7 +36698,7 @@
         <v>1045</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>867</v>
@@ -36262,10 +36706,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="9" t="s">
-        <v>1046</v>
+        <v>1632</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>867</v>
@@ -36273,186 +36717,186 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="9" t="s">
-        <v>1046</v>
+    <row r="135" spans="1:3" ht="30">
+      <c r="A135" s="12" t="s">
+        <v>1173</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>1049</v>
+        <v>1266</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="28.8">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30">
       <c r="A136" s="12" t="s">
         <v>1174</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="28.8">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30">
       <c r="A137" s="12" t="s">
         <v>1175</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="28.8">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="30">
       <c r="A138" s="12" t="s">
         <v>1176</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="28.8">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="30">
       <c r="A139" s="12" t="s">
         <v>1177</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="28.8">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30">
       <c r="A140" s="12" t="s">
         <v>1178</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="28.8">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30">
       <c r="A141" s="12" t="s">
         <v>1179</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="28.8">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="12" t="s">
         <v>1180</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="60">
       <c r="A143" s="12" t="s">
         <v>1181</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>1267</v>
+        <v>1644</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="43.2">
+    <row r="144" spans="1:3" ht="60">
       <c r="A144" s="12" t="s">
         <v>1182</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>1270</v>
+        <v>1643</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="43.2">
+    <row r="145" spans="1:3" ht="60">
       <c r="A145" s="12" t="s">
         <v>1183</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>1193</v>
+        <v>1642</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="43.2">
+    <row r="146" spans="1:3" ht="60">
       <c r="A146" s="12" t="s">
         <v>1184</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1271</v>
+        <v>1642</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="43.2">
+    <row r="147" spans="1:3" ht="60">
       <c r="A147" s="12" t="s">
         <v>1185</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>1271</v>
+        <v>1642</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="43.2">
+    <row r="148" spans="1:3" ht="60">
       <c r="A148" s="12" t="s">
         <v>1186</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>1271</v>
+        <v>1642</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="43.2">
+    <row r="149" spans="1:3" ht="60">
       <c r="A149" s="12" t="s">
         <v>1187</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>1271</v>
+        <v>1642</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="43.2">
+    <row r="150" spans="1:3" ht="60">
       <c r="A150" s="12" t="s">
-        <v>1188</v>
+        <v>1640</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>1271</v>
+        <v>1642</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>867</v>
@@ -36460,7 +36904,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="12" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>867</v>
@@ -36471,7 +36915,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="12" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>867</v>
@@ -36480,287 +36924,287 @@
         <v>867</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="43.2">
+    <row r="153" spans="1:3" ht="45">
       <c r="A153" s="12" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="43.2">
+    <row r="154" spans="1:3" ht="45">
       <c r="A154" s="12" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="28.8">
+    <row r="155" spans="1:3" ht="30">
       <c r="A155" s="12" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="28.8">
+    <row r="156" spans="1:3" ht="30">
       <c r="A156" s="12" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="28.8">
+    <row r="157" spans="1:3" ht="30">
       <c r="A157" s="12" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="28.8">
+    <row r="158" spans="1:3" ht="30">
       <c r="A158" s="12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>1197</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>1199</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="28.8">
+    <row r="159" spans="1:3" ht="30">
       <c r="A159" s="12" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="28.8">
+    <row r="160" spans="1:3" ht="30">
       <c r="A160" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30">
+      <c r="A161" s="12" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="30">
+      <c r="A162" s="12" t="s">
         <v>1200</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="28.8">
-      <c r="A161" s="12" t="s">
+      <c r="B162" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="30">
+      <c r="A163" s="12" t="s">
         <v>1201</v>
       </c>
-      <c r="B161" s="7" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="28.8">
-      <c r="A162" s="12" t="s">
+      <c r="B163" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30">
+      <c r="A164" s="12" t="s">
         <v>1202</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="28.8">
-      <c r="A163" s="12" t="s">
+      <c r="B164" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="30">
+      <c r="A165" s="12" t="s">
         <v>1203</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="28.8">
-      <c r="A164" s="12" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="12" t="s">
-        <v>1205</v>
-      </c>
       <c r="B165" s="7" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="28.8">
+    <row r="166" spans="1:3" ht="45">
       <c r="A166" s="12" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="28.8">
+    <row r="167" spans="1:3" ht="45">
       <c r="A167" s="12" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="28.8">
+    <row r="168" spans="1:3" ht="45">
       <c r="A168" s="12" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="28.8">
+    <row r="169" spans="1:3" ht="45">
       <c r="A169" s="12" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="28.8">
+    <row r="170" spans="1:3" ht="45">
       <c r="A170" s="12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B170" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="B170" s="7" t="s">
-        <v>1212</v>
-      </c>
       <c r="C170" s="7" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="28.8">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="45">
       <c r="A171" s="12" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="28.8">
+    <row r="172" spans="1:3" ht="30">
       <c r="A172" s="12" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="28.8">
+    <row r="173" spans="1:3" ht="30">
       <c r="A173" s="12" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="28.8">
+    <row r="174" spans="1:3" ht="30">
       <c r="A174" s="12" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="28.8">
+    <row r="175" spans="1:3" ht="30">
       <c r="A175" s="12" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="28.8">
+    <row r="176" spans="1:3" ht="30">
       <c r="A176" s="12" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="28.8">
+    <row r="177" spans="1:3" ht="30">
       <c r="A177" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>1218</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>1220</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="28.8">
+    <row r="178" spans="1:3" ht="30">
       <c r="A178" s="12" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>867</v>
@@ -36768,10 +37212,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="12" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>867</v>
@@ -36779,10 +37223,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="12" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>867</v>
@@ -36790,10 +37234,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="12" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>867</v>
@@ -36801,10 +37245,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="12" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B182" s="7" t="s">
         <v>1224</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>1226</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>867</v>
@@ -36812,164 +37256,164 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="12" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="28.8">
+    <row r="184" spans="1:3" ht="45">
       <c r="A184" s="12" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="28.8">
+    <row r="185" spans="1:3" ht="45">
       <c r="A185" s="12" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="28.8">
+    <row r="186" spans="1:3" ht="45">
       <c r="A186" s="12" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="28.8">
+    <row r="187" spans="1:3" ht="45">
       <c r="A187" s="12" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="28.8">
+    <row r="188" spans="1:3" ht="45">
       <c r="A188" s="12" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B188" s="7" t="s">
         <v>1231</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>1233</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="28.8">
+    <row r="189" spans="1:3" ht="45">
       <c r="A189" s="12" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="43.2">
+    <row r="190" spans="1:3" ht="45">
       <c r="A190" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="43.2">
+    <row r="191" spans="1:3" ht="45">
       <c r="A191" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="43.2">
+    <row r="192" spans="1:3" ht="45">
       <c r="A192" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="43.2">
+    <row r="193" spans="1:3" ht="45">
       <c r="A193" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="43.2">
+    <row r="194" spans="1:3" ht="45">
       <c r="A194" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="43.2">
+    <row r="195" spans="1:3" ht="45">
       <c r="A195" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="43.2">
+    <row r="196" spans="1:3" ht="45">
       <c r="A196" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="43.2">
+    <row r="197" spans="1:3" ht="45">
       <c r="A197" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>867</v>
@@ -36977,7 +37421,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>867</v>
@@ -36986,34 +37430,34 @@
         <v>867</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="43.2">
+    <row r="199" spans="1:3" ht="45">
       <c r="A199" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="43.2">
+    <row r="200" spans="1:3" ht="45">
       <c r="A200" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="43.2">
+    <row r="201" spans="1:3" ht="45">
       <c r="A201" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>867</v>
@@ -37021,10 +37465,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>867</v>
@@ -37032,10 +37476,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>867</v>
@@ -37043,10 +37487,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>867</v>
@@ -37054,21 +37498,21 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="28.8">
+    <row r="206" spans="1:3" ht="30">
       <c r="A206" s="4" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>867</v>
@@ -37076,10 +37520,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>867</v>
@@ -37087,10 +37531,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>867</v>
@@ -37098,10 +37542,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>867</v>
@@ -37109,10 +37553,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>867</v>
@@ -37120,10 +37564,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>867</v>
@@ -37131,10 +37575,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>867</v>
@@ -37142,10 +37586,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>867</v>
@@ -37153,10 +37597,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>867</v>
@@ -37164,43 +37608,43 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B216" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C216" s="7" t="s">
         <v>1414</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B217" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C217" s="7" t="s">
         <v>1414</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="4" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>867</v>
@@ -37208,10 +37652,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="4" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>867</v>
@@ -37219,10 +37663,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B220" s="8" t="s">
         <v>1411</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>1414</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>867</v>
@@ -37230,10 +37674,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="4" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>867</v>
@@ -37241,32 +37685,32 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="4" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="28.8">
+    <row r="223" spans="1:3" ht="45">
       <c r="A223" s="4" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="28.8">
+    <row r="224" spans="1:3" ht="45">
       <c r="A224" s="15" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>867</v>
@@ -37274,87 +37718,87 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="4" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="28.8">
+    <row r="226" spans="1:3" ht="30">
       <c r="A226" s="15" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="28.8">
+    <row r="227" spans="1:3" ht="30">
       <c r="A227" s="4" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="28.8">
+    <row r="228" spans="1:3" ht="30">
       <c r="A228" s="15" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="28.8">
+    <row r="229" spans="1:3" ht="30">
       <c r="A229" s="15" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="28.8">
+    <row r="230" spans="1:3" ht="30">
       <c r="A230" s="4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B230" s="8" t="s">
         <v>1460</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>1463</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="28.8">
+    <row r="231" spans="1:3" ht="30">
       <c r="A231" s="4" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="28.8">
+    <row r="232" spans="1:3" ht="30">
       <c r="A232" s="4" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>867</v>
@@ -37362,10 +37806,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="4" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>867</v>
@@ -37373,10 +37817,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B234" s="8" t="s">
         <v>1465</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>1468</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>867</v>
@@ -37384,10 +37828,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="15" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>867</v>
@@ -37395,32 +37839,32 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="4" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" ht="30">
       <c r="A237" s="4" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" ht="30">
       <c r="A238" s="15" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>867</v>
@@ -37428,10 +37872,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B239" s="8" t="s">
         <v>1600</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>1603</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>867</v>
@@ -37439,10 +37883,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="4" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>867</v>
@@ -37450,10 +37894,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="4" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>867</v>
@@ -37461,10 +37905,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B242" s="8" t="s">
         <v>1604</v>
-      </c>
-      <c r="B242" s="8" t="s">
-        <v>1607</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>867</v>
@@ -37472,10 +37916,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="4" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>867</v>
@@ -37483,10 +37927,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="4" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>867</v>
@@ -37494,10 +37938,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B245" s="8" t="s">
         <v>1608</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>1611</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>867</v>
@@ -37505,10 +37949,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="4" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>867</v>
@@ -37516,10 +37960,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="4" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>867</v>
@@ -37527,10 +37971,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="4" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>867</v>
@@ -37538,10 +37982,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="4" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>867</v>
@@ -37549,10 +37993,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="4" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>867</v>
@@ -37560,10 +38004,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="4" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>867</v>
@@ -37571,10 +38015,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="4" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>867</v>
@@ -37582,10 +38026,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="4" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>867</v>
@@ -37593,10 +38037,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="4" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>867</v>
@@ -37604,10 +38048,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>867</v>
@@ -37615,10 +38059,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="4" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>867</v>
@@ -37626,7 +38070,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="4" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>867</v>
@@ -37637,10 +38081,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B258" s="8" t="s">
         <v>1622</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>1625</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>867</v>
@@ -37648,7 +38092,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="4" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>867</v>
@@ -37659,10 +38103,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="4" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>867</v>
@@ -37670,10 +38114,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>867</v>
@@ -37681,10 +38125,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="8" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>867</v>
@@ -37694,4 +38138,68 @@
   <autoFilter ref="A1:C261" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD391A99-8020-4D51-9021-3CFCB266B208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F33FE17-2CAB-4100-A8D1-46FEF4C98D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -2576,9 +2576,6 @@
     <t>['Corsairs of Umbar', 'Dark Denizens of Mirkwood', 'Far Harad', 'Isengard', 'Moria', 'Variags of Khand']</t>
   </si>
   <si>
-    <t>&lt;b&gt;"Tangado Haid, leithio i philinn!"&lt;/b&gt; - While within 6" of the army's leader, friendly Rivendell models may re-roll failed To Hit rolls when making shooting attacks in a turn in which they do not move.</t>
-  </si>
-  <si>
     <t>['The Fellowship', 'Lothlorien', 'Numenor', 'The White Council']</t>
   </si>
   <si>
@@ -5123,6 +5120,9 @@
   </si>
   <si>
     <t>bow_limit</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;"Tangado Haid, leithio i philinn!"&lt;/b&gt; - While within 6" of the army's leader, friendly Rivendell models may re-roll failed To Hit rolls when making shooting attacks in a turn in which they do not move. If your army contains Elrond, then Rivendell Knights do not count towards your Bow Limit.</t>
   </si>
 </sst>
 </file>
@@ -5259,7 +5259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5309,9 +5309,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5629,9 +5626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
   <dimension ref="A1:J393"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C290" sqref="C290"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5675,7 +5672,7 @@
         <v>155</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>154</v>
@@ -5696,7 +5693,7 @@
         <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -5729,7 +5726,7 @@
         <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -5762,7 +5759,7 @@
         <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -5795,7 +5792,7 @@
         <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -5828,7 +5825,7 @@
         <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -5894,7 +5891,7 @@
         <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -5993,7 +5990,7 @@
         <v>241</v>
       </c>
       <c r="E11" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -6026,7 +6023,7 @@
         <v>241</v>
       </c>
       <c r="E12" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -6059,7 +6056,7 @@
         <v>241</v>
       </c>
       <c r="E13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -6092,7 +6089,7 @@
         <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -6125,7 +6122,7 @@
         <v>241</v>
       </c>
       <c r="E15" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -6158,7 +6155,7 @@
         <v>241</v>
       </c>
       <c r="E16" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -6191,7 +6188,7 @@
         <v>241</v>
       </c>
       <c r="E17" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -7382,7 +7379,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G53">
         <v>25</v>
@@ -10706,13 +10703,13 @@
         <v>205</v>
       </c>
       <c r="C154" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D154" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E154" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -10739,13 +10736,13 @@
         <v>205</v>
       </c>
       <c r="C155" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D155" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E155" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -10772,13 +10769,13 @@
         <v>205</v>
       </c>
       <c r="C156" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D156" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E156" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -10805,13 +10802,13 @@
         <v>205</v>
       </c>
       <c r="C157" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D157" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E157" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -10838,13 +10835,13 @@
         <v>205</v>
       </c>
       <c r="C158" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D158" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E158" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -10871,13 +10868,13 @@
         <v>205</v>
       </c>
       <c r="C159" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D159" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E159" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F159" t="s">
         <v>15</v>
@@ -10904,13 +10901,13 @@
         <v>205</v>
       </c>
       <c r="C160" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D160" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E160" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F160" t="s">
         <v>7</v>
@@ -10937,13 +10934,13 @@
         <v>205</v>
       </c>
       <c r="C161" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D161" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E161" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F161" t="s">
         <v>7</v>
@@ -10970,13 +10967,13 @@
         <v>205</v>
       </c>
       <c r="C162" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D162" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E162" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F162" t="s">
         <v>44</v>
@@ -11003,13 +11000,13 @@
         <v>205</v>
       </c>
       <c r="C163" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D163" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E163" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F163" t="s">
         <v>22</v>
@@ -11036,13 +11033,13 @@
         <v>205</v>
       </c>
       <c r="C164" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D164" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E164" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F164" t="s">
         <v>22</v>
@@ -11069,13 +11066,13 @@
         <v>205</v>
       </c>
       <c r="C165" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D165" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E165" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F165" t="s">
         <v>22</v>
@@ -11102,13 +11099,13 @@
         <v>205</v>
       </c>
       <c r="C166" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D166" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E166" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F166" t="s">
         <v>12</v>
@@ -11135,13 +11132,13 @@
         <v>205</v>
       </c>
       <c r="C167" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D167" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E167" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F167" t="s">
         <v>12</v>
@@ -11168,13 +11165,13 @@
         <v>205</v>
       </c>
       <c r="C168" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D168" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E168" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F168" t="s">
         <v>12</v>
@@ -11201,13 +11198,13 @@
         <v>205</v>
       </c>
       <c r="C169" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D169" t="s">
         <v>241</v>
       </c>
       <c r="E169" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F169" t="s">
         <v>12</v>
@@ -11234,13 +11231,13 @@
         <v>205</v>
       </c>
       <c r="C170" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D170" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E170" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F170" t="s">
         <v>12</v>
@@ -11267,13 +11264,13 @@
         <v>205</v>
       </c>
       <c r="C171" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D171" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E171" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F171" t="s">
         <v>12</v>
@@ -11300,13 +11297,13 @@
         <v>205</v>
       </c>
       <c r="C172" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D172" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E172" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F172" t="s">
         <v>12</v>
@@ -11333,13 +11330,13 @@
         <v>205</v>
       </c>
       <c r="C173" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D173" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E173" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F173" t="s">
         <v>12</v>
@@ -11366,13 +11363,13 @@
         <v>205</v>
       </c>
       <c r="C174" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D174" t="s">
         <v>241</v>
       </c>
       <c r="E174" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F174" t="s">
         <v>12</v>
@@ -11399,13 +11396,13 @@
         <v>205</v>
       </c>
       <c r="C175" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D175" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E175" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F175" t="s">
         <v>12</v>
@@ -12362,7 +12359,7 @@
         <v>132</v>
       </c>
       <c r="E204" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F204" t="s">
         <v>44</v>
@@ -12679,7 +12676,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B214" t="s">
         <v>204</v>
@@ -13120,7 +13117,7 @@
         <v>206</v>
       </c>
       <c r="E227" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F227" t="s">
         <v>12</v>
@@ -13153,7 +13150,7 @@
         <v>206</v>
       </c>
       <c r="E228" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F228" t="s">
         <v>12</v>
@@ -13219,7 +13216,7 @@
         <v>206</v>
       </c>
       <c r="E230" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F230" t="s">
         <v>12</v>
@@ -13519,7 +13516,7 @@
         <v>183</v>
       </c>
       <c r="F239" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G239">
         <v>30</v>
@@ -13552,7 +13549,7 @@
         <v>182</v>
       </c>
       <c r="F240" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G240">
         <v>25</v>
@@ -14209,7 +14206,7 @@
         <v>206</v>
       </c>
       <c r="E260" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F260" t="s">
         <v>12</v>
@@ -14242,7 +14239,7 @@
         <v>206</v>
       </c>
       <c r="E261" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F261" t="s">
         <v>12</v>
@@ -14341,7 +14338,7 @@
         <v>206</v>
       </c>
       <c r="E264" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F264" t="s">
         <v>12</v>
@@ -15820,7 +15817,7 @@
         <v>204</v>
       </c>
       <c r="C309" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -15853,13 +15850,13 @@
         <v>204</v>
       </c>
       <c r="C310" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D310" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E310" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F310" t="s">
         <v>10</v>
@@ -15886,13 +15883,13 @@
         <v>204</v>
       </c>
       <c r="C311" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D311" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E311" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F311" t="s">
         <v>7</v>
@@ -15919,13 +15916,13 @@
         <v>204</v>
       </c>
       <c r="C312" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D312" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E312" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F312" t="s">
         <v>10</v>
@@ -15952,13 +15949,13 @@
         <v>204</v>
       </c>
       <c r="C313" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D313" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E313" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F313" t="s">
         <v>10</v>
@@ -15985,13 +15982,13 @@
         <v>204</v>
       </c>
       <c r="C314" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D314" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E314" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F314" t="s">
         <v>10</v>
@@ -16018,13 +16015,13 @@
         <v>204</v>
       </c>
       <c r="C315" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D315" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E315" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F315" t="s">
         <v>22</v>
@@ -16051,13 +16048,13 @@
         <v>204</v>
       </c>
       <c r="C316" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D316" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E316" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F316" t="s">
         <v>22</v>
@@ -16084,13 +16081,13 @@
         <v>204</v>
       </c>
       <c r="C317" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D317" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E317" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F317" t="s">
         <v>10</v>
@@ -16117,16 +16114,16 @@
         <v>204</v>
       </c>
       <c r="C318" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D318" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E318" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F318" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -16150,13 +16147,13 @@
         <v>204</v>
       </c>
       <c r="C319" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D319" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E319" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F319" t="s">
         <v>10</v>
@@ -16183,13 +16180,13 @@
         <v>204</v>
       </c>
       <c r="C320" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D320" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E320" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F320" t="s">
         <v>12</v>
@@ -16216,13 +16213,13 @@
         <v>204</v>
       </c>
       <c r="C321" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D321" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E321" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F321" t="s">
         <v>12</v>
@@ -16249,13 +16246,13 @@
         <v>204</v>
       </c>
       <c r="C322" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D322" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E322" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F322" t="s">
         <v>10</v>
@@ -16282,13 +16279,13 @@
         <v>204</v>
       </c>
       <c r="C323" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D323" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E323" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F323" t="s">
         <v>22</v>
@@ -16315,13 +16312,13 @@
         <v>204</v>
       </c>
       <c r="C324" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D324" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E324" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F324" t="s">
         <v>10</v>
@@ -16348,13 +16345,13 @@
         <v>204</v>
       </c>
       <c r="C325" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D325" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E325" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F325" t="s">
         <v>7</v>
@@ -16381,13 +16378,13 @@
         <v>204</v>
       </c>
       <c r="C326" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D326" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E326" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F326" t="s">
         <v>10</v>
@@ -16414,13 +16411,13 @@
         <v>204</v>
       </c>
       <c r="C327" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D327" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E327" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F327" t="s">
         <v>7</v>
@@ -16447,13 +16444,13 @@
         <v>204</v>
       </c>
       <c r="C328" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D328" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E328" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F328" t="s">
         <v>10</v>
@@ -16480,13 +16477,13 @@
         <v>204</v>
       </c>
       <c r="C329" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D329" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E329" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F329" t="s">
         <v>44</v>
@@ -16513,13 +16510,13 @@
         <v>204</v>
       </c>
       <c r="C330" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D330" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E330" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F330" t="s">
         <v>10</v>
@@ -16546,13 +16543,13 @@
         <v>204</v>
       </c>
       <c r="C331" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D331" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E331" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F331" t="s">
         <v>10</v>
@@ -16579,13 +16576,13 @@
         <v>204</v>
       </c>
       <c r="C332" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D332" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E332" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F332" t="s">
         <v>12</v>
@@ -16612,13 +16609,13 @@
         <v>205</v>
       </c>
       <c r="C333" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D333" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E333" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F333" t="s">
         <v>12</v>
@@ -16645,13 +16642,13 @@
         <v>205</v>
       </c>
       <c r="C334" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D334" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E334" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F334" t="s">
         <v>10</v>
@@ -16678,13 +16675,13 @@
         <v>205</v>
       </c>
       <c r="C335" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D335" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E335" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F335" t="s">
         <v>10</v>
@@ -16711,13 +16708,13 @@
         <v>205</v>
       </c>
       <c r="C336" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D336" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E336" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F336" t="s">
         <v>12</v>
@@ -16744,13 +16741,13 @@
         <v>205</v>
       </c>
       <c r="C337" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D337" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E337" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F337" t="s">
         <v>12</v>
@@ -16777,13 +16774,13 @@
         <v>205</v>
       </c>
       <c r="C338" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D338" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E338" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F338" t="s">
         <v>15</v>
@@ -16810,13 +16807,13 @@
         <v>205</v>
       </c>
       <c r="C339" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D339" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E339" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F339" t="s">
         <v>7</v>
@@ -16843,13 +16840,13 @@
         <v>205</v>
       </c>
       <c r="C340" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D340" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E340" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F340" t="s">
         <v>12</v>
@@ -16882,7 +16879,7 @@
         <v>209</v>
       </c>
       <c r="E341" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F341" t="s">
         <v>10</v>
@@ -16909,13 +16906,13 @@
         <v>205</v>
       </c>
       <c r="C342" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D342" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E342" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F342" t="s">
         <v>12</v>
@@ -16942,13 +16939,13 @@
         <v>205</v>
       </c>
       <c r="C343" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D343" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E343" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F343" t="s">
         <v>10</v>
@@ -16975,13 +16972,13 @@
         <v>205</v>
       </c>
       <c r="C344" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D344" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E344" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F344" t="s">
         <v>12</v>
@@ -17008,13 +17005,13 @@
         <v>205</v>
       </c>
       <c r="C345" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D345" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E345" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F345" t="s">
         <v>7</v>
@@ -17041,13 +17038,13 @@
         <v>205</v>
       </c>
       <c r="C346" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D346" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E346" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F346" t="s">
         <v>12</v>
@@ -17074,13 +17071,13 @@
         <v>205</v>
       </c>
       <c r="C347" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D347" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E347" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F347" t="s">
         <v>10</v>
@@ -17107,13 +17104,13 @@
         <v>205</v>
       </c>
       <c r="C348" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D348" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E348" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F348" t="s">
         <v>12</v>
@@ -17140,13 +17137,13 @@
         <v>205</v>
       </c>
       <c r="C349" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D349" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E349" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F349" t="s">
         <v>10</v>
@@ -17173,13 +17170,13 @@
         <v>205</v>
       </c>
       <c r="C350" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D350" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E350" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F350" t="s">
         <v>12</v>
@@ -17212,7 +17209,7 @@
         <v>209</v>
       </c>
       <c r="E351" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F351" t="s">
         <v>10</v>
@@ -17239,13 +17236,13 @@
         <v>205</v>
       </c>
       <c r="C352" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D352" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E352" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F352" t="s">
         <v>15</v>
@@ -17272,13 +17269,13 @@
         <v>205</v>
       </c>
       <c r="C353" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D353" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E353" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F353" t="s">
         <v>10</v>
@@ -17311,7 +17308,7 @@
         <v>209</v>
       </c>
       <c r="E354" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="F354" t="s">
         <v>10</v>
@@ -17338,7 +17335,7 @@
         <v>205</v>
       </c>
       <c r="C355" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D355" t="s">
         <v>95</v>
@@ -17371,7 +17368,7 @@
         <v>205</v>
       </c>
       <c r="C356" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D356" t="s">
         <v>209</v>
@@ -17404,7 +17401,7 @@
         <v>205</v>
       </c>
       <c r="C357" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D357" t="s">
         <v>239</v>
@@ -17437,7 +17434,7 @@
         <v>205</v>
       </c>
       <c r="C358" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D358" t="s">
         <v>239</v>
@@ -17470,13 +17467,13 @@
         <v>204</v>
       </c>
       <c r="C359" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D359" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E359" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F359" t="s">
         <v>7</v>
@@ -17503,13 +17500,13 @@
         <v>204</v>
       </c>
       <c r="C360" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D360" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E360" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F360" t="s">
         <v>7</v>
@@ -17536,13 +17533,13 @@
         <v>204</v>
       </c>
       <c r="C361" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D361" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E361" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F361" t="s">
         <v>10</v>
@@ -17569,13 +17566,13 @@
         <v>205</v>
       </c>
       <c r="C362" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D362" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E362" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F362" t="s">
         <v>10</v>
@@ -17602,13 +17599,13 @@
         <v>204</v>
       </c>
       <c r="C363" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D363" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E363" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F363" t="s">
         <v>10</v>
@@ -17635,13 +17632,13 @@
         <v>204</v>
       </c>
       <c r="C364" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D364" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E364" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F364" t="s">
         <v>10</v>
@@ -17668,13 +17665,13 @@
         <v>204</v>
       </c>
       <c r="C365" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D365" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E365" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F365" t="s">
         <v>44</v>
@@ -17701,13 +17698,13 @@
         <v>204</v>
       </c>
       <c r="C366" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D366" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E366" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F366" t="s">
         <v>15</v>
@@ -17734,13 +17731,13 @@
         <v>204</v>
       </c>
       <c r="C367" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D367" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E367" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F367" t="s">
         <v>12</v>
@@ -17767,13 +17764,13 @@
         <v>204</v>
       </c>
       <c r="C368" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D368" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E368" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F368" t="s">
         <v>7</v>
@@ -17800,13 +17797,13 @@
         <v>204</v>
       </c>
       <c r="C369" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D369" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E369" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F369" t="s">
         <v>12</v>
@@ -17833,13 +17830,13 @@
         <v>204</v>
       </c>
       <c r="C370" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D370" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E370" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F370" t="s">
         <v>15</v>
@@ -17866,13 +17863,13 @@
         <v>204</v>
       </c>
       <c r="C371" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D371" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E371" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F371" t="s">
         <v>10</v>
@@ -17899,13 +17896,13 @@
         <v>205</v>
       </c>
       <c r="C372" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D372" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E372" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F372" t="s">
         <v>22</v>
@@ -17932,13 +17929,13 @@
         <v>204</v>
       </c>
       <c r="C373" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D373" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E373" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F373" t="s">
         <v>7</v>
@@ -17965,13 +17962,13 @@
         <v>204</v>
       </c>
       <c r="C374" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D374" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E374" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F374" t="s">
         <v>10</v>
@@ -17998,13 +17995,13 @@
         <v>204</v>
       </c>
       <c r="C375" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D375" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E375" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F375" t="s">
         <v>10</v>
@@ -18031,13 +18028,13 @@
         <v>204</v>
       </c>
       <c r="C376" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D376" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E376" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F376" t="s">
         <v>44</v>
@@ -18064,13 +18061,13 @@
         <v>205</v>
       </c>
       <c r="C377" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D377" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E377" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F377" t="s">
         <v>10</v>
@@ -18097,13 +18094,13 @@
         <v>205</v>
       </c>
       <c r="C378" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D378" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E378" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F378" t="s">
         <v>12</v>
@@ -18130,13 +18127,13 @@
         <v>205</v>
       </c>
       <c r="C379" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D379" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E379" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F379" t="s">
         <v>15</v>
@@ -18163,13 +18160,13 @@
         <v>205</v>
       </c>
       <c r="C380" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D380" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E380" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F380" t="s">
         <v>7</v>
@@ -18196,13 +18193,13 @@
         <v>205</v>
       </c>
       <c r="C381" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D381" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E381" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F381" t="s">
         <v>10</v>
@@ -18229,13 +18226,13 @@
         <v>204</v>
       </c>
       <c r="C382" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D382" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E382" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F382" t="s">
         <v>15</v>
@@ -18262,13 +18259,13 @@
         <v>204</v>
       </c>
       <c r="C383" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D383" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E383" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F383" t="s">
         <v>12</v>
@@ -18295,13 +18292,13 @@
         <v>204</v>
       </c>
       <c r="C384" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D384" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E384" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F384" t="s">
         <v>12</v>
@@ -18328,13 +18325,13 @@
         <v>204</v>
       </c>
       <c r="C385" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D385" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E385" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F385" t="s">
         <v>12</v>
@@ -18361,13 +18358,13 @@
         <v>204</v>
       </c>
       <c r="C386" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D386" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E386" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F386" t="s">
         <v>44</v>
@@ -18394,13 +18391,13 @@
         <v>204</v>
       </c>
       <c r="C387" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D387" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E387" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F387" t="s">
         <v>12</v>
@@ -18427,7 +18424,7 @@
         <v>204</v>
       </c>
       <c r="C388" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D388" t="s">
         <v>3</v>
@@ -18460,13 +18457,13 @@
         <v>205</v>
       </c>
       <c r="C389" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D389" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E389" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F389" t="s">
         <v>10</v>
@@ -18486,19 +18483,19 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B390" t="s">
         <v>205</v>
       </c>
       <c r="C390" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D390" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E390" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F390" t="s">
         <v>10</v>
@@ -18518,19 +18515,19 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B391" t="s">
         <v>204</v>
       </c>
       <c r="C391" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D391" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E391" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F391" t="s">
         <v>10</v>
@@ -18557,13 +18554,13 @@
         <v>205</v>
       </c>
       <c r="C392" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D392" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E392" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F392" t="s">
         <v>12</v>
@@ -18678,7 +18675,7 @@
         <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D2" t="s">
         <v>308</v>
@@ -18704,10 +18701,10 @@
         <v>241</v>
       </c>
       <c r="C3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D3" t="s">
         <v>1272</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1273</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -18727,7 +18724,7 @@
         <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D4" t="s">
         <v>312</v>
@@ -18750,7 +18747,7 @@
         <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D5" t="s">
         <v>308</v>
@@ -18776,7 +18773,7 @@
         <v>241</v>
       </c>
       <c r="C6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D6" t="s">
         <v>286</v>
@@ -18799,10 +18796,10 @@
         <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -18825,7 +18822,7 @@
         <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D8" t="s">
         <v>312</v>
@@ -18848,7 +18845,7 @@
         <v>241</v>
       </c>
       <c r="C9" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D9" t="s">
         <v>320</v>
@@ -18871,7 +18868,7 @@
         <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D10" t="s">
         <v>291</v>
@@ -18894,7 +18891,7 @@
         <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D11" t="s">
         <v>286</v>
@@ -18917,10 +18914,10 @@
         <v>241</v>
       </c>
       <c r="C12" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D12" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -18943,7 +18940,7 @@
         <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D13" t="s">
         <v>312</v>
@@ -18966,7 +18963,7 @@
         <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D14" t="s">
         <v>332</v>
@@ -18989,7 +18986,7 @@
         <v>241</v>
       </c>
       <c r="C15" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D15" t="s">
         <v>308</v>
@@ -21184,7 +21181,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B106" t="s">
         <v>42</v>
@@ -26612,7 +26609,7 @@
         <v>70</v>
       </c>
       <c r="D330" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E330">
         <v>1</v>
@@ -27324,7 +27321,7 @@
         <v>137</v>
       </c>
       <c r="D359" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E359">
         <v>1</v>
@@ -27854,7 +27851,7 @@
         <v>206</v>
       </c>
       <c r="C381" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D381" t="s">
         <v>286</v>
@@ -27877,7 +27874,7 @@
         <v>206</v>
       </c>
       <c r="C382" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D382" t="s">
         <v>695</v>
@@ -27900,7 +27897,7 @@
         <v>206</v>
       </c>
       <c r="C383" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D383" t="s">
         <v>697</v>
@@ -27926,7 +27923,7 @@
         <v>206</v>
       </c>
       <c r="C384" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D384" t="s">
         <v>286</v>
@@ -27949,7 +27946,7 @@
         <v>206</v>
       </c>
       <c r="C385" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D385" t="s">
         <v>697</v>
@@ -27975,7 +27972,7 @@
         <v>206</v>
       </c>
       <c r="C386" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D386" t="s">
         <v>409</v>
@@ -27998,7 +27995,7 @@
         <v>206</v>
       </c>
       <c r="C387" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D387" t="s">
         <v>312</v>
@@ -28021,7 +28018,7 @@
         <v>206</v>
       </c>
       <c r="C388" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D388" t="s">
         <v>356</v>
@@ -28142,7 +28139,7 @@
         <v>206</v>
       </c>
       <c r="C393" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D393" t="s">
         <v>286</v>
@@ -28165,7 +28162,7 @@
         <v>206</v>
       </c>
       <c r="C394" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D394" t="s">
         <v>695</v>
@@ -28188,7 +28185,7 @@
         <v>206</v>
       </c>
       <c r="C395" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D395" t="s">
         <v>697</v>
@@ -29277,7 +29274,7 @@
         <v>244</v>
       </c>
       <c r="C440" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D440" t="s">
         <v>286</v>
@@ -29300,7 +29297,7 @@
         <v>244</v>
       </c>
       <c r="C441" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D441" t="s">
         <v>695</v>
@@ -29323,7 +29320,7 @@
         <v>244</v>
       </c>
       <c r="C442" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D442" t="s">
         <v>754</v>
@@ -29349,7 +29346,7 @@
         <v>244</v>
       </c>
       <c r="C443" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D443" t="s">
         <v>286</v>
@@ -29372,7 +29369,7 @@
         <v>244</v>
       </c>
       <c r="C444" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D444" t="s">
         <v>409</v>
@@ -29395,7 +29392,7 @@
         <v>244</v>
       </c>
       <c r="C445" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D445" t="s">
         <v>312</v>
@@ -29418,7 +29415,7 @@
         <v>244</v>
       </c>
       <c r="C446" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D446" t="s">
         <v>356</v>
@@ -29444,7 +29441,7 @@
         <v>244</v>
       </c>
       <c r="C447" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D447" t="s">
         <v>754</v>
@@ -29565,7 +29562,7 @@
         <v>244</v>
       </c>
       <c r="C452" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D452" t="s">
         <v>286</v>
@@ -29588,7 +29585,7 @@
         <v>244</v>
       </c>
       <c r="C453" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D453" t="s">
         <v>695</v>
@@ -29611,7 +29608,7 @@
         <v>244</v>
       </c>
       <c r="C454" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D454" t="s">
         <v>697</v>
@@ -29637,7 +29634,7 @@
         <v>244</v>
       </c>
       <c r="C455" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D455" t="s">
         <v>754</v>
@@ -29853,7 +29850,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B464" t="s">
         <v>243</v>
@@ -30213,7 +30210,7 @@
         <v>28</v>
       </c>
       <c r="D479" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E479">
         <v>2</v>
@@ -30558,7 +30555,7 @@
     </row>
     <row r="494" spans="1:8">
       <c r="A494" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B494" t="s">
         <v>246</v>
@@ -30581,7 +30578,7 @@
     </row>
     <row r="495" spans="1:8">
       <c r="A495" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B495" t="s">
         <v>246</v>
@@ -30604,7 +30601,7 @@
     </row>
     <row r="496" spans="1:8">
       <c r="A496" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B496" t="s">
         <v>246</v>
@@ -30627,7 +30624,7 @@
     </row>
     <row r="497" spans="1:8">
       <c r="A497" s="5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B497" t="s">
         <v>245</v>
@@ -30650,7 +30647,7 @@
     </row>
     <row r="498" spans="1:8">
       <c r="A498" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B498" t="s">
         <v>245</v>
@@ -30673,7 +30670,7 @@
     </row>
     <row r="499" spans="1:8">
       <c r="A499" s="5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B499" t="s">
         <v>245</v>
@@ -30696,7 +30693,7 @@
     </row>
     <row r="500" spans="1:8">
       <c r="A500" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B500" t="s">
         <v>245</v>
@@ -30722,7 +30719,7 @@
     </row>
     <row r="501" spans="1:8">
       <c r="A501" s="5" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B501" t="s">
         <v>245</v>
@@ -30745,7 +30742,7 @@
     </row>
     <row r="502" spans="1:8">
       <c r="A502" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B502" t="s">
         <v>245</v>
@@ -30768,7 +30765,7 @@
     </row>
     <row r="503" spans="1:8">
       <c r="A503" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B503" t="s">
         <v>245</v>
@@ -30791,7 +30788,7 @@
     </row>
     <row r="504" spans="1:8">
       <c r="A504" s="5" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B504" t="s">
         <v>245</v>
@@ -30814,7 +30811,7 @@
     </row>
     <row r="505" spans="1:8">
       <c r="A505" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B505" s="5" t="s">
         <v>209</v>
@@ -30840,7 +30837,7 @@
     </row>
     <row r="506" spans="1:8">
       <c r="A506" s="5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B506" s="5" t="s">
         <v>209</v>
@@ -30863,7 +30860,7 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B507" s="5" t="s">
         <v>209</v>
@@ -30889,7 +30886,7 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" s="5" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B508" s="5" t="s">
         <v>209</v>
@@ -30912,7 +30909,7 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" s="5" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B509" s="5" t="s">
         <v>209</v>
@@ -30935,7 +30932,7 @@
     </row>
     <row r="510" spans="1:8">
       <c r="A510" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B510" s="5" t="s">
         <v>209</v>
@@ -30958,7 +30955,7 @@
     </row>
     <row r="511" spans="1:8">
       <c r="A511" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B511" s="5" t="s">
         <v>209</v>
@@ -30984,7 +30981,7 @@
     </row>
     <row r="512" spans="1:8">
       <c r="A512" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B512" s="5" t="s">
         <v>209</v>
@@ -31007,7 +31004,7 @@
     </row>
     <row r="513" spans="1:8">
       <c r="A513" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B513" s="5" t="s">
         <v>209</v>
@@ -31030,7 +31027,7 @@
     </row>
     <row r="514" spans="1:8">
       <c r="A514" s="5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B514" s="5" t="s">
         <v>209</v>
@@ -31053,7 +31050,7 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B515" s="5" t="s">
         <v>209</v>
@@ -31079,7 +31076,7 @@
     </row>
     <row r="516" spans="1:8">
       <c r="A516" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B516" s="5" t="s">
         <v>209</v>
@@ -31102,7 +31099,7 @@
     </row>
     <row r="517" spans="1:8">
       <c r="A517" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B517" s="5" t="s">
         <v>209</v>
@@ -31128,7 +31125,7 @@
     </row>
     <row r="518" spans="1:8">
       <c r="A518" s="5" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B518" s="5" t="s">
         <v>209</v>
@@ -31151,7 +31148,7 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B519" s="5" t="s">
         <v>209</v>
@@ -31177,7 +31174,7 @@
     </row>
     <row r="520" spans="1:8">
       <c r="A520" s="5" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B520" s="5" t="s">
         <v>209</v>
@@ -31200,7 +31197,7 @@
     </row>
     <row r="521" spans="1:8">
       <c r="A521" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B521" t="s">
         <v>209</v>
@@ -31226,7 +31223,7 @@
     </row>
     <row r="522" spans="1:8">
       <c r="A522" s="5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B522" t="s">
         <v>209</v>
@@ -31252,7 +31249,7 @@
     </row>
     <row r="523" spans="1:8">
       <c r="A523" s="5" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B523" t="s">
         <v>209</v>
@@ -31278,7 +31275,7 @@
     </row>
     <row r="524" spans="1:8">
       <c r="A524" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B524" s="5" t="s">
         <v>209</v>
@@ -31304,7 +31301,7 @@
     </row>
     <row r="525" spans="1:8">
       <c r="A525" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B525" s="5" t="s">
         <v>209</v>
@@ -31327,13 +31324,13 @@
     </row>
     <row r="526" spans="1:8">
       <c r="A526" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B526" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C526" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D526" t="s">
         <v>320</v>
@@ -31350,13 +31347,13 @@
     </row>
     <row r="527" spans="1:8">
       <c r="A527" s="5" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B527" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C527" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D527" t="s">
         <v>310</v>
@@ -31373,13 +31370,13 @@
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="5" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B528" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C528" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D528" t="s">
         <v>312</v>
@@ -31396,13 +31393,13 @@
     </row>
     <row r="529" spans="1:8">
       <c r="A529" s="5" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B529" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C529" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D529" t="s">
         <v>310</v>
@@ -31422,13 +31419,13 @@
     </row>
     <row r="530" spans="1:8">
       <c r="A530" s="5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B530" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C530" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D530" t="s">
         <v>312</v>
@@ -31445,13 +31442,13 @@
     </row>
     <row r="531" spans="1:8">
       <c r="A531" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B531" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C531" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D531" t="s">
         <v>320</v>
@@ -31468,10 +31465,10 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B532" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C532" t="s">
         <v>165</v>
@@ -31491,10 +31488,10 @@
     </row>
     <row r="533" spans="1:8">
       <c r="A533" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B533" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C533" t="s">
         <v>165</v>
@@ -31517,13 +31514,13 @@
     </row>
     <row r="534" spans="1:8">
       <c r="A534" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B534" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C534" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D534" t="s">
         <v>284</v>
@@ -31540,16 +31537,16 @@
     </row>
     <row r="535" spans="1:8">
       <c r="A535" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B535" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C535" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D535" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E535">
         <v>1</v>
@@ -31566,16 +31563,16 @@
     </row>
     <row r="536" spans="1:8">
       <c r="A536" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B536" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C536" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D536" t="s">
         <v>1362</v>
-      </c>
-      <c r="D536" t="s">
-        <v>1363</v>
       </c>
       <c r="E536">
         <v>1</v>
@@ -31592,13 +31589,13 @@
     </row>
     <row r="537" spans="1:8">
       <c r="A537" s="5" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B537" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C537" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D537" t="s">
         <v>440</v>
@@ -31615,13 +31612,13 @@
     </row>
     <row r="538" spans="1:8">
       <c r="A538" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B538" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C538" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D538" t="s">
         <v>660</v>
@@ -31641,13 +31638,13 @@
     </row>
     <row r="539" spans="1:8">
       <c r="A539" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B539" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C539" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D539" t="s">
         <v>312</v>
@@ -31664,13 +31661,13 @@
     </row>
     <row r="540" spans="1:8">
       <c r="A540" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B540" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C540" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D540" t="s">
         <v>440</v>
@@ -31687,13 +31684,13 @@
     </row>
     <row r="541" spans="1:8">
       <c r="A541" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B541" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C541" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D541" t="s">
         <v>660</v>
@@ -31713,13 +31710,13 @@
     </row>
     <row r="542" spans="1:8">
       <c r="A542" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B542" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C542" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D542" t="s">
         <v>312</v>
@@ -31736,13 +31733,13 @@
     </row>
     <row r="543" spans="1:8">
       <c r="A543" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B543" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C543" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D543" t="s">
         <v>440</v>
@@ -31759,13 +31756,13 @@
     </row>
     <row r="544" spans="1:8">
       <c r="A544" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B544" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C544" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D544" t="s">
         <v>660</v>
@@ -31785,13 +31782,13 @@
     </row>
     <row r="545" spans="1:8">
       <c r="A545" s="5" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B545" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C545" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D545" t="s">
         <v>312</v>
@@ -31808,13 +31805,13 @@
     </row>
     <row r="546" spans="1:8">
       <c r="A546" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B546" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C546" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D546" t="s">
         <v>440</v>
@@ -31831,13 +31828,13 @@
     </row>
     <row r="547" spans="1:8">
       <c r="A547" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B547" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C547" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D547" t="s">
         <v>660</v>
@@ -31857,13 +31854,13 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" s="5" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B548" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C548" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D548" t="s">
         <v>356</v>
@@ -31883,13 +31880,13 @@
     </row>
     <row r="549" spans="1:8">
       <c r="A549" s="5" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B549" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C549" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D549" t="s">
         <v>391</v>
@@ -31909,13 +31906,13 @@
     </row>
     <row r="550" spans="1:8">
       <c r="A550" s="5" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B550" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C550" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D550" t="s">
         <v>312</v>
@@ -31932,13 +31929,13 @@
     </row>
     <row r="551" spans="1:8">
       <c r="A551" s="5" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B551" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C551" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D551" t="s">
         <v>362</v>
@@ -31955,13 +31952,13 @@
     </row>
     <row r="552" spans="1:8">
       <c r="A552" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B552" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C552" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D552" t="s">
         <v>320</v>
@@ -31978,13 +31975,13 @@
     </row>
     <row r="553" spans="1:8">
       <c r="A553" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B553" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C553" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D553" t="s">
         <v>356</v>
@@ -32004,13 +32001,13 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="5" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B554" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C554" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D554" t="s">
         <v>391</v>
@@ -32030,13 +32027,13 @@
     </row>
     <row r="555" spans="1:8">
       <c r="A555" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B555" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C555" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D555" t="s">
         <v>312</v>
@@ -32053,13 +32050,13 @@
     </row>
     <row r="556" spans="1:8">
       <c r="A556" s="5" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B556" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C556" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D556" t="s">
         <v>362</v>
@@ -32076,13 +32073,13 @@
     </row>
     <row r="557" spans="1:8">
       <c r="A557" s="5" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B557" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C557" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D557" t="s">
         <v>356</v>
@@ -32102,13 +32099,13 @@
     </row>
     <row r="558" spans="1:8">
       <c r="A558" s="5" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B558" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C558" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D558" t="s">
         <v>312</v>
@@ -32125,13 +32122,13 @@
     </row>
     <row r="559" spans="1:8">
       <c r="A559" s="5" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B559" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C559" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D559" t="s">
         <v>320</v>
@@ -32148,16 +32145,16 @@
     </row>
     <row r="560" spans="1:8">
       <c r="A560" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B560" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C560" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D560" t="s">
         <v>1425</v>
-      </c>
-      <c r="D560" t="s">
-        <v>1426</v>
       </c>
       <c r="E560">
         <v>0</v>
@@ -32171,16 +32168,16 @@
     </row>
     <row r="561" spans="1:8">
       <c r="A561" s="5" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B561" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C561" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D561" t="s">
         <v>1427</v>
-      </c>
-      <c r="D561" t="s">
-        <v>1428</v>
       </c>
       <c r="E561">
         <v>30</v>
@@ -32197,13 +32194,13 @@
     </row>
     <row r="562" spans="1:8">
       <c r="A562" s="5" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B562" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C562" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D562" t="s">
         <v>262</v>
@@ -32223,16 +32220,16 @@
     </row>
     <row r="563" spans="1:8">
       <c r="A563" s="5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B563" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C563" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D563" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E563">
         <v>30</v>
@@ -32249,13 +32246,13 @@
     </row>
     <row r="564" spans="1:8">
       <c r="A564" s="5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B564" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C564" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D564" t="s">
         <v>262</v>
@@ -32275,16 +32272,16 @@
     </row>
     <row r="565" spans="1:8">
       <c r="A565" s="5" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B565" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C565" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D565" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E565">
         <v>0</v>
@@ -32298,16 +32295,16 @@
     </row>
     <row r="566" spans="1:8">
       <c r="A566" s="5" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B566" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C566" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D566" t="s">
         <v>1432</v>
-      </c>
-      <c r="D566" t="s">
-        <v>1433</v>
       </c>
       <c r="E566">
         <v>10</v>
@@ -32324,16 +32321,16 @@
     </row>
     <row r="567" spans="1:8">
       <c r="A567" s="5" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B567" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C567" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D567" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E567">
         <v>5</v>
@@ -32347,13 +32344,13 @@
     </row>
     <row r="568" spans="1:8">
       <c r="A568" s="5" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B568" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C568" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D568" t="s">
         <v>312</v>
@@ -32370,13 +32367,13 @@
     </row>
     <row r="569" spans="1:8">
       <c r="A569" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B569" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C569" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D569" t="s">
         <v>816</v>
@@ -32393,13 +32390,13 @@
     </row>
     <row r="570" spans="1:8">
       <c r="A570" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B570" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C570" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D570" t="s">
         <v>286</v>
@@ -32416,16 +32413,16 @@
     </row>
     <row r="571" spans="1:8">
       <c r="A571" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B571" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C571" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D571" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E571">
         <v>1</v>
@@ -32439,13 +32436,13 @@
     </row>
     <row r="572" spans="1:8">
       <c r="A572" s="5" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B572" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C572" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D572" t="s">
         <v>320</v>
@@ -32462,16 +32459,16 @@
     </row>
     <row r="573" spans="1:8">
       <c r="A573" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B573" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C573" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D573" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E573">
         <v>10</v>
@@ -32488,16 +32485,16 @@
     </row>
     <row r="574" spans="1:8">
       <c r="A574" s="5" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B574" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C574" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D574" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E574">
         <v>5</v>
@@ -32511,13 +32508,13 @@
     </row>
     <row r="575" spans="1:8">
       <c r="A575" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B575" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C575" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D575" t="s">
         <v>312</v>
@@ -32534,13 +32531,13 @@
     </row>
     <row r="576" spans="1:8">
       <c r="A576" s="5" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B576" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C576" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D576" t="s">
         <v>816</v>
@@ -32557,13 +32554,13 @@
     </row>
     <row r="577" spans="1:8">
       <c r="A577" s="5" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B577" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C577" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D577" t="s">
         <v>286</v>
@@ -32580,16 +32577,16 @@
     </row>
     <row r="578" spans="1:8">
       <c r="A578" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B578" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C578" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D578" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E578">
         <v>1</v>
@@ -32603,13 +32600,13 @@
     </row>
     <row r="579" spans="1:8">
       <c r="A579" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B579" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C579" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D579" t="s">
         <v>320</v>
@@ -32626,16 +32623,16 @@
     </row>
     <row r="580" spans="1:8">
       <c r="A580" s="5" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B580" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C580" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D580" t="s">
         <v>1440</v>
-      </c>
-      <c r="D580" t="s">
-        <v>1441</v>
       </c>
       <c r="E580">
         <v>30</v>
@@ -32649,16 +32646,16 @@
     </row>
     <row r="581" spans="1:8">
       <c r="A581" s="5" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B581" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C581" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D581" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E581">
         <v>20</v>
@@ -32672,16 +32669,16 @@
     </row>
     <row r="582" spans="1:8">
       <c r="A582" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B582" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C582" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D582" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E582">
         <v>20</v>
@@ -32695,16 +32692,16 @@
     </row>
     <row r="583" spans="1:8">
       <c r="A583" s="5" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B583" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C583" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D583" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E583">
         <v>20</v>
@@ -32718,16 +32715,16 @@
     </row>
     <row r="584" spans="1:8">
       <c r="A584" s="5" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B584" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C584" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D584" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E584">
         <v>15</v>
@@ -32741,16 +32738,16 @@
     </row>
     <row r="585" spans="1:8">
       <c r="A585" s="5" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B585" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C585" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D585" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E585">
         <v>10</v>
@@ -32764,16 +32761,16 @@
     </row>
     <row r="586" spans="1:8">
       <c r="A586" s="5" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B586" t="s">
         <v>209</v>
       </c>
       <c r="C586" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D586" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E586">
         <v>30</v>
@@ -32787,16 +32784,16 @@
     </row>
     <row r="587" spans="1:8">
       <c r="A587" s="5" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B587" t="s">
         <v>209</v>
       </c>
       <c r="C587" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D587" t="s">
         <v>1447</v>
-      </c>
-      <c r="D587" t="s">
-        <v>1448</v>
       </c>
       <c r="E587">
         <v>25</v>
@@ -32810,16 +32807,16 @@
     </row>
     <row r="588" spans="1:8">
       <c r="A588" s="5" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B588" t="s">
         <v>209</v>
       </c>
       <c r="C588" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D588" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E588">
         <v>20</v>
@@ -32833,16 +32830,16 @@
     </row>
     <row r="589" spans="1:8">
       <c r="A589" s="5" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B589" t="s">
         <v>209</v>
       </c>
       <c r="C589" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D589" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E589">
         <v>20</v>
@@ -32856,16 +32853,16 @@
     </row>
     <row r="590" spans="1:8">
       <c r="A590" s="5" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B590" t="s">
         <v>209</v>
       </c>
       <c r="C590" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D590" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E590">
         <v>20</v>
@@ -32879,16 +32876,16 @@
     </row>
     <row r="591" spans="1:8">
       <c r="A591" s="5" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B591" t="s">
         <v>209</v>
       </c>
       <c r="C591" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D591" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E591">
         <v>15</v>
@@ -32902,16 +32899,16 @@
     </row>
     <row r="592" spans="1:8">
       <c r="A592" s="5" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B592" t="s">
         <v>209</v>
       </c>
       <c r="C592" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D592" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E592">
         <v>10</v>
@@ -32925,10 +32922,10 @@
     </row>
     <row r="593" spans="1:8">
       <c r="A593" s="5" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B593" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C593" t="s">
         <v>119</v>
@@ -32951,10 +32948,10 @@
     </row>
     <row r="594" spans="1:8">
       <c r="A594" s="5" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B594" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C594" t="s">
         <v>119</v>
@@ -32977,10 +32974,10 @@
     </row>
     <row r="595" spans="1:8">
       <c r="A595" s="5" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B595" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C595" t="s">
         <v>119</v>
@@ -33003,10 +33000,10 @@
     </row>
     <row r="596" spans="1:8">
       <c r="A596" s="5" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B596" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C596" t="s">
         <v>146</v>
@@ -33029,10 +33026,10 @@
     </row>
     <row r="597" spans="1:8">
       <c r="A597" s="5" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B597" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C597" t="s">
         <v>146</v>
@@ -33052,10 +33049,10 @@
     </row>
     <row r="598" spans="1:8">
       <c r="A598" s="5" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B598" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C598" t="s">
         <v>97</v>
@@ -33078,10 +33075,10 @@
     </row>
     <row r="599" spans="1:8">
       <c r="A599" s="5" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B599" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C599" t="s">
         <v>97</v>
@@ -33101,10 +33098,10 @@
     </row>
     <row r="600" spans="1:8">
       <c r="A600" s="5" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B600" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C600" t="s">
         <v>97</v>
@@ -33124,10 +33121,10 @@
     </row>
     <row r="601" spans="1:8">
       <c r="A601" s="5" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B601" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C601" t="s">
         <v>98</v>
@@ -33147,10 +33144,10 @@
     </row>
     <row r="602" spans="1:8">
       <c r="A602" s="5" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B602" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C602" t="s">
         <v>98</v>
@@ -33170,16 +33167,16 @@
     </row>
     <row r="603" spans="1:8">
       <c r="A603" s="5" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B603" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C603" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D603" t="s">
         <v>1535</v>
-      </c>
-      <c r="D603" t="s">
-        <v>1536</v>
       </c>
       <c r="E603">
         <v>0</v>
@@ -33193,13 +33190,13 @@
     </row>
     <row r="604" spans="1:8">
       <c r="A604" s="5" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B604" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C604" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D604" t="s">
         <v>262</v>
@@ -33219,13 +33216,13 @@
     </row>
     <row r="605" spans="1:8">
       <c r="A605" s="5" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B605" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C605" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D605" t="s">
         <v>356</v>
@@ -33242,13 +33239,13 @@
     </row>
     <row r="606" spans="1:8">
       <c r="A606" s="5" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B606" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C606" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D606" t="s">
         <v>350</v>
@@ -33265,13 +33262,13 @@
     </row>
     <row r="607" spans="1:8">
       <c r="A607" s="5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B607" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C607" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D607" t="s">
         <v>289</v>
@@ -33288,13 +33285,13 @@
     </row>
     <row r="608" spans="1:8">
       <c r="A608" s="5" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B608" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C608" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D608" t="s">
         <v>312</v>
@@ -33311,13 +33308,13 @@
     </row>
     <row r="609" spans="1:8">
       <c r="A609" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B609" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C609" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D609" t="s">
         <v>320</v>
@@ -33334,13 +33331,13 @@
     </row>
     <row r="610" spans="1:8">
       <c r="A610" s="5" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B610" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C610" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D610" t="s">
         <v>262</v>
@@ -33360,13 +33357,13 @@
     </row>
     <row r="611" spans="1:8">
       <c r="A611" s="5" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B611" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C611" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D611" t="s">
         <v>312</v>
@@ -33383,16 +33380,16 @@
     </row>
     <row r="612" spans="1:8">
       <c r="A612" s="5" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B612" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C612" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D612" t="s">
         <v>1544</v>
-      </c>
-      <c r="D612" t="s">
-        <v>1545</v>
       </c>
       <c r="E612">
         <v>40</v>
@@ -33406,13 +33403,13 @@
     </row>
     <row r="613" spans="1:8">
       <c r="A613" s="5" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B613" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C613" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D613" t="s">
         <v>262</v>
@@ -33432,13 +33429,13 @@
     </row>
     <row r="614" spans="1:8">
       <c r="A614" s="5" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B614" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C614" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D614" t="s">
         <v>262</v>
@@ -33458,13 +33455,13 @@
     </row>
     <row r="615" spans="1:8">
       <c r="A615" s="5" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B615" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C615" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D615" t="s">
         <v>312</v>
@@ -33481,16 +33478,16 @@
     </row>
     <row r="616" spans="1:8">
       <c r="A616" s="5" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B616" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C616" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D616" t="s">
         <v>1547</v>
-      </c>
-      <c r="D616" t="s">
-        <v>1548</v>
       </c>
       <c r="E616">
         <v>0</v>
@@ -33504,13 +33501,13 @@
     </row>
     <row r="617" spans="1:8">
       <c r="A617" s="5" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B617" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C617" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D617" t="s">
         <v>262</v>
@@ -33530,13 +33527,13 @@
     </row>
     <row r="618" spans="1:8">
       <c r="A618" s="5" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B618" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C618" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D618" t="s">
         <v>320</v>
@@ -33553,13 +33550,13 @@
     </row>
     <row r="619" spans="1:8">
       <c r="A619" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B619" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C619" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D619" t="s">
         <v>356</v>
@@ -33579,16 +33576,16 @@
     </row>
     <row r="620" spans="1:8">
       <c r="A620" s="5" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B620" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C620" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D620" t="s">
         <v>1553</v>
-      </c>
-      <c r="D620" t="s">
-        <v>1554</v>
       </c>
       <c r="E620">
         <v>1</v>
@@ -33602,22 +33599,22 @@
     </row>
     <row r="621" spans="1:8">
       <c r="A621" s="5" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B621" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C621" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D621" t="s">
         <v>1558</v>
-      </c>
-      <c r="D621" t="s">
-        <v>1559</v>
       </c>
       <c r="E621">
         <v>10</v>
       </c>
       <c r="F621" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G621">
         <v>0</v>
@@ -33628,16 +33625,16 @@
     </row>
     <row r="622" spans="1:8">
       <c r="A622" s="5" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B622" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C622" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D622" t="s">
         <v>1560</v>
-      </c>
-      <c r="D622" t="s">
-        <v>1561</v>
       </c>
       <c r="E622">
         <v>25</v>
@@ -33651,13 +33648,13 @@
     </row>
     <row r="623" spans="1:8">
       <c r="A623" s="5" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B623" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C623" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D623" t="s">
         <v>286</v>
@@ -33674,13 +33671,13 @@
     </row>
     <row r="624" spans="1:8">
       <c r="A624" s="5" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B624" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C624" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D624" t="s">
         <v>356</v>
@@ -33700,13 +33697,13 @@
     </row>
     <row r="625" spans="1:8">
       <c r="A625" s="5" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B625" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C625" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D625" t="s">
         <v>312</v>
@@ -33723,13 +33720,13 @@
     </row>
     <row r="626" spans="1:8">
       <c r="A626" s="5" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B626" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C626" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D626" t="s">
         <v>320</v>
@@ -33746,13 +33743,13 @@
     </row>
     <row r="627" spans="1:8">
       <c r="A627" s="5" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B627" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C627" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D627" t="s">
         <v>320</v>
@@ -33769,13 +33766,13 @@
     </row>
     <row r="628" spans="1:8">
       <c r="A628" s="5" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B628" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C628" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D628" t="s">
         <v>284</v>
@@ -33792,10 +33789,10 @@
     </row>
     <row r="629" spans="1:8">
       <c r="A629" s="5" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B629" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C629" t="s">
         <v>4</v>
@@ -33815,10 +33812,10 @@
     </row>
     <row r="630" spans="1:8">
       <c r="A630" s="5" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B630" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C630" t="s">
         <v>4</v>
@@ -33841,10 +33838,10 @@
     </row>
     <row r="631" spans="1:8">
       <c r="A631" s="5" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B631" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C631" t="s">
         <v>4</v>
@@ -33867,10 +33864,10 @@
     </row>
     <row r="632" spans="1:8">
       <c r="A632" s="5" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B632" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C632" t="s">
         <v>4</v>
@@ -33890,10 +33887,10 @@
     </row>
     <row r="633" spans="1:8">
       <c r="A633" s="5" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B633" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C633" t="s">
         <v>4</v>
@@ -33913,7 +33910,7 @@
     </row>
     <row r="634" spans="1:8">
       <c r="A634" s="5" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B634" s="5" t="s">
         <v>3</v>
@@ -33939,7 +33936,7 @@
     </row>
     <row r="635" spans="1:8">
       <c r="A635" s="5" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B635" s="5" t="s">
         <v>3</v>
@@ -33965,7 +33962,7 @@
     </row>
     <row r="636" spans="1:8">
       <c r="A636" s="5" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B636" s="5" t="s">
         <v>3</v>
@@ -34003,7 +34000,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34028,8 +34025,8 @@
       <c r="D1" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>1648</v>
+      <c r="E1" s="6" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60">
@@ -34071,13 +34068,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>844</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>845</v>
       </c>
       <c r="E4" s="9">
         <v>0.33</v>
@@ -34085,10 +34082,10 @@
     </row>
     <row r="5" spans="1:5" ht="105">
       <c r="A5" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>846</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>847</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -34101,13 +34098,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>849</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>850</v>
       </c>
       <c r="E6" s="9">
         <v>0.33</v>
@@ -34115,16 +34112,16 @@
     </row>
     <row r="7" spans="1:5" ht="75">
       <c r="A7" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>853</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>854</v>
       </c>
       <c r="E7" s="9">
         <v>0.33</v>
@@ -34135,13 +34132,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>856</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>857</v>
       </c>
       <c r="E8" s="9">
         <v>0.33</v>
@@ -34149,16 +34146,16 @@
     </row>
     <row r="9" spans="1:5" ht="45">
       <c r="A9" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>860</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>861</v>
       </c>
       <c r="E9" s="9">
         <v>0.33</v>
@@ -34166,10 +34163,10 @@
     </row>
     <row r="10" spans="1:5" ht="180">
       <c r="A10" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>862</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>863</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -34179,10 +34176,10 @@
     </row>
     <row r="11" spans="1:5" ht="120">
       <c r="A11" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>864</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>865</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -34195,13 +34192,13 @@
         <v>241</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>867</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>868</v>
       </c>
       <c r="E12" s="9">
         <v>0.33</v>
@@ -34209,16 +34206,16 @@
     </row>
     <row r="13" spans="1:5" ht="90">
       <c r="A13" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>871</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>872</v>
       </c>
       <c r="E13" s="9">
         <v>0.33</v>
@@ -34229,13 +34226,13 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>873</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>874</v>
       </c>
       <c r="E14" s="9">
         <v>0.33</v>
@@ -34243,10 +34240,10 @@
     </row>
     <row r="15" spans="1:5" ht="255">
       <c r="A15" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>875</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>876</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -34256,10 +34253,10 @@
     </row>
     <row r="16" spans="1:5" ht="285">
       <c r="A16" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>877</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>878</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -34269,10 +34266,10 @@
     </row>
     <row r="17" spans="1:5" ht="405">
       <c r="A17" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>879</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>880</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -34282,16 +34279,16 @@
     </row>
     <row r="18" spans="1:5" ht="45">
       <c r="A18" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>883</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>884</v>
       </c>
       <c r="E18" s="9">
         <v>0.33</v>
@@ -34299,10 +34296,10 @@
     </row>
     <row r="19" spans="1:5" ht="105">
       <c r="A19" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>885</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>886</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -34312,10 +34309,10 @@
     </row>
     <row r="20" spans="1:5" ht="105">
       <c r="A20" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>887</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>888</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -34328,13 +34325,13 @@
         <v>242</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>890</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>891</v>
       </c>
       <c r="E21" s="9">
         <v>0.33</v>
@@ -34345,7 +34342,7 @@
         <v>245</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -34358,13 +34355,13 @@
         <v>239</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>893</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>894</v>
       </c>
       <c r="E23" s="9">
         <v>0.33</v>
@@ -34372,16 +34369,16 @@
     </row>
     <row r="24" spans="1:5" ht="30">
       <c r="A24" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>897</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>898</v>
       </c>
       <c r="E24" s="9">
         <v>0.33</v>
@@ -34389,16 +34386,16 @@
     </row>
     <row r="25" spans="1:5" ht="45">
       <c r="A25" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>901</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>902</v>
       </c>
       <c r="E25" s="9">
         <v>0.33</v>
@@ -34406,10 +34403,10 @@
     </row>
     <row r="26" spans="1:5" ht="409.5">
       <c r="A26" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>903</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>904</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -34419,10 +34416,10 @@
     </row>
     <row r="27" spans="1:5" ht="165">
       <c r="A27" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>905</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>906</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -34432,10 +34429,10 @@
     </row>
     <row r="28" spans="1:5" ht="255">
       <c r="A28" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>907</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>908</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -34445,16 +34442,16 @@
     </row>
     <row r="29" spans="1:5" ht="60">
       <c r="A29" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>910</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>911</v>
       </c>
       <c r="E29" s="9">
         <v>0.33</v>
@@ -34465,11 +34462,11 @@
         <v>243</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E30" s="9">
         <v>0.33</v>
@@ -34480,10 +34477,10 @@
         <v>246</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
@@ -34495,13 +34492,13 @@
         <v>206</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>914</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>915</v>
       </c>
       <c r="E32" s="9">
         <v>0.33</v>
@@ -34512,7 +34509,7 @@
         <v>244</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -34522,16 +34519,16 @@
     </row>
     <row r="34" spans="1:5" ht="30">
       <c r="A34" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>919</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>920</v>
       </c>
       <c r="E34" s="9">
         <v>0.33</v>
@@ -34539,16 +34536,16 @@
     </row>
     <row r="35" spans="1:5" ht="120">
       <c r="A35" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>922</v>
-      </c>
       <c r="C35" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>1628</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>1629</v>
       </c>
       <c r="E35" s="9">
         <v>0.33</v>
@@ -34556,10 +34553,10 @@
     </row>
     <row r="36" spans="1:5" ht="375">
       <c r="A36" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>923</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>924</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -34569,16 +34566,16 @@
     </row>
     <row r="37" spans="1:5" ht="75">
       <c r="A37" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>927</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>928</v>
       </c>
       <c r="E37" s="9">
         <v>0.33</v>
@@ -34586,16 +34583,16 @@
     </row>
     <row r="38" spans="1:5" ht="45">
       <c r="A38" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>931</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>932</v>
       </c>
       <c r="E38" s="9">
         <v>0.33</v>
@@ -34603,10 +34600,10 @@
     </row>
     <row r="39" spans="1:5" ht="75">
       <c r="A39" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>933</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>934</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -34616,10 +34613,10 @@
     </row>
     <row r="40" spans="1:5" ht="300">
       <c r="A40" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>935</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>936</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -34629,10 +34626,10 @@
     </row>
     <row r="41" spans="1:5" ht="135">
       <c r="A41" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>937</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>938</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -34642,16 +34639,16 @@
     </row>
     <row r="42" spans="1:5" ht="45">
       <c r="A42" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>941</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>942</v>
       </c>
       <c r="E42" s="9">
         <v>0.33</v>
@@ -34659,10 +34656,10 @@
     </row>
     <row r="43" spans="1:5" ht="120">
       <c r="A43" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>943</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>944</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -34675,13 +34672,13 @@
         <v>58</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>946</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>947</v>
       </c>
       <c r="E44" s="9">
         <v>0.33</v>
@@ -34689,16 +34686,16 @@
     </row>
     <row r="45" spans="1:5" ht="150">
       <c r="A45" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>949</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>950</v>
       </c>
       <c r="E45" s="9">
         <v>0.33</v>
@@ -34706,16 +34703,16 @@
     </row>
     <row r="46" spans="1:5" ht="60">
       <c r="A46" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>953</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>954</v>
       </c>
       <c r="E46" s="9">
         <v>0.33</v>
@@ -34723,16 +34720,16 @@
     </row>
     <row r="47" spans="1:5" ht="60">
       <c r="A47" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>957</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>958</v>
       </c>
       <c r="E47" s="9">
         <v>0.33</v>
@@ -34743,13 +34740,13 @@
         <v>208</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>960</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>961</v>
       </c>
       <c r="E48" s="9">
         <v>0.33</v>
@@ -34757,16 +34754,16 @@
     </row>
     <row r="49" spans="1:5" ht="45">
       <c r="A49" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>963</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>964</v>
       </c>
       <c r="E49" s="9">
         <v>0.33</v>
@@ -34774,16 +34771,16 @@
     </row>
     <row r="50" spans="1:5" ht="90">
       <c r="A50" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>966</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>967</v>
       </c>
       <c r="E50" s="9">
         <v>0.33</v>
@@ -34794,13 +34791,13 @@
         <v>207</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>969</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>970</v>
       </c>
       <c r="E51" s="9">
         <v>0.33</v>
@@ -34808,10 +34805,10 @@
     </row>
     <row r="52" spans="1:5" ht="210">
       <c r="A52" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>971</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>972</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -34821,10 +34818,10 @@
     </row>
     <row r="53" spans="1:5" ht="405">
       <c r="A53" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>973</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>974</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -34834,16 +34831,16 @@
     </row>
     <row r="54" spans="1:5" ht="75">
       <c r="A54" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>977</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>978</v>
       </c>
       <c r="E54" s="9">
         <v>0.33</v>
@@ -34851,16 +34848,16 @@
     </row>
     <row r="55" spans="1:5" ht="135">
       <c r="A55" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C55" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>980</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>941</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>981</v>
       </c>
       <c r="E55" s="9">
         <v>0.33</v>
@@ -34868,10 +34865,10 @@
     </row>
     <row r="56" spans="1:5" ht="300">
       <c r="A56" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>982</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>983</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -34881,16 +34878,16 @@
     </row>
     <row r="57" spans="1:5" ht="135">
       <c r="A57" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>984</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>976</v>
-      </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>985</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>986</v>
       </c>
       <c r="E57" s="9">
         <v>0.33</v>
@@ -34898,10 +34895,10 @@
     </row>
     <row r="58" spans="1:5" ht="315">
       <c r="A58" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>987</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>988</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -34911,10 +34908,10 @@
     </row>
     <row r="59" spans="1:5" ht="255">
       <c r="A59" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>989</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>990</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -34927,13 +34924,13 @@
         <v>209</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>992</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>993</v>
       </c>
       <c r="E60" s="9">
         <v>0.5</v>
@@ -34941,16 +34938,16 @@
     </row>
     <row r="61" spans="1:5" ht="30">
       <c r="A61" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>996</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>997</v>
       </c>
       <c r="E61" s="9">
         <v>0.33</v>
@@ -34958,10 +34955,10 @@
     </row>
     <row r="62" spans="1:5" ht="409.5">
       <c r="A62" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>998</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>999</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -34971,10 +34968,10 @@
     </row>
     <row r="63" spans="1:5" ht="409.5">
       <c r="A63" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>1000</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>1001</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -34984,16 +34981,16 @@
     </row>
     <row r="64" spans="1:5" ht="45">
       <c r="A64" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="C64" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>1003</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>1004</v>
       </c>
       <c r="E64" s="9">
         <v>0.33</v>
@@ -35001,16 +34998,16 @@
     </row>
     <row r="65" spans="1:5" ht="45">
       <c r="A65" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>1005</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>1007</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>1008</v>
       </c>
       <c r="E65" s="9">
         <v>0.33</v>
@@ -35018,10 +35015,10 @@
     </row>
     <row r="66" spans="1:5" ht="165">
       <c r="A66" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>1009</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>1010</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -35031,16 +35028,16 @@
     </row>
     <row r="67" spans="1:5" ht="45">
       <c r="A67" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>1012</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>996</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>1013</v>
       </c>
       <c r="E67" s="9">
         <v>0.33</v>
@@ -35048,10 +35045,10 @@
     </row>
     <row r="68" spans="1:5" ht="409.5">
       <c r="A68" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>1014</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>1015</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -35061,16 +35058,16 @@
     </row>
     <row r="69" spans="1:5" ht="75">
       <c r="A69" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="C69" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>1017</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>941</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>1018</v>
       </c>
       <c r="E69" s="9">
         <v>0.33</v>
@@ -35078,10 +35075,10 @@
     </row>
     <row r="70" spans="1:5" ht="210">
       <c r="A70" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>1019</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>1020</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -35091,10 +35088,10 @@
     </row>
     <row r="71" spans="1:5" ht="270">
       <c r="A71" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>1021</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>1022</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -35104,10 +35101,10 @@
     </row>
     <row r="72" spans="1:5" ht="390">
       <c r="A72" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>1023</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>1024</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -35117,16 +35114,16 @@
     </row>
     <row r="73" spans="1:5" ht="105">
       <c r="A73" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>1026</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>1027</v>
       </c>
       <c r="E73" s="9">
         <v>0.33</v>
@@ -35134,10 +35131,10 @@
     </row>
     <row r="74" spans="1:5" ht="105">
       <c r="A74" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>1028</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>1029</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -35147,16 +35144,16 @@
     </row>
     <row r="75" spans="1:5" ht="60">
       <c r="A75" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>1031</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>1032</v>
       </c>
       <c r="E75" s="9">
         <v>0.33</v>
@@ -35164,10 +35161,10 @@
     </row>
     <row r="76" spans="1:5" ht="150">
       <c r="A76" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>1033</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>1034</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -35177,16 +35174,16 @@
     </row>
     <row r="77" spans="1:5" ht="90">
       <c r="A77" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>1035</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>1036</v>
-      </c>
       <c r="C77" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E77" s="9">
         <v>0.33</v>
@@ -35194,10 +35191,10 @@
     </row>
     <row r="78" spans="1:5" ht="165">
       <c r="A78" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>1037</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>1038</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -35207,10 +35204,10 @@
     </row>
     <row r="79" spans="1:5" ht="390">
       <c r="A79" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>1039</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>1040</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -35220,10 +35217,10 @@
     </row>
     <row r="80" spans="1:5" ht="30">
       <c r="A80" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>1041</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>1042</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -35254,2884 +35251,2884 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1043</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1044</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" s="9" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="9" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
       <c r="A5" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
       <c r="A6" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
       <c r="A7" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="9" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>1289</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>1290</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
       <c r="A12" s="14" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
       <c r="A13" s="14" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30">
       <c r="A14" s="9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30">
       <c r="A15" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
       <c r="A16" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30">
       <c r="A17" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="A18" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30">
       <c r="A20" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30">
       <c r="A23" s="9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="60">
       <c r="A25" s="12" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60">
       <c r="A26" s="12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="60">
       <c r="A27" s="12" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60">
       <c r="A28" s="12" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60">
       <c r="A29" s="12" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="60">
       <c r="A30" s="12" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="60">
       <c r="A31" s="12" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="60">
       <c r="A32" s="12" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="60">
       <c r="A33" s="12" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="60">
       <c r="A34" s="12" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="60">
       <c r="A35" s="12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="60">
       <c r="A36" s="12" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="60">
       <c r="A37" s="12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="60">
       <c r="A38" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="60">
       <c r="A39" s="12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="60">
       <c r="A42" s="12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30">
       <c r="A43" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30">
       <c r="A44" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30">
       <c r="A45" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30">
       <c r="A46" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30">
       <c r="A48" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30">
       <c r="A49" s="9" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30">
       <c r="A50" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>1091</v>
-      </c>
       <c r="C50" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="45">
       <c r="A51" s="12" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="45">
       <c r="A52" s="12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="45">
       <c r="A53" s="12" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="45">
       <c r="A54" s="12" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="45">
       <c r="A55" s="12" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="45">
       <c r="A56" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="45">
       <c r="A57" s="12" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="45">
       <c r="A58" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="45">
       <c r="A59" s="12" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="45">
       <c r="A60" s="12" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="45">
       <c r="A61" s="12" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="45">
       <c r="A62" s="12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="45">
       <c r="A63" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="12" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="45">
       <c r="A65" s="12" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="45">
       <c r="A66" s="12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="45">
       <c r="A67" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="45">
       <c r="A68" s="12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="45">
       <c r="A70" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="45">
       <c r="A71" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="45">
       <c r="A72" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="45">
       <c r="A73" s="9" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="45">
       <c r="A74" s="9" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="45">
       <c r="A75" s="9" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="45">
       <c r="A76" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="45">
       <c r="A77" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="45">
       <c r="A78" s="9" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="45">
       <c r="A79" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="45">
       <c r="A80" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="45">
       <c r="A81" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="45">
       <c r="A82" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="45">
       <c r="A83" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45">
       <c r="A84" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="45">
       <c r="A85" s="9" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="45">
       <c r="A86" s="9" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="45">
       <c r="A87" s="9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="45">
       <c r="A88" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="45">
       <c r="A89" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="45">
       <c r="A90" s="9" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="45">
       <c r="A91" s="9" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="45">
       <c r="A92" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="45">
       <c r="A93" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="45">
       <c r="A94" s="9" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="45">
       <c r="A95" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="45">
       <c r="A96" s="9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="45">
       <c r="A97" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="45">
       <c r="A98" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="9" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="45">
       <c r="A102" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>1143</v>
-      </c>
       <c r="C102" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="12" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="12" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="12" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="12" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="12" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="12" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="12" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>1155</v>
-      </c>
       <c r="C113" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="30">
       <c r="A114" s="12" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="30">
       <c r="A115" s="12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30">
       <c r="A116" s="12" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="30">
       <c r="A117" s="12" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30">
       <c r="A118" s="12" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30">
       <c r="A119" s="12" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="30">
       <c r="A120" s="12" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="30">
       <c r="A121" s="12" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="30">
       <c r="A122" s="12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30">
       <c r="A123" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="30">
       <c r="A124" s="12" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30">
       <c r="A125" s="12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="12" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="12" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="12" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="30">
       <c r="A129" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="30">
       <c r="A130" s="12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="30">
       <c r="A131" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="9" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="9" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="30">
       <c r="A135" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30">
       <c r="A136" s="12" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="30">
       <c r="A137" s="12" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="30">
       <c r="A138" s="12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="30">
       <c r="A139" s="12" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30">
       <c r="A140" s="12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30">
       <c r="A141" s="12" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="12" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="60">
       <c r="A143" s="12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="60">
       <c r="A144" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="60">
       <c r="A145" s="12" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="60">
       <c r="A146" s="12" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="60">
       <c r="A147" s="12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="60">
       <c r="A148" s="12" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="60">
       <c r="A149" s="12" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="60">
       <c r="A150" s="12" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="12" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="12" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="45">
       <c r="A153" s="12" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="45">
       <c r="A154" s="12" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="30">
       <c r="A155" s="12" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="30">
       <c r="A156" s="12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="30">
       <c r="A157" s="12" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="30">
       <c r="A158" s="12" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="30">
       <c r="A159" s="12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="B159" s="7" t="s">
-        <v>1197</v>
-      </c>
       <c r="C159" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="30">
       <c r="A160" s="12" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="30">
       <c r="A161" s="12" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="30">
       <c r="A162" s="12" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="30">
       <c r="A163" s="12" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="30">
       <c r="A164" s="12" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="30">
       <c r="A165" s="12" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="45">
       <c r="A166" s="12" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="45">
       <c r="A167" s="12" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="45">
       <c r="A168" s="12" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="45">
       <c r="A169" s="12" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="45">
       <c r="A170" s="12" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="45">
       <c r="A171" s="12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>1210</v>
-      </c>
       <c r="C171" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="30">
       <c r="A172" s="12" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="30">
       <c r="A173" s="12" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30">
       <c r="A174" s="12" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="30">
       <c r="A175" s="12" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="30">
       <c r="A176" s="12" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="30">
       <c r="A177" s="12" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="30">
       <c r="A178" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B178" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="B178" s="7" t="s">
-        <v>1218</v>
-      </c>
       <c r="C178" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="12" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="12" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="12" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="12" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="12" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>1223</v>
       </c>
-      <c r="B183" s="7" t="s">
-        <v>1224</v>
-      </c>
       <c r="C183" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="45">
       <c r="A184" s="12" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="45">
       <c r="A185" s="12" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="45">
       <c r="A186" s="12" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="45">
       <c r="A187" s="12" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="45">
       <c r="A188" s="12" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="45">
       <c r="A189" s="12" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="B189" s="7" t="s">
-        <v>1231</v>
-      </c>
       <c r="C189" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="45">
       <c r="A190" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="45">
       <c r="A191" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="45">
       <c r="A192" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="45">
       <c r="A193" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="45">
       <c r="A194" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="45">
       <c r="A195" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="45">
       <c r="A196" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="45">
       <c r="A197" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="45">
       <c r="A199" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="45">
       <c r="A200" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="45">
       <c r="A201" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="30">
       <c r="A206" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="4" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="45">
       <c r="A223" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="45">
       <c r="A224" s="15" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B225" s="7" t="s">
         <v>1451</v>
       </c>
-      <c r="B225" s="7" t="s">
-        <v>1452</v>
-      </c>
       <c r="C225" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="30">
       <c r="A226" s="15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="30">
       <c r="A227" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="30">
       <c r="A228" s="15" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="30">
       <c r="A229" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="30">
       <c r="A230" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="30">
       <c r="A231" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="30">
       <c r="A232" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B232" s="8" t="s">
         <v>1459</v>
       </c>
-      <c r="B232" s="8" t="s">
-        <v>1460</v>
-      </c>
       <c r="C232" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="15" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="30">
       <c r="A237" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="30">
       <c r="A238" s="15" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B238" s="8" t="s">
         <v>1524</v>
       </c>
-      <c r="B238" s="8" t="s">
-        <v>1525</v>
-      </c>
       <c r="C238" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="4" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B241" s="8" t="s">
         <v>1599</v>
       </c>
-      <c r="B241" s="8" t="s">
-        <v>1600</v>
-      </c>
       <c r="C241" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="4" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B244" s="8" t="s">
         <v>1603</v>
       </c>
-      <c r="B244" s="8" t="s">
-        <v>1604</v>
-      </c>
       <c r="C244" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="4" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="4" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B247" s="8" t="s">
         <v>1607</v>
       </c>
-      <c r="B247" s="8" t="s">
-        <v>1608</v>
-      </c>
       <c r="C247" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="4" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="4" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B255" s="8" t="s">
         <v>1615</v>
       </c>
-      <c r="B255" s="8" t="s">
-        <v>1616</v>
-      </c>
       <c r="C255" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="4" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B260" s="8" t="s">
         <v>1621</v>
       </c>
-      <c r="B260" s="8" t="s">
-        <v>1622</v>
-      </c>
       <c r="C260" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B261" s="8" t="s">
         <v>1623</v>
       </c>
-      <c r="B261" s="8" t="s">
-        <v>1624</v>
-      </c>
       <c r="C261" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="8" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -38144,8 +38141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38159,44 +38156,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>251</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>1633</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1640</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" s="9" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>1645</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1646</v>
       </c>
     </row>
   </sheetData>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5755A-3C6F-4AFE-828F-1FF235395A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED1A124-EA98-41ED-8EC2-531DC0654775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$C$262</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$395</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$608</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$408</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$655</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6047" uniqueCount="1714">
   <si>
     <t>faction</t>
   </si>
@@ -5192,6 +5192,132 @@
   </si>
   <si>
     <t>['[isengard] warg_rider', '[isengard] orc_warrior']</t>
+  </si>
+  <si>
+    <t>OPT0636</t>
+  </si>
+  <si>
+    <t>OPT0637</t>
+  </si>
+  <si>
+    <t>OPT0638</t>
+  </si>
+  <si>
+    <t>OPT0639</t>
+  </si>
+  <si>
+    <t>OPT0640</t>
+  </si>
+  <si>
+    <t>OPT0641</t>
+  </si>
+  <si>
+    <t>OPT0642</t>
+  </si>
+  <si>
+    <t>OPT0643</t>
+  </si>
+  <si>
+    <t>OPT0644</t>
+  </si>
+  <si>
+    <t>OPT0645</t>
+  </si>
+  <si>
+    <t>OPT0646</t>
+  </si>
+  <si>
+    <t>OPT0647</t>
+  </si>
+  <si>
+    <t>OPT0648</t>
+  </si>
+  <si>
+    <t>OPT0649</t>
+  </si>
+  <si>
+    <t>OPT0650</t>
+  </si>
+  <si>
+    <t>OPT0651</t>
+  </si>
+  <si>
+    <t>OPT0652</t>
+  </si>
+  <si>
+    <t>OPT0653</t>
+  </si>
+  <si>
+    <t>OPT0654</t>
+  </si>
+  <si>
+    <t>compulsory</t>
+  </si>
+  <si>
+    <t>This force must contain Faramir.</t>
+  </si>
+  <si>
+    <t>[rangers_of_ithilien] smeagol</t>
+  </si>
+  <si>
+    <t>['[rangers_of_ithilien] frodo_baggins', '[rangers_of_ithilien] samwise_gamgee']</t>
+  </si>
+  <si>
+    <t>Smeagol may only be included if your force also contains both Frodo and Sam.</t>
+  </si>
+  <si>
+    <t>['[rangers_of_ithilien] frodo_baggins']</t>
+  </si>
+  <si>
+    <t>Sam may only be included if your force also contains both Frodo.</t>
+  </si>
+  <si>
+    <t>[rangers_of_Ithilien] samwise_gamgee</t>
+  </si>
+  <si>
+    <t>[rangers_of_ithilien] frodo_baggins</t>
+  </si>
+  <si>
+    <t>[rangers_of_ithilien] madril</t>
+  </si>
+  <si>
+    <t>['[rangers_of_ithilien] osgiliath_veteran', '[rangers_of_ithilien] warrior_of_minas_tirith', '[rangers_of_ithilien] ranger_of_gondor_free_bow']</t>
+  </si>
+  <si>
+    <t>[rangers_of_ithilien] faramir</t>
+  </si>
+  <si>
+    <t>['[rangers_of_ithilien] osgiliath_veteran', '[rangers_of_ithilien] warrior_of_minas_tirith', '[rangers_of_ithilien] ranger_of_gondor_free_bow', '[rangers_of_ithilien] frodo_baggins', '[rangers_of_ithilien] samwise_gamgee', '[rangers_of_ithilien] smeagol']</t>
+  </si>
+  <si>
+    <t>[rangers_of_ithilien] anborn</t>
+  </si>
+  <si>
+    <t>[rangers_of_ithilien] mablung</t>
+  </si>
+  <si>
+    <t>[rangers_of_ithilien] damrod</t>
+  </si>
+  <si>
+    <t>['[rangers_of_ithilien] samwise_gamgee', '[rangers_of_ithilien] smeagol']</t>
+  </si>
+  <si>
+    <t>[rangers_of_ithilien] samwise_gamgee</t>
+  </si>
+  <si>
+    <t>['[rangers_of_ithilien] frodo_baggins', '[rangers_of_ithilien] smeagol']</t>
+  </si>
+  <si>
+    <t>[rangers_of_ithilien] captain_of_minas_tirith</t>
+  </si>
+  <si>
+    <t>['[rangers_of_ithilien] osgiliath_veteran', '[rangers_of_ithilien] warrior_of_minas_tirith', '[rangers_of_ithilien] ranger_of_gondor']</t>
+  </si>
+  <si>
+    <t>['[rangers_of_ithilien] faramir']</t>
+  </si>
+  <si>
+    <t>[rangers_of_ithilien] ranger_of_gondor_free_bow</t>
   </si>
 </sst>
 </file>
@@ -5328,7 +5454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5379,6 +5505,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5693,26 +5820,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J395"/>
+  <dimension ref="A1:J408"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A417" sqref="A417"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A406" sqref="A406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5748,7 +5874,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A65" si="0">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C2, " ", "_")), "] ", LOWER(SUBSTITUTE(E2, " ", "_")))</f>
         <v>[angmar] shade</v>
@@ -5781,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] wild_warg_chieftain</v>
@@ -5814,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] barrow-wight</v>
@@ -5847,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_captain</v>
@@ -5880,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] golfimbul</v>
@@ -5913,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] witch_king</v>
@@ -5946,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] gulavhar</v>
@@ -5979,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_dwimmerlaik</v>
@@ -6012,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_tainted</v>
@@ -6045,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] buhrdur</v>
@@ -6078,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_shaman</v>
@@ -6111,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] cave_troll</v>
@@ -6144,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] dead_marsh_spectre</v>
@@ -6177,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_warg_rider</v>
@@ -6210,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] wild_warg</v>
@@ -6243,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_warrior</v>
@@ -6276,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_troll_chieftan</v>
@@ -6309,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] black_numenorean_marshall</v>
@@ -6342,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] ringwraith</v>
@@ -6375,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_taskmaster</v>
@@ -6408,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_captain</v>
@@ -6441,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] sauron</v>
@@ -6474,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] witch_king</v>
@@ -6507,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] shelob</v>
@@ -6540,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_drummer</v>
@@ -6573,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_shaman</v>
@@ -6606,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_war_catapult</v>
@@ -6639,7 +6765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_siege_bow</v>
@@ -6672,7 +6798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_troll</v>
@@ -6705,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] morgul_knight</v>
@@ -6738,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] warg_rider</v>
@@ -6771,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] black_numenorean</v>
@@ -6804,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_tracker</v>
@@ -6837,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_warrior</v>
@@ -6870,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[halls_of_thranduil] thranduil</v>
@@ -6903,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] thrydan_wolfsbane</v>
@@ -6936,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] gorulf_ironskin</v>
@@ -6969,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] ugluk</v>
@@ -7002,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] vrasku</v>
@@ -7035,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] frida_tallspear</v>
@@ -7068,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] mauhur</v>
@@ -7101,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_captain</v>
@@ -7134,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_scout_captain</v>
@@ -7167,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_chieftan</v>
@@ -7200,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] wild_man_oathmaker</v>
@@ -7233,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] sharku</v>
@@ -7266,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] snaga</v>
@@ -7299,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] orc_captain</v>
@@ -7332,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] saruman</v>
@@ -7365,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] lurtz</v>
@@ -7398,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_drummer</v>
@@ -7431,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] grima</v>
@@ -7464,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_shaman</v>
@@ -7497,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] isengard_assault_ballista</v>
@@ -7530,7 +7656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] isengard_troll</v>
@@ -7563,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_demolition_team</v>
@@ -7596,7 +7722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] crebain</v>
@@ -7629,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_berserker</v>
@@ -7662,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] feral_uruk-hai</v>
@@ -7695,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_horseman</v>
@@ -7728,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_huscarl</v>
@@ -7761,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] warg_rider</v>
@@ -7794,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_warrior</v>
@@ -7827,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_scout</v>
@@ -7860,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="4" t="str">
         <f t="shared" ref="A66:A129" si="1">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C66, " ", "_")), "] ", LOWER(SUBSTITUTE(E66, " ", "_")))</f>
         <v>[isengard] dunlending_warrior</v>
@@ -7893,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10">
       <c r="A67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[isengard] wild_man_of_dunland</v>
@@ -7926,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10">
       <c r="A68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[isengard] orc_warrior</v>
@@ -7959,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10">
       <c r="A69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] orophin</v>
@@ -7992,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10">
       <c r="A70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] rumil</v>
@@ -8025,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10">
       <c r="A71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_captain</v>
@@ -8058,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10">
       <c r="A72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] haldir</v>
@@ -8091,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10">
       <c r="A73" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_captain</v>
@@ -8124,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10">
       <c r="A74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadriel</v>
@@ -8157,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10">
       <c r="A75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] celeborn</v>
@@ -8190,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10">
       <c r="A76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_stormcaller</v>
@@ -8223,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10">
       <c r="A77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_sentinel</v>
@@ -8256,7 +8382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10">
       <c r="A78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_knight</v>
@@ -8289,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10">
       <c r="A79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] guard_of_the_galadhrim_court</v>
@@ -8322,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10">
       <c r="A80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_warrior</v>
@@ -8355,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1">
+    <row r="81" spans="1:10">
       <c r="A81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_warrior</v>
@@ -8388,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10">
       <c r="A82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] ingold</v>
@@ -8421,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10">
       <c r="A83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] irolas</v>
@@ -8454,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10">
       <c r="A84" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] knight_of_the_white_tower</v>
@@ -8487,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10">
       <c r="A85" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] king_of_men</v>
@@ -8520,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10">
       <c r="A86" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] cirion</v>
@@ -8553,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1">
+    <row r="87" spans="1:10">
       <c r="A87" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] madril</v>
@@ -8586,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10">
       <c r="A88" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] captain_of_minas_tirith</v>
@@ -8619,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10">
       <c r="A89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] aragorn,_king_elessar</v>
@@ -8652,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10">
       <c r="A90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] gandalf_the_white</v>
@@ -8685,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10">
       <c r="A91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] boromir</v>
@@ -8718,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10">
       <c r="A92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] faramir</v>
@@ -8751,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10">
       <c r="A93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] hurin</v>
@@ -8784,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10">
       <c r="A94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] denethor</v>
@@ -8817,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1">
+    <row r="95" spans="1:10">
       <c r="A95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] peregrin_took</v>
@@ -8850,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10">
       <c r="A96" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] anborn</v>
@@ -8883,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10">
       <c r="A97" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] mablung</v>
@@ -8916,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10">
       <c r="A98" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] beregond</v>
@@ -8949,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10">
       <c r="A99" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] damrod</v>
@@ -8982,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1">
+    <row r="100" spans="1:10">
       <c r="A100" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] gondor_battlecry_trebuchet</v>
@@ -9015,7 +9141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10">
       <c r="A101" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] avenger_bolt_thrower</v>
@@ -9048,7 +9174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10">
       <c r="A102" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] knight_of_minas_tirith</v>
@@ -9081,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1">
+    <row r="103" spans="1:10">
       <c r="A103" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] guard_of_the_fountain_court</v>
@@ -9114,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1">
+    <row r="104" spans="1:10">
       <c r="A104" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] citadel_guard</v>
@@ -9147,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1">
+    <row r="105" spans="1:10">
       <c r="A105" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] osgiliath_veteran</v>
@@ -9180,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1">
+    <row r="106" spans="1:10">
       <c r="A106" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] ranger_of_gondor</v>
@@ -9213,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1">
+    <row r="107" spans="1:10">
       <c r="A107" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] warrior_of_minas_tirith</v>
@@ -9246,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1">
+    <row r="108" spans="1:10">
       <c r="A108" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] great_beast_of_gorgoroth</v>
@@ -9279,7 +9405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1">
+    <row r="109" spans="1:10">
       <c r="A109" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] mordor_troll_chieftan</v>
@@ -9312,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1">
+    <row r="110" spans="1:10">
       <c r="A110" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] shagrat</v>
@@ -9345,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1">
+    <row r="111" spans="1:10">
       <c r="A111" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] goroth</v>
@@ -9378,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1">
+    <row r="112" spans="1:10">
       <c r="A112" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] muzgur</v>
@@ -9411,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1">
+    <row r="113" spans="1:10">
       <c r="A113" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] black_numenorean_marshall</v>
@@ -9444,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1">
+    <row r="114" spans="1:10">
       <c r="A114" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] captain_of_the_black_guard</v>
@@ -9477,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1">
+    <row r="115" spans="1:10">
       <c r="A115" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] guritz</v>
@@ -9510,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1">
+    <row r="116" spans="1:10">
       <c r="A116" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] kardush</v>
@@ -9543,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1">
+    <row r="117" spans="1:10">
       <c r="A117" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gothmog's_enforcer</v>
@@ -9576,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1">
+    <row r="118" spans="1:10">
       <c r="A118" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] zagdush</v>
@@ -9609,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1">
+    <row r="119" spans="1:10">
       <c r="A119" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gorbag</v>
@@ -9642,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1">
+    <row r="120" spans="1:10">
       <c r="A120" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] mordor_uruk-hai_captain</v>
@@ -9675,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1">
+    <row r="121" spans="1:10">
       <c r="A121" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] ringwraith</v>
@@ -9708,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1">
+    <row r="122" spans="1:10">
       <c r="A122" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] grishnak</v>
@@ -9741,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1">
+    <row r="123" spans="1:10">
       <c r="A123" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] morannon_orc_captain</v>
@@ -9774,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1">
+    <row r="124" spans="1:10">
       <c r="A124" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] orc_taskmaster</v>
@@ -9807,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1">
+    <row r="125" spans="1:10">
       <c r="A125" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] orc_captain</v>
@@ -9840,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1">
+    <row r="126" spans="1:10">
       <c r="A126" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] witch_king</v>
@@ -9873,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1">
+    <row r="127" spans="1:10">
       <c r="A127" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gothmog</v>
@@ -9906,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1">
+    <row r="128" spans="1:10">
       <c r="A128" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] khamul</v>
@@ -9939,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1">
+    <row r="129" spans="1:10">
       <c r="A129" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] the_betrayer</v>
@@ -9972,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1">
+    <row r="130" spans="1:10">
       <c r="A130" s="4" t="str">
         <f t="shared" ref="A130:A193" si="2">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C130, " ", "_")), "] ", LOWER(SUBSTITUTE(E130, " ", "_")))</f>
         <v>[mordor] the_dark_marshall</v>
@@ -10005,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1">
+    <row r="131" spans="1:10">
       <c r="A131" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_knight_of_umbar</v>
@@ -10038,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1">
+    <row r="132" spans="1:10">
       <c r="A132" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_shadow_lord</v>
@@ -10071,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1">
+    <row r="133" spans="1:10">
       <c r="A133" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_undying</v>
@@ -10104,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1">
+    <row r="134" spans="1:10">
       <c r="A134" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_dwimmerlaik</v>
@@ -10137,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1">
+    <row r="135" spans="1:10">
       <c r="A135" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_tainted</v>
@@ -10170,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1">
+    <row r="136" spans="1:10">
       <c r="A136" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] razgush</v>
@@ -10203,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1">
+    <row r="137" spans="1:10">
       <c r="A137" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mouth_of_sauron</v>
@@ -10236,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1">
+    <row r="138" spans="1:10">
       <c r="A138" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] shelob</v>
@@ -10269,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1">
+    <row r="139" spans="1:10">
       <c r="A139" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_guard_drummer</v>
@@ -10302,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1">
+    <row r="140" spans="1:10">
       <c r="A140" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_drummer</v>
@@ -10335,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1">
+    <row r="141" spans="1:10">
       <c r="A141" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_shaman</v>
@@ -10368,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1">
+    <row r="142" spans="1:10">
       <c r="A142" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_war_catapult</v>
@@ -10401,7 +10527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1">
+    <row r="143" spans="1:10">
       <c r="A143" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_siege_bow</v>
@@ -10434,7 +10560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1">
+    <row r="144" spans="1:10">
       <c r="A144" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_troll</v>
@@ -10467,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1">
+    <row r="145" spans="1:10">
       <c r="A145" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morgul_knight</v>
@@ -10500,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1">
+    <row r="146" spans="1:10">
       <c r="A146" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_guard_of_barad-dur</v>
@@ -10533,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1">
+    <row r="147" spans="1:10">
       <c r="A147" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] warg_rider</v>
@@ -10566,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1">
+    <row r="148" spans="1:10">
       <c r="A148" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morgul_stalker</v>
@@ -10599,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1">
+    <row r="149" spans="1:10">
       <c r="A149" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_numenorean</v>
@@ -10632,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1">
+    <row r="150" spans="1:10">
       <c r="A150" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_uruk-hai</v>
@@ -10665,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1">
+    <row r="151" spans="1:10">
       <c r="A151" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morannon_orc</v>
@@ -10698,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1">
+    <row r="152" spans="1:10">
       <c r="A152" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_warrior</v>
@@ -10731,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1">
+    <row r="153" spans="1:10">
       <c r="A153" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_tracker</v>
@@ -10764,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1">
+    <row r="154" spans="1:10">
       <c r="A154" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] druzhag</v>
@@ -10797,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1">
+    <row r="155" spans="1:10">
       <c r="A155" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] ashrak</v>
@@ -10830,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1">
+    <row r="156" spans="1:10">
       <c r="A156" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] groblog</v>
@@ -10863,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1">
+    <row r="157" spans="1:10">
       <c r="A157" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_captain</v>
@@ -10896,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1">
+    <row r="158" spans="1:10">
       <c r="A158" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_captain</v>
@@ -10929,7 +11055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1">
+    <row r="159" spans="1:10">
       <c r="A159" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] the_balrog</v>
@@ -10962,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1">
+    <row r="160" spans="1:10">
       <c r="A160" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] dragon</v>
@@ -10995,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1">
+    <row r="161" spans="1:10">
       <c r="A161" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] durburz</v>
@@ -11028,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1">
+    <row r="162" spans="1:10">
       <c r="A162" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] the_watcher_in_the_water</v>
@@ -11061,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1">
+    <row r="163" spans="1:10">
       <c r="A163" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] cave_drake</v>
@@ -11094,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1">
+    <row r="164" spans="1:10">
       <c r="A164" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_shaman</v>
@@ -11127,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1">
+    <row r="165" spans="1:10">
       <c r="A165" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_shaman</v>
@@ -11160,7 +11286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1">
+    <row r="166" spans="1:10">
       <c r="A166" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] dweller_in_the_dark</v>
@@ -11193,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1">
+    <row r="167" spans="1:10">
       <c r="A167" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_drummers</v>
@@ -11226,7 +11352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1">
+    <row r="168" spans="1:10">
       <c r="A168" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_drum</v>
@@ -11259,7 +11385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1">
+    <row r="169" spans="1:10">
       <c r="A169" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] cave_troll</v>
@@ -11292,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1">
+    <row r="170" spans="1:10">
       <c r="A170" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] bat_swarm</v>
@@ -11325,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1">
+    <row r="171" spans="1:10">
       <c r="A171" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] warg_marauder</v>
@@ -11358,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1">
+    <row r="172" spans="1:10">
       <c r="A172" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield</v>
@@ -11391,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1">
+    <row r="173" spans="1:10">
       <c r="A173" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_prowler</v>
@@ -11424,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1">
+    <row r="174" spans="1:10">
       <c r="A174" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] wild_warg</v>
@@ -11457,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1">
+    <row r="175" spans="1:10">
       <c r="A175" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_warrior</v>
@@ -11490,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1">
+    <row r="176" spans="1:10">
       <c r="A176" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] elladan_&amp;_elrohir</v>
@@ -11523,7 +11649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1">
+    <row r="177" spans="1:10">
       <c r="A177" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] erestor</v>
@@ -11556,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1">
+    <row r="178" spans="1:10">
       <c r="A178" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] cirdan</v>
@@ -11589,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1">
+    <row r="179" spans="1:10">
       <c r="A179" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_captain</v>
@@ -11622,7 +11748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1">
+    <row r="180" spans="1:10">
       <c r="A180" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] gildor_inglorion</v>
@@ -11655,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1">
+    <row r="181" spans="1:10">
       <c r="A181" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] lindir</v>
@@ -11688,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1">
+    <row r="182" spans="1:10">
       <c r="A182" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] arwen</v>
@@ -11721,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1">
+    <row r="183" spans="1:10">
       <c r="A183" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] elrond</v>
@@ -11754,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1">
+    <row r="184" spans="1:10">
       <c r="A184" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] gil-galad</v>
@@ -11787,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1">
+    <row r="185" spans="1:10">
       <c r="A185" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] glorfindel</v>
@@ -11820,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1">
+    <row r="186" spans="1:10">
       <c r="A186" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_stormcaller</v>
@@ -11853,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1">
+    <row r="187" spans="1:10">
       <c r="A187" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] rivendell_knight</v>
@@ -11886,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1">
+    <row r="188" spans="1:10">
       <c r="A188" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_warrior</v>
@@ -11919,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1">
+    <row r="189" spans="1:10">
       <c r="A189" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] wood_elf_warrior</v>
@@ -11952,7 +12078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1">
+    <row r="190" spans="1:10">
       <c r="A190" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] deorwine</v>
@@ -11985,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1">
+    <row r="191" spans="1:10">
       <c r="A191" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] erkenbrand</v>
@@ -12018,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1">
+    <row r="192" spans="1:10">
       <c r="A192" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] elfhelm</v>
@@ -12051,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1">
+    <row r="193" spans="1:10">
       <c r="A193" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] grimbold</v>
@@ -12084,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1">
+    <row r="194" spans="1:10">
       <c r="A194" s="4" t="str">
         <f t="shared" ref="A194:A257" si="3">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C194, " ", "_")), "] ", LOWER(SUBSTITUTE(E194, " ", "_")))</f>
         <v>[rohan] gamling</v>
@@ -12117,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1">
+    <row r="195" spans="1:10">
       <c r="A195" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] hama</v>
@@ -12150,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1">
+    <row r="196" spans="1:10">
       <c r="A196" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] captain_of_rohan</v>
@@ -12183,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1">
+    <row r="197" spans="1:10">
       <c r="A197" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] helm_hammerhand</v>
@@ -12216,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1">
+    <row r="198" spans="1:10">
       <c r="A198" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] theoden</v>
@@ -12249,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1">
+    <row r="199" spans="1:10">
       <c r="A199" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eorl_the_young</v>
@@ -12282,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1">
+    <row r="200" spans="1:10">
       <c r="A200" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eomer</v>
@@ -12315,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1">
+    <row r="201" spans="1:10">
       <c r="A201" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] theodred</v>
@@ -12348,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1">
+    <row r="202" spans="1:10">
       <c r="A202" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] aldor</v>
@@ -12381,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1">
+    <row r="203" spans="1:10">
       <c r="A203" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] haleth</v>
@@ -12414,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1">
+    <row r="204" spans="1:10">
       <c r="A204" s="4" t="str">
         <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C204, " ", "_")), "] ", LOWER(SUBSTITUTE(E204, " ", "_")))</f>
         <v>[rohan] meriadoc_brandybuck</v>
@@ -12447,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1">
+    <row r="205" spans="1:10">
       <c r="A205" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] dernhelm</v>
@@ -12480,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1">
+    <row r="206" spans="1:10">
       <c r="A206" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] king's_huntsman</v>
@@ -12513,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1">
+    <row r="207" spans="1:10">
       <c r="A207" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eowyn</v>
@@ -12546,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1">
+    <row r="208" spans="1:10">
       <c r="A208" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] son_of_eorl</v>
@@ -12579,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1">
+    <row r="209" spans="1:10">
       <c r="A209" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rider_of_rohan</v>
@@ -12612,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1">
+    <row r="210" spans="1:10">
       <c r="A210" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rohan_royal_guard</v>
@@ -12645,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1">
+    <row r="211" spans="1:10">
       <c r="A211" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rohan_outrider</v>
@@ -12678,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1">
+    <row r="212" spans="1:10">
       <c r="A212" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] warrior_of_rohan</v>
@@ -12711,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1">
+    <row r="213" spans="1:10">
       <c r="A213" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] herald_of_the_dead</v>
@@ -12744,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1">
+    <row r="214" spans="1:10">
       <c r="A214" s="4" t="s">
         <v>1626</v>
       </c>
@@ -12776,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1">
+    <row r="215" spans="1:10">
       <c r="A215" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] the_king_of_the_dead</v>
@@ -12809,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1">
+    <row r="216" spans="1:10">
       <c r="A216" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] rider_of_the_dead</v>
@@ -12842,7 +12968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1">
+    <row r="217" spans="1:10">
       <c r="A217" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] warrior_of_the_dead</v>
@@ -12875,7 +13001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1">
+    <row r="218" spans="1:10">
       <c r="A218" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] brorgir</v>
@@ -12908,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1">
+    <row r="219" spans="1:10">
       <c r="A219" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_war_priest</v>
@@ -12941,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1">
+    <row r="220" spans="1:10">
       <c r="A220" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_captain</v>
@@ -12974,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1">
+    <row r="221" spans="1:10">
       <c r="A221" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] the_dragon_emperor</v>
@@ -13007,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1">
+    <row r="222" spans="1:10">
       <c r="A222" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] amdur</v>
@@ -13040,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1">
+    <row r="223" spans="1:10">
       <c r="A223" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] khamul</v>
@@ -13073,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1">
+    <row r="224" spans="1:10">
       <c r="A224" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] rutabi</v>
@@ -13106,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1">
+    <row r="225" spans="1:10">
       <c r="A225" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_dragon_knight</v>
@@ -13139,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1">
+    <row r="226" spans="1:10">
       <c r="A226" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] rhunish_war_drake</v>
@@ -13172,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1">
+    <row r="227" spans="1:10">
       <c r="A227" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] black_dragon_kataphrakt</v>
@@ -13205,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1">
+    <row r="228" spans="1:10">
       <c r="A228" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_kataphrakt</v>
@@ -13238,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1">
+    <row r="229" spans="1:10">
       <c r="A229" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] dragon_cult_acolyte</v>
@@ -13271,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1">
+    <row r="230" spans="1:10">
       <c r="A230" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] black_dragon_warrior</v>
@@ -13304,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1">
+    <row r="231" spans="1:10">
       <c r="A231" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_warrior</v>
@@ -13337,7 +13463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1">
+    <row r="232" spans="1:10">
       <c r="A232" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] frodo_baggins</v>
@@ -13370,7 +13496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1">
+    <row r="233" spans="1:10">
       <c r="A233" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] samwise_gamgee</v>
@@ -13403,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1">
+    <row r="234" spans="1:10">
       <c r="A234" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] gandalf_the_grey</v>
@@ -13436,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1">
+    <row r="235" spans="1:10">
       <c r="A235" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] aragorn,_strider</v>
@@ -13469,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1">
+    <row r="236" spans="1:10">
       <c r="A236" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] legolas</v>
@@ -13502,7 +13628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1">
+    <row r="237" spans="1:10">
       <c r="A237" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] gimli</v>
@@ -13535,7 +13661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1">
+    <row r="238" spans="1:10">
       <c r="A238" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] boromir_of_gondor</v>
@@ -13568,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1">
+    <row r="239" spans="1:10">
       <c r="A239" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] smeagol</v>
@@ -13601,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1">
+    <row r="240" spans="1:10">
       <c r="A240" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] bill_the_pony</v>
@@ -13634,7 +13760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1">
+    <row r="241" spans="1:10">
       <c r="A241" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] meriadoc_brandybuck</v>
@@ -13667,7 +13793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1">
+    <row r="242" spans="1:10">
       <c r="A242" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] peregrin_took</v>
@@ -13700,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1">
+    <row r="243" spans="1:10">
       <c r="A243" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] captain_of_dol_amroth</v>
@@ -13733,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1">
+    <row r="244" spans="1:10">
       <c r="A244" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] prince_imrahil</v>
@@ -13766,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1">
+    <row r="245" spans="1:10">
       <c r="A245" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] forlong_the_fat</v>
@@ -13799,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1">
+    <row r="246" spans="1:10">
       <c r="A246" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] angbor_the_fearless</v>
@@ -13832,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1">
+    <row r="247" spans="1:10">
       <c r="A247" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] duinhir</v>
@@ -13865,7 +13991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1">
+    <row r="248" spans="1:10">
       <c r="A248" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] knight_of_dol_amroth</v>
@@ -13898,7 +14024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1">
+    <row r="249" spans="1:10">
       <c r="A249" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] axeman_of_lossarnach</v>
@@ -13931,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1">
+    <row r="250" spans="1:10">
       <c r="A250" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] man-at-arms_of_dol_amroth</v>
@@ -13964,7 +14090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1">
+    <row r="251" spans="1:10">
       <c r="A251" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] blackroot_vale_archer</v>
@@ -13997,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1">
+    <row r="252" spans="1:10">
       <c r="A252" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] clansman_of_lamedon</v>
@@ -14030,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1">
+    <row r="253" spans="1:10">
       <c r="A253" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] brorgir</v>
@@ -14063,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1">
+    <row r="254" spans="1:10">
       <c r="A254" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] easterling_war_priest</v>
@@ -14096,7 +14222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1">
+    <row r="255" spans="1:10">
       <c r="A255" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] easterling_captain</v>
@@ -14129,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1">
+    <row r="256" spans="1:10">
       <c r="A256" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] the_dragon_emperor</v>
@@ -14162,7 +14288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1">
+    <row r="257" spans="1:10">
       <c r="A257" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] rutabi</v>
@@ -14195,7 +14321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1">
+    <row r="258" spans="1:10">
       <c r="A258" s="4" t="str">
         <f t="shared" ref="A258:A321" si="4">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C258, " ", "_")), "] ", LOWER(SUBSTITUTE(E258, " ", "_")))</f>
         <v>[the_host_of_the_dragon_emperor] easterling_dragon_knight</v>
@@ -14228,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1">
+    <row r="259" spans="1:10">
       <c r="A259" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] rhunish_war_drake</v>
@@ -14261,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1">
+    <row r="260" spans="1:10">
       <c r="A260" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] easterling_kataphrakt</v>
@@ -14294,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1">
+    <row r="261" spans="1:10">
       <c r="A261" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] black_dragon_kataphrakt</v>
@@ -14327,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1">
+    <row r="262" spans="1:10">
       <c r="A262" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] dragon_cult_acolyte</v>
@@ -14360,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1">
+    <row r="263" spans="1:10">
       <c r="A263" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] easterling_warrior</v>
@@ -14393,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1">
+    <row r="264" spans="1:10">
       <c r="A264" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] black_dragon_warrior</v>
@@ -14426,7 +14552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1">
+    <row r="265" spans="1:10">
       <c r="A265" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] king's_champion</v>
@@ -14459,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1">
+    <row r="266" spans="1:10">
       <c r="A266" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] mardin</v>
@@ -14492,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1">
+    <row r="267" spans="1:10">
       <c r="A267" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_king</v>
@@ -14525,7 +14651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1">
+    <row r="268" spans="1:10">
       <c r="A268" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_captain</v>
@@ -14558,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1">
+    <row r="269" spans="1:10">
       <c r="A269" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] durin</v>
@@ -14591,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1">
+    <row r="270" spans="1:10">
       <c r="A270" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] shieldbearer</v>
@@ -14624,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1">
+    <row r="271" spans="1:10">
       <c r="A271" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ballista</v>
@@ -14657,7 +14783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1">
+    <row r="272" spans="1:10">
       <c r="A272" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] vault_warden_team</v>
@@ -14690,7 +14816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1">
+    <row r="273" spans="1:10">
       <c r="A273" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] iron_guard</v>
@@ -14723,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1">
+    <row r="274" spans="1:10">
       <c r="A274" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] khazad_guard</v>
@@ -14756,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1">
+    <row r="275" spans="1:10">
       <c r="A275" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ranger</v>
@@ -14789,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1">
+    <row r="276" spans="1:10">
       <c r="A276" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_warrior</v>
@@ -14822,7 +14948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1">
+    <row r="277" spans="1:10">
       <c r="A277" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] king's_champion</v>
@@ -14855,7 +14981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1">
+    <row r="278" spans="1:10">
       <c r="A278" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] floi_stonehand</v>
@@ -14888,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1">
+    <row r="279" spans="1:10">
       <c r="A279" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_king</v>
@@ -14921,7 +15047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1">
+    <row r="280" spans="1:10">
       <c r="A280" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_captain</v>
@@ -14954,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1">
+    <row r="281" spans="1:10">
       <c r="A281" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] balin</v>
@@ -14987,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1">
+    <row r="282" spans="1:10">
       <c r="A282" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] gimli</v>
@@ -15020,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1">
+    <row r="283" spans="1:10">
       <c r="A283" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] shieldbearer</v>
@@ -15053,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1">
+    <row r="284" spans="1:10">
       <c r="A284" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_ballista</v>
@@ -15086,7 +15212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1">
+    <row r="285" spans="1:10">
       <c r="A285" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] vault_warden_team</v>
@@ -15119,7 +15245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1">
+    <row r="286" spans="1:10">
       <c r="A286" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] iron_guard</v>
@@ -15152,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1">
+    <row r="287" spans="1:10">
       <c r="A287" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] khazad_guard</v>
@@ -15185,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1">
+    <row r="288" spans="1:10">
       <c r="A288" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_ranger</v>
@@ -15218,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1">
+    <row r="289" spans="1:10">
       <c r="A289" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_warrior</v>
@@ -15251,7 +15377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1">
+    <row r="290" spans="1:10">
       <c r="A290" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] herald_of_the_dead</v>
@@ -15284,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1">
+    <row r="291" spans="1:10">
       <c r="A291" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] aragorn,_strider</v>
@@ -15317,7 +15443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1">
+    <row r="292" spans="1:10">
       <c r="A292" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] the_king_of_the_dead</v>
@@ -15350,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1">
+    <row r="293" spans="1:10">
       <c r="A293" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] legolas</v>
@@ -15383,7 +15509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1">
+    <row r="294" spans="1:10">
       <c r="A294" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] gimli</v>
@@ -15416,7 +15542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1">
+    <row r="295" spans="1:10">
       <c r="A295" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] rider_of_the_dead</v>
@@ -15449,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1">
+    <row r="296" spans="1:10">
       <c r="A296" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] warrior_of_the_dead</v>
@@ -15482,7 +15608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1">
+    <row r="297" spans="1:10">
       <c r="A297" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] hasharin</v>
@@ -15515,7 +15641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1">
+    <row r="298" spans="1:10">
       <c r="A298" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_king</v>
@@ -15548,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1">
+    <row r="299" spans="1:10">
       <c r="A299" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_chieftan</v>
@@ -15581,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1">
+    <row r="300" spans="1:10">
       <c r="A300" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] suladan</v>
@@ -15614,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1">
+    <row r="301" spans="1:10">
       <c r="A301" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] the_golden_king</v>
@@ -15647,7 +15773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1">
+    <row r="302" spans="1:10">
       <c r="A302" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] the_betrayer</v>
@@ -15680,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1">
+    <row r="303" spans="1:10">
       <c r="A303" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] serpent_rider</v>
@@ -15713,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1">
+    <row r="304" spans="1:10">
       <c r="A304" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_raider</v>
@@ -15746,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1">
+    <row r="305" spans="1:10">
       <c r="A305" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] abrakhan_merchant_guard</v>
@@ -15779,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1">
+    <row r="306" spans="1:10">
       <c r="A306" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] watcher_of_karna</v>
@@ -15812,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1">
+    <row r="307" spans="1:10">
       <c r="A307" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] serpent_guard</v>
@@ -15845,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1">
+    <row r="308" spans="1:10">
       <c r="A308" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_warrior</v>
@@ -15878,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1">
+    <row r="309" spans="1:10">
       <c r="A309" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] gandalf_the_grey</v>
@@ -15911,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1">
+    <row r="310" spans="1:10">
       <c r="A310" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] baldo_tulpenny</v>
@@ -15944,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1">
+    <row r="311" spans="1:10">
       <c r="A311" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] bandobras_took</v>
@@ -15977,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1">
+    <row r="312" spans="1:10">
       <c r="A312" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] bilbo_baggins</v>
@@ -16010,7 +16136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1">
+    <row r="313" spans="1:10">
       <c r="A313" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] farmer_maggot</v>
@@ -16043,7 +16169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1">
+    <row r="314" spans="1:10">
       <c r="A314" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] farmer_tolman_cotton</v>
@@ -16076,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1">
+    <row r="315" spans="1:10">
       <c r="A315" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] folco_boffin</v>
@@ -16109,7 +16235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1">
+    <row r="316" spans="1:10">
       <c r="A316" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] fredegar_bolger</v>
@@ -16142,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1">
+    <row r="317" spans="1:10">
       <c r="A317" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] frodo_of_the_nine_fingers</v>
@@ -16175,7 +16301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1">
+    <row r="318" spans="1:10">
       <c r="A318" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] grip,_fang_and_wolf</v>
@@ -16208,7 +16334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1">
+    <row r="319" spans="1:10">
       <c r="A319" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] hamfast_'gaffer'_gamgee</v>
@@ -16241,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1">
+    <row r="320" spans="1:10">
       <c r="A320" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] hobbit_archer</v>
@@ -16274,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1">
+    <row r="321" spans="1:10">
       <c r="A321" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] hobbit_militia</v>
@@ -16307,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1">
+    <row r="322" spans="1:10">
       <c r="A322" s="4" t="str">
         <f t="shared" ref="A322:A385" si="5">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C322, " ", "_")), "] ", LOWER(SUBSTITUTE(E322, " ", "_")))</f>
         <v>[the_shire] holfoot_bracegirdle</v>
@@ -16340,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1">
+    <row r="323" spans="1:10">
       <c r="A323" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] lobelia_sackville-baggins</v>
@@ -16373,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1">
+    <row r="324" spans="1:10">
       <c r="A324" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] lotho_sackville-baggins</v>
@@ -16406,7 +16532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1">
+    <row r="325" spans="1:10">
       <c r="A325" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] meriadoc,_captain_of_the_shire</v>
@@ -16439,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1">
+    <row r="326" spans="1:10">
       <c r="A326" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] paladin_took</v>
@@ -16472,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1">
+    <row r="327" spans="1:10">
       <c r="A327" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] peregrin,_captain_of_the_shire</v>
@@ -16505,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1">
+    <row r="328" spans="1:10">
       <c r="A328" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] robin_smallburrow</v>
@@ -16538,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1">
+    <row r="329" spans="1:10">
       <c r="A329" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] rosie_cotton</v>
@@ -16571,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1">
+    <row r="330" spans="1:10">
       <c r="A330" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] samwise_the_brave</v>
@@ -16604,7 +16730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1">
+    <row r="331" spans="1:10">
       <c r="A331" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] will_whitfoot</v>
@@ -16637,7 +16763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1">
+    <row r="332" spans="1:10">
       <c r="A332" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] hobbit_shirriff</v>
@@ -16670,7 +16796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1">
+    <row r="333" spans="1:10">
       <c r="A333" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_arbalester</v>
@@ -16703,7 +16829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1">
+    <row r="334" spans="1:10">
       <c r="A334" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_bo'sun</v>
@@ -16736,7 +16862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1">
+    <row r="335" spans="1:10">
       <c r="A335" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_captain</v>
@@ -16769,7 +16895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1">
+    <row r="336" spans="1:10">
       <c r="A336" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_of_umbar</v>
@@ -16802,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1">
+    <row r="337" spans="1:10">
       <c r="A337" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_reaver</v>
@@ -16835,7 +16961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1">
+    <row r="338" spans="1:10">
       <c r="A338" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] dalamyr,_fleetmaster_of_umbar</v>
@@ -16868,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1">
+    <row r="339" spans="1:10">
       <c r="A339" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] delgamar,_gatemaster_of_umbar</v>
@@ -16901,7 +17027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1">
+    <row r="340" spans="1:10">
       <c r="A340" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] half_troll</v>
@@ -16934,7 +17060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1">
+    <row r="341" spans="1:10">
       <c r="A341" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_serpent_horde] haradrim_taskmaster</v>
@@ -17132,7 +17258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1">
+    <row r="347" spans="1:10">
       <c r="A347" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_king</v>
@@ -17165,7 +17291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1">
+    <row r="348" spans="1:10">
       <c r="A348" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_raider</v>
@@ -17198,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1">
+    <row r="349" spans="1:10">
       <c r="A349" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_tribesmaster</v>
@@ -17231,7 +17357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1">
+    <row r="350" spans="1:10">
       <c r="A350" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_warrior</v>
@@ -17264,7 +17390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1">
+    <row r="351" spans="1:10">
       <c r="A351" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_serpent_horde] raza,_fang_of_the_serpent</v>
@@ -17297,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1">
+    <row r="352" spans="1:10">
       <c r="A352" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] the_mumak_war_leader</v>
@@ -17330,7 +17456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1">
+    <row r="353" spans="1:10">
       <c r="A353" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] war_mumak_of_far_harad</v>
@@ -17363,7 +17489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1">
+    <row r="354" spans="1:10">
       <c r="A354" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_serpent_horde] war_mumak_of_harad</v>
@@ -17396,7 +17522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1">
+    <row r="355" spans="1:10">
       <c r="A355" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] the_knight_of_umbar</v>
@@ -17429,7 +17555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1">
+    <row r="356" spans="1:10">
       <c r="A356" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] hasharin</v>
@@ -17462,7 +17588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1">
+    <row r="357" spans="1:10">
       <c r="A357" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] black_numenorean_marshall</v>
@@ -17495,7 +17621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1">
+    <row r="358" spans="1:10">
       <c r="A358" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] black_numenorean</v>
@@ -17528,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1">
+    <row r="359" spans="1:10">
       <c r="A359" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] arathorn</v>
@@ -17561,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1">
+    <row r="360" spans="1:10">
       <c r="A360" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] arvedui,_last_king_of_arnor</v>
@@ -17594,7 +17720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1">
+    <row r="361" spans="1:10">
       <c r="A361" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] beechbone</v>
@@ -17627,7 +17753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1">
+    <row r="362" spans="1:10">
       <c r="A362" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] bill_ferny</v>
@@ -17660,7 +17786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1">
+    <row r="363" spans="1:10">
       <c r="A363" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] captain_of_arnor</v>
@@ -17693,7 +17819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1">
+    <row r="364" spans="1:10">
       <c r="A364" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] captain_of_numenor</v>
@@ -17726,7 +17852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1">
+    <row r="365" spans="1:10">
       <c r="A365" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] dunedain</v>
@@ -17759,7 +17885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1">
+    <row r="366" spans="1:10">
       <c r="A366" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] elendil</v>
@@ -17792,7 +17918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1">
+    <row r="367" spans="1:10">
       <c r="A367" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] ent</v>
@@ -17825,7 +17951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1">
+    <row r="368" spans="1:10">
       <c r="A368" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[wildmen_of_druadan] ghan-buri-ghan</v>
@@ -17858,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1">
+    <row r="369" spans="1:10">
       <c r="A369" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_misty_mountains] great_eagle</v>
@@ -17891,7 +18017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1">
+    <row r="370" spans="1:10">
       <c r="A370" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_misty_mountains] gwaihir</v>
@@ -17924,7 +18050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1">
+    <row r="371" spans="1:10">
       <c r="A371" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] halbarad</v>
@@ -17957,7 +18083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1">
+    <row r="372" spans="1:10">
       <c r="A372" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] harry_goatleaf</v>
@@ -17990,7 +18116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1">
+    <row r="373" spans="1:10">
       <c r="A373" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] isildur</v>
@@ -18023,7 +18149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1">
+    <row r="374" spans="1:10">
       <c r="A374" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] malbeth_the_seer</v>
@@ -18056,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1">
+    <row r="375" spans="1:10">
       <c r="A375" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] quickbeam</v>
@@ -18089,7 +18215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1">
+    <row r="376" spans="1:10">
       <c r="A376" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] ranger_of_the_north</v>
@@ -18122,7 +18248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1">
+    <row r="377" spans="1:10">
       <c r="A377" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] rowan_thistlewood,_ruffian_enforcer</v>
@@ -18155,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1">
+    <row r="378" spans="1:10">
       <c r="A378" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] ruffian</v>
@@ -18188,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1">
+    <row r="379" spans="1:10">
       <c r="A379" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] sharkey_and_worm</v>
@@ -18221,7 +18347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1">
+    <row r="380" spans="1:10">
       <c r="A380" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] sid_briarthorn,_ruffian_chief</v>
@@ -18254,7 +18380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1">
+    <row r="381" spans="1:10">
       <c r="A381" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] ted_sandyman</v>
@@ -18287,7 +18413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1">
+    <row r="382" spans="1:10">
       <c r="A382" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] treebeard</v>
@@ -18320,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1">
+    <row r="383" spans="1:10">
       <c r="A383" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] warrior_of_arnor</v>
@@ -18353,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1">
+    <row r="384" spans="1:10">
       <c r="A384" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] warrior_of_numenor</v>
@@ -18386,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1">
+    <row r="385" spans="1:10">
       <c r="A385" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[wildmen_of_druadan] woses_warrior</v>
@@ -18419,7 +18545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1">
+    <row r="386" spans="1:10">
       <c r="A386" s="4" t="str">
         <f t="shared" ref="A386:A389" si="6">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C386, " ", "_")), "] ", LOWER(SUBSTITUTE(E386, " ", "_")))</f>
         <v>[the_shire] dunedain</v>
@@ -18452,7 +18578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1">
+    <row r="387" spans="1:10">
       <c r="A387" s="4" t="str">
         <f t="shared" si="6"/>
         <v>[arnor] hobbit_archer</v>
@@ -18485,7 +18611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1">
+    <row r="388" spans="1:10">
       <c r="A388" s="4" t="str">
         <f t="shared" si="6"/>
         <v>[the_rangers] aragorn,_strider</v>
@@ -18518,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1">
+    <row r="389" spans="1:10">
       <c r="A389" s="4" t="str">
         <f t="shared" si="6"/>
         <v>[sharkey's_rogues] lotho_sackville-baggins</v>
@@ -18551,7 +18677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1">
+    <row r="390" spans="1:10">
       <c r="A390" s="4" t="s">
         <v>1621</v>
       </c>
@@ -18583,7 +18709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1">
+    <row r="391" spans="1:10">
       <c r="A391" s="4" t="s">
         <v>1620</v>
       </c>
@@ -18615,9 +18741,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1">
+    <row r="392" spans="1:10">
       <c r="A392" s="4" t="str">
-        <f t="shared" ref="A392:A395" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
+        <f t="shared" ref="A392:A408" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
         <v>[sharkey's_rogues] hobbit_militia</v>
       </c>
       <c r="B392" t="s">
@@ -18648,7 +18774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1">
+    <row r="393" spans="1:10">
       <c r="A393" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_fellowship] arwen</v>
@@ -18681,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1">
+    <row r="394" spans="1:10">
       <c r="A394" s="15" t="str">
         <f t="shared" si="7"/>
         <v>[rivendell] bilbo_baggins</v>
@@ -18702,7 +18828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1">
+    <row r="395" spans="1:10">
       <c r="A395" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rivendell] bilbo_baggins</v>
@@ -18735,14 +18861,436 @@
         <v>0</v>
       </c>
     </row>
+    <row r="396" spans="1:10">
+      <c r="A396" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] madril</v>
+      </c>
+      <c r="B396" t="s">
+        <v>211</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D396" t="s">
+        <v>71</v>
+      </c>
+      <c r="E396" t="s">
+        <v>90</v>
+      </c>
+      <c r="F396" t="s">
+        <v>10</v>
+      </c>
+      <c r="G396">
+        <v>55</v>
+      </c>
+      <c r="H396" t="b">
+        <v>0</v>
+      </c>
+      <c r="I396" t="b">
+        <v>1</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10">
+      <c r="A397" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] faramir</v>
+      </c>
+      <c r="B397" t="s">
+        <v>211</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D397" t="s">
+        <v>71</v>
+      </c>
+      <c r="E397" t="s">
+        <v>82</v>
+      </c>
+      <c r="F397" t="s">
+        <v>7</v>
+      </c>
+      <c r="G397">
+        <v>85</v>
+      </c>
+      <c r="H397" t="b">
+        <v>0</v>
+      </c>
+      <c r="I397" t="b">
+        <v>1</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10">
+      <c r="A398" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] anborn</v>
+      </c>
+      <c r="B398" t="s">
+        <v>211</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D398" t="s">
+        <v>71</v>
+      </c>
+      <c r="E398" t="s">
+        <v>72</v>
+      </c>
+      <c r="F398" t="s">
+        <v>22</v>
+      </c>
+      <c r="G398">
+        <v>35</v>
+      </c>
+      <c r="H398" t="b">
+        <v>0</v>
+      </c>
+      <c r="I398" t="b">
+        <v>1</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10">
+      <c r="A399" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] mablung</v>
+      </c>
+      <c r="B399" t="s">
+        <v>211</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D399" t="s">
+        <v>71</v>
+      </c>
+      <c r="E399" t="s">
+        <v>89</v>
+      </c>
+      <c r="F399" t="s">
+        <v>22</v>
+      </c>
+      <c r="G399">
+        <v>35</v>
+      </c>
+      <c r="H399" t="b">
+        <v>0</v>
+      </c>
+      <c r="I399" t="b">
+        <v>1</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10">
+      <c r="A400" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] damrod</v>
+      </c>
+      <c r="B400" t="s">
+        <v>211</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D400" t="s">
+        <v>71</v>
+      </c>
+      <c r="E400" t="s">
+        <v>80</v>
+      </c>
+      <c r="F400" t="s">
+        <v>22</v>
+      </c>
+      <c r="G400">
+        <v>25</v>
+      </c>
+      <c r="H400" t="b">
+        <v>0</v>
+      </c>
+      <c r="I400" t="b">
+        <v>1</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="A401" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] osgiliath_veteran</v>
+      </c>
+      <c r="B401" t="s">
+        <v>211</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D401" t="s">
+        <v>71</v>
+      </c>
+      <c r="E401" t="s">
+        <v>91</v>
+      </c>
+      <c r="F401" t="s">
+        <v>12</v>
+      </c>
+      <c r="G401">
+        <v>8</v>
+      </c>
+      <c r="H401" t="b">
+        <v>0</v>
+      </c>
+      <c r="I401" t="b">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
+      <c r="A402" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] ranger_of_gondor</v>
+      </c>
+      <c r="B402" t="s">
+        <v>211</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D402" t="s">
+        <v>71</v>
+      </c>
+      <c r="E402" t="s">
+        <v>92</v>
+      </c>
+      <c r="F402" t="s">
+        <v>12</v>
+      </c>
+      <c r="G402">
+        <v>8</v>
+      </c>
+      <c r="H402" t="b">
+        <v>1</v>
+      </c>
+      <c r="I402" t="b">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10">
+      <c r="A403" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] warrior_of_minas_tirith</v>
+      </c>
+      <c r="B403" t="s">
+        <v>211</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D403" t="s">
+        <v>71</v>
+      </c>
+      <c r="E403" t="s">
+        <v>93</v>
+      </c>
+      <c r="F403" t="s">
+        <v>12</v>
+      </c>
+      <c r="G403">
+        <v>7</v>
+      </c>
+      <c r="H403" t="b">
+        <v>0</v>
+      </c>
+      <c r="I403" t="b">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10">
+      <c r="A404" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] frodo_baggins</v>
+      </c>
+      <c r="B404" t="s">
+        <v>211</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D404" t="s">
+        <v>3</v>
+      </c>
+      <c r="E404" t="s">
+        <v>164</v>
+      </c>
+      <c r="F404" t="s">
+        <v>10</v>
+      </c>
+      <c r="G404">
+        <v>85</v>
+      </c>
+      <c r="H404" t="b">
+        <v>0</v>
+      </c>
+      <c r="I404" t="b">
+        <v>1</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10">
+      <c r="A405" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] samwise_gamgee</v>
+      </c>
+      <c r="B405" t="s">
+        <v>211</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D405" t="s">
+        <v>3</v>
+      </c>
+      <c r="E405" t="s">
+        <v>177</v>
+      </c>
+      <c r="F405" t="s">
+        <v>10</v>
+      </c>
+      <c r="G405">
+        <v>45</v>
+      </c>
+      <c r="H405" t="b">
+        <v>0</v>
+      </c>
+      <c r="I405" t="b">
+        <v>1</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] smeagol</v>
+      </c>
+      <c r="B406" t="s">
+        <v>211</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D406" t="s">
+        <v>3</v>
+      </c>
+      <c r="E406" t="s">
+        <v>183</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G406">
+        <v>30</v>
+      </c>
+      <c r="H406" t="b">
+        <v>0</v>
+      </c>
+      <c r="I406" t="b">
+        <v>1</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="A407" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B407" t="s">
+        <v>211</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D407" t="s">
+        <v>71</v>
+      </c>
+      <c r="E407" t="s">
+        <v>92</v>
+      </c>
+      <c r="F407" t="s">
+        <v>12</v>
+      </c>
+      <c r="G407">
+        <v>8</v>
+      </c>
+      <c r="H407" t="b">
+        <v>0</v>
+      </c>
+      <c r="I407" t="b">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10">
+      <c r="A408" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] captain_of_minas_tirith</v>
+      </c>
+      <c r="B408" t="s">
+        <v>211</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D408" t="s">
+        <v>71</v>
+      </c>
+      <c r="E408" t="s">
+        <v>77</v>
+      </c>
+      <c r="F408" t="s">
+        <v>10</v>
+      </c>
+      <c r="G408">
+        <v>50</v>
+      </c>
+      <c r="H408" t="b">
+        <v>0</v>
+      </c>
+      <c r="I408" t="b">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J395" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Variags of Khand"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J408" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J308">
     <sortCondition ref="C2:C308"/>
     <sortCondition ref="F2:F308"/>
@@ -18755,20 +19303,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <dimension ref="A1:H636"/>
+  <dimension ref="A1:H655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C587" sqref="C587"/>
+      <pane ySplit="1" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B658" sqref="B658"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -34113,8 +34661,457 @@
         <v>1</v>
       </c>
     </row>
+    <row r="637" spans="1:8">
+      <c r="A637" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C637" t="s">
+        <v>77</v>
+      </c>
+      <c r="D637" t="s">
+        <v>262</v>
+      </c>
+      <c r="E637">
+        <v>10</v>
+      </c>
+      <c r="F637" t="s">
+        <v>256</v>
+      </c>
+      <c r="G637">
+        <v>0</v>
+      </c>
+      <c r="H637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8">
+      <c r="A638" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C638" t="s">
+        <v>77</v>
+      </c>
+      <c r="D638" t="s">
+        <v>356</v>
+      </c>
+      <c r="E638">
+        <v>5</v>
+      </c>
+      <c r="G638">
+        <v>0</v>
+      </c>
+      <c r="H638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8">
+      <c r="A639" s="5" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C639" t="s">
+        <v>77</v>
+      </c>
+      <c r="D639" t="s">
+        <v>289</v>
+      </c>
+      <c r="E639">
+        <v>5</v>
+      </c>
+      <c r="G639">
+        <v>0</v>
+      </c>
+      <c r="H639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8">
+      <c r="A640" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C640" t="s">
+        <v>77</v>
+      </c>
+      <c r="D640" t="s">
+        <v>312</v>
+      </c>
+      <c r="E640">
+        <v>5</v>
+      </c>
+      <c r="G640">
+        <v>0</v>
+      </c>
+      <c r="H640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8">
+      <c r="A641" s="5" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C641" t="s">
+        <v>82</v>
+      </c>
+      <c r="D641" t="s">
+        <v>262</v>
+      </c>
+      <c r="E641">
+        <v>10</v>
+      </c>
+      <c r="F641" t="s">
+        <v>256</v>
+      </c>
+      <c r="G641">
+        <v>0</v>
+      </c>
+      <c r="H641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8">
+      <c r="A642" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C642" t="s">
+        <v>82</v>
+      </c>
+      <c r="D642" t="s">
+        <v>356</v>
+      </c>
+      <c r="E642">
+        <v>5</v>
+      </c>
+      <c r="G642">
+        <v>1</v>
+      </c>
+      <c r="H642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8">
+      <c r="A643" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C643" t="s">
+        <v>91</v>
+      </c>
+      <c r="D643" t="s">
+        <v>356</v>
+      </c>
+      <c r="E643">
+        <v>1</v>
+      </c>
+      <c r="F643" t="s">
+        <v>317</v>
+      </c>
+      <c r="G643">
+        <v>0</v>
+      </c>
+      <c r="H643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8">
+      <c r="A644" s="5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C644" t="s">
+        <v>91</v>
+      </c>
+      <c r="D644" t="s">
+        <v>312</v>
+      </c>
+      <c r="E644">
+        <v>1</v>
+      </c>
+      <c r="G644">
+        <v>0</v>
+      </c>
+      <c r="H644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8">
+      <c r="A645" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C645" t="s">
+        <v>91</v>
+      </c>
+      <c r="D645" t="s">
+        <v>320</v>
+      </c>
+      <c r="E645">
+        <v>1</v>
+      </c>
+      <c r="G645">
+        <v>0</v>
+      </c>
+      <c r="H645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8">
+      <c r="A646" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C646" t="s">
+        <v>92</v>
+      </c>
+      <c r="D646" t="s">
+        <v>320</v>
+      </c>
+      <c r="E646">
+        <v>1</v>
+      </c>
+      <c r="G646">
+        <v>0</v>
+      </c>
+      <c r="H646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8">
+      <c r="A647" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C647" t="s">
+        <v>93</v>
+      </c>
+      <c r="D647" t="s">
+        <v>284</v>
+      </c>
+      <c r="E647">
+        <v>30</v>
+      </c>
+      <c r="G647">
+        <v>0</v>
+      </c>
+      <c r="H647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8">
+      <c r="A648" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C648" t="s">
+        <v>93</v>
+      </c>
+      <c r="D648" t="s">
+        <v>286</v>
+      </c>
+      <c r="E648">
+        <v>25</v>
+      </c>
+      <c r="G648">
+        <v>0</v>
+      </c>
+      <c r="H648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8">
+      <c r="A649" s="5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C649" t="s">
+        <v>93</v>
+      </c>
+      <c r="D649" t="s">
+        <v>356</v>
+      </c>
+      <c r="E649">
+        <v>1</v>
+      </c>
+      <c r="F649" t="s">
+        <v>317</v>
+      </c>
+      <c r="G649">
+        <v>0</v>
+      </c>
+      <c r="H649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8">
+      <c r="A650" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C650" t="s">
+        <v>93</v>
+      </c>
+      <c r="D650" t="s">
+        <v>312</v>
+      </c>
+      <c r="E650">
+        <v>1</v>
+      </c>
+      <c r="G650">
+        <v>0</v>
+      </c>
+      <c r="H650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8">
+      <c r="A651" s="5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C651" t="s">
+        <v>93</v>
+      </c>
+      <c r="D651" t="s">
+        <v>320</v>
+      </c>
+      <c r="E651">
+        <v>1</v>
+      </c>
+      <c r="G651">
+        <v>0</v>
+      </c>
+      <c r="H651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8">
+      <c r="A652" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C652" t="s">
+        <v>164</v>
+      </c>
+      <c r="D652" t="s">
+        <v>718</v>
+      </c>
+      <c r="E652">
+        <v>15</v>
+      </c>
+      <c r="G652">
+        <v>1</v>
+      </c>
+      <c r="H652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8">
+      <c r="A653" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C653" t="s">
+        <v>164</v>
+      </c>
+      <c r="D653" t="s">
+        <v>720</v>
+      </c>
+      <c r="E653">
+        <v>5</v>
+      </c>
+      <c r="G653">
+        <v>1</v>
+      </c>
+      <c r="H653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8">
+      <c r="A654" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C654" t="s">
+        <v>164</v>
+      </c>
+      <c r="D654" t="s">
+        <v>440</v>
+      </c>
+      <c r="E654">
+        <v>5</v>
+      </c>
+      <c r="G654">
+        <v>1</v>
+      </c>
+      <c r="H654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8">
+      <c r="A655" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C655" t="s">
+        <v>177</v>
+      </c>
+      <c r="D655" t="s">
+        <v>440</v>
+      </c>
+      <c r="E655">
+        <v>5</v>
+      </c>
+      <c r="G655">
+        <v>1</v>
+      </c>
+      <c r="H655">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H608" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
+  <autoFilter ref="A1:H655" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H525">
     <sortCondition ref="B2:B525"/>
     <sortCondition ref="C2:C525"/>
@@ -34129,16 +35126,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="74.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34159,7 +35156,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60">
+    <row r="2" spans="1:5" ht="57.6">
       <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
@@ -34176,7 +35173,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45">
+    <row r="3" spans="1:5" ht="43.2">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
@@ -34193,7 +35190,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135">
+    <row r="4" spans="1:5" ht="115.2">
       <c r="A4" s="6" t="s">
         <v>124</v>
       </c>
@@ -34210,7 +35207,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105">
+    <row r="5" spans="1:5" ht="100.8">
       <c r="A5" s="6" t="s">
         <v>845</v>
       </c>
@@ -34223,7 +35220,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="90">
+    <row r="6" spans="1:5" ht="72">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -34240,7 +35237,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="75">
+    <row r="7" spans="1:5" ht="72">
       <c r="A7" s="6" t="s">
         <v>850</v>
       </c>
@@ -34257,7 +35254,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60">
+    <row r="8" spans="1:5" ht="57.6">
       <c r="A8" s="6" t="s">
         <v>71</v>
       </c>
@@ -34274,7 +35271,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45">
+    <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="6" t="s">
         <v>857</v>
       </c>
@@ -34291,7 +35288,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="180">
+    <row r="10" spans="1:5" ht="144">
       <c r="A10" s="6" t="s">
         <v>861</v>
       </c>
@@ -34304,7 +35301,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="120">
+    <row r="11" spans="1:5" ht="115.2">
       <c r="A11" s="6" t="s">
         <v>863</v>
       </c>
@@ -34317,7 +35314,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45">
+    <row r="12" spans="1:5" ht="43.2">
       <c r="A12" s="6" t="s">
         <v>241</v>
       </c>
@@ -34334,7 +35331,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="90">
+    <row r="13" spans="1:5" ht="86.4">
       <c r="A13" s="6" t="s">
         <v>868</v>
       </c>
@@ -34351,7 +35348,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75">
+    <row r="14" spans="1:5" ht="57.6">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -34368,7 +35365,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="255">
+    <row r="15" spans="1:5" ht="244.8">
       <c r="A15" s="6" t="s">
         <v>874</v>
       </c>
@@ -34381,7 +35378,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="285">
+    <row r="16" spans="1:5" ht="273.60000000000002">
       <c r="A16" s="6" t="s">
         <v>876</v>
       </c>
@@ -34394,7 +35391,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="405">
+    <row r="17" spans="1:5" ht="360">
       <c r="A17" s="6" t="s">
         <v>878</v>
       </c>
@@ -34407,7 +35404,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45">
+    <row r="18" spans="1:5" ht="43.2">
       <c r="A18" s="6" t="s">
         <v>880</v>
       </c>
@@ -34424,7 +35421,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="105">
+    <row r="19" spans="1:5" ht="100.8">
       <c r="A19" s="6" t="s">
         <v>884</v>
       </c>
@@ -34437,7 +35434,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="105">
+    <row r="20" spans="1:5" ht="100.8">
       <c r="A20" s="6" t="s">
         <v>886</v>
       </c>
@@ -34450,7 +35447,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="105">
+    <row r="21" spans="1:5" ht="86.4">
       <c r="A21" s="6" t="s">
         <v>242</v>
       </c>
@@ -34467,7 +35464,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="135">
+    <row r="22" spans="1:5" ht="129.6">
       <c r="A22" s="6" t="s">
         <v>245</v>
       </c>
@@ -34480,7 +35477,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="90">
+    <row r="23" spans="1:5" ht="72">
       <c r="A23" s="6" t="s">
         <v>239</v>
       </c>
@@ -34497,7 +35494,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30">
+    <row r="24" spans="1:5" ht="28.8">
       <c r="A24" s="6" t="s">
         <v>892</v>
       </c>
@@ -34514,7 +35511,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45">
+    <row r="25" spans="1:5" ht="43.2">
       <c r="A25" s="6" t="s">
         <v>896</v>
       </c>
@@ -34531,7 +35528,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="409.5">
+    <row r="26" spans="1:5" ht="409.6">
       <c r="A26" s="6" t="s">
         <v>900</v>
       </c>
@@ -34544,7 +35541,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="165">
+    <row r="27" spans="1:5" ht="158.4">
       <c r="A27" s="6" t="s">
         <v>902</v>
       </c>
@@ -34557,7 +35554,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="255">
+    <row r="28" spans="1:5" ht="230.4">
       <c r="A28" s="6" t="s">
         <v>904</v>
       </c>
@@ -34570,7 +35567,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="60">
+    <row r="29" spans="1:5" ht="43.2">
       <c r="A29" s="6" t="s">
         <v>906</v>
       </c>
@@ -34587,7 +35584,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45">
+    <row r="30" spans="1:5" ht="43.2">
       <c r="A30" s="6" t="s">
         <v>243</v>
       </c>
@@ -34602,7 +35599,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45">
+    <row r="31" spans="1:5" ht="43.2">
       <c r="A31" s="6" t="s">
         <v>246</v>
       </c>
@@ -34617,7 +35614,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="120">
+    <row r="32" spans="1:5" ht="100.8">
       <c r="A32" s="6" t="s">
         <v>206</v>
       </c>
@@ -34634,7 +35631,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="180">
+    <row r="33" spans="1:5" ht="172.8">
       <c r="A33" s="6" t="s">
         <v>244</v>
       </c>
@@ -34647,7 +35644,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30">
+    <row r="34" spans="1:5" ht="28.8">
       <c r="A34" s="6" t="s">
         <v>914</v>
       </c>
@@ -34664,7 +35661,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="120">
+    <row r="35" spans="1:5" ht="100.8">
       <c r="A35" s="6" t="s">
         <v>918</v>
       </c>
@@ -34681,7 +35678,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="375">
+    <row r="36" spans="1:5" ht="331.2">
       <c r="A36" s="6" t="s">
         <v>920</v>
       </c>
@@ -34694,7 +35691,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="75">
+    <row r="37" spans="1:5" ht="72">
       <c r="A37" s="6" t="s">
         <v>922</v>
       </c>
@@ -34711,7 +35708,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45">
+    <row r="38" spans="1:5" ht="43.2">
       <c r="A38" s="6" t="s">
         <v>926</v>
       </c>
@@ -34728,7 +35725,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="75">
+    <row r="39" spans="1:5" ht="72">
       <c r="A39" s="6" t="s">
         <v>930</v>
       </c>
@@ -34741,7 +35738,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="300">
+    <row r="40" spans="1:5" ht="244.8">
       <c r="A40" s="6" t="s">
         <v>932</v>
       </c>
@@ -34754,7 +35751,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="135">
+    <row r="41" spans="1:5" ht="115.2">
       <c r="A41" s="6" t="s">
         <v>934</v>
       </c>
@@ -34767,7 +35764,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45">
+    <row r="42" spans="1:5" ht="43.2">
       <c r="A42" s="6" t="s">
         <v>936</v>
       </c>
@@ -34784,7 +35781,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="120">
+    <row r="43" spans="1:5" ht="115.2">
       <c r="A43" s="6" t="s">
         <v>940</v>
       </c>
@@ -34797,7 +35794,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="135">
+    <row r="44" spans="1:5" ht="129.6">
       <c r="A44" s="6" t="s">
         <v>58</v>
       </c>
@@ -34814,7 +35811,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="150">
+    <row r="45" spans="1:5" ht="129.6">
       <c r="A45" s="6" t="s">
         <v>945</v>
       </c>
@@ -34831,7 +35828,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="60">
+    <row r="46" spans="1:5" ht="43.2">
       <c r="A46" s="6" t="s">
         <v>948</v>
       </c>
@@ -34848,7 +35845,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="60">
+    <row r="47" spans="1:5" ht="57.6">
       <c r="A47" s="6" t="s">
         <v>952</v>
       </c>
@@ -34865,7 +35862,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="135">
+    <row r="48" spans="1:5" ht="115.2">
       <c r="A48" s="6" t="s">
         <v>208</v>
       </c>
@@ -34882,7 +35879,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45">
+    <row r="49" spans="1:5" ht="43.2">
       <c r="A49" s="6" t="s">
         <v>959</v>
       </c>
@@ -34899,7 +35896,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="90">
+    <row r="50" spans="1:5" ht="86.4">
       <c r="A50" s="6" t="s">
         <v>962</v>
       </c>
@@ -34916,7 +35913,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="75">
+    <row r="51" spans="1:5" ht="57.6">
       <c r="A51" s="6" t="s">
         <v>207</v>
       </c>
@@ -34933,7 +35930,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="210">
+    <row r="52" spans="1:5" ht="201.6">
       <c r="A52" s="6" t="s">
         <v>968</v>
       </c>
@@ -34946,7 +35943,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="405">
+    <row r="53" spans="1:5" ht="360">
       <c r="A53" s="6" t="s">
         <v>970</v>
       </c>
@@ -34959,7 +35956,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="75">
+    <row r="54" spans="1:5" ht="72">
       <c r="A54" s="6" t="s">
         <v>972</v>
       </c>
@@ -34976,7 +35973,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="135">
+    <row r="55" spans="1:5" ht="115.2">
       <c r="A55" s="6" t="s">
         <v>976</v>
       </c>
@@ -34993,7 +35990,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="300">
+    <row r="56" spans="1:5" ht="259.2">
       <c r="A56" s="6" t="s">
         <v>979</v>
       </c>
@@ -35006,7 +36003,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="135">
+    <row r="57" spans="1:5" ht="115.2">
       <c r="A57" s="6" t="s">
         <v>981</v>
       </c>
@@ -35023,7 +36020,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="315">
+    <row r="58" spans="1:5" ht="288">
       <c r="A58" s="6" t="s">
         <v>984</v>
       </c>
@@ -35036,7 +36033,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="255">
+    <row r="59" spans="1:5" ht="216">
       <c r="A59" s="6" t="s">
         <v>986</v>
       </c>
@@ -35049,7 +36046,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="45">
+    <row r="60" spans="1:5" ht="43.2">
       <c r="A60" s="6" t="s">
         <v>209</v>
       </c>
@@ -35066,7 +36063,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30">
+    <row r="61" spans="1:5" ht="28.8">
       <c r="A61" s="6" t="s">
         <v>991</v>
       </c>
@@ -35083,7 +36080,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="409.5">
+    <row r="62" spans="1:5" ht="409.6">
       <c r="A62" s="6" t="s">
         <v>995</v>
       </c>
@@ -35096,7 +36093,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="409.5">
+    <row r="63" spans="1:5" ht="409.6">
       <c r="A63" s="6" t="s">
         <v>997</v>
       </c>
@@ -35109,7 +36106,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="45">
+    <row r="64" spans="1:5" ht="43.2">
       <c r="A64" s="6" t="s">
         <v>999</v>
       </c>
@@ -35126,7 +36123,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="45">
+    <row r="65" spans="1:5" ht="43.2">
       <c r="A65" s="6" t="s">
         <v>1002</v>
       </c>
@@ -35143,7 +36140,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="165">
+    <row r="66" spans="1:5" ht="158.4">
       <c r="A66" s="6" t="s">
         <v>1006</v>
       </c>
@@ -35156,7 +36153,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="45">
+    <row r="67" spans="1:5" ht="43.2">
       <c r="A67" s="6" t="s">
         <v>1008</v>
       </c>
@@ -35173,7 +36170,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="409.5">
+    <row r="68" spans="1:5" ht="403.2">
       <c r="A68" s="6" t="s">
         <v>1011</v>
       </c>
@@ -35186,7 +36183,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="75">
+    <row r="69" spans="1:5" ht="72">
       <c r="A69" s="6" t="s">
         <v>1013</v>
       </c>
@@ -35203,7 +36200,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="210">
+    <row r="70" spans="1:5" ht="187.2">
       <c r="A70" s="6" t="s">
         <v>1016</v>
       </c>
@@ -35216,7 +36213,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="270">
+    <row r="71" spans="1:5" ht="244.8">
       <c r="A71" s="6" t="s">
         <v>1018</v>
       </c>
@@ -35229,7 +36226,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="390">
+    <row r="72" spans="1:5" ht="374.4">
       <c r="A72" s="6" t="s">
         <v>1020</v>
       </c>
@@ -35242,7 +36239,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="105">
+    <row r="73" spans="1:5" ht="100.8">
       <c r="A73" s="6" t="s">
         <v>1022</v>
       </c>
@@ -35259,7 +36256,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="105">
+    <row r="74" spans="1:5" ht="100.8">
       <c r="A74" s="6" t="s">
         <v>1025</v>
       </c>
@@ -35272,7 +36269,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="60">
+    <row r="75" spans="1:5" ht="43.2">
       <c r="A75" s="6" t="s">
         <v>1027</v>
       </c>
@@ -35289,7 +36286,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="150">
+    <row r="76" spans="1:5" ht="144">
       <c r="A76" s="6" t="s">
         <v>1030</v>
       </c>
@@ -35302,7 +36299,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="90">
+    <row r="77" spans="1:5" ht="72">
       <c r="A77" s="6" t="s">
         <v>1032</v>
       </c>
@@ -35319,7 +36316,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="165">
+    <row r="78" spans="1:5" ht="158.4">
       <c r="A78" s="6" t="s">
         <v>1034</v>
       </c>
@@ -35332,7 +36329,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="390">
+    <row r="79" spans="1:5" ht="360">
       <c r="A79" s="6" t="s">
         <v>1036</v>
       </c>
@@ -35345,7 +36342,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30">
+    <row r="80" spans="1:5" ht="28.8">
       <c r="A80" s="6" t="s">
         <v>1038</v>
       </c>
@@ -35365,18 +36362,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
-  <dimension ref="A1:C263"/>
+  <dimension ref="A1:C272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B249" sqref="B249"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
-    <col min="2" max="2" width="111.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="111.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -35390,7 +36387,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="28.8">
       <c r="A2" s="9" t="s">
         <v>1279</v>
       </c>
@@ -35401,7 +36398,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:3" ht="28.8">
       <c r="A3" s="9" t="s">
         <v>1280</v>
       </c>
@@ -35412,7 +36409,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="28.8">
       <c r="A4" s="9" t="s">
         <v>1281</v>
       </c>
@@ -35423,7 +36420,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="28.8">
       <c r="A5" s="9" t="s">
         <v>1057</v>
       </c>
@@ -35434,7 +36431,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="28.8">
       <c r="A6" s="9" t="s">
         <v>1282</v>
       </c>
@@ -35445,7 +36442,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="9" t="s">
         <v>1058</v>
       </c>
@@ -35456,7 +36453,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="28.8">
       <c r="A8" s="9" t="s">
         <v>1059</v>
       </c>
@@ -35467,7 +36464,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="28.8">
       <c r="A9" s="9" t="s">
         <v>1283</v>
       </c>
@@ -35478,7 +36475,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="28.8">
       <c r="A10" s="9" t="s">
         <v>1284</v>
       </c>
@@ -35489,7 +36486,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30">
+    <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="9" t="s">
         <v>1059</v>
       </c>
@@ -35500,7 +36497,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30">
+    <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="14" t="s">
         <v>1302</v>
       </c>
@@ -35511,7 +36508,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="28.8">
       <c r="A13" s="14" t="s">
         <v>1303</v>
       </c>
@@ -35522,7 +36519,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" ht="28.8">
       <c r="A14" s="9" t="s">
         <v>1047</v>
       </c>
@@ -35533,7 +36530,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30">
+    <row r="15" spans="1:3" ht="28.8">
       <c r="A15" s="9" t="s">
         <v>1048</v>
       </c>
@@ -35544,7 +36541,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:3" ht="28.8">
       <c r="A16" s="9" t="s">
         <v>1049</v>
       </c>
@@ -35555,7 +36552,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" s="9" t="s">
         <v>1050</v>
       </c>
@@ -35566,7 +36563,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" ht="28.8">
       <c r="A18" s="9" t="s">
         <v>1051</v>
       </c>
@@ -35577,7 +36574,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3" ht="28.8">
       <c r="A19" s="9" t="s">
         <v>1052</v>
       </c>
@@ -35588,7 +36585,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="9" t="s">
         <v>1053</v>
       </c>
@@ -35621,7 +36618,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="28.8">
       <c r="A23" s="9" t="s">
         <v>1056</v>
       </c>
@@ -35643,7 +36640,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="60">
+    <row r="25" spans="1:3" ht="57.6">
       <c r="A25" s="12" t="s">
         <v>1061</v>
       </c>
@@ -35654,7 +36651,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="60">
+    <row r="26" spans="1:3" ht="57.6">
       <c r="A26" s="12" t="s">
         <v>1062</v>
       </c>
@@ -35665,7 +36662,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60">
+    <row r="27" spans="1:3" ht="57.6">
       <c r="A27" s="12" t="s">
         <v>1063</v>
       </c>
@@ -35676,7 +36673,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="60">
+    <row r="28" spans="1:3" ht="57.6">
       <c r="A28" s="12" t="s">
         <v>1064</v>
       </c>
@@ -35687,7 +36684,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60">
+    <row r="29" spans="1:3" ht="57.6">
       <c r="A29" s="12" t="s">
         <v>1065</v>
       </c>
@@ -35698,7 +36695,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="60">
+    <row r="30" spans="1:3" ht="57.6">
       <c r="A30" s="12" t="s">
         <v>1066</v>
       </c>
@@ -35709,7 +36706,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="60">
+    <row r="31" spans="1:3" ht="57.6">
       <c r="A31" s="12" t="s">
         <v>1067</v>
       </c>
@@ -35720,7 +36717,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60">
+    <row r="32" spans="1:3" ht="57.6">
       <c r="A32" s="12" t="s">
         <v>1068</v>
       </c>
@@ -35731,7 +36728,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="60">
+    <row r="33" spans="1:3" ht="57.6">
       <c r="A33" s="12" t="s">
         <v>1069</v>
       </c>
@@ -35742,7 +36739,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60">
+    <row r="34" spans="1:3" ht="57.6">
       <c r="A34" s="12" t="s">
         <v>1070</v>
       </c>
@@ -35753,7 +36750,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60">
+    <row r="35" spans="1:3" ht="57.6">
       <c r="A35" s="12" t="s">
         <v>1071</v>
       </c>
@@ -35775,7 +36772,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="60">
+    <row r="37" spans="1:3" ht="57.6">
       <c r="A37" s="12" t="s">
         <v>1073</v>
       </c>
@@ -35786,7 +36783,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="60">
+    <row r="38" spans="1:3" ht="57.6">
       <c r="A38" s="12" t="s">
         <v>1074</v>
       </c>
@@ -35797,7 +36794,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="60">
+    <row r="39" spans="1:3" ht="57.6">
       <c r="A39" s="12" t="s">
         <v>1075</v>
       </c>
@@ -35830,7 +36827,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="60">
+    <row r="42" spans="1:3" ht="57.6">
       <c r="A42" s="12" t="s">
         <v>1078</v>
       </c>
@@ -35841,7 +36838,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30">
+    <row r="43" spans="1:3" ht="28.8">
       <c r="A43" s="9" t="s">
         <v>1080</v>
       </c>
@@ -35852,7 +36849,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30">
+    <row r="44" spans="1:3" ht="28.8">
       <c r="A44" s="9" t="s">
         <v>1081</v>
       </c>
@@ -35863,7 +36860,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30">
+    <row r="45" spans="1:3" ht="28.8">
       <c r="A45" s="9" t="s">
         <v>1082</v>
       </c>
@@ -35874,7 +36871,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3" ht="28.8">
       <c r="A46" s="9" t="s">
         <v>1083</v>
       </c>
@@ -35885,7 +36882,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30">
+    <row r="47" spans="1:3" ht="28.8">
       <c r="A47" s="9" t="s">
         <v>1084</v>
       </c>
@@ -35896,7 +36893,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30">
+    <row r="48" spans="1:3" ht="28.8">
       <c r="A48" s="9" t="s">
         <v>1085</v>
       </c>
@@ -35907,7 +36904,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30">
+    <row r="49" spans="1:3" ht="28.8">
       <c r="A49" s="9" t="s">
         <v>1086</v>
       </c>
@@ -35918,7 +36915,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30">
+    <row r="50" spans="1:3" ht="28.8">
       <c r="A50" s="9" t="s">
         <v>1087</v>
       </c>
@@ -35929,7 +36926,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="45">
+    <row r="51" spans="1:3" ht="28.8">
       <c r="A51" s="12" t="s">
         <v>1089</v>
       </c>
@@ -35940,7 +36937,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45">
+    <row r="52" spans="1:3" ht="28.8">
       <c r="A52" s="12" t="s">
         <v>1090</v>
       </c>
@@ -35951,7 +36948,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="45">
+    <row r="53" spans="1:3" ht="28.8">
       <c r="A53" s="12" t="s">
         <v>1091</v>
       </c>
@@ -35962,7 +36959,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="45">
+    <row r="54" spans="1:3" ht="28.8">
       <c r="A54" s="12" t="s">
         <v>1092</v>
       </c>
@@ -35973,7 +36970,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="45">
+    <row r="55" spans="1:3" ht="28.8">
       <c r="A55" s="12" t="s">
         <v>1093</v>
       </c>
@@ -35984,7 +36981,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45">
+    <row r="56" spans="1:3" ht="28.8">
       <c r="A56" s="12" t="s">
         <v>1094</v>
       </c>
@@ -35995,7 +36992,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="45">
+    <row r="57" spans="1:3" ht="28.8">
       <c r="A57" s="12" t="s">
         <v>1095</v>
       </c>
@@ -36006,7 +37003,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45">
+    <row r="58" spans="1:3" ht="28.8">
       <c r="A58" s="12" t="s">
         <v>1096</v>
       </c>
@@ -36017,7 +37014,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45">
+    <row r="59" spans="1:3" ht="28.8">
       <c r="A59" s="12" t="s">
         <v>1097</v>
       </c>
@@ -36028,7 +37025,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="45">
+    <row r="60" spans="1:3" ht="28.8">
       <c r="A60" s="12" t="s">
         <v>1098</v>
       </c>
@@ -36039,7 +37036,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="45">
+    <row r="61" spans="1:3" ht="28.8">
       <c r="A61" s="12" t="s">
         <v>1099</v>
       </c>
@@ -36050,7 +37047,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="45">
+    <row r="62" spans="1:3" ht="28.8">
       <c r="A62" s="12" t="s">
         <v>1100</v>
       </c>
@@ -36061,7 +37058,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45">
+    <row r="63" spans="1:3" ht="28.8">
       <c r="A63" s="12" t="s">
         <v>1101</v>
       </c>
@@ -36083,7 +37080,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="45">
+    <row r="65" spans="1:3" ht="28.8">
       <c r="A65" s="12" t="s">
         <v>1102</v>
       </c>
@@ -36094,7 +37091,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="45">
+    <row r="66" spans="1:3" ht="28.8">
       <c r="A66" s="12" t="s">
         <v>1103</v>
       </c>
@@ -36105,7 +37102,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="45">
+    <row r="67" spans="1:3" ht="28.8">
       <c r="A67" s="12" t="s">
         <v>1104</v>
       </c>
@@ -36116,7 +37113,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45">
+    <row r="68" spans="1:3" ht="28.8">
       <c r="A68" s="12" t="s">
         <v>1105</v>
       </c>
@@ -36138,7 +37135,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="45">
+    <row r="70" spans="1:3" ht="43.2">
       <c r="A70" s="9" t="s">
         <v>1107</v>
       </c>
@@ -36149,7 +37146,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="45">
+    <row r="71" spans="1:3" ht="43.2">
       <c r="A71" s="9" t="s">
         <v>1108</v>
       </c>
@@ -36160,7 +37157,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="45">
+    <row r="72" spans="1:3" ht="43.2">
       <c r="A72" s="9" t="s">
         <v>1109</v>
       </c>
@@ -36171,7 +37168,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="45">
+    <row r="73" spans="1:3" ht="43.2">
       <c r="A73" s="9" t="s">
         <v>1110</v>
       </c>
@@ -36182,7 +37179,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="45">
+    <row r="74" spans="1:3" ht="43.2">
       <c r="A74" s="9" t="s">
         <v>1111</v>
       </c>
@@ -36193,7 +37190,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45">
+    <row r="75" spans="1:3" ht="43.2">
       <c r="A75" s="9" t="s">
         <v>1112</v>
       </c>
@@ -36204,7 +37201,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="45">
+    <row r="76" spans="1:3" ht="43.2">
       <c r="A76" s="9" t="s">
         <v>1113</v>
       </c>
@@ -36215,7 +37212,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="45">
+    <row r="77" spans="1:3" ht="43.2">
       <c r="A77" s="9" t="s">
         <v>1114</v>
       </c>
@@ -36226,7 +37223,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="45">
+    <row r="78" spans="1:3" ht="43.2">
       <c r="A78" s="9" t="s">
         <v>1115</v>
       </c>
@@ -36237,7 +37234,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="45">
+    <row r="79" spans="1:3" ht="43.2">
       <c r="A79" s="9" t="s">
         <v>1116</v>
       </c>
@@ -36248,7 +37245,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="45">
+    <row r="80" spans="1:3" ht="43.2">
       <c r="A80" s="9" t="s">
         <v>1117</v>
       </c>
@@ -36259,7 +37256,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="45">
+    <row r="81" spans="1:3" ht="43.2">
       <c r="A81" s="9" t="s">
         <v>1118</v>
       </c>
@@ -36270,7 +37267,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="45">
+    <row r="82" spans="1:3" ht="43.2">
       <c r="A82" s="9" t="s">
         <v>1119</v>
       </c>
@@ -36281,7 +37278,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="45">
+    <row r="83" spans="1:3" ht="43.2">
       <c r="A83" s="9" t="s">
         <v>1120</v>
       </c>
@@ -36292,7 +37289,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="45">
+    <row r="84" spans="1:3" ht="43.2">
       <c r="A84" s="9" t="s">
         <v>1121</v>
       </c>
@@ -36303,7 +37300,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="45">
+    <row r="85" spans="1:3" ht="43.2">
       <c r="A85" s="9" t="s">
         <v>1122</v>
       </c>
@@ -36314,7 +37311,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="45">
+    <row r="86" spans="1:3" ht="43.2">
       <c r="A86" s="9" t="s">
         <v>1123</v>
       </c>
@@ -36325,7 +37322,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="45">
+    <row r="87" spans="1:3" ht="43.2">
       <c r="A87" s="9" t="s">
         <v>1124</v>
       </c>
@@ -36336,7 +37333,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="45">
+    <row r="88" spans="1:3" ht="43.2">
       <c r="A88" s="9" t="s">
         <v>1125</v>
       </c>
@@ -36347,7 +37344,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="45">
+    <row r="89" spans="1:3" ht="43.2">
       <c r="A89" s="9" t="s">
         <v>1126</v>
       </c>
@@ -36358,7 +37355,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="45">
+    <row r="90" spans="1:3" ht="43.2">
       <c r="A90" s="9" t="s">
         <v>1127</v>
       </c>
@@ -36369,7 +37366,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="45">
+    <row r="91" spans="1:3" ht="43.2">
       <c r="A91" s="9" t="s">
         <v>1128</v>
       </c>
@@ -36380,7 +37377,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="45">
+    <row r="92" spans="1:3" ht="43.2">
       <c r="A92" s="9" t="s">
         <v>1129</v>
       </c>
@@ -36391,7 +37388,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="45">
+    <row r="93" spans="1:3" ht="43.2">
       <c r="A93" s="9" t="s">
         <v>1130</v>
       </c>
@@ -36402,7 +37399,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="45">
+    <row r="94" spans="1:3" ht="43.2">
       <c r="A94" s="9" t="s">
         <v>1131</v>
       </c>
@@ -36413,7 +37410,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="45">
+    <row r="95" spans="1:3" ht="43.2">
       <c r="A95" s="9" t="s">
         <v>1132</v>
       </c>
@@ -36424,7 +37421,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="45">
+    <row r="96" spans="1:3" ht="43.2">
       <c r="A96" s="9" t="s">
         <v>1133</v>
       </c>
@@ -36435,7 +37432,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="45">
+    <row r="97" spans="1:3" ht="43.2">
       <c r="A97" s="9" t="s">
         <v>1134</v>
       </c>
@@ -36446,7 +37443,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="45">
+    <row r="98" spans="1:3" ht="43.2">
       <c r="A98" s="9" t="s">
         <v>1135</v>
       </c>
@@ -36490,7 +37487,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="45">
+    <row r="102" spans="1:3" ht="43.2">
       <c r="A102" s="9" t="s">
         <v>1139</v>
       </c>
@@ -36633,7 +37630,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="30">
+    <row r="115" spans="1:3" ht="28.8">
       <c r="A115" s="12" t="s">
         <v>1152</v>
       </c>
@@ -36644,7 +37641,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="30">
+    <row r="116" spans="1:3" ht="28.8">
       <c r="A116" s="12" t="s">
         <v>1153</v>
       </c>
@@ -36655,7 +37652,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="30">
+    <row r="117" spans="1:3" ht="28.8">
       <c r="A117" s="12" t="s">
         <v>1154</v>
       </c>
@@ -36666,7 +37663,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="30">
+    <row r="118" spans="1:3" ht="28.8">
       <c r="A118" s="12" t="s">
         <v>1155</v>
       </c>
@@ -36677,7 +37674,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="30">
+    <row r="119" spans="1:3" ht="28.8">
       <c r="A119" s="12" t="s">
         <v>1156</v>
       </c>
@@ -36688,7 +37685,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="30">
+    <row r="120" spans="1:3" ht="28.8">
       <c r="A120" s="12" t="s">
         <v>1157</v>
       </c>
@@ -36699,7 +37696,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="30">
+    <row r="121" spans="1:3" ht="28.8">
       <c r="A121" s="12" t="s">
         <v>1158</v>
       </c>
@@ -36710,7 +37707,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="30">
+    <row r="122" spans="1:3" ht="28.8">
       <c r="A122" s="12" t="s">
         <v>1159</v>
       </c>
@@ -36721,7 +37718,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="30">
+    <row r="123" spans="1:3" ht="28.8">
       <c r="A123" s="12" t="s">
         <v>1160</v>
       </c>
@@ -36732,7 +37729,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="30">
+    <row r="124" spans="1:3" ht="28.8">
       <c r="A124" s="12" t="s">
         <v>1161</v>
       </c>
@@ -36743,7 +37740,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="30">
+    <row r="125" spans="1:3" ht="28.8">
       <c r="A125" s="12" t="s">
         <v>1162</v>
       </c>
@@ -36754,7 +37751,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="30">
+    <row r="126" spans="1:3" ht="28.8">
       <c r="A126" s="12" t="s">
         <v>1163</v>
       </c>
@@ -36798,7 +37795,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="30">
+    <row r="130" spans="1:3" ht="28.8">
       <c r="A130" s="12" t="s">
         <v>1166</v>
       </c>
@@ -36809,7 +37806,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="30">
+    <row r="131" spans="1:3" ht="28.8">
       <c r="A131" s="12" t="s">
         <v>1167</v>
       </c>
@@ -36820,7 +37817,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="30">
+    <row r="132" spans="1:3" ht="28.8">
       <c r="A132" s="12" t="s">
         <v>1168</v>
       </c>
@@ -36864,7 +37861,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="30">
+    <row r="136" spans="1:3" ht="28.8">
       <c r="A136" s="12" t="s">
         <v>1169</v>
       </c>
@@ -36875,7 +37872,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="30">
+    <row r="137" spans="1:3" ht="28.8">
       <c r="A137" s="12" t="s">
         <v>1170</v>
       </c>
@@ -36886,7 +37883,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="30">
+    <row r="138" spans="1:3" ht="28.8">
       <c r="A138" s="12" t="s">
         <v>1171</v>
       </c>
@@ -36897,7 +37894,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="30">
+    <row r="139" spans="1:3" ht="28.8">
       <c r="A139" s="12" t="s">
         <v>1172</v>
       </c>
@@ -36908,7 +37905,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30">
+    <row r="140" spans="1:3" ht="28.8">
       <c r="A140" s="12" t="s">
         <v>1173</v>
       </c>
@@ -36919,7 +37916,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="30">
+    <row r="141" spans="1:3" ht="28.8">
       <c r="A141" s="12" t="s">
         <v>1174</v>
       </c>
@@ -36930,7 +37927,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="30">
+    <row r="142" spans="1:3" ht="28.8">
       <c r="A142" s="12" t="s">
         <v>1175</v>
       </c>
@@ -36952,7 +37949,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="60">
+    <row r="144" spans="1:3" ht="43.2">
       <c r="A144" s="12" t="s">
         <v>1177</v>
       </c>
@@ -36963,7 +37960,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="60">
+    <row r="145" spans="1:3" ht="57.6">
       <c r="A145" s="12" t="s">
         <v>1178</v>
       </c>
@@ -36974,7 +37971,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="60">
+    <row r="146" spans="1:3" ht="43.2">
       <c r="A146" s="12" t="s">
         <v>1179</v>
       </c>
@@ -36985,7 +37982,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="60">
+    <row r="147" spans="1:3" ht="43.2">
       <c r="A147" s="12" t="s">
         <v>1180</v>
       </c>
@@ -36996,7 +37993,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="60">
+    <row r="148" spans="1:3" ht="43.2">
       <c r="A148" s="12" t="s">
         <v>1181</v>
       </c>
@@ -37007,7 +38004,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="60">
+    <row r="149" spans="1:3" ht="43.2">
       <c r="A149" s="12" t="s">
         <v>1182</v>
       </c>
@@ -37018,7 +38015,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="60">
+    <row r="150" spans="1:3" ht="43.2">
       <c r="A150" s="12" t="s">
         <v>1183</v>
       </c>
@@ -37029,7 +38026,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="60">
+    <row r="151" spans="1:3" ht="43.2">
       <c r="A151" s="12" t="s">
         <v>1634</v>
       </c>
@@ -37062,7 +38059,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="45">
+    <row r="154" spans="1:3" ht="43.2">
       <c r="A154" s="12" t="s">
         <v>1186</v>
       </c>
@@ -37073,7 +38070,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="45">
+    <row r="155" spans="1:3" ht="43.2">
       <c r="A155" s="12" t="s">
         <v>1187</v>
       </c>
@@ -37084,7 +38081,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="30">
+    <row r="156" spans="1:3" ht="28.8">
       <c r="A156" s="12" t="s">
         <v>1188</v>
       </c>
@@ -37095,7 +38092,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="30">
+    <row r="157" spans="1:3" ht="28.8">
       <c r="A157" s="12" t="s">
         <v>1189</v>
       </c>
@@ -37106,7 +38103,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="30">
+    <row r="158" spans="1:3" ht="28.8">
       <c r="A158" s="12" t="s">
         <v>1190</v>
       </c>
@@ -37117,7 +38114,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="30">
+    <row r="159" spans="1:3" ht="28.8">
       <c r="A159" s="12" t="s">
         <v>1191</v>
       </c>
@@ -37128,7 +38125,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="30">
+    <row r="160" spans="1:3" ht="28.8">
       <c r="A160" s="12" t="s">
         <v>1192</v>
       </c>
@@ -37139,7 +38136,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="30">
+    <row r="161" spans="1:3" ht="28.8">
       <c r="A161" s="12" t="s">
         <v>1194</v>
       </c>
@@ -37150,7 +38147,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30">
+    <row r="162" spans="1:3" ht="28.8">
       <c r="A162" s="12" t="s">
         <v>1195</v>
       </c>
@@ -37161,7 +38158,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="30">
+    <row r="163" spans="1:3" ht="28.8">
       <c r="A163" s="12" t="s">
         <v>1196</v>
       </c>
@@ -37172,7 +38169,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="30">
+    <row r="164" spans="1:3" ht="28.8">
       <c r="A164" s="12" t="s">
         <v>1197</v>
       </c>
@@ -37183,7 +38180,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="30">
+    <row r="165" spans="1:3" ht="28.8">
       <c r="A165" s="12" t="s">
         <v>1198</v>
       </c>
@@ -37194,7 +38191,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="30">
+    <row r="166" spans="1:3">
       <c r="A166" s="12" t="s">
         <v>1199</v>
       </c>
@@ -37205,7 +38202,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="45">
+    <row r="167" spans="1:3" ht="28.8">
       <c r="A167" s="12" t="s">
         <v>1200</v>
       </c>
@@ -37216,7 +38213,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="45">
+    <row r="168" spans="1:3" ht="28.8">
       <c r="A168" s="12" t="s">
         <v>1201</v>
       </c>
@@ -37227,7 +38224,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="45">
+    <row r="169" spans="1:3" ht="28.8">
       <c r="A169" s="12" t="s">
         <v>1202</v>
       </c>
@@ -37238,7 +38235,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="45">
+    <row r="170" spans="1:3" ht="28.8">
       <c r="A170" s="12" t="s">
         <v>1203</v>
       </c>
@@ -37249,7 +38246,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="45">
+    <row r="171" spans="1:3" ht="28.8">
       <c r="A171" s="12" t="s">
         <v>1204</v>
       </c>
@@ -37260,7 +38257,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="45">
+    <row r="172" spans="1:3" ht="28.8">
       <c r="A172" s="12" t="s">
         <v>1205</v>
       </c>
@@ -37271,7 +38268,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="30">
+    <row r="173" spans="1:3" ht="28.8">
       <c r="A173" s="12" t="s">
         <v>1207</v>
       </c>
@@ -37282,7 +38279,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="30">
+    <row r="174" spans="1:3" ht="28.8">
       <c r="A174" s="12" t="s">
         <v>1208</v>
       </c>
@@ -37293,7 +38290,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="30">
+    <row r="175" spans="1:3" ht="28.8">
       <c r="A175" s="12" t="s">
         <v>1209</v>
       </c>
@@ -37304,7 +38301,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="30">
+    <row r="176" spans="1:3" ht="28.8">
       <c r="A176" s="12" t="s">
         <v>1210</v>
       </c>
@@ -37315,7 +38312,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="30">
+    <row r="177" spans="1:3" ht="28.8">
       <c r="A177" s="12" t="s">
         <v>1211</v>
       </c>
@@ -37326,7 +38323,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="30">
+    <row r="178" spans="1:3" ht="28.8">
       <c r="A178" s="12" t="s">
         <v>1212</v>
       </c>
@@ -37337,7 +38334,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="30">
+    <row r="179" spans="1:3" ht="28.8">
       <c r="A179" s="12" t="s">
         <v>1213</v>
       </c>
@@ -37403,7 +38400,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="45">
+    <row r="185" spans="1:3" ht="28.8">
       <c r="A185" s="12" t="s">
         <v>1221</v>
       </c>
@@ -37414,7 +38411,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="45">
+    <row r="186" spans="1:3" ht="28.8">
       <c r="A186" s="12" t="s">
         <v>1222</v>
       </c>
@@ -37425,7 +38422,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="45">
+    <row r="187" spans="1:3" ht="28.8">
       <c r="A187" s="12" t="s">
         <v>1223</v>
       </c>
@@ -37436,7 +38433,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="45">
+    <row r="188" spans="1:3" ht="28.8">
       <c r="A188" s="12" t="s">
         <v>1224</v>
       </c>
@@ -37447,7 +38444,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="45">
+    <row r="189" spans="1:3" ht="28.8">
       <c r="A189" s="12" t="s">
         <v>1225</v>
       </c>
@@ -37458,7 +38455,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="45">
+    <row r="190" spans="1:3" ht="28.8">
       <c r="A190" s="12" t="s">
         <v>1226</v>
       </c>
@@ -37469,7 +38466,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="45">
+    <row r="191" spans="1:3" ht="43.2">
       <c r="A191" t="s">
         <v>1324</v>
       </c>
@@ -37480,7 +38477,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="45">
+    <row r="192" spans="1:3" ht="43.2">
       <c r="A192" t="s">
         <v>1325</v>
       </c>
@@ -37491,7 +38488,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="45">
+    <row r="193" spans="1:3" ht="43.2">
       <c r="A193" t="s">
         <v>1326</v>
       </c>
@@ -37502,7 +38499,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="45">
+    <row r="194" spans="1:3" ht="43.2">
       <c r="A194" t="s">
         <v>1327</v>
       </c>
@@ -37513,7 +38510,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="45">
+    <row r="195" spans="1:3" ht="43.2">
       <c r="A195" t="s">
         <v>1328</v>
       </c>
@@ -37524,7 +38521,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="45">
+    <row r="196" spans="1:3" ht="43.2">
       <c r="A196" t="s">
         <v>1329</v>
       </c>
@@ -37535,7 +38532,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="45">
+    <row r="197" spans="1:3" ht="43.2">
       <c r="A197" t="s">
         <v>1330</v>
       </c>
@@ -37546,7 +38543,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="45">
+    <row r="198" spans="1:3" ht="43.2">
       <c r="A198" t="s">
         <v>1331</v>
       </c>
@@ -37568,7 +38565,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="45">
+    <row r="200" spans="1:3" ht="43.2">
       <c r="A200" t="s">
         <v>1333</v>
       </c>
@@ -37579,7 +38576,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="45">
+    <row r="201" spans="1:3" ht="43.2">
       <c r="A201" t="s">
         <v>1334</v>
       </c>
@@ -37590,7 +38587,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="45">
+    <row r="202" spans="1:3" ht="43.2">
       <c r="A202" t="s">
         <v>1335</v>
       </c>
@@ -37645,7 +38642,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="30">
+    <row r="207" spans="1:3" ht="28.8">
       <c r="A207" s="4" t="s">
         <v>1389</v>
       </c>
@@ -37832,7 +38829,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="45">
+    <row r="224" spans="1:3" ht="28.8">
       <c r="A224" s="4" t="s">
         <v>1444</v>
       </c>
@@ -37843,7 +38840,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="45">
+    <row r="225" spans="1:3" ht="28.8">
       <c r="A225" s="15" t="s">
         <v>1445</v>
       </c>
@@ -37865,7 +38862,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="30">
+    <row r="227" spans="1:3" ht="28.8">
       <c r="A227" s="15" t="s">
         <v>1448</v>
       </c>
@@ -37876,7 +38873,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="30">
+    <row r="228" spans="1:3" ht="28.8">
       <c r="A228" s="4" t="s">
         <v>1449</v>
       </c>
@@ -37887,7 +38884,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="30">
+    <row r="229" spans="1:3" ht="28.8">
       <c r="A229" s="15" t="s">
         <v>1450</v>
       </c>
@@ -37898,7 +38895,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="30">
+    <row r="230" spans="1:3" ht="28.8">
       <c r="A230" s="15" t="s">
         <v>1451</v>
       </c>
@@ -37909,7 +38906,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="30">
+    <row r="231" spans="1:3" ht="28.8">
       <c r="A231" s="4" t="s">
         <v>1452</v>
       </c>
@@ -37920,7 +38917,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="30">
+    <row r="232" spans="1:3" ht="28.8">
       <c r="A232" s="4" t="s">
         <v>1453</v>
       </c>
@@ -37931,7 +38928,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="30">
+    <row r="233" spans="1:3" ht="28.8">
       <c r="A233" s="4" t="s">
         <v>1454</v>
       </c>
@@ -37986,7 +38983,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="30">
+    <row r="238" spans="1:3">
       <c r="A238" s="4" t="s">
         <v>1518</v>
       </c>
@@ -37997,7 +38994,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="30">
+    <row r="239" spans="1:3">
       <c r="A239" s="15" t="s">
         <v>1519</v>
       </c>
@@ -38269,6 +39266,105 @@
         <v>1618</v>
       </c>
       <c r="C263" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="28.8">
+      <c r="A264" s="4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="43.2">
+      <c r="A265" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="28.8">
+      <c r="A266" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="28.8">
+      <c r="A267" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="28.8">
+      <c r="A268" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" s="20" customFormat="1">
+      <c r="A272" s="20" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B272" s="20" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C272" s="9" t="s">
         <v>866</v>
       </c>
     </row>
@@ -38280,19 +39376,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="9" customWidth="1"/>
     <col min="3" max="3" width="67" style="7" customWidth="1"/>
-    <col min="4" max="4" width="78.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
+    <col min="4" max="4" width="78.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -38337,7 +39433,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="43.2">
       <c r="A4" s="9" t="s">
         <v>1385</v>
       </c>
@@ -38365,7 +39461,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45">
+    <row r="6" spans="1:4" ht="43.2">
       <c r="A6" s="9" t="s">
         <v>1388</v>
       </c>
@@ -38379,7 +39475,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="165">
+    <row r="7" spans="1:4" ht="144">
       <c r="A7" s="9" t="s">
         <v>1387</v>
       </c>
@@ -38393,7 +39489,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="28.8">
       <c r="A8" s="9" t="s">
         <v>1611</v>
       </c>
@@ -38407,7 +39503,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90">
+    <row r="9" spans="1:4" ht="86.4">
       <c r="A9" s="9" t="s">
         <v>1092</v>
       </c>
@@ -38435,7 +39531,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75">
+    <row r="11" spans="1:4" ht="57.6">
       <c r="A11" s="9" t="s">
         <v>1161</v>
       </c>
@@ -38449,7 +39545,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75">
+    <row r="12" spans="1:4" ht="57.6">
       <c r="A12" s="9" t="s">
         <v>1159</v>
       </c>
@@ -38463,7 +39559,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
         <v>1166</v>
       </c>
@@ -38477,7 +39573,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45">
+    <row r="14" spans="1:4" ht="43.2">
       <c r="A14" s="9" t="s">
         <v>1149</v>
       </c>
@@ -38489,6 +39585,48 @@
       </c>
       <c r="D14" s="7" t="s">
         <v>1669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1697</v>
       </c>
     </row>
   </sheetData>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED1A124-EA98-41ED-8EC2-531DC0654775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9481325-D899-4439-AC7D-0F5FAEB6EAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$C$262</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$408</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$413</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$655</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6047" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="1733">
   <si>
     <t>faction</t>
   </si>
@@ -5318,6 +5318,63 @@
   </si>
   <si>
     <t>[rangers_of_ithilien] ranger_of_gondor_free_bow</t>
+  </si>
+  <si>
+    <t>OPT0655</t>
+  </si>
+  <si>
+    <t>OPT0656</t>
+  </si>
+  <si>
+    <t>OPT0657</t>
+  </si>
+  <si>
+    <t>OPT0658</t>
+  </si>
+  <si>
+    <t>OPT0659</t>
+  </si>
+  <si>
+    <t>OPT0660</t>
+  </si>
+  <si>
+    <t>OPT0661</t>
+  </si>
+  <si>
+    <t>OPT0662</t>
+  </si>
+  <si>
+    <t>OPT0663</t>
+  </si>
+  <si>
+    <t>OPT0664</t>
+  </si>
+  <si>
+    <t>OPT0665</t>
+  </si>
+  <si>
+    <t>OPT0666</t>
+  </si>
+  <si>
+    <t>[the_grey_company] elladan_&amp;_elrohir</t>
+  </si>
+  <si>
+    <t>[the_grey_company] aragorn,_strider</t>
+  </si>
+  <si>
+    <t>[the_grey_company] legolas</t>
+  </si>
+  <si>
+    <t>[the_grey_company] gimli</t>
+  </si>
+  <si>
+    <t>['[the_grey_company] elladan_&amp;_elrohir', '[the_grey_company] aragorn,_strider', '[the_grey_company] legolas', '[the_grey_company] gimli', '[the_rangers] halbarad', '[the_rangers] ranger_of_the_north']</t>
+  </si>
+  <si>
+    <t>['[the_grey_company] aragorn,_strider']</t>
+  </si>
+  <si>
+    <t>This force must contain Aragorn.</t>
   </si>
 </sst>
 </file>
@@ -5454,7 +5511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5505,7 +5562,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5820,25 +5876,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:J408"/>
+  <dimension ref="A1:J413"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A406" sqref="A406"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D418" sqref="D418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18743,7 +18799,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392" s="4" t="str">
-        <f t="shared" ref="A392:A408" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
+        <f t="shared" ref="A392:A411" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
         <v>[sharkey's_rogues] hobbit_militia</v>
       </c>
       <c r="B392" t="s">
@@ -18808,7 +18864,7 @@
       </c>
     </row>
     <row r="394" spans="1:10">
-      <c r="A394" s="15" t="str">
+      <c r="A394" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rivendell] bilbo_baggins</v>
       </c>
@@ -18826,30 +18882,42 @@
       </c>
       <c r="F394" t="s">
         <v>44</v>
+      </c>
+      <c r="G394">
+        <v>40</v>
+      </c>
+      <c r="H394" t="b">
+        <v>0</v>
+      </c>
+      <c r="I394" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:10">
       <c r="A395" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rivendell] bilbo_baggins</v>
+        <v>[rangers_of_ithilien] madril</v>
       </c>
       <c r="B395" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C395" t="s">
-        <v>124</v>
+        <v>1018</v>
       </c>
       <c r="D395" t="s">
-        <v>1013</v>
+        <v>71</v>
       </c>
       <c r="E395" t="s">
-        <v>1348</v>
+        <v>90</v>
       </c>
       <c r="F395" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G395">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H395" t="b">
         <v>0</v>
@@ -18864,7 +18932,7 @@
     <row r="396" spans="1:10">
       <c r="A396" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] madril</v>
+        <v>[rangers_of_ithilien] faramir</v>
       </c>
       <c r="B396" t="s">
         <v>211</v>
@@ -18876,13 +18944,13 @@
         <v>71</v>
       </c>
       <c r="E396" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F396" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G396">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="H396" t="b">
         <v>0</v>
@@ -18897,7 +18965,7 @@
     <row r="397" spans="1:10">
       <c r="A397" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] faramir</v>
+        <v>[rangers_of_ithilien] anborn</v>
       </c>
       <c r="B397" t="s">
         <v>211</v>
@@ -18909,13 +18977,13 @@
         <v>71</v>
       </c>
       <c r="E397" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F397" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G397">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="H397" t="b">
         <v>0</v>
@@ -18930,7 +18998,7 @@
     <row r="398" spans="1:10">
       <c r="A398" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] anborn</v>
+        <v>[rangers_of_ithilien] mablung</v>
       </c>
       <c r="B398" t="s">
         <v>211</v>
@@ -18942,7 +19010,7 @@
         <v>71</v>
       </c>
       <c r="E398" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F398" t="s">
         <v>22</v>
@@ -18963,7 +19031,7 @@
     <row r="399" spans="1:10">
       <c r="A399" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] mablung</v>
+        <v>[rangers_of_ithilien] damrod</v>
       </c>
       <c r="B399" t="s">
         <v>211</v>
@@ -18975,13 +19043,13 @@
         <v>71</v>
       </c>
       <c r="E399" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F399" t="s">
         <v>22</v>
       </c>
       <c r="G399">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H399" t="b">
         <v>0</v>
@@ -18996,7 +19064,7 @@
     <row r="400" spans="1:10">
       <c r="A400" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] damrod</v>
+        <v>[rangers_of_ithilien] osgiliath_veteran</v>
       </c>
       <c r="B400" t="s">
         <v>211</v>
@@ -19008,19 +19076,19 @@
         <v>71</v>
       </c>
       <c r="E400" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F400" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G400">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H400" t="b">
         <v>0</v>
       </c>
       <c r="I400" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J400">
         <v>0</v>
@@ -19029,7 +19097,7 @@
     <row r="401" spans="1:10">
       <c r="A401" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] osgiliath_veteran</v>
+        <v>[rangers_of_ithilien] ranger_of_gondor</v>
       </c>
       <c r="B401" t="s">
         <v>211</v>
@@ -19041,7 +19109,7 @@
         <v>71</v>
       </c>
       <c r="E401" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F401" t="s">
         <v>12</v>
@@ -19050,7 +19118,7 @@
         <v>8</v>
       </c>
       <c r="H401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I401" t="b">
         <v>0</v>
@@ -19062,7 +19130,7 @@
     <row r="402" spans="1:10">
       <c r="A402" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] ranger_of_gondor</v>
+        <v>[rangers_of_ithilien] warrior_of_minas_tirith</v>
       </c>
       <c r="B402" t="s">
         <v>211</v>
@@ -19074,16 +19142,16 @@
         <v>71</v>
       </c>
       <c r="E402" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F402" t="s">
         <v>12</v>
       </c>
       <c r="G402">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="b">
         <v>0</v>
@@ -19095,7 +19163,7 @@
     <row r="403" spans="1:10">
       <c r="A403" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] warrior_of_minas_tirith</v>
+        <v>[rangers_of_ithilien] frodo_baggins</v>
       </c>
       <c r="B403" t="s">
         <v>211</v>
@@ -19104,22 +19172,22 @@
         <v>1018</v>
       </c>
       <c r="D403" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="E403" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="F403" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G403">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H403" t="b">
         <v>0</v>
       </c>
       <c r="I403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J403">
         <v>0</v>
@@ -19128,7 +19196,7 @@
     <row r="404" spans="1:10">
       <c r="A404" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] frodo_baggins</v>
+        <v>[rangers_of_ithilien] samwise_gamgee</v>
       </c>
       <c r="B404" t="s">
         <v>211</v>
@@ -19140,13 +19208,13 @@
         <v>3</v>
       </c>
       <c r="E404" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F404" t="s">
         <v>10</v>
       </c>
       <c r="G404">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H404" t="b">
         <v>0</v>
@@ -19161,7 +19229,7 @@
     <row r="405" spans="1:10">
       <c r="A405" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] samwise_gamgee</v>
+        <v>[rangers_of_ithilien] smeagol</v>
       </c>
       <c r="B405" t="s">
         <v>211</v>
@@ -19173,13 +19241,13 @@
         <v>3</v>
       </c>
       <c r="E405" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F405" t="s">
-        <v>10</v>
+        <v>1344</v>
       </c>
       <c r="G405">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H405" t="b">
         <v>0</v>
@@ -19192,9 +19260,8 @@
       </c>
     </row>
     <row r="406" spans="1:10">
-      <c r="A406" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] smeagol</v>
+      <c r="A406" t="s">
+        <v>1713</v>
       </c>
       <c r="B406" t="s">
         <v>211</v>
@@ -19203,30 +19270,31 @@
         <v>1018</v>
       </c>
       <c r="D406" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="E406" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="F406" t="s">
-        <v>1344</v>
+        <v>12</v>
       </c>
       <c r="G406">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H406" t="b">
         <v>0</v>
       </c>
       <c r="I406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J406">
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:10">
-      <c r="A407" t="s">
-        <v>1713</v>
+      <c r="A407" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[rangers_of_ithilien] captain_of_minas_tirith</v>
       </c>
       <c r="B407" t="s">
         <v>211</v>
@@ -19238,13 +19306,13 @@
         <v>71</v>
       </c>
       <c r="E407" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F407" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G407">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="H407" t="b">
         <v>0</v>
@@ -19259,38 +19327,201 @@
     <row r="408" spans="1:10">
       <c r="A408" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>[rangers_of_ithilien] captain_of_minas_tirith</v>
+        <v>[the_grey_company] elladan_&amp;_elrohir</v>
       </c>
       <c r="B408" t="s">
         <v>211</v>
       </c>
       <c r="C408" t="s">
-        <v>1018</v>
+        <v>861</v>
       </c>
       <c r="D408" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E408" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F408" t="s">
         <v>10</v>
       </c>
       <c r="G408">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H408" t="b">
         <v>0</v>
       </c>
       <c r="I408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10">
+      <c r="A409" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[the_grey_company] aragorn,_strider</v>
+      </c>
+      <c r="B409" t="s">
+        <v>211</v>
+      </c>
+      <c r="C409" t="s">
+        <v>861</v>
+      </c>
+      <c r="D409" t="s">
+        <v>3</v>
+      </c>
+      <c r="E409" t="s">
+        <v>4</v>
+      </c>
+      <c r="F409" t="s">
+        <v>7</v>
+      </c>
+      <c r="G409">
+        <v>160</v>
+      </c>
+      <c r="H409" t="b">
+        <v>0</v>
+      </c>
+      <c r="I409" t="b">
+        <v>1</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10">
+      <c r="A410" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[the_grey_company] legolas</v>
+      </c>
+      <c r="B410" t="s">
+        <v>211</v>
+      </c>
+      <c r="C410" t="s">
+        <v>861</v>
+      </c>
+      <c r="D410" t="s">
+        <v>3</v>
+      </c>
+      <c r="E410" t="s">
+        <v>5</v>
+      </c>
+      <c r="F410" t="s">
+        <v>7</v>
+      </c>
+      <c r="G410">
+        <v>100</v>
+      </c>
+      <c r="H410" t="b">
+        <v>0</v>
+      </c>
+      <c r="I410" t="b">
+        <v>1</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10">
+      <c r="A411" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[the_grey_company] gimli</v>
+      </c>
+      <c r="B411" t="s">
+        <v>211</v>
+      </c>
+      <c r="C411" t="s">
+        <v>861</v>
+      </c>
+      <c r="D411" t="s">
+        <v>3</v>
+      </c>
+      <c r="E411" t="s">
+        <v>6</v>
+      </c>
+      <c r="F411" t="s">
+        <v>7</v>
+      </c>
+      <c r="G411">
+        <v>100</v>
+      </c>
+      <c r="H411" t="b">
+        <v>0</v>
+      </c>
+      <c r="I411" t="b">
+        <v>1</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10">
+      <c r="A412" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B412" t="s">
+        <v>211</v>
+      </c>
+      <c r="C412" t="s">
+        <v>861</v>
+      </c>
+      <c r="D412" t="s">
+        <v>850</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F412" t="s">
+        <v>10</v>
+      </c>
+      <c r="G412">
+        <v>70</v>
+      </c>
+      <c r="H412" t="b">
+        <v>0</v>
+      </c>
+      <c r="I412" t="b">
+        <v>1</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10">
+      <c r="A413" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B413" t="s">
+        <v>211</v>
+      </c>
+      <c r="C413" t="s">
+        <v>861</v>
+      </c>
+      <c r="D413" t="s">
+        <v>850</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F413" t="s">
+        <v>44</v>
+      </c>
+      <c r="G413">
+        <v>30</v>
+      </c>
+      <c r="H413" t="b">
+        <v>0</v>
+      </c>
+      <c r="I413" t="b">
+        <v>0</v>
+      </c>
+      <c r="J413">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J408" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
+  <autoFilter ref="A1:J413" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J308">
     <sortCondition ref="C2:C308"/>
     <sortCondition ref="F2:F308"/>
@@ -19303,20 +19534,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <dimension ref="A1:H655"/>
+  <dimension ref="A1:H667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B658" sqref="B658"/>
+      <pane ySplit="1" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C668" sqref="C668"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -35107,6 +35338,291 @@
         <v>1</v>
       </c>
       <c r="H655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8">
+      <c r="A656" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B656" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C656" t="s">
+        <v>126</v>
+      </c>
+      <c r="D656" t="s">
+        <v>350</v>
+      </c>
+      <c r="E656">
+        <v>10</v>
+      </c>
+      <c r="F656" t="s">
+        <v>351</v>
+      </c>
+      <c r="G656">
+        <v>0</v>
+      </c>
+      <c r="H656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
+      <c r="A657" s="5" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B657" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C657" t="s">
+        <v>126</v>
+      </c>
+      <c r="D657" t="s">
+        <v>607</v>
+      </c>
+      <c r="E657">
+        <v>10</v>
+      </c>
+      <c r="G657">
+        <v>0</v>
+      </c>
+      <c r="H657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
+      <c r="A658" s="5" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B658" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C658" t="s">
+        <v>126</v>
+      </c>
+      <c r="D658" t="s">
+        <v>609</v>
+      </c>
+      <c r="E658">
+        <v>10</v>
+      </c>
+      <c r="G658">
+        <v>0</v>
+      </c>
+      <c r="H658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8">
+      <c r="A659" s="5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B659" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C659" t="s">
+        <v>4</v>
+      </c>
+      <c r="D659" t="s">
+        <v>803</v>
+      </c>
+      <c r="E659">
+        <v>0</v>
+      </c>
+      <c r="G659">
+        <v>1</v>
+      </c>
+      <c r="H659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8">
+      <c r="A660" s="5" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B660" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C660" t="s">
+        <v>4</v>
+      </c>
+      <c r="D660" t="s">
+        <v>648</v>
+      </c>
+      <c r="E660">
+        <v>5</v>
+      </c>
+      <c r="F660" t="s">
+        <v>351</v>
+      </c>
+      <c r="G660">
+        <v>0</v>
+      </c>
+      <c r="H660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8">
+      <c r="A661" s="5" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B661" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C661" t="s">
+        <v>4</v>
+      </c>
+      <c r="D661" t="s">
+        <v>356</v>
+      </c>
+      <c r="E661">
+        <v>5</v>
+      </c>
+      <c r="G661">
+        <v>0</v>
+      </c>
+      <c r="H661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8">
+      <c r="A662" s="5" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B662" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C662" t="s">
+        <v>4</v>
+      </c>
+      <c r="D662" t="s">
+        <v>440</v>
+      </c>
+      <c r="E662">
+        <v>5</v>
+      </c>
+      <c r="G662">
+        <v>0</v>
+      </c>
+      <c r="H662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8">
+      <c r="A663" s="5" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B663" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C663" t="s">
+        <v>6</v>
+      </c>
+      <c r="D663" t="s">
+        <v>440</v>
+      </c>
+      <c r="E663">
+        <v>5</v>
+      </c>
+      <c r="G663">
+        <v>0</v>
+      </c>
+      <c r="H663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8">
+      <c r="A664" s="5" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C664" t="s">
+        <v>5</v>
+      </c>
+      <c r="D664" t="s">
+        <v>648</v>
+      </c>
+      <c r="E664">
+        <v>5</v>
+      </c>
+      <c r="F664" t="s">
+        <v>351</v>
+      </c>
+      <c r="G664">
+        <v>0</v>
+      </c>
+      <c r="H664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8">
+      <c r="A665" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B665" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C665" t="s">
+        <v>5</v>
+      </c>
+      <c r="D665" t="s">
+        <v>440</v>
+      </c>
+      <c r="E665">
+        <v>5</v>
+      </c>
+      <c r="G665">
+        <v>0</v>
+      </c>
+      <c r="H665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8">
+      <c r="A666" s="5" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E666">
+        <v>40</v>
+      </c>
+      <c r="G666">
+        <v>0</v>
+      </c>
+      <c r="H666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8">
+      <c r="A667" s="5" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B667" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D667" t="s">
+        <v>320</v>
+      </c>
+      <c r="E667">
+        <v>1</v>
+      </c>
+      <c r="G667">
+        <v>0</v>
+      </c>
+      <c r="H667">
         <v>1</v>
       </c>
     </row>
@@ -35126,16 +35642,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="74.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35156,7 +35672,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6">
+    <row r="2" spans="1:5" ht="60">
       <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
@@ -35173,7 +35689,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2">
+    <row r="3" spans="1:5" ht="45">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
@@ -35190,7 +35706,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="115.2">
+    <row r="4" spans="1:5" ht="135">
       <c r="A4" s="6" t="s">
         <v>124</v>
       </c>
@@ -35207,7 +35723,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="100.8">
+    <row r="5" spans="1:5" ht="105">
       <c r="A5" s="6" t="s">
         <v>845</v>
       </c>
@@ -35220,7 +35736,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72">
+    <row r="6" spans="1:5" ht="90">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -35237,7 +35753,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72">
+    <row r="7" spans="1:5" ht="75">
       <c r="A7" s="6" t="s">
         <v>850</v>
       </c>
@@ -35254,7 +35770,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57.6">
+    <row r="8" spans="1:5" ht="60">
       <c r="A8" s="6" t="s">
         <v>71</v>
       </c>
@@ -35271,7 +35787,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8">
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="6" t="s">
         <v>857</v>
       </c>
@@ -35288,7 +35804,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="144">
+    <row r="10" spans="1:5" ht="180">
       <c r="A10" s="6" t="s">
         <v>861</v>
       </c>
@@ -35301,7 +35817,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="115.2">
+    <row r="11" spans="1:5" ht="120">
       <c r="A11" s="6" t="s">
         <v>863</v>
       </c>
@@ -35314,7 +35830,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.2">
+    <row r="12" spans="1:5" ht="45">
       <c r="A12" s="6" t="s">
         <v>241</v>
       </c>
@@ -35331,7 +35847,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="86.4">
+    <row r="13" spans="1:5" ht="90">
       <c r="A13" s="6" t="s">
         <v>868</v>
       </c>
@@ -35348,7 +35864,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57.6">
+    <row r="14" spans="1:5" ht="75">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -35365,7 +35881,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="244.8">
+    <row r="15" spans="1:5" ht="255">
       <c r="A15" s="6" t="s">
         <v>874</v>
       </c>
@@ -35378,7 +35894,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="273.60000000000002">
+    <row r="16" spans="1:5" ht="285">
       <c r="A16" s="6" t="s">
         <v>876</v>
       </c>
@@ -35391,7 +35907,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="360">
+    <row r="17" spans="1:5" ht="405">
       <c r="A17" s="6" t="s">
         <v>878</v>
       </c>
@@ -35404,7 +35920,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2">
+    <row r="18" spans="1:5" ht="45">
       <c r="A18" s="6" t="s">
         <v>880</v>
       </c>
@@ -35421,7 +35937,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="100.8">
+    <row r="19" spans="1:5" ht="105">
       <c r="A19" s="6" t="s">
         <v>884</v>
       </c>
@@ -35434,7 +35950,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="100.8">
+    <row r="20" spans="1:5" ht="105">
       <c r="A20" s="6" t="s">
         <v>886</v>
       </c>
@@ -35447,7 +35963,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="86.4">
+    <row r="21" spans="1:5" ht="105">
       <c r="A21" s="6" t="s">
         <v>242</v>
       </c>
@@ -35464,7 +35980,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="129.6">
+    <row r="22" spans="1:5" ht="135">
       <c r="A22" s="6" t="s">
         <v>245</v>
       </c>
@@ -35477,7 +35993,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="72">
+    <row r="23" spans="1:5" ht="90">
       <c r="A23" s="6" t="s">
         <v>239</v>
       </c>
@@ -35494,7 +36010,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="6" t="s">
         <v>892</v>
       </c>
@@ -35511,7 +36027,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.2">
+    <row r="25" spans="1:5" ht="45">
       <c r="A25" s="6" t="s">
         <v>896</v>
       </c>
@@ -35528,7 +36044,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="409.6">
+    <row r="26" spans="1:5" ht="409.5">
       <c r="A26" s="6" t="s">
         <v>900</v>
       </c>
@@ -35541,7 +36057,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="158.4">
+    <row r="27" spans="1:5" ht="165">
       <c r="A27" s="6" t="s">
         <v>902</v>
       </c>
@@ -35554,7 +36070,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="230.4">
+    <row r="28" spans="1:5" ht="255">
       <c r="A28" s="6" t="s">
         <v>904</v>
       </c>
@@ -35567,7 +36083,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="43.2">
+    <row r="29" spans="1:5" ht="60">
       <c r="A29" s="6" t="s">
         <v>906</v>
       </c>
@@ -35584,7 +36100,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="43.2">
+    <row r="30" spans="1:5" ht="45">
       <c r="A30" s="6" t="s">
         <v>243</v>
       </c>
@@ -35599,7 +36115,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="43.2">
+    <row r="31" spans="1:5" ht="45">
       <c r="A31" s="6" t="s">
         <v>246</v>
       </c>
@@ -35614,7 +36130,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="100.8">
+    <row r="32" spans="1:5" ht="120">
       <c r="A32" s="6" t="s">
         <v>206</v>
       </c>
@@ -35631,7 +36147,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="172.8">
+    <row r="33" spans="1:5" ht="180">
       <c r="A33" s="6" t="s">
         <v>244</v>
       </c>
@@ -35644,7 +36160,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="6" t="s">
         <v>914</v>
       </c>
@@ -35661,7 +36177,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="100.8">
+    <row r="35" spans="1:5" ht="120">
       <c r="A35" s="6" t="s">
         <v>918</v>
       </c>
@@ -35678,7 +36194,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="331.2">
+    <row r="36" spans="1:5" ht="375">
       <c r="A36" s="6" t="s">
         <v>920</v>
       </c>
@@ -35691,7 +36207,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="72">
+    <row r="37" spans="1:5" ht="75">
       <c r="A37" s="6" t="s">
         <v>922</v>
       </c>
@@ -35708,7 +36224,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="43.2">
+    <row r="38" spans="1:5" ht="45">
       <c r="A38" s="6" t="s">
         <v>926</v>
       </c>
@@ -35725,7 +36241,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="72">
+    <row r="39" spans="1:5" ht="75">
       <c r="A39" s="6" t="s">
         <v>930</v>
       </c>
@@ -35738,7 +36254,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="244.8">
+    <row r="40" spans="1:5" ht="300">
       <c r="A40" s="6" t="s">
         <v>932</v>
       </c>
@@ -35751,7 +36267,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="115.2">
+    <row r="41" spans="1:5" ht="135">
       <c r="A41" s="6" t="s">
         <v>934</v>
       </c>
@@ -35764,7 +36280,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="43.2">
+    <row r="42" spans="1:5" ht="45">
       <c r="A42" s="6" t="s">
         <v>936</v>
       </c>
@@ -35781,7 +36297,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="115.2">
+    <row r="43" spans="1:5" ht="120">
       <c r="A43" s="6" t="s">
         <v>940</v>
       </c>
@@ -35794,7 +36310,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="129.6">
+    <row r="44" spans="1:5" ht="135">
       <c r="A44" s="6" t="s">
         <v>58</v>
       </c>
@@ -35811,7 +36327,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="129.6">
+    <row r="45" spans="1:5" ht="150">
       <c r="A45" s="6" t="s">
         <v>945</v>
       </c>
@@ -35828,7 +36344,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.2">
+    <row r="46" spans="1:5" ht="60">
       <c r="A46" s="6" t="s">
         <v>948</v>
       </c>
@@ -35845,7 +36361,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="57.6">
+    <row r="47" spans="1:5" ht="60">
       <c r="A47" s="6" t="s">
         <v>952</v>
       </c>
@@ -35862,7 +36378,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="115.2">
+    <row r="48" spans="1:5" ht="135">
       <c r="A48" s="6" t="s">
         <v>208</v>
       </c>
@@ -35879,7 +36395,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.2">
+    <row r="49" spans="1:5" ht="45">
       <c r="A49" s="6" t="s">
         <v>959</v>
       </c>
@@ -35896,7 +36412,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="86.4">
+    <row r="50" spans="1:5" ht="90">
       <c r="A50" s="6" t="s">
         <v>962</v>
       </c>
@@ -35913,7 +36429,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="57.6">
+    <row r="51" spans="1:5" ht="75">
       <c r="A51" s="6" t="s">
         <v>207</v>
       </c>
@@ -35930,7 +36446,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="201.6">
+    <row r="52" spans="1:5" ht="210">
       <c r="A52" s="6" t="s">
         <v>968</v>
       </c>
@@ -35943,7 +36459,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="360">
+    <row r="53" spans="1:5" ht="405">
       <c r="A53" s="6" t="s">
         <v>970</v>
       </c>
@@ -35956,7 +36472,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="72">
+    <row r="54" spans="1:5" ht="75">
       <c r="A54" s="6" t="s">
         <v>972</v>
       </c>
@@ -35973,7 +36489,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="115.2">
+    <row r="55" spans="1:5" ht="135">
       <c r="A55" s="6" t="s">
         <v>976</v>
       </c>
@@ -35990,7 +36506,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="259.2">
+    <row r="56" spans="1:5" ht="300">
       <c r="A56" s="6" t="s">
         <v>979</v>
       </c>
@@ -36003,7 +36519,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="115.2">
+    <row r="57" spans="1:5" ht="135">
       <c r="A57" s="6" t="s">
         <v>981</v>
       </c>
@@ -36020,7 +36536,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="288">
+    <row r="58" spans="1:5" ht="315">
       <c r="A58" s="6" t="s">
         <v>984</v>
       </c>
@@ -36033,7 +36549,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="216">
+    <row r="59" spans="1:5" ht="255">
       <c r="A59" s="6" t="s">
         <v>986</v>
       </c>
@@ -36046,7 +36562,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="43.2">
+    <row r="60" spans="1:5" ht="45">
       <c r="A60" s="6" t="s">
         <v>209</v>
       </c>
@@ -36063,7 +36579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="28.8">
+    <row r="61" spans="1:5" ht="30">
       <c r="A61" s="6" t="s">
         <v>991</v>
       </c>
@@ -36080,7 +36596,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="409.6">
+    <row r="62" spans="1:5" ht="409.5">
       <c r="A62" s="6" t="s">
         <v>995</v>
       </c>
@@ -36093,7 +36609,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="409.6">
+    <row r="63" spans="1:5" ht="409.5">
       <c r="A63" s="6" t="s">
         <v>997</v>
       </c>
@@ -36106,7 +36622,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="43.2">
+    <row r="64" spans="1:5" ht="45">
       <c r="A64" s="6" t="s">
         <v>999</v>
       </c>
@@ -36123,7 +36639,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="43.2">
+    <row r="65" spans="1:5" ht="45">
       <c r="A65" s="6" t="s">
         <v>1002</v>
       </c>
@@ -36140,7 +36656,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="158.4">
+    <row r="66" spans="1:5" ht="165">
       <c r="A66" s="6" t="s">
         <v>1006</v>
       </c>
@@ -36153,7 +36669,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="43.2">
+    <row r="67" spans="1:5" ht="45">
       <c r="A67" s="6" t="s">
         <v>1008</v>
       </c>
@@ -36170,7 +36686,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="403.2">
+    <row r="68" spans="1:5" ht="409.5">
       <c r="A68" s="6" t="s">
         <v>1011</v>
       </c>
@@ -36183,7 +36699,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="72">
+    <row r="69" spans="1:5" ht="75">
       <c r="A69" s="6" t="s">
         <v>1013</v>
       </c>
@@ -36200,7 +36716,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="187.2">
+    <row r="70" spans="1:5" ht="210">
       <c r="A70" s="6" t="s">
         <v>1016</v>
       </c>
@@ -36213,7 +36729,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="244.8">
+    <row r="71" spans="1:5" ht="270">
       <c r="A71" s="6" t="s">
         <v>1018</v>
       </c>
@@ -36226,7 +36742,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="374.4">
+    <row r="72" spans="1:5" ht="390">
       <c r="A72" s="6" t="s">
         <v>1020</v>
       </c>
@@ -36239,7 +36755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="100.8">
+    <row r="73" spans="1:5" ht="105">
       <c r="A73" s="6" t="s">
         <v>1022</v>
       </c>
@@ -36256,7 +36772,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="100.8">
+    <row r="74" spans="1:5" ht="105">
       <c r="A74" s="6" t="s">
         <v>1025</v>
       </c>
@@ -36269,7 +36785,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="43.2">
+    <row r="75" spans="1:5" ht="60">
       <c r="A75" s="6" t="s">
         <v>1027</v>
       </c>
@@ -36286,7 +36802,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="144">
+    <row r="76" spans="1:5" ht="150">
       <c r="A76" s="6" t="s">
         <v>1030</v>
       </c>
@@ -36299,7 +36815,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="72">
+    <row r="77" spans="1:5" ht="90">
       <c r="A77" s="6" t="s">
         <v>1032</v>
       </c>
@@ -36316,7 +36832,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="158.4">
+    <row r="78" spans="1:5" ht="165">
       <c r="A78" s="6" t="s">
         <v>1034</v>
       </c>
@@ -36329,7 +36845,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="360">
+    <row r="79" spans="1:5" ht="390">
       <c r="A79" s="6" t="s">
         <v>1036</v>
       </c>
@@ -36342,7 +36858,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="28.8">
+    <row r="80" spans="1:5" ht="30">
       <c r="A80" s="6" t="s">
         <v>1038</v>
       </c>
@@ -36362,18 +36878,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
-  <dimension ref="A1:C272"/>
+  <dimension ref="A1:C278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B267" sqref="B267"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
-    <col min="2" max="2" width="111.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="111.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -36387,7 +36903,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" s="9" t="s">
         <v>1279</v>
       </c>
@@ -36398,7 +36914,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="9" t="s">
         <v>1280</v>
       </c>
@@ -36409,7 +36925,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="9" t="s">
         <v>1281</v>
       </c>
@@ -36420,7 +36936,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="9" t="s">
         <v>1057</v>
       </c>
@@ -36431,7 +36947,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="9" t="s">
         <v>1282</v>
       </c>
@@ -36442,7 +36958,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="9" t="s">
         <v>1058</v>
       </c>
@@ -36453,7 +36969,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="9" t="s">
         <v>1059</v>
       </c>
@@ -36464,7 +36980,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="9" t="s">
         <v>1283</v>
       </c>
@@ -36475,7 +36991,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="9" t="s">
         <v>1284</v>
       </c>
@@ -36486,7 +37002,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="9" t="s">
         <v>1059</v>
       </c>
@@ -36497,7 +37013,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8">
+    <row r="12" spans="1:3" ht="30">
       <c r="A12" s="14" t="s">
         <v>1302</v>
       </c>
@@ -36508,7 +37024,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="14" t="s">
         <v>1303</v>
       </c>
@@ -36519,7 +37035,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" s="9" t="s">
         <v>1047</v>
       </c>
@@ -36530,7 +37046,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="9" t="s">
         <v>1048</v>
       </c>
@@ -36541,7 +37057,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8">
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" s="9" t="s">
         <v>1049</v>
       </c>
@@ -36552,7 +37068,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" s="9" t="s">
         <v>1050</v>
       </c>
@@ -36563,7 +37079,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="9" t="s">
         <v>1051</v>
       </c>
@@ -36574,7 +37090,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8">
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" s="9" t="s">
         <v>1052</v>
       </c>
@@ -36585,7 +37101,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8">
+    <row r="20" spans="1:3" ht="30">
       <c r="A20" s="9" t="s">
         <v>1053</v>
       </c>
@@ -36618,7 +37134,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8">
+    <row r="23" spans="1:3" ht="30">
       <c r="A23" s="9" t="s">
         <v>1056</v>
       </c>
@@ -36640,7 +37156,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="57.6">
+    <row r="25" spans="1:3" ht="60">
       <c r="A25" s="12" t="s">
         <v>1061</v>
       </c>
@@ -36651,7 +37167,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="57.6">
+    <row r="26" spans="1:3" ht="60">
       <c r="A26" s="12" t="s">
         <v>1062</v>
       </c>
@@ -36662,7 +37178,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="57.6">
+    <row r="27" spans="1:3" ht="60">
       <c r="A27" s="12" t="s">
         <v>1063</v>
       </c>
@@ -36673,7 +37189,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="57.6">
+    <row r="28" spans="1:3" ht="60">
       <c r="A28" s="12" t="s">
         <v>1064</v>
       </c>
@@ -36684,7 +37200,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="57.6">
+    <row r="29" spans="1:3" ht="60">
       <c r="A29" s="12" t="s">
         <v>1065</v>
       </c>
@@ -36695,7 +37211,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="57.6">
+    <row r="30" spans="1:3" ht="60">
       <c r="A30" s="12" t="s">
         <v>1066</v>
       </c>
@@ -36706,7 +37222,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="57.6">
+    <row r="31" spans="1:3" ht="60">
       <c r="A31" s="12" t="s">
         <v>1067</v>
       </c>
@@ -36717,7 +37233,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="57.6">
+    <row r="32" spans="1:3" ht="60">
       <c r="A32" s="12" t="s">
         <v>1068</v>
       </c>
@@ -36728,7 +37244,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="57.6">
+    <row r="33" spans="1:3" ht="60">
       <c r="A33" s="12" t="s">
         <v>1069</v>
       </c>
@@ -36739,7 +37255,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="57.6">
+    <row r="34" spans="1:3" ht="60">
       <c r="A34" s="12" t="s">
         <v>1070</v>
       </c>
@@ -36750,7 +37266,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="57.6">
+    <row r="35" spans="1:3" ht="60">
       <c r="A35" s="12" t="s">
         <v>1071</v>
       </c>
@@ -36772,7 +37288,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="57.6">
+    <row r="37" spans="1:3" ht="60">
       <c r="A37" s="12" t="s">
         <v>1073</v>
       </c>
@@ -36783,7 +37299,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="57.6">
+    <row r="38" spans="1:3" ht="60">
       <c r="A38" s="12" t="s">
         <v>1074</v>
       </c>
@@ -36794,7 +37310,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="57.6">
+    <row r="39" spans="1:3" ht="60">
       <c r="A39" s="12" t="s">
         <v>1075</v>
       </c>
@@ -36827,7 +37343,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="57.6">
+    <row r="42" spans="1:3" ht="60">
       <c r="A42" s="12" t="s">
         <v>1078</v>
       </c>
@@ -36838,7 +37354,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8">
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" s="9" t="s">
         <v>1080</v>
       </c>
@@ -36849,7 +37365,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8">
+    <row r="44" spans="1:3" ht="30">
       <c r="A44" s="9" t="s">
         <v>1081</v>
       </c>
@@ -36860,7 +37376,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.8">
+    <row r="45" spans="1:3" ht="30">
       <c r="A45" s="9" t="s">
         <v>1082</v>
       </c>
@@ -36871,7 +37387,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8">
+    <row r="46" spans="1:3" ht="30">
       <c r="A46" s="9" t="s">
         <v>1083</v>
       </c>
@@ -36882,7 +37398,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.8">
+    <row r="47" spans="1:3" ht="30">
       <c r="A47" s="9" t="s">
         <v>1084</v>
       </c>
@@ -36893,7 +37409,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8">
+    <row r="48" spans="1:3" ht="30">
       <c r="A48" s="9" t="s">
         <v>1085</v>
       </c>
@@ -36904,7 +37420,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.8">
+    <row r="49" spans="1:3" ht="30">
       <c r="A49" s="9" t="s">
         <v>1086</v>
       </c>
@@ -36915,7 +37431,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.8">
+    <row r="50" spans="1:3" ht="30">
       <c r="A50" s="9" t="s">
         <v>1087</v>
       </c>
@@ -36926,7 +37442,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="28.8">
+    <row r="51" spans="1:3" ht="45">
       <c r="A51" s="12" t="s">
         <v>1089</v>
       </c>
@@ -36937,7 +37453,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28.8">
+    <row r="52" spans="1:3" ht="45">
       <c r="A52" s="12" t="s">
         <v>1090</v>
       </c>
@@ -36948,7 +37464,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.8">
+    <row r="53" spans="1:3" ht="45">
       <c r="A53" s="12" t="s">
         <v>1091</v>
       </c>
@@ -36959,7 +37475,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.8">
+    <row r="54" spans="1:3" ht="45">
       <c r="A54" s="12" t="s">
         <v>1092</v>
       </c>
@@ -36970,7 +37486,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28.8">
+    <row r="55" spans="1:3" ht="45">
       <c r="A55" s="12" t="s">
         <v>1093</v>
       </c>
@@ -36981,7 +37497,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28.8">
+    <row r="56" spans="1:3" ht="45">
       <c r="A56" s="12" t="s">
         <v>1094</v>
       </c>
@@ -36992,7 +37508,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28.8">
+    <row r="57" spans="1:3" ht="45">
       <c r="A57" s="12" t="s">
         <v>1095</v>
       </c>
@@ -37003,7 +37519,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28.8">
+    <row r="58" spans="1:3" ht="45">
       <c r="A58" s="12" t="s">
         <v>1096</v>
       </c>
@@ -37014,7 +37530,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="28.8">
+    <row r="59" spans="1:3" ht="45">
       <c r="A59" s="12" t="s">
         <v>1097</v>
       </c>
@@ -37025,7 +37541,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="28.8">
+    <row r="60" spans="1:3" ht="45">
       <c r="A60" s="12" t="s">
         <v>1098</v>
       </c>
@@ -37036,7 +37552,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.8">
+    <row r="61" spans="1:3" ht="45">
       <c r="A61" s="12" t="s">
         <v>1099</v>
       </c>
@@ -37047,7 +37563,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.8">
+    <row r="62" spans="1:3" ht="45">
       <c r="A62" s="12" t="s">
         <v>1100</v>
       </c>
@@ -37058,7 +37574,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.8">
+    <row r="63" spans="1:3" ht="45">
       <c r="A63" s="12" t="s">
         <v>1101</v>
       </c>
@@ -37080,7 +37596,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="28.8">
+    <row r="65" spans="1:3" ht="45">
       <c r="A65" s="12" t="s">
         <v>1102</v>
       </c>
@@ -37091,7 +37607,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8">
+    <row r="66" spans="1:3" ht="45">
       <c r="A66" s="12" t="s">
         <v>1103</v>
       </c>
@@ -37102,7 +37618,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28.8">
+    <row r="67" spans="1:3" ht="45">
       <c r="A67" s="12" t="s">
         <v>1104</v>
       </c>
@@ -37113,7 +37629,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.8">
+    <row r="68" spans="1:3" ht="45">
       <c r="A68" s="12" t="s">
         <v>1105</v>
       </c>
@@ -37135,7 +37651,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="43.2">
+    <row r="70" spans="1:3" ht="45">
       <c r="A70" s="9" t="s">
         <v>1107</v>
       </c>
@@ -37146,7 +37662,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="43.2">
+    <row r="71" spans="1:3" ht="45">
       <c r="A71" s="9" t="s">
         <v>1108</v>
       </c>
@@ -37157,7 +37673,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="43.2">
+    <row r="72" spans="1:3" ht="45">
       <c r="A72" s="9" t="s">
         <v>1109</v>
       </c>
@@ -37168,7 +37684,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="43.2">
+    <row r="73" spans="1:3" ht="45">
       <c r="A73" s="9" t="s">
         <v>1110</v>
       </c>
@@ -37179,7 +37695,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="43.2">
+    <row r="74" spans="1:3" ht="45">
       <c r="A74" s="9" t="s">
         <v>1111</v>
       </c>
@@ -37190,7 +37706,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.2">
+    <row r="75" spans="1:3" ht="45">
       <c r="A75" s="9" t="s">
         <v>1112</v>
       </c>
@@ -37201,7 +37717,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="43.2">
+    <row r="76" spans="1:3" ht="45">
       <c r="A76" s="9" t="s">
         <v>1113</v>
       </c>
@@ -37212,7 +37728,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="43.2">
+    <row r="77" spans="1:3" ht="45">
       <c r="A77" s="9" t="s">
         <v>1114</v>
       </c>
@@ -37223,7 +37739,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="43.2">
+    <row r="78" spans="1:3" ht="45">
       <c r="A78" s="9" t="s">
         <v>1115</v>
       </c>
@@ -37234,7 +37750,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="43.2">
+    <row r="79" spans="1:3" ht="45">
       <c r="A79" s="9" t="s">
         <v>1116</v>
       </c>
@@ -37245,7 +37761,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="43.2">
+    <row r="80" spans="1:3" ht="45">
       <c r="A80" s="9" t="s">
         <v>1117</v>
       </c>
@@ -37256,7 +37772,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="43.2">
+    <row r="81" spans="1:3" ht="45">
       <c r="A81" s="9" t="s">
         <v>1118</v>
       </c>
@@ -37267,7 +37783,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="43.2">
+    <row r="82" spans="1:3" ht="45">
       <c r="A82" s="9" t="s">
         <v>1119</v>
       </c>
@@ -37278,7 +37794,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="43.2">
+    <row r="83" spans="1:3" ht="45">
       <c r="A83" s="9" t="s">
         <v>1120</v>
       </c>
@@ -37289,7 +37805,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="43.2">
+    <row r="84" spans="1:3" ht="45">
       <c r="A84" s="9" t="s">
         <v>1121</v>
       </c>
@@ -37300,7 +37816,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="43.2">
+    <row r="85" spans="1:3" ht="45">
       <c r="A85" s="9" t="s">
         <v>1122</v>
       </c>
@@ -37311,7 +37827,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="43.2">
+    <row r="86" spans="1:3" ht="45">
       <c r="A86" s="9" t="s">
         <v>1123</v>
       </c>
@@ -37322,7 +37838,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="43.2">
+    <row r="87" spans="1:3" ht="45">
       <c r="A87" s="9" t="s">
         <v>1124</v>
       </c>
@@ -37333,7 +37849,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="43.2">
+    <row r="88" spans="1:3" ht="45">
       <c r="A88" s="9" t="s">
         <v>1125</v>
       </c>
@@ -37344,7 +37860,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="43.2">
+    <row r="89" spans="1:3" ht="45">
       <c r="A89" s="9" t="s">
         <v>1126</v>
       </c>
@@ -37355,7 +37871,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="43.2">
+    <row r="90" spans="1:3" ht="45">
       <c r="A90" s="9" t="s">
         <v>1127</v>
       </c>
@@ -37366,7 +37882,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="43.2">
+    <row r="91" spans="1:3" ht="45">
       <c r="A91" s="9" t="s">
         <v>1128</v>
       </c>
@@ -37377,7 +37893,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="43.2">
+    <row r="92" spans="1:3" ht="45">
       <c r="A92" s="9" t="s">
         <v>1129</v>
       </c>
@@ -37388,7 +37904,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="43.2">
+    <row r="93" spans="1:3" ht="45">
       <c r="A93" s="9" t="s">
         <v>1130</v>
       </c>
@@ -37399,7 +37915,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="43.2">
+    <row r="94" spans="1:3" ht="45">
       <c r="A94" s="9" t="s">
         <v>1131</v>
       </c>
@@ -37410,7 +37926,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="43.2">
+    <row r="95" spans="1:3" ht="45">
       <c r="A95" s="9" t="s">
         <v>1132</v>
       </c>
@@ -37421,7 +37937,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="43.2">
+    <row r="96" spans="1:3" ht="45">
       <c r="A96" s="9" t="s">
         <v>1133</v>
       </c>
@@ -37432,7 +37948,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="43.2">
+    <row r="97" spans="1:3" ht="45">
       <c r="A97" s="9" t="s">
         <v>1134</v>
       </c>
@@ -37443,7 +37959,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="43.2">
+    <row r="98" spans="1:3" ht="45">
       <c r="A98" s="9" t="s">
         <v>1135</v>
       </c>
@@ -37487,7 +38003,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="43.2">
+    <row r="102" spans="1:3" ht="45">
       <c r="A102" s="9" t="s">
         <v>1139</v>
       </c>
@@ -37630,7 +38146,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="28.8">
+    <row r="115" spans="1:3" ht="30">
       <c r="A115" s="12" t="s">
         <v>1152</v>
       </c>
@@ -37641,7 +38157,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="28.8">
+    <row r="116" spans="1:3" ht="30">
       <c r="A116" s="12" t="s">
         <v>1153</v>
       </c>
@@ -37652,7 +38168,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="28.8">
+    <row r="117" spans="1:3" ht="30">
       <c r="A117" s="12" t="s">
         <v>1154</v>
       </c>
@@ -37663,7 +38179,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="28.8">
+    <row r="118" spans="1:3" ht="30">
       <c r="A118" s="12" t="s">
         <v>1155</v>
       </c>
@@ -37674,7 +38190,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="28.8">
+    <row r="119" spans="1:3" ht="30">
       <c r="A119" s="12" t="s">
         <v>1156</v>
       </c>
@@ -37685,7 +38201,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="28.8">
+    <row r="120" spans="1:3" ht="30">
       <c r="A120" s="12" t="s">
         <v>1157</v>
       </c>
@@ -37696,7 +38212,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="28.8">
+    <row r="121" spans="1:3" ht="30">
       <c r="A121" s="12" t="s">
         <v>1158</v>
       </c>
@@ -37707,7 +38223,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="28.8">
+    <row r="122" spans="1:3" ht="30">
       <c r="A122" s="12" t="s">
         <v>1159</v>
       </c>
@@ -37718,7 +38234,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="28.8">
+    <row r="123" spans="1:3" ht="30">
       <c r="A123" s="12" t="s">
         <v>1160</v>
       </c>
@@ -37729,7 +38245,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28.8">
+    <row r="124" spans="1:3" ht="30">
       <c r="A124" s="12" t="s">
         <v>1161</v>
       </c>
@@ -37740,7 +38256,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="28.8">
+    <row r="125" spans="1:3" ht="30">
       <c r="A125" s="12" t="s">
         <v>1162</v>
       </c>
@@ -37751,7 +38267,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="28.8">
+    <row r="126" spans="1:3" ht="30">
       <c r="A126" s="12" t="s">
         <v>1163</v>
       </c>
@@ -37795,7 +38311,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="28.8">
+    <row r="130" spans="1:3" ht="30">
       <c r="A130" s="12" t="s">
         <v>1166</v>
       </c>
@@ -37806,7 +38322,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="28.8">
+    <row r="131" spans="1:3" ht="30">
       <c r="A131" s="12" t="s">
         <v>1167</v>
       </c>
@@ -37817,7 +38333,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="28.8">
+    <row r="132" spans="1:3" ht="30">
       <c r="A132" s="12" t="s">
         <v>1168</v>
       </c>
@@ -37861,7 +38377,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="28.8">
+    <row r="136" spans="1:3" ht="30">
       <c r="A136" s="12" t="s">
         <v>1169</v>
       </c>
@@ -37872,7 +38388,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="28.8">
+    <row r="137" spans="1:3" ht="30">
       <c r="A137" s="12" t="s">
         <v>1170</v>
       </c>
@@ -37883,7 +38399,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="28.8">
+    <row r="138" spans="1:3" ht="30">
       <c r="A138" s="12" t="s">
         <v>1171</v>
       </c>
@@ -37894,7 +38410,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="28.8">
+    <row r="139" spans="1:3" ht="30">
       <c r="A139" s="12" t="s">
         <v>1172</v>
       </c>
@@ -37905,7 +38421,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="28.8">
+    <row r="140" spans="1:3" ht="30">
       <c r="A140" s="12" t="s">
         <v>1173</v>
       </c>
@@ -37916,7 +38432,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="28.8">
+    <row r="141" spans="1:3" ht="30">
       <c r="A141" s="12" t="s">
         <v>1174</v>
       </c>
@@ -37927,7 +38443,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="28.8">
+    <row r="142" spans="1:3" ht="30">
       <c r="A142" s="12" t="s">
         <v>1175</v>
       </c>
@@ -37949,7 +38465,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="43.2">
+    <row r="144" spans="1:3" ht="60">
       <c r="A144" s="12" t="s">
         <v>1177</v>
       </c>
@@ -37960,7 +38476,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="57.6">
+    <row r="145" spans="1:3" ht="60">
       <c r="A145" s="12" t="s">
         <v>1178</v>
       </c>
@@ -37971,7 +38487,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="43.2">
+    <row r="146" spans="1:3" ht="60">
       <c r="A146" s="12" t="s">
         <v>1179</v>
       </c>
@@ -37982,7 +38498,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="43.2">
+    <row r="147" spans="1:3" ht="60">
       <c r="A147" s="12" t="s">
         <v>1180</v>
       </c>
@@ -37993,7 +38509,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="43.2">
+    <row r="148" spans="1:3" ht="60">
       <c r="A148" s="12" t="s">
         <v>1181</v>
       </c>
@@ -38004,7 +38520,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="43.2">
+    <row r="149" spans="1:3" ht="60">
       <c r="A149" s="12" t="s">
         <v>1182</v>
       </c>
@@ -38015,7 +38531,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="43.2">
+    <row r="150" spans="1:3" ht="60">
       <c r="A150" s="12" t="s">
         <v>1183</v>
       </c>
@@ -38026,7 +38542,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="43.2">
+    <row r="151" spans="1:3" ht="60">
       <c r="A151" s="12" t="s">
         <v>1634</v>
       </c>
@@ -38059,7 +38575,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="43.2">
+    <row r="154" spans="1:3" ht="45">
       <c r="A154" s="12" t="s">
         <v>1186</v>
       </c>
@@ -38070,7 +38586,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="43.2">
+    <row r="155" spans="1:3" ht="45">
       <c r="A155" s="12" t="s">
         <v>1187</v>
       </c>
@@ -38081,7 +38597,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="28.8">
+    <row r="156" spans="1:3" ht="30">
       <c r="A156" s="12" t="s">
         <v>1188</v>
       </c>
@@ -38092,7 +38608,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="28.8">
+    <row r="157" spans="1:3" ht="30">
       <c r="A157" s="12" t="s">
         <v>1189</v>
       </c>
@@ -38103,7 +38619,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="28.8">
+    <row r="158" spans="1:3" ht="30">
       <c r="A158" s="12" t="s">
         <v>1190</v>
       </c>
@@ -38114,7 +38630,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="28.8">
+    <row r="159" spans="1:3" ht="30">
       <c r="A159" s="12" t="s">
         <v>1191</v>
       </c>
@@ -38125,7 +38641,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="28.8">
+    <row r="160" spans="1:3" ht="30">
       <c r="A160" s="12" t="s">
         <v>1192</v>
       </c>
@@ -38136,7 +38652,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="28.8">
+    <row r="161" spans="1:3" ht="30">
       <c r="A161" s="12" t="s">
         <v>1194</v>
       </c>
@@ -38147,7 +38663,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="28.8">
+    <row r="162" spans="1:3" ht="30">
       <c r="A162" s="12" t="s">
         <v>1195</v>
       </c>
@@ -38158,7 +38674,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="28.8">
+    <row r="163" spans="1:3" ht="30">
       <c r="A163" s="12" t="s">
         <v>1196</v>
       </c>
@@ -38169,7 +38685,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="28.8">
+    <row r="164" spans="1:3" ht="30">
       <c r="A164" s="12" t="s">
         <v>1197</v>
       </c>
@@ -38180,7 +38696,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="28.8">
+    <row r="165" spans="1:3" ht="30">
       <c r="A165" s="12" t="s">
         <v>1198</v>
       </c>
@@ -38191,7 +38707,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" ht="30">
       <c r="A166" s="12" t="s">
         <v>1199</v>
       </c>
@@ -38202,7 +38718,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="28.8">
+    <row r="167" spans="1:3" ht="45">
       <c r="A167" s="12" t="s">
         <v>1200</v>
       </c>
@@ -38213,7 +38729,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="28.8">
+    <row r="168" spans="1:3" ht="45">
       <c r="A168" s="12" t="s">
         <v>1201</v>
       </c>
@@ -38224,7 +38740,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="28.8">
+    <row r="169" spans="1:3" ht="45">
       <c r="A169" s="12" t="s">
         <v>1202</v>
       </c>
@@ -38235,7 +38751,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="28.8">
+    <row r="170" spans="1:3" ht="45">
       <c r="A170" s="12" t="s">
         <v>1203</v>
       </c>
@@ -38246,7 +38762,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="28.8">
+    <row r="171" spans="1:3" ht="45">
       <c r="A171" s="12" t="s">
         <v>1204</v>
       </c>
@@ -38257,7 +38773,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="28.8">
+    <row r="172" spans="1:3" ht="45">
       <c r="A172" s="12" t="s">
         <v>1205</v>
       </c>
@@ -38268,7 +38784,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="28.8">
+    <row r="173" spans="1:3" ht="30">
       <c r="A173" s="12" t="s">
         <v>1207</v>
       </c>
@@ -38279,7 +38795,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="28.8">
+    <row r="174" spans="1:3" ht="30">
       <c r="A174" s="12" t="s">
         <v>1208</v>
       </c>
@@ -38290,7 +38806,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="28.8">
+    <row r="175" spans="1:3" ht="30">
       <c r="A175" s="12" t="s">
         <v>1209</v>
       </c>
@@ -38301,7 +38817,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="28.8">
+    <row r="176" spans="1:3" ht="30">
       <c r="A176" s="12" t="s">
         <v>1210</v>
       </c>
@@ -38312,7 +38828,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="28.8">
+    <row r="177" spans="1:3" ht="30">
       <c r="A177" s="12" t="s">
         <v>1211</v>
       </c>
@@ -38323,7 +38839,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="28.8">
+    <row r="178" spans="1:3" ht="30">
       <c r="A178" s="12" t="s">
         <v>1212</v>
       </c>
@@ -38334,7 +38850,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="28.8">
+    <row r="179" spans="1:3" ht="30">
       <c r="A179" s="12" t="s">
         <v>1213</v>
       </c>
@@ -38400,7 +38916,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="28.8">
+    <row r="185" spans="1:3" ht="45">
       <c r="A185" s="12" t="s">
         <v>1221</v>
       </c>
@@ -38411,7 +38927,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="28.8">
+    <row r="186" spans="1:3" ht="45">
       <c r="A186" s="12" t="s">
         <v>1222</v>
       </c>
@@ -38422,7 +38938,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="28.8">
+    <row r="187" spans="1:3" ht="45">
       <c r="A187" s="12" t="s">
         <v>1223</v>
       </c>
@@ -38433,7 +38949,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="28.8">
+    <row r="188" spans="1:3" ht="45">
       <c r="A188" s="12" t="s">
         <v>1224</v>
       </c>
@@ -38444,7 +38960,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="28.8">
+    <row r="189" spans="1:3" ht="45">
       <c r="A189" s="12" t="s">
         <v>1225</v>
       </c>
@@ -38455,7 +38971,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="28.8">
+    <row r="190" spans="1:3" ht="45">
       <c r="A190" s="12" t="s">
         <v>1226</v>
       </c>
@@ -38466,7 +38982,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="43.2">
+    <row r="191" spans="1:3" ht="45">
       <c r="A191" t="s">
         <v>1324</v>
       </c>
@@ -38477,7 +38993,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="43.2">
+    <row r="192" spans="1:3" ht="45">
       <c r="A192" t="s">
         <v>1325</v>
       </c>
@@ -38488,7 +39004,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="43.2">
+    <row r="193" spans="1:3" ht="45">
       <c r="A193" t="s">
         <v>1326</v>
       </c>
@@ -38499,7 +39015,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="43.2">
+    <row r="194" spans="1:3" ht="45">
       <c r="A194" t="s">
         <v>1327</v>
       </c>
@@ -38510,7 +39026,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="43.2">
+    <row r="195" spans="1:3" ht="45">
       <c r="A195" t="s">
         <v>1328</v>
       </c>
@@ -38521,7 +39037,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="43.2">
+    <row r="196" spans="1:3" ht="45">
       <c r="A196" t="s">
         <v>1329</v>
       </c>
@@ -38532,7 +39048,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="43.2">
+    <row r="197" spans="1:3" ht="45">
       <c r="A197" t="s">
         <v>1330</v>
       </c>
@@ -38543,7 +39059,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="43.2">
+    <row r="198" spans="1:3" ht="45">
       <c r="A198" t="s">
         <v>1331</v>
       </c>
@@ -38565,7 +39081,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="43.2">
+    <row r="200" spans="1:3" ht="45">
       <c r="A200" t="s">
         <v>1333</v>
       </c>
@@ -38576,7 +39092,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="43.2">
+    <row r="201" spans="1:3" ht="45">
       <c r="A201" t="s">
         <v>1334</v>
       </c>
@@ -38587,7 +39103,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="43.2">
+    <row r="202" spans="1:3" ht="45">
       <c r="A202" t="s">
         <v>1335</v>
       </c>
@@ -38642,7 +39158,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="28.8">
+    <row r="207" spans="1:3" ht="30">
       <c r="A207" s="4" t="s">
         <v>1389</v>
       </c>
@@ -38829,7 +39345,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="28.8">
+    <row r="224" spans="1:3" ht="45">
       <c r="A224" s="4" t="s">
         <v>1444</v>
       </c>
@@ -38840,7 +39356,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="28.8">
+    <row r="225" spans="1:3" ht="45">
       <c r="A225" s="15" t="s">
         <v>1445</v>
       </c>
@@ -38862,7 +39378,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="28.8">
+    <row r="227" spans="1:3" ht="30">
       <c r="A227" s="15" t="s">
         <v>1448</v>
       </c>
@@ -38873,7 +39389,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="28.8">
+    <row r="228" spans="1:3" ht="30">
       <c r="A228" s="4" t="s">
         <v>1449</v>
       </c>
@@ -38884,7 +39400,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="28.8">
+    <row r="229" spans="1:3" ht="30">
       <c r="A229" s="15" t="s">
         <v>1450</v>
       </c>
@@ -38895,7 +39411,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="28.8">
+    <row r="230" spans="1:3" ht="30">
       <c r="A230" s="15" t="s">
         <v>1451</v>
       </c>
@@ -38906,7 +39422,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="28.8">
+    <row r="231" spans="1:3" ht="30">
       <c r="A231" s="4" t="s">
         <v>1452</v>
       </c>
@@ -38917,7 +39433,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="28.8">
+    <row r="232" spans="1:3" ht="30">
       <c r="A232" s="4" t="s">
         <v>1453</v>
       </c>
@@ -38928,7 +39444,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="28.8">
+    <row r="233" spans="1:3" ht="30">
       <c r="A233" s="4" t="s">
         <v>1454</v>
       </c>
@@ -38983,7 +39499,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" ht="30">
       <c r="A238" s="4" t="s">
         <v>1518</v>
       </c>
@@ -38994,7 +39510,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" ht="30">
       <c r="A239" s="15" t="s">
         <v>1519</v>
       </c>
@@ -39269,7 +39785,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="28.8">
+    <row r="264" spans="1:3" ht="30">
       <c r="A264" s="4" t="s">
         <v>1700</v>
       </c>
@@ -39280,7 +39796,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="43.2">
+    <row r="265" spans="1:3" ht="45">
       <c r="A265" s="4" t="s">
         <v>1702</v>
       </c>
@@ -39291,7 +39807,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="28.8">
+    <row r="266" spans="1:3" ht="30">
       <c r="A266" s="4" t="s">
         <v>1704</v>
       </c>
@@ -39302,7 +39818,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="28.8">
+    <row r="267" spans="1:3" ht="30">
       <c r="A267" s="4" t="s">
         <v>1705</v>
       </c>
@@ -39313,7 +39829,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="28.8">
+    <row r="268" spans="1:3" ht="30">
       <c r="A268" s="4" t="s">
         <v>1706</v>
       </c>
@@ -39357,14 +39873,80 @@
         <v>866</v>
       </c>
     </row>
-    <row r="272" spans="1:3" s="20" customFormat="1">
-      <c r="A272" s="20" t="s">
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
         <v>1710</v>
       </c>
-      <c r="B272" s="20" t="s">
+      <c r="B272" t="s">
         <v>1711</v>
       </c>
       <c r="C272" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="30">
+      <c r="A273" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="30">
+      <c r="A274" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="30">
+      <c r="A275" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="30">
+      <c r="A276" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="30">
+      <c r="A277" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="30">
+      <c r="A278" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C278" s="9" t="s">
         <v>866</v>
       </c>
     </row>
@@ -39376,19 +39958,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="9" customWidth="1"/>
     <col min="3" max="3" width="67" style="7" customWidth="1"/>
-    <col min="4" max="4" width="78.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="9"/>
+    <col min="4" max="4" width="78.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -39433,7 +40015,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="9" t="s">
         <v>1385</v>
       </c>
@@ -39461,7 +40043,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2">
+    <row r="6" spans="1:4" ht="45">
       <c r="A6" s="9" t="s">
         <v>1388</v>
       </c>
@@ -39475,7 +40057,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="144">
+    <row r="7" spans="1:4" ht="165">
       <c r="A7" s="9" t="s">
         <v>1387</v>
       </c>
@@ -39489,7 +40071,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="9" t="s">
         <v>1611</v>
       </c>
@@ -39503,7 +40085,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="86.4">
+    <row r="9" spans="1:4" ht="90">
       <c r="A9" s="9" t="s">
         <v>1092</v>
       </c>
@@ -39531,7 +40113,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57.6">
+    <row r="11" spans="1:4" ht="75">
       <c r="A11" s="9" t="s">
         <v>1161</v>
       </c>
@@ -39545,7 +40127,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57.6">
+    <row r="12" spans="1:4" ht="75">
       <c r="A12" s="9" t="s">
         <v>1159</v>
       </c>
@@ -39559,7 +40141,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="9" t="s">
         <v>1166</v>
       </c>
@@ -39573,7 +40155,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.2">
+    <row r="14" spans="1:4" ht="45">
       <c r="A14" s="9" t="s">
         <v>1149</v>
       </c>
@@ -39601,7 +40183,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" s="9" t="s">
         <v>1693</v>
       </c>
@@ -39627,6 +40209,20 @@
       </c>
       <c r="D17" s="7" t="s">
         <v>1697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>861</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1732</v>
       </c>
     </row>
   </sheetData>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9481325-D899-4439-AC7D-0F5FAEB6EAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63C843-65D5-42C9-ABD8-7F80FD707FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6145" uniqueCount="1735">
   <si>
     <t>faction</t>
   </si>
@@ -5368,13 +5368,19 @@
     <t>[the_grey_company] gimli</t>
   </si>
   <si>
-    <t>['[the_grey_company] elladan_&amp;_elrohir', '[the_grey_company] aragorn,_strider', '[the_grey_company] legolas', '[the_grey_company] gimli', '[the_rangers] halbarad', '[the_rangers] ranger_of_the_north']</t>
-  </si>
-  <si>
     <t>['[the_grey_company] aragorn,_strider']</t>
   </si>
   <si>
     <t>This force must contain Aragorn.</t>
+  </si>
+  <si>
+    <t>['[the_grey_company] elladan_&amp;_elrohir', '[the_grey_company] aragorn,_strider', '[the_grey_company] legolas', '[the_grey_company] gimli', '[the_grey_company] halbarad', '[the_grey_company] ranger_of_the_north']</t>
+  </si>
+  <si>
+    <t>[the_grey_company] halbarad</t>
+  </si>
+  <si>
+    <t>[the_grey_company] ranger_of_the_north</t>
   </si>
 </sst>
 </file>
@@ -5879,8 +5885,8 @@
   <dimension ref="A1:J413"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D418" sqref="D418"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A408" sqref="A408:A413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18799,7 +18805,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392" s="4" t="str">
-        <f t="shared" ref="A392:A411" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
+        <f t="shared" ref="A392:A413" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
         <v>[sharkey's_rogues] hobbit_militia</v>
       </c>
       <c r="B392" t="s">
@@ -19457,8 +19463,9 @@
       </c>
     </row>
     <row r="412" spans="1:10">
-      <c r="A412" s="4" t="s">
-        <v>1613</v>
+      <c r="A412" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[the_grey_company] halbarad</v>
       </c>
       <c r="B412" t="s">
         <v>211</v>
@@ -19489,8 +19496,9 @@
       </c>
     </row>
     <row r="413" spans="1:10">
-      <c r="A413" s="4" t="s">
-        <v>1614</v>
+      <c r="A413" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[the_grey_company] ranger_of_the_north</v>
       </c>
       <c r="B413" t="s">
         <v>211</v>
@@ -19537,8 +19545,8 @@
   <dimension ref="A1:H667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C668" sqref="C668"/>
+      <pane ySplit="1" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C667" sqref="C667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35642,8 +35650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36880,9 +36888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
   <dimension ref="A1:C278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A288" sqref="A288"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39889,7 +39897,7 @@
         <v>1726</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>866</v>
@@ -39900,7 +39908,7 @@
         <v>1727</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>866</v>
@@ -39911,7 +39919,7 @@
         <v>1728</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>866</v>
@@ -39922,7 +39930,7 @@
         <v>1729</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>866</v>
@@ -39930,21 +39938,21 @@
     </row>
     <row r="277" spans="1:3" ht="30">
       <c r="A277" t="s">
-        <v>1613</v>
+        <v>1733</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="30">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>1614</v>
+        <v>1734</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>1730</v>
+        <v>866</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>866</v>
@@ -40219,10 +40227,10 @@
         <v>1691</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>1731</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>1732</v>
       </c>
     </row>
   </sheetData>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD89D59B-79FD-4096-8E2D-650BDAF7CB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F291B5-E943-4FBB-9553-4A77355F94DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$C$262</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$438</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$688</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$460</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$738</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6527" uniqueCount="1808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6907" uniqueCount="1878">
   <si>
     <t>faction</t>
   </si>
@@ -5601,6 +5601,216 @@
   </si>
   <si>
     <t>['[the_men_of_the_west] aragorn,_king_elessar']</t>
+  </si>
+  <si>
+    <t>OPT0710</t>
+  </si>
+  <si>
+    <t>OPT0711</t>
+  </si>
+  <si>
+    <t>OPT0712</t>
+  </si>
+  <si>
+    <t>OPT0713</t>
+  </si>
+  <si>
+    <t>OPT0714</t>
+  </si>
+  <si>
+    <t>OPT0715</t>
+  </si>
+  <si>
+    <t>OPT0716</t>
+  </si>
+  <si>
+    <t>OPT0717</t>
+  </si>
+  <si>
+    <t>OPT0718</t>
+  </si>
+  <si>
+    <t>OPT0719</t>
+  </si>
+  <si>
+    <t>OPT0720</t>
+  </si>
+  <si>
+    <t>OPT0721</t>
+  </si>
+  <si>
+    <t>OPT0722</t>
+  </si>
+  <si>
+    <t>OPT0723</t>
+  </si>
+  <si>
+    <t>OPT0724</t>
+  </si>
+  <si>
+    <t>OPT0725</t>
+  </si>
+  <si>
+    <t>OPT0726</t>
+  </si>
+  <si>
+    <t>OPT0727</t>
+  </si>
+  <si>
+    <t>OPT0728</t>
+  </si>
+  <si>
+    <t>OPT0729</t>
+  </si>
+  <si>
+    <t>OPT0730</t>
+  </si>
+  <si>
+    <t>OPT0731</t>
+  </si>
+  <si>
+    <t>OPT0732</t>
+  </si>
+  <si>
+    <t>OPT0733</t>
+  </si>
+  <si>
+    <t>OPT0734</t>
+  </si>
+  <si>
+    <t>OPT0735</t>
+  </si>
+  <si>
+    <t>OPT0736</t>
+  </si>
+  <si>
+    <t>OPT0737</t>
+  </si>
+  <si>
+    <t>[defenders_of_helm's_deep] galadhrim_captain</t>
+  </si>
+  <si>
+    <t>[defenders_of_helm's_deep] haldir</t>
+  </si>
+  <si>
+    <t>[defenders_of_helm's_deep] gamling</t>
+  </si>
+  <si>
+    <t>[defenders_of_helm's_deep] captain_of_rohan</t>
+  </si>
+  <si>
+    <t>[defenders_of_helm's_deep] theoden</t>
+  </si>
+  <si>
+    <t>[defenders_of_helm's_deep] aldor</t>
+  </si>
+  <si>
+    <t>[defenders_of_helm's_deep] haleth</t>
+  </si>
+  <si>
+    <t>[defenders_of_helm's_deep] king's_huntsman</t>
+  </si>
+  <si>
+    <t>[defenders_of_helm's_deep] aragorn,_strider</t>
+  </si>
+  <si>
+    <t>[defenders_of_helm's_deep] legolas</t>
+  </si>
+  <si>
+    <t>[defenders_of_helm's_deep] gimli</t>
+  </si>
+  <si>
+    <t>["[defenders_of_helm's_deep] galadhrim_warrior", "[defenders_of_helm's_deep] aldor", "[defenders_of_helm's_deep] haleth", "[defenders_of_helm's_deep] rohan_royal_guard", "[defenders_of_helm's_deep] warrior_of_rohan"]</t>
+  </si>
+  <si>
+    <t>["[defenders_of_helm's_deep] theoden"]</t>
+  </si>
+  <si>
+    <t>OPT0738</t>
+  </si>
+  <si>
+    <t>OPT0739</t>
+  </si>
+  <si>
+    <t>OPT0740</t>
+  </si>
+  <si>
+    <t>OPT0741</t>
+  </si>
+  <si>
+    <t>OPT0742</t>
+  </si>
+  <si>
+    <t>OPT0743</t>
+  </si>
+  <si>
+    <t>OPT0744</t>
+  </si>
+  <si>
+    <t>OPT0745</t>
+  </si>
+  <si>
+    <t>OPT0746</t>
+  </si>
+  <si>
+    <t>OPT0747</t>
+  </si>
+  <si>
+    <t>OPT0748</t>
+  </si>
+  <si>
+    <t>OPT0749</t>
+  </si>
+  <si>
+    <t>OPT0750</t>
+  </si>
+  <si>
+    <t>OPT0751</t>
+  </si>
+  <si>
+    <t>OPT0752</t>
+  </si>
+  <si>
+    <t>OPT0753</t>
+  </si>
+  <si>
+    <t>OPT0754</t>
+  </si>
+  <si>
+    <t>OPT0755</t>
+  </si>
+  <si>
+    <t>OPT0756</t>
+  </si>
+  <si>
+    <t>OPT0757</t>
+  </si>
+  <si>
+    <t>OPT0758</t>
+  </si>
+  <si>
+    <t>[theodred's_guard] elfhelm</t>
+  </si>
+  <si>
+    <t>[theodred's_guard] grimbold</t>
+  </si>
+  <si>
+    <t>[theodred's_guard] captain_of_rohan</t>
+  </si>
+  <si>
+    <t>[theodred's_guard] theodred</t>
+  </si>
+  <si>
+    <t>["[theodred's_guard] rider_of_rohan", "[theodred's_guard] rohan_royal_guard", "[theodred's_guard] rohan_outrider", "[theodred's_guard] warrior_of_rohan"]</t>
+  </si>
+  <si>
+    <t>OPT0759</t>
+  </si>
+  <si>
+    <t>This force must contain Theodred.</t>
+  </si>
+  <si>
+    <t>["[theodred's_guard] theodred"]</t>
   </si>
 </sst>
 </file>
@@ -6102,11 +6312,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:J438"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J460"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A424" sqref="A424"/>
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A456" sqref="A456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6156,7 +6367,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A65" si="0">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C2, " ", "_")), "] ", LOWER(SUBSTITUTE(E2, " ", "_")))</f>
         <v>[angmar] shade</v>
@@ -6189,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] wild_warg_chieftain</v>
@@ -6222,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] barrow-wight</v>
@@ -6255,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_captain</v>
@@ -6288,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] golfimbul</v>
@@ -6321,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] witch_king</v>
@@ -6354,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] gulavhar</v>
@@ -6387,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_dwimmerlaik</v>
@@ -6420,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_tainted</v>
@@ -6453,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] buhrdur</v>
@@ -6486,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_shaman</v>
@@ -6519,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] cave_troll</v>
@@ -6552,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] dead_marsh_spectre</v>
@@ -6585,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_warg_rider</v>
@@ -6618,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] wild_warg</v>
@@ -6651,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_warrior</v>
@@ -6684,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_troll_chieftan</v>
@@ -6717,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] black_numenorean_marshall</v>
@@ -6750,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] ringwraith</v>
@@ -6783,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_taskmaster</v>
@@ -6816,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_captain</v>
@@ -6849,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] sauron</v>
@@ -6882,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] witch_king</v>
@@ -6915,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] shelob</v>
@@ -6948,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_drummer</v>
@@ -6981,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_shaman</v>
@@ -7014,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_war_catapult</v>
@@ -7047,7 +7258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_siege_bow</v>
@@ -7080,7 +7291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_troll</v>
@@ -7113,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] morgul_knight</v>
@@ -7146,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] warg_rider</v>
@@ -7179,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] black_numenorean</v>
@@ -7212,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_tracker</v>
@@ -7245,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_warrior</v>
@@ -7278,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[halls_of_thranduil] thranduil</v>
@@ -7311,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] thrydan_wolfsbane</v>
@@ -7344,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] gorulf_ironskin</v>
@@ -7377,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] ugluk</v>
@@ -7410,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] vrasku</v>
@@ -7443,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] frida_tallspear</v>
@@ -7476,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] mauhur</v>
@@ -7509,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_captain</v>
@@ -7542,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_scout_captain</v>
@@ -7575,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_chieftan</v>
@@ -7608,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] wild_man_oathmaker</v>
@@ -7641,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] sharku</v>
@@ -7674,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] snaga</v>
@@ -7707,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] orc_captain</v>
@@ -7740,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] saruman</v>
@@ -7773,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] lurtz</v>
@@ -7806,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_drummer</v>
@@ -7839,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] grima</v>
@@ -7872,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_shaman</v>
@@ -7905,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] isengard_assault_ballista</v>
@@ -7938,7 +8149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] isengard_troll</v>
@@ -7971,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_demolition_team</v>
@@ -8004,7 +8215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] crebain</v>
@@ -8037,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_berserker</v>
@@ -8070,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] feral_uruk-hai</v>
@@ -8103,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_horseman</v>
@@ -8136,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_huscarl</v>
@@ -8169,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] warg_rider</v>
@@ -8202,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_warrior</v>
@@ -8235,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_scout</v>
@@ -8268,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" s="4" t="str">
         <f t="shared" ref="A66:A129" si="1">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C66, " ", "_")), "] ", LOWER(SUBSTITUTE(E66, " ", "_")))</f>
         <v>[isengard] dunlending_warrior</v>
@@ -8301,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[isengard] wild_man_of_dunland</v>
@@ -8334,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[isengard] orc_warrior</v>
@@ -8367,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] orophin</v>
@@ -8400,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] rumil</v>
@@ -8433,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_captain</v>
@@ -8466,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] haldir</v>
@@ -8499,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_captain</v>
@@ -8532,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadriel</v>
@@ -8565,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" hidden="1">
       <c r="A75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] celeborn</v>
@@ -8598,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_stormcaller</v>
@@ -8631,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_sentinel</v>
@@ -8664,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_knight</v>
@@ -8697,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] guard_of_the_galadhrim_court</v>
@@ -8730,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_warrior</v>
@@ -8763,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_warrior</v>
@@ -8796,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" hidden="1">
       <c r="A82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] ingold</v>
@@ -8829,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] irolas</v>
@@ -8862,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] knight_of_the_white_tower</v>
@@ -8895,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] king_of_men</v>
@@ -8928,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] cirion</v>
@@ -8961,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] madril</v>
@@ -8994,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] captain_of_minas_tirith</v>
@@ -9027,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] aragorn,_king_elessar</v>
@@ -9060,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] gandalf_the_white</v>
@@ -9093,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" hidden="1">
       <c r="A91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] boromir</v>
@@ -9126,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] faramir</v>
@@ -9159,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] hurin</v>
@@ -9192,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] denethor</v>
@@ -9225,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" hidden="1">
       <c r="A95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] peregrin_took</v>
@@ -9258,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] anborn</v>
@@ -9291,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] mablung</v>
@@ -9324,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] beregond</v>
@@ -9357,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] damrod</v>
@@ -9390,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] gondor_battlecry_trebuchet</v>
@@ -9423,7 +9634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] avenger_bolt_thrower</v>
@@ -9456,7 +9667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] knight_of_minas_tirith</v>
@@ -9489,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] guard_of_the_fountain_court</v>
@@ -9522,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" hidden="1">
       <c r="A104" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] citadel_guard</v>
@@ -9555,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] osgiliath_veteran</v>
@@ -9588,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] ranger_of_gondor</v>
@@ -9621,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] warrior_of_minas_tirith</v>
@@ -9654,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" hidden="1">
       <c r="A108" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] great_beast_of_gorgoroth</v>
@@ -9687,7 +9898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] mordor_troll_chieftan</v>
@@ -9720,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] shagrat</v>
@@ -9753,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] goroth</v>
@@ -9786,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] muzgur</v>
@@ -9819,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" hidden="1">
       <c r="A113" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] black_numenorean_marshall</v>
@@ -9852,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" hidden="1">
       <c r="A114" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] captain_of_the_black_guard</v>
@@ -9885,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" hidden="1">
       <c r="A115" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] guritz</v>
@@ -9918,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" hidden="1">
       <c r="A116" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] kardush</v>
@@ -9951,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" hidden="1">
       <c r="A117" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gothmog's_enforcer</v>
@@ -9984,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" hidden="1">
       <c r="A118" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] zagdush</v>
@@ -10017,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" hidden="1">
       <c r="A119" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gorbag</v>
@@ -10050,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" hidden="1">
       <c r="A120" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] mordor_uruk-hai_captain</v>
@@ -10083,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" hidden="1">
       <c r="A121" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] ringwraith</v>
@@ -10116,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" hidden="1">
       <c r="A122" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] grishnak</v>
@@ -10149,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" hidden="1">
       <c r="A123" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] morannon_orc_captain</v>
@@ -10182,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" hidden="1">
       <c r="A124" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] orc_taskmaster</v>
@@ -10215,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" hidden="1">
       <c r="A125" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] orc_captain</v>
@@ -10248,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" hidden="1">
       <c r="A126" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] witch_king</v>
@@ -10281,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" hidden="1">
       <c r="A127" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gothmog</v>
@@ -10314,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" hidden="1">
       <c r="A128" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] khamul</v>
@@ -10347,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" hidden="1">
       <c r="A129" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] the_betrayer</v>
@@ -10380,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" hidden="1">
       <c r="A130" s="4" t="str">
         <f t="shared" ref="A130:A193" si="2">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C130, " ", "_")), "] ", LOWER(SUBSTITUTE(E130, " ", "_")))</f>
         <v>[mordor] the_dark_marshall</v>
@@ -10413,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" hidden="1">
       <c r="A131" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_knight_of_umbar</v>
@@ -10446,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" hidden="1">
       <c r="A132" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_shadow_lord</v>
@@ -10479,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" hidden="1">
       <c r="A133" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_undying</v>
@@ -10512,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" hidden="1">
       <c r="A134" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_dwimmerlaik</v>
@@ -10545,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" hidden="1">
       <c r="A135" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_tainted</v>
@@ -10578,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" hidden="1">
       <c r="A136" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] razgush</v>
@@ -10611,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" hidden="1">
       <c r="A137" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mouth_of_sauron</v>
@@ -10644,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" hidden="1">
       <c r="A138" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] shelob</v>
@@ -10677,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" hidden="1">
       <c r="A139" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_guard_drummer</v>
@@ -10710,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" hidden="1">
       <c r="A140" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_drummer</v>
@@ -10743,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" hidden="1">
       <c r="A141" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_shaman</v>
@@ -10776,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" hidden="1">
       <c r="A142" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_war_catapult</v>
@@ -10809,7 +11020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" hidden="1">
       <c r="A143" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_siege_bow</v>
@@ -10842,7 +11053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" hidden="1">
       <c r="A144" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_troll</v>
@@ -10875,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" hidden="1">
       <c r="A145" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morgul_knight</v>
@@ -10908,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" hidden="1">
       <c r="A146" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_guard_of_barad-dur</v>
@@ -10941,7 +11152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" hidden="1">
       <c r="A147" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] warg_rider</v>
@@ -10974,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" hidden="1">
       <c r="A148" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morgul_stalker</v>
@@ -11007,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" hidden="1">
       <c r="A149" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_numenorean</v>
@@ -11040,7 +11251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" hidden="1">
       <c r="A150" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_uruk-hai</v>
@@ -11073,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" hidden="1">
       <c r="A151" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morannon_orc</v>
@@ -11106,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" hidden="1">
       <c r="A152" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_warrior</v>
@@ -11139,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" hidden="1">
       <c r="A153" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_tracker</v>
@@ -11172,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" hidden="1">
       <c r="A154" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] druzhag</v>
@@ -11205,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" hidden="1">
       <c r="A155" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] ashrak</v>
@@ -11238,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" hidden="1">
       <c r="A156" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] groblog</v>
@@ -11271,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" hidden="1">
       <c r="A157" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_captain</v>
@@ -11304,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" hidden="1">
       <c r="A158" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_captain</v>
@@ -11337,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" hidden="1">
       <c r="A159" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] the_balrog</v>
@@ -11370,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" hidden="1">
       <c r="A160" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] dragon</v>
@@ -11403,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" hidden="1">
       <c r="A161" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] durburz</v>
@@ -11436,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" hidden="1">
       <c r="A162" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] the_watcher_in_the_water</v>
@@ -11469,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" hidden="1">
       <c r="A163" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] cave_drake</v>
@@ -11502,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" hidden="1">
       <c r="A164" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_shaman</v>
@@ -11535,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" hidden="1">
       <c r="A165" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_shaman</v>
@@ -11568,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" hidden="1">
       <c r="A166" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] dweller_in_the_dark</v>
@@ -11601,7 +11812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" hidden="1">
       <c r="A167" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_drummers</v>
@@ -11634,7 +11845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" hidden="1">
       <c r="A168" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_drum</v>
@@ -11667,7 +11878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" hidden="1">
       <c r="A169" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] cave_troll</v>
@@ -11700,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" hidden="1">
       <c r="A170" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] bat_swarm</v>
@@ -11733,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" hidden="1">
       <c r="A171" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] warg_marauder</v>
@@ -11766,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" hidden="1">
       <c r="A172" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield</v>
@@ -11799,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" hidden="1">
       <c r="A173" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_prowler</v>
@@ -11832,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" hidden="1">
       <c r="A174" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] wild_warg</v>
@@ -11865,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" hidden="1">
       <c r="A175" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_warrior</v>
@@ -11898,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" hidden="1">
       <c r="A176" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] elladan_&amp;_elrohir</v>
@@ -11931,7 +12142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" hidden="1">
       <c r="A177" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] erestor</v>
@@ -11964,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" hidden="1">
       <c r="A178" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] cirdan</v>
@@ -11997,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" hidden="1">
       <c r="A179" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_captain</v>
@@ -12030,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" hidden="1">
       <c r="A180" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] gildor_inglorion</v>
@@ -12063,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" hidden="1">
       <c r="A181" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] lindir</v>
@@ -12096,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" hidden="1">
       <c r="A182" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] arwen</v>
@@ -12129,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" hidden="1">
       <c r="A183" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] elrond</v>
@@ -12162,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" hidden="1">
       <c r="A184" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] gil-galad</v>
@@ -12195,7 +12406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" hidden="1">
       <c r="A185" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] glorfindel</v>
@@ -12228,7 +12439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" hidden="1">
       <c r="A186" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_stormcaller</v>
@@ -12261,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" hidden="1">
       <c r="A187" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] rivendell_knight</v>
@@ -12294,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" hidden="1">
       <c r="A188" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_warrior</v>
@@ -12327,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" hidden="1">
       <c r="A189" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] wood_elf_warrior</v>
@@ -12360,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" hidden="1">
       <c r="A190" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] deorwine</v>
@@ -12393,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" hidden="1">
       <c r="A191" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] erkenbrand</v>
@@ -12426,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" hidden="1">
       <c r="A192" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] elfhelm</v>
@@ -12459,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" hidden="1">
       <c r="A193" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] grimbold</v>
@@ -12492,7 +12703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" hidden="1">
       <c r="A194" s="4" t="str">
         <f t="shared" ref="A194:A257" si="3">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C194, " ", "_")), "] ", LOWER(SUBSTITUTE(E194, " ", "_")))</f>
         <v>[rohan] gamling</v>
@@ -12525,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" hidden="1">
       <c r="A195" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] hama</v>
@@ -12558,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" hidden="1">
       <c r="A196" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] captain_of_rohan</v>
@@ -12591,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" hidden="1">
       <c r="A197" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] helm_hammerhand</v>
@@ -12624,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" hidden="1">
       <c r="A198" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] theoden</v>
@@ -12657,7 +12868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" hidden="1">
       <c r="A199" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eorl_the_young</v>
@@ -12690,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" hidden="1">
       <c r="A200" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eomer</v>
@@ -12723,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" hidden="1">
       <c r="A201" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] theodred</v>
@@ -12756,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" hidden="1">
       <c r="A202" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] aldor</v>
@@ -12777,7 +12988,7 @@
         <v>44</v>
       </c>
       <c r="G202">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="H202" t="b">
         <v>1</v>
@@ -12789,7 +13000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" hidden="1">
       <c r="A203" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] haleth</v>
@@ -12822,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" hidden="1">
       <c r="A204" s="4" t="str">
         <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C204, " ", "_")), "] ", LOWER(SUBSTITUTE(E204, " ", "_")))</f>
         <v>[rohan] meriadoc_brandybuck</v>
@@ -12855,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" hidden="1">
       <c r="A205" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] dernhelm</v>
@@ -12888,7 +13099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" hidden="1">
       <c r="A206" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] king's_huntsman</v>
@@ -12921,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" hidden="1">
       <c r="A207" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eowyn</v>
@@ -12954,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" hidden="1">
       <c r="A208" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] son_of_eorl</v>
@@ -12987,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" hidden="1">
       <c r="A209" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rider_of_rohan</v>
@@ -13020,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" hidden="1">
       <c r="A210" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rohan_royal_guard</v>
@@ -13053,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" hidden="1">
       <c r="A211" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rohan_outrider</v>
@@ -13086,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" hidden="1">
       <c r="A212" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] warrior_of_rohan</v>
@@ -13119,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" hidden="1">
       <c r="A213" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] herald_of_the_dead</v>
@@ -13152,7 +13363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" hidden="1">
       <c r="A214" s="4" t="s">
         <v>1623</v>
       </c>
@@ -13184,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" hidden="1">
       <c r="A215" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] the_king_of_the_dead</v>
@@ -13217,7 +13428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" hidden="1">
       <c r="A216" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] rider_of_the_dead</v>
@@ -13250,7 +13461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" hidden="1">
       <c r="A217" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] warrior_of_the_dead</v>
@@ -13283,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" hidden="1">
       <c r="A218" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] brorgir</v>
@@ -13316,7 +13527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" hidden="1">
       <c r="A219" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_war_priest</v>
@@ -13349,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" hidden="1">
       <c r="A220" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_captain</v>
@@ -13382,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" hidden="1">
       <c r="A221" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] the_dragon_emperor</v>
@@ -13415,7 +13626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" hidden="1">
       <c r="A222" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] amdur</v>
@@ -13448,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" hidden="1">
       <c r="A223" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] khamul</v>
@@ -13481,7 +13692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" hidden="1">
       <c r="A224" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] rutabi</v>
@@ -13514,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" hidden="1">
       <c r="A225" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_dragon_knight</v>
@@ -13547,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" hidden="1">
       <c r="A226" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] rhunish_war_drake</v>
@@ -13580,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" hidden="1">
       <c r="A227" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] black_dragon_kataphrakt</v>
@@ -13613,7 +13824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" hidden="1">
       <c r="A228" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_kataphrakt</v>
@@ -13646,7 +13857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" hidden="1">
       <c r="A229" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] dragon_cult_acolyte</v>
@@ -13679,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" hidden="1">
       <c r="A230" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] black_dragon_warrior</v>
@@ -13712,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" hidden="1">
       <c r="A231" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_warrior</v>
@@ -13745,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" hidden="1">
       <c r="A232" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] frodo_baggins</v>
@@ -13778,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" hidden="1">
       <c r="A233" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] samwise_gamgee</v>
@@ -13811,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" hidden="1">
       <c r="A234" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] gandalf_the_grey</v>
@@ -13844,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" hidden="1">
       <c r="A235" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] aragorn,_strider</v>
@@ -13877,7 +14088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" hidden="1">
       <c r="A236" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] legolas</v>
@@ -13910,7 +14121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" hidden="1">
       <c r="A237" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] gimli</v>
@@ -13943,7 +14154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" hidden="1">
       <c r="A238" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] boromir_of_gondor</v>
@@ -13976,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" hidden="1">
       <c r="A239" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] smeagol</v>
@@ -14009,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" hidden="1">
       <c r="A240" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] bill_the_pony</v>
@@ -14042,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" hidden="1">
       <c r="A241" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] meriadoc_brandybuck</v>
@@ -14075,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" hidden="1">
       <c r="A242" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fellowship] peregrin_took</v>
@@ -14108,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" hidden="1">
       <c r="A243" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] captain_of_dol_amroth</v>
@@ -14141,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" hidden="1">
       <c r="A244" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] prince_imrahil</v>
@@ -14174,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" hidden="1">
       <c r="A245" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] forlong_the_fat</v>
@@ -14207,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" hidden="1">
       <c r="A246" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] angbor_the_fearless</v>
@@ -14240,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" hidden="1">
       <c r="A247" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] duinhir</v>
@@ -14273,7 +14484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" hidden="1">
       <c r="A248" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] knight_of_dol_amroth</v>
@@ -14306,7 +14517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" hidden="1">
       <c r="A249" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] axeman_of_lossarnach</v>
@@ -14339,7 +14550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" hidden="1">
       <c r="A250" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] man-at-arms_of_dol_amroth</v>
@@ -14372,7 +14583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" hidden="1">
       <c r="A251" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] blackroot_vale_archer</v>
@@ -14405,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" hidden="1">
       <c r="A252" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] clansman_of_lamedon</v>
@@ -14438,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" hidden="1">
       <c r="A253" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] brorgir</v>
@@ -14471,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" hidden="1">
       <c r="A254" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] easterling_war_priest</v>
@@ -14504,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" hidden="1">
       <c r="A255" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] easterling_captain</v>
@@ -14537,7 +14748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" hidden="1">
       <c r="A256" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] the_dragon_emperor</v>
@@ -14570,7 +14781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" hidden="1">
       <c r="A257" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] rutabi</v>
@@ -14603,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" hidden="1">
       <c r="A258" s="4" t="str">
         <f t="shared" ref="A258:A321" si="4">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C258, " ", "_")), "] ", LOWER(SUBSTITUTE(E258, " ", "_")))</f>
         <v>[the_host_of_the_dragon_emperor] easterling_dragon_knight</v>
@@ -14636,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" hidden="1">
       <c r="A259" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] rhunish_war_drake</v>
@@ -14669,7 +14880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" hidden="1">
       <c r="A260" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] easterling_kataphrakt</v>
@@ -14702,7 +14913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" hidden="1">
       <c r="A261" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] black_dragon_kataphrakt</v>
@@ -14735,7 +14946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" hidden="1">
       <c r="A262" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] dragon_cult_acolyte</v>
@@ -14768,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" hidden="1">
       <c r="A263" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] easterling_warrior</v>
@@ -14801,7 +15012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" hidden="1">
       <c r="A264" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] black_dragon_warrior</v>
@@ -14834,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" hidden="1">
       <c r="A265" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] king's_champion</v>
@@ -14867,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" hidden="1">
       <c r="A266" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] mardin</v>
@@ -14900,7 +15111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" hidden="1">
       <c r="A267" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_king</v>
@@ -14933,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" hidden="1">
       <c r="A268" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_captain</v>
@@ -14966,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" hidden="1">
       <c r="A269" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] durin</v>
@@ -14999,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" hidden="1">
       <c r="A270" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] shieldbearer</v>
@@ -15032,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" hidden="1">
       <c r="A271" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ballista</v>
@@ -15065,7 +15276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" hidden="1">
       <c r="A272" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] vault_warden_team</v>
@@ -15098,7 +15309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" hidden="1">
       <c r="A273" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] iron_guard</v>
@@ -15131,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" hidden="1">
       <c r="A274" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] khazad_guard</v>
@@ -15164,7 +15375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" hidden="1">
       <c r="A275" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ranger</v>
@@ -15197,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" hidden="1">
       <c r="A276" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_warrior</v>
@@ -15230,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" hidden="1">
       <c r="A277" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] king's_champion</v>
@@ -15263,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" hidden="1">
       <c r="A278" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] floi_stonehand</v>
@@ -15296,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" hidden="1">
       <c r="A279" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_king</v>
@@ -15329,7 +15540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" hidden="1">
       <c r="A280" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_captain</v>
@@ -15362,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" hidden="1">
       <c r="A281" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] balin</v>
@@ -15395,7 +15606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" hidden="1">
       <c r="A282" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] gimli</v>
@@ -15428,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" hidden="1">
       <c r="A283" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] shieldbearer</v>
@@ -15461,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" hidden="1">
       <c r="A284" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_ballista</v>
@@ -15494,7 +15705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" hidden="1">
       <c r="A285" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] vault_warden_team</v>
@@ -15527,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" hidden="1">
       <c r="A286" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] iron_guard</v>
@@ -15560,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" hidden="1">
       <c r="A287" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] khazad_guard</v>
@@ -15593,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" hidden="1">
       <c r="A288" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_ranger</v>
@@ -15626,7 +15837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" hidden="1">
       <c r="A289" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_warrior</v>
@@ -15659,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" hidden="1">
       <c r="A290" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] herald_of_the_dead</v>
@@ -15692,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" hidden="1">
       <c r="A291" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] aragorn,_strider</v>
@@ -15725,7 +15936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" hidden="1">
       <c r="A292" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] the_king_of_the_dead</v>
@@ -15758,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" hidden="1">
       <c r="A293" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] legolas</v>
@@ -15791,7 +16002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" hidden="1">
       <c r="A294" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] gimli</v>
@@ -15824,7 +16035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" hidden="1">
       <c r="A295" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] rider_of_the_dead</v>
@@ -15857,7 +16068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" hidden="1">
       <c r="A296" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] warrior_of_the_dead</v>
@@ -15890,7 +16101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" hidden="1">
       <c r="A297" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] hasharin</v>
@@ -15923,7 +16134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" hidden="1">
       <c r="A298" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_king</v>
@@ -15956,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" hidden="1">
       <c r="A299" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_chieftan</v>
@@ -15989,7 +16200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" hidden="1">
       <c r="A300" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] suladan</v>
@@ -16022,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" hidden="1">
       <c r="A301" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] the_golden_king</v>
@@ -16055,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" hidden="1">
       <c r="A302" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] the_betrayer</v>
@@ -16088,7 +16299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" hidden="1">
       <c r="A303" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] serpent_rider</v>
@@ -16121,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" hidden="1">
       <c r="A304" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_raider</v>
@@ -16154,7 +16365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" hidden="1">
       <c r="A305" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] abrakhan_merchant_guard</v>
@@ -16187,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" hidden="1">
       <c r="A306" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] watcher_of_karna</v>
@@ -16220,7 +16431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" hidden="1">
       <c r="A307" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] serpent_guard</v>
@@ -16253,7 +16464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" hidden="1">
       <c r="A308" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_warrior</v>
@@ -16286,7 +16497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" hidden="1">
       <c r="A309" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] gandalf_the_grey</v>
@@ -16319,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" hidden="1">
       <c r="A310" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] baldo_tulpenny</v>
@@ -16352,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" hidden="1">
       <c r="A311" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] bandobras_took</v>
@@ -16385,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" hidden="1">
       <c r="A312" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] bilbo_baggins</v>
@@ -16418,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" hidden="1">
       <c r="A313" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] farmer_maggot</v>
@@ -16451,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" hidden="1">
       <c r="A314" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] farmer_tolman_cotton</v>
@@ -16484,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" hidden="1">
       <c r="A315" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] folco_boffin</v>
@@ -16517,7 +16728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" hidden="1">
       <c r="A316" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] fredegar_bolger</v>
@@ -16550,7 +16761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" hidden="1">
       <c r="A317" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] frodo_of_the_nine_fingers</v>
@@ -16583,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" hidden="1">
       <c r="A318" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] grip,_fang_and_wolf</v>
@@ -16616,7 +16827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" hidden="1">
       <c r="A319" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] hamfast_'gaffer'_gamgee</v>
@@ -16649,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" hidden="1">
       <c r="A320" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] hobbit_archer</v>
@@ -16682,7 +16893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" hidden="1">
       <c r="A321" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] hobbit_militia</v>
@@ -16715,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" hidden="1">
       <c r="A322" s="4" t="str">
         <f t="shared" ref="A322:A385" si="5">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C322, " ", "_")), "] ", LOWER(SUBSTITUTE(E322, " ", "_")))</f>
         <v>[the_shire] holfoot_bracegirdle</v>
@@ -16748,7 +16959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" hidden="1">
       <c r="A323" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] lobelia_sackville-baggins</v>
@@ -16781,7 +16992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" hidden="1">
       <c r="A324" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] lotho_sackville-baggins</v>
@@ -16814,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" hidden="1">
       <c r="A325" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] meriadoc,_captain_of_the_shire</v>
@@ -16847,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" hidden="1">
       <c r="A326" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] paladin_took</v>
@@ -16880,7 +17091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" hidden="1">
       <c r="A327" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] peregrin,_captain_of_the_shire</v>
@@ -16913,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" hidden="1">
       <c r="A328" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] robin_smallburrow</v>
@@ -16946,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" hidden="1">
       <c r="A329" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] rosie_cotton</v>
@@ -16979,7 +17190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" hidden="1">
       <c r="A330" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] samwise_the_brave</v>
@@ -17012,7 +17223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" hidden="1">
       <c r="A331" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] will_whitfoot</v>
@@ -17045,7 +17256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" hidden="1">
       <c r="A332" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] hobbit_shirriff</v>
@@ -17078,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" hidden="1">
       <c r="A333" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_arbalester</v>
@@ -17111,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" hidden="1">
       <c r="A334" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_bo'sun</v>
@@ -17144,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" hidden="1">
       <c r="A335" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_captain</v>
@@ -17177,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" hidden="1">
       <c r="A336" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_of_umbar</v>
@@ -17210,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" hidden="1">
       <c r="A337" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_reaver</v>
@@ -17243,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" hidden="1">
       <c r="A338" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] dalamyr,_fleetmaster_of_umbar</v>
@@ -17276,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" hidden="1">
       <c r="A339" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] delgamar,_gatemaster_of_umbar</v>
@@ -17309,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" hidden="1">
       <c r="A340" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] half_troll</v>
@@ -17342,7 +17553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" hidden="1">
       <c r="A341" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_serpent_horde] haradrim_taskmaster</v>
@@ -17375,7 +17586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" hidden="1">
       <c r="A342" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_charioteer</v>
@@ -17408,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" hidden="1">
       <c r="A343" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_chieftain</v>
@@ -17441,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" hidden="1">
       <c r="A344" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_horseman</v>
@@ -17474,7 +17685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" hidden="1">
       <c r="A345" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_king</v>
@@ -17507,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" hidden="1">
       <c r="A346" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_warrior</v>
@@ -17540,7 +17751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" hidden="1">
       <c r="A347" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_king</v>
@@ -17573,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" hidden="1">
       <c r="A348" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_raider</v>
@@ -17606,7 +17817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" hidden="1">
       <c r="A349" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_tribesmaster</v>
@@ -17639,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" hidden="1">
       <c r="A350" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_warrior</v>
@@ -17672,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" hidden="1">
       <c r="A351" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_serpent_horde] raza,_fang_of_the_serpent</v>
@@ -17705,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" hidden="1">
       <c r="A352" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] the_mumak_war_leader</v>
@@ -17738,7 +17949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" hidden="1">
       <c r="A353" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] war_mumak_of_far_harad</v>
@@ -17771,7 +17982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" hidden="1">
       <c r="A354" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_serpent_horde] war_mumak_of_harad</v>
@@ -17804,7 +18015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" hidden="1">
       <c r="A355" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] the_knight_of_umbar</v>
@@ -17837,7 +18048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" hidden="1">
       <c r="A356" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] hasharin</v>
@@ -17870,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" hidden="1">
       <c r="A357" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] black_numenorean_marshall</v>
@@ -17903,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" hidden="1">
       <c r="A358" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] black_numenorean</v>
@@ -17936,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" hidden="1">
       <c r="A359" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] arathorn</v>
@@ -17969,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" hidden="1">
       <c r="A360" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] arvedui,_last_king_of_arnor</v>
@@ -18002,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" hidden="1">
       <c r="A361" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] beechbone</v>
@@ -18035,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" hidden="1">
       <c r="A362" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] bill_ferny</v>
@@ -18068,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" hidden="1">
       <c r="A363" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] captain_of_arnor</v>
@@ -18101,7 +18312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" hidden="1">
       <c r="A364" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] captain_of_numenor</v>
@@ -18134,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" hidden="1">
       <c r="A365" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] dunedain</v>
@@ -18167,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" hidden="1">
       <c r="A366" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] elendil</v>
@@ -18200,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" hidden="1">
       <c r="A367" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] ent</v>
@@ -18233,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" hidden="1">
       <c r="A368" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[wildmen_of_druadan] ghan-buri-ghan</v>
@@ -18266,7 +18477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" hidden="1">
       <c r="A369" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_misty_mountains] great_eagle</v>
@@ -18299,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" hidden="1">
       <c r="A370" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_misty_mountains] gwaihir</v>
@@ -18332,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" hidden="1">
       <c r="A371" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] halbarad</v>
@@ -18365,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" hidden="1">
       <c r="A372" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] harry_goatleaf</v>
@@ -18398,7 +18609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" hidden="1">
       <c r="A373" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] isildur</v>
@@ -18431,7 +18642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" hidden="1">
       <c r="A374" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] malbeth_the_seer</v>
@@ -18464,7 +18675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" hidden="1">
       <c r="A375" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] quickbeam</v>
@@ -18497,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" hidden="1">
       <c r="A376" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] ranger_of_the_north</v>
@@ -18530,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" hidden="1">
       <c r="A377" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] rowan_thistlewood,_ruffian_enforcer</v>
@@ -18563,7 +18774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" hidden="1">
       <c r="A378" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] ruffian</v>
@@ -18596,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" hidden="1">
       <c r="A379" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] sharkey_and_worm</v>
@@ -18629,7 +18840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" hidden="1">
       <c r="A380" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] sid_briarthorn,_ruffian_chief</v>
@@ -18662,7 +18873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" hidden="1">
       <c r="A381" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] ted_sandyman</v>
@@ -18695,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" hidden="1">
       <c r="A382" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] treebeard</v>
@@ -18728,7 +18939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" hidden="1">
       <c r="A383" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] warrior_of_arnor</v>
@@ -18761,7 +18972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" hidden="1">
       <c r="A384" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] warrior_of_numenor</v>
@@ -18794,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" hidden="1">
       <c r="A385" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[wildmen_of_druadan] woses_warrior</v>
@@ -18827,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" hidden="1">
       <c r="A386" s="4" t="str">
         <f t="shared" ref="A386:A389" si="6">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C386, " ", "_")), "] ", LOWER(SUBSTITUTE(E386, " ", "_")))</f>
         <v>[the_shire] dunedain</v>
@@ -18860,7 +19071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" hidden="1">
       <c r="A387" s="4" t="str">
         <f t="shared" si="6"/>
         <v>[arnor] hobbit_archer</v>
@@ -18893,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" hidden="1">
       <c r="A388" s="4" t="str">
         <f t="shared" si="6"/>
         <v>[the_rangers] aragorn,_strider</v>
@@ -18926,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" hidden="1">
       <c r="A389" s="4" t="str">
         <f t="shared" si="6"/>
         <v>[sharkey's_rogues] lotho_sackville-baggins</v>
@@ -18959,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" hidden="1">
       <c r="A390" s="4" t="s">
         <v>1618</v>
       </c>
@@ -18991,7 +19202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" hidden="1">
       <c r="A391" s="4" t="s">
         <v>1617</v>
       </c>
@@ -19023,9 +19234,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" hidden="1">
       <c r="A392" s="4" t="str">
-        <f t="shared" ref="A392:A438" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
+        <f t="shared" ref="A392:A455" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
         <v>[sharkey's_rogues] hobbit_militia</v>
       </c>
       <c r="B392" t="s">
@@ -19056,7 +19267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" hidden="1">
       <c r="A393" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_fellowship] arwen</v>
@@ -19089,7 +19300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" hidden="1">
       <c r="A394" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rivendell] bilbo_baggins</v>
@@ -19122,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" hidden="1">
       <c r="A395" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] madril</v>
@@ -19155,7 +19366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" hidden="1">
       <c r="A396" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] faramir</v>
@@ -19188,7 +19399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" hidden="1">
       <c r="A397" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] anborn</v>
@@ -19221,7 +19432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" hidden="1">
       <c r="A398" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] mablung</v>
@@ -19254,7 +19465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" hidden="1">
       <c r="A399" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] damrod</v>
@@ -19287,7 +19498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" hidden="1">
       <c r="A400" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] osgiliath_veteran</v>
@@ -19320,7 +19531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" hidden="1">
       <c r="A401" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] ranger_of_gondor</v>
@@ -19353,7 +19564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" hidden="1">
       <c r="A402" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] warrior_of_minas_tirith</v>
@@ -19386,7 +19597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" hidden="1">
       <c r="A403" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] frodo_baggins</v>
@@ -19419,7 +19630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" hidden="1">
       <c r="A404" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] samwise_gamgee</v>
@@ -19452,7 +19663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" hidden="1">
       <c r="A405" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] smeagol</v>
@@ -19485,7 +19696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" hidden="1">
       <c r="A406" t="s">
         <v>1710</v>
       </c>
@@ -19517,7 +19728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" hidden="1">
       <c r="A407" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] captain_of_minas_tirith</v>
@@ -19550,7 +19761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" hidden="1">
       <c r="A408" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] elladan_&amp;_elrohir</v>
@@ -19583,7 +19794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" hidden="1">
       <c r="A409" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] aragorn,_strider</v>
@@ -19616,7 +19827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" hidden="1">
       <c r="A410" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] legolas</v>
@@ -19649,7 +19860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" hidden="1">
       <c r="A411" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] gimli</v>
@@ -19682,7 +19893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" hidden="1">
       <c r="A412" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] halbarad</v>
@@ -19715,7 +19926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" hidden="1">
       <c r="A413" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] ranger_of_the_north</v>
@@ -19748,7 +19959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" hidden="1">
       <c r="A414" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] deorwine</v>
@@ -19781,7 +19992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" hidden="1">
       <c r="A415" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] elfhelm</v>
@@ -19814,7 +20025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" hidden="1">
       <c r="A416" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] gamling</v>
@@ -19847,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:10" hidden="1">
       <c r="A417" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] captain_of_rohan</v>
@@ -19880,7 +20091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:10" hidden="1">
       <c r="A418" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] theoden</v>
@@ -19913,7 +20124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" spans="1:10" hidden="1">
       <c r="A419" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] eomer</v>
@@ -19946,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:10" hidden="1">
       <c r="A420" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] dernhelm</v>
@@ -19979,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" hidden="1">
       <c r="A421" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] rider_of_rohan</v>
@@ -20012,7 +20223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" hidden="1">
       <c r="A422" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] rohan_royal_guard</v>
@@ -20045,7 +20256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" hidden="1">
       <c r="A423" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] captain_of_minas_tirith</v>
@@ -20078,7 +20289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" hidden="1">
       <c r="A424" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] aragorn,_king_elessar</v>
@@ -20111,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" hidden="1">
       <c r="A425" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] gandalf_the_white</v>
@@ -20144,7 +20355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" hidden="1">
       <c r="A426" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] peregrin_took</v>
@@ -20177,7 +20388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" hidden="1">
       <c r="A427" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] beregond</v>
@@ -20210,7 +20421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" hidden="1">
       <c r="A428" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] warrior_of_minas_tirith</v>
@@ -20243,7 +20454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" hidden="1">
       <c r="A429" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] captain_of_rohan</v>
@@ -20276,7 +20487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" hidden="1">
       <c r="A430" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] eomer</v>
@@ -20309,7 +20520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" hidden="1">
       <c r="A431" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] meriadoc_brandybuck</v>
@@ -20342,7 +20553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:10" hidden="1">
       <c r="A432" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] warrior_of_rohan</v>
@@ -20375,7 +20586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" hidden="1">
       <c r="A433" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] captain_of_dol_amroth</v>
@@ -20408,7 +20619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" hidden="1">
       <c r="A434" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] prince_imrahil</v>
@@ -20441,7 +20652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" hidden="1">
       <c r="A435" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] knight_of_dol_amroth</v>
@@ -20474,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" hidden="1">
       <c r="A436" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] elladan_&amp;_elrohir</v>
@@ -20507,7 +20718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" hidden="1">
       <c r="A437" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] legolas</v>
@@ -20540,7 +20751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" hidden="1">
       <c r="A438" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] gimli</v>
@@ -20573,8 +20784,740 @@
         <v>0</v>
       </c>
     </row>
+    <row r="439" spans="1:10" hidden="1">
+      <c r="A439" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] galadhrim_captain</v>
+      </c>
+      <c r="B439" t="s">
+        <v>211</v>
+      </c>
+      <c r="C439" t="s">
+        <v>901</v>
+      </c>
+      <c r="D439" t="s">
+        <v>58</v>
+      </c>
+      <c r="E439" t="s">
+        <v>60</v>
+      </c>
+      <c r="F439" t="s">
+        <v>10</v>
+      </c>
+      <c r="G439">
+        <v>70</v>
+      </c>
+      <c r="H439" t="b">
+        <v>0</v>
+      </c>
+      <c r="I439" t="b">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" hidden="1">
+      <c r="A440" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] haldir</v>
+      </c>
+      <c r="B440" t="s">
+        <v>211</v>
+      </c>
+      <c r="C440" t="s">
+        <v>901</v>
+      </c>
+      <c r="D440" t="s">
+        <v>58</v>
+      </c>
+      <c r="E440" t="s">
+        <v>65</v>
+      </c>
+      <c r="F440" t="s">
+        <v>10</v>
+      </c>
+      <c r="G440">
+        <v>80</v>
+      </c>
+      <c r="H440" t="b">
+        <v>0</v>
+      </c>
+      <c r="I440" t="b">
+        <v>1</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" hidden="1">
+      <c r="A441" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] galadhrim_warrior</v>
+      </c>
+      <c r="B441" t="s">
+        <v>211</v>
+      </c>
+      <c r="C441" t="s">
+        <v>901</v>
+      </c>
+      <c r="D441" t="s">
+        <v>58</v>
+      </c>
+      <c r="E441" t="s">
+        <v>62</v>
+      </c>
+      <c r="F441" t="s">
+        <v>12</v>
+      </c>
+      <c r="G441">
+        <v>9</v>
+      </c>
+      <c r="H441" t="b">
+        <v>0</v>
+      </c>
+      <c r="I441" t="b">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" hidden="1">
+      <c r="A442" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] gamling</v>
+      </c>
+      <c r="B442" t="s">
+        <v>211</v>
+      </c>
+      <c r="C442" t="s">
+        <v>901</v>
+      </c>
+      <c r="D442" t="s">
+        <v>132</v>
+      </c>
+      <c r="E442" t="s">
+        <v>135</v>
+      </c>
+      <c r="F442" t="s">
+        <v>10</v>
+      </c>
+      <c r="G442">
+        <v>55</v>
+      </c>
+      <c r="H442" t="b">
+        <v>0</v>
+      </c>
+      <c r="I442" t="b">
+        <v>1</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" hidden="1">
+      <c r="A443" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] captain_of_rohan</v>
+      </c>
+      <c r="B443" t="s">
+        <v>211</v>
+      </c>
+      <c r="C443" t="s">
+        <v>901</v>
+      </c>
+      <c r="D443" t="s">
+        <v>132</v>
+      </c>
+      <c r="E443" t="s">
+        <v>159</v>
+      </c>
+      <c r="F443" t="s">
+        <v>10</v>
+      </c>
+      <c r="G443">
+        <v>45</v>
+      </c>
+      <c r="H443" t="b">
+        <v>0</v>
+      </c>
+      <c r="I443" t="b">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" hidden="1">
+      <c r="A444" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] theoden</v>
+      </c>
+      <c r="B444" t="s">
+        <v>211</v>
+      </c>
+      <c r="C444" t="s">
+        <v>901</v>
+      </c>
+      <c r="D444" t="s">
+        <v>132</v>
+      </c>
+      <c r="E444" t="s">
+        <v>139</v>
+      </c>
+      <c r="F444" t="s">
+        <v>15</v>
+      </c>
+      <c r="G444">
+        <v>80</v>
+      </c>
+      <c r="H444" t="b">
+        <v>0</v>
+      </c>
+      <c r="I444" t="b">
+        <v>1</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" hidden="1">
+      <c r="A445" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] aldor</v>
+      </c>
+      <c r="B445" t="s">
+        <v>211</v>
+      </c>
+      <c r="C445" t="s">
+        <v>901</v>
+      </c>
+      <c r="D445" t="s">
+        <v>132</v>
+      </c>
+      <c r="E445" t="s">
+        <v>157</v>
+      </c>
+      <c r="F445" t="s">
+        <v>44</v>
+      </c>
+      <c r="G445">
+        <v>20</v>
+      </c>
+      <c r="H445" t="b">
+        <v>1</v>
+      </c>
+      <c r="I445" t="b">
+        <v>1</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" hidden="1">
+      <c r="A446" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] haleth</v>
+      </c>
+      <c r="B446" t="s">
+        <v>211</v>
+      </c>
+      <c r="C446" t="s">
+        <v>901</v>
+      </c>
+      <c r="D446" t="s">
+        <v>132</v>
+      </c>
+      <c r="E446" t="s">
+        <v>168</v>
+      </c>
+      <c r="F446" t="s">
+        <v>44</v>
+      </c>
+      <c r="G446">
+        <v>30</v>
+      </c>
+      <c r="H446" t="b">
+        <v>0</v>
+      </c>
+      <c r="I446" t="b">
+        <v>1</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" hidden="1">
+      <c r="A447" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] king's_huntsman</v>
+      </c>
+      <c r="B447" t="s">
+        <v>211</v>
+      </c>
+      <c r="C447" t="s">
+        <v>901</v>
+      </c>
+      <c r="D447" t="s">
+        <v>132</v>
+      </c>
+      <c r="E447" t="s">
+        <v>172</v>
+      </c>
+      <c r="F447" t="s">
+        <v>22</v>
+      </c>
+      <c r="G447">
+        <v>50</v>
+      </c>
+      <c r="H447" t="b">
+        <v>1</v>
+      </c>
+      <c r="I447" t="b">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" hidden="1">
+      <c r="A448" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] rohan_royal_guard</v>
+      </c>
+      <c r="B448" t="s">
+        <v>211</v>
+      </c>
+      <c r="C448" t="s">
+        <v>901</v>
+      </c>
+      <c r="D448" t="s">
+        <v>132</v>
+      </c>
+      <c r="E448" t="s">
+        <v>138</v>
+      </c>
+      <c r="F448" t="s">
+        <v>12</v>
+      </c>
+      <c r="G448">
+        <v>10</v>
+      </c>
+      <c r="H448" t="b">
+        <v>0</v>
+      </c>
+      <c r="I448" t="b">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" hidden="1">
+      <c r="A449" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] warrior_of_rohan</v>
+      </c>
+      <c r="B449" t="s">
+        <v>211</v>
+      </c>
+      <c r="C449" t="s">
+        <v>901</v>
+      </c>
+      <c r="D449" t="s">
+        <v>132</v>
+      </c>
+      <c r="E449" t="s">
+        <v>140</v>
+      </c>
+      <c r="F449" t="s">
+        <v>12</v>
+      </c>
+      <c r="G449">
+        <v>6</v>
+      </c>
+      <c r="H449" t="b">
+        <v>0</v>
+      </c>
+      <c r="I449" t="b">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" hidden="1">
+      <c r="A450" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] aragorn,_strider</v>
+      </c>
+      <c r="B450" t="s">
+        <v>211</v>
+      </c>
+      <c r="C450" t="s">
+        <v>901</v>
+      </c>
+      <c r="D450" t="s">
+        <v>3</v>
+      </c>
+      <c r="E450" t="s">
+        <v>4</v>
+      </c>
+      <c r="F450" t="s">
+        <v>7</v>
+      </c>
+      <c r="G450">
+        <v>165</v>
+      </c>
+      <c r="H450" t="b">
+        <v>0</v>
+      </c>
+      <c r="I450" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" hidden="1">
+      <c r="A451" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] legolas</v>
+      </c>
+      <c r="B451" t="s">
+        <v>211</v>
+      </c>
+      <c r="C451" t="s">
+        <v>901</v>
+      </c>
+      <c r="D451" t="s">
+        <v>3</v>
+      </c>
+      <c r="E451" t="s">
+        <v>5</v>
+      </c>
+      <c r="F451" t="s">
+        <v>7</v>
+      </c>
+      <c r="G451">
+        <v>100</v>
+      </c>
+      <c r="H451" t="b">
+        <v>0</v>
+      </c>
+      <c r="I451" t="b">
+        <v>1</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" hidden="1">
+      <c r="A452" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>[defenders_of_helm's_deep] gimli</v>
+      </c>
+      <c r="B452" t="s">
+        <v>211</v>
+      </c>
+      <c r="C452" t="s">
+        <v>901</v>
+      </c>
+      <c r="D452" t="s">
+        <v>3</v>
+      </c>
+      <c r="E452" t="s">
+        <v>6</v>
+      </c>
+      <c r="F452" t="s">
+        <v>7</v>
+      </c>
+      <c r="G452">
+        <v>100</v>
+      </c>
+      <c r="H452" t="b">
+        <v>0</v>
+      </c>
+      <c r="I452" t="b">
+        <v>1</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10">
+      <c r="A453" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>[theodred's_guard] elfhelm</v>
+      </c>
+      <c r="B453" t="s">
+        <v>211</v>
+      </c>
+      <c r="C453" t="s">
+        <v>899</v>
+      </c>
+      <c r="D453" t="s">
+        <v>132</v>
+      </c>
+      <c r="E453" t="s">
+        <v>161</v>
+      </c>
+      <c r="F453" t="s">
+        <v>10</v>
+      </c>
+      <c r="G453">
+        <v>65</v>
+      </c>
+      <c r="H453" t="b">
+        <v>0</v>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10">
+      <c r="A454" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>[theodred's_guard] grimbold</v>
+      </c>
+      <c r="B454" t="s">
+        <v>211</v>
+      </c>
+      <c r="C454" t="s">
+        <v>899</v>
+      </c>
+      <c r="D454" t="s">
+        <v>132</v>
+      </c>
+      <c r="E454" t="s">
+        <v>167</v>
+      </c>
+      <c r="F454" t="s">
+        <v>10</v>
+      </c>
+      <c r="G454">
+        <v>60</v>
+      </c>
+      <c r="H454" t="b">
+        <v>0</v>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10">
+      <c r="A455" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>[theodred's_guard] captain_of_rohan</v>
+      </c>
+      <c r="B455" t="s">
+        <v>211</v>
+      </c>
+      <c r="C455" t="s">
+        <v>899</v>
+      </c>
+      <c r="D455" t="s">
+        <v>132</v>
+      </c>
+      <c r="E455" t="s">
+        <v>159</v>
+      </c>
+      <c r="F455" t="s">
+        <v>10</v>
+      </c>
+      <c r="G455">
+        <v>45</v>
+      </c>
+      <c r="H455" t="b">
+        <v>0</v>
+      </c>
+      <c r="I455" t="b">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10">
+      <c r="A456" s="15" t="str">
+        <f t="shared" ref="A456:A460" si="8">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C456, " ", "_")), "] ", LOWER(SUBSTITUTE(E456, " ", "_")))</f>
+        <v>[theodred's_guard] theodred</v>
+      </c>
+      <c r="B456" t="s">
+        <v>211</v>
+      </c>
+      <c r="C456" t="s">
+        <v>899</v>
+      </c>
+      <c r="D456" t="s">
+        <v>132</v>
+      </c>
+      <c r="E456" t="s">
+        <v>181</v>
+      </c>
+      <c r="F456" t="s">
+        <v>7</v>
+      </c>
+      <c r="G456">
+        <v>80</v>
+      </c>
+      <c r="H456" t="b">
+        <v>0</v>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10">
+      <c r="A457" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[theodred's_guard] rider_of_rohan</v>
+      </c>
+      <c r="B457" t="s">
+        <v>211</v>
+      </c>
+      <c r="C457" t="s">
+        <v>899</v>
+      </c>
+      <c r="D457" t="s">
+        <v>132</v>
+      </c>
+      <c r="E457" t="s">
+        <v>137</v>
+      </c>
+      <c r="F457" t="s">
+        <v>12</v>
+      </c>
+      <c r="G457">
+        <v>14</v>
+      </c>
+      <c r="H457" t="b">
+        <v>0</v>
+      </c>
+      <c r="I457" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10">
+      <c r="A458" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[theodred's_guard] rohan_royal_guard</v>
+      </c>
+      <c r="B458" t="s">
+        <v>211</v>
+      </c>
+      <c r="C458" t="s">
+        <v>899</v>
+      </c>
+      <c r="D458" t="s">
+        <v>132</v>
+      </c>
+      <c r="E458" t="s">
+        <v>138</v>
+      </c>
+      <c r="F458" t="s">
+        <v>12</v>
+      </c>
+      <c r="G458">
+        <v>10</v>
+      </c>
+      <c r="H458" t="b">
+        <v>0</v>
+      </c>
+      <c r="I458" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10">
+      <c r="A459" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[theodred's_guard] rohan_outrider</v>
+      </c>
+      <c r="B459" t="s">
+        <v>211</v>
+      </c>
+      <c r="C459" t="s">
+        <v>899</v>
+      </c>
+      <c r="D459" t="s">
+        <v>132</v>
+      </c>
+      <c r="E459" t="s">
+        <v>176</v>
+      </c>
+      <c r="F459" t="s">
+        <v>12</v>
+      </c>
+      <c r="G459">
+        <v>8</v>
+      </c>
+      <c r="H459" t="b">
+        <v>1</v>
+      </c>
+      <c r="I459" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10">
+      <c r="A460" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[theodred's_guard] warrior_of_rohan</v>
+      </c>
+      <c r="B460" t="s">
+        <v>211</v>
+      </c>
+      <c r="C460" t="s">
+        <v>899</v>
+      </c>
+      <c r="D460" t="s">
+        <v>132</v>
+      </c>
+      <c r="E460" t="s">
+        <v>140</v>
+      </c>
+      <c r="F460" t="s">
+        <v>12</v>
+      </c>
+      <c r="G460">
+        <v>6</v>
+      </c>
+      <c r="H460" t="b">
+        <v>0</v>
+      </c>
+      <c r="I460" t="b">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J438" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
+  <autoFilter ref="A1:J460" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Theodred's Guard"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J308">
     <sortCondition ref="C2:C308"/>
     <sortCondition ref="F2:F308"/>
@@ -20587,11 +21530,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <dimension ref="A1:H710"/>
+  <dimension ref="A1:H760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A679" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E702" sqref="E702"/>
+      <pane ySplit="1" topLeftCell="A732" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D756" sqref="D756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37719,8 +38662,1209 @@
         <v>1</v>
       </c>
     </row>
+    <row r="711" spans="1:8">
+      <c r="A711" s="5" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B711" t="s">
+        <v>901</v>
+      </c>
+      <c r="C711" t="s">
+        <v>60</v>
+      </c>
+      <c r="D711" t="s">
+        <v>354</v>
+      </c>
+      <c r="E711">
+        <v>5</v>
+      </c>
+      <c r="G711">
+        <v>0</v>
+      </c>
+      <c r="H711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8">
+      <c r="A712" s="5" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B712" t="s">
+        <v>901</v>
+      </c>
+      <c r="C712" t="s">
+        <v>60</v>
+      </c>
+      <c r="D712" t="s">
+        <v>312</v>
+      </c>
+      <c r="E712">
+        <v>5</v>
+      </c>
+      <c r="G712">
+        <v>0</v>
+      </c>
+      <c r="H712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8">
+      <c r="A713" s="5" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B713" t="s">
+        <v>901</v>
+      </c>
+      <c r="C713" t="s">
+        <v>62</v>
+      </c>
+      <c r="D713" t="s">
+        <v>284</v>
+      </c>
+      <c r="E713">
+        <v>30</v>
+      </c>
+      <c r="G713">
+        <v>0</v>
+      </c>
+      <c r="H713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8">
+      <c r="A714" s="5" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B714" t="s">
+        <v>901</v>
+      </c>
+      <c r="C714" t="s">
+        <v>62</v>
+      </c>
+      <c r="D714" t="s">
+        <v>286</v>
+      </c>
+      <c r="E714">
+        <v>25</v>
+      </c>
+      <c r="G714">
+        <v>0</v>
+      </c>
+      <c r="H714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8">
+      <c r="A715" s="5" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B715" t="s">
+        <v>901</v>
+      </c>
+      <c r="C715" t="s">
+        <v>62</v>
+      </c>
+      <c r="D715" t="s">
+        <v>354</v>
+      </c>
+      <c r="E715">
+        <v>2</v>
+      </c>
+      <c r="F715" t="s">
+        <v>317</v>
+      </c>
+      <c r="G715">
+        <v>0</v>
+      </c>
+      <c r="H715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8">
+      <c r="A716" s="5" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B716" t="s">
+        <v>901</v>
+      </c>
+      <c r="C716" t="s">
+        <v>62</v>
+      </c>
+      <c r="D716" t="s">
+        <v>312</v>
+      </c>
+      <c r="E716">
+        <v>1</v>
+      </c>
+      <c r="G716">
+        <v>0</v>
+      </c>
+      <c r="H716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8">
+      <c r="A717" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B717" t="s">
+        <v>901</v>
+      </c>
+      <c r="C717" t="s">
+        <v>62</v>
+      </c>
+      <c r="D717" t="s">
+        <v>320</v>
+      </c>
+      <c r="E717">
+        <v>1</v>
+      </c>
+      <c r="G717">
+        <v>0</v>
+      </c>
+      <c r="H717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8">
+      <c r="A718" s="5" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B718" t="s">
+        <v>901</v>
+      </c>
+      <c r="C718" t="s">
+        <v>65</v>
+      </c>
+      <c r="D718" t="s">
+        <v>350</v>
+      </c>
+      <c r="E718">
+        <v>10</v>
+      </c>
+      <c r="F718" t="s">
+        <v>351</v>
+      </c>
+      <c r="G718">
+        <v>1</v>
+      </c>
+      <c r="H718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8">
+      <c r="A719" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B719" t="s">
+        <v>901</v>
+      </c>
+      <c r="C719" t="s">
+        <v>65</v>
+      </c>
+      <c r="D719" t="s">
+        <v>354</v>
+      </c>
+      <c r="E719">
+        <v>5</v>
+      </c>
+      <c r="G719">
+        <v>1</v>
+      </c>
+      <c r="H719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8">
+      <c r="A720" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B720" t="s">
+        <v>901</v>
+      </c>
+      <c r="C720" t="s">
+        <v>65</v>
+      </c>
+      <c r="D720" t="s">
+        <v>440</v>
+      </c>
+      <c r="E720">
+        <v>5</v>
+      </c>
+      <c r="G720">
+        <v>0</v>
+      </c>
+      <c r="H720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8">
+      <c r="A721" s="5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B721" t="s">
+        <v>901</v>
+      </c>
+      <c r="C721" t="s">
+        <v>159</v>
+      </c>
+      <c r="D721" t="s">
+        <v>356</v>
+      </c>
+      <c r="E721">
+        <v>5</v>
+      </c>
+      <c r="F721" t="s">
+        <v>317</v>
+      </c>
+      <c r="G721">
+        <v>0</v>
+      </c>
+      <c r="H721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8">
+      <c r="A722" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B722" t="s">
+        <v>901</v>
+      </c>
+      <c r="C722" t="s">
+        <v>159</v>
+      </c>
+      <c r="D722" t="s">
+        <v>350</v>
+      </c>
+      <c r="E722">
+        <v>5</v>
+      </c>
+      <c r="F722" t="s">
+        <v>351</v>
+      </c>
+      <c r="G722">
+        <v>0</v>
+      </c>
+      <c r="H722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8">
+      <c r="A723" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B723" t="s">
+        <v>901</v>
+      </c>
+      <c r="C723" t="s">
+        <v>159</v>
+      </c>
+      <c r="D723" t="s">
+        <v>312</v>
+      </c>
+      <c r="E723">
+        <v>5</v>
+      </c>
+      <c r="G723">
+        <v>0</v>
+      </c>
+      <c r="H723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8">
+      <c r="A724" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B724" t="s">
+        <v>901</v>
+      </c>
+      <c r="C724" t="s">
+        <v>159</v>
+      </c>
+      <c r="D724" t="s">
+        <v>332</v>
+      </c>
+      <c r="E724">
+        <v>5</v>
+      </c>
+      <c r="G724">
+        <v>0</v>
+      </c>
+      <c r="H724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8">
+      <c r="A725" s="5" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B725" t="s">
+        <v>901</v>
+      </c>
+      <c r="C725" t="s">
+        <v>135</v>
+      </c>
+      <c r="D725" t="s">
+        <v>653</v>
+      </c>
+      <c r="E725">
+        <v>50</v>
+      </c>
+      <c r="G725">
+        <v>0</v>
+      </c>
+      <c r="H725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8">
+      <c r="A726" s="5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B726" t="s">
+        <v>901</v>
+      </c>
+      <c r="C726" t="s">
+        <v>138</v>
+      </c>
+      <c r="D726" t="s">
+        <v>286</v>
+      </c>
+      <c r="E726">
+        <v>25</v>
+      </c>
+      <c r="G726">
+        <v>0</v>
+      </c>
+      <c r="H726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8">
+      <c r="A727" s="5" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B727" t="s">
+        <v>901</v>
+      </c>
+      <c r="C727" t="s">
+        <v>138</v>
+      </c>
+      <c r="D727" t="s">
+        <v>332</v>
+      </c>
+      <c r="E727">
+        <v>2</v>
+      </c>
+      <c r="G727">
+        <v>0</v>
+      </c>
+      <c r="H727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8">
+      <c r="A728" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B728" t="s">
+        <v>901</v>
+      </c>
+      <c r="C728" t="s">
+        <v>139</v>
+      </c>
+      <c r="D728" t="s">
+        <v>350</v>
+      </c>
+      <c r="E728">
+        <v>5</v>
+      </c>
+      <c r="F728" t="s">
+        <v>351</v>
+      </c>
+      <c r="G728">
+        <v>1</v>
+      </c>
+      <c r="H728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8">
+      <c r="A729" s="5" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B729" t="s">
+        <v>901</v>
+      </c>
+      <c r="C729" t="s">
+        <v>139</v>
+      </c>
+      <c r="D729" t="s">
+        <v>312</v>
+      </c>
+      <c r="E729">
+        <v>5</v>
+      </c>
+      <c r="G729">
+        <v>0</v>
+      </c>
+      <c r="H729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8">
+      <c r="A730" s="5" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B730" t="s">
+        <v>901</v>
+      </c>
+      <c r="C730" t="s">
+        <v>140</v>
+      </c>
+      <c r="D730" t="s">
+        <v>284</v>
+      </c>
+      <c r="E730">
+        <v>30</v>
+      </c>
+      <c r="G730">
+        <v>0</v>
+      </c>
+      <c r="H730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8">
+      <c r="A731" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B731" t="s">
+        <v>901</v>
+      </c>
+      <c r="C731" t="s">
+        <v>140</v>
+      </c>
+      <c r="D731" t="s">
+        <v>286</v>
+      </c>
+      <c r="E731">
+        <v>25</v>
+      </c>
+      <c r="G731">
+        <v>0</v>
+      </c>
+      <c r="H731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8">
+      <c r="A732" s="5" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B732" t="s">
+        <v>901</v>
+      </c>
+      <c r="C732" t="s">
+        <v>140</v>
+      </c>
+      <c r="D732" t="s">
+        <v>332</v>
+      </c>
+      <c r="E732">
+        <v>2</v>
+      </c>
+      <c r="G732">
+        <v>0</v>
+      </c>
+      <c r="H732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8">
+      <c r="A733" s="5" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B733" t="s">
+        <v>901</v>
+      </c>
+      <c r="C733" t="s">
+        <v>140</v>
+      </c>
+      <c r="D733" t="s">
+        <v>312</v>
+      </c>
+      <c r="E733">
+        <v>1</v>
+      </c>
+      <c r="G733">
+        <v>0</v>
+      </c>
+      <c r="H733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8">
+      <c r="A734" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B734" t="s">
+        <v>901</v>
+      </c>
+      <c r="C734" t="s">
+        <v>140</v>
+      </c>
+      <c r="D734" t="s">
+        <v>356</v>
+      </c>
+      <c r="E734">
+        <v>1</v>
+      </c>
+      <c r="F734" t="s">
+        <v>317</v>
+      </c>
+      <c r="G734">
+        <v>0</v>
+      </c>
+      <c r="H734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8">
+      <c r="A735" s="5" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B735" t="s">
+        <v>901</v>
+      </c>
+      <c r="C735" t="s">
+        <v>4</v>
+      </c>
+      <c r="D735" t="s">
+        <v>648</v>
+      </c>
+      <c r="E735">
+        <v>5</v>
+      </c>
+      <c r="F735" t="s">
+        <v>351</v>
+      </c>
+      <c r="G735">
+        <v>1</v>
+      </c>
+      <c r="H735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8">
+      <c r="A736" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B736" t="s">
+        <v>901</v>
+      </c>
+      <c r="C736" t="s">
+        <v>5</v>
+      </c>
+      <c r="D736" t="s">
+        <v>648</v>
+      </c>
+      <c r="E736">
+        <v>5</v>
+      </c>
+      <c r="F736" t="s">
+        <v>351</v>
+      </c>
+      <c r="G736">
+        <v>0</v>
+      </c>
+      <c r="H736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8">
+      <c r="A737" s="5" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B737" t="s">
+        <v>901</v>
+      </c>
+      <c r="C737" t="s">
+        <v>5</v>
+      </c>
+      <c r="D737" t="s">
+        <v>440</v>
+      </c>
+      <c r="E737">
+        <v>5</v>
+      </c>
+      <c r="G737">
+        <v>0</v>
+      </c>
+      <c r="H737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8">
+      <c r="A738" s="5" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B738" t="s">
+        <v>901</v>
+      </c>
+      <c r="C738" t="s">
+        <v>6</v>
+      </c>
+      <c r="D738" t="s">
+        <v>440</v>
+      </c>
+      <c r="E738">
+        <v>5</v>
+      </c>
+      <c r="G738">
+        <v>0</v>
+      </c>
+      <c r="H738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8">
+      <c r="A739" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B739" t="s">
+        <v>899</v>
+      </c>
+      <c r="C739" t="s">
+        <v>159</v>
+      </c>
+      <c r="D739" t="s">
+        <v>262</v>
+      </c>
+      <c r="E739">
+        <v>10</v>
+      </c>
+      <c r="F739" t="s">
+        <v>256</v>
+      </c>
+      <c r="G739">
+        <v>0</v>
+      </c>
+      <c r="H739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8">
+      <c r="A740" s="5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B740" t="s">
+        <v>899</v>
+      </c>
+      <c r="C740" t="s">
+        <v>159</v>
+      </c>
+      <c r="D740" t="s">
+        <v>356</v>
+      </c>
+      <c r="E740">
+        <v>5</v>
+      </c>
+      <c r="F740" t="s">
+        <v>317</v>
+      </c>
+      <c r="G740">
+        <v>0</v>
+      </c>
+      <c r="H740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8">
+      <c r="A741" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B741" t="s">
+        <v>899</v>
+      </c>
+      <c r="C741" t="s">
+        <v>159</v>
+      </c>
+      <c r="D741" t="s">
+        <v>350</v>
+      </c>
+      <c r="E741">
+        <v>5</v>
+      </c>
+      <c r="F741" t="s">
+        <v>351</v>
+      </c>
+      <c r="G741">
+        <v>0</v>
+      </c>
+      <c r="H741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8">
+      <c r="A742" s="5" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B742" t="s">
+        <v>899</v>
+      </c>
+      <c r="C742" t="s">
+        <v>159</v>
+      </c>
+      <c r="D742" t="s">
+        <v>312</v>
+      </c>
+      <c r="E742">
+        <v>5</v>
+      </c>
+      <c r="G742">
+        <v>0</v>
+      </c>
+      <c r="H742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8">
+      <c r="A743" s="5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B743" t="s">
+        <v>899</v>
+      </c>
+      <c r="C743" t="s">
+        <v>159</v>
+      </c>
+      <c r="D743" t="s">
+        <v>332</v>
+      </c>
+      <c r="E743">
+        <v>5</v>
+      </c>
+      <c r="G743">
+        <v>0</v>
+      </c>
+      <c r="H743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8">
+      <c r="A744" s="5" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B744" t="s">
+        <v>899</v>
+      </c>
+      <c r="C744" t="s">
+        <v>161</v>
+      </c>
+      <c r="D744" t="s">
+        <v>262</v>
+      </c>
+      <c r="E744">
+        <v>10</v>
+      </c>
+      <c r="F744" t="s">
+        <v>256</v>
+      </c>
+      <c r="G744">
+        <v>0</v>
+      </c>
+      <c r="H744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8">
+      <c r="A745" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B745" t="s">
+        <v>899</v>
+      </c>
+      <c r="C745" t="s">
+        <v>137</v>
+      </c>
+      <c r="D745" t="s">
+        <v>284</v>
+      </c>
+      <c r="E745">
+        <v>30</v>
+      </c>
+      <c r="G745">
+        <v>0</v>
+      </c>
+      <c r="H745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8">
+      <c r="A746" s="5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B746" t="s">
+        <v>899</v>
+      </c>
+      <c r="C746" t="s">
+        <v>137</v>
+      </c>
+      <c r="D746" t="s">
+        <v>286</v>
+      </c>
+      <c r="E746">
+        <v>25</v>
+      </c>
+      <c r="G746">
+        <v>0</v>
+      </c>
+      <c r="H746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8">
+      <c r="A747" s="5" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B747" t="s">
+        <v>899</v>
+      </c>
+      <c r="C747" t="s">
+        <v>137</v>
+      </c>
+      <c r="D747" t="s">
+        <v>332</v>
+      </c>
+      <c r="E747">
+        <v>2</v>
+      </c>
+      <c r="G747">
+        <v>0</v>
+      </c>
+      <c r="H747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8">
+      <c r="A748" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B748" t="s">
+        <v>899</v>
+      </c>
+      <c r="C748" t="s">
+        <v>176</v>
+      </c>
+      <c r="D748" t="s">
+        <v>262</v>
+      </c>
+      <c r="E748">
+        <v>5</v>
+      </c>
+      <c r="F748" t="s">
+        <v>256</v>
+      </c>
+      <c r="G748">
+        <v>0</v>
+      </c>
+      <c r="H748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8">
+      <c r="A749" s="5" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B749" t="s">
+        <v>899</v>
+      </c>
+      <c r="C749" t="s">
+        <v>138</v>
+      </c>
+      <c r="D749" t="s">
+        <v>286</v>
+      </c>
+      <c r="E749">
+        <v>25</v>
+      </c>
+      <c r="G749">
+        <v>0</v>
+      </c>
+      <c r="H749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8">
+      <c r="A750" s="5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B750" t="s">
+        <v>899</v>
+      </c>
+      <c r="C750" t="s">
+        <v>138</v>
+      </c>
+      <c r="D750" t="s">
+        <v>262</v>
+      </c>
+      <c r="E750">
+        <v>5</v>
+      </c>
+      <c r="F750" t="s">
+        <v>256</v>
+      </c>
+      <c r="G750">
+        <v>0</v>
+      </c>
+      <c r="H750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8">
+      <c r="A751" s="5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B751" t="s">
+        <v>899</v>
+      </c>
+      <c r="C751" t="s">
+        <v>138</v>
+      </c>
+      <c r="D751" t="s">
+        <v>332</v>
+      </c>
+      <c r="E751">
+        <v>2</v>
+      </c>
+      <c r="G751">
+        <v>0</v>
+      </c>
+      <c r="H751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8">
+      <c r="A752" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B752" t="s">
+        <v>899</v>
+      </c>
+      <c r="C752" t="s">
+        <v>181</v>
+      </c>
+      <c r="D752" t="s">
+        <v>262</v>
+      </c>
+      <c r="E752">
+        <v>10</v>
+      </c>
+      <c r="F752" t="s">
+        <v>256</v>
+      </c>
+      <c r="G752">
+        <v>0</v>
+      </c>
+      <c r="H752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8">
+      <c r="A753" s="5" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B753" t="s">
+        <v>899</v>
+      </c>
+      <c r="C753" t="s">
+        <v>181</v>
+      </c>
+      <c r="D753" t="s">
+        <v>312</v>
+      </c>
+      <c r="E753">
+        <v>5</v>
+      </c>
+      <c r="G753">
+        <v>0</v>
+      </c>
+      <c r="H753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8">
+      <c r="A754" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B754" t="s">
+        <v>899</v>
+      </c>
+      <c r="C754" t="s">
+        <v>181</v>
+      </c>
+      <c r="D754" t="s">
+        <v>332</v>
+      </c>
+      <c r="E754">
+        <v>5</v>
+      </c>
+      <c r="G754">
+        <v>0</v>
+      </c>
+      <c r="H754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8">
+      <c r="A755" s="5" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B755" t="s">
+        <v>899</v>
+      </c>
+      <c r="C755" t="s">
+        <v>140</v>
+      </c>
+      <c r="D755" t="s">
+        <v>284</v>
+      </c>
+      <c r="E755">
+        <v>30</v>
+      </c>
+      <c r="G755">
+        <v>0</v>
+      </c>
+      <c r="H755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8">
+      <c r="A756" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B756" t="s">
+        <v>899</v>
+      </c>
+      <c r="C756" t="s">
+        <v>140</v>
+      </c>
+      <c r="D756" t="s">
+        <v>286</v>
+      </c>
+      <c r="E756">
+        <v>25</v>
+      </c>
+      <c r="G756">
+        <v>0</v>
+      </c>
+      <c r="H756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8">
+      <c r="A757" s="5" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B757" t="s">
+        <v>899</v>
+      </c>
+      <c r="C757" t="s">
+        <v>140</v>
+      </c>
+      <c r="D757" t="s">
+        <v>332</v>
+      </c>
+      <c r="E757">
+        <v>2</v>
+      </c>
+      <c r="G757">
+        <v>0</v>
+      </c>
+      <c r="H757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8">
+      <c r="A758" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B758" t="s">
+        <v>899</v>
+      </c>
+      <c r="C758" t="s">
+        <v>140</v>
+      </c>
+      <c r="D758" t="s">
+        <v>312</v>
+      </c>
+      <c r="E758">
+        <v>1</v>
+      </c>
+      <c r="G758">
+        <v>0</v>
+      </c>
+      <c r="H758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8">
+      <c r="A759" s="5" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B759" t="s">
+        <v>899</v>
+      </c>
+      <c r="C759" t="s">
+        <v>140</v>
+      </c>
+      <c r="D759" t="s">
+        <v>356</v>
+      </c>
+      <c r="E759">
+        <v>1</v>
+      </c>
+      <c r="F759" t="s">
+        <v>317</v>
+      </c>
+      <c r="G759">
+        <v>0</v>
+      </c>
+      <c r="H759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8">
+      <c r="A760" s="5" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B760" t="s">
+        <v>899</v>
+      </c>
+      <c r="C760" t="s">
+        <v>140</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E760">
+        <v>1</v>
+      </c>
+      <c r="F760" t="s">
+        <v>402</v>
+      </c>
+      <c r="G760">
+        <v>0</v>
+      </c>
+      <c r="H760">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H688" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
+  <autoFilter ref="A1:H738" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H525">
     <sortCondition ref="B2:B525"/>
     <sortCondition ref="C2:C525"/>
@@ -37735,8 +39879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38971,11 +41115,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:C313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E299" sqref="E299"/>
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42263,6 +44407,171 @@
         <v>863</v>
       </c>
     </row>
+    <row r="299" spans="1:3" ht="30">
+      <c r="A299" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="30">
+      <c r="A300" s="4" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="30">
+      <c r="A301" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="30">
+      <c r="A302" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="30">
+      <c r="A303" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="30">
+      <c r="A306" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="30">
+      <c r="A307" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="30">
+      <c r="A308" s="4" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="30">
+      <c r="A309" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="30">
+      <c r="A310" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="30">
+      <c r="A311" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="30">
+      <c r="A312" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="30">
+      <c r="A313" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C262" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42271,9 +44580,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -42566,6 +44875,34 @@
         <v>1806</v>
       </c>
     </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>901</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>899</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1876</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F291B5-E943-4FBB-9553-4A77355F94DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE0DB8-61E1-47F8-934E-C8AC8BE4FF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$C$262</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$460</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$738</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$477</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$774</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6907" uniqueCount="1878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7210" uniqueCount="1936">
   <si>
     <t>faction</t>
   </si>
@@ -5811,6 +5811,180 @@
   </si>
   <si>
     <t>["[theodred's_guard] theodred"]</t>
+  </si>
+  <si>
+    <t>OPT0760</t>
+  </si>
+  <si>
+    <t>OPT0761</t>
+  </si>
+  <si>
+    <t>OPT0762</t>
+  </si>
+  <si>
+    <t>OPT0763</t>
+  </si>
+  <si>
+    <t>OPT0764</t>
+  </si>
+  <si>
+    <t>OPT0765</t>
+  </si>
+  <si>
+    <t>OPT0766</t>
+  </si>
+  <si>
+    <t>OPT0767</t>
+  </si>
+  <si>
+    <t>OPT0768</t>
+  </si>
+  <si>
+    <t>OPT0769</t>
+  </si>
+  <si>
+    <t>OPT0770</t>
+  </si>
+  <si>
+    <t>OPT0771</t>
+  </si>
+  <si>
+    <t>OPT0772</t>
+  </si>
+  <si>
+    <t>OPT0773</t>
+  </si>
+  <si>
+    <t>[riders_of_eomer] erkenbrand</t>
+  </si>
+  <si>
+    <t>[riders_of_eomer] captain_of_rohan</t>
+  </si>
+  <si>
+    <t>[riders_of_eomer] eomer</t>
+  </si>
+  <si>
+    <t>[riders_of_eomer] gandalf_the_white</t>
+  </si>
+  <si>
+    <t>["[riders_of_eomer] rider_of_rohan"]</t>
+  </si>
+  <si>
+    <t>This force must contain Eomer.</t>
+  </si>
+  <si>
+    <t>["[riders_of_eomer] eomer"]</t>
+  </si>
+  <si>
+    <t>OPT0774</t>
+  </si>
+  <si>
+    <t>OPT0775</t>
+  </si>
+  <si>
+    <t>OPT0776</t>
+  </si>
+  <si>
+    <t>OPT0777</t>
+  </si>
+  <si>
+    <t>OPT0778</t>
+  </si>
+  <si>
+    <t>OPT0779</t>
+  </si>
+  <si>
+    <t>OPT0780</t>
+  </si>
+  <si>
+    <t>OPT0781</t>
+  </si>
+  <si>
+    <t>OPT0782</t>
+  </si>
+  <si>
+    <t>OPT0783</t>
+  </si>
+  <si>
+    <t>OPT0784</t>
+  </si>
+  <si>
+    <t>OPT0785</t>
+  </si>
+  <si>
+    <t>OPT0786</t>
+  </si>
+  <si>
+    <t>OPT0787</t>
+  </si>
+  <si>
+    <t>OPT0788</t>
+  </si>
+  <si>
+    <t>OPT0789</t>
+  </si>
+  <si>
+    <t>OPT0790</t>
+  </si>
+  <si>
+    <t>OPT0791</t>
+  </si>
+  <si>
+    <t>OPT0792</t>
+  </si>
+  <si>
+    <t>OPT0793</t>
+  </si>
+  <si>
+    <t>OPT0794</t>
+  </si>
+  <si>
+    <t>OPT0795</t>
+  </si>
+  <si>
+    <t>OPT0796</t>
+  </si>
+  <si>
+    <t>[paths_of_the_druadan] deorwine</t>
+  </si>
+  <si>
+    <t>[paths_of_the_druadan] elfhelm</t>
+  </si>
+  <si>
+    <t>[paths_of_the_druadan] gamling</t>
+  </si>
+  <si>
+    <t>[paths_of_the_druadan] captain_of_rohan</t>
+  </si>
+  <si>
+    <t>[paths_of_the_druadan] theoden</t>
+  </si>
+  <si>
+    <t>[paths_of_the_druadan] eomer</t>
+  </si>
+  <si>
+    <t>[paths_of_the_druadan] dernhelm</t>
+  </si>
+  <si>
+    <t>[paths_of_the_druadan] ghan-buri-ghan</t>
+  </si>
+  <si>
+    <t>['[paths_of_the_druadan] rider_of_rohan', '[paths_of_the_druadan] rohan_royal_guard', '[paths_of_the_druadan] rohan_outrider']</t>
+  </si>
+  <si>
+    <t>['[paths_of_the_druadan] woses_warrior']</t>
+  </si>
+  <si>
+    <t>['[paths_of_the_druadan] theoden']</t>
+  </si>
+  <si>
+    <t>['[paths_of_the_druadan] ghan-buri-ghan']</t>
+  </si>
+  <si>
+    <t>This force must contain Ghan-Buri-Ghan.</t>
+  </si>
+  <si>
+    <t>Ghan-Buri-Ghan's warband must contain a full warband of Woses Warriors.</t>
   </si>
 </sst>
 </file>
@@ -6313,11 +6487,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J460"/>
+  <dimension ref="A1:J477"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A456" sqref="A456"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E485" sqref="E485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21246,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" spans="1:10" hidden="1">
       <c r="A453" s="15" t="str">
         <f t="shared" si="7"/>
         <v>[theodred's_guard] elfhelm</v>
@@ -21279,7 +21453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:10" hidden="1">
       <c r="A454" s="15" t="str">
         <f t="shared" si="7"/>
         <v>[theodred's_guard] grimbold</v>
@@ -21312,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" spans="1:10" hidden="1">
       <c r="A455" s="15" t="str">
         <f t="shared" si="7"/>
         <v>[theodred's_guard] captain_of_rohan</v>
@@ -21345,9 +21519,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:10">
+    <row r="456" spans="1:10" hidden="1">
       <c r="A456" s="15" t="str">
-        <f t="shared" ref="A456:A460" si="8">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C456, " ", "_")), "] ", LOWER(SUBSTITUTE(E456, " ", "_")))</f>
+        <f t="shared" ref="A456:A477" si="8">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C456, " ", "_")), "] ", LOWER(SUBSTITUTE(E456, " ", "_")))</f>
         <v>[theodred's_guard] theodred</v>
       </c>
       <c r="B456" t="s">
@@ -21378,7 +21552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" spans="1:10" hidden="1">
       <c r="A457" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[theodred's_guard] rider_of_rohan</v>
@@ -21411,7 +21585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" spans="1:10" hidden="1">
       <c r="A458" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[theodred's_guard] rohan_royal_guard</v>
@@ -21444,7 +21618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:10">
+    <row r="459" spans="1:10" hidden="1">
       <c r="A459" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[theodred's_guard] rohan_outrider</v>
@@ -21477,7 +21651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:10">
+    <row r="460" spans="1:10" hidden="1">
       <c r="A460" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[theodred's_guard] warrior_of_rohan</v>
@@ -21510,11 +21684,572 @@
         <v>0</v>
       </c>
     </row>
+    <row r="461" spans="1:10" hidden="1">
+      <c r="A461" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[riders_of_eomer] erkenbrand</v>
+      </c>
+      <c r="B461" t="s">
+        <v>211</v>
+      </c>
+      <c r="C461" t="s">
+        <v>860</v>
+      </c>
+      <c r="D461" t="s">
+        <v>132</v>
+      </c>
+      <c r="E461" t="s">
+        <v>163</v>
+      </c>
+      <c r="F461" t="s">
+        <v>10</v>
+      </c>
+      <c r="G461">
+        <v>85</v>
+      </c>
+      <c r="H461" t="b">
+        <v>0</v>
+      </c>
+      <c r="I461" t="b">
+        <v>1</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" hidden="1">
+      <c r="A462" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[riders_of_eomer] captain_of_rohan</v>
+      </c>
+      <c r="B462" t="s">
+        <v>211</v>
+      </c>
+      <c r="C462" t="s">
+        <v>860</v>
+      </c>
+      <c r="D462" t="s">
+        <v>132</v>
+      </c>
+      <c r="E462" t="s">
+        <v>159</v>
+      </c>
+      <c r="F462" t="s">
+        <v>10</v>
+      </c>
+      <c r="G462">
+        <v>55</v>
+      </c>
+      <c r="H462" t="b">
+        <v>0</v>
+      </c>
+      <c r="I462" t="b">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" hidden="1">
+      <c r="A463" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[riders_of_eomer] eomer</v>
+      </c>
+      <c r="B463" t="s">
+        <v>211</v>
+      </c>
+      <c r="C463" t="s">
+        <v>860</v>
+      </c>
+      <c r="D463" t="s">
+        <v>132</v>
+      </c>
+      <c r="E463" t="s">
+        <v>134</v>
+      </c>
+      <c r="F463" t="s">
+        <v>7</v>
+      </c>
+      <c r="G463">
+        <v>110</v>
+      </c>
+      <c r="H463" t="b">
+        <v>0</v>
+      </c>
+      <c r="I463" t="b">
+        <v>1</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" hidden="1">
+      <c r="A464" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[riders_of_eomer] rider_of_rohan</v>
+      </c>
+      <c r="B464" t="s">
+        <v>211</v>
+      </c>
+      <c r="C464" t="s">
+        <v>860</v>
+      </c>
+      <c r="D464" t="s">
+        <v>132</v>
+      </c>
+      <c r="E464" t="s">
+        <v>137</v>
+      </c>
+      <c r="F464" t="s">
+        <v>12</v>
+      </c>
+      <c r="G464">
+        <v>14</v>
+      </c>
+      <c r="H464" t="b">
+        <v>0</v>
+      </c>
+      <c r="I464" t="b">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" hidden="1">
+      <c r="A465" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[riders_of_eomer] gandalf_the_white</v>
+      </c>
+      <c r="B465" t="s">
+        <v>211</v>
+      </c>
+      <c r="C465" t="s">
+        <v>860</v>
+      </c>
+      <c r="D465" t="s">
+        <v>71</v>
+      </c>
+      <c r="E465" t="s">
+        <v>83</v>
+      </c>
+      <c r="F465" t="s">
+        <v>7</v>
+      </c>
+      <c r="G465">
+        <v>240</v>
+      </c>
+      <c r="H465" t="b">
+        <v>0</v>
+      </c>
+      <c r="I465" t="b">
+        <v>1</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10">
+      <c r="A466" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] deorwine</v>
+      </c>
+      <c r="B466" t="s">
+        <v>211</v>
+      </c>
+      <c r="C466" t="s">
+        <v>917</v>
+      </c>
+      <c r="D466" t="s">
+        <v>132</v>
+      </c>
+      <c r="E466" t="s">
+        <v>160</v>
+      </c>
+      <c r="F466" t="s">
+        <v>10</v>
+      </c>
+      <c r="G466">
+        <v>85</v>
+      </c>
+      <c r="H466" t="b">
+        <v>0</v>
+      </c>
+      <c r="I466" t="b">
+        <v>1</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10">
+      <c r="A467" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] elfhelm</v>
+      </c>
+      <c r="B467" t="s">
+        <v>211</v>
+      </c>
+      <c r="C467" t="s">
+        <v>917</v>
+      </c>
+      <c r="D467" t="s">
+        <v>132</v>
+      </c>
+      <c r="E467" t="s">
+        <v>161</v>
+      </c>
+      <c r="F467" t="s">
+        <v>10</v>
+      </c>
+      <c r="G467">
+        <v>75</v>
+      </c>
+      <c r="H467" t="b">
+        <v>0</v>
+      </c>
+      <c r="I467" t="b">
+        <v>1</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10">
+      <c r="A468" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] gamling</v>
+      </c>
+      <c r="B468" t="s">
+        <v>211</v>
+      </c>
+      <c r="C468" t="s">
+        <v>917</v>
+      </c>
+      <c r="D468" t="s">
+        <v>132</v>
+      </c>
+      <c r="E468" t="s">
+        <v>135</v>
+      </c>
+      <c r="F468" t="s">
+        <v>10</v>
+      </c>
+      <c r="G468">
+        <v>65</v>
+      </c>
+      <c r="H468" t="b">
+        <v>0</v>
+      </c>
+      <c r="I468" t="b">
+        <v>1</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10">
+      <c r="A469" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] captain_of_rohan</v>
+      </c>
+      <c r="B469" t="s">
+        <v>211</v>
+      </c>
+      <c r="C469" t="s">
+        <v>917</v>
+      </c>
+      <c r="D469" t="s">
+        <v>132</v>
+      </c>
+      <c r="E469" t="s">
+        <v>159</v>
+      </c>
+      <c r="F469" t="s">
+        <v>10</v>
+      </c>
+      <c r="G469">
+        <v>55</v>
+      </c>
+      <c r="H469" t="b">
+        <v>0</v>
+      </c>
+      <c r="I469" t="b">
+        <v>0</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10">
+      <c r="A470" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] theoden</v>
+      </c>
+      <c r="B470" t="s">
+        <v>211</v>
+      </c>
+      <c r="C470" t="s">
+        <v>917</v>
+      </c>
+      <c r="D470" t="s">
+        <v>132</v>
+      </c>
+      <c r="E470" t="s">
+        <v>139</v>
+      </c>
+      <c r="F470" t="s">
+        <v>15</v>
+      </c>
+      <c r="G470">
+        <v>90</v>
+      </c>
+      <c r="H470" t="b">
+        <v>0</v>
+      </c>
+      <c r="I470" t="b">
+        <v>1</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10">
+      <c r="A471" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] eomer</v>
+      </c>
+      <c r="B471" t="s">
+        <v>211</v>
+      </c>
+      <c r="C471" t="s">
+        <v>917</v>
+      </c>
+      <c r="D471" t="s">
+        <v>132</v>
+      </c>
+      <c r="E471" t="s">
+        <v>134</v>
+      </c>
+      <c r="F471" t="s">
+        <v>7</v>
+      </c>
+      <c r="G471">
+        <v>115</v>
+      </c>
+      <c r="H471" t="b">
+        <v>0</v>
+      </c>
+      <c r="I471" t="b">
+        <v>1</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10">
+      <c r="A472" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] dernhelm</v>
+      </c>
+      <c r="B472" t="s">
+        <v>211</v>
+      </c>
+      <c r="C472" t="s">
+        <v>917</v>
+      </c>
+      <c r="D472" t="s">
+        <v>132</v>
+      </c>
+      <c r="E472" t="s">
+        <v>133</v>
+      </c>
+      <c r="F472" t="s">
+        <v>22</v>
+      </c>
+      <c r="G472">
+        <v>75</v>
+      </c>
+      <c r="H472" t="b">
+        <v>0</v>
+      </c>
+      <c r="I472" t="b">
+        <v>1</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10">
+      <c r="A473" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] rider_of_rohan</v>
+      </c>
+      <c r="B473" t="s">
+        <v>211</v>
+      </c>
+      <c r="C473" t="s">
+        <v>917</v>
+      </c>
+      <c r="D473" t="s">
+        <v>132</v>
+      </c>
+      <c r="E473" t="s">
+        <v>137</v>
+      </c>
+      <c r="F473" t="s">
+        <v>12</v>
+      </c>
+      <c r="G473">
+        <v>14</v>
+      </c>
+      <c r="H473" t="b">
+        <v>0</v>
+      </c>
+      <c r="I473" t="b">
+        <v>0</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10">
+      <c r="A474" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] rohan_royal_guard</v>
+      </c>
+      <c r="B474" t="s">
+        <v>211</v>
+      </c>
+      <c r="C474" t="s">
+        <v>917</v>
+      </c>
+      <c r="D474" t="s">
+        <v>132</v>
+      </c>
+      <c r="E474" t="s">
+        <v>138</v>
+      </c>
+      <c r="F474" t="s">
+        <v>12</v>
+      </c>
+      <c r="G474">
+        <v>15</v>
+      </c>
+      <c r="H474" t="b">
+        <v>0</v>
+      </c>
+      <c r="I474" t="b">
+        <v>0</v>
+      </c>
+      <c r="J474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10">
+      <c r="A475" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] rohan_outrider</v>
+      </c>
+      <c r="B475" t="s">
+        <v>211</v>
+      </c>
+      <c r="C475" t="s">
+        <v>917</v>
+      </c>
+      <c r="D475" t="s">
+        <v>132</v>
+      </c>
+      <c r="E475" t="s">
+        <v>176</v>
+      </c>
+      <c r="F475" t="s">
+        <v>12</v>
+      </c>
+      <c r="G475">
+        <v>13</v>
+      </c>
+      <c r="H475" t="b">
+        <v>1</v>
+      </c>
+      <c r="I475" t="b">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10">
+      <c r="A476" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] ghan-buri-ghan</v>
+      </c>
+      <c r="B476" t="s">
+        <v>211</v>
+      </c>
+      <c r="C476" t="s">
+        <v>917</v>
+      </c>
+      <c r="D476" t="s">
+        <v>915</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F476" t="s">
+        <v>7</v>
+      </c>
+      <c r="G476">
+        <v>65</v>
+      </c>
+      <c r="H476" t="b">
+        <v>0</v>
+      </c>
+      <c r="I476" t="b">
+        <v>1</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10">
+      <c r="A477" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[paths_of_the_druadan] woses_warrior</v>
+      </c>
+      <c r="B477" t="s">
+        <v>211</v>
+      </c>
+      <c r="C477" t="s">
+        <v>917</v>
+      </c>
+      <c r="D477" t="s">
+        <v>915</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F477" t="s">
+        <v>12</v>
+      </c>
+      <c r="G477">
+        <v>9</v>
+      </c>
+      <c r="H477" t="b">
+        <v>0</v>
+      </c>
+      <c r="I477" t="b">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J460" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
+  <autoFilter ref="A1:J477" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Theodred's Guard"/>
+        <filter val="Paths of the Druadan"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -21530,11 +22265,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <dimension ref="A1:H760"/>
+  <dimension ref="A1:H797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A732" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D756" sqref="D756"/>
+      <pane ySplit="1" topLeftCell="A765" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A771" sqref="A771:A797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39863,8 +40598,913 @@
         <v>1</v>
       </c>
     </row>
+    <row r="761" spans="1:8">
+      <c r="A761" s="5" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B761" t="s">
+        <v>860</v>
+      </c>
+      <c r="C761" t="s">
+        <v>159</v>
+      </c>
+      <c r="D761" t="s">
+        <v>262</v>
+      </c>
+      <c r="E761">
+        <v>10</v>
+      </c>
+      <c r="F761" t="s">
+        <v>256</v>
+      </c>
+      <c r="G761">
+        <v>1</v>
+      </c>
+      <c r="H761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8">
+      <c r="A762" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B762" t="s">
+        <v>860</v>
+      </c>
+      <c r="C762" t="s">
+        <v>159</v>
+      </c>
+      <c r="D762" t="s">
+        <v>356</v>
+      </c>
+      <c r="E762">
+        <v>5</v>
+      </c>
+      <c r="F762" t="s">
+        <v>317</v>
+      </c>
+      <c r="G762">
+        <v>0</v>
+      </c>
+      <c r="H762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8">
+      <c r="A763" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B763" t="s">
+        <v>860</v>
+      </c>
+      <c r="C763" t="s">
+        <v>159</v>
+      </c>
+      <c r="D763" t="s">
+        <v>350</v>
+      </c>
+      <c r="E763">
+        <v>5</v>
+      </c>
+      <c r="F763" t="s">
+        <v>351</v>
+      </c>
+      <c r="G763">
+        <v>0</v>
+      </c>
+      <c r="H763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8">
+      <c r="A764" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B764" t="s">
+        <v>860</v>
+      </c>
+      <c r="C764" t="s">
+        <v>159</v>
+      </c>
+      <c r="D764" t="s">
+        <v>312</v>
+      </c>
+      <c r="E764">
+        <v>5</v>
+      </c>
+      <c r="G764">
+        <v>0</v>
+      </c>
+      <c r="H764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8">
+      <c r="A765" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B765" t="s">
+        <v>860</v>
+      </c>
+      <c r="C765" t="s">
+        <v>159</v>
+      </c>
+      <c r="D765" t="s">
+        <v>332</v>
+      </c>
+      <c r="E765">
+        <v>5</v>
+      </c>
+      <c r="G765">
+        <v>0</v>
+      </c>
+      <c r="H765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8">
+      <c r="A766" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B766" t="s">
+        <v>860</v>
+      </c>
+      <c r="C766" t="s">
+        <v>134</v>
+      </c>
+      <c r="D766" t="s">
+        <v>262</v>
+      </c>
+      <c r="E766">
+        <v>10</v>
+      </c>
+      <c r="F766" t="s">
+        <v>256</v>
+      </c>
+      <c r="G766">
+        <v>1</v>
+      </c>
+      <c r="H766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8">
+      <c r="A767" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B767" t="s">
+        <v>860</v>
+      </c>
+      <c r="C767" t="s">
+        <v>134</v>
+      </c>
+      <c r="D767" t="s">
+        <v>312</v>
+      </c>
+      <c r="E767">
+        <v>5</v>
+      </c>
+      <c r="G767">
+        <v>0</v>
+      </c>
+      <c r="H767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8">
+      <c r="A768" s="5" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B768" t="s">
+        <v>860</v>
+      </c>
+      <c r="C768" t="s">
+        <v>134</v>
+      </c>
+      <c r="D768" t="s">
+        <v>332</v>
+      </c>
+      <c r="E768">
+        <v>5</v>
+      </c>
+      <c r="G768">
+        <v>0</v>
+      </c>
+      <c r="H768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8">
+      <c r="A769" s="5" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B769" t="s">
+        <v>860</v>
+      </c>
+      <c r="C769" t="s">
+        <v>163</v>
+      </c>
+      <c r="D769" t="s">
+        <v>262</v>
+      </c>
+      <c r="E769">
+        <v>10</v>
+      </c>
+      <c r="F769" t="s">
+        <v>256</v>
+      </c>
+      <c r="G769">
+        <v>1</v>
+      </c>
+      <c r="H769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8">
+      <c r="A770" s="5" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B770" t="s">
+        <v>860</v>
+      </c>
+      <c r="C770" t="s">
+        <v>137</v>
+      </c>
+      <c r="D770" t="s">
+        <v>284</v>
+      </c>
+      <c r="E770">
+        <v>30</v>
+      </c>
+      <c r="G770">
+        <v>0</v>
+      </c>
+      <c r="H770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8">
+      <c r="A771" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B771" t="s">
+        <v>860</v>
+      </c>
+      <c r="C771" t="s">
+        <v>137</v>
+      </c>
+      <c r="D771" t="s">
+        <v>286</v>
+      </c>
+      <c r="E771">
+        <v>25</v>
+      </c>
+      <c r="G771">
+        <v>0</v>
+      </c>
+      <c r="H771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8">
+      <c r="A772" s="5" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B772" t="s">
+        <v>860</v>
+      </c>
+      <c r="C772" t="s">
+        <v>137</v>
+      </c>
+      <c r="D772" t="s">
+        <v>332</v>
+      </c>
+      <c r="E772">
+        <v>2</v>
+      </c>
+      <c r="G772">
+        <v>0</v>
+      </c>
+      <c r="H772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8">
+      <c r="A773" s="5" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B773" t="s">
+        <v>860</v>
+      </c>
+      <c r="C773" t="s">
+        <v>137</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E773">
+        <v>1</v>
+      </c>
+      <c r="F773" t="s">
+        <v>402</v>
+      </c>
+      <c r="G773">
+        <v>0</v>
+      </c>
+      <c r="H773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8">
+      <c r="A774" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B774" t="s">
+        <v>860</v>
+      </c>
+      <c r="C774" t="s">
+        <v>83</v>
+      </c>
+      <c r="D774" t="s">
+        <v>478</v>
+      </c>
+      <c r="E774">
+        <v>20</v>
+      </c>
+      <c r="F774" t="s">
+        <v>256</v>
+      </c>
+      <c r="G774">
+        <v>1</v>
+      </c>
+      <c r="H774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8">
+      <c r="A775" s="5" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B775" t="s">
+        <v>917</v>
+      </c>
+      <c r="C775" t="s">
+        <v>159</v>
+      </c>
+      <c r="D775" t="s">
+        <v>262</v>
+      </c>
+      <c r="E775">
+        <v>10</v>
+      </c>
+      <c r="F775" t="s">
+        <v>256</v>
+      </c>
+      <c r="G775">
+        <v>1</v>
+      </c>
+      <c r="H775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8">
+      <c r="A776" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B776" t="s">
+        <v>917</v>
+      </c>
+      <c r="C776" t="s">
+        <v>159</v>
+      </c>
+      <c r="D776" t="s">
+        <v>356</v>
+      </c>
+      <c r="E776">
+        <v>5</v>
+      </c>
+      <c r="F776" t="s">
+        <v>317</v>
+      </c>
+      <c r="G776">
+        <v>0</v>
+      </c>
+      <c r="H776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8">
+      <c r="A777" s="5" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B777" t="s">
+        <v>917</v>
+      </c>
+      <c r="C777" t="s">
+        <v>159</v>
+      </c>
+      <c r="D777" t="s">
+        <v>350</v>
+      </c>
+      <c r="E777">
+        <v>5</v>
+      </c>
+      <c r="F777" t="s">
+        <v>351</v>
+      </c>
+      <c r="G777">
+        <v>0</v>
+      </c>
+      <c r="H777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8">
+      <c r="A778" s="5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B778" t="s">
+        <v>917</v>
+      </c>
+      <c r="C778" t="s">
+        <v>159</v>
+      </c>
+      <c r="D778" t="s">
+        <v>312</v>
+      </c>
+      <c r="E778">
+        <v>5</v>
+      </c>
+      <c r="G778">
+        <v>0</v>
+      </c>
+      <c r="H778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8">
+      <c r="A779" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B779" t="s">
+        <v>917</v>
+      </c>
+      <c r="C779" t="s">
+        <v>159</v>
+      </c>
+      <c r="D779" t="s">
+        <v>332</v>
+      </c>
+      <c r="E779">
+        <v>5</v>
+      </c>
+      <c r="G779">
+        <v>0</v>
+      </c>
+      <c r="H779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8">
+      <c r="A780" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B780" t="s">
+        <v>917</v>
+      </c>
+      <c r="C780" t="s">
+        <v>160</v>
+      </c>
+      <c r="D780" t="s">
+        <v>262</v>
+      </c>
+      <c r="E780">
+        <v>10</v>
+      </c>
+      <c r="F780" t="s">
+        <v>256</v>
+      </c>
+      <c r="G780">
+        <v>1</v>
+      </c>
+      <c r="H780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8">
+      <c r="A781" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B781" t="s">
+        <v>917</v>
+      </c>
+      <c r="C781" t="s">
+        <v>133</v>
+      </c>
+      <c r="D781" t="s">
+        <v>332</v>
+      </c>
+      <c r="E781">
+        <v>5</v>
+      </c>
+      <c r="G781">
+        <v>0</v>
+      </c>
+      <c r="H781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8">
+      <c r="A782" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B782" t="s">
+        <v>917</v>
+      </c>
+      <c r="C782" t="s">
+        <v>161</v>
+      </c>
+      <c r="D782" t="s">
+        <v>262</v>
+      </c>
+      <c r="E782">
+        <v>10</v>
+      </c>
+      <c r="F782" t="s">
+        <v>256</v>
+      </c>
+      <c r="G782">
+        <v>1</v>
+      </c>
+      <c r="H782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8">
+      <c r="A783" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B783" t="s">
+        <v>917</v>
+      </c>
+      <c r="C783" t="s">
+        <v>134</v>
+      </c>
+      <c r="D783" t="s">
+        <v>260</v>
+      </c>
+      <c r="E783">
+        <v>15</v>
+      </c>
+      <c r="F783" t="s">
+        <v>256</v>
+      </c>
+      <c r="G783">
+        <v>1</v>
+      </c>
+      <c r="H783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8">
+      <c r="A784" s="5" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B784" t="s">
+        <v>917</v>
+      </c>
+      <c r="C784" t="s">
+        <v>134</v>
+      </c>
+      <c r="D784" t="s">
+        <v>312</v>
+      </c>
+      <c r="E784">
+        <v>5</v>
+      </c>
+      <c r="G784">
+        <v>0</v>
+      </c>
+      <c r="H784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8">
+      <c r="A785" s="5" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B785" t="s">
+        <v>917</v>
+      </c>
+      <c r="C785" t="s">
+        <v>134</v>
+      </c>
+      <c r="D785" t="s">
+        <v>332</v>
+      </c>
+      <c r="E785">
+        <v>5</v>
+      </c>
+      <c r="G785">
+        <v>0</v>
+      </c>
+      <c r="H785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8">
+      <c r="A786" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B786" t="s">
+        <v>917</v>
+      </c>
+      <c r="C786" t="s">
+        <v>135</v>
+      </c>
+      <c r="D786" t="s">
+        <v>653</v>
+      </c>
+      <c r="E786">
+        <v>50</v>
+      </c>
+      <c r="G786">
+        <v>0</v>
+      </c>
+      <c r="H786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8">
+      <c r="A787" s="5" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B787" t="s">
+        <v>917</v>
+      </c>
+      <c r="C787" t="s">
+        <v>135</v>
+      </c>
+      <c r="D787" t="s">
+        <v>262</v>
+      </c>
+      <c r="E787">
+        <v>10</v>
+      </c>
+      <c r="F787" t="s">
+        <v>256</v>
+      </c>
+      <c r="G787">
+        <v>1</v>
+      </c>
+      <c r="H787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8">
+      <c r="A788" s="5" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B788" t="s">
+        <v>917</v>
+      </c>
+      <c r="C788" t="s">
+        <v>137</v>
+      </c>
+      <c r="D788" t="s">
+        <v>284</v>
+      </c>
+      <c r="E788">
+        <v>30</v>
+      </c>
+      <c r="G788">
+        <v>0</v>
+      </c>
+      <c r="H788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8">
+      <c r="A789" s="5" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B789" t="s">
+        <v>917</v>
+      </c>
+      <c r="C789" t="s">
+        <v>137</v>
+      </c>
+      <c r="D789" t="s">
+        <v>286</v>
+      </c>
+      <c r="E789">
+        <v>25</v>
+      </c>
+      <c r="G789">
+        <v>0</v>
+      </c>
+      <c r="H789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8">
+      <c r="A790" s="5" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B790" t="s">
+        <v>917</v>
+      </c>
+      <c r="C790" t="s">
+        <v>137</v>
+      </c>
+      <c r="D790" t="s">
+        <v>332</v>
+      </c>
+      <c r="E790">
+        <v>2</v>
+      </c>
+      <c r="G790">
+        <v>0</v>
+      </c>
+      <c r="H790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8">
+      <c r="A791" s="5" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B791" t="s">
+        <v>917</v>
+      </c>
+      <c r="C791" t="s">
+        <v>176</v>
+      </c>
+      <c r="D791" t="s">
+        <v>262</v>
+      </c>
+      <c r="E791">
+        <v>5</v>
+      </c>
+      <c r="F791" t="s">
+        <v>256</v>
+      </c>
+      <c r="G791">
+        <v>1</v>
+      </c>
+      <c r="H791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8">
+      <c r="A792" s="5" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B792" t="s">
+        <v>917</v>
+      </c>
+      <c r="C792" t="s">
+        <v>138</v>
+      </c>
+      <c r="D792" t="s">
+        <v>286</v>
+      </c>
+      <c r="E792">
+        <v>25</v>
+      </c>
+      <c r="G792">
+        <v>0</v>
+      </c>
+      <c r="H792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8">
+      <c r="A793" s="5" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B793" t="s">
+        <v>917</v>
+      </c>
+      <c r="C793" t="s">
+        <v>138</v>
+      </c>
+      <c r="D793" t="s">
+        <v>262</v>
+      </c>
+      <c r="E793">
+        <v>5</v>
+      </c>
+      <c r="F793" t="s">
+        <v>256</v>
+      </c>
+      <c r="G793">
+        <v>1</v>
+      </c>
+      <c r="H793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8">
+      <c r="A794" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B794" t="s">
+        <v>917</v>
+      </c>
+      <c r="C794" t="s">
+        <v>138</v>
+      </c>
+      <c r="D794" t="s">
+        <v>332</v>
+      </c>
+      <c r="E794">
+        <v>2</v>
+      </c>
+      <c r="G794">
+        <v>0</v>
+      </c>
+      <c r="H794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8">
+      <c r="A795" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B795" t="s">
+        <v>917</v>
+      </c>
+      <c r="C795" t="s">
+        <v>139</v>
+      </c>
+      <c r="D795" t="s">
+        <v>260</v>
+      </c>
+      <c r="E795">
+        <v>15</v>
+      </c>
+      <c r="F795" t="s">
+        <v>256</v>
+      </c>
+      <c r="G795">
+        <v>1</v>
+      </c>
+      <c r="H795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8">
+      <c r="A796" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B796" t="s">
+        <v>917</v>
+      </c>
+      <c r="C796" t="s">
+        <v>139</v>
+      </c>
+      <c r="D796" t="s">
+        <v>350</v>
+      </c>
+      <c r="E796">
+        <v>5</v>
+      </c>
+      <c r="F796" t="s">
+        <v>351</v>
+      </c>
+      <c r="G796">
+        <v>0</v>
+      </c>
+      <c r="H796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8">
+      <c r="A797" s="5" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B797" t="s">
+        <v>917</v>
+      </c>
+      <c r="C797" t="s">
+        <v>139</v>
+      </c>
+      <c r="D797" t="s">
+        <v>312</v>
+      </c>
+      <c r="E797">
+        <v>5</v>
+      </c>
+      <c r="G797">
+        <v>0</v>
+      </c>
+      <c r="H797">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H738" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
+  <autoFilter ref="A1:H774" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H525">
     <sortCondition ref="B2:B525"/>
     <sortCondition ref="C2:C525"/>
@@ -39879,8 +41519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41115,11 +42755,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
-  <dimension ref="A1:C313"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C312" sqref="C312"/>
+      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44572,6 +46212,138 @@
         <v>863</v>
       </c>
     </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="15" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="15" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A316" s="15" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="15" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="30">
+      <c r="A318" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="30">
+      <c r="A319" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="30">
+      <c r="A320" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="30">
+      <c r="A321" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="30">
+      <c r="A322" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="30">
+      <c r="A323" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="30">
+      <c r="A324" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C324" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C262" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44580,10 +46352,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -44903,6 +46675,62 @@
         <v>1876</v>
       </c>
     </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>860</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>917</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>917</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>917</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1935</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF8FD2-573B-4A65-8F5F-3486768F1BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAC584B-BB7A-42AF-97C7-045EA2C8A9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$C$262</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$484</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$815</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$514</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$H$826</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7449" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7689" uniqueCount="2023">
   <si>
     <t>faction</t>
   </si>
@@ -6124,6 +6124,129 @@
 &lt;li&gt;Gimli - Galadriel's Locks: Gimli may re-roll all dice in a Duel roll. Gimli may only use this ability three times per game.&lt;/li&gt;
 &lt;li&gt;Boromir - Golden Belt: Boromir gains the Woodland Creature special rule.&lt;/li&gt;
 &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>OPT0826</t>
+  </si>
+  <si>
+    <t>OPT0827</t>
+  </si>
+  <si>
+    <t>OPT0828</t>
+  </si>
+  <si>
+    <t>OPT0829</t>
+  </si>
+  <si>
+    <t>OPT0830</t>
+  </si>
+  <si>
+    <t>OPT0831</t>
+  </si>
+  <si>
+    <t>OPT0832</t>
+  </si>
+  <si>
+    <t>OPT0833</t>
+  </si>
+  <si>
+    <t>OPT0834</t>
+  </si>
+  <si>
+    <t>OPT0835</t>
+  </si>
+  <si>
+    <t>OPT0836</t>
+  </si>
+  <si>
+    <t>OPT0837</t>
+  </si>
+  <si>
+    <t>OPT0838</t>
+  </si>
+  <si>
+    <t>OPT0839</t>
+  </si>
+  <si>
+    <t>OPT0840</t>
+  </si>
+  <si>
+    <t>OPT0841</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] baldo_tulpenny</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] farmer_maggot</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] farmer_tolman_cotton</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] folco_boffin</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] fredegar_bolger</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] frodo_of_the_nine_fingers</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] grip,_fang_and_wolf</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] hamfast_'gaffer'_gamgee</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] holfoot_bracegirdle</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] lobelia_sackville-baggins</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] meriadoc,_captain_of_the_shire</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] paladin_took</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] peregrin,_captain_of_the_shire</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] robin_smallburrow</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] rosie_cotton</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] samwise_the_brave</t>
+  </si>
+  <si>
+    <t>[defenders_of_the_shire] will_whitfoot</t>
+  </si>
+  <si>
+    <t>This force must contain Meriadoc, Captain of the Shire</t>
+  </si>
+  <si>
+    <t>This force must contain Peregrin, Captain of the Shire</t>
+  </si>
+  <si>
+    <t>["[defenders_of_the_shire] peregrin,_captain_of_the_shire"]</t>
+  </si>
+  <si>
+    <t>["[defenders_of_the_shire] meriadoc,_captain_of_the_shire"]</t>
+  </si>
+  <si>
+    <t>["[defenders_of_the_shire] hobbit_archer", "[defenders_of_the_shire] hobbit_militia", "[defenders_of_the_shire] hobbit_shirriff", "[defenders_of_the_shire] rosie_cotton"]</t>
+  </si>
+  <si>
+    <t>["[defenders_of_the_shire] hobbit_archer", "[defenders_of_the_shire] hobbit_militia", "[defenders_of_the_shire] hobbit_shirriff", "[defenders_of_the_shire] grip,_fang_and_wolf", "[defenders_of_the_shire] rosie_cotton"]</t>
+  </si>
+  <si>
+    <t>["[defenders_of_the_shire] hobbit_archer", "[defenders_of_the_shire] hobbit_shirriff", "[defenders_of_the_shire] battlin'_brandybucks", "[defenders_of_the_shire] rosie_cotton"]</t>
+  </si>
+  <si>
+    <t>["[defenders_of_the_shire] hobbit_militia", "[defenders_of_the_shire] hobbit_shirriff", "[defenders_of_the_shire] tookish_hunters", "[defenders_of_the_shire] rosie_cotton"]</t>
   </si>
 </sst>
 </file>
@@ -6625,12 +6748,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J492"/>
+  <dimension ref="A1:J514"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A487" sqref="A487"/>
+      <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A509" sqref="A509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6680,7 +6802,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A65" si="0">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C2, " ", "_")), "] ", LOWER(SUBSTITUTE(E2, " ", "_")))</f>
         <v>[angmar] shade</v>
@@ -6713,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] wild_warg_chieftain</v>
@@ -6746,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] barrow-wight</v>
@@ -6779,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_captain</v>
@@ -6812,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] golfimbul</v>
@@ -6845,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] witch_king</v>
@@ -6878,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] gulavhar</v>
@@ -6911,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_dwimmerlaik</v>
@@ -6944,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_tainted</v>
@@ -6977,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] buhrdur</v>
@@ -7010,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_shaman</v>
@@ -7043,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] cave_troll</v>
@@ -7076,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] dead_marsh_spectre</v>
@@ -7109,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_warg_rider</v>
@@ -7142,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] wild_warg</v>
@@ -7175,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_warrior</v>
@@ -7208,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_troll_chieftan</v>
@@ -7241,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] black_numenorean_marshall</v>
@@ -7274,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] ringwraith</v>
@@ -7307,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_taskmaster</v>
@@ -7340,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_captain</v>
@@ -7373,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] sauron</v>
@@ -7406,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] witch_king</v>
@@ -7439,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] shelob</v>
@@ -7472,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_drummer</v>
@@ -7505,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_shaman</v>
@@ -7538,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_war_catapult</v>
@@ -7571,7 +7693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_siege_bow</v>
@@ -7604,7 +7726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] mordor_troll</v>
@@ -7637,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] morgul_knight</v>
@@ -7670,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] warg_rider</v>
@@ -7703,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] black_numenorean</v>
@@ -7736,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_tracker</v>
@@ -7769,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[barad-dur] orc_warrior</v>
@@ -7802,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[halls_of_thranduil] thranduil</v>
@@ -7835,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] thrydan_wolfsbane</v>
@@ -7868,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] gorulf_ironskin</v>
@@ -7901,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] ugluk</v>
@@ -7934,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] vrasku</v>
@@ -7967,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] frida_tallspear</v>
@@ -8000,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] mauhur</v>
@@ -8033,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_captain</v>
@@ -8066,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_scout_captain</v>
@@ -8099,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_chieftan</v>
@@ -8132,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] wild_man_oathmaker</v>
@@ -8165,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] sharku</v>
@@ -8198,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] snaga</v>
@@ -8231,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] orc_captain</v>
@@ -8264,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] saruman</v>
@@ -8297,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] lurtz</v>
@@ -8330,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_drummer</v>
@@ -8363,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] grima</v>
@@ -8396,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_shaman</v>
@@ -8429,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] isengard_assault_ballista</v>
@@ -8462,7 +8584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] isengard_troll</v>
@@ -8495,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_demolition_team</v>
@@ -8528,7 +8650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] crebain</v>
@@ -8561,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_berserker</v>
@@ -8594,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] feral_uruk-hai</v>
@@ -8627,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_horseman</v>
@@ -8660,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] dunlending_huscarl</v>
@@ -8693,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] warg_rider</v>
@@ -8726,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_warrior</v>
@@ -8759,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>[isengard] uruk-hai_scout</v>
@@ -8792,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="4" t="str">
         <f t="shared" ref="A66:A129" si="1">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C66, " ", "_")), "] ", LOWER(SUBSTITUTE(E66, " ", "_")))</f>
         <v>[isengard] dunlending_warrior</v>
@@ -8825,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10">
       <c r="A67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[isengard] wild_man_of_dunland</v>
@@ -8858,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10">
       <c r="A68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[isengard] orc_warrior</v>
@@ -8891,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10">
       <c r="A69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] orophin</v>
@@ -8924,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10">
       <c r="A70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] rumil</v>
@@ -8957,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10">
       <c r="A71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_captain</v>
@@ -8990,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10">
       <c r="A72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] haldir</v>
@@ -9023,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10">
       <c r="A73" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_captain</v>
@@ -9056,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10">
       <c r="A74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadriel</v>
@@ -9089,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10">
       <c r="A75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] celeborn</v>
@@ -9122,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10">
       <c r="A76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_stormcaller</v>
@@ -9155,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10">
       <c r="A77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_sentinel</v>
@@ -9188,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10">
       <c r="A78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_knight</v>
@@ -9221,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10">
       <c r="A79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] guard_of_the_galadhrim_court</v>
@@ -9254,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10">
       <c r="A80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] galadhrim_warrior</v>
@@ -9287,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1">
+    <row r="81" spans="1:10">
       <c r="A81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[lothlorien] wood_elf_warrior</v>
@@ -9320,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10">
       <c r="A82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] ingold</v>
@@ -9353,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10">
       <c r="A83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] irolas</v>
@@ -9386,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10">
       <c r="A84" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] knight_of_the_white_tower</v>
@@ -9419,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10">
       <c r="A85" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] king_of_men</v>
@@ -9452,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10">
       <c r="A86" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] cirion</v>
@@ -9485,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1">
+    <row r="87" spans="1:10">
       <c r="A87" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] madril</v>
@@ -9518,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10">
       <c r="A88" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] captain_of_minas_tirith</v>
@@ -9551,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10">
       <c r="A89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] aragorn,_king_elessar</v>
@@ -9584,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10">
       <c r="A90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] gandalf_the_white</v>
@@ -9617,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10">
       <c r="A91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] boromir</v>
@@ -9650,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10">
       <c r="A92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] faramir</v>
@@ -9683,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10">
       <c r="A93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] hurin</v>
@@ -9716,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10">
       <c r="A94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] denethor</v>
@@ -9749,7 +9871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1">
+    <row r="95" spans="1:10">
       <c r="A95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] peregrin_took</v>
@@ -9782,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10">
       <c r="A96" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] anborn</v>
@@ -9815,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10">
       <c r="A97" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] mablung</v>
@@ -9848,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10">
       <c r="A98" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] beregond</v>
@@ -9881,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10">
       <c r="A99" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] damrod</v>
@@ -9914,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1">
+    <row r="100" spans="1:10">
       <c r="A100" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] gondor_battlecry_trebuchet</v>
@@ -9947,7 +10069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10">
       <c r="A101" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] avenger_bolt_thrower</v>
@@ -9980,7 +10102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10">
       <c r="A102" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] knight_of_minas_tirith</v>
@@ -10013,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1">
+    <row r="103" spans="1:10">
       <c r="A103" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] guard_of_the_fountain_court</v>
@@ -10046,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1">
+    <row r="104" spans="1:10">
       <c r="A104" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] citadel_guard</v>
@@ -10079,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1">
+    <row r="105" spans="1:10">
       <c r="A105" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] osgiliath_veteran</v>
@@ -10112,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1">
+    <row r="106" spans="1:10">
       <c r="A106" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] ranger_of_gondor</v>
@@ -10145,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1">
+    <row r="107" spans="1:10">
       <c r="A107" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[minas_tirith] warrior_of_minas_tirith</v>
@@ -10178,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1">
+    <row r="108" spans="1:10">
       <c r="A108" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] great_beast_of_gorgoroth</v>
@@ -10211,7 +10333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1">
+    <row r="109" spans="1:10">
       <c r="A109" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] mordor_troll_chieftan</v>
@@ -10244,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1">
+    <row r="110" spans="1:10">
       <c r="A110" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] shagrat</v>
@@ -10277,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1">
+    <row r="111" spans="1:10">
       <c r="A111" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] goroth</v>
@@ -10310,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1">
+    <row r="112" spans="1:10">
       <c r="A112" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] muzgur</v>
@@ -10343,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1">
+    <row r="113" spans="1:10">
       <c r="A113" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] black_numenorean_marshall</v>
@@ -10376,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1">
+    <row r="114" spans="1:10">
       <c r="A114" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] captain_of_the_black_guard</v>
@@ -10409,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1">
+    <row r="115" spans="1:10">
       <c r="A115" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] guritz</v>
@@ -10442,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1">
+    <row r="116" spans="1:10">
       <c r="A116" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] kardush</v>
@@ -10475,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1">
+    <row r="117" spans="1:10">
       <c r="A117" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gothmog's_enforcer</v>
@@ -10508,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1">
+    <row r="118" spans="1:10">
       <c r="A118" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] zagdush</v>
@@ -10541,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1">
+    <row r="119" spans="1:10">
       <c r="A119" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gorbag</v>
@@ -10574,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1">
+    <row r="120" spans="1:10">
       <c r="A120" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] mordor_uruk-hai_captain</v>
@@ -10607,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1">
+    <row r="121" spans="1:10">
       <c r="A121" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] ringwraith</v>
@@ -10640,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1">
+    <row r="122" spans="1:10">
       <c r="A122" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] grishnak</v>
@@ -10673,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1">
+    <row r="123" spans="1:10">
       <c r="A123" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] morannon_orc_captain</v>
@@ -10706,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1">
+    <row r="124" spans="1:10">
       <c r="A124" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] orc_taskmaster</v>
@@ -10739,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1">
+    <row r="125" spans="1:10">
       <c r="A125" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] orc_captain</v>
@@ -10772,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1">
+    <row r="126" spans="1:10">
       <c r="A126" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] witch_king</v>
@@ -10805,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1">
+    <row r="127" spans="1:10">
       <c r="A127" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] gothmog</v>
@@ -10838,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1">
+    <row r="128" spans="1:10">
       <c r="A128" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] khamul</v>
@@ -10871,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1">
+    <row r="129" spans="1:10">
       <c r="A129" s="4" t="str">
         <f t="shared" si="1"/>
         <v>[mordor] the_betrayer</v>
@@ -10904,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1">
+    <row r="130" spans="1:10">
       <c r="A130" s="4" t="str">
         <f t="shared" ref="A130:A193" si="2">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C130, " ", "_")), "] ", LOWER(SUBSTITUTE(E130, " ", "_")))</f>
         <v>[mordor] the_dark_marshall</v>
@@ -10937,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1">
+    <row r="131" spans="1:10">
       <c r="A131" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_knight_of_umbar</v>
@@ -10970,7 +11092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1">
+    <row r="132" spans="1:10">
       <c r="A132" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_shadow_lord</v>
@@ -11003,7 +11125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1">
+    <row r="133" spans="1:10">
       <c r="A133" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_undying</v>
@@ -11036,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1">
+    <row r="134" spans="1:10">
       <c r="A134" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_dwimmerlaik</v>
@@ -11069,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1">
+    <row r="135" spans="1:10">
       <c r="A135" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] the_tainted</v>
@@ -11102,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1">
+    <row r="136" spans="1:10">
       <c r="A136" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] razgush</v>
@@ -11135,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1">
+    <row r="137" spans="1:10">
       <c r="A137" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mouth_of_sauron</v>
@@ -11168,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1">
+    <row r="138" spans="1:10">
       <c r="A138" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] shelob</v>
@@ -11201,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1">
+    <row r="139" spans="1:10">
       <c r="A139" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_guard_drummer</v>
@@ -11234,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1">
+    <row r="140" spans="1:10">
       <c r="A140" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_drummer</v>
@@ -11267,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1">
+    <row r="141" spans="1:10">
       <c r="A141" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_shaman</v>
@@ -11300,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1">
+    <row r="142" spans="1:10">
       <c r="A142" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_war_catapult</v>
@@ -11333,7 +11455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1">
+    <row r="143" spans="1:10">
       <c r="A143" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_siege_bow</v>
@@ -11366,7 +11488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1">
+    <row r="144" spans="1:10">
       <c r="A144" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_troll</v>
@@ -11399,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1">
+    <row r="145" spans="1:10">
       <c r="A145" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morgul_knight</v>
@@ -11432,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1">
+    <row r="146" spans="1:10">
       <c r="A146" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_guard_of_barad-dur</v>
@@ -11465,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1">
+    <row r="147" spans="1:10">
       <c r="A147" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] warg_rider</v>
@@ -11498,7 +11620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1">
+    <row r="148" spans="1:10">
       <c r="A148" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morgul_stalker</v>
@@ -11531,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1">
+    <row r="149" spans="1:10">
       <c r="A149" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] black_numenorean</v>
@@ -11564,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1">
+    <row r="150" spans="1:10">
       <c r="A150" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] mordor_uruk-hai</v>
@@ -11597,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1">
+    <row r="151" spans="1:10">
       <c r="A151" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] morannon_orc</v>
@@ -11630,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1">
+    <row r="152" spans="1:10">
       <c r="A152" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_warrior</v>
@@ -11663,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1">
+    <row r="153" spans="1:10">
       <c r="A153" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[mordor] orc_tracker</v>
@@ -11696,7 +11818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1">
+    <row r="154" spans="1:10">
       <c r="A154" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] druzhag</v>
@@ -11729,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1">
+    <row r="155" spans="1:10">
       <c r="A155" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] ashrak</v>
@@ -11762,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1">
+    <row r="156" spans="1:10">
       <c r="A156" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] groblog</v>
@@ -11795,7 +11917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1">
+    <row r="157" spans="1:10">
       <c r="A157" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_captain</v>
@@ -11828,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1">
+    <row r="158" spans="1:10">
       <c r="A158" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_captain</v>
@@ -11861,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1">
+    <row r="159" spans="1:10">
       <c r="A159" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] the_balrog</v>
@@ -11894,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1">
+    <row r="160" spans="1:10">
       <c r="A160" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] dragon</v>
@@ -11927,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1">
+    <row r="161" spans="1:10">
       <c r="A161" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] durburz</v>
@@ -11960,7 +12082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1">
+    <row r="162" spans="1:10">
       <c r="A162" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] the_watcher_in_the_water</v>
@@ -11993,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1">
+    <row r="163" spans="1:10">
       <c r="A163" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] cave_drake</v>
@@ -12026,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1">
+    <row r="164" spans="1:10">
       <c r="A164" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_shaman</v>
@@ -12059,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1">
+    <row r="165" spans="1:10">
       <c r="A165" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_shaman</v>
@@ -12092,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1">
+    <row r="166" spans="1:10">
       <c r="A166" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] dweller_in_the_dark</v>
@@ -12125,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1">
+    <row r="167" spans="1:10">
       <c r="A167" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield_drummers</v>
@@ -12158,7 +12280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1">
+    <row r="168" spans="1:10">
       <c r="A168" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_drum</v>
@@ -12191,7 +12313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1">
+    <row r="169" spans="1:10">
       <c r="A169" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] cave_troll</v>
@@ -12224,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1">
+    <row r="170" spans="1:10">
       <c r="A170" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] bat_swarm</v>
@@ -12257,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1">
+    <row r="171" spans="1:10">
       <c r="A171" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] warg_marauder</v>
@@ -12290,7 +12412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1">
+    <row r="172" spans="1:10">
       <c r="A172" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_blackshield</v>
@@ -12323,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1">
+    <row r="173" spans="1:10">
       <c r="A173" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_prowler</v>
@@ -12356,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1">
+    <row r="174" spans="1:10">
       <c r="A174" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] wild_warg</v>
@@ -12389,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1">
+    <row r="175" spans="1:10">
       <c r="A175" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[moria] moria_goblin_warrior</v>
@@ -12422,7 +12544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1">
+    <row r="176" spans="1:10">
       <c r="A176" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] elladan_&amp;_elrohir</v>
@@ -12455,7 +12577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1">
+    <row r="177" spans="1:10">
       <c r="A177" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] erestor</v>
@@ -12488,7 +12610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1">
+    <row r="178" spans="1:10">
       <c r="A178" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] cirdan</v>
@@ -12521,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1">
+    <row r="179" spans="1:10">
       <c r="A179" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_captain</v>
@@ -12554,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1">
+    <row r="180" spans="1:10">
       <c r="A180" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] gildor_inglorion</v>
@@ -12587,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1">
+    <row r="181" spans="1:10">
       <c r="A181" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] lindir</v>
@@ -12620,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1">
+    <row r="182" spans="1:10">
       <c r="A182" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] arwen</v>
@@ -12653,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1">
+    <row r="183" spans="1:10">
       <c r="A183" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] elrond</v>
@@ -12686,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1">
+    <row r="184" spans="1:10">
       <c r="A184" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] gil-galad</v>
@@ -12719,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1">
+    <row r="185" spans="1:10">
       <c r="A185" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] glorfindel</v>
@@ -12752,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1">
+    <row r="186" spans="1:10">
       <c r="A186" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_stormcaller</v>
@@ -12785,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1">
+    <row r="187" spans="1:10">
       <c r="A187" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] rivendell_knight</v>
@@ -12818,7 +12940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1">
+    <row r="188" spans="1:10">
       <c r="A188" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] high_elf_warrior</v>
@@ -12851,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1">
+    <row r="189" spans="1:10">
       <c r="A189" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rivendell] wood_elf_warrior</v>
@@ -12884,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1">
+    <row r="190" spans="1:10">
       <c r="A190" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] deorwine</v>
@@ -12917,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1">
+    <row r="191" spans="1:10">
       <c r="A191" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] erkenbrand</v>
@@ -12950,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1">
+    <row r="192" spans="1:10">
       <c r="A192" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] elfhelm</v>
@@ -12983,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1">
+    <row r="193" spans="1:10">
       <c r="A193" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[rohan] grimbold</v>
@@ -13016,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1">
+    <row r="194" spans="1:10">
       <c r="A194" s="4" t="str">
         <f t="shared" ref="A194:A257" si="3">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C194, " ", "_")), "] ", LOWER(SUBSTITUTE(E194, " ", "_")))</f>
         <v>[rohan] gamling</v>
@@ -13049,7 +13171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1">
+    <row r="195" spans="1:10">
       <c r="A195" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] hama</v>
@@ -13082,7 +13204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1">
+    <row r="196" spans="1:10">
       <c r="A196" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] captain_of_rohan</v>
@@ -13115,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1">
+    <row r="197" spans="1:10">
       <c r="A197" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] helm_hammerhand</v>
@@ -13148,7 +13270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1">
+    <row r="198" spans="1:10">
       <c r="A198" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] theoden</v>
@@ -13181,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1">
+    <row r="199" spans="1:10">
       <c r="A199" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eorl_the_young</v>
@@ -13214,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1">
+    <row r="200" spans="1:10">
       <c r="A200" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eomer</v>
@@ -13247,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1">
+    <row r="201" spans="1:10">
       <c r="A201" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] theodred</v>
@@ -13280,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1">
+    <row r="202" spans="1:10">
       <c r="A202" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] aldor</v>
@@ -13313,7 +13435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1">
+    <row r="203" spans="1:10">
       <c r="A203" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] haleth</v>
@@ -13346,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1">
+    <row r="204" spans="1:10">
       <c r="A204" s="4" t="str">
         <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C204, " ", "_")), "] ", LOWER(SUBSTITUTE(E204, " ", "_")))</f>
         <v>[rohan] meriadoc_brandybuck</v>
@@ -13379,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1">
+    <row r="205" spans="1:10">
       <c r="A205" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] dernhelm</v>
@@ -13412,7 +13534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1">
+    <row r="206" spans="1:10">
       <c r="A206" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] king's_huntsman</v>
@@ -13445,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1">
+    <row r="207" spans="1:10">
       <c r="A207" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] eowyn</v>
@@ -13478,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1">
+    <row r="208" spans="1:10">
       <c r="A208" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] son_of_eorl</v>
@@ -13511,7 +13633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1">
+    <row r="209" spans="1:10">
       <c r="A209" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rider_of_rohan</v>
@@ -13544,7 +13666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1">
+    <row r="210" spans="1:10">
       <c r="A210" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rohan_royal_guard</v>
@@ -13577,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1">
+    <row r="211" spans="1:10">
       <c r="A211" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] rohan_outrider</v>
@@ -13610,7 +13732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1">
+    <row r="212" spans="1:10">
       <c r="A212" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[rohan] warrior_of_rohan</v>
@@ -13643,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1">
+    <row r="213" spans="1:10">
       <c r="A213" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] herald_of_the_dead</v>
@@ -13676,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1">
+    <row r="214" spans="1:10">
       <c r="A214" s="4" t="s">
         <v>1622</v>
       </c>
@@ -13708,7 +13830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1">
+    <row r="215" spans="1:10">
       <c r="A215" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] the_king_of_the_dead</v>
@@ -13741,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1">
+    <row r="216" spans="1:10">
       <c r="A216" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] rider_of_the_dead</v>
@@ -13774,7 +13896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1">
+    <row r="217" spans="1:10">
       <c r="A217" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_dead_of_dunharrow] warrior_of_the_dead</v>
@@ -13807,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1">
+    <row r="218" spans="1:10">
       <c r="A218" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] brorgir</v>
@@ -13840,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1">
+    <row r="219" spans="1:10">
       <c r="A219" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_war_priest</v>
@@ -13873,7 +13995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1">
+    <row r="220" spans="1:10">
       <c r="A220" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_captain</v>
@@ -13906,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1">
+    <row r="221" spans="1:10">
       <c r="A221" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] the_dragon_emperor</v>
@@ -13939,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1">
+    <row r="222" spans="1:10">
       <c r="A222" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] amdur</v>
@@ -13972,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1">
+    <row r="223" spans="1:10">
       <c r="A223" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] khamul</v>
@@ -14005,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1">
+    <row r="224" spans="1:10">
       <c r="A224" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] rutabi</v>
@@ -14038,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1">
+    <row r="225" spans="1:10">
       <c r="A225" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_dragon_knight</v>
@@ -14071,7 +14193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1">
+    <row r="226" spans="1:10">
       <c r="A226" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] rhunish_war_drake</v>
@@ -14104,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1">
+    <row r="227" spans="1:10">
       <c r="A227" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] black_dragon_kataphrakt</v>
@@ -14137,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1">
+    <row r="228" spans="1:10">
       <c r="A228" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_kataphrakt</v>
@@ -14170,7 +14292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1">
+    <row r="229" spans="1:10">
       <c r="A229" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] dragon_cult_acolyte</v>
@@ -14203,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1">
+    <row r="230" spans="1:10">
       <c r="A230" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] black_dragon_warrior</v>
@@ -14236,7 +14358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1">
+    <row r="231" spans="1:10">
       <c r="A231" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_easterlings] easterling_warrior</v>
@@ -14632,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1">
+    <row r="243" spans="1:10">
       <c r="A243" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] captain_of_dol_amroth</v>
@@ -14665,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1">
+    <row r="244" spans="1:10">
       <c r="A244" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] prince_imrahil</v>
@@ -14698,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1">
+    <row r="245" spans="1:10">
       <c r="A245" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] forlong_the_fat</v>
@@ -14731,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1">
+    <row r="246" spans="1:10">
       <c r="A246" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] angbor_the_fearless</v>
@@ -14764,7 +14886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1">
+    <row r="247" spans="1:10">
       <c r="A247" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] duinhir</v>
@@ -14797,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1">
+    <row r="248" spans="1:10">
       <c r="A248" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] knight_of_dol_amroth</v>
@@ -14830,7 +14952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1">
+    <row r="249" spans="1:10">
       <c r="A249" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] axeman_of_lossarnach</v>
@@ -14863,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1">
+    <row r="250" spans="1:10">
       <c r="A250" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] man-at-arms_of_dol_amroth</v>
@@ -14896,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1">
+    <row r="251" spans="1:10">
       <c r="A251" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] blackroot_vale_archer</v>
@@ -14929,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1">
+    <row r="252" spans="1:10">
       <c r="A252" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_fiefdoms] clansman_of_lamedon</v>
@@ -14962,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1">
+    <row r="253" spans="1:10">
       <c r="A253" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] brorgir</v>
@@ -14995,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1">
+    <row r="254" spans="1:10">
       <c r="A254" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] easterling_war_priest</v>
@@ -15028,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1">
+    <row r="255" spans="1:10">
       <c r="A255" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] easterling_captain</v>
@@ -15061,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1">
+    <row r="256" spans="1:10">
       <c r="A256" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] the_dragon_emperor</v>
@@ -15094,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1">
+    <row r="257" spans="1:10">
       <c r="A257" s="4" t="str">
         <f t="shared" si="3"/>
         <v>[the_host_of_the_dragon_emperor] rutabi</v>
@@ -15127,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1">
+    <row r="258" spans="1:10">
       <c r="A258" s="4" t="str">
         <f t="shared" ref="A258:A321" si="4">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C258, " ", "_")), "] ", LOWER(SUBSTITUTE(E258, " ", "_")))</f>
         <v>[the_host_of_the_dragon_emperor] easterling_dragon_knight</v>
@@ -15160,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1">
+    <row r="259" spans="1:10">
       <c r="A259" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] rhunish_war_drake</v>
@@ -15193,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1">
+    <row r="260" spans="1:10">
       <c r="A260" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] easterling_kataphrakt</v>
@@ -15226,7 +15348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1">
+    <row r="261" spans="1:10">
       <c r="A261" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] black_dragon_kataphrakt</v>
@@ -15259,7 +15381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1">
+    <row r="262" spans="1:10">
       <c r="A262" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] dragon_cult_acolyte</v>
@@ -15292,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1">
+    <row r="263" spans="1:10">
       <c r="A263" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] easterling_warrior</v>
@@ -15325,7 +15447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1">
+    <row r="264" spans="1:10">
       <c r="A264" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_host_of_the_dragon_emperor] black_dragon_warrior</v>
@@ -15358,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1">
+    <row r="265" spans="1:10">
       <c r="A265" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] king's_champion</v>
@@ -15391,7 +15513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1">
+    <row r="266" spans="1:10">
       <c r="A266" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] mardin</v>
@@ -15424,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1">
+    <row r="267" spans="1:10">
       <c r="A267" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_king</v>
@@ -15457,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1">
+    <row r="268" spans="1:10">
       <c r="A268" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_captain</v>
@@ -15490,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1">
+    <row r="269" spans="1:10">
       <c r="A269" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] durin</v>
@@ -15523,7 +15645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1">
+    <row r="270" spans="1:10">
       <c r="A270" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] shieldbearer</v>
@@ -15556,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1">
+    <row r="271" spans="1:10">
       <c r="A271" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ballista</v>
@@ -15589,7 +15711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1">
+    <row r="272" spans="1:10">
       <c r="A272" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] vault_warden_team</v>
@@ -15622,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1">
+    <row r="273" spans="1:10">
       <c r="A273" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] iron_guard</v>
@@ -15655,7 +15777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1">
+    <row r="274" spans="1:10">
       <c r="A274" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] khazad_guard</v>
@@ -15688,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1">
+    <row r="275" spans="1:10">
       <c r="A275" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ranger</v>
@@ -15721,7 +15843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1">
+    <row r="276" spans="1:10">
       <c r="A276" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_warrior</v>
@@ -15754,7 +15876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1">
+    <row r="277" spans="1:10">
       <c r="A277" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] king's_champion</v>
@@ -15787,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1">
+    <row r="278" spans="1:10">
       <c r="A278" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] floi_stonehand</v>
@@ -15820,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1">
+    <row r="279" spans="1:10">
       <c r="A279" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_king</v>
@@ -15853,7 +15975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1">
+    <row r="280" spans="1:10">
       <c r="A280" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_captain</v>
@@ -15886,7 +16008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1">
+    <row r="281" spans="1:10">
       <c r="A281" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] balin</v>
@@ -15919,7 +16041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1">
+    <row r="282" spans="1:10">
       <c r="A282" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] gimli</v>
@@ -15952,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1">
+    <row r="283" spans="1:10">
       <c r="A283" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] shieldbearer</v>
@@ -15985,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1">
+    <row r="284" spans="1:10">
       <c r="A284" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_ballista</v>
@@ -16018,7 +16140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1">
+    <row r="285" spans="1:10">
       <c r="A285" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] vault_warden_team</v>
@@ -16051,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1">
+    <row r="286" spans="1:10">
       <c r="A286" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] iron_guard</v>
@@ -16084,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1">
+    <row r="287" spans="1:10">
       <c r="A287" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] khazad_guard</v>
@@ -16117,7 +16239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1">
+    <row r="288" spans="1:10">
       <c r="A288" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_ranger</v>
@@ -16150,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1">
+    <row r="289" spans="1:10">
       <c r="A289" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_kingdom_of_moria] dwarf_warrior</v>
@@ -16183,7 +16305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1">
+    <row r="290" spans="1:10">
       <c r="A290" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] herald_of_the_dead</v>
@@ -16216,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1">
+    <row r="291" spans="1:10">
       <c r="A291" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] aragorn,_strider</v>
@@ -16249,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1">
+    <row r="292" spans="1:10">
       <c r="A292" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] the_king_of_the_dead</v>
@@ -16282,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1">
+    <row r="293" spans="1:10">
       <c r="A293" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] legolas</v>
@@ -16315,7 +16437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1">
+    <row r="294" spans="1:10">
       <c r="A294" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] gimli</v>
@@ -16348,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1">
+    <row r="295" spans="1:10">
       <c r="A295" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] rider_of_the_dead</v>
@@ -16381,7 +16503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1">
+    <row r="296" spans="1:10">
       <c r="A296" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_return_of_the_king] warrior_of_the_dead</v>
@@ -16414,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1">
+    <row r="297" spans="1:10">
       <c r="A297" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] hasharin</v>
@@ -16447,7 +16569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1">
+    <row r="298" spans="1:10">
       <c r="A298" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_king</v>
@@ -16480,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1">
+    <row r="299" spans="1:10">
       <c r="A299" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_chieftan</v>
@@ -16513,7 +16635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1">
+    <row r="300" spans="1:10">
       <c r="A300" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] suladan</v>
@@ -16546,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1">
+    <row r="301" spans="1:10">
       <c r="A301" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] the_golden_king</v>
@@ -16579,7 +16701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1">
+    <row r="302" spans="1:10">
       <c r="A302" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] the_betrayer</v>
@@ -16612,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1">
+    <row r="303" spans="1:10">
       <c r="A303" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] serpent_rider</v>
@@ -16645,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1">
+    <row r="304" spans="1:10">
       <c r="A304" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_raider</v>
@@ -16678,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1">
+    <row r="305" spans="1:10">
       <c r="A305" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] abrakhan_merchant_guard</v>
@@ -16711,7 +16833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1">
+    <row r="306" spans="1:10">
       <c r="A306" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] watcher_of_karna</v>
@@ -16744,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1">
+    <row r="307" spans="1:10">
       <c r="A307" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] serpent_guard</v>
@@ -16777,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1">
+    <row r="308" spans="1:10">
       <c r="A308" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_serpent_horde] haradrim_warrior</v>
@@ -16810,7 +16932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1">
+    <row r="309" spans="1:10">
       <c r="A309" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] gandalf_the_grey</v>
@@ -16843,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1">
+    <row r="310" spans="1:10">
       <c r="A310" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] baldo_tulpenny</v>
@@ -16876,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1">
+    <row r="311" spans="1:10">
       <c r="A311" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] bandobras_took</v>
@@ -16909,7 +17031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1">
+    <row r="312" spans="1:10">
       <c r="A312" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] bilbo_baggins</v>
@@ -16942,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1">
+    <row r="313" spans="1:10">
       <c r="A313" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] farmer_maggot</v>
@@ -16975,7 +17097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1">
+    <row r="314" spans="1:10">
       <c r="A314" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] farmer_tolman_cotton</v>
@@ -17008,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1">
+    <row r="315" spans="1:10">
       <c r="A315" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] folco_boffin</v>
@@ -17041,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1">
+    <row r="316" spans="1:10">
       <c r="A316" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] fredegar_bolger</v>
@@ -17074,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1">
+    <row r="317" spans="1:10">
       <c r="A317" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] frodo_of_the_nine_fingers</v>
@@ -17107,7 +17229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1">
+    <row r="318" spans="1:10">
       <c r="A318" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] grip,_fang_and_wolf</v>
@@ -17140,7 +17262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1">
+    <row r="319" spans="1:10">
       <c r="A319" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] hamfast_'gaffer'_gamgee</v>
@@ -17173,7 +17295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1">
+    <row r="320" spans="1:10">
       <c r="A320" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] hobbit_archer</v>
@@ -17206,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1">
+    <row r="321" spans="1:10">
       <c r="A321" s="4" t="str">
         <f t="shared" si="4"/>
         <v>[the_shire] hobbit_militia</v>
@@ -17239,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1">
+    <row r="322" spans="1:10">
       <c r="A322" s="4" t="str">
         <f t="shared" ref="A322:A385" si="5">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C322, " ", "_")), "] ", LOWER(SUBSTITUTE(E322, " ", "_")))</f>
         <v>[the_shire] holfoot_bracegirdle</v>
@@ -17272,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1">
+    <row r="323" spans="1:10">
       <c r="A323" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] lobelia_sackville-baggins</v>
@@ -17305,7 +17427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1">
+    <row r="324" spans="1:10">
       <c r="A324" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] lotho_sackville-baggins</v>
@@ -17338,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1">
+    <row r="325" spans="1:10">
       <c r="A325" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] meriadoc,_captain_of_the_shire</v>
@@ -17371,7 +17493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1">
+    <row r="326" spans="1:10">
       <c r="A326" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] paladin_took</v>
@@ -17404,7 +17526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1">
+    <row r="327" spans="1:10">
       <c r="A327" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] peregrin,_captain_of_the_shire</v>
@@ -17437,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1">
+    <row r="328" spans="1:10">
       <c r="A328" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] robin_smallburrow</v>
@@ -17470,7 +17592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1">
+    <row r="329" spans="1:10">
       <c r="A329" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] rosie_cotton</v>
@@ -17503,7 +17625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1">
+    <row r="330" spans="1:10">
       <c r="A330" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] samwise_the_brave</v>
@@ -17536,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1">
+    <row r="331" spans="1:10">
       <c r="A331" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] will_whitfoot</v>
@@ -17569,7 +17691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1">
+    <row r="332" spans="1:10">
       <c r="A332" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_shire] hobbit_shirriff</v>
@@ -17602,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1">
+    <row r="333" spans="1:10">
       <c r="A333" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_arbalester</v>
@@ -17635,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1">
+    <row r="334" spans="1:10">
       <c r="A334" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_bo'sun</v>
@@ -17668,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1">
+    <row r="335" spans="1:10">
       <c r="A335" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_captain</v>
@@ -17701,7 +17823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1">
+    <row r="336" spans="1:10">
       <c r="A336" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_of_umbar</v>
@@ -17734,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1">
+    <row r="337" spans="1:10">
       <c r="A337" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] corsair_reaver</v>
@@ -17767,7 +17889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1">
+    <row r="338" spans="1:10">
       <c r="A338" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] dalamyr,_fleetmaster_of_umbar</v>
@@ -17800,7 +17922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1">
+    <row r="339" spans="1:10">
       <c r="A339" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] delgamar,_gatemaster_of_umbar</v>
@@ -17833,7 +17955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1">
+    <row r="340" spans="1:10">
       <c r="A340" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] half_troll</v>
@@ -17866,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1">
+    <row r="341" spans="1:10">
       <c r="A341" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_serpent_horde] haradrim_taskmaster</v>
@@ -17899,7 +18021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1">
+    <row r="342" spans="1:10">
       <c r="A342" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_charioteer</v>
@@ -17932,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1">
+    <row r="343" spans="1:10">
       <c r="A343" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_chieftain</v>
@@ -17965,7 +18087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1">
+    <row r="344" spans="1:10">
       <c r="A344" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_horseman</v>
@@ -17998,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1">
+    <row r="345" spans="1:10">
       <c r="A345" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_king</v>
@@ -18031,7 +18153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1">
+    <row r="346" spans="1:10">
       <c r="A346" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[variags_of_khand] khandish_warrior</v>
@@ -18064,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1">
+    <row r="347" spans="1:10">
       <c r="A347" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_king</v>
@@ -18097,7 +18219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1">
+    <row r="348" spans="1:10">
       <c r="A348" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_raider</v>
@@ -18130,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1">
+    <row r="349" spans="1:10">
       <c r="A349" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_tribesmaster</v>
@@ -18163,7 +18285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1">
+    <row r="350" spans="1:10">
       <c r="A350" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] mahud_warrior</v>
@@ -18196,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1">
+    <row r="351" spans="1:10">
       <c r="A351" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_serpent_horde] raza,_fang_of_the_serpent</v>
@@ -18229,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1">
+    <row r="352" spans="1:10">
       <c r="A352" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] the_mumak_war_leader</v>
@@ -18262,7 +18384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1">
+    <row r="353" spans="1:10">
       <c r="A353" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[far_harad] war_mumak_of_far_harad</v>
@@ -18295,7 +18417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1">
+    <row r="354" spans="1:10">
       <c r="A354" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_serpent_horde] war_mumak_of_harad</v>
@@ -18328,7 +18450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1">
+    <row r="355" spans="1:10">
       <c r="A355" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] the_knight_of_umbar</v>
@@ -18361,7 +18483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1">
+    <row r="356" spans="1:10">
       <c r="A356" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] hasharin</v>
@@ -18394,7 +18516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1">
+    <row r="357" spans="1:10">
       <c r="A357" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] black_numenorean_marshall</v>
@@ -18427,7 +18549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1">
+    <row r="358" spans="1:10">
       <c r="A358" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[corsairs_of_umbar] black_numenorean</v>
@@ -18460,7 +18582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1">
+    <row r="359" spans="1:10">
       <c r="A359" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] arathorn</v>
@@ -18493,7 +18615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1">
+    <row r="360" spans="1:10">
       <c r="A360" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] arvedui,_last_king_of_arnor</v>
@@ -18526,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1">
+    <row r="361" spans="1:10">
       <c r="A361" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] beechbone</v>
@@ -18559,7 +18681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1">
+    <row r="362" spans="1:10">
       <c r="A362" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] bill_ferny</v>
@@ -18592,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1">
+    <row r="363" spans="1:10">
       <c r="A363" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] captain_of_arnor</v>
@@ -18625,7 +18747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1">
+    <row r="364" spans="1:10">
       <c r="A364" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] captain_of_numenor</v>
@@ -18658,7 +18780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1">
+    <row r="365" spans="1:10">
       <c r="A365" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] dunedain</v>
@@ -18691,7 +18813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1">
+    <row r="366" spans="1:10">
       <c r="A366" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] elendil</v>
@@ -18724,7 +18846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1">
+    <row r="367" spans="1:10">
       <c r="A367" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] ent</v>
@@ -18757,7 +18879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1">
+    <row r="368" spans="1:10">
       <c r="A368" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[wildmen_of_druadan] ghan-buri-ghan</v>
@@ -18790,7 +18912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1">
+    <row r="369" spans="1:10">
       <c r="A369" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_misty_mountains] great_eagle</v>
@@ -18823,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1">
+    <row r="370" spans="1:10">
       <c r="A370" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_misty_mountains] gwaihir</v>
@@ -18856,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1">
+    <row r="371" spans="1:10">
       <c r="A371" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] halbarad</v>
@@ -18889,7 +19011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1">
+    <row r="372" spans="1:10">
       <c r="A372" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] harry_goatleaf</v>
@@ -18922,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1">
+    <row r="373" spans="1:10">
       <c r="A373" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] isildur</v>
@@ -18955,7 +19077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1">
+    <row r="374" spans="1:10">
       <c r="A374" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] malbeth_the_seer</v>
@@ -18988,7 +19110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1">
+    <row r="375" spans="1:10">
       <c r="A375" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] quickbeam</v>
@@ -19021,7 +19143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1">
+    <row r="376" spans="1:10">
       <c r="A376" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[the_rangers] ranger_of_the_north</v>
@@ -19054,7 +19176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1">
+    <row r="377" spans="1:10">
       <c r="A377" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] rowan_thistlewood,_ruffian_enforcer</v>
@@ -19087,7 +19209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1">
+    <row r="378" spans="1:10">
       <c r="A378" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] ruffian</v>
@@ -19120,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1">
+    <row r="379" spans="1:10">
       <c r="A379" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] sharkey_and_worm</v>
@@ -19153,7 +19275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1">
+    <row r="380" spans="1:10">
       <c r="A380" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] sid_briarthorn,_ruffian_chief</v>
@@ -19186,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1">
+    <row r="381" spans="1:10">
       <c r="A381" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[sharkey's_rogues] ted_sandyman</v>
@@ -19219,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1">
+    <row r="382" spans="1:10">
       <c r="A382" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[fangorn] treebeard</v>
@@ -19252,7 +19374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1">
+    <row r="383" spans="1:10">
       <c r="A383" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[arnor] warrior_of_arnor</v>
@@ -19285,7 +19407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1">
+    <row r="384" spans="1:10">
       <c r="A384" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[numenor] warrior_of_numenor</v>
@@ -19318,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1">
+    <row r="385" spans="1:10">
       <c r="A385" s="4" t="str">
         <f t="shared" si="5"/>
         <v>[wildmen_of_druadan] woses_warrior</v>
@@ -19351,7 +19473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1">
+    <row r="386" spans="1:10">
       <c r="A386" s="4" t="str">
         <f t="shared" ref="A386:A389" si="6">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C386, " ", "_")), "] ", LOWER(SUBSTITUTE(E386, " ", "_")))</f>
         <v>[the_shire] dunedain</v>
@@ -19384,7 +19506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1">
+    <row r="387" spans="1:10">
       <c r="A387" s="4" t="str">
         <f t="shared" si="6"/>
         <v>[arnor] hobbit_archer</v>
@@ -19417,7 +19539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1">
+    <row r="388" spans="1:10">
       <c r="A388" s="4" t="str">
         <f t="shared" si="6"/>
         <v>[the_rangers] aragorn,_strider</v>
@@ -19450,7 +19572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1">
+    <row r="389" spans="1:10">
       <c r="A389" s="4" t="str">
         <f t="shared" si="6"/>
         <v>[sharkey's_rogues] lotho_sackville-baggins</v>
@@ -19483,7 +19605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1">
+    <row r="390" spans="1:10">
       <c r="A390" s="4" t="s">
         <v>1617</v>
       </c>
@@ -19515,7 +19637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1">
+    <row r="391" spans="1:10">
       <c r="A391" s="4" t="s">
         <v>1616</v>
       </c>
@@ -19547,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1">
+    <row r="392" spans="1:10">
       <c r="A392" s="4" t="str">
         <f t="shared" ref="A392:A455" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
         <v>[sharkey's_rogues] hobbit_militia</v>
@@ -19613,7 +19735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1">
+    <row r="394" spans="1:10">
       <c r="A394" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rivendell] bilbo_baggins</v>
@@ -19646,7 +19768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1">
+    <row r="395" spans="1:10">
       <c r="A395" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] madril</v>
@@ -19679,7 +19801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1">
+    <row r="396" spans="1:10">
       <c r="A396" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] faramir</v>
@@ -19712,7 +19834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1">
+    <row r="397" spans="1:10">
       <c r="A397" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] anborn</v>
@@ -19745,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1">
+    <row r="398" spans="1:10">
       <c r="A398" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] mablung</v>
@@ -19778,7 +19900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1">
+    <row r="399" spans="1:10">
       <c r="A399" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] damrod</v>
@@ -19811,7 +19933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1">
+    <row r="400" spans="1:10">
       <c r="A400" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] osgiliath_veteran</v>
@@ -19844,7 +19966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1">
+    <row r="401" spans="1:10">
       <c r="A401" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] ranger_of_gondor</v>
@@ -19877,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1">
+    <row r="402" spans="1:10">
       <c r="A402" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] warrior_of_minas_tirith</v>
@@ -19910,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1">
+    <row r="403" spans="1:10">
       <c r="A403" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] frodo_baggins</v>
@@ -19943,7 +20065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1">
+    <row r="404" spans="1:10">
       <c r="A404" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] samwise_gamgee</v>
@@ -19976,7 +20098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1">
+    <row r="405" spans="1:10">
       <c r="A405" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] smeagol</v>
@@ -20009,7 +20131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1">
+    <row r="406" spans="1:10">
       <c r="A406" t="s">
         <v>1709</v>
       </c>
@@ -20041,7 +20163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1">
+    <row r="407" spans="1:10">
       <c r="A407" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] captain_of_minas_tirith</v>
@@ -20074,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1">
+    <row r="408" spans="1:10">
       <c r="A408" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] elladan_&amp;_elrohir</v>
@@ -20107,7 +20229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:10" hidden="1">
+    <row r="409" spans="1:10">
       <c r="A409" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] aragorn,_strider</v>
@@ -20140,7 +20262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:10" hidden="1">
+    <row r="410" spans="1:10">
       <c r="A410" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] legolas</v>
@@ -20173,7 +20295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:10" hidden="1">
+    <row r="411" spans="1:10">
       <c r="A411" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] gimli</v>
@@ -20206,7 +20328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1">
+    <row r="412" spans="1:10">
       <c r="A412" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] halbarad</v>
@@ -20239,7 +20361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:10" hidden="1">
+    <row r="413" spans="1:10">
       <c r="A413" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_grey_company] ranger_of_the_north</v>
@@ -20272,7 +20394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1">
+    <row r="414" spans="1:10">
       <c r="A414" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] deorwine</v>
@@ -20305,7 +20427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1">
+    <row r="415" spans="1:10">
       <c r="A415" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] elfhelm</v>
@@ -20338,7 +20460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1">
+    <row r="416" spans="1:10">
       <c r="A416" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] gamling</v>
@@ -20371,7 +20493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1">
+    <row r="417" spans="1:10">
       <c r="A417" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] captain_of_rohan</v>
@@ -20404,7 +20526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1">
+    <row r="418" spans="1:10">
       <c r="A418" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] theoden</v>
@@ -20437,7 +20559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1">
+    <row r="419" spans="1:10">
       <c r="A419" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] eomer</v>
@@ -20470,7 +20592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1">
+    <row r="420" spans="1:10">
       <c r="A420" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] dernhelm</v>
@@ -20503,7 +20625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1">
+    <row r="421" spans="1:10">
       <c r="A421" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] rider_of_rohan</v>
@@ -20536,7 +20658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1">
+    <row r="422" spans="1:10">
       <c r="A422" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_riders_of_theoden] rohan_royal_guard</v>
@@ -20569,7 +20691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1">
+    <row r="423" spans="1:10">
       <c r="A423" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] captain_of_minas_tirith</v>
@@ -20602,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1">
+    <row r="424" spans="1:10">
       <c r="A424" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] aragorn,_king_elessar</v>
@@ -20635,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1">
+    <row r="425" spans="1:10">
       <c r="A425" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] gandalf_the_white</v>
@@ -20668,7 +20790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1">
+    <row r="426" spans="1:10">
       <c r="A426" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] peregrin_took</v>
@@ -20701,7 +20823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1">
+    <row r="427" spans="1:10">
       <c r="A427" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] beregond</v>
@@ -20734,7 +20856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1">
+    <row r="428" spans="1:10">
       <c r="A428" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] warrior_of_minas_tirith</v>
@@ -20767,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1">
+    <row r="429" spans="1:10">
       <c r="A429" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] captain_of_rohan</v>
@@ -20800,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1">
+    <row r="430" spans="1:10">
       <c r="A430" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] eomer</v>
@@ -20833,7 +20955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1">
+    <row r="431" spans="1:10">
       <c r="A431" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] meriadoc_brandybuck</v>
@@ -20866,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1">
+    <row r="432" spans="1:10">
       <c r="A432" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] warrior_of_rohan</v>
@@ -20899,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1">
+    <row r="433" spans="1:10">
       <c r="A433" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] captain_of_dol_amroth</v>
@@ -20932,7 +21054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1">
+    <row r="434" spans="1:10">
       <c r="A434" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] prince_imrahil</v>
@@ -20965,7 +21087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1">
+    <row r="435" spans="1:10">
       <c r="A435" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] knight_of_dol_amroth</v>
@@ -20998,7 +21120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1">
+    <row r="436" spans="1:10">
       <c r="A436" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] elladan_&amp;_elrohir</v>
@@ -21031,7 +21153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1">
+    <row r="437" spans="1:10">
       <c r="A437" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] legolas</v>
@@ -21064,7 +21186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1">
+    <row r="438" spans="1:10">
       <c r="A438" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[the_men_of_the_west] gimli</v>
@@ -21097,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1">
+    <row r="439" spans="1:10">
       <c r="A439" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] galadhrim_captain</v>
@@ -21130,7 +21252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1">
+    <row r="440" spans="1:10">
       <c r="A440" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] haldir</v>
@@ -21163,7 +21285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1">
+    <row r="441" spans="1:10">
       <c r="A441" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] galadhrim_warrior</v>
@@ -21196,7 +21318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1">
+    <row r="442" spans="1:10">
       <c r="A442" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] gamling</v>
@@ -21229,7 +21351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1">
+    <row r="443" spans="1:10">
       <c r="A443" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] captain_of_rohan</v>
@@ -21262,7 +21384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:10" hidden="1">
+    <row r="444" spans="1:10">
       <c r="A444" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] theoden</v>
@@ -21295,7 +21417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1">
+    <row r="445" spans="1:10">
       <c r="A445" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] aldor</v>
@@ -21328,7 +21450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1">
+    <row r="446" spans="1:10">
       <c r="A446" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] haleth</v>
@@ -21361,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1">
+    <row r="447" spans="1:10">
       <c r="A447" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] king's_huntsman</v>
@@ -21394,7 +21516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1">
+    <row r="448" spans="1:10">
       <c r="A448" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] rohan_royal_guard</v>
@@ -21427,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1">
+    <row r="449" spans="1:10">
       <c r="A449" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] warrior_of_rohan</v>
@@ -21460,7 +21582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1">
+    <row r="450" spans="1:10">
       <c r="A450" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] aragorn,_strider</v>
@@ -21493,7 +21615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:10" hidden="1">
+    <row r="451" spans="1:10">
       <c r="A451" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] legolas</v>
@@ -21526,7 +21648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:10" hidden="1">
+    <row r="452" spans="1:10">
       <c r="A452" s="4" t="str">
         <f t="shared" si="7"/>
         <v>[defenders_of_helm's_deep] gimli</v>
@@ -21559,7 +21681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:10" hidden="1">
+    <row r="453" spans="1:10">
       <c r="A453" s="15" t="str">
         <f t="shared" si="7"/>
         <v>[theodred's_guard] elfhelm</v>
@@ -21592,7 +21714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:10" hidden="1">
+    <row r="454" spans="1:10">
       <c r="A454" s="15" t="str">
         <f t="shared" si="7"/>
         <v>[theodred's_guard] grimbold</v>
@@ -21625,7 +21747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1">
+    <row r="455" spans="1:10">
       <c r="A455" s="15" t="str">
         <f t="shared" si="7"/>
         <v>[theodred's_guard] captain_of_rohan</v>
@@ -21658,9 +21780,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1">
+    <row r="456" spans="1:10">
       <c r="A456" s="15" t="str">
-        <f t="shared" ref="A456:A492" si="8">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C456, " ", "_")), "] ", LOWER(SUBSTITUTE(E456, " ", "_")))</f>
+        <f t="shared" ref="A456:A512" si="8">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C456, " ", "_")), "] ", LOWER(SUBSTITUTE(E456, " ", "_")))</f>
         <v>[theodred's_guard] theodred</v>
       </c>
       <c r="B456" t="s">
@@ -21691,7 +21813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1">
+    <row r="457" spans="1:10">
       <c r="A457" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[theodred's_guard] rider_of_rohan</v>
@@ -21724,7 +21846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1">
+    <row r="458" spans="1:10">
       <c r="A458" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[theodred's_guard] rohan_royal_guard</v>
@@ -21757,7 +21879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1">
+    <row r="459" spans="1:10">
       <c r="A459" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[theodred's_guard] rohan_outrider</v>
@@ -21790,7 +21912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1">
+    <row r="460" spans="1:10">
       <c r="A460" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[theodred's_guard] warrior_of_rohan</v>
@@ -21823,7 +21945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:10" hidden="1">
+    <row r="461" spans="1:10">
       <c r="A461" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[riders_of_eomer] erkenbrand</v>
@@ -21856,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1">
+    <row r="462" spans="1:10">
       <c r="A462" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[riders_of_eomer] captain_of_rohan</v>
@@ -21889,7 +22011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1">
+    <row r="463" spans="1:10">
       <c r="A463" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[riders_of_eomer] eomer</v>
@@ -21922,7 +22044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1">
+    <row r="464" spans="1:10">
       <c r="A464" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[riders_of_eomer] rider_of_rohan</v>
@@ -21955,7 +22077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:10" hidden="1">
+    <row r="465" spans="1:10">
       <c r="A465" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[riders_of_eomer] gandalf_the_white</v>
@@ -21988,7 +22110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:10" hidden="1">
+    <row r="466" spans="1:10">
       <c r="A466" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] deorwine</v>
@@ -22021,7 +22143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:10" hidden="1">
+    <row r="467" spans="1:10">
       <c r="A467" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] elfhelm</v>
@@ -22054,7 +22176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:10" hidden="1">
+    <row r="468" spans="1:10">
       <c r="A468" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] gamling</v>
@@ -22087,7 +22209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:10" hidden="1">
+    <row r="469" spans="1:10">
       <c r="A469" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] captain_of_rohan</v>
@@ -22120,7 +22242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:10" hidden="1">
+    <row r="470" spans="1:10">
       <c r="A470" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] theoden</v>
@@ -22153,7 +22275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:10" hidden="1">
+    <row r="471" spans="1:10">
       <c r="A471" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] eomer</v>
@@ -22186,7 +22308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:10" hidden="1">
+    <row r="472" spans="1:10">
       <c r="A472" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] dernhelm</v>
@@ -22219,7 +22341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:10" hidden="1">
+    <row r="473" spans="1:10">
       <c r="A473" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] rider_of_rohan</v>
@@ -22252,7 +22374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:10" hidden="1">
+    <row r="474" spans="1:10">
       <c r="A474" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] rohan_royal_guard</v>
@@ -22285,7 +22407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:10" hidden="1">
+    <row r="475" spans="1:10">
       <c r="A475" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] rohan_outrider</v>
@@ -22318,7 +22440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:10" hidden="1">
+    <row r="476" spans="1:10">
       <c r="A476" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] ghan-buri-ghan</v>
@@ -22351,7 +22473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1">
+    <row r="477" spans="1:10">
       <c r="A477" s="15" t="str">
         <f t="shared" si="8"/>
         <v>[paths_of_the_druadan] woses_warrior</v>
@@ -22384,7 +22506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:10" hidden="1">
+    <row r="478" spans="1:10">
       <c r="A478" s="4" t="str">
         <f t="shared" si="8"/>
         <v>[helm's_guard] captain_of_rohan</v>
@@ -22417,7 +22539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:10" hidden="1">
+    <row r="479" spans="1:10">
       <c r="A479" s="4" t="str">
         <f t="shared" si="8"/>
         <v>[helm's_guard] helm_hammerhand</v>
@@ -22450,7 +22572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:10" hidden="1">
+    <row r="480" spans="1:10">
       <c r="A480" s="4" t="str">
         <f t="shared" si="8"/>
         <v>[helm's_guard] king's_huntsman</v>
@@ -22483,7 +22605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1">
+    <row r="481" spans="1:10">
       <c r="A481" s="4" t="str">
         <f t="shared" si="8"/>
         <v>[helm's_guard] rider_of_rohan</v>
@@ -22516,7 +22638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1">
+    <row r="482" spans="1:10">
       <c r="A482" s="4" t="str">
         <f t="shared" si="8"/>
         <v>[helm's_guard] rohan_royal_guard</v>
@@ -22549,7 +22671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:10" hidden="1">
+    <row r="483" spans="1:10">
       <c r="A483" s="4" t="str">
         <f t="shared" si="8"/>
         <v>[helm's_guard] rohan_outrider</v>
@@ -22582,7 +22704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:10" hidden="1">
+    <row r="484" spans="1:10">
       <c r="A484" s="4" t="str">
         <f t="shared" si="8"/>
         <v>[helm's_guard] warrior_of_rohan</v>
@@ -22879,14 +23001,734 @@
         <v>0</v>
       </c>
     </row>
+    <row r="493" spans="1:10">
+      <c r="A493" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] baldo_tulpenny</v>
+      </c>
+      <c r="B493" t="s">
+        <v>211</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F493" t="s">
+        <v>10</v>
+      </c>
+      <c r="G493">
+        <v>40</v>
+      </c>
+      <c r="H493" t="b">
+        <v>0</v>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10">
+      <c r="A494" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] farmer_maggot</v>
+      </c>
+      <c r="B494" t="s">
+        <v>211</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F494" t="s">
+        <v>10</v>
+      </c>
+      <c r="G494">
+        <v>45</v>
+      </c>
+      <c r="H494" t="b">
+        <v>0</v>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10">
+      <c r="A495" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] farmer_tolman_cotton</v>
+      </c>
+      <c r="B495" t="s">
+        <v>211</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F495" t="s">
+        <v>10</v>
+      </c>
+      <c r="G495">
+        <v>35</v>
+      </c>
+      <c r="H495" t="b">
+        <v>0</v>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10">
+      <c r="A496" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] folco_boffin</v>
+      </c>
+      <c r="B496" t="s">
+        <v>211</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F496" t="s">
+        <v>22</v>
+      </c>
+      <c r="G496">
+        <v>20</v>
+      </c>
+      <c r="H496" t="b">
+        <v>0</v>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10">
+      <c r="A497" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] fredegar_bolger</v>
+      </c>
+      <c r="B497" t="s">
+        <v>211</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F497" t="s">
+        <v>22</v>
+      </c>
+      <c r="G497">
+        <v>10</v>
+      </c>
+      <c r="H497" t="b">
+        <v>0</v>
+      </c>
+      <c r="I497" t="b">
+        <v>1</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10">
+      <c r="A498" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] frodo_of_the_nine_fingers</v>
+      </c>
+      <c r="B498" t="s">
+        <v>211</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F498" t="s">
+        <v>10</v>
+      </c>
+      <c r="G498">
+        <v>60</v>
+      </c>
+      <c r="H498" t="b">
+        <v>0</v>
+      </c>
+      <c r="I498" t="b">
+        <v>1</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10">
+      <c r="A499" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] grip,_fang_and_wolf</v>
+      </c>
+      <c r="B499" t="s">
+        <v>211</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F499" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G499">
+        <v>0</v>
+      </c>
+      <c r="H499" t="b">
+        <v>0</v>
+      </c>
+      <c r="I499" t="b">
+        <v>1</v>
+      </c>
+      <c r="J499">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10">
+      <c r="A500" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] hamfast_'gaffer'_gamgee</v>
+      </c>
+      <c r="B500" t="s">
+        <v>211</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F500" t="s">
+        <v>10</v>
+      </c>
+      <c r="G500">
+        <v>30</v>
+      </c>
+      <c r="H500" t="b">
+        <v>0</v>
+      </c>
+      <c r="I500" t="b">
+        <v>1</v>
+      </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10">
+      <c r="A501" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] hobbit_archer</v>
+      </c>
+      <c r="B501" t="s">
+        <v>211</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F501" t="s">
+        <v>12</v>
+      </c>
+      <c r="G501">
+        <v>5</v>
+      </c>
+      <c r="H501" t="b">
+        <v>1</v>
+      </c>
+      <c r="I501" t="b">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10">
+      <c r="A502" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] hobbit_militia</v>
+      </c>
+      <c r="B502" t="s">
+        <v>211</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F502" t="s">
+        <v>12</v>
+      </c>
+      <c r="G502">
+        <v>4</v>
+      </c>
+      <c r="H502" t="b">
+        <v>0</v>
+      </c>
+      <c r="I502" t="b">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10">
+      <c r="A503" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] holfoot_bracegirdle</v>
+      </c>
+      <c r="B503" t="s">
+        <v>211</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F503" t="s">
+        <v>10</v>
+      </c>
+      <c r="G503">
+        <v>30</v>
+      </c>
+      <c r="H503" t="b">
+        <v>0</v>
+      </c>
+      <c r="I503" t="b">
+        <v>1</v>
+      </c>
+      <c r="J503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10">
+      <c r="A504" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] lobelia_sackville-baggins</v>
+      </c>
+      <c r="B504" t="s">
+        <v>211</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F504" t="s">
+        <v>22</v>
+      </c>
+      <c r="G504">
+        <v>15</v>
+      </c>
+      <c r="H504" t="b">
+        <v>0</v>
+      </c>
+      <c r="I504" t="b">
+        <v>1</v>
+      </c>
+      <c r="J504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10">
+      <c r="A505" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] meriadoc,_captain_of_the_shire</v>
+      </c>
+      <c r="B505" t="s">
+        <v>211</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F505" t="s">
+        <v>7</v>
+      </c>
+      <c r="G505">
+        <v>45</v>
+      </c>
+      <c r="H505" t="b">
+        <v>0</v>
+      </c>
+      <c r="I505" t="b">
+        <v>1</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10">
+      <c r="A506" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] paladin_took</v>
+      </c>
+      <c r="B506" t="s">
+        <v>211</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F506" t="s">
+        <v>10</v>
+      </c>
+      <c r="G506">
+        <v>25</v>
+      </c>
+      <c r="H506" t="b">
+        <v>0</v>
+      </c>
+      <c r="I506" t="b">
+        <v>1</v>
+      </c>
+      <c r="J506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10">
+      <c r="A507" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] peregrin,_captain_of_the_shire</v>
+      </c>
+      <c r="B507" t="s">
+        <v>211</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F507" t="s">
+        <v>7</v>
+      </c>
+      <c r="G507">
+        <v>45</v>
+      </c>
+      <c r="H507" t="b">
+        <v>0</v>
+      </c>
+      <c r="I507" t="b">
+        <v>1</v>
+      </c>
+      <c r="J507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10">
+      <c r="A508" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] robin_smallburrow</v>
+      </c>
+      <c r="B508" t="s">
+        <v>211</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F508" t="s">
+        <v>10</v>
+      </c>
+      <c r="G508">
+        <v>20</v>
+      </c>
+      <c r="H508" t="b">
+        <v>0</v>
+      </c>
+      <c r="I508" t="b">
+        <v>1</v>
+      </c>
+      <c r="J508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10">
+      <c r="A509" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] rosie_cotton</v>
+      </c>
+      <c r="B509" t="s">
+        <v>211</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F509" t="s">
+        <v>44</v>
+      </c>
+      <c r="G509">
+        <v>15</v>
+      </c>
+      <c r="H509" t="b">
+        <v>0</v>
+      </c>
+      <c r="I509" t="b">
+        <v>1</v>
+      </c>
+      <c r="J509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10">
+      <c r="A510" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] samwise_the_brave</v>
+      </c>
+      <c r="B510" t="s">
+        <v>211</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F510" t="s">
+        <v>10</v>
+      </c>
+      <c r="G510">
+        <v>45</v>
+      </c>
+      <c r="H510" t="b">
+        <v>0</v>
+      </c>
+      <c r="I510" t="b">
+        <v>1</v>
+      </c>
+      <c r="J510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10">
+      <c r="A511" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] will_whitfoot</v>
+      </c>
+      <c r="B511" t="s">
+        <v>211</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F511" t="s">
+        <v>10</v>
+      </c>
+      <c r="G511">
+        <v>30</v>
+      </c>
+      <c r="H511" t="b">
+        <v>0</v>
+      </c>
+      <c r="I511" t="b">
+        <v>1</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10">
+      <c r="A512" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>[defenders_of_the_shire] hobbit_shirriff</v>
+      </c>
+      <c r="B512" t="s">
+        <v>211</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F512" t="s">
+        <v>12</v>
+      </c>
+      <c r="G512">
+        <v>5</v>
+      </c>
+      <c r="H512" t="b">
+        <v>0</v>
+      </c>
+      <c r="I512" t="b">
+        <v>0</v>
+      </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10">
+      <c r="A513" s="15" t="str">
+        <f t="shared" ref="A513:A514" si="9">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C513, " ", "_")), "] ", LOWER(SUBSTITUTE(E513, " ", "_")))</f>
+        <v>[defenders_of_the_shire] tookish_hunters</v>
+      </c>
+      <c r="B513" t="s">
+        <v>211</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F513" t="s">
+        <v>12</v>
+      </c>
+      <c r="G513">
+        <v>6</v>
+      </c>
+      <c r="H513" t="b">
+        <v>1</v>
+      </c>
+      <c r="I513" t="b">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10">
+      <c r="A514" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v>[defenders_of_the_shire] battlin'_brandybucks</v>
+      </c>
+      <c r="B514" t="s">
+        <v>211</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F514" t="s">
+        <v>12</v>
+      </c>
+      <c r="G514">
+        <v>5</v>
+      </c>
+      <c r="H514" t="b">
+        <v>0</v>
+      </c>
+      <c r="I514" t="b">
+        <v>0</v>
+      </c>
+      <c r="J514">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J484" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="The Fellowship"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J514" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J308">
     <sortCondition ref="C2:C308"/>
     <sortCondition ref="F2:F308"/>
@@ -22899,11 +23741,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <dimension ref="A1:H826"/>
+  <dimension ref="A1:H842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A794" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C823" sqref="C823"/>
+      <pane ySplit="1" topLeftCell="A813" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C843" sqref="C843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42825,8 +43667,397 @@
         <v>1</v>
       </c>
     </row>
+    <row r="827" spans="1:8">
+      <c r="A827" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D827" t="s">
+        <v>284</v>
+      </c>
+      <c r="E827">
+        <v>30</v>
+      </c>
+      <c r="G827">
+        <v>0</v>
+      </c>
+      <c r="H827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8">
+      <c r="A828" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E828">
+        <v>1</v>
+      </c>
+      <c r="F828" t="s">
+        <v>402</v>
+      </c>
+      <c r="G828">
+        <v>0</v>
+      </c>
+      <c r="H828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8">
+      <c r="A829" s="5" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E829">
+        <v>1</v>
+      </c>
+      <c r="F829" t="s">
+        <v>402</v>
+      </c>
+      <c r="G829">
+        <v>0</v>
+      </c>
+      <c r="H829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8">
+      <c r="A830" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D830" t="s">
+        <v>440</v>
+      </c>
+      <c r="E830">
+        <v>5</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+      <c r="H830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8">
+      <c r="A831" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D831" t="s">
+        <v>660</v>
+      </c>
+      <c r="E831">
+        <v>5</v>
+      </c>
+      <c r="F831" t="s">
+        <v>256</v>
+      </c>
+      <c r="G831">
+        <v>0</v>
+      </c>
+      <c r="H831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8">
+      <c r="A832" s="5" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D832" t="s">
+        <v>312</v>
+      </c>
+      <c r="E832">
+        <v>5</v>
+      </c>
+      <c r="G832">
+        <v>0</v>
+      </c>
+      <c r="H832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8">
+      <c r="A833" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D833" t="s">
+        <v>440</v>
+      </c>
+      <c r="E833">
+        <v>5</v>
+      </c>
+      <c r="G833">
+        <v>0</v>
+      </c>
+      <c r="H833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8">
+      <c r="A834" s="5" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D834" t="s">
+        <v>660</v>
+      </c>
+      <c r="E834">
+        <v>5</v>
+      </c>
+      <c r="F834" t="s">
+        <v>256</v>
+      </c>
+      <c r="G834">
+        <v>0</v>
+      </c>
+      <c r="H834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8">
+      <c r="A835" s="5" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D835" t="s">
+        <v>312</v>
+      </c>
+      <c r="E835">
+        <v>5</v>
+      </c>
+      <c r="G835">
+        <v>0</v>
+      </c>
+      <c r="H835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8">
+      <c r="A836" s="5" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D836" t="s">
+        <v>440</v>
+      </c>
+      <c r="E836">
+        <v>5</v>
+      </c>
+      <c r="G836">
+        <v>0</v>
+      </c>
+      <c r="H836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8">
+      <c r="A837" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D837" t="s">
+        <v>660</v>
+      </c>
+      <c r="E837">
+        <v>5</v>
+      </c>
+      <c r="F837" t="s">
+        <v>256</v>
+      </c>
+      <c r="G837">
+        <v>0</v>
+      </c>
+      <c r="H837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8">
+      <c r="A838" s="5" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D838" t="s">
+        <v>440</v>
+      </c>
+      <c r="E838">
+        <v>5</v>
+      </c>
+      <c r="G838">
+        <v>0</v>
+      </c>
+      <c r="H838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8">
+      <c r="A839" s="5" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D839" t="s">
+        <v>660</v>
+      </c>
+      <c r="E839">
+        <v>5</v>
+      </c>
+      <c r="F839" t="s">
+        <v>256</v>
+      </c>
+      <c r="G839">
+        <v>0</v>
+      </c>
+      <c r="H839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8">
+      <c r="A840" s="5" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D840" t="s">
+        <v>440</v>
+      </c>
+      <c r="E840">
+        <v>5</v>
+      </c>
+      <c r="G840">
+        <v>0</v>
+      </c>
+      <c r="H840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8">
+      <c r="A841" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D841" t="s">
+        <v>660</v>
+      </c>
+      <c r="E841">
+        <v>5</v>
+      </c>
+      <c r="F841" t="s">
+        <v>256</v>
+      </c>
+      <c r="G841">
+        <v>0</v>
+      </c>
+      <c r="H841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8">
+      <c r="A842" s="5" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D842" t="s">
+        <v>284</v>
+      </c>
+      <c r="E842">
+        <v>30</v>
+      </c>
+      <c r="G842">
+        <v>0</v>
+      </c>
+      <c r="H842">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H815" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
+  <autoFilter ref="A1:H826" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H525">
     <sortCondition ref="B2:B525"/>
     <sortCondition ref="C2:C525"/>
@@ -42841,8 +44072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44077,11 +45308,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
-  <dimension ref="A1:C336"/>
+  <dimension ref="A1:C353"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C334" sqref="C334"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47787,6 +49018,193 @@
         <v>863</v>
       </c>
     </row>
+    <row r="337" spans="1:3" ht="30">
+      <c r="A337" s="15" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="30">
+      <c r="A338" s="15" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="30">
+      <c r="A339" s="15" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="30">
+      <c r="A340" s="15" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="30">
+      <c r="A341" s="15" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="30">
+      <c r="A342" s="15" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="15" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="30">
+      <c r="A344" s="15" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="30">
+      <c r="A345" s="15" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="30">
+      <c r="A346" s="15" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="30">
+      <c r="A347" s="15" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="30">
+      <c r="A348" s="15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="30">
+      <c r="A349" s="15" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="30">
+      <c r="A350" s="15" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="15" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="30">
+      <c r="A352" s="15" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="30">
+      <c r="A353" s="15" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C262" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47795,10 +49213,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -48202,6 +49620,34 @@
         <v>1727</v>
       </c>
     </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>2016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D57CE7-4785-467D-A463-177787EEFAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB23B88C-81FD-41E0-A9F0-114EE93AC456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$C$262</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$549</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$J$557</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$G$826</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7326" uniqueCount="2256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7433" uniqueCount="2280">
   <si>
     <t>faction</t>
   </si>
@@ -6946,6 +6946,78 @@
   </si>
   <si>
     <t>This force must contain at least one Mumak model.</t>
+  </si>
+  <si>
+    <t>Mordor Troll Chieftan (Leader)</t>
+  </si>
+  <si>
+    <t>OPT0913</t>
+  </si>
+  <si>
+    <t>OPT0914</t>
+  </si>
+  <si>
+    <t>OPT0915</t>
+  </si>
+  <si>
+    <t>OPT0916</t>
+  </si>
+  <si>
+    <t>OPT0917</t>
+  </si>
+  <si>
+    <t>OPT0918</t>
+  </si>
+  <si>
+    <t>OPT0919</t>
+  </si>
+  <si>
+    <t>OPT0920</t>
+  </si>
+  <si>
+    <t>OPT0921</t>
+  </si>
+  <si>
+    <t>OPT0922</t>
+  </si>
+  <si>
+    <t>OPT0923</t>
+  </si>
+  <si>
+    <t>OPT0924</t>
+  </si>
+  <si>
+    <t>OPT0925</t>
+  </si>
+  <si>
+    <t>OPT0926</t>
+  </si>
+  <si>
+    <t>OPT0927</t>
+  </si>
+  <si>
+    <t>[the_black_gate_opens] mordor_troll_chieftan</t>
+  </si>
+  <si>
+    <t>[the_black_gate_opens] morannon_orc_captain</t>
+  </si>
+  <si>
+    <t>[the_black_gate_opens] orc_captain</t>
+  </si>
+  <si>
+    <t>[the_black_gate_opens] mouth_of_sauron</t>
+  </si>
+  <si>
+    <t>[the_black_gate_opens] mordor_troll_chieftan_(leader)</t>
+  </si>
+  <si>
+    <t>['[the_black_gate_opens] mordor_troll', '[the_black_gate_opens] morannon_orc', '[the_black_gate_opens] orc_warrior']</t>
+  </si>
+  <si>
+    <t>['[the_black_gate_opens] mordor_troll_chieftan_(leader)']</t>
+  </si>
+  <si>
+    <t>This force must contain the Mordor Troll Chieftan (Leader), who is a Hero of Valour.</t>
   </si>
 </sst>
 </file>
@@ -7469,11 +7541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:K549"/>
+  <dimension ref="A1:K557"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <pane ySplit="1" topLeftCell="A538" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F546" sqref="F546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7525,7 +7597,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C2, " ", "_")), "] ", LOWER(SUBSTITUTE(E2, " ", "_")))</f>
+        <f t="shared" ref="A2:A33" si="0">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C2, " ", "_")), "] ", LOWER(SUBSTITUTE(E2, " ", "_")))</f>
         <v>[angmar] shade</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -7558,7 +7630,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C3, " ", "_")), "] ", LOWER(SUBSTITUTE(E3, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] wild_warg_chieftain</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -7591,7 +7663,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C4, " ", "_")), "] ", LOWER(SUBSTITUTE(E4, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] barrow-wight</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -7624,7 +7696,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C5, " ", "_")), "] ", LOWER(SUBSTITUTE(E5, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_captain</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -7657,7 +7729,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C6, " ", "_")), "] ", LOWER(SUBSTITUTE(E6, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] golfimbul</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -7690,7 +7762,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C7, " ", "_")), "] ", LOWER(SUBSTITUTE(E7, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] witch_king</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -7723,7 +7795,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C8, " ", "_")), "] ", LOWER(SUBSTITUTE(E8, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] gulavhar</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -7756,7 +7828,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C9, " ", "_")), "] ", LOWER(SUBSTITUTE(E9, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] the_dwimmerlaik</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -7789,7 +7861,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C10, " ", "_")), "] ", LOWER(SUBSTITUTE(E10, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] the_tainted</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -7822,7 +7894,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C11, " ", "_")), "] ", LOWER(SUBSTITUTE(E11, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] buhrdur</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -7855,7 +7927,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C12, " ", "_")), "] ", LOWER(SUBSTITUTE(E12, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_shaman</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -7888,7 +7960,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C13, " ", "_")), "] ", LOWER(SUBSTITUTE(E13, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] cave_troll</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -7921,7 +7993,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C14, " ", "_")), "] ", LOWER(SUBSTITUTE(E14, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] dead_marsh_spectre</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -7954,7 +8026,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C15, " ", "_")), "] ", LOWER(SUBSTITUTE(E15, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] angmar_warg_rider</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -7987,7 +8059,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C16, " ", "_")), "] ", LOWER(SUBSTITUTE(E16, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] wild_warg</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -8020,7 +8092,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C17, " ", "_")), "] ", LOWER(SUBSTITUTE(E17, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_warrior</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -8053,7 +8125,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C18, " ", "_")), "] ", LOWER(SUBSTITUTE(E18, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[arnor] malbeth_the_seer</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -8086,7 +8158,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C19, " ", "_")), "] ", LOWER(SUBSTITUTE(E19, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[arnor] captain_of_arnor</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -8119,7 +8191,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C20, " ", "_")), "] ", LOWER(SUBSTITUTE(E20, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[arnor] arvedui,_last_king_of_arnor</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -8152,7 +8224,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C21, " ", "_")), "] ", LOWER(SUBSTITUTE(E21, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[arnor] warrior_of_arnor</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -8185,7 +8257,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C22, " ", "_")), "] ", LOWER(SUBSTITUTE(E22, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[arnor] hobbit_archer</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -8218,7 +8290,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C23, " ", "_")), "] ", LOWER(SUBSTITUTE(E23, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[barad-dur] mordor_troll_chieftan</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -8251,7 +8323,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C24, " ", "_")), "] ", LOWER(SUBSTITUTE(E24, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[barad-dur] black_numenorean_marshall</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -8284,7 +8356,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C25, " ", "_")), "] ", LOWER(SUBSTITUTE(E25, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[barad-dur] ringwraith</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -8317,7 +8389,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C26, " ", "_")), "] ", LOWER(SUBSTITUTE(E26, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[barad-dur] orc_taskmaster</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -8350,7 +8422,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C27, " ", "_")), "] ", LOWER(SUBSTITUTE(E27, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[barad-dur] orc_captain</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -8383,7 +8455,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C28, " ", "_")), "] ", LOWER(SUBSTITUTE(E28, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[barad-dur] sauron</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -8416,7 +8488,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C29, " ", "_")), "] ", LOWER(SUBSTITUTE(E29, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[barad-dur] witch_king</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -8449,7 +8521,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C30, " ", "_")), "] ", LOWER(SUBSTITUTE(E30, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[barad-dur] shelob</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -8482,7 +8554,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C31, " ", "_")), "] ", LOWER(SUBSTITUTE(E31, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[barad-dur] orc_drummer</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -8515,7 +8587,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C32, " ", "_")), "] ", LOWER(SUBSTITUTE(E32, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[barad-dur] orc_shaman</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -8548,7 +8620,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C33, " ", "_")), "] ", LOWER(SUBSTITUTE(E33, " ", "_")))</f>
+        <f t="shared" si="0"/>
         <v>[barad-dur] mordor_war_catapult</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -8581,7 +8653,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C34, " ", "_")), "] ", LOWER(SUBSTITUTE(E34, " ", "_")))</f>
+        <f t="shared" ref="A34:A65" si="1">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C34, " ", "_")), "] ", LOWER(SUBSTITUTE(E34, " ", "_")))</f>
         <v>[barad-dur] mordor_siege_bow</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -8614,7 +8686,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C35, " ", "_")), "] ", LOWER(SUBSTITUTE(E35, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[barad-dur] mordor_troll</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -8647,7 +8719,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C36, " ", "_")), "] ", LOWER(SUBSTITUTE(E36, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[barad-dur] morgul_knight</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -8680,7 +8752,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C37, " ", "_")), "] ", LOWER(SUBSTITUTE(E37, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[barad-dur] warg_rider</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -8713,7 +8785,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C38, " ", "_")), "] ", LOWER(SUBSTITUTE(E38, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[barad-dur] black_numenorean</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -8746,7 +8818,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C39, " ", "_")), "] ", LOWER(SUBSTITUTE(E39, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[barad-dur] orc_tracker</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -8779,7 +8851,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C40, " ", "_")), "] ", LOWER(SUBSTITUTE(E40, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[barad-dur] orc_warrior</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -8812,7 +8884,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C41, " ", "_")), "] ", LOWER(SUBSTITUTE(E41, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] frodo_baggins</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -8845,7 +8917,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C42, " ", "_")), "] ", LOWER(SUBSTITUTE(E42, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] samwise_gamgee</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -8878,7 +8950,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C43, " ", "_")), "] ", LOWER(SUBSTITUTE(E43, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] aragorn,_strider</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -8911,7 +8983,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C44, " ", "_")), "] ", LOWER(SUBSTITUTE(E44, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] legolas</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -8944,7 +9016,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C45, " ", "_")), "] ", LOWER(SUBSTITUTE(E45, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] gimli</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -8977,7 +9049,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C46, " ", "_")), "] ", LOWER(SUBSTITUTE(E46, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] boromir_of_gondor</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -9010,7 +9082,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C47, " ", "_")), "] ", LOWER(SUBSTITUTE(E47, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] meriadoc_brandybuck</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -9043,7 +9115,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C48, " ", "_")), "] ", LOWER(SUBSTITUTE(E48, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] peregrin_took</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -9076,7 +9148,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C49, " ", "_")), "] ", LOWER(SUBSTITUTE(E49, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[corsairs_of_umbar] black_numenorean_marshall</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -9109,7 +9181,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C50, " ", "_")), "] ", LOWER(SUBSTITUTE(E50, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[corsairs_of_umbar] corsair_captain</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -9142,7 +9214,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C51, " ", "_")), "] ", LOWER(SUBSTITUTE(E51, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[corsairs_of_umbar] corsair_bo'sun</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -9175,7 +9247,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C52, " ", "_")), "] ", LOWER(SUBSTITUTE(E52, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[corsairs_of_umbar] dalamyr,_fleetmaster_of_umbar</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -9208,7 +9280,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C53, " ", "_")), "] ", LOWER(SUBSTITUTE(E53, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[corsairs_of_umbar] the_knight_of_umbar</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -9241,7 +9313,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C54, " ", "_")), "] ", LOWER(SUBSTITUTE(E54, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[corsairs_of_umbar] hasharin</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -9274,7 +9346,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C55, " ", "_")), "] ", LOWER(SUBSTITUTE(E55, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[corsairs_of_umbar] delgamar,_gatemaster_of_umbar</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -9307,7 +9379,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C56, " ", "_")), "] ", LOWER(SUBSTITUTE(E56, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[corsairs_of_umbar] corsair_arbalester</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -9340,7 +9412,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C57, " ", "_")), "] ", LOWER(SUBSTITUTE(E57, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[corsairs_of_umbar] corsair_reaver</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -9373,7 +9445,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C58, " ", "_")), "] ", LOWER(SUBSTITUTE(E58, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[corsairs_of_umbar] black_numenorean</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -9406,7 +9478,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C59, " ", "_")), "] ", LOWER(SUBSTITUTE(E59, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[corsairs_of_umbar] corsair_of_umbar</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -9439,7 +9511,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C60, " ", "_")), "] ", LOWER(SUBSTITUTE(E60, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[defenders_of_helm's_deep] haldir</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -9472,7 +9544,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C61, " ", "_")), "] ", LOWER(SUBSTITUTE(E61, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[defenders_of_helm's_deep] galadhrim_captain</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -9505,7 +9577,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C62, " ", "_")), "] ", LOWER(SUBSTITUTE(E62, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[defenders_of_helm's_deep] gamling</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -9538,7 +9610,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C63, " ", "_")), "] ", LOWER(SUBSTITUTE(E63, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[defenders_of_helm's_deep] captain_of_rohan</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -9571,7 +9643,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C64, " ", "_")), "] ", LOWER(SUBSTITUTE(E64, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[defenders_of_helm's_deep] theoden</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -9604,7 +9676,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C65, " ", "_")), "] ", LOWER(SUBSTITUTE(E65, " ", "_")))</f>
+        <f t="shared" si="1"/>
         <v>[defenders_of_helm's_deep] aragorn,_strider</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -9637,7 +9709,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C66, " ", "_")), "] ", LOWER(SUBSTITUTE(E66, " ", "_")))</f>
+        <f t="shared" ref="A66:A90" si="2">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C66, " ", "_")), "] ", LOWER(SUBSTITUTE(E66, " ", "_")))</f>
         <v>[defenders_of_helm's_deep] legolas</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -9670,7 +9742,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C67, " ", "_")), "] ", LOWER(SUBSTITUTE(E67, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] gimli</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -9703,7 +9775,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C68, " ", "_")), "] ", LOWER(SUBSTITUTE(E68, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] haleth</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -9736,7 +9808,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C69, " ", "_")), "] ", LOWER(SUBSTITUTE(E69, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] aldor</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -9769,7 +9841,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C70, " ", "_")), "] ", LOWER(SUBSTITUTE(E70, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] king's_huntsman</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -9802,7 +9874,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C71, " ", "_")), "] ", LOWER(SUBSTITUTE(E71, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] rohan_royal_guard</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -9835,7 +9907,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C72, " ", "_")), "] ", LOWER(SUBSTITUTE(E72, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] galadhrim_warrior</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -9868,7 +9940,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C73, " ", "_")), "] ", LOWER(SUBSTITUTE(E73, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] warrior_of_rohan</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -9901,7 +9973,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C74, " ", "_")), "] ", LOWER(SUBSTITUTE(E74, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] frodo_of_the_nine_fingers</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -9934,7 +10006,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C75, " ", "_")), "] ", LOWER(SUBSTITUTE(E75, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] farmer_maggot</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -9967,7 +10039,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C76, " ", "_")), "] ", LOWER(SUBSTITUTE(E76, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] samwise_the_brave</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -10000,7 +10072,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C77, " ", "_")), "] ", LOWER(SUBSTITUTE(E77, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] baldo_tulpenny</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -10033,7 +10105,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C78, " ", "_")), "] ", LOWER(SUBSTITUTE(E78, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] farmer_tolman_cotton</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -10066,7 +10138,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C79, " ", "_")), "] ", LOWER(SUBSTITUTE(E79, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] hamfast_'gaffer'_gamgee</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -10099,7 +10171,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C80, " ", "_")), "] ", LOWER(SUBSTITUTE(E80, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] holfoot_bracegirdle</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -10132,7 +10204,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C81, " ", "_")), "] ", LOWER(SUBSTITUTE(E81, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] will_whitfoot</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -10165,7 +10237,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C82, " ", "_")), "] ", LOWER(SUBSTITUTE(E82, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] paladin_took</v>
       </c>
       <c r="B82" s="9" t="s">
@@ -10198,7 +10270,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C83, " ", "_")), "] ", LOWER(SUBSTITUTE(E83, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] robin_smallburrow</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -10231,7 +10303,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C84, " ", "_")), "] ", LOWER(SUBSTITUTE(E84, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] meriadoc,_captain_of_the_shire</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -10264,7 +10336,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C85, " ", "_")), "] ", LOWER(SUBSTITUTE(E85, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] peregrin,_captain_of_the_shire</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -10297,7 +10369,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C86, " ", "_")), "] ", LOWER(SUBSTITUTE(E86, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] rosie_cotton</v>
       </c>
       <c r="B86" s="9" t="s">
@@ -10330,7 +10402,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C87, " ", "_")), "] ", LOWER(SUBSTITUTE(E87, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] grip,_fang_and_wolf</v>
       </c>
       <c r="B87" s="9" t="s">
@@ -10363,7 +10435,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C88, " ", "_")), "] ", LOWER(SUBSTITUTE(E88, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] folco_boffin</v>
       </c>
       <c r="B88" s="9" t="s">
@@ -10396,7 +10468,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C89, " ", "_")), "] ", LOWER(SUBSTITUTE(E89, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] lobelia_sackville-baggins</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -10429,7 +10501,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C90, " ", "_")), "] ", LOWER(SUBSTITUTE(E90, " ", "_")))</f>
+        <f t="shared" si="2"/>
         <v>[defenders_of_the_shire] fredegar_bolger</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -10592,7 +10664,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C95, " ", "_")), "] ", LOWER(SUBSTITUTE(E95, " ", "_")))</f>
+        <f t="shared" ref="A95:A158" si="3">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C95, " ", "_")), "] ", LOWER(SUBSTITUTE(E95, " ", "_")))</f>
         <v>[defenders_of_the_shire] hobbit_militia</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -10625,7 +10697,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C96, " ", "_")), "] ", LOWER(SUBSTITUTE(E96, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[fangorn] beechbone</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -10658,7 +10730,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C97, " ", "_")), "] ", LOWER(SUBSTITUTE(E97, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[fangorn] quickbeam</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -10691,7 +10763,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C98, " ", "_")), "] ", LOWER(SUBSTITUTE(E98, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[fangorn] treebeard</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -10724,7 +10796,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C99, " ", "_")), "] ", LOWER(SUBSTITUTE(E99, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[fangorn] ent</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -10757,7 +10829,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C100, " ", "_")), "] ", LOWER(SUBSTITUTE(E100, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[far_harad] war_mumak_of_far_harad</v>
       </c>
       <c r="B100" s="9" t="s">
@@ -10790,7 +10862,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C101, " ", "_")), "] ", LOWER(SUBSTITUTE(E101, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[far_harad] mahud_king</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -10823,7 +10895,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C102, " ", "_")), "] ", LOWER(SUBSTITUTE(E102, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[far_harad] mahud_tribesmaster</v>
       </c>
       <c r="B102" s="9" t="s">
@@ -10856,7 +10928,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C103, " ", "_")), "] ", LOWER(SUBSTITUTE(E103, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[far_harad] the_mumak_war_leader</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -10889,7 +10961,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C104, " ", "_")), "] ", LOWER(SUBSTITUTE(E104, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[far_harad] half_troll</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -10922,7 +10994,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C105, " ", "_")), "] ", LOWER(SUBSTITUTE(E105, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[far_harad] mahud_raider</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -10955,7 +11027,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C106, " ", "_")), "] ", LOWER(SUBSTITUTE(E106, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[far_harad] mahud_warrior</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -10988,7 +11060,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C107, " ", "_")), "] ", LOWER(SUBSTITUTE(E107, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] war_mumak_of_far_harad</v>
       </c>
       <c r="B107" s="9" t="s">
@@ -11021,7 +11093,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C108, " ", "_")), "] ", LOWER(SUBSTITUTE(E108, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] war_mumak_of_harad</v>
       </c>
       <c r="B108" s="9" t="s">
@@ -11054,7 +11126,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C109, " ", "_")), "] ", LOWER(SUBSTITUTE(E109, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] hasharin</v>
       </c>
       <c r="B109" s="9" t="s">
@@ -11087,7 +11159,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C110, " ", "_")), "] ", LOWER(SUBSTITUTE(E110, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] raza,_fang_of_the_serpent</v>
       </c>
       <c r="B110" s="9" t="s">
@@ -11120,7 +11192,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C111, " ", "_")), "] ", LOWER(SUBSTITUTE(E111, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] mahud_king</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -11153,7 +11225,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C112, " ", "_")), "] ", LOWER(SUBSTITUTE(E112, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] haradrim_king</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -11186,7 +11258,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C113, " ", "_")), "] ", LOWER(SUBSTITUTE(E113, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] mahud_tribesmaster</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -11219,7 +11291,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C114, " ", "_")), "] ", LOWER(SUBSTITUTE(E114, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] haradrim_chieftan</v>
       </c>
       <c r="B114" s="9" t="s">
@@ -11252,7 +11324,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C115, " ", "_")), "] ", LOWER(SUBSTITUTE(E115, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] haradrim_taskmaster</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -11285,7 +11357,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C116, " ", "_")), "] ", LOWER(SUBSTITUTE(E116, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] the_mumak_war_leader</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -11318,7 +11390,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C117, " ", "_")), "] ", LOWER(SUBSTITUTE(E117, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] suladan</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -11351,7 +11423,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C118, " ", "_")), "] ", LOWER(SUBSTITUTE(E118, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] half_troll</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -11384,7 +11456,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C119, " ", "_")), "] ", LOWER(SUBSTITUTE(E119, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] mahud_raider</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -11417,7 +11489,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C120, " ", "_")), "] ", LOWER(SUBSTITUTE(E120, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] serpent_rider</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -11450,7 +11522,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C121, " ", "_")), "] ", LOWER(SUBSTITUTE(E121, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] haradrim_raider</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -11483,7 +11555,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C122, " ", "_")), "] ", LOWER(SUBSTITUTE(E122, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] mahud_warrior</v>
       </c>
       <c r="B122" s="9" t="s">
@@ -11516,7 +11588,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C123, " ", "_")), "] ", LOWER(SUBSTITUTE(E123, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] serpent_guard</v>
       </c>
       <c r="B123" s="9" t="s">
@@ -11549,7 +11621,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C124, " ", "_")), "] ", LOWER(SUBSTITUTE(E124, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[grand_army_of_the_south] haradrim_warrior</v>
       </c>
       <c r="B124" s="9" t="s">
@@ -11582,7 +11654,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C125, " ", "_")), "] ", LOWER(SUBSTITUTE(E125, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[halls_of_thranduil] thranduil</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -11615,7 +11687,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C126, " ", "_")), "] ", LOWER(SUBSTITUTE(E126, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[helm's_guard] captain_of_rohan</v>
       </c>
       <c r="B126" s="9" t="s">
@@ -11648,7 +11720,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C127, " ", "_")), "] ", LOWER(SUBSTITUTE(E127, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[helm's_guard] helm_hammerhand</v>
       </c>
       <c r="B127" s="9" t="s">
@@ -11681,7 +11753,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C128, " ", "_")), "] ", LOWER(SUBSTITUTE(E128, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[helm's_guard] king's_huntsman</v>
       </c>
       <c r="B128" s="9" t="s">
@@ -11714,7 +11786,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C129, " ", "_")), "] ", LOWER(SUBSTITUTE(E129, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[helm's_guard] rider_of_rohan</v>
       </c>
       <c r="B129" s="9" t="s">
@@ -11747,7 +11819,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C130, " ", "_")), "] ", LOWER(SUBSTITUTE(E130, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[helm's_guard] rohan_royal_guard</v>
       </c>
       <c r="B130" s="9" t="s">
@@ -11780,7 +11852,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C131, " ", "_")), "] ", LOWER(SUBSTITUTE(E131, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[helm's_guard] rohan_outrider</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -11813,7 +11885,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C132, " ", "_")), "] ", LOWER(SUBSTITUTE(E132, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[helm's_guard] warrior_of_rohan</v>
       </c>
       <c r="B132" s="9" t="s">
@@ -11846,7 +11918,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C133, " ", "_")), "] ", LOWER(SUBSTITUTE(E133, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] thrydan_wolfsbane</v>
       </c>
       <c r="B133" s="9" t="s">
@@ -11879,7 +11951,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C134, " ", "_")), "] ", LOWER(SUBSTITUTE(E134, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] gorulf_ironskin</v>
       </c>
       <c r="B134" s="9" t="s">
@@ -11912,7 +11984,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C135, " ", "_")), "] ", LOWER(SUBSTITUTE(E135, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] ugluk</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -11945,7 +12017,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C136, " ", "_")), "] ", LOWER(SUBSTITUTE(E136, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] vrasku</v>
       </c>
       <c r="B136" s="9" t="s">
@@ -11978,7 +12050,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C137, " ", "_")), "] ", LOWER(SUBSTITUTE(E137, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] frida_tallspear</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -12011,7 +12083,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C138, " ", "_")), "] ", LOWER(SUBSTITUTE(E138, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] mauhur</v>
       </c>
       <c r="B138" s="9" t="s">
@@ -12044,7 +12116,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C139, " ", "_")), "] ", LOWER(SUBSTITUTE(E139, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] uruk-hai_captain</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -12077,7 +12149,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C140, " ", "_")), "] ", LOWER(SUBSTITUTE(E140, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] uruk-hai_scout_captain</v>
       </c>
       <c r="B140" s="9" t="s">
@@ -12110,7 +12182,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C141, " ", "_")), "] ", LOWER(SUBSTITUTE(E141, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] dunlending_chieftan</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -12143,7 +12215,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C142, " ", "_")), "] ", LOWER(SUBSTITUTE(E142, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] wild_man_oathmaker</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -12176,7 +12248,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C143, " ", "_")), "] ", LOWER(SUBSTITUTE(E143, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] sharku</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -12209,7 +12281,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C144, " ", "_")), "] ", LOWER(SUBSTITUTE(E144, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] snaga</v>
       </c>
       <c r="B144" s="9" t="s">
@@ -12242,7 +12314,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C145, " ", "_")), "] ", LOWER(SUBSTITUTE(E145, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] orc_captain</v>
       </c>
       <c r="B145" s="9" t="s">
@@ -12275,7 +12347,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C146, " ", "_")), "] ", LOWER(SUBSTITUTE(E146, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] saruman</v>
       </c>
       <c r="B146" s="9" t="s">
@@ -12308,7 +12380,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C147, " ", "_")), "] ", LOWER(SUBSTITUTE(E147, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] lurtz</v>
       </c>
       <c r="B147" s="9" t="s">
@@ -12341,7 +12413,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C148, " ", "_")), "] ", LOWER(SUBSTITUTE(E148, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] uruk-hai_drummer</v>
       </c>
       <c r="B148" s="9" t="s">
@@ -12374,7 +12446,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C149, " ", "_")), "] ", LOWER(SUBSTITUTE(E149, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] grima</v>
       </c>
       <c r="B149" s="9" t="s">
@@ -12407,7 +12479,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C150, " ", "_")), "] ", LOWER(SUBSTITUTE(E150, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] uruk-hai_shaman</v>
       </c>
       <c r="B150" s="9" t="s">
@@ -12440,7 +12512,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C151, " ", "_")), "] ", LOWER(SUBSTITUTE(E151, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] isengard_assault_ballista</v>
       </c>
       <c r="B151" s="9" t="s">
@@ -12473,7 +12545,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C152, " ", "_")), "] ", LOWER(SUBSTITUTE(E152, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] isengard_troll</v>
       </c>
       <c r="B152" s="9" t="s">
@@ -12506,7 +12578,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C153, " ", "_")), "] ", LOWER(SUBSTITUTE(E153, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] uruk-hai_demolition_team</v>
       </c>
       <c r="B153" s="9" t="s">
@@ -12539,7 +12611,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C154, " ", "_")), "] ", LOWER(SUBSTITUTE(E154, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] crebain</v>
       </c>
       <c r="B154" s="9" t="s">
@@ -12572,7 +12644,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C155, " ", "_")), "] ", LOWER(SUBSTITUTE(E155, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] uruk-hai_berserker</v>
       </c>
       <c r="B155" s="9" t="s">
@@ -12605,7 +12677,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C156, " ", "_")), "] ", LOWER(SUBSTITUTE(E156, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] feral_uruk-hai</v>
       </c>
       <c r="B156" s="9" t="s">
@@ -12638,7 +12710,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C157, " ", "_")), "] ", LOWER(SUBSTITUTE(E157, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] dunlending_horseman</v>
       </c>
       <c r="B157" s="9" t="s">
@@ -12671,7 +12743,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C158, " ", "_")), "] ", LOWER(SUBSTITUTE(E158, " ", "_")))</f>
+        <f t="shared" si="3"/>
         <v>[isengard] dunlending_huscarl</v>
       </c>
       <c r="B158" s="9" t="s">
@@ -12704,7 +12776,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C159, " ", "_")), "] ", LOWER(SUBSTITUTE(E159, " ", "_")))</f>
+        <f t="shared" ref="A159:A222" si="4">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C159, " ", "_")), "] ", LOWER(SUBSTITUTE(E159, " ", "_")))</f>
         <v>[isengard] warg_rider</v>
       </c>
       <c r="B159" s="9" t="s">
@@ -12737,7 +12809,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C160, " ", "_")), "] ", LOWER(SUBSTITUTE(E160, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[isengard] uruk-hai_warrior</v>
       </c>
       <c r="B160" s="9" t="s">
@@ -12770,7 +12842,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C161, " ", "_")), "] ", LOWER(SUBSTITUTE(E161, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[isengard] uruk-hai_scout</v>
       </c>
       <c r="B161" s="9" t="s">
@@ -12803,7 +12875,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C162, " ", "_")), "] ", LOWER(SUBSTITUTE(E162, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[isengard] dunlending_warrior</v>
       </c>
       <c r="B162" s="9" t="s">
@@ -12836,7 +12908,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C163, " ", "_")), "] ", LOWER(SUBSTITUTE(E163, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[isengard] wild_man_of_dunland</v>
       </c>
       <c r="B163" s="9" t="s">
@@ -12869,7 +12941,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C164, " ", "_")), "] ", LOWER(SUBSTITUTE(E164, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[isengard] orc_warrior</v>
       </c>
       <c r="B164" s="9" t="s">
@@ -12902,7 +12974,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C165, " ", "_")), "] ", LOWER(SUBSTITUTE(E165, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] orophin</v>
       </c>
       <c r="B165" s="9" t="s">
@@ -12935,7 +13007,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C166, " ", "_")), "] ", LOWER(SUBSTITUTE(E166, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] rumil</v>
       </c>
       <c r="B166" s="9" t="s">
@@ -12968,7 +13040,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C167, " ", "_")), "] ", LOWER(SUBSTITUTE(E167, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] galadhrim_captain</v>
       </c>
       <c r="B167" s="9" t="s">
@@ -13001,7 +13073,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C168, " ", "_")), "] ", LOWER(SUBSTITUTE(E168, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] haldir</v>
       </c>
       <c r="B168" s="9" t="s">
@@ -13034,7 +13106,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C169, " ", "_")), "] ", LOWER(SUBSTITUTE(E169, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] wood_elf_captain</v>
       </c>
       <c r="B169" s="9" t="s">
@@ -13067,7 +13139,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C170, " ", "_")), "] ", LOWER(SUBSTITUTE(E170, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] galadriel</v>
       </c>
       <c r="B170" s="9" t="s">
@@ -13100,7 +13172,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C171, " ", "_")), "] ", LOWER(SUBSTITUTE(E171, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] celeborn</v>
       </c>
       <c r="B171" s="9" t="s">
@@ -13133,7 +13205,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C172, " ", "_")), "] ", LOWER(SUBSTITUTE(E172, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] galadhrim_stormcaller</v>
       </c>
       <c r="B172" s="9" t="s">
@@ -13166,7 +13238,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C173, " ", "_")), "] ", LOWER(SUBSTITUTE(E173, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] wood_elf_sentinel</v>
       </c>
       <c r="B173" s="9" t="s">
@@ -13199,7 +13271,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C174, " ", "_")), "] ", LOWER(SUBSTITUTE(E174, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] galadhrim_knight</v>
       </c>
       <c r="B174" s="9" t="s">
@@ -13232,7 +13304,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C175, " ", "_")), "] ", LOWER(SUBSTITUTE(E175, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] guard_of_the_galadhrim_court</v>
       </c>
       <c r="B175" s="9" t="s">
@@ -13265,7 +13337,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C176, " ", "_")), "] ", LOWER(SUBSTITUTE(E176, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] galadhrim_warrior</v>
       </c>
       <c r="B176" s="9" t="s">
@@ -13298,7 +13370,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C177, " ", "_")), "] ", LOWER(SUBSTITUTE(E177, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[lothlorien] wood_elf_warrior</v>
       </c>
       <c r="B177" s="9" t="s">
@@ -13331,7 +13403,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C178, " ", "_")), "] ", LOWER(SUBSTITUTE(E178, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] ingold</v>
       </c>
       <c r="B178" s="9" t="s">
@@ -13364,7 +13436,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C179, " ", "_")), "] ", LOWER(SUBSTITUTE(E179, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] irolas</v>
       </c>
       <c r="B179" s="9" t="s">
@@ -13397,7 +13469,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C180, " ", "_")), "] ", LOWER(SUBSTITUTE(E180, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] knight_of_the_white_tower</v>
       </c>
       <c r="B180" s="9" t="s">
@@ -13430,7 +13502,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C181, " ", "_")), "] ", LOWER(SUBSTITUTE(E181, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] king_of_men</v>
       </c>
       <c r="B181" s="9" t="s">
@@ -13463,7 +13535,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C182, " ", "_")), "] ", LOWER(SUBSTITUTE(E182, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] cirion</v>
       </c>
       <c r="B182" s="9" t="s">
@@ -13496,7 +13568,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C183, " ", "_")), "] ", LOWER(SUBSTITUTE(E183, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] madril</v>
       </c>
       <c r="B183" s="9" t="s">
@@ -13529,7 +13601,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C184, " ", "_")), "] ", LOWER(SUBSTITUTE(E184, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] captain_of_minas_tirith</v>
       </c>
       <c r="B184" s="9" t="s">
@@ -13562,7 +13634,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C185, " ", "_")), "] ", LOWER(SUBSTITUTE(E185, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] aragorn,_king_elessar</v>
       </c>
       <c r="B185" s="9" t="s">
@@ -13595,7 +13667,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C186, " ", "_")), "] ", LOWER(SUBSTITUTE(E186, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] gandalf_the_white</v>
       </c>
       <c r="B186" s="9" t="s">
@@ -13628,7 +13700,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C187, " ", "_")), "] ", LOWER(SUBSTITUTE(E187, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] boromir</v>
       </c>
       <c r="B187" s="9" t="s">
@@ -13661,7 +13733,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C188, " ", "_")), "] ", LOWER(SUBSTITUTE(E188, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] faramir</v>
       </c>
       <c r="B188" s="9" t="s">
@@ -13694,7 +13766,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C189, " ", "_")), "] ", LOWER(SUBSTITUTE(E189, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] hurin</v>
       </c>
       <c r="B189" s="9" t="s">
@@ -13727,7 +13799,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C190, " ", "_")), "] ", LOWER(SUBSTITUTE(E190, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] denethor</v>
       </c>
       <c r="B190" s="9" t="s">
@@ -13760,7 +13832,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C191, " ", "_")), "] ", LOWER(SUBSTITUTE(E191, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] peregrin_took</v>
       </c>
       <c r="B191" s="9" t="s">
@@ -13793,7 +13865,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C192, " ", "_")), "] ", LOWER(SUBSTITUTE(E192, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] anborn</v>
       </c>
       <c r="B192" s="9" t="s">
@@ -13826,7 +13898,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C193, " ", "_")), "] ", LOWER(SUBSTITUTE(E193, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] mablung</v>
       </c>
       <c r="B193" s="9" t="s">
@@ -13859,7 +13931,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C194, " ", "_")), "] ", LOWER(SUBSTITUTE(E194, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] beregond</v>
       </c>
       <c r="B194" s="9" t="s">
@@ -13892,7 +13964,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C195, " ", "_")), "] ", LOWER(SUBSTITUTE(E195, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] damrod</v>
       </c>
       <c r="B195" s="9" t="s">
@@ -13925,7 +13997,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C196, " ", "_")), "] ", LOWER(SUBSTITUTE(E196, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] gondor_battlecry_trebuchet</v>
       </c>
       <c r="B196" s="9" t="s">
@@ -13958,7 +14030,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C197, " ", "_")), "] ", LOWER(SUBSTITUTE(E197, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] avenger_bolt_thrower</v>
       </c>
       <c r="B197" s="9" t="s">
@@ -13991,7 +14063,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C198, " ", "_")), "] ", LOWER(SUBSTITUTE(E198, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] knight_of_minas_tirith</v>
       </c>
       <c r="B198" s="9" t="s">
@@ -14024,7 +14096,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C199, " ", "_")), "] ", LOWER(SUBSTITUTE(E199, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] guard_of_the_fountain_court</v>
       </c>
       <c r="B199" s="9" t="s">
@@ -14057,7 +14129,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C200, " ", "_")), "] ", LOWER(SUBSTITUTE(E200, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] citadel_guard</v>
       </c>
       <c r="B200" s="9" t="s">
@@ -14090,7 +14162,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C201, " ", "_")), "] ", LOWER(SUBSTITUTE(E201, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] osgiliath_veteran</v>
       </c>
       <c r="B201" s="9" t="s">
@@ -14123,7 +14195,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C202, " ", "_")), "] ", LOWER(SUBSTITUTE(E202, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] ranger_of_gondor</v>
       </c>
       <c r="B202" s="9" t="s">
@@ -14156,7 +14228,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C203, " ", "_")), "] ", LOWER(SUBSTITUTE(E203, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[minas_tirith] warrior_of_minas_tirith</v>
       </c>
       <c r="B203" s="9" t="s">
@@ -14189,7 +14261,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C204, " ", "_")), "] ", LOWER(SUBSTITUTE(E204, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] great_beast_of_gorgoroth</v>
       </c>
       <c r="B204" s="9" t="s">
@@ -14222,7 +14294,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C205, " ", "_")), "] ", LOWER(SUBSTITUTE(E205, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] mordor_troll_chieftan</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -14255,7 +14327,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C206, " ", "_")), "] ", LOWER(SUBSTITUTE(E206, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] shagrat</v>
       </c>
       <c r="B206" s="9" t="s">
@@ -14288,7 +14360,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C207, " ", "_")), "] ", LOWER(SUBSTITUTE(E207, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] goroth</v>
       </c>
       <c r="B207" s="9" t="s">
@@ -14321,7 +14393,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C208, " ", "_")), "] ", LOWER(SUBSTITUTE(E208, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] muzgur</v>
       </c>
       <c r="B208" s="9" t="s">
@@ -14354,7 +14426,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C209, " ", "_")), "] ", LOWER(SUBSTITUTE(E209, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] black_numenorean_marshall</v>
       </c>
       <c r="B209" s="9" t="s">
@@ -14387,7 +14459,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C210, " ", "_")), "] ", LOWER(SUBSTITUTE(E210, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] captain_of_the_black_guard</v>
       </c>
       <c r="B210" s="9" t="s">
@@ -14420,7 +14492,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C211, " ", "_")), "] ", LOWER(SUBSTITUTE(E211, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] guritz</v>
       </c>
       <c r="B211" s="9" t="s">
@@ -14453,7 +14525,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C212, " ", "_")), "] ", LOWER(SUBSTITUTE(E212, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] kardush</v>
       </c>
       <c r="B212" s="9" t="s">
@@ -14486,7 +14558,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C213, " ", "_")), "] ", LOWER(SUBSTITUTE(E213, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] gothmog's_enforcer</v>
       </c>
       <c r="B213" s="9" t="s">
@@ -14519,7 +14591,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C214, " ", "_")), "] ", LOWER(SUBSTITUTE(E214, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] zagdush</v>
       </c>
       <c r="B214" s="9" t="s">
@@ -14552,7 +14624,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C215, " ", "_")), "] ", LOWER(SUBSTITUTE(E215, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] gorbag</v>
       </c>
       <c r="B215" s="9" t="s">
@@ -14585,7 +14657,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C216, " ", "_")), "] ", LOWER(SUBSTITUTE(E216, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] mordor_uruk-hai_captain</v>
       </c>
       <c r="B216" s="9" t="s">
@@ -14618,7 +14690,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C217, " ", "_")), "] ", LOWER(SUBSTITUTE(E217, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] ringwraith</v>
       </c>
       <c r="B217" s="9" t="s">
@@ -14651,7 +14723,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C218, " ", "_")), "] ", LOWER(SUBSTITUTE(E218, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] grishnak</v>
       </c>
       <c r="B218" s="9" t="s">
@@ -14684,7 +14756,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C219, " ", "_")), "] ", LOWER(SUBSTITUTE(E219, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] morannon_orc_captain</v>
       </c>
       <c r="B219" s="9" t="s">
@@ -14717,7 +14789,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C220, " ", "_")), "] ", LOWER(SUBSTITUTE(E220, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] orc_taskmaster</v>
       </c>
       <c r="B220" s="9" t="s">
@@ -14750,7 +14822,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C221, " ", "_")), "] ", LOWER(SUBSTITUTE(E221, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] orc_captain</v>
       </c>
       <c r="B221" s="9" t="s">
@@ -14783,7 +14855,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C222, " ", "_")), "] ", LOWER(SUBSTITUTE(E222, " ", "_")))</f>
+        <f t="shared" si="4"/>
         <v>[mordor] witch_king</v>
       </c>
       <c r="B222" s="9" t="s">
@@ -14816,7 +14888,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C223, " ", "_")), "] ", LOWER(SUBSTITUTE(E223, " ", "_")))</f>
+        <f t="shared" ref="A223:A286" si="5">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C223, " ", "_")), "] ", LOWER(SUBSTITUTE(E223, " ", "_")))</f>
         <v>[mordor] gothmog</v>
       </c>
       <c r="B223" s="9" t="s">
@@ -14849,7 +14921,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C224, " ", "_")), "] ", LOWER(SUBSTITUTE(E224, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] khamul</v>
       </c>
       <c r="B224" s="9" t="s">
@@ -14882,7 +14954,7 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C225, " ", "_")), "] ", LOWER(SUBSTITUTE(E225, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] the_betrayer</v>
       </c>
       <c r="B225" s="9" t="s">
@@ -14915,7 +14987,7 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C226, " ", "_")), "] ", LOWER(SUBSTITUTE(E226, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] the_dark_marshall</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -14948,7 +15020,7 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C227, " ", "_")), "] ", LOWER(SUBSTITUTE(E227, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] the_knight_of_umbar</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -14982,7 +15054,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C228, " ", "_")), "] ", LOWER(SUBSTITUTE(E228, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] the_shadow_lord</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -15015,7 +15087,7 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C229, " ", "_")), "] ", LOWER(SUBSTITUTE(E229, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] the_undying</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -15048,7 +15120,7 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C230, " ", "_")), "] ", LOWER(SUBSTITUTE(E230, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] the_dwimmerlaik</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -15082,7 +15154,7 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C231, " ", "_")), "] ", LOWER(SUBSTITUTE(E231, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] the_tainted</v>
       </c>
       <c r="B231" s="9" t="s">
@@ -15115,7 +15187,7 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C232, " ", "_")), "] ", LOWER(SUBSTITUTE(E232, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] razgush</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -15148,7 +15220,7 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C233, " ", "_")), "] ", LOWER(SUBSTITUTE(E233, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] mouth_of_sauron</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -15181,7 +15253,7 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C234, " ", "_")), "] ", LOWER(SUBSTITUTE(E234, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] shelob</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -15214,7 +15286,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C235, " ", "_")), "] ", LOWER(SUBSTITUTE(E235, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] black_guard_drummer</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -15247,7 +15319,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C236, " ", "_")), "] ", LOWER(SUBSTITUTE(E236, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] orc_drummer</v>
       </c>
       <c r="B236" s="9" t="s">
@@ -15280,7 +15352,7 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C237, " ", "_")), "] ", LOWER(SUBSTITUTE(E237, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] orc_shaman</v>
       </c>
       <c r="B237" s="9" t="s">
@@ -15313,7 +15385,7 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C238, " ", "_")), "] ", LOWER(SUBSTITUTE(E238, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] mordor_war_catapult</v>
       </c>
       <c r="B238" s="9" t="s">
@@ -15346,7 +15418,7 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C239, " ", "_")), "] ", LOWER(SUBSTITUTE(E239, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] mordor_siege_bow</v>
       </c>
       <c r="B239" s="9" t="s">
@@ -15379,7 +15451,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C240, " ", "_")), "] ", LOWER(SUBSTITUTE(E240, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] mordor_troll</v>
       </c>
       <c r="B240" s="9" t="s">
@@ -15412,7 +15484,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C241, " ", "_")), "] ", LOWER(SUBSTITUTE(E241, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] giant_spider</v>
       </c>
       <c r="B241" s="9" t="s">
@@ -15445,7 +15517,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C242, " ", "_")), "] ", LOWER(SUBSTITUTE(E242, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] mirkwood_spider</v>
       </c>
       <c r="B242" s="9" t="s">
@@ -15478,7 +15550,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C243, " ", "_")), "] ", LOWER(SUBSTITUTE(E243, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] morgul_knight</v>
       </c>
       <c r="B243" s="9" t="s">
@@ -15511,7 +15583,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C244, " ", "_")), "] ", LOWER(SUBSTITUTE(E244, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] black_guard_of_barad-dur</v>
       </c>
       <c r="B244" s="9" t="s">
@@ -15544,7 +15616,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C245, " ", "_")), "] ", LOWER(SUBSTITUTE(E245, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] warg_rider</v>
       </c>
       <c r="B245" s="9" t="s">
@@ -15577,7 +15649,7 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C246, " ", "_")), "] ", LOWER(SUBSTITUTE(E246, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] morgul_stalker</v>
       </c>
       <c r="B246" s="9" t="s">
@@ -15610,7 +15682,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C247, " ", "_")), "] ", LOWER(SUBSTITUTE(E247, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] black_numenorean</v>
       </c>
       <c r="B247" s="9" t="s">
@@ -15643,7 +15715,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C248, " ", "_")), "] ", LOWER(SUBSTITUTE(E248, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] mordor_uruk-hai</v>
       </c>
       <c r="B248" s="9" t="s">
@@ -15676,7 +15748,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C249, " ", "_")), "] ", LOWER(SUBSTITUTE(E249, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] fell_warg</v>
       </c>
       <c r="B249" s="9" t="s">
@@ -15709,7 +15781,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C250, " ", "_")), "] ", LOWER(SUBSTITUTE(E250, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] morannon_orc</v>
       </c>
       <c r="B250" s="9" t="s">
@@ -15742,7 +15814,7 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C251, " ", "_")), "] ", LOWER(SUBSTITUTE(E251, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] orc_warrior</v>
       </c>
       <c r="B251" s="9" t="s">
@@ -15775,7 +15847,7 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C252, " ", "_")), "] ", LOWER(SUBSTITUTE(E252, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[mordor] orc_tracker</v>
       </c>
       <c r="B252" s="9" t="s">
@@ -15808,7 +15880,7 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C253, " ", "_")), "] ", LOWER(SUBSTITUTE(E253, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] druzhag</v>
       </c>
       <c r="B253" s="9" t="s">
@@ -15841,7 +15913,7 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C254, " ", "_")), "] ", LOWER(SUBSTITUTE(E254, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] ashrak</v>
       </c>
       <c r="B254" s="9" t="s">
@@ -15874,7 +15946,7 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C255, " ", "_")), "] ", LOWER(SUBSTITUTE(E255, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] groblog</v>
       </c>
       <c r="B255" s="9" t="s">
@@ -15907,7 +15979,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C256, " ", "_")), "] ", LOWER(SUBSTITUTE(E256, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] moria_blackshield_captain</v>
       </c>
       <c r="B256" s="9" t="s">
@@ -15940,7 +16012,7 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C257, " ", "_")), "] ", LOWER(SUBSTITUTE(E257, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] moria_goblin_captain</v>
       </c>
       <c r="B257" s="9" t="s">
@@ -15973,7 +16045,7 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C258, " ", "_")), "] ", LOWER(SUBSTITUTE(E258, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] the_balrog</v>
       </c>
       <c r="B258" s="9" t="s">
@@ -16006,7 +16078,7 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C259, " ", "_")), "] ", LOWER(SUBSTITUTE(E259, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] dragon</v>
       </c>
       <c r="B259" s="9" t="s">
@@ -16039,7 +16111,7 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C260, " ", "_")), "] ", LOWER(SUBSTITUTE(E260, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] durburz</v>
       </c>
       <c r="B260" s="9" t="s">
@@ -16072,7 +16144,7 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C261, " ", "_")), "] ", LOWER(SUBSTITUTE(E261, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] the_watcher_in_the_water</v>
       </c>
       <c r="B261" s="9" t="s">
@@ -16106,7 +16178,7 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C262, " ", "_")), "] ", LOWER(SUBSTITUTE(E262, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] cave_drake</v>
       </c>
       <c r="B262" s="9" t="s">
@@ -16139,7 +16211,7 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C263, " ", "_")), "] ", LOWER(SUBSTITUTE(E263, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] moria_blackshield_shaman</v>
       </c>
       <c r="B263" s="9" t="s">
@@ -16172,7 +16244,7 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C264, " ", "_")), "] ", LOWER(SUBSTITUTE(E264, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] moria_goblin_shaman</v>
       </c>
       <c r="B264" s="9" t="s">
@@ -16205,7 +16277,7 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C265, " ", "_")), "] ", LOWER(SUBSTITUTE(E265, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] dweller_in_the_dark</v>
       </c>
       <c r="B265" s="9" t="s">
@@ -16238,7 +16310,7 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C266, " ", "_")), "] ", LOWER(SUBSTITUTE(E266, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] moria_blackshield_drummers</v>
       </c>
       <c r="B266" s="9" t="s">
@@ -16271,7 +16343,7 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C267, " ", "_")), "] ", LOWER(SUBSTITUTE(E267, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] moria_goblin_drum</v>
       </c>
       <c r="B267" s="9" t="s">
@@ -16304,7 +16376,7 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C268, " ", "_")), "] ", LOWER(SUBSTITUTE(E268, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] cave_troll</v>
       </c>
       <c r="B268" s="9" t="s">
@@ -16337,7 +16409,7 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C269, " ", "_")), "] ", LOWER(SUBSTITUTE(E269, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] bat_swarm</v>
       </c>
       <c r="B269" s="9" t="s">
@@ -16370,7 +16442,7 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C270, " ", "_")), "] ", LOWER(SUBSTITUTE(E270, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] warg_marauder</v>
       </c>
       <c r="B270" s="9" t="s">
@@ -16403,7 +16475,7 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C271, " ", "_")), "] ", LOWER(SUBSTITUTE(E271, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] moria_blackshield</v>
       </c>
       <c r="B271" s="9" t="s">
@@ -16436,7 +16508,7 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C272, " ", "_")), "] ", LOWER(SUBSTITUTE(E272, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] moria_goblin_prowler</v>
       </c>
       <c r="B272" s="9" t="s">
@@ -16469,7 +16541,7 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C273, " ", "_")), "] ", LOWER(SUBSTITUTE(E273, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] wild_warg</v>
       </c>
       <c r="B273" s="9" t="s">
@@ -16502,7 +16574,7 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C274, " ", "_")), "] ", LOWER(SUBSTITUTE(E274, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[moria] moria_goblin_warrior</v>
       </c>
       <c r="B274" s="9" t="s">
@@ -16535,7 +16607,7 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C275, " ", "_")), "] ", LOWER(SUBSTITUTE(E275, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[numenor] captain_of_numenor</v>
       </c>
       <c r="B275" s="9" t="s">
@@ -16568,7 +16640,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C276, " ", "_")), "] ", LOWER(SUBSTITUTE(E276, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[numenor] elendil</v>
       </c>
       <c r="B276" s="9" t="s">
@@ -16601,7 +16673,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C277, " ", "_")), "] ", LOWER(SUBSTITUTE(E277, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[numenor] isildur</v>
       </c>
       <c r="B277" s="9" t="s">
@@ -16634,7 +16706,7 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C278, " ", "_")), "] ", LOWER(SUBSTITUTE(E278, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[numenor] warrior_of_numenor</v>
       </c>
       <c r="B278" s="9" t="s">
@@ -16667,7 +16739,7 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C279, " ", "_")), "] ", LOWER(SUBSTITUTE(E279, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[paths_of_the_druadan] deorwine</v>
       </c>
       <c r="B279" s="9" t="s">
@@ -16700,7 +16772,7 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C280, " ", "_")), "] ", LOWER(SUBSTITUTE(E280, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[paths_of_the_druadan] elfhelm</v>
       </c>
       <c r="B280" s="9" t="s">
@@ -16733,7 +16805,7 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C281, " ", "_")), "] ", LOWER(SUBSTITUTE(E281, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[paths_of_the_druadan] gamling</v>
       </c>
       <c r="B281" s="9" t="s">
@@ -16766,7 +16838,7 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C282, " ", "_")), "] ", LOWER(SUBSTITUTE(E282, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[paths_of_the_druadan] captain_of_rohan</v>
       </c>
       <c r="B282" s="9" t="s">
@@ -16799,7 +16871,7 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C283, " ", "_")), "] ", LOWER(SUBSTITUTE(E283, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[paths_of_the_druadan] theoden</v>
       </c>
       <c r="B283" s="9" t="s">
@@ -16832,7 +16904,7 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C284, " ", "_")), "] ", LOWER(SUBSTITUTE(E284, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[paths_of_the_druadan] eomer</v>
       </c>
       <c r="B284" s="9" t="s">
@@ -16865,7 +16937,7 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C285, " ", "_")), "] ", LOWER(SUBSTITUTE(E285, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[paths_of_the_druadan] ghan-buri-ghan</v>
       </c>
       <c r="B285" s="9" t="s">
@@ -16898,7 +16970,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C286, " ", "_")), "] ", LOWER(SUBSTITUTE(E286, " ", "_")))</f>
+        <f t="shared" si="5"/>
         <v>[paths_of_the_druadan] dernhelm</v>
       </c>
       <c r="B286" s="9" t="s">
@@ -16931,7 +17003,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C287, " ", "_")), "] ", LOWER(SUBSTITUTE(E287, " ", "_")))</f>
+        <f t="shared" ref="A287:A301" si="6">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C287, " ", "_")), "] ", LOWER(SUBSTITUTE(E287, " ", "_")))</f>
         <v>[paths_of_the_druadan] rohan_royal_guard</v>
       </c>
       <c r="B287" s="9" t="s">
@@ -16964,7 +17036,7 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C288, " ", "_")), "] ", LOWER(SUBSTITUTE(E288, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[paths_of_the_druadan] rider_of_rohan</v>
       </c>
       <c r="B288" s="9" t="s">
@@ -16997,7 +17069,7 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C289, " ", "_")), "] ", LOWER(SUBSTITUTE(E289, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[paths_of_the_druadan] rohan_outrider</v>
       </c>
       <c r="B289" s="9" t="s">
@@ -17030,7 +17102,7 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C290, " ", "_")), "] ", LOWER(SUBSTITUTE(E290, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[paths_of_the_druadan] woses_warrior</v>
       </c>
       <c r="B290" s="9" t="s">
@@ -17063,7 +17135,7 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C291, " ", "_")), "] ", LOWER(SUBSTITUTE(E291, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[rangers_of_ithilien] frodo_baggins</v>
       </c>
       <c r="B291" s="9" t="s">
@@ -17096,7 +17168,7 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C292, " ", "_")), "] ", LOWER(SUBSTITUTE(E292, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[rangers_of_ithilien] madril</v>
       </c>
       <c r="B292" s="9" t="s">
@@ -17129,7 +17201,7 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C293, " ", "_")), "] ", LOWER(SUBSTITUTE(E293, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[rangers_of_ithilien] captain_of_minas_tirith</v>
       </c>
       <c r="B293" s="9" t="s">
@@ -17162,7 +17234,7 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C294, " ", "_")), "] ", LOWER(SUBSTITUTE(E294, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[rangers_of_ithilien] samwise_gamgee</v>
       </c>
       <c r="B294" s="9" t="s">
@@ -17195,7 +17267,7 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C295, " ", "_")), "] ", LOWER(SUBSTITUTE(E295, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[rangers_of_ithilien] faramir</v>
       </c>
       <c r="B295" s="9" t="s">
@@ -17228,7 +17300,7 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C296, " ", "_")), "] ", LOWER(SUBSTITUTE(E296, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[rangers_of_ithilien] smeagol</v>
       </c>
       <c r="B296" s="9" t="s">
@@ -17261,7 +17333,7 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C297, " ", "_")), "] ", LOWER(SUBSTITUTE(E297, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[rangers_of_ithilien] anborn</v>
       </c>
       <c r="B297" s="9" t="s">
@@ -17294,7 +17366,7 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C298, " ", "_")), "] ", LOWER(SUBSTITUTE(E298, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[rangers_of_ithilien] mablung</v>
       </c>
       <c r="B298" s="9" t="s">
@@ -17327,7 +17399,7 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C299, " ", "_")), "] ", LOWER(SUBSTITUTE(E299, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[rangers_of_ithilien] damrod</v>
       </c>
       <c r="B299" s="9" t="s">
@@ -17360,7 +17432,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C300, " ", "_")), "] ", LOWER(SUBSTITUTE(E300, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[rangers_of_ithilien] osgiliath_veteran</v>
       </c>
       <c r="B300" s="9" t="s">
@@ -17393,7 +17465,7 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C301, " ", "_")), "] ", LOWER(SUBSTITUTE(E301, " ", "_")))</f>
+        <f t="shared" si="6"/>
         <v>[rangers_of_ithilien] ranger_of_gondor</v>
       </c>
       <c r="B301" s="9" t="s">
@@ -17458,7 +17530,7 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C303, " ", "_")), "] ", LOWER(SUBSTITUTE(E303, " ", "_")))</f>
+        <f t="shared" ref="A303:A350" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C303, " ", "_")), "] ", LOWER(SUBSTITUTE(E303, " ", "_")))</f>
         <v>[rangers_of_ithilien] warrior_of_minas_tirith</v>
       </c>
       <c r="B303" s="9" t="s">
@@ -17491,7 +17563,7 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C304, " ", "_")), "] ", LOWER(SUBSTITUTE(E304, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[riders_of_eomer] erkenbrand</v>
       </c>
       <c r="B304" s="9" t="s">
@@ -17524,7 +17596,7 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C305, " ", "_")), "] ", LOWER(SUBSTITUTE(E305, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[riders_of_eomer] captain_of_rohan</v>
       </c>
       <c r="B305" s="9" t="s">
@@ -17557,7 +17629,7 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C306, " ", "_")), "] ", LOWER(SUBSTITUTE(E306, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[riders_of_eomer] gandalf_the_white</v>
       </c>
       <c r="B306" s="9" t="s">
@@ -17590,7 +17662,7 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C307, " ", "_")), "] ", LOWER(SUBSTITUTE(E307, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[riders_of_eomer] eomer</v>
       </c>
       <c r="B307" s="9" t="s">
@@ -17623,7 +17695,7 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C308, " ", "_")), "] ", LOWER(SUBSTITUTE(E308, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[riders_of_eomer] rider_of_rohan</v>
       </c>
       <c r="B308" s="9" t="s">
@@ -17656,7 +17728,7 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C309, " ", "_")), "] ", LOWER(SUBSTITUTE(E309, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] elladan_&amp;_elrohir</v>
       </c>
       <c r="B309" s="9" t="s">
@@ -17689,7 +17761,7 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C310, " ", "_")), "] ", LOWER(SUBSTITUTE(E310, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] erestor</v>
       </c>
       <c r="B310" s="9" t="s">
@@ -17722,7 +17794,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C311, " ", "_")), "] ", LOWER(SUBSTITUTE(E311, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] cirdan</v>
       </c>
       <c r="B311" s="9" t="s">
@@ -17755,7 +17827,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C312, " ", "_")), "] ", LOWER(SUBSTITUTE(E312, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] high_elf_captain</v>
       </c>
       <c r="B312" s="9" t="s">
@@ -17788,7 +17860,7 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C313, " ", "_")), "] ", LOWER(SUBSTITUTE(E313, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] gildor_inglorion</v>
       </c>
       <c r="B313" s="9" t="s">
@@ -17821,7 +17893,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C314, " ", "_")), "] ", LOWER(SUBSTITUTE(E314, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] lindir</v>
       </c>
       <c r="B314" s="9" t="s">
@@ -17854,7 +17926,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C315, " ", "_")), "] ", LOWER(SUBSTITUTE(E315, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] arwen</v>
       </c>
       <c r="B315" s="9" t="s">
@@ -17887,7 +17959,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C316, " ", "_")), "] ", LOWER(SUBSTITUTE(E316, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] elrond</v>
       </c>
       <c r="B316" s="9" t="s">
@@ -17920,7 +17992,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C317, " ", "_")), "] ", LOWER(SUBSTITUTE(E317, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] gil-galad</v>
       </c>
       <c r="B317" s="9" t="s">
@@ -17953,7 +18025,7 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C318, " ", "_")), "] ", LOWER(SUBSTITUTE(E318, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] glorfindel</v>
       </c>
       <c r="B318" s="9" t="s">
@@ -17986,7 +18058,7 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C319, " ", "_")), "] ", LOWER(SUBSTITUTE(E319, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] bilbo_baggins</v>
       </c>
       <c r="B319" s="9" t="s">
@@ -18019,7 +18091,7 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C320, " ", "_")), "] ", LOWER(SUBSTITUTE(E320, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] high_elf_stormcaller</v>
       </c>
       <c r="B320" s="9" t="s">
@@ -18052,7 +18124,7 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C321, " ", "_")), "] ", LOWER(SUBSTITUTE(E321, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] rivendell_knight</v>
       </c>
       <c r="B321" s="9" t="s">
@@ -18085,7 +18157,7 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C322, " ", "_")), "] ", LOWER(SUBSTITUTE(E322, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] high_elf_warrior</v>
       </c>
       <c r="B322" s="9" t="s">
@@ -18118,7 +18190,7 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C323, " ", "_")), "] ", LOWER(SUBSTITUTE(E323, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rivendell] wood_elf_warrior</v>
       </c>
       <c r="B323" s="9" t="s">
@@ -18151,7 +18223,7 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C324, " ", "_")), "] ", LOWER(SUBSTITUTE(E324, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] deorwine</v>
       </c>
       <c r="B324" s="9" t="s">
@@ -18184,7 +18256,7 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C325, " ", "_")), "] ", LOWER(SUBSTITUTE(E325, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] erkenbrand</v>
       </c>
       <c r="B325" s="9" t="s">
@@ -18217,7 +18289,7 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C326, " ", "_")), "] ", LOWER(SUBSTITUTE(E326, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] elfhelm</v>
       </c>
       <c r="B326" s="9" t="s">
@@ -18250,7 +18322,7 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C327, " ", "_")), "] ", LOWER(SUBSTITUTE(E327, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] grimbold</v>
       </c>
       <c r="B327" s="9" t="s">
@@ -18283,7 +18355,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C328, " ", "_")), "] ", LOWER(SUBSTITUTE(E328, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] gamling</v>
       </c>
       <c r="B328" s="9" t="s">
@@ -18316,7 +18388,7 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C329, " ", "_")), "] ", LOWER(SUBSTITUTE(E329, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] hama</v>
       </c>
       <c r="B329" s="9" t="s">
@@ -18349,7 +18421,7 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C330, " ", "_")), "] ", LOWER(SUBSTITUTE(E330, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] captain_of_rohan</v>
       </c>
       <c r="B330" s="9" t="s">
@@ -18382,7 +18454,7 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C331, " ", "_")), "] ", LOWER(SUBSTITUTE(E331, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] helm_hammerhand</v>
       </c>
       <c r="B331" s="9" t="s">
@@ -18415,7 +18487,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C332, " ", "_")), "] ", LOWER(SUBSTITUTE(E332, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] theoden</v>
       </c>
       <c r="B332" s="9" t="s">
@@ -18448,7 +18520,7 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C333, " ", "_")), "] ", LOWER(SUBSTITUTE(E333, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] eorl_the_young</v>
       </c>
       <c r="B333" s="9" t="s">
@@ -18481,7 +18553,7 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C334, " ", "_")), "] ", LOWER(SUBSTITUTE(E334, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] eomer</v>
       </c>
       <c r="B334" s="9" t="s">
@@ -18514,7 +18586,7 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C335, " ", "_")), "] ", LOWER(SUBSTITUTE(E335, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] theodred</v>
       </c>
       <c r="B335" s="9" t="s">
@@ -18547,7 +18619,7 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C336, " ", "_")), "] ", LOWER(SUBSTITUTE(E336, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] haleth</v>
       </c>
       <c r="B336" s="9" t="s">
@@ -18580,7 +18652,7 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C337, " ", "_")), "] ", LOWER(SUBSTITUTE(E337, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] meriadoc_brandybuck</v>
       </c>
       <c r="B337" s="9" t="s">
@@ -18613,7 +18685,7 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C338, " ", "_")), "] ", LOWER(SUBSTITUTE(E338, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] aldor</v>
       </c>
       <c r="B338" s="9" t="s">
@@ -18646,7 +18718,7 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C339, " ", "_")), "] ", LOWER(SUBSTITUTE(E339, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] dernhelm</v>
       </c>
       <c r="B339" s="9" t="s">
@@ -18679,7 +18751,7 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C340, " ", "_")), "] ", LOWER(SUBSTITUTE(E340, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] king's_huntsman</v>
       </c>
       <c r="B340" s="9" t="s">
@@ -18712,7 +18784,7 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C341, " ", "_")), "] ", LOWER(SUBSTITUTE(E341, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] eowyn</v>
       </c>
       <c r="B341" s="9" t="s">
@@ -18745,7 +18817,7 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C342, " ", "_")), "] ", LOWER(SUBSTITUTE(E342, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] son_of_eorl</v>
       </c>
       <c r="B342" s="9" t="s">
@@ -18778,7 +18850,7 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C343, " ", "_")), "] ", LOWER(SUBSTITUTE(E343, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] rider_of_rohan</v>
       </c>
       <c r="B343" s="9" t="s">
@@ -18811,7 +18883,7 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C344, " ", "_")), "] ", LOWER(SUBSTITUTE(E344, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] rohan_royal_guard</v>
       </c>
       <c r="B344" s="9" t="s">
@@ -18844,7 +18916,7 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C345, " ", "_")), "] ", LOWER(SUBSTITUTE(E345, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] rohan_outrider</v>
       </c>
       <c r="B345" s="9" t="s">
@@ -18877,7 +18949,7 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C346, " ", "_")), "] ", LOWER(SUBSTITUTE(E346, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[rohan] warrior_of_rohan</v>
       </c>
       <c r="B346" s="9" t="s">
@@ -18910,7 +18982,7 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C347, " ", "_")), "] ", LOWER(SUBSTITUTE(E347, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[sharkey's_rogues] rowan_thistlewood,_ruffian_enforcer</v>
       </c>
       <c r="B347" s="9" t="s">
@@ -18943,7 +19015,7 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C348, " ", "_")), "] ", LOWER(SUBSTITUTE(E348, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[sharkey's_rogues] bill_ferny</v>
       </c>
       <c r="B348" s="9" t="s">
@@ -18976,7 +19048,7 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C349, " ", "_")), "] ", LOWER(SUBSTITUTE(E349, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[sharkey's_rogues] lotho_sackville-baggins</v>
       </c>
       <c r="B349" s="9" t="s">
@@ -19009,7 +19081,7 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C350, " ", "_")), "] ", LOWER(SUBSTITUTE(E350, " ", "_")))</f>
+        <f t="shared" si="7"/>
         <v>[sharkey's_rogues] ted_sandyman</v>
       </c>
       <c r="B350" s="9" t="s">
@@ -19074,7 +19146,7 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C352, " ", "_")), "] ", LOWER(SUBSTITUTE(E352, " ", "_")))</f>
+        <f t="shared" ref="A352:A371" si="8">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C352, " ", "_")), "] ", LOWER(SUBSTITUTE(E352, " ", "_")))</f>
         <v>[sharkey's_rogues] sharkey_and_worm</v>
       </c>
       <c r="B352" s="9" t="s">
@@ -19107,7 +19179,7 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C353, " ", "_")), "] ", LOWER(SUBSTITUTE(E353, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[sharkey's_rogues] sid_briarthorn,_ruffian_chief</v>
       </c>
       <c r="B353" s="9" t="s">
@@ -19140,7 +19212,7 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C354, " ", "_")), "] ", LOWER(SUBSTITUTE(E354, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[sharkey's_rogues] harry_goatleaf</v>
       </c>
       <c r="B354" s="9" t="s">
@@ -19173,7 +19245,7 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C355, " ", "_")), "] ", LOWER(SUBSTITUTE(E355, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[sharkey's_rogues] ruffian</v>
       </c>
       <c r="B355" s="9" t="s">
@@ -19206,7 +19278,7 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C356, " ", "_")), "] ", LOWER(SUBSTITUTE(E356, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[sharkey's_rogues] hobbit_militia</v>
       </c>
       <c r="B356" s="9" t="s">
@@ -19239,7 +19311,7 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C357, " ", "_")), "] ", LOWER(SUBSTITUTE(E357, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] goroth</v>
       </c>
       <c r="B357" s="9" t="s">
@@ -19272,7 +19344,7 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C358, " ", "_")), "] ", LOWER(SUBSTITUTE(E358, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] guritz</v>
       </c>
       <c r="B358" s="9" t="s">
@@ -19305,7 +19377,7 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C359, " ", "_")), "] ", LOWER(SUBSTITUTE(E359, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] gothmog's_enforcer</v>
       </c>
       <c r="B359" s="9" t="s">
@@ -19338,7 +19410,7 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C360, " ", "_")), "] ", LOWER(SUBSTITUTE(E360, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] zagdush</v>
       </c>
       <c r="B360" s="9" t="s">
@@ -19371,7 +19443,7 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C361, " ", "_")), "] ", LOWER(SUBSTITUTE(E361, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] morannon_orc_captain</v>
       </c>
       <c r="B361" s="9" t="s">
@@ -19404,7 +19476,7 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C362, " ", "_")), "] ", LOWER(SUBSTITUTE(E362, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] orc_taskmaster</v>
       </c>
       <c r="B362" s="9" t="s">
@@ -19437,7 +19509,7 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C363, " ", "_")), "] ", LOWER(SUBSTITUTE(E363, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] gothmog</v>
       </c>
       <c r="B363" s="9" t="s">
@@ -19470,7 +19542,7 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C364, " ", "_")), "] ", LOWER(SUBSTITUTE(E364, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] orc_drummer</v>
       </c>
       <c r="B364" s="9" t="s">
@@ -19503,7 +19575,7 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C365, " ", "_")), "] ", LOWER(SUBSTITUTE(E365, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] orc_shaman</v>
       </c>
       <c r="B365" s="9" t="s">
@@ -19536,7 +19608,7 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C366, " ", "_")), "] ", LOWER(SUBSTITUTE(E366, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] mordor_war_catapult</v>
       </c>
       <c r="B366" s="9" t="s">
@@ -19569,7 +19641,7 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C367, " ", "_")), "] ", LOWER(SUBSTITUTE(E367, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] mordor_siege_bow</v>
       </c>
       <c r="B367" s="9" t="s">
@@ -19602,7 +19674,7 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C368, " ", "_")), "] ", LOWER(SUBSTITUTE(E368, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] mordor_troll</v>
       </c>
       <c r="B368" s="9" t="s">
@@ -19635,7 +19707,7 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C369, " ", "_")), "] ", LOWER(SUBSTITUTE(E369, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] morannon_orc</v>
       </c>
       <c r="B369" s="9" t="s">
@@ -19668,7 +19740,7 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C370, " ", "_")), "] ", LOWER(SUBSTITUTE(E370, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_army_of_gothmog] orc_warrior</v>
       </c>
       <c r="B370" s="9" t="s">
@@ -19701,7 +19773,7 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C371, " ", "_")), "] ", LOWER(SUBSTITUTE(E371, " ", "_")))</f>
+        <f t="shared" si="8"/>
         <v>[the_dead_of_dunharrow] herald_of_the_dead</v>
       </c>
       <c r="B371" s="9" t="s">
@@ -19766,7 +19838,7 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C373, " ", "_")), "] ", LOWER(SUBSTITUTE(E373, " ", "_")))</f>
+        <f t="shared" ref="A373:A384" si="9">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C373, " ", "_")), "] ", LOWER(SUBSTITUTE(E373, " ", "_")))</f>
         <v>[the_dead_of_dunharrow] the_king_of_the_dead</v>
       </c>
       <c r="B373" s="9" t="s">
@@ -19799,7 +19871,7 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C374, " ", "_")), "] ", LOWER(SUBSTITUTE(E374, " ", "_")))</f>
+        <f t="shared" si="9"/>
         <v>[the_dead_of_dunharrow] rider_of_the_dead</v>
       </c>
       <c r="B374" s="9" t="s">
@@ -19832,7 +19904,7 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C375, " ", "_")), "] ", LOWER(SUBSTITUTE(E375, " ", "_")))</f>
+        <f t="shared" si="9"/>
         <v>[the_dead_of_dunharrow] warrior_of_the_dead</v>
       </c>
       <c r="B375" s="9" t="s">
@@ -19865,7 +19937,7 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C376, " ", "_")), "] ", LOWER(SUBSTITUTE(E376, " ", "_")))</f>
+        <f t="shared" si="9"/>
         <v>[the_easterlings] brorgir</v>
       </c>
       <c r="B376" s="9" t="s">
@@ -19898,7 +19970,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C377, " ", "_")), "] ", LOWER(SUBSTITUTE(E377, " ", "_")))</f>
+        <f t="shared" si="9"/>
         <v>[the_easterlings] easterling_war_priest</v>
       </c>
       <c r="B377" s="9" t="s">
@@ -19931,7 +20003,7 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C378, " ", "_")), "] ", LOWER(SUBSTITUTE(E378, " ", "_")))</f>
+        <f t="shared" si="9"/>
         <v>[the_easterlings] easterling_captain</v>
       </c>
       <c r="B378" s="9" t="s">
@@ -19964,7 +20036,7 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C379, " ", "_")), "] ", LOWER(SUBSTITUTE(E379, " ", "_")))</f>
+        <f t="shared" si="9"/>
         <v>[the_easterlings] the_dragon_emperor</v>
       </c>
       <c r="B379" s="9" t="s">
@@ -19997,7 +20069,7 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C380, " ", "_")), "] ", LOWER(SUBSTITUTE(E380, " ", "_")))</f>
+        <f t="shared" si="9"/>
         <v>[the_easterlings] amdur</v>
       </c>
       <c r="B380" s="9" t="s">
@@ -20030,7 +20102,7 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C381, " ", "_")), "] ", LOWER(SUBSTITUTE(E381, " ", "_")))</f>
+        <f t="shared" si="9"/>
         <v>[the_easterlings] khamul</v>
       </c>
       <c r="B381" s="9" t="s">
@@ -20063,7 +20135,7 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C382, " ", "_")), "] ", LOWER(SUBSTITUTE(E382, " ", "_")))</f>
+        <f t="shared" si="9"/>
         <v>[the_easterlings] rutabi</v>
       </c>
       <c r="B382" s="9" t="s">
@@ -20096,7 +20168,7 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C383, " ", "_")), "] ", LOWER(SUBSTITUTE(E383, " ", "_")))</f>
+        <f t="shared" si="9"/>
         <v>[the_easterlings] easterling_dragon_knight</v>
       </c>
       <c r="B383" s="9" t="s">
@@ -20129,7 +20201,7 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C384, " ", "_")), "] ", LOWER(SUBSTITUTE(E384, " ", "_")))</f>
+        <f t="shared" si="9"/>
         <v>[the_easterlings] rhunish_war_drake</v>
       </c>
       <c r="B384" s="9" t="s">
@@ -20292,7 +20364,7 @@
     </row>
     <row r="389" spans="1:10">
       <c r="A389" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C389, " ", "_")), "] ", LOWER(SUBSTITUTE(E389, " ", "_")))</f>
+        <f t="shared" ref="A389:A425" si="10">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C389, " ", "_")), "] ", LOWER(SUBSTITUTE(E389, " ", "_")))</f>
         <v>[the_easterlings] easterling_warrior</v>
       </c>
       <c r="B389" s="9" t="s">
@@ -20325,7 +20397,7 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C390, " ", "_")), "] ", LOWER(SUBSTITUTE(E390, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] frodo_baggins</v>
       </c>
       <c r="B390" s="9" t="s">
@@ -20358,7 +20430,7 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C391, " ", "_")), "] ", LOWER(SUBSTITUTE(E391, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] samwise_gamgee</v>
       </c>
       <c r="B391" s="9" t="s">
@@ -20391,7 +20463,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C392, " ", "_")), "] ", LOWER(SUBSTITUTE(E392, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] gandalf_the_grey</v>
       </c>
       <c r="B392" s="9" t="s">
@@ -20424,7 +20496,7 @@
     </row>
     <row r="393" spans="1:10">
       <c r="A393" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C393, " ", "_")), "] ", LOWER(SUBSTITUTE(E393, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] aragorn,_strider</v>
       </c>
       <c r="B393" s="9" t="s">
@@ -20457,7 +20529,7 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C394, " ", "_")), "] ", LOWER(SUBSTITUTE(E394, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] legolas</v>
       </c>
       <c r="B394" s="9" t="s">
@@ -20490,7 +20562,7 @@
     </row>
     <row r="395" spans="1:10">
       <c r="A395" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C395, " ", "_")), "] ", LOWER(SUBSTITUTE(E395, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] gimli</v>
       </c>
       <c r="B395" s="9" t="s">
@@ -20523,7 +20595,7 @@
     </row>
     <row r="396" spans="1:10">
       <c r="A396" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C396, " ", "_")), "] ", LOWER(SUBSTITUTE(E396, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] boromir_of_gondor</v>
       </c>
       <c r="B396" s="9" t="s">
@@ -20556,7 +20628,7 @@
     </row>
     <row r="397" spans="1:10">
       <c r="A397" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C397, " ", "_")), "] ", LOWER(SUBSTITUTE(E397, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] smeagol</v>
       </c>
       <c r="B397" s="9" t="s">
@@ -20589,7 +20661,7 @@
     </row>
     <row r="398" spans="1:10">
       <c r="A398" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C398, " ", "_")), "] ", LOWER(SUBSTITUTE(E398, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] bill_the_pony</v>
       </c>
       <c r="B398" s="9" t="s">
@@ -20622,7 +20694,7 @@
     </row>
     <row r="399" spans="1:10">
       <c r="A399" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C399, " ", "_")), "] ", LOWER(SUBSTITUTE(E399, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] arwen</v>
       </c>
       <c r="B399" s="9" t="s">
@@ -20655,7 +20727,7 @@
     </row>
     <row r="400" spans="1:10">
       <c r="A400" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C400, " ", "_")), "] ", LOWER(SUBSTITUTE(E400, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] meriadoc_brandybuck</v>
       </c>
       <c r="B400" s="9" t="s">
@@ -20688,7 +20760,7 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C401, " ", "_")), "] ", LOWER(SUBSTITUTE(E401, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fellowship] peregrin_took</v>
       </c>
       <c r="B401" s="9" t="s">
@@ -20721,7 +20793,7 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C402, " ", "_")), "] ", LOWER(SUBSTITUTE(E402, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fiefdoms] captain_of_dol_amroth</v>
       </c>
       <c r="B402" s="9" t="s">
@@ -20754,7 +20826,7 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C403, " ", "_")), "] ", LOWER(SUBSTITUTE(E403, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fiefdoms] prince_imrahil</v>
       </c>
       <c r="B403" s="9" t="s">
@@ -20787,7 +20859,7 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C404, " ", "_")), "] ", LOWER(SUBSTITUTE(E404, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fiefdoms] forlong_the_fat</v>
       </c>
       <c r="B404" s="9" t="s">
@@ -20820,7 +20892,7 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C405, " ", "_")), "] ", LOWER(SUBSTITUTE(E405, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fiefdoms] angbor_the_fearless</v>
       </c>
       <c r="B405" s="9" t="s">
@@ -20853,7 +20925,7 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C406, " ", "_")), "] ", LOWER(SUBSTITUTE(E406, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fiefdoms] duinhir</v>
       </c>
       <c r="B406" s="9" t="s">
@@ -20886,7 +20958,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C407, " ", "_")), "] ", LOWER(SUBSTITUTE(E407, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fiefdoms] knight_of_dol_amroth</v>
       </c>
       <c r="B407" s="9" t="s">
@@ -20919,7 +20991,7 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C408, " ", "_")), "] ", LOWER(SUBSTITUTE(E408, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fiefdoms] axeman_of_lossarnach</v>
       </c>
       <c r="B408" s="9" t="s">
@@ -20952,7 +21024,7 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C409, " ", "_")), "] ", LOWER(SUBSTITUTE(E409, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fiefdoms] man-at-arms_of_dol_amroth</v>
       </c>
       <c r="B409" s="9" t="s">
@@ -20985,7 +21057,7 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C410, " ", "_")), "] ", LOWER(SUBSTITUTE(E410, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fiefdoms] blackroot_vale_archer</v>
       </c>
       <c r="B410" s="9" t="s">
@@ -21018,7 +21090,7 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C411, " ", "_")), "] ", LOWER(SUBSTITUTE(E411, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_fiefdoms] clansman_of_lamedon</v>
       </c>
       <c r="B411" s="9" t="s">
@@ -21051,7 +21123,7 @@
     </row>
     <row r="412" spans="1:10">
       <c r="A412" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C412, " ", "_")), "] ", LOWER(SUBSTITUTE(E412, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_grey_company] elladan_&amp;_elrohir</v>
       </c>
       <c r="B412" s="9" t="s">
@@ -21084,7 +21156,7 @@
     </row>
     <row r="413" spans="1:10">
       <c r="A413" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C413, " ", "_")), "] ", LOWER(SUBSTITUTE(E413, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_grey_company] halbarad</v>
       </c>
       <c r="B413" s="9" t="s">
@@ -21117,7 +21189,7 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C414, " ", "_")), "] ", LOWER(SUBSTITUTE(E414, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_grey_company] aragorn,_strider</v>
       </c>
       <c r="B414" s="9" t="s">
@@ -21150,7 +21222,7 @@
     </row>
     <row r="415" spans="1:10">
       <c r="A415" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C415, " ", "_")), "] ", LOWER(SUBSTITUTE(E415, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_grey_company] legolas</v>
       </c>
       <c r="B415" s="9" t="s">
@@ -21183,7 +21255,7 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C416, " ", "_")), "] ", LOWER(SUBSTITUTE(E416, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_grey_company] gimli</v>
       </c>
       <c r="B416" s="9" t="s">
@@ -21216,7 +21288,7 @@
     </row>
     <row r="417" spans="1:10">
       <c r="A417" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C417, " ", "_")), "] ", LOWER(SUBSTITUTE(E417, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_grey_company] ranger_of_the_north</v>
       </c>
       <c r="B417" s="9" t="s">
@@ -21249,7 +21321,7 @@
     </row>
     <row r="418" spans="1:10">
       <c r="A418" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C418, " ", "_")), "] ", LOWER(SUBSTITUTE(E418, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_host_of_the_dragon_emperor] brorgir</v>
       </c>
       <c r="B418" s="9" t="s">
@@ -21282,7 +21354,7 @@
     </row>
     <row r="419" spans="1:10">
       <c r="A419" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C419, " ", "_")), "] ", LOWER(SUBSTITUTE(E419, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_host_of_the_dragon_emperor] easterling_war_priest</v>
       </c>
       <c r="B419" s="9" t="s">
@@ -21315,7 +21387,7 @@
     </row>
     <row r="420" spans="1:10">
       <c r="A420" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C420, " ", "_")), "] ", LOWER(SUBSTITUTE(E420, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_host_of_the_dragon_emperor] easterling_captain</v>
       </c>
       <c r="B420" s="9" t="s">
@@ -21348,7 +21420,7 @@
     </row>
     <row r="421" spans="1:10">
       <c r="A421" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C421, " ", "_")), "] ", LOWER(SUBSTITUTE(E421, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_host_of_the_dragon_emperor] the_dragon_emperor</v>
       </c>
       <c r="B421" s="9" t="s">
@@ -21381,7 +21453,7 @@
     </row>
     <row r="422" spans="1:10">
       <c r="A422" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C422, " ", "_")), "] ", LOWER(SUBSTITUTE(E422, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_host_of_the_dragon_emperor] rutabi</v>
       </c>
       <c r="B422" s="9" t="s">
@@ -21414,7 +21486,7 @@
     </row>
     <row r="423" spans="1:10">
       <c r="A423" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C423, " ", "_")), "] ", LOWER(SUBSTITUTE(E423, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_host_of_the_dragon_emperor] easterling_dragon_knight</v>
       </c>
       <c r="B423" s="9" t="s">
@@ -21447,7 +21519,7 @@
     </row>
     <row r="424" spans="1:10">
       <c r="A424" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C424, " ", "_")), "] ", LOWER(SUBSTITUTE(E424, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_host_of_the_dragon_emperor] rhunish_war_drake</v>
       </c>
       <c r="B424" s="9" t="s">
@@ -21480,7 +21552,7 @@
     </row>
     <row r="425" spans="1:10">
       <c r="A425" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C425, " ", "_")), "] ", LOWER(SUBSTITUTE(E425, " ", "_")))</f>
+        <f t="shared" si="10"/>
         <v>[the_host_of_the_dragon_emperor] easterling_kataphrakt</v>
       </c>
       <c r="B425" s="9" t="s">
@@ -21643,7 +21715,7 @@
     </row>
     <row r="430" spans="1:10">
       <c r="A430" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C430, " ", "_")), "] ", LOWER(SUBSTITUTE(E430, " ", "_")))</f>
+        <f t="shared" ref="A430:A461" si="11">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C430, " ", "_")), "] ", LOWER(SUBSTITUTE(E430, " ", "_")))</f>
         <v>[the_kingdom_of_khazad-dum] king's_champion</v>
       </c>
       <c r="B430" s="9" t="s">
@@ -21676,7 +21748,7 @@
     </row>
     <row r="431" spans="1:10">
       <c r="A431" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C431, " ", "_")), "] ", LOWER(SUBSTITUTE(E431, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_khazad-dum] mardin</v>
       </c>
       <c r="B431" s="9" t="s">
@@ -21709,7 +21781,7 @@
     </row>
     <row r="432" spans="1:10">
       <c r="A432" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C432, " ", "_")), "] ", LOWER(SUBSTITUTE(E432, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_king</v>
       </c>
       <c r="B432" s="9" t="s">
@@ -21742,7 +21814,7 @@
     </row>
     <row r="433" spans="1:10">
       <c r="A433" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C433, " ", "_")), "] ", LOWER(SUBSTITUTE(E433, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_captain</v>
       </c>
       <c r="B433" s="9" t="s">
@@ -21775,7 +21847,7 @@
     </row>
     <row r="434" spans="1:10">
       <c r="A434" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C434, " ", "_")), "] ", LOWER(SUBSTITUTE(E434, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_khazad-dum] durin</v>
       </c>
       <c r="B434" s="9" t="s">
@@ -21808,7 +21880,7 @@
     </row>
     <row r="435" spans="1:10">
       <c r="A435" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C435, " ", "_")), "] ", LOWER(SUBSTITUTE(E435, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_khazad-dum] shieldbearer</v>
       </c>
       <c r="B435" s="9" t="s">
@@ -21841,7 +21913,7 @@
     </row>
     <row r="436" spans="1:10">
       <c r="A436" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C436, " ", "_")), "] ", LOWER(SUBSTITUTE(E436, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ballista</v>
       </c>
       <c r="B436" s="9" t="s">
@@ -21874,7 +21946,7 @@
     </row>
     <row r="437" spans="1:10">
       <c r="A437" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C437, " ", "_")), "] ", LOWER(SUBSTITUTE(E437, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_khazad-dum] vault_warden_team</v>
       </c>
       <c r="B437" s="9" t="s">
@@ -21907,7 +21979,7 @@
     </row>
     <row r="438" spans="1:10">
       <c r="A438" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C438, " ", "_")), "] ", LOWER(SUBSTITUTE(E438, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_khazad-dum] iron_guard</v>
       </c>
       <c r="B438" s="9" t="s">
@@ -21940,7 +22012,7 @@
     </row>
     <row r="439" spans="1:10">
       <c r="A439" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C439, " ", "_")), "] ", LOWER(SUBSTITUTE(E439, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_khazad-dum] khazad_guard</v>
       </c>
       <c r="B439" s="9" t="s">
@@ -21973,7 +22045,7 @@
     </row>
     <row r="440" spans="1:10">
       <c r="A440" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C440, " ", "_")), "] ", LOWER(SUBSTITUTE(E440, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ranger</v>
       </c>
       <c r="B440" s="9" t="s">
@@ -22006,7 +22078,7 @@
     </row>
     <row r="441" spans="1:10">
       <c r="A441" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C441, " ", "_")), "] ", LOWER(SUBSTITUTE(E441, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_warrior</v>
       </c>
       <c r="B441" s="9" t="s">
@@ -22039,7 +22111,7 @@
     </row>
     <row r="442" spans="1:10">
       <c r="A442" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C442, " ", "_")), "] ", LOWER(SUBSTITUTE(E442, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] king's_champion</v>
       </c>
       <c r="B442" s="9" t="s">
@@ -22072,7 +22144,7 @@
     </row>
     <row r="443" spans="1:10">
       <c r="A443" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C443, " ", "_")), "] ", LOWER(SUBSTITUTE(E443, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] floi_stonehand</v>
       </c>
       <c r="B443" s="9" t="s">
@@ -22105,7 +22177,7 @@
     </row>
     <row r="444" spans="1:10">
       <c r="A444" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C444, " ", "_")), "] ", LOWER(SUBSTITUTE(E444, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] dwarf_king</v>
       </c>
       <c r="B444" s="9" t="s">
@@ -22138,7 +22210,7 @@
     </row>
     <row r="445" spans="1:10">
       <c r="A445" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C445, " ", "_")), "] ", LOWER(SUBSTITUTE(E445, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] dwarf_captain</v>
       </c>
       <c r="B445" s="9" t="s">
@@ -22171,7 +22243,7 @@
     </row>
     <row r="446" spans="1:10">
       <c r="A446" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C446, " ", "_")), "] ", LOWER(SUBSTITUTE(E446, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] balin</v>
       </c>
       <c r="B446" s="9" t="s">
@@ -22204,7 +22276,7 @@
     </row>
     <row r="447" spans="1:10">
       <c r="A447" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C447, " ", "_")), "] ", LOWER(SUBSTITUTE(E447, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] gimli</v>
       </c>
       <c r="B447" s="9" t="s">
@@ -22237,7 +22309,7 @@
     </row>
     <row r="448" spans="1:10">
       <c r="A448" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C448, " ", "_")), "] ", LOWER(SUBSTITUTE(E448, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] shieldbearer</v>
       </c>
       <c r="B448" s="9" t="s">
@@ -22270,7 +22342,7 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C449, " ", "_")), "] ", LOWER(SUBSTITUTE(E449, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] dwarf_ballista</v>
       </c>
       <c r="B449" s="9" t="s">
@@ -22303,7 +22375,7 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C450, " ", "_")), "] ", LOWER(SUBSTITUTE(E450, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] vault_warden_team</v>
       </c>
       <c r="B450" s="9" t="s">
@@ -22336,7 +22408,7 @@
     </row>
     <row r="451" spans="1:10">
       <c r="A451" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C451, " ", "_")), "] ", LOWER(SUBSTITUTE(E451, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] iron_guard</v>
       </c>
       <c r="B451" s="9" t="s">
@@ -22369,7 +22441,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C452, " ", "_")), "] ", LOWER(SUBSTITUTE(E452, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] khazad_guard</v>
       </c>
       <c r="B452" s="9" t="s">
@@ -22402,7 +22474,7 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C453, " ", "_")), "] ", LOWER(SUBSTITUTE(E453, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] dwarf_ranger</v>
       </c>
       <c r="B453" s="9" t="s">
@@ -22435,7 +22507,7 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C454, " ", "_")), "] ", LOWER(SUBSTITUTE(E454, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_kingdom_of_moria] dwarf_warrior</v>
       </c>
       <c r="B454" s="9" t="s">
@@ -22468,7 +22540,7 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C455, " ", "_")), "] ", LOWER(SUBSTITUTE(E455, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_men_of_the_west] elladan_&amp;_elrohir</v>
       </c>
       <c r="B455" s="9" t="s">
@@ -22501,7 +22573,7 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C456, " ", "_")), "] ", LOWER(SUBSTITUTE(E456, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_men_of_the_west] captain_of_dol_amroth</v>
       </c>
       <c r="B456" s="9" t="s">
@@ -22534,7 +22606,7 @@
     </row>
     <row r="457" spans="1:10">
       <c r="A457" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C457, " ", "_")), "] ", LOWER(SUBSTITUTE(E457, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_men_of_the_west] captain_of_minas_tirith</v>
       </c>
       <c r="B457" s="9" t="s">
@@ -22567,7 +22639,7 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C458, " ", "_")), "] ", LOWER(SUBSTITUTE(E458, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_men_of_the_west] captain_of_rohan</v>
       </c>
       <c r="B458" s="9" t="s">
@@ -22600,7 +22672,7 @@
     </row>
     <row r="459" spans="1:10">
       <c r="A459" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C459, " ", "_")), "] ", LOWER(SUBSTITUTE(E459, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_men_of_the_west] aragorn,_king_elessar</v>
       </c>
       <c r="B459" s="9" t="s">
@@ -22633,7 +22705,7 @@
     </row>
     <row r="460" spans="1:10">
       <c r="A460" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C460, " ", "_")), "] ", LOWER(SUBSTITUTE(E460, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_men_of_the_west] prince_imrahil</v>
       </c>
       <c r="B460" s="9" t="s">
@@ -22666,7 +22738,7 @@
     </row>
     <row r="461" spans="1:10">
       <c r="A461" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C461, " ", "_")), "] ", LOWER(SUBSTITUTE(E461, " ", "_")))</f>
+        <f t="shared" si="11"/>
         <v>[the_men_of_the_west] gandalf_the_white</v>
       </c>
       <c r="B461" s="9" t="s">
@@ -22699,7 +22771,7 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C462, " ", "_")), "] ", LOWER(SUBSTITUTE(E462, " ", "_")))</f>
+        <f t="shared" ref="A462:A493" si="12">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C462, " ", "_")), "] ", LOWER(SUBSTITUTE(E462, " ", "_")))</f>
         <v>[the_men_of_the_west] eomer</v>
       </c>
       <c r="B462" s="9" t="s">
@@ -22732,7 +22804,7 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C463, " ", "_")), "] ", LOWER(SUBSTITUTE(E463, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_men_of_the_west] legolas</v>
       </c>
       <c r="B463" s="9" t="s">
@@ -22765,7 +22837,7 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C464, " ", "_")), "] ", LOWER(SUBSTITUTE(E464, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_men_of_the_west] gimli</v>
       </c>
       <c r="B464" s="9" t="s">
@@ -22798,7 +22870,7 @@
     </row>
     <row r="465" spans="1:10">
       <c r="A465" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C465, " ", "_")), "] ", LOWER(SUBSTITUTE(E465, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_men_of_the_west] peregrin_took</v>
       </c>
       <c r="B465" s="9" t="s">
@@ -22831,7 +22903,7 @@
     </row>
     <row r="466" spans="1:10">
       <c r="A466" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C466, " ", "_")), "] ", LOWER(SUBSTITUTE(E466, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_men_of_the_west] meriadoc_brandybuck</v>
       </c>
       <c r="B466" s="9" t="s">
@@ -22864,7 +22936,7 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C467, " ", "_")), "] ", LOWER(SUBSTITUTE(E467, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_men_of_the_west] beregond</v>
       </c>
       <c r="B467" s="9" t="s">
@@ -22897,7 +22969,7 @@
     </row>
     <row r="468" spans="1:10">
       <c r="A468" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C468, " ", "_")), "] ", LOWER(SUBSTITUTE(E468, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_men_of_the_west] knight_of_dol_amroth</v>
       </c>
       <c r="B468" s="9" t="s">
@@ -22930,7 +23002,7 @@
     </row>
     <row r="469" spans="1:10">
       <c r="A469" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C469, " ", "_")), "] ", LOWER(SUBSTITUTE(E469, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_men_of_the_west] warrior_of_minas_tirith</v>
       </c>
       <c r="B469" s="9" t="s">
@@ -22963,7 +23035,7 @@
     </row>
     <row r="470" spans="1:10">
       <c r="A470" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C470, " ", "_")), "] ", LOWER(SUBSTITUTE(E470, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_men_of_the_west] warrior_of_rohan</v>
       </c>
       <c r="B470" s="9" t="s">
@@ -22996,7 +23068,7 @@
     </row>
     <row r="471" spans="1:10">
       <c r="A471" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C471, " ", "_")), "] ", LOWER(SUBSTITUTE(E471, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_misty_mountains] gwaihir</v>
       </c>
       <c r="B471" s="9" t="s">
@@ -23029,7 +23101,7 @@
     </row>
     <row r="472" spans="1:10">
       <c r="A472" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C472, " ", "_")), "] ", LOWER(SUBSTITUTE(E472, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_misty_mountains] great_eagle</v>
       </c>
       <c r="B472" s="9" t="s">
@@ -23062,7 +23134,7 @@
     </row>
     <row r="473" spans="1:10">
       <c r="A473" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C473, " ", "_")), "] ", LOWER(SUBSTITUTE(E473, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_rangers] halbarad</v>
       </c>
       <c r="B473" s="9" t="s">
@@ -23095,7 +23167,7 @@
     </row>
     <row r="474" spans="1:10">
       <c r="A474" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C474, " ", "_")), "] ", LOWER(SUBSTITUTE(E474, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_rangers] aragorn,_strider</v>
       </c>
       <c r="B474" s="9" t="s">
@@ -23128,7 +23200,7 @@
     </row>
     <row r="475" spans="1:10">
       <c r="A475" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C475, " ", "_")), "] ", LOWER(SUBSTITUTE(E475, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_rangers] arathorn</v>
       </c>
       <c r="B475" s="9" t="s">
@@ -23161,7 +23233,7 @@
     </row>
     <row r="476" spans="1:10">
       <c r="A476" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C476, " ", "_")), "] ", LOWER(SUBSTITUTE(E476, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_rangers] ranger_of_the_north</v>
       </c>
       <c r="B476" s="9" t="s">
@@ -23194,7 +23266,7 @@
     </row>
     <row r="477" spans="1:10">
       <c r="A477" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C477, " ", "_")), "] ", LOWER(SUBSTITUTE(E477, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_rangers] dunedain</v>
       </c>
       <c r="B477" s="9" t="s">
@@ -23227,7 +23299,7 @@
     </row>
     <row r="478" spans="1:10">
       <c r="A478" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C478, " ", "_")), "] ", LOWER(SUBSTITUTE(E478, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_return_of_the_king] herald_of_the_dead</v>
       </c>
       <c r="B478" s="9" t="s">
@@ -23260,7 +23332,7 @@
     </row>
     <row r="479" spans="1:10">
       <c r="A479" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C479, " ", "_")), "] ", LOWER(SUBSTITUTE(E479, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_return_of_the_king] aragorn,_strider</v>
       </c>
       <c r="B479" s="9" t="s">
@@ -23293,7 +23365,7 @@
     </row>
     <row r="480" spans="1:10">
       <c r="A480" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C480, " ", "_")), "] ", LOWER(SUBSTITUTE(E480, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_return_of_the_king] the_king_of_the_dead</v>
       </c>
       <c r="B480" s="9" t="s">
@@ -23326,7 +23398,7 @@
     </row>
     <row r="481" spans="1:10">
       <c r="A481" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C481, " ", "_")), "] ", LOWER(SUBSTITUTE(E481, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_return_of_the_king] legolas</v>
       </c>
       <c r="B481" s="9" t="s">
@@ -23359,7 +23431,7 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C482, " ", "_")), "] ", LOWER(SUBSTITUTE(E482, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_return_of_the_king] gimli</v>
       </c>
       <c r="B482" s="9" t="s">
@@ -23392,7 +23464,7 @@
     </row>
     <row r="483" spans="1:10">
       <c r="A483" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C483, " ", "_")), "] ", LOWER(SUBSTITUTE(E483, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_return_of_the_king] rider_of_the_dead</v>
       </c>
       <c r="B483" s="9" t="s">
@@ -23425,7 +23497,7 @@
     </row>
     <row r="484" spans="1:10">
       <c r="A484" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C484, " ", "_")), "] ", LOWER(SUBSTITUTE(E484, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_return_of_the_king] warrior_of_the_dead</v>
       </c>
       <c r="B484" s="9" t="s">
@@ -23458,7 +23530,7 @@
     </row>
     <row r="485" spans="1:10">
       <c r="A485" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C485, " ", "_")), "] ", LOWER(SUBSTITUTE(E485, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_riders_of_theoden] deorwine</v>
       </c>
       <c r="B485" s="9" t="s">
@@ -23491,7 +23563,7 @@
     </row>
     <row r="486" spans="1:10">
       <c r="A486" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C486, " ", "_")), "] ", LOWER(SUBSTITUTE(E486, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_riders_of_theoden] elfhelm</v>
       </c>
       <c r="B486" s="9" t="s">
@@ -23524,7 +23596,7 @@
     </row>
     <row r="487" spans="1:10">
       <c r="A487" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C487, " ", "_")), "] ", LOWER(SUBSTITUTE(E487, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_riders_of_theoden] gamling</v>
       </c>
       <c r="B487" s="9" t="s">
@@ -23557,7 +23629,7 @@
     </row>
     <row r="488" spans="1:10">
       <c r="A488" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C488, " ", "_")), "] ", LOWER(SUBSTITUTE(E488, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_riders_of_theoden] captain_of_rohan</v>
       </c>
       <c r="B488" s="9" t="s">
@@ -23590,7 +23662,7 @@
     </row>
     <row r="489" spans="1:10">
       <c r="A489" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C489, " ", "_")), "] ", LOWER(SUBSTITUTE(E489, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_riders_of_theoden] theoden</v>
       </c>
       <c r="B489" s="9" t="s">
@@ -23623,7 +23695,7 @@
     </row>
     <row r="490" spans="1:10">
       <c r="A490" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C490, " ", "_")), "] ", LOWER(SUBSTITUTE(E490, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_riders_of_theoden] eomer</v>
       </c>
       <c r="B490" s="9" t="s">
@@ -23656,7 +23728,7 @@
     </row>
     <row r="491" spans="1:10">
       <c r="A491" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C491, " ", "_")), "] ", LOWER(SUBSTITUTE(E491, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_riders_of_theoden] dernhelm</v>
       </c>
       <c r="B491" s="9" t="s">
@@ -23689,7 +23761,7 @@
     </row>
     <row r="492" spans="1:10">
       <c r="A492" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C492, " ", "_")), "] ", LOWER(SUBSTITUTE(E492, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_riders_of_theoden] rohan_royal_guard</v>
       </c>
       <c r="B492" s="9" t="s">
@@ -23722,7 +23794,7 @@
     </row>
     <row r="493" spans="1:10">
       <c r="A493" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C493, " ", "_")), "] ", LOWER(SUBSTITUTE(E493, " ", "_")))</f>
+        <f t="shared" si="12"/>
         <v>[the_riders_of_theoden] rider_of_rohan</v>
       </c>
       <c r="B493" s="9" t="s">
@@ -23755,7 +23827,7 @@
     </row>
     <row r="494" spans="1:10">
       <c r="A494" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C494, " ", "_")), "] ", LOWER(SUBSTITUTE(E494, " ", "_")))</f>
+        <f t="shared" ref="A494:A525" si="13">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C494, " ", "_")), "] ", LOWER(SUBSTITUTE(E494, " ", "_")))</f>
         <v>[the_serpent_horde] war_mumak_of_harad</v>
       </c>
       <c r="B494" s="9" t="s">
@@ -23788,7 +23860,7 @@
     </row>
     <row r="495" spans="1:10">
       <c r="A495" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C495, " ", "_")), "] ", LOWER(SUBSTITUTE(E495, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] hasharin</v>
       </c>
       <c r="B495" s="9" t="s">
@@ -23821,7 +23893,7 @@
     </row>
     <row r="496" spans="1:10">
       <c r="A496" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C496, " ", "_")), "] ", LOWER(SUBSTITUTE(E496, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] raza,_fang_of_the_serpent</v>
       </c>
       <c r="B496" s="9" t="s">
@@ -23854,7 +23926,7 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C497, " ", "_")), "] ", LOWER(SUBSTITUTE(E497, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] haradrim_king</v>
       </c>
       <c r="B497" s="9" t="s">
@@ -23887,7 +23959,7 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C498, " ", "_")), "] ", LOWER(SUBSTITUTE(E498, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] haradrim_chieftan</v>
       </c>
       <c r="B498" s="9" t="s">
@@ -23920,7 +23992,7 @@
     </row>
     <row r="499" spans="1:10">
       <c r="A499" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C499, " ", "_")), "] ", LOWER(SUBSTITUTE(E499, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] haradrim_taskmaster</v>
       </c>
       <c r="B499" s="9" t="s">
@@ -23953,7 +24025,7 @@
     </row>
     <row r="500" spans="1:10">
       <c r="A500" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C500, " ", "_")), "] ", LOWER(SUBSTITUTE(E500, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] suladan</v>
       </c>
       <c r="B500" s="9" t="s">
@@ -23986,7 +24058,7 @@
     </row>
     <row r="501" spans="1:10">
       <c r="A501" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C501, " ", "_")), "] ", LOWER(SUBSTITUTE(E501, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] the_golden_king</v>
       </c>
       <c r="B501" s="9" t="s">
@@ -24019,7 +24091,7 @@
     </row>
     <row r="502" spans="1:10">
       <c r="A502" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C502, " ", "_")), "] ", LOWER(SUBSTITUTE(E502, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] the_betrayer</v>
       </c>
       <c r="B502" s="9" t="s">
@@ -24052,7 +24124,7 @@
     </row>
     <row r="503" spans="1:10">
       <c r="A503" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C503, " ", "_")), "] ", LOWER(SUBSTITUTE(E503, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] serpent_rider</v>
       </c>
       <c r="B503" s="9" t="s">
@@ -24085,7 +24157,7 @@
     </row>
     <row r="504" spans="1:10">
       <c r="A504" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C504, " ", "_")), "] ", LOWER(SUBSTITUTE(E504, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] haradrim_raider</v>
       </c>
       <c r="B504" s="9" t="s">
@@ -24118,7 +24190,7 @@
     </row>
     <row r="505" spans="1:10">
       <c r="A505" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C505, " ", "_")), "] ", LOWER(SUBSTITUTE(E505, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] abrakhan_merchant_guard</v>
       </c>
       <c r="B505" s="9" t="s">
@@ -24151,7 +24223,7 @@
     </row>
     <row r="506" spans="1:10">
       <c r="A506" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C506, " ", "_")), "] ", LOWER(SUBSTITUTE(E506, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] watcher_of_karna</v>
       </c>
       <c r="B506" s="9" t="s">
@@ -24184,7 +24256,7 @@
     </row>
     <row r="507" spans="1:10">
       <c r="A507" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C507, " ", "_")), "] ", LOWER(SUBSTITUTE(E507, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] serpent_guard</v>
       </c>
       <c r="B507" s="9" t="s">
@@ -24217,7 +24289,7 @@
     </row>
     <row r="508" spans="1:10">
       <c r="A508" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C508, " ", "_")), "] ", LOWER(SUBSTITUTE(E508, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_serpent_horde] haradrim_warrior</v>
       </c>
       <c r="B508" s="9" t="s">
@@ -24250,7 +24322,7 @@
     </row>
     <row r="509" spans="1:10">
       <c r="A509" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C509, " ", "_")), "] ", LOWER(SUBSTITUTE(E509, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] frodo_of_the_nine_fingers</v>
       </c>
       <c r="B509" s="9" t="s">
@@ -24283,7 +24355,7 @@
     </row>
     <row r="510" spans="1:10">
       <c r="A510" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C510, " ", "_")), "] ", LOWER(SUBSTITUTE(E510, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] farmer_maggot</v>
       </c>
       <c r="B510" s="9" t="s">
@@ -24316,7 +24388,7 @@
     </row>
     <row r="511" spans="1:10">
       <c r="A511" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C511, " ", "_")), "] ", LOWER(SUBSTITUTE(E511, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] samwise_the_brave</v>
       </c>
       <c r="B511" s="9" t="s">
@@ -24349,7 +24421,7 @@
     </row>
     <row r="512" spans="1:10">
       <c r="A512" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C512, " ", "_")), "] ", LOWER(SUBSTITUTE(E512, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] baldo_tulpenny</v>
       </c>
       <c r="B512" s="9" t="s">
@@ -24382,7 +24454,7 @@
     </row>
     <row r="513" spans="1:10">
       <c r="A513" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C513, " ", "_")), "] ", LOWER(SUBSTITUTE(E513, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] bilbo_baggins</v>
       </c>
       <c r="B513" s="9" t="s">
@@ -24415,7 +24487,7 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C514, " ", "_")), "] ", LOWER(SUBSTITUTE(E514, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] farmer_tolman_cotton</v>
       </c>
       <c r="B514" s="9" t="s">
@@ -24448,7 +24520,7 @@
     </row>
     <row r="515" spans="1:10">
       <c r="A515" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C515, " ", "_")), "] ", LOWER(SUBSTITUTE(E515, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] hamfast_'gaffer'_gamgee</v>
       </c>
       <c r="B515" s="9" t="s">
@@ -24481,7 +24553,7 @@
     </row>
     <row r="516" spans="1:10">
       <c r="A516" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C516, " ", "_")), "] ", LOWER(SUBSTITUTE(E516, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] holfoot_bracegirdle</v>
       </c>
       <c r="B516" s="9" t="s">
@@ -24514,7 +24586,7 @@
     </row>
     <row r="517" spans="1:10">
       <c r="A517" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C517, " ", "_")), "] ", LOWER(SUBSTITUTE(E517, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] lotho_sackville-baggins</v>
       </c>
       <c r="B517" s="9" t="s">
@@ -24547,7 +24619,7 @@
     </row>
     <row r="518" spans="1:10">
       <c r="A518" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C518, " ", "_")), "] ", LOWER(SUBSTITUTE(E518, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] will_whitfoot</v>
       </c>
       <c r="B518" s="9" t="s">
@@ -24580,7 +24652,7 @@
     </row>
     <row r="519" spans="1:10">
       <c r="A519" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C519, " ", "_")), "] ", LOWER(SUBSTITUTE(E519, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] paladin_took</v>
       </c>
       <c r="B519" s="9" t="s">
@@ -24613,7 +24685,7 @@
     </row>
     <row r="520" spans="1:10">
       <c r="A520" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C520, " ", "_")), "] ", LOWER(SUBSTITUTE(E520, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] robin_smallburrow</v>
       </c>
       <c r="B520" s="9" t="s">
@@ -24646,7 +24718,7 @@
     </row>
     <row r="521" spans="1:10">
       <c r="A521" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C521, " ", "_")), "] ", LOWER(SUBSTITUTE(E521, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] gandalf_the_grey</v>
       </c>
       <c r="B521" s="9" t="s">
@@ -24679,7 +24751,7 @@
     </row>
     <row r="522" spans="1:10">
       <c r="A522" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C522, " ", "_")), "] ", LOWER(SUBSTITUTE(E522, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] meriadoc,_captain_of_the_shire</v>
       </c>
       <c r="B522" s="9" t="s">
@@ -24712,7 +24784,7 @@
     </row>
     <row r="523" spans="1:10">
       <c r="A523" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C523, " ", "_")), "] ", LOWER(SUBSTITUTE(E523, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] peregrin,_captain_of_the_shire</v>
       </c>
       <c r="B523" s="9" t="s">
@@ -24745,7 +24817,7 @@
     </row>
     <row r="524" spans="1:10">
       <c r="A524" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C524, " ", "_")), "] ", LOWER(SUBSTITUTE(E524, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] bandobras_took</v>
       </c>
       <c r="B524" s="9" t="s">
@@ -24778,7 +24850,7 @@
     </row>
     <row r="525" spans="1:10">
       <c r="A525" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C525, " ", "_")), "] ", LOWER(SUBSTITUTE(E525, " ", "_")))</f>
+        <f t="shared" si="13"/>
         <v>[the_shire] rosie_cotton</v>
       </c>
       <c r="B525" s="9" t="s">
@@ -24811,7 +24883,7 @@
     </row>
     <row r="526" spans="1:10">
       <c r="A526" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C526, " ", "_")), "] ", LOWER(SUBSTITUTE(E526, " ", "_")))</f>
+        <f t="shared" ref="A526:A546" si="14">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C526, " ", "_")), "] ", LOWER(SUBSTITUTE(E526, " ", "_")))</f>
         <v>[the_shire] grip,_fang_and_wolf</v>
       </c>
       <c r="B526" s="9" t="s">
@@ -24844,7 +24916,7 @@
     </row>
     <row r="527" spans="1:10">
       <c r="A527" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C527, " ", "_")), "] ", LOWER(SUBSTITUTE(E527, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[the_shire] dunedain</v>
       </c>
       <c r="B527" s="9" t="s">
@@ -24877,7 +24949,7 @@
     </row>
     <row r="528" spans="1:10">
       <c r="A528" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C528, " ", "_")), "] ", LOWER(SUBSTITUTE(E528, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[the_shire] folco_boffin</v>
       </c>
       <c r="B528" s="9" t="s">
@@ -24910,7 +24982,7 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C529, " ", "_")), "] ", LOWER(SUBSTITUTE(E529, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[the_shire] lobelia_sackville-baggins</v>
       </c>
       <c r="B529" s="9" t="s">
@@ -24943,7 +25015,7 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C530, " ", "_")), "] ", LOWER(SUBSTITUTE(E530, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[the_shire] fredegar_bolger</v>
       </c>
       <c r="B530" s="9" t="s">
@@ -24976,7 +25048,7 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C531, " ", "_")), "] ", LOWER(SUBSTITUTE(E531, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[the_shire] hobbit_archer</v>
       </c>
       <c r="B531" s="9" t="s">
@@ -25009,7 +25081,7 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C532, " ", "_")), "] ", LOWER(SUBSTITUTE(E532, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[the_shire] hobbit_shirriff</v>
       </c>
       <c r="B532" s="9" t="s">
@@ -25042,7 +25114,7 @@
     </row>
     <row r="533" spans="1:10">
       <c r="A533" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C533, " ", "_")), "] ", LOWER(SUBSTITUTE(E533, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[the_shire] hobbit_militia</v>
       </c>
       <c r="B533" s="9" t="s">
@@ -25075,7 +25147,7 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C534, " ", "_")), "] ", LOWER(SUBSTITUTE(E534, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[theodred's_guard] elfhelm</v>
       </c>
       <c r="B534" s="9" t="s">
@@ -25108,7 +25180,7 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C535, " ", "_")), "] ", LOWER(SUBSTITUTE(E535, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[theodred's_guard] grimbold</v>
       </c>
       <c r="B535" s="9" t="s">
@@ -25141,7 +25213,7 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C536, " ", "_")), "] ", LOWER(SUBSTITUTE(E536, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[theodred's_guard] captain_of_rohan</v>
       </c>
       <c r="B536" s="9" t="s">
@@ -25174,7 +25246,7 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C537, " ", "_")), "] ", LOWER(SUBSTITUTE(E537, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[theodred's_guard] theodred</v>
       </c>
       <c r="B537" s="9" t="s">
@@ -25207,7 +25279,7 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C538, " ", "_")), "] ", LOWER(SUBSTITUTE(E538, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[theodred's_guard] rider_of_rohan</v>
       </c>
       <c r="B538" s="9" t="s">
@@ -25240,7 +25312,7 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C539, " ", "_")), "] ", LOWER(SUBSTITUTE(E539, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[theodred's_guard] rohan_royal_guard</v>
       </c>
       <c r="B539" s="9" t="s">
@@ -25273,7 +25345,7 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C540, " ", "_")), "] ", LOWER(SUBSTITUTE(E540, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[theodred's_guard] rohan_outrider</v>
       </c>
       <c r="B540" s="9" t="s">
@@ -25306,7 +25378,7 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541" s="10" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C541, " ", "_")), "] ", LOWER(SUBSTITUTE(E541, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[theodred's_guard] warrior_of_rohan</v>
       </c>
       <c r="B541" s="9" t="s">
@@ -25339,7 +25411,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C542, " ", "_")), "] ", LOWER(SUBSTITUTE(E542, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[variags_of_khand] khandish_chieftain</v>
       </c>
       <c r="B542" s="9" t="s">
@@ -25372,7 +25444,7 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C543, " ", "_")), "] ", LOWER(SUBSTITUTE(E543, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[variags_of_khand] khandish_king</v>
       </c>
       <c r="B543" s="9" t="s">
@@ -25405,7 +25477,7 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C544, " ", "_")), "] ", LOWER(SUBSTITUTE(E544, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[variags_of_khand] khandish_charioteer</v>
       </c>
       <c r="B544" s="9" t="s">
@@ -25438,7 +25510,7 @@
     </row>
     <row r="545" spans="1:10">
       <c r="A545" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C545, " ", "_")), "] ", LOWER(SUBSTITUTE(E545, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[variags_of_khand] khandish_horseman</v>
       </c>
       <c r="B545" s="9" t="s">
@@ -25471,7 +25543,7 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546" s="8" t="str">
-        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C546, " ", "_")), "] ", LOWER(SUBSTITUTE(E546, " ", "_")))</f>
+        <f t="shared" si="14"/>
         <v>[variags_of_khand] khandish_warrior</v>
       </c>
       <c r="B546" s="9" t="s">
@@ -25600,14 +25672,272 @@
         <v>0</v>
       </c>
     </row>
+    <row r="550" spans="1:10">
+      <c r="A550" s="8" t="str">
+        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C550, " ", "_")), "] ", LOWER(SUBSTITUTE(E550, " ", "_")))</f>
+        <v>[the_black_gate_opens] mordor_troll_chieftan</v>
+      </c>
+      <c r="B550" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C550" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D550" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E550" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F550" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G550" s="9">
+        <v>140</v>
+      </c>
+      <c r="H550" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I550" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J550" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10">
+      <c r="A551" s="8" t="str">
+        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C551, " ", "_")), "] ", LOWER(SUBSTITUTE(E551, " ", "_")))</f>
+        <v>[the_black_gate_opens] morannon_orc_captain</v>
+      </c>
+      <c r="B551" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C551" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D551" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E551" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F551" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" s="9">
+        <v>50</v>
+      </c>
+      <c r="H551" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I551" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J551" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10">
+      <c r="A552" s="8" t="str">
+        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C552, " ", "_")), "] ", LOWER(SUBSTITUTE(E552, " ", "_")))</f>
+        <v>[the_black_gate_opens] orc_captain</v>
+      </c>
+      <c r="B552" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C552" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D552" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E552" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F552" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G552" s="9">
+        <v>40</v>
+      </c>
+      <c r="H552" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I552" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J552" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10">
+      <c r="A553" s="8" t="str">
+        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C553, " ", "_")), "] ", LOWER(SUBSTITUTE(E553, " ", "_")))</f>
+        <v>[the_black_gate_opens] mouth_of_sauron</v>
+      </c>
+      <c r="B553" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C553" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D553" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E553" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F553" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G553" s="9">
+        <v>70</v>
+      </c>
+      <c r="H553" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I553" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J553" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10">
+      <c r="A554" s="8" t="str">
+        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C554, " ", "_")), "] ", LOWER(SUBSTITUTE(E554, " ", "_")))</f>
+        <v>[the_black_gate_opens] mordor_troll_chieftan_(leader)</v>
+      </c>
+      <c r="B554" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C554" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D554" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E554" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F554" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G554" s="9">
+        <v>140</v>
+      </c>
+      <c r="H554" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I554" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J554" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10">
+      <c r="A555" s="8" t="str">
+        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C555, " ", "_")), "] ", LOWER(SUBSTITUTE(E555, " ", "_")))</f>
+        <v>[the_black_gate_opens] mordor_troll</v>
+      </c>
+      <c r="B555" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C555" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D555" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E555" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F555" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G555" s="9">
+        <v>100</v>
+      </c>
+      <c r="H555" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I555" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J555" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10">
+      <c r="A556" s="8" t="str">
+        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C556, " ", "_")), "] ", LOWER(SUBSTITUTE(E556, " ", "_")))</f>
+        <v>[the_black_gate_opens] morannon_orc</v>
+      </c>
+      <c r="B556" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C556" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D556" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E556" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F556" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G556" s="9">
+        <v>7</v>
+      </c>
+      <c r="H556" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I556" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J556" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10">
+      <c r="A557" s="8" t="str">
+        <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C557, " ", "_")), "] ", LOWER(SUBSTITUTE(E557, " ", "_")))</f>
+        <v>[the_black_gate_opens] orc_warrior</v>
+      </c>
+      <c r="B557" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C557" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D557" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E557" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F557" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G557" s="9">
+        <v>5</v>
+      </c>
+      <c r="H557" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I557" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J557" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J549" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J549">
-      <sortCondition ref="C2:C549"/>
-      <sortCondition ref="F2:F549"/>
-      <sortCondition descending="1" ref="G2:G549"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J557" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J517">
     <sortCondition ref="C2:C517"/>
     <sortCondition ref="F2:F517"/>
@@ -25620,11 +25950,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <dimension ref="A1:G913"/>
+  <dimension ref="A1:G928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A883" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B909" sqref="B909"/>
+      <pane ySplit="1" topLeftCell="A899" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A911" sqref="A911:A928"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -45453,6 +45783,327 @@
         <v>0</v>
       </c>
       <c r="G913" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7">
+      <c r="A914" s="12" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B914" s="9" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C914" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D914" s="9">
+        <v>25</v>
+      </c>
+      <c r="E914" s="9"/>
+      <c r="F914" s="9">
+        <v>0</v>
+      </c>
+      <c r="G914" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7">
+      <c r="A915" s="12" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B915" s="9" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C915" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D915" s="9">
+        <v>1</v>
+      </c>
+      <c r="E915" s="9"/>
+      <c r="F915" s="9">
+        <v>0</v>
+      </c>
+      <c r="G915" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7">
+      <c r="A916" s="12" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B916" s="9" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C916" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D916" s="9">
+        <v>1</v>
+      </c>
+      <c r="E916" s="9"/>
+      <c r="F916" s="9">
+        <v>0</v>
+      </c>
+      <c r="G916" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7">
+      <c r="A917" s="12" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B917" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C917" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D917" s="9">
+        <v>5</v>
+      </c>
+      <c r="E917" s="9"/>
+      <c r="F917" s="9">
+        <v>0</v>
+      </c>
+      <c r="G917" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7">
+      <c r="A918" s="12" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B918" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C918" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D918" s="9">
+        <v>5</v>
+      </c>
+      <c r="E918" s="9"/>
+      <c r="F918" s="9">
+        <v>0</v>
+      </c>
+      <c r="G918" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7">
+      <c r="A919" s="12" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B919" s="9" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C919" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D919" s="9">
+        <v>30</v>
+      </c>
+      <c r="E919" s="9"/>
+      <c r="F919" s="9">
+        <v>0</v>
+      </c>
+      <c r="G919" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7">
+      <c r="A920" s="12" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B920" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C920" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D920" s="9">
+        <v>15</v>
+      </c>
+      <c r="E920" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F920" s="9">
+        <v>0</v>
+      </c>
+      <c r="G920" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7">
+      <c r="A921" s="12" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B921" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C921" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D921" s="9">
+        <v>10</v>
+      </c>
+      <c r="E921" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F921" s="9">
+        <v>0</v>
+      </c>
+      <c r="G921" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7">
+      <c r="A922" s="12" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B922" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C922" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D922" s="9">
+        <v>5</v>
+      </c>
+      <c r="E922" s="9"/>
+      <c r="F922" s="9">
+        <v>0</v>
+      </c>
+      <c r="G922" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7">
+      <c r="A923" s="12" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B923" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C923" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D923" s="9">
+        <v>5</v>
+      </c>
+      <c r="E923" s="9"/>
+      <c r="F923" s="9">
+        <v>0</v>
+      </c>
+      <c r="G923" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7">
+      <c r="A924" s="12" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B924" s="9" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C924" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D924" s="9">
+        <v>25</v>
+      </c>
+      <c r="E924" s="9"/>
+      <c r="F924" s="9">
+        <v>0</v>
+      </c>
+      <c r="G924" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7">
+      <c r="A925" s="12" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B925" s="9" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C925" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D925" s="9">
+        <v>1</v>
+      </c>
+      <c r="E925" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F925" s="9">
+        <v>0</v>
+      </c>
+      <c r="G925" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7">
+      <c r="A926" s="12" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B926" s="9" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C926" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D926" s="9">
+        <v>1</v>
+      </c>
+      <c r="E926" s="9"/>
+      <c r="F926" s="9">
+        <v>0</v>
+      </c>
+      <c r="G926" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7">
+      <c r="A927" s="12" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B927" s="9" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C927" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D927" s="9">
+        <v>1</v>
+      </c>
+      <c r="E927" s="9"/>
+      <c r="F927" s="9">
+        <v>0</v>
+      </c>
+      <c r="G927" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7">
+      <c r="A928" s="12" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B928" s="9" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C928" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D928" s="9">
+        <v>1</v>
+      </c>
+      <c r="E928" s="9"/>
+      <c r="F928" s="9">
+        <v>0</v>
+      </c>
+      <c r="G928" s="9">
         <v>1</v>
       </c>
     </row>
@@ -46706,11 +47357,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
-  <dimension ref="A1:C373"/>
+  <dimension ref="A1:C378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B366" sqref="B366"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -50823,6 +51474,61 @@
         <v>862</v>
       </c>
     </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="8" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C374" s="20" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="8" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C375" s="20" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="8" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C376" s="20" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="8" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C377" s="20" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="8" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C378" s="20" t="s">
+        <v>862</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C262" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50831,10 +51537,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -51308,6 +52014,20 @@
         <v>2255</v>
       </c>
     </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/mesbg_data.xlsx
+++ b/src/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395EBD19-5DA9-4B96-83D1-6553D74A97EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5058FE8C-DD04-4F84-9D06-BE764ABDA9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -9107,12 +9107,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K625"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D630" sqref="D630"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J501" sqref="J501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9162,7 +9161,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10">
       <c r="A2" s="8" t="str">
         <f t="shared" ref="A2:A33" si="0">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C2, " ", "_")), "] ", LOWER(SUBSTITUTE(E2, " ", "_")))</f>
         <v>[angmar] shade</v>
@@ -9195,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] wild_warg_chieftain</v>
@@ -9228,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] barrow-wight</v>
@@ -9261,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_captain</v>
@@ -9294,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] golfimbul</v>
@@ -9327,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] witch_king</v>
@@ -9360,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] gulavhar</v>
@@ -9393,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_dwimmerlaik</v>
@@ -9426,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] the_tainted</v>
@@ -9459,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] buhrdur</v>
@@ -9492,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_shaman</v>
@@ -9525,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] cave_troll</v>
@@ -9558,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] dead_marsh_spectre</v>
@@ -9591,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_warg_rider</v>
@@ -9624,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] wild_warg</v>
@@ -9657,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[angmar] angmar_orc_warrior</v>
@@ -9690,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>[army_of_dunland] gorulf_ironskin</v>
@@ -9723,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>[army_of_dunland] frida_tallspear</v>
@@ -9756,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>[army_of_dunland] dunlending_chieftain</v>
@@ -9789,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>[army_of_dunland] wild_man_oathmaker</v>
@@ -9822,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10">
       <c r="A22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>[army_of_dunland] thrydan_wolfsbane</v>
@@ -9855,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>[army_of_dunland] crebain</v>
@@ -9888,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>[army_of_dunland] dunlending_horseman</v>
@@ -9921,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>[army_of_dunland] dunlending_huscarl</v>
@@ -9954,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>[army_of_dunland] dunlending_warrior</v>
@@ -9987,7 +9986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>[army_of_dunland] wild_man_of_dunland</v>
@@ -10020,7 +10019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[arnor] malbeth_the_seer</v>
@@ -10053,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[arnor] captain_of_arnor</v>
@@ -10086,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[arnor] arvedui,_last_king_of_arnor</v>
@@ -10119,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[arnor] warrior_of_arnor</v>
@@ -10152,7 +10151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>[arnor] hobbit_archer</v>
@@ -10185,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>[assault_upon_helm's_deep] uruk-hai_shaman</v>
@@ -10218,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="10" t="str">
         <f t="shared" ref="A34:A65" si="1">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C34, " ", "_")), "] ", LOWER(SUBSTITUTE(E34, " ", "_")))</f>
         <v>[assault_upon_helm's_deep] uruk-hai_captain</v>
@@ -10251,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[assault_upon_helm's_deep] isengard_assault_ballista</v>
@@ -10284,7 +10283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[assault_upon_helm's_deep] isengard_troll</v>
@@ -10317,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[assault_upon_helm's_deep] uruk-hai_demolition_team</v>
@@ -10350,7 +10349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[assault_upon_helm's_deep] uruk-hai_berserker</v>
@@ -10383,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[assault_upon_helm's_deep] uruk-hai_warrior</v>
@@ -10416,7 +10415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] mordor_troll_chieftain</v>
@@ -10449,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] black_numenorean_marshall</v>
@@ -10482,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] ringwraith</v>
@@ -10515,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] orc_taskmaster</v>
@@ -10548,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] orc_captain</v>
@@ -10581,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] sauron</v>
@@ -10614,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] witch_king</v>
@@ -10647,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] shelob</v>
@@ -10680,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] orc_drummer</v>
@@ -10713,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] orc_shaman</v>
@@ -10746,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] mordor_war_catapult</v>
@@ -10779,7 +10778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] mordor_siege_bow</v>
@@ -10812,7 +10811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] mordor_troll</v>
@@ -10845,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] morgul_knight</v>
@@ -10878,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] warg_rider</v>
@@ -10911,7 +10910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] black_numenorean</v>
@@ -10944,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] orc_tracker</v>
@@ -10977,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[barad-dur] orc_warrior</v>
@@ -11010,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="A58" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] frodo_baggins</v>
@@ -11043,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] samwise_gamgee</v>
@@ -11076,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] aragorn,_strider</v>
@@ -11109,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] legolas</v>
@@ -11142,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] gimli</v>
@@ -11175,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="A63" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] boromir_of_gondor</v>
@@ -11208,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10">
       <c r="A64" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] meriadoc_brandybuck</v>
@@ -11241,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10">
       <c r="A65" s="10" t="str">
         <f t="shared" si="1"/>
         <v>[breaking_of_the_fellowship] peregrin_took</v>
@@ -11274,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="10" t="str">
         <f t="shared" ref="A66:A97" si="2">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C66, " ", "_")), "] ", LOWER(SUBSTITUTE(E66, " ", "_")))</f>
         <v>[cirith_ungol] shagrat</v>
@@ -11307,7 +11306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10">
       <c r="A67" s="10" t="str">
         <f t="shared" si="2"/>
         <v>[cirith_ungol] gorbag</v>
@@ -11340,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10">
       <c r="A68" s="10" t="str">
         <f t="shared" si="2"/>
         <v>[cirith_ungol] mordor_uruk-hai_captain</v>
@@ -11373,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10">
       <c r="A69" s="10" t="str">
         <f t="shared" si="2"/>
         <v>[cirith_ungol] orc_captain</v>
@@ -11406,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10">
       <c r="A70" s="10" t="str">
         <f t="shared" si="2"/>
         <v>[cirith_ungol] shelob</v>
@@ -11439,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10">
       <c r="A71" s="10" t="str">
         <f t="shared" si="2"/>
         <v>[cirith_ungol] orc_shaman</v>
@@ -11472,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10">
       <c r="A72" s="10" t="str">
         <f t="shared" si="2"/>
         <v>[cirith_ungol] mordor_uruk-hai</v>
@@ -11505,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10">
       <c r="A73" s="10" t="str">
         <f t="shared" si="2"/>
         <v>[cirith_ungol] orc_warrior</v>
@@ -11538,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10">
       <c r="A74" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[corsairs_of_umbar] black_numenorean_marshall</v>
@@ -11571,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10">
       <c r="A75" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[corsairs_of_umbar] corsair_captain</v>
@@ -11604,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10">
       <c r="A76" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[corsairs_of_umbar] corsair_bo'sun</v>
@@ -11637,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10">
       <c r="A77" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[corsairs_of_umbar] dalamyr,_fleetmaster_of_umbar</v>
@@ -11670,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10">
       <c r="A78" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[corsairs_of_umbar] the_knight_of_umbar</v>
@@ -11703,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10">
       <c r="A79" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[corsairs_of_umbar] hasharin</v>
@@ -11736,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10">
       <c r="A80" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[corsairs_of_umbar] delgamar,_gatemaster_of_umbar</v>
@@ -11769,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1">
+    <row r="81" spans="1:10">
       <c r="A81" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[corsairs_of_umbar] corsair_arbalester</v>
@@ -11802,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10">
       <c r="A82" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[corsairs_of_umbar] corsair_reaver</v>
@@ -11835,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10">
       <c r="A83" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[corsairs_of_umbar] black_numenorean</v>
@@ -11868,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10">
       <c r="A84" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[corsairs_of_umbar] corsair_of_umbar</v>
@@ -11901,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10">
       <c r="A85" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] haldir</v>
@@ -11934,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10">
       <c r="A86" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] galadhrim_captain</v>
@@ -11967,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1">
+    <row r="87" spans="1:10">
       <c r="A87" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] gamling</v>
@@ -12000,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10">
       <c r="A88" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] captain_of_rohan</v>
@@ -12033,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10">
       <c r="A89" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] theoden</v>
@@ -12066,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10">
       <c r="A90" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] aragorn,_strider</v>
@@ -12099,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10">
       <c r="A91" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] legolas</v>
@@ -12132,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10">
       <c r="A92" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] gimli</v>
@@ -12165,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10">
       <c r="A93" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] haleth</v>
@@ -12198,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10">
       <c r="A94" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] aldor</v>
@@ -12231,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1">
+    <row r="95" spans="1:10">
       <c r="A95" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] king's_huntsman</v>
@@ -12264,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10">
       <c r="A96" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] rohan_royal_guard</v>
@@ -12297,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10">
       <c r="A97" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[defenders_of_helm's_deep] galadhrim_warrior</v>
@@ -12330,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10">
       <c r="A98" s="8" t="str">
         <f t="shared" ref="A98:A115" si="3">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C98, " ", "_")), "] ", LOWER(SUBSTITUTE(E98, " ", "_")))</f>
         <v>[defenders_of_helm's_deep] warrior_of_rohan</v>
@@ -12363,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10">
       <c r="A99" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] frodo_of_the_nine_fingers</v>
@@ -12396,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1">
+    <row r="100" spans="1:10">
       <c r="A100" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] farmer_maggot</v>
@@ -12429,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10">
       <c r="A101" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] samwise_the_brave</v>
@@ -12462,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10">
       <c r="A102" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] baldo_tulpenny</v>
@@ -12495,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1">
+    <row r="103" spans="1:10">
       <c r="A103" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] farmer_tolman_cotton</v>
@@ -12528,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1">
+    <row r="104" spans="1:10">
       <c r="A104" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] hamfast_'gaffer'_gamgee</v>
@@ -12561,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1">
+    <row r="105" spans="1:10">
       <c r="A105" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] holfoot_bracegirdle</v>
@@ -12594,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1">
+    <row r="106" spans="1:10">
       <c r="A106" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] will_whitfoot</v>
@@ -12627,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1">
+    <row r="107" spans="1:10">
       <c r="A107" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] paladin_took</v>
@@ -12660,7 +12659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1">
+    <row r="108" spans="1:10">
       <c r="A108" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] robin_smallburrow</v>
@@ -12693,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1">
+    <row r="109" spans="1:10">
       <c r="A109" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] meriadoc,_captain_of_the_shire</v>
@@ -12726,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1">
+    <row r="110" spans="1:10">
       <c r="A110" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] peregrin,_captain_of_the_shire</v>
@@ -12759,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1">
+    <row r="111" spans="1:10">
       <c r="A111" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] rosie_cotton</v>
@@ -12792,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1">
+    <row r="112" spans="1:10">
       <c r="A112" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] grip,_fang_and_wolf</v>
@@ -12825,7 +12824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1">
+    <row r="113" spans="1:10">
       <c r="A113" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] folco_boffin</v>
@@ -12858,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1">
+    <row r="114" spans="1:10">
       <c r="A114" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] lobelia_sackville-baggins</v>
@@ -12891,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1">
+    <row r="115" spans="1:10">
       <c r="A115" s="10" t="str">
         <f t="shared" si="3"/>
         <v>[defenders_of_the_shire] fredegar_bolger</v>
@@ -12924,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1">
+    <row r="116" spans="1:10">
       <c r="A116" s="10" t="s">
         <v>2098</v>
       </c>
@@ -12956,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1">
+    <row r="117" spans="1:10">
       <c r="A117" s="10" t="str">
         <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C117, " ", "_")), "] ", LOWER(SUBSTITUTE(E117, " ", "_")))</f>
         <v>[defenders_of_the_shire] hobbit_archer</v>
@@ -12989,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1">
+    <row r="118" spans="1:10">
       <c r="A118" s="10" t="str">
         <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C118, " ", "_")), "] ", LOWER(SUBSTITUTE(E118, " ", "_")))</f>
         <v>[defenders_of_the_shire] hobbit_shirriff</v>
@@ -13022,7 +13021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1">
+    <row r="119" spans="1:10">
       <c r="A119" s="10" t="s">
         <v>2097</v>
       </c>
@@ -13054,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1">
+    <row r="120" spans="1:10">
       <c r="A120" s="10" t="str">
         <f t="shared" ref="A120:A183" si="4">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C120, " ", "_")), "] ", LOWER(SUBSTITUTE(E120, " ", "_")))</f>
         <v>[defenders_of_the_shire] hobbit_militia</v>
@@ -13087,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1">
+    <row r="121" spans="1:10">
       <c r="A121" s="10" t="str">
         <f t="shared" si="4"/>
         <v>[depths_of_moria] moria_blackshield_captain</v>
@@ -13120,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1">
+    <row r="122" spans="1:10">
       <c r="A122" s="10" t="str">
         <f t="shared" si="4"/>
         <v>[depths_of_moria] moria_goblin_captain</v>
@@ -13153,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1">
+    <row r="123" spans="1:10">
       <c r="A123" s="10" t="str">
         <f t="shared" si="4"/>
         <v>[depths_of_moria] the_balrog</v>
@@ -13186,7 +13185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1">
+    <row r="124" spans="1:10">
       <c r="A124" s="10" t="str">
         <f t="shared" si="4"/>
         <v>[depths_of_moria] moria_blackshield_shaman</v>
@@ -13219,7 +13218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1">
+    <row r="125" spans="1:10">
       <c r="A125" s="10" t="str">
         <f t="shared" si="4"/>
         <v>[depths_of_moria] moria_goblin_shaman</v>
@@ -13252,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1">
+    <row r="126" spans="1:10">
       <c r="A126" s="10" t="str">
         <f t="shared" si="4"/>
         <v>[depths_of_moria] moria_blackshield_drummers</v>
@@ -13285,7 +13284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1">
+    <row r="127" spans="1:10">
       <c r="A127" s="10" t="str">
         <f t="shared" si="4"/>
         <v>[depths_of_moria] moria_goblin_drum</v>
@@ -13318,7 +13317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1">
+    <row r="128" spans="1:10">
       <c r="A128" s="10" t="str">
         <f t="shared" si="4"/>
         <v>[depths_of_moria] cave_troll</v>
@@ -13351,7 +13350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1">
+    <row r="129" spans="1:10">
       <c r="A129" s="10" t="str">
         <f t="shared" si="4"/>
         <v>[depths_of_moria] moria_blackshield</v>
@@ -13384,7 +13383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1">
+    <row r="130" spans="1:10">
       <c r="A130" s="10" t="str">
         <f t="shared" si="4"/>
         <v>[depths_of_moria] moria_goblin_prowler</v>
@@ -13417,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1">
+    <row r="131" spans="1:10">
       <c r="A131" s="10" t="str">
         <f t="shared" si="4"/>
         <v>[depths_of_moria] moria_goblin_warrior</v>
@@ -13450,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1">
+    <row r="132" spans="1:10">
       <c r="A132" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[fangorn] beechbone</v>
@@ -13483,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1">
+    <row r="133" spans="1:10">
       <c r="A133" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[fangorn] quickbeam</v>
@@ -13516,7 +13515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1">
+    <row r="134" spans="1:10">
       <c r="A134" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[fangorn] treebeard</v>
@@ -13549,7 +13548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1">
+    <row r="135" spans="1:10">
       <c r="A135" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[fangorn] ent</v>
@@ -13582,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1">
+    <row r="136" spans="1:10">
       <c r="A136" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[far_harad] war_mumak_of_far_harad</v>
@@ -13615,7 +13614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1">
+    <row r="137" spans="1:10">
       <c r="A137" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[far_harad] mahud_king</v>
@@ -13648,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1">
+    <row r="138" spans="1:10">
       <c r="A138" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[far_harad] mahud_tribesmaster</v>
@@ -13681,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1">
+    <row r="139" spans="1:10">
       <c r="A139" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[far_harad] the_mumak_war_leader</v>
@@ -13714,7 +13713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1">
+    <row r="140" spans="1:10">
       <c r="A140" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[far_harad] half_troll</v>
@@ -13747,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1">
+    <row r="141" spans="1:10">
       <c r="A141" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[far_harad] mahud_raider</v>
@@ -13780,7 +13779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1">
+    <row r="142" spans="1:10">
       <c r="A142" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[far_harad] mahud_warrior</v>
@@ -13813,7 +13812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1">
+    <row r="143" spans="1:10">
       <c r="A143" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] war_mumak_of_far_harad</v>
@@ -13846,7 +13845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1">
+    <row r="144" spans="1:10">
       <c r="A144" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] war_mumak_of_harad</v>
@@ -13879,7 +13878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1">
+    <row r="145" spans="1:10">
       <c r="A145" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] hasharin</v>
@@ -13912,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1">
+    <row r="146" spans="1:10">
       <c r="A146" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] raza,_fang_of_the_serpent</v>
@@ -13945,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1">
+    <row r="147" spans="1:10">
       <c r="A147" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] mahud_king</v>
@@ -13978,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1">
+    <row r="148" spans="1:10">
       <c r="A148" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] haradrim_king</v>
@@ -14011,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1">
+    <row r="149" spans="1:10">
       <c r="A149" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] mahud_tribesmaster</v>
@@ -14044,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1">
+    <row r="150" spans="1:10">
       <c r="A150" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] haradrim_chieftain</v>
@@ -14077,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1">
+    <row r="151" spans="1:10">
       <c r="A151" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] haradrim_taskmaster</v>
@@ -14110,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1">
+    <row r="152" spans="1:10">
       <c r="A152" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] the_mumak_war_leader</v>
@@ -14143,7 +14142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1">
+    <row r="153" spans="1:10">
       <c r="A153" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] suladan</v>
@@ -14176,7 +14175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1">
+    <row r="154" spans="1:10">
       <c r="A154" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] half_troll</v>
@@ -14209,7 +14208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1">
+    <row r="155" spans="1:10">
       <c r="A155" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] mahud_raider</v>
@@ -14242,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1">
+    <row r="156" spans="1:10">
       <c r="A156" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] serpent_rider</v>
@@ -14275,7 +14274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1">
+    <row r="157" spans="1:10">
       <c r="A157" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] haradrim_raider</v>
@@ -14308,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1">
+    <row r="158" spans="1:10">
       <c r="A158" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] mahud_warrior</v>
@@ -14341,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1">
+    <row r="159" spans="1:10">
       <c r="A159" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] serpent_guard</v>
@@ -14374,7 +14373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1">
+    <row r="160" spans="1:10">
       <c r="A160" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[grand_army_of_the_south] haradrim_warrior</v>
@@ -14407,7 +14406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1">
+    <row r="161" spans="1:10">
       <c r="A161" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[halls_of_thranduil] thranduil</v>
@@ -14440,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1">
+    <row r="162" spans="1:10">
       <c r="A162" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[helm's_guard] captain_of_rohan</v>
@@ -14473,7 +14472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1">
+    <row r="163" spans="1:10">
       <c r="A163" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[helm's_guard] helm_hammerhand</v>
@@ -14506,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1">
+    <row r="164" spans="1:10">
       <c r="A164" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[helm's_guard] king's_huntsman</v>
@@ -14539,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1">
+    <row r="165" spans="1:10">
       <c r="A165" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[helm's_guard] rider_of_rohan</v>
@@ -14572,7 +14571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1">
+    <row r="166" spans="1:10">
       <c r="A166" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[helm's_guard] rohan_royal_guard</v>
@@ -14605,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1">
+    <row r="167" spans="1:10">
       <c r="A167" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[helm's_guard] rohan_outrider</v>
@@ -14638,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1">
+    <row r="168" spans="1:10">
       <c r="A168" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[helm's_guard] warrior_of_rohan</v>
@@ -14671,7 +14670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1">
+    <row r="169" spans="1:10">
       <c r="A169" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] thrydan_wolfsbane</v>
@@ -14704,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1">
+    <row r="170" spans="1:10">
       <c r="A170" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] gorulf_ironskin</v>
@@ -14737,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1">
+    <row r="171" spans="1:10">
       <c r="A171" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] ugluk</v>
@@ -14770,7 +14769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1">
+    <row r="172" spans="1:10">
       <c r="A172" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] vrasku</v>
@@ -14803,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1">
+    <row r="173" spans="1:10">
       <c r="A173" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] frida_tallspear</v>
@@ -14836,7 +14835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1">
+    <row r="174" spans="1:10">
       <c r="A174" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] mauhur</v>
@@ -14869,7 +14868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1">
+    <row r="175" spans="1:10">
       <c r="A175" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] uruk-hai_captain</v>
@@ -14902,7 +14901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1">
+    <row r="176" spans="1:10">
       <c r="A176" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] uruk-hai_scout_captain</v>
@@ -14935,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1">
+    <row r="177" spans="1:10">
       <c r="A177" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] dunlending_chieftain</v>
@@ -14968,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1">
+    <row r="178" spans="1:10">
       <c r="A178" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] wild_man_oathmaker</v>
@@ -15001,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1">
+    <row r="179" spans="1:10">
       <c r="A179" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] sharku</v>
@@ -15034,7 +15033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1">
+    <row r="180" spans="1:10">
       <c r="A180" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] snaga</v>
@@ -15067,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1">
+    <row r="181" spans="1:10">
       <c r="A181" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] orc_captain</v>
@@ -15100,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1">
+    <row r="182" spans="1:10">
       <c r="A182" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] saruman</v>
@@ -15133,7 +15132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1">
+    <row r="183" spans="1:10">
       <c r="A183" s="8" t="str">
         <f t="shared" si="4"/>
         <v>[isengard] lurtz</v>
@@ -15166,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1">
+    <row r="184" spans="1:10">
       <c r="A184" s="8" t="str">
         <f t="shared" ref="A184:A247" si="5">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C184, " ", "_")), "] ", LOWER(SUBSTITUTE(E184, " ", "_")))</f>
         <v>[isengard] uruk-hai_drummer</v>
@@ -15199,7 +15198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1">
+    <row r="185" spans="1:10">
       <c r="A185" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] grima</v>
@@ -15232,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1">
+    <row r="186" spans="1:10">
       <c r="A186" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] uruk-hai_shaman</v>
@@ -15265,7 +15264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1">
+    <row r="187" spans="1:10">
       <c r="A187" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] isengard_assault_ballista</v>
@@ -15298,7 +15297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1">
+    <row r="188" spans="1:10">
       <c r="A188" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] isengard_troll</v>
@@ -15331,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1">
+    <row r="189" spans="1:10">
       <c r="A189" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] uruk-hai_demolition_team</v>
@@ -15364,7 +15363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1">
+    <row r="190" spans="1:10">
       <c r="A190" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] crebain</v>
@@ -15397,7 +15396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1">
+    <row r="191" spans="1:10">
       <c r="A191" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] uruk-hai_berserker</v>
@@ -15430,7 +15429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1">
+    <row r="192" spans="1:10">
       <c r="A192" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] feral_uruk-hai</v>
@@ -15463,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1">
+    <row r="193" spans="1:10">
       <c r="A193" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] dunlending_horseman</v>
@@ -15496,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1">
+    <row r="194" spans="1:10">
       <c r="A194" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] dunlending_huscarl</v>
@@ -15529,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1">
+    <row r="195" spans="1:10">
       <c r="A195" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] warg_rider</v>
@@ -15562,7 +15561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1">
+    <row r="196" spans="1:10">
       <c r="A196" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] uruk-hai_warrior</v>
@@ -15595,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1">
+    <row r="197" spans="1:10">
       <c r="A197" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] uruk-hai_scout</v>
@@ -15628,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1">
+    <row r="198" spans="1:10">
       <c r="A198" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] dunlending_warrior</v>
@@ -15661,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1">
+    <row r="199" spans="1:10">
       <c r="A199" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] wild_man_of_dunland</v>
@@ -15694,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1">
+    <row r="200" spans="1:10">
       <c r="A200" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[isengard] orc_warrior</v>
@@ -15727,7 +15726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1">
+    <row r="201" spans="1:10">
       <c r="A201" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] orophin</v>
@@ -15760,7 +15759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1">
+    <row r="202" spans="1:10">
       <c r="A202" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] rumil</v>
@@ -15793,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1">
+    <row r="203" spans="1:10">
       <c r="A203" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] galadhrim_captain</v>
@@ -15826,7 +15825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1">
+    <row r="204" spans="1:10">
       <c r="A204" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] haldir</v>
@@ -15859,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1">
+    <row r="205" spans="1:10">
       <c r="A205" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] wood_elf_captain</v>
@@ -15892,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1">
+    <row r="206" spans="1:10">
       <c r="A206" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] galadriel</v>
@@ -15925,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1">
+    <row r="207" spans="1:10">
       <c r="A207" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] celeborn</v>
@@ -15958,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1">
+    <row r="208" spans="1:10">
       <c r="A208" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] galadhrim_stormcaller</v>
@@ -15991,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1">
+    <row r="209" spans="1:10">
       <c r="A209" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] wood_elf_sentinel</v>
@@ -16024,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1">
+    <row r="210" spans="1:10">
       <c r="A210" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] galadhrim_knight</v>
@@ -16057,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1">
+    <row r="211" spans="1:10">
       <c r="A211" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] guard_of_the_galadhrim_court</v>
@@ -16090,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1">
+    <row r="212" spans="1:10">
       <c r="A212" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] galadhrim_warrior</v>
@@ -16123,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1">
+    <row r="213" spans="1:10">
       <c r="A213" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[lothlorien] wood_elf_warrior</v>
@@ -16156,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1">
+    <row r="214" spans="1:10">
       <c r="A214" s="10" t="str">
         <f t="shared" si="5"/>
         <v>[lurtz's_scouts] ugluk</v>
@@ -16189,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1">
+    <row r="215" spans="1:10">
       <c r="A215" s="10" t="str">
         <f t="shared" si="5"/>
         <v>[lurtz's_scouts] mauhur</v>
@@ -16222,7 +16221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1">
+    <row r="216" spans="1:10">
       <c r="A216" s="10" t="str">
         <f t="shared" si="5"/>
         <v>[lurtz's_scouts] uruk-hai_scout_captain</v>
@@ -16255,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1">
+    <row r="217" spans="1:10">
       <c r="A217" s="10" t="str">
         <f t="shared" si="5"/>
         <v>[lurtz's_scouts] lurtz</v>
@@ -16288,7 +16287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1">
+    <row r="218" spans="1:10">
       <c r="A218" s="10" t="str">
         <f t="shared" si="5"/>
         <v>[lurtz's_scouts] uruk-hai_drummer</v>
@@ -16321,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1">
+    <row r="219" spans="1:10">
       <c r="A219" s="10" t="str">
         <f t="shared" si="5"/>
         <v>[lurtz's_scouts] uruk-hai_scout</v>
@@ -16354,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1">
+    <row r="220" spans="1:10">
       <c r="A220" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] ingold</v>
@@ -16387,7 +16386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1">
+    <row r="221" spans="1:10">
       <c r="A221" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] irolas</v>
@@ -16420,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1">
+    <row r="222" spans="1:10">
       <c r="A222" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] knight_of_the_white_tower</v>
@@ -16453,7 +16452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1">
+    <row r="223" spans="1:10">
       <c r="A223" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] king_of_men</v>
@@ -16486,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1">
+    <row r="224" spans="1:10">
       <c r="A224" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] cirion</v>
@@ -16519,7 +16518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1">
+    <row r="225" spans="1:11">
       <c r="A225" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] madril</v>
@@ -16552,7 +16551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1">
+    <row r="226" spans="1:11">
       <c r="A226" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] captain_of_minas_tirith</v>
@@ -16585,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1">
+    <row r="227" spans="1:11">
       <c r="A227" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] aragorn,_king_elessar</v>
@@ -16619,7 +16618,7 @@
       </c>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="1:11" hidden="1">
+    <row r="228" spans="1:11">
       <c r="A228" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] gandalf_the_white</v>
@@ -16652,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1">
+    <row r="229" spans="1:11">
       <c r="A229" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] boromir</v>
@@ -16685,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1">
+    <row r="230" spans="1:11">
       <c r="A230" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] faramir</v>
@@ -16719,7 +16718,7 @@
       </c>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="1:11" hidden="1">
+    <row r="231" spans="1:11">
       <c r="A231" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] hurin</v>
@@ -16752,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1">
+    <row r="232" spans="1:11">
       <c r="A232" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] denethor</v>
@@ -16785,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1">
+    <row r="233" spans="1:11">
       <c r="A233" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] peregrin_took</v>
@@ -16818,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1">
+    <row r="234" spans="1:11">
       <c r="A234" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] anborn</v>
@@ -16851,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1">
+    <row r="235" spans="1:11">
       <c r="A235" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] mablung</v>
@@ -16884,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1">
+    <row r="236" spans="1:11">
       <c r="A236" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] beregond</v>
@@ -16917,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1">
+    <row r="237" spans="1:11">
       <c r="A237" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] damrod</v>
@@ -16950,7 +16949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1">
+    <row r="238" spans="1:11">
       <c r="A238" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] gondor_battlecry_trebuchet</v>
@@ -16983,7 +16982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1">
+    <row r="239" spans="1:11">
       <c r="A239" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] avenger_bolt_thrower</v>
@@ -17016,7 +17015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1">
+    <row r="240" spans="1:11">
       <c r="A240" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] knight_of_minas_tirith</v>
@@ -17049,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1">
+    <row r="241" spans="1:10">
       <c r="A241" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] guard_of_the_fountain_court</v>
@@ -17082,7 +17081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1">
+    <row r="242" spans="1:10">
       <c r="A242" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] citadel_guard</v>
@@ -17115,7 +17114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1">
+    <row r="243" spans="1:10">
       <c r="A243" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] osgiliath_veteran</v>
@@ -17148,7 +17147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1">
+    <row r="244" spans="1:10">
       <c r="A244" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] ranger_of_gondor</v>
@@ -17181,7 +17180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1">
+    <row r="245" spans="1:10">
       <c r="A245" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[minas_tirith] warrior_of_minas_tirith</v>
@@ -17214,7 +17213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1">
+    <row r="246" spans="1:10">
       <c r="A246" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[mordor] great_beast_of_gorgoroth</v>
@@ -17247,7 +17246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1">
+    <row r="247" spans="1:10">
       <c r="A247" s="8" t="str">
         <f t="shared" si="5"/>
         <v>[mordor] mordor_troll_chieftain</v>
@@ -17280,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1">
+    <row r="248" spans="1:10">
       <c r="A248" s="8" t="str">
         <f t="shared" ref="A248:A311" si="6">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C248, " ", "_")), "] ", LOWER(SUBSTITUTE(E248, " ", "_")))</f>
         <v>[mordor] shagrat</v>
@@ -17313,7 +17312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1">
+    <row r="249" spans="1:10">
       <c r="A249" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] goroth</v>
@@ -17346,7 +17345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1">
+    <row r="250" spans="1:10">
       <c r="A250" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] muzgur</v>
@@ -17379,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1">
+    <row r="251" spans="1:10">
       <c r="A251" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] black_numenorean_marshall</v>
@@ -17412,7 +17411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1">
+    <row r="252" spans="1:10">
       <c r="A252" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] captain_of_the_black_guard</v>
@@ -17445,7 +17444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1">
+    <row r="253" spans="1:10">
       <c r="A253" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] guritz</v>
@@ -17478,7 +17477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1">
+    <row r="254" spans="1:10">
       <c r="A254" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] kardush</v>
@@ -17511,7 +17510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1">
+    <row r="255" spans="1:10">
       <c r="A255" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] gothmog's_enforcer</v>
@@ -17544,7 +17543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1">
+    <row r="256" spans="1:10">
       <c r="A256" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] zagdush</v>
@@ -17577,7 +17576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1">
+    <row r="257" spans="1:11">
       <c r="A257" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] gorbag</v>
@@ -17610,7 +17609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1">
+    <row r="258" spans="1:11">
       <c r="A258" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] mordor_uruk-hai_captain</v>
@@ -17643,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1">
+    <row r="259" spans="1:11">
       <c r="A259" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] ringwraith</v>
@@ -17676,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1">
+    <row r="260" spans="1:11">
       <c r="A260" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] grishnak</v>
@@ -17709,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1">
+    <row r="261" spans="1:11">
       <c r="A261" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] morannon_orc_captain</v>
@@ -17743,7 +17742,7 @@
       </c>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="1:11" hidden="1">
+    <row r="262" spans="1:11">
       <c r="A262" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] orc_taskmaster</v>
@@ -17776,7 +17775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1">
+    <row r="263" spans="1:11">
       <c r="A263" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] orc_captain</v>
@@ -17809,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1">
+    <row r="264" spans="1:11">
       <c r="A264" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] witch_king</v>
@@ -17842,7 +17841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1">
+    <row r="265" spans="1:11">
       <c r="A265" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] gothmog</v>
@@ -17875,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1">
+    <row r="266" spans="1:11">
       <c r="A266" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] khamul</v>
@@ -17908,7 +17907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1">
+    <row r="267" spans="1:11">
       <c r="A267" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] the_betrayer</v>
@@ -17941,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1">
+    <row r="268" spans="1:11">
       <c r="A268" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] the_dark_marshall</v>
@@ -17974,7 +17973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1">
+    <row r="269" spans="1:11">
       <c r="A269" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] the_knight_of_umbar</v>
@@ -18007,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1">
+    <row r="270" spans="1:11">
       <c r="A270" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] the_shadow_lord</v>
@@ -18040,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1">
+    <row r="271" spans="1:11">
       <c r="A271" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] the_undying</v>
@@ -18073,7 +18072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1">
+    <row r="272" spans="1:11">
       <c r="A272" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] the_dwimmerlaik</v>
@@ -18106,7 +18105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1">
+    <row r="273" spans="1:10">
       <c r="A273" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] the_tainted</v>
@@ -18139,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1">
+    <row r="274" spans="1:10">
       <c r="A274" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] razgush</v>
@@ -18172,7 +18171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1">
+    <row r="275" spans="1:10">
       <c r="A275" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] mouth_of_sauron</v>
@@ -18205,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1">
+    <row r="276" spans="1:10">
       <c r="A276" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] shelob</v>
@@ -18238,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1">
+    <row r="277" spans="1:10">
       <c r="A277" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] black_guard_drummer</v>
@@ -18271,7 +18270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1">
+    <row r="278" spans="1:10">
       <c r="A278" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] orc_drummer</v>
@@ -18304,7 +18303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1">
+    <row r="279" spans="1:10">
       <c r="A279" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] orc_shaman</v>
@@ -18337,7 +18336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1">
+    <row r="280" spans="1:10">
       <c r="A280" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] mordor_war_catapult</v>
@@ -18370,7 +18369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1">
+    <row r="281" spans="1:10">
       <c r="A281" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] mordor_siege_bow</v>
@@ -18403,7 +18402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1">
+    <row r="282" spans="1:10">
       <c r="A282" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] mordor_troll</v>
@@ -18436,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1">
+    <row r="283" spans="1:10">
       <c r="A283" s="10" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] giant_spider</v>
@@ -18469,7 +18468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1">
+    <row r="284" spans="1:10">
       <c r="A284" s="10" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] mirkwood_spider</v>
@@ -18502,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1">
+    <row r="285" spans="1:10">
       <c r="A285" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] morgul_knight</v>
@@ -18535,7 +18534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1">
+    <row r="286" spans="1:10">
       <c r="A286" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] black_guard_of_barad-dur</v>
@@ -18568,7 +18567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1">
+    <row r="287" spans="1:10">
       <c r="A287" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] warg_rider</v>
@@ -18601,7 +18600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1">
+    <row r="288" spans="1:10">
       <c r="A288" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] morgul_stalker</v>
@@ -18634,7 +18633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1">
+    <row r="289" spans="1:10">
       <c r="A289" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] black_numenorean</v>
@@ -18667,7 +18666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1">
+    <row r="290" spans="1:10">
       <c r="A290" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] mordor_uruk-hai</v>
@@ -18700,7 +18699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1">
+    <row r="291" spans="1:10">
       <c r="A291" s="10" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] fell_warg</v>
@@ -18733,7 +18732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1">
+    <row r="292" spans="1:10">
       <c r="A292" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] morannon_orc</v>
@@ -18766,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1">
+    <row r="293" spans="1:10">
       <c r="A293" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] orc_warrior</v>
@@ -18799,7 +18798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1">
+    <row r="294" spans="1:10">
       <c r="A294" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[mordor] orc_tracker</v>
@@ -18832,7 +18831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1">
+    <row r="295" spans="1:10">
       <c r="A295" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] druzhag</v>
@@ -18865,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1">
+    <row r="296" spans="1:10">
       <c r="A296" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] ashrak</v>
@@ -18898,7 +18897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1">
+    <row r="297" spans="1:10">
       <c r="A297" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] groblog</v>
@@ -18931,7 +18930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1">
+    <row r="298" spans="1:10">
       <c r="A298" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] moria_blackshield_captain</v>
@@ -18964,7 +18963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1">
+    <row r="299" spans="1:10">
       <c r="A299" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] moria_goblin_captain</v>
@@ -18997,7 +18996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1">
+    <row r="300" spans="1:10">
       <c r="A300" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] the_balrog</v>
@@ -19030,7 +19029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1">
+    <row r="301" spans="1:10">
       <c r="A301" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] dragon</v>
@@ -19063,7 +19062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1">
+    <row r="302" spans="1:10">
       <c r="A302" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] durburz</v>
@@ -19096,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1">
+    <row r="303" spans="1:10">
       <c r="A303" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] the_watcher_in_the_water</v>
@@ -19129,7 +19128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1">
+    <row r="304" spans="1:10">
       <c r="A304" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] cave_drake</v>
@@ -19162,7 +19161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1">
+    <row r="305" spans="1:10">
       <c r="A305" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] moria_blackshield_shaman</v>
@@ -19195,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1">
+    <row r="306" spans="1:10">
       <c r="A306" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] moria_goblin_shaman</v>
@@ -19228,7 +19227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1">
+    <row r="307" spans="1:10">
       <c r="A307" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] dweller_in_the_dark</v>
@@ -19261,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1">
+    <row r="308" spans="1:10">
       <c r="A308" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] moria_blackshield_drummers</v>
@@ -19294,7 +19293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1">
+    <row r="309" spans="1:10">
       <c r="A309" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] moria_goblin_drum</v>
@@ -19327,7 +19326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1">
+    <row r="310" spans="1:10">
       <c r="A310" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] cave_troll</v>
@@ -19360,7 +19359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1">
+    <row r="311" spans="1:10">
       <c r="A311" s="8" t="str">
         <f t="shared" si="6"/>
         <v>[moria] bat_swarm</v>
@@ -19393,7 +19392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1">
+    <row r="312" spans="1:10">
       <c r="A312" s="8" t="str">
         <f t="shared" ref="A312:A343" si="7">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C312, " ", "_")), "] ", LOWER(SUBSTITUTE(E312, " ", "_")))</f>
         <v>[moria] warg_marauder</v>
@@ -19426,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1">
+    <row r="313" spans="1:10">
       <c r="A313" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[moria] moria_blackshield</v>
@@ -19459,7 +19458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1">
+    <row r="314" spans="1:10">
       <c r="A314" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[moria] moria_goblin_prowler</v>
@@ -19492,7 +19491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1">
+    <row r="315" spans="1:10">
       <c r="A315" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[moria] wild_warg</v>
@@ -19525,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1">
+    <row r="316" spans="1:10">
       <c r="A316" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[moria] moria_goblin_warrior</v>
@@ -19558,7 +19557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1">
+    <row r="317" spans="1:10">
       <c r="A317" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[numenor] captain_of_numenor</v>
@@ -19591,7 +19590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1">
+    <row r="318" spans="1:10">
       <c r="A318" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[numenor] elendil</v>
@@ -19624,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1">
+    <row r="319" spans="1:10">
       <c r="A319" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[numenor] isildur</v>
@@ -19657,7 +19656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1">
+    <row r="320" spans="1:10">
       <c r="A320" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[numenor] warrior_of_numenor</v>
@@ -19690,7 +19689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1">
+    <row r="321" spans="1:10">
       <c r="A321" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] deorwine</v>
@@ -19723,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1">
+    <row r="322" spans="1:10">
       <c r="A322" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] elfhelm</v>
@@ -19756,7 +19755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1">
+    <row r="323" spans="1:10">
       <c r="A323" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] gamling</v>
@@ -19789,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1">
+    <row r="324" spans="1:10">
       <c r="A324" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] captain_of_rohan</v>
@@ -19822,7 +19821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1">
+    <row r="325" spans="1:10">
       <c r="A325" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] theoden</v>
@@ -19855,7 +19854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1">
+    <row r="326" spans="1:10">
       <c r="A326" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] eomer</v>
@@ -19888,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1">
+    <row r="327" spans="1:10">
       <c r="A327" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] ghan-buri-ghan</v>
@@ -19921,7 +19920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1">
+    <row r="328" spans="1:10">
       <c r="A328" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] dernhelm</v>
@@ -19954,7 +19953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1">
+    <row r="329" spans="1:10">
       <c r="A329" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] rohan_royal_guard</v>
@@ -19987,7 +19986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1">
+    <row r="330" spans="1:10">
       <c r="A330" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] rider_of_rohan</v>
@@ -20020,7 +20019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1">
+    <row r="331" spans="1:10">
       <c r="A331" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] rohan_outrider</v>
@@ -20053,7 +20052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1">
+    <row r="332" spans="1:10">
       <c r="A332" s="10" t="str">
         <f t="shared" si="7"/>
         <v>[paths_of_the_druadan] woses_warrior</v>
@@ -20086,7 +20085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1">
+    <row r="333" spans="1:10">
       <c r="A333" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] frodo_baggins</v>
@@ -20119,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1">
+    <row r="334" spans="1:10">
       <c r="A334" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] madril</v>
@@ -20152,7 +20151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1">
+    <row r="335" spans="1:10">
       <c r="A335" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] captain_of_minas_tirith</v>
@@ -20185,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1">
+    <row r="336" spans="1:10">
       <c r="A336" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] samwise_gamgee</v>
@@ -20218,7 +20217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1">
+    <row r="337" spans="1:10">
       <c r="A337" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] faramir</v>
@@ -20251,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1">
+    <row r="338" spans="1:10">
       <c r="A338" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] smeagol</v>
@@ -20284,7 +20283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1">
+    <row r="339" spans="1:10">
       <c r="A339" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] anborn</v>
@@ -20317,7 +20316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1">
+    <row r="340" spans="1:10">
       <c r="A340" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] mablung</v>
@@ -20350,7 +20349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1">
+    <row r="341" spans="1:10">
       <c r="A341" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] damrod</v>
@@ -20383,7 +20382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1">
+    <row r="342" spans="1:10">
       <c r="A342" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] osgiliath_veteran</v>
@@ -20416,7 +20415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1">
+    <row r="343" spans="1:10">
       <c r="A343" s="8" t="str">
         <f t="shared" si="7"/>
         <v>[rangers_of_ithilien] ranger_of_gondor</v>
@@ -20449,7 +20448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1">
+    <row r="344" spans="1:10">
       <c r="A344" s="9" t="s">
         <v>1668</v>
       </c>
@@ -20481,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1">
+    <row r="345" spans="1:10">
       <c r="A345" s="8" t="str">
         <f t="shared" ref="A345:A392" si="8">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C345, " ", "_")), "] ", LOWER(SUBSTITUTE(E345, " ", "_")))</f>
         <v>[rangers_of_ithilien] warrior_of_minas_tirith</v>
@@ -20514,7 +20513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1">
+    <row r="346" spans="1:10">
       <c r="A346" s="10" t="str">
         <f t="shared" si="8"/>
         <v>[riders_of_eomer] erkenbrand</v>
@@ -20547,7 +20546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1">
+    <row r="347" spans="1:10">
       <c r="A347" s="10" t="str">
         <f t="shared" si="8"/>
         <v>[riders_of_eomer] captain_of_rohan</v>
@@ -20580,7 +20579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1">
+    <row r="348" spans="1:10">
       <c r="A348" s="10" t="str">
         <f t="shared" si="8"/>
         <v>[riders_of_eomer] gandalf_the_white</v>
@@ -20613,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1">
+    <row r="349" spans="1:10">
       <c r="A349" s="10" t="str">
         <f t="shared" si="8"/>
         <v>[riders_of_eomer] eomer</v>
@@ -20646,7 +20645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1">
+    <row r="350" spans="1:10">
       <c r="A350" s="10" t="str">
         <f t="shared" si="8"/>
         <v>[riders_of_eomer] rider_of_rohan</v>
@@ -21174,7 +21173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1">
+    <row r="366" spans="1:10">
       <c r="A366" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] deorwine</v>
@@ -21207,7 +21206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1">
+    <row r="367" spans="1:10">
       <c r="A367" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] erkenbrand</v>
@@ -21240,7 +21239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1">
+    <row r="368" spans="1:10">
       <c r="A368" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] elfhelm</v>
@@ -21273,7 +21272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1">
+    <row r="369" spans="1:10">
       <c r="A369" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] grimbold</v>
@@ -21306,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1">
+    <row r="370" spans="1:10">
       <c r="A370" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] gamling</v>
@@ -21339,7 +21338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1">
+    <row r="371" spans="1:10">
       <c r="A371" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] hama</v>
@@ -21372,7 +21371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1">
+    <row r="372" spans="1:10">
       <c r="A372" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] captain_of_rohan</v>
@@ -21405,7 +21404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1">
+    <row r="373" spans="1:10">
       <c r="A373" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] helm_hammerhand</v>
@@ -21438,7 +21437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1">
+    <row r="374" spans="1:10">
       <c r="A374" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] theoden</v>
@@ -21471,7 +21470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1">
+    <row r="375" spans="1:10">
       <c r="A375" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] eorl_the_young</v>
@@ -21504,7 +21503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1">
+    <row r="376" spans="1:10">
       <c r="A376" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] eomer</v>
@@ -21537,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1">
+    <row r="377" spans="1:10">
       <c r="A377" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] theodred</v>
@@ -21570,7 +21569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1">
+    <row r="378" spans="1:10">
       <c r="A378" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] haleth</v>
@@ -21603,7 +21602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1">
+    <row r="379" spans="1:10">
       <c r="A379" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] meriadoc_brandybuck</v>
@@ -21636,7 +21635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1">
+    <row r="380" spans="1:10">
       <c r="A380" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] aldor</v>
@@ -21669,7 +21668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1">
+    <row r="381" spans="1:10">
       <c r="A381" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] dernhelm</v>
@@ -21702,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1">
+    <row r="382" spans="1:10">
       <c r="A382" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] king's_huntsman</v>
@@ -21735,7 +21734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1">
+    <row r="383" spans="1:10">
       <c r="A383" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] eowyn</v>
@@ -21768,7 +21767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1">
+    <row r="384" spans="1:10">
       <c r="A384" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] son_of_eorl</v>
@@ -21801,7 +21800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1">
+    <row r="385" spans="1:10">
       <c r="A385" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] rider_of_rohan</v>
@@ -21834,7 +21833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1">
+    <row r="386" spans="1:10">
       <c r="A386" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] rohan_royal_guard</v>
@@ -21867,7 +21866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1">
+    <row r="387" spans="1:10">
       <c r="A387" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] rohan_outrider</v>
@@ -21900,7 +21899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1">
+    <row r="388" spans="1:10">
       <c r="A388" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[rohan] warrior_of_rohan</v>
@@ -21933,7 +21932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1">
+    <row r="389" spans="1:10">
       <c r="A389" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[sharkey's_rogues] rowan_thistlewood,_ruffian_enforcer</v>
@@ -21966,7 +21965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1">
+    <row r="390" spans="1:10">
       <c r="A390" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[sharkey's_rogues] bill_ferny</v>
@@ -21999,7 +21998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1">
+    <row r="391" spans="1:10">
       <c r="A391" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[sharkey's_rogues] lotho_sackville-baggins</v>
@@ -22032,7 +22031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1">
+    <row r="392" spans="1:10">
       <c r="A392" s="8" t="str">
         <f t="shared" si="8"/>
         <v>[sharkey's_rogues] ted_sandyman</v>
@@ -22065,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1">
+    <row r="393" spans="1:10">
       <c r="A393" s="8" t="s">
         <v>1578</v>
       </c>
@@ -22097,7 +22096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1">
+    <row r="394" spans="1:10">
       <c r="A394" s="8" t="str">
         <f t="shared" ref="A394:A426" si="9">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C394, " ", "_")), "] ", LOWER(SUBSTITUTE(E394, " ", "_")))</f>
         <v>[sharkey's_rogues] sharkey_and_worm</v>
@@ -22130,7 +22129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1">
+    <row r="395" spans="1:10">
       <c r="A395" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[sharkey's_rogues] sid_briarthorn,_ruffian_chief</v>
@@ -22163,7 +22162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1">
+    <row r="396" spans="1:10">
       <c r="A396" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[sharkey's_rogues] harry_goatleaf</v>
@@ -22196,7 +22195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1">
+    <row r="397" spans="1:10">
       <c r="A397" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[sharkey's_rogues] ruffian</v>
@@ -22229,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1">
+    <row r="398" spans="1:10">
       <c r="A398" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[sharkey's_rogues] hobbit_militia</v>
@@ -22262,7 +22261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1">
+    <row r="399" spans="1:10">
       <c r="A399" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] goroth</v>
@@ -22295,7 +22294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1">
+    <row r="400" spans="1:10">
       <c r="A400" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] guritz</v>
@@ -22328,7 +22327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1">
+    <row r="401" spans="1:10">
       <c r="A401" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] gothmog's_enforcer</v>
@@ -22361,7 +22360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1">
+    <row r="402" spans="1:10">
       <c r="A402" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] zagdush</v>
@@ -22394,7 +22393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1">
+    <row r="403" spans="1:10">
       <c r="A403" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] morannon_orc_captain</v>
@@ -22427,7 +22426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1">
+    <row r="404" spans="1:10">
       <c r="A404" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] orc_taskmaster</v>
@@ -22460,7 +22459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1">
+    <row r="405" spans="1:10">
       <c r="A405" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] gothmog</v>
@@ -22493,7 +22492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1">
+    <row r="406" spans="1:10">
       <c r="A406" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] orc_drummer</v>
@@ -22526,7 +22525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1">
+    <row r="407" spans="1:10">
       <c r="A407" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] orc_shaman</v>
@@ -22559,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1">
+    <row r="408" spans="1:10">
       <c r="A408" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] mordor_war_catapult</v>
@@ -22592,7 +22591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:10" hidden="1">
+    <row r="409" spans="1:10">
       <c r="A409" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] mordor_siege_bow</v>
@@ -22625,7 +22624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:10" hidden="1">
+    <row r="410" spans="1:10">
       <c r="A410" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] mordor_troll</v>
@@ -22658,7 +22657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:10" hidden="1">
+    <row r="411" spans="1:10">
       <c r="A411" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] morannon_orc</v>
@@ -22691,7 +22690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1">
+    <row r="412" spans="1:10">
       <c r="A412" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_army_of_gothmog] orc_warrior</v>
@@ -22724,7 +22723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:10" hidden="1">
+    <row r="413" spans="1:10">
       <c r="A413" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_black_gate_opens] mordor_troll_chieftain</v>
@@ -22757,7 +22756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1">
+    <row r="414" spans="1:10">
       <c r="A414" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_black_gate_opens] morannon_orc_captain</v>
@@ -22790,7 +22789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1">
+    <row r="415" spans="1:10">
       <c r="A415" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_black_gate_opens] orc_captain</v>
@@ -22823,7 +22822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1">
+    <row r="416" spans="1:10">
       <c r="A416" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_black_gate_opens] mordor_troll_chieftain_(leader)</v>
@@ -22856,7 +22855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1">
+    <row r="417" spans="1:10">
       <c r="A417" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_black_gate_opens] mouth_of_sauron</v>
@@ -22889,7 +22888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1">
+    <row r="418" spans="1:10">
       <c r="A418" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_black_gate_opens] mordor_troll</v>
@@ -22922,7 +22921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1">
+    <row r="419" spans="1:10">
       <c r="A419" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_black_gate_opens] morannon_orc</v>
@@ -22955,7 +22954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1">
+    <row r="420" spans="1:10">
       <c r="A420" s="8" t="str">
         <f t="shared" si="9"/>
         <v>[the_black_gate_opens] orc_warrior</v>
@@ -22988,7 +22987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1">
+    <row r="421" spans="1:10">
       <c r="A421" s="10" t="str">
         <f t="shared" si="9"/>
         <v>[the_black_riders] ringwraith</v>
@@ -23021,7 +23020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1">
+    <row r="422" spans="1:10">
       <c r="A422" s="10" t="str">
         <f t="shared" si="9"/>
         <v>[the_black_riders] witch_king</v>
@@ -23054,7 +23053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1">
+    <row r="423" spans="1:10">
       <c r="A423" s="10" t="str">
         <f t="shared" si="9"/>
         <v>[the_chief's_ruffians] rowan_thistlewood,_ruffian_enforcer</v>
@@ -23087,7 +23086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1">
+    <row r="424" spans="1:10">
       <c r="A424" s="10" t="str">
         <f t="shared" si="9"/>
         <v>[the_chief's_ruffians] bill_ferny</v>
@@ -23120,7 +23119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1">
+    <row r="425" spans="1:10">
       <c r="A425" s="10" t="str">
         <f t="shared" si="9"/>
         <v>[the_chief's_ruffians] lotho_sackville-baggins</v>
@@ -23153,7 +23152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1">
+    <row r="426" spans="1:10">
       <c r="A426" s="10" t="str">
         <f t="shared" si="9"/>
         <v>[the_chief's_ruffians] ted_sandyman</v>
@@ -23186,7 +23185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1">
+    <row r="427" spans="1:10">
       <c r="A427" s="10" t="s">
         <v>2732</v>
       </c>
@@ -23218,7 +23217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1">
+    <row r="428" spans="1:10">
       <c r="A428" s="10" t="str">
         <f t="shared" ref="A428:A433" si="10">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C428, " ", "_")), "] ", LOWER(SUBSTITUTE(E428, " ", "_")))</f>
         <v>[the_chief's_ruffians] sharkey_and_worm</v>
@@ -23251,7 +23250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1">
+    <row r="429" spans="1:10">
       <c r="A429" s="10" t="str">
         <f t="shared" si="10"/>
         <v>[the_chief's_ruffians] sid_briarthorn,_ruffian_chief</v>
@@ -23284,7 +23283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1">
+    <row r="430" spans="1:10">
       <c r="A430" s="10" t="str">
         <f t="shared" si="10"/>
         <v>[the_chief's_ruffians] harry_goatleaf</v>
@@ -23317,7 +23316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1">
+    <row r="431" spans="1:10">
       <c r="A431" s="10" t="str">
         <f t="shared" si="10"/>
         <v>[the_chief's_ruffians] ruffian</v>
@@ -23350,7 +23349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1">
+    <row r="432" spans="1:10">
       <c r="A432" s="10" t="str">
         <f t="shared" si="10"/>
         <v>[the_chief's_ruffians] hobbit_militia</v>
@@ -23383,7 +23382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1">
+    <row r="433" spans="1:10">
       <c r="A433" s="8" t="str">
         <f t="shared" si="10"/>
         <v>[the_dead_of_dunharrow] herald_of_the_dead</v>
@@ -23416,7 +23415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1">
+    <row r="434" spans="1:10">
       <c r="A434" s="8" t="s">
         <v>1583</v>
       </c>
@@ -23448,7 +23447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1">
+    <row r="435" spans="1:10">
       <c r="A435" s="8" t="str">
         <f t="shared" ref="A435:A446" si="11">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C435, " ", "_")), "] ", LOWER(SUBSTITUTE(E435, " ", "_")))</f>
         <v>[the_dead_of_dunharrow] the_king_of_the_dead</v>
@@ -23481,7 +23480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1">
+    <row r="436" spans="1:10">
       <c r="A436" s="8" t="str">
         <f t="shared" si="11"/>
         <v>[the_dead_of_dunharrow] rider_of_the_dead</v>
@@ -23514,7 +23513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1">
+    <row r="437" spans="1:10">
       <c r="A437" s="8" t="str">
         <f t="shared" si="11"/>
         <v>[the_dead_of_dunharrow] warrior_of_the_dead</v>
@@ -23547,7 +23546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1">
+    <row r="438" spans="1:10">
       <c r="A438" s="8" t="str">
         <f t="shared" si="11"/>
         <v>[the_easterlings] brorgir</v>
@@ -23580,7 +23579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1">
+    <row r="439" spans="1:10">
       <c r="A439" s="8" t="str">
         <f t="shared" si="11"/>
         <v>[the_easterlings] easterling_war_priest</v>
@@ -23613,7 +23612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1">
+    <row r="440" spans="1:10">
       <c r="A440" s="8" t="str">
         <f t="shared" si="11"/>
         <v>[the_easterlings] easterling_captain</v>
@@ -23646,7 +23645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1">
+    <row r="441" spans="1:10">
       <c r="A441" s="8" t="str">
         <f t="shared" si="11"/>
         <v>[the_easterlings] the_dragon_emperor</v>
@@ -23679,7 +23678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1">
+    <row r="442" spans="1:10">
       <c r="A442" s="8" t="str">
         <f t="shared" si="11"/>
         <v>[the_easterlings] amdur</v>
@@ -23712,7 +23711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1">
+    <row r="443" spans="1:10">
       <c r="A443" s="8" t="str">
         <f t="shared" si="11"/>
         <v>[the_easterlings] khamul</v>
@@ -23745,7 +23744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:10" hidden="1">
+    <row r="444" spans="1:10">
       <c r="A444" s="8" t="str">
         <f t="shared" si="11"/>
         <v>[the_easterlings] rutabi</v>
@@ -23778,7 +23777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1">
+    <row r="445" spans="1:10">
       <c r="A445" s="8" t="str">
         <f t="shared" si="11"/>
         <v>[the_easterlings] easterling_dragon_knight</v>
@@ -23811,7 +23810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1">
+    <row r="446" spans="1:10">
       <c r="A446" s="8" t="str">
         <f t="shared" si="11"/>
         <v>[the_easterlings] rhunish_war_drake</v>
@@ -23844,7 +23843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1">
+    <row r="447" spans="1:10">
       <c r="A447" s="8" t="s">
         <v>2093</v>
       </c>
@@ -23876,7 +23875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1">
+    <row r="448" spans="1:10">
       <c r="A448" s="8" t="str">
         <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C448, " ", "_")), "] ", LOWER(SUBSTITUTE(E448, " ", "_")))</f>
         <v>[the_easterlings] easterling_kataphrakt</v>
@@ -23909,7 +23908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1">
+    <row r="449" spans="1:10">
       <c r="A449" s="8" t="str">
         <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C449, " ", "_")), "] ", LOWER(SUBSTITUTE(E449, " ", "_")))</f>
         <v>[the_easterlings] dragon_cult_acolyte</v>
@@ -23942,7 +23941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1">
+    <row r="450" spans="1:10">
       <c r="A450" s="8" t="s">
         <v>2094</v>
       </c>
@@ -23974,7 +23973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:10" hidden="1">
+    <row r="451" spans="1:10">
       <c r="A451" s="8" t="str">
         <f t="shared" ref="A451:A487" si="12">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C451, " ", "_")), "] ", LOWER(SUBSTITUTE(E451, " ", "_")))</f>
         <v>[the_easterlings] easterling_warrior</v>
@@ -24007,7 +24006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:10" hidden="1">
+    <row r="452" spans="1:10">
       <c r="A452" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] frodo_baggins</v>
@@ -24040,7 +24039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:10" hidden="1">
+    <row r="453" spans="1:10">
       <c r="A453" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] samwise_gamgee</v>
@@ -24073,7 +24072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:10" hidden="1">
+    <row r="454" spans="1:10">
       <c r="A454" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] gandalf_the_grey</v>
@@ -24106,7 +24105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1">
+    <row r="455" spans="1:10">
       <c r="A455" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] aragorn,_strider</v>
@@ -24139,7 +24138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1">
+    <row r="456" spans="1:10">
       <c r="A456" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] legolas</v>
@@ -24172,7 +24171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1">
+    <row r="457" spans="1:10">
       <c r="A457" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] gimli</v>
@@ -24205,7 +24204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1">
+    <row r="458" spans="1:10">
       <c r="A458" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] boromir_of_gondor</v>
@@ -24238,7 +24237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1">
+    <row r="459" spans="1:10">
       <c r="A459" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] smeagol</v>
@@ -24271,7 +24270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1">
+    <row r="460" spans="1:10">
       <c r="A460" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] bill_the_pony</v>
@@ -24304,7 +24303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:10" hidden="1">
+    <row r="461" spans="1:10">
       <c r="A461" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] arwen</v>
@@ -24337,7 +24336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1">
+    <row r="462" spans="1:10">
       <c r="A462" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] meriadoc_brandybuck</v>
@@ -24370,7 +24369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1">
+    <row r="463" spans="1:10">
       <c r="A463" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fellowship] peregrin_took</v>
@@ -24403,7 +24402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1">
+    <row r="464" spans="1:10">
       <c r="A464" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fiefdoms] captain_of_dol_amroth</v>
@@ -24436,7 +24435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:10" hidden="1">
+    <row r="465" spans="1:10">
       <c r="A465" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fiefdoms] prince_imrahil</v>
@@ -24469,7 +24468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:10" hidden="1">
+    <row r="466" spans="1:10">
       <c r="A466" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fiefdoms] forlong_the_fat</v>
@@ -24502,7 +24501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:10" hidden="1">
+    <row r="467" spans="1:10">
       <c r="A467" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fiefdoms] angbor_the_fearless</v>
@@ -24535,7 +24534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:10" hidden="1">
+    <row r="468" spans="1:10">
       <c r="A468" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fiefdoms] duinhir</v>
@@ -24568,7 +24567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:10" hidden="1">
+    <row r="469" spans="1:10">
       <c r="A469" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fiefdoms] knight_of_dol_amroth</v>
@@ -24601,7 +24600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:10" hidden="1">
+    <row r="470" spans="1:10">
       <c r="A470" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fiefdoms] axeman_of_lossarnach</v>
@@ -24634,7 +24633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:10" hidden="1">
+    <row r="471" spans="1:10">
       <c r="A471" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fiefdoms] man-at-arms_of_dol_amroth</v>
@@ -24667,7 +24666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:10" hidden="1">
+    <row r="472" spans="1:10">
       <c r="A472" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fiefdoms] blackroot_vale_archer</v>
@@ -24700,7 +24699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:10" hidden="1">
+    <row r="473" spans="1:10">
       <c r="A473" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_fiefdoms] clansman_of_lamedon</v>
@@ -24733,7 +24732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:10" hidden="1">
+    <row r="474" spans="1:10">
       <c r="A474" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_grey_company] elladan_&amp;_elrohir</v>
@@ -24766,7 +24765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:10" hidden="1">
+    <row r="475" spans="1:10">
       <c r="A475" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_grey_company] halbarad</v>
@@ -24799,7 +24798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:10" hidden="1">
+    <row r="476" spans="1:10">
       <c r="A476" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_grey_company] aragorn,_strider</v>
@@ -24832,7 +24831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1">
+    <row r="477" spans="1:10">
       <c r="A477" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_grey_company] legolas</v>
@@ -24865,7 +24864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:10" hidden="1">
+    <row r="478" spans="1:10">
       <c r="A478" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_grey_company] gimli</v>
@@ -24898,7 +24897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:10" hidden="1">
+    <row r="479" spans="1:10">
       <c r="A479" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_grey_company] ranger_of_the_north</v>
@@ -24931,7 +24930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:10" hidden="1">
+    <row r="480" spans="1:10">
       <c r="A480" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_host_of_the_dragon_emperor] brorgir</v>
@@ -24964,7 +24963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1">
+    <row r="481" spans="1:10">
       <c r="A481" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_host_of_the_dragon_emperor] easterling_war_priest</v>
@@ -24997,7 +24996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1">
+    <row r="482" spans="1:10">
       <c r="A482" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_host_of_the_dragon_emperor] easterling_captain</v>
@@ -25030,7 +25029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:10" hidden="1">
+    <row r="483" spans="1:10">
       <c r="A483" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_host_of_the_dragon_emperor] the_dragon_emperor</v>
@@ -25063,7 +25062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:10" hidden="1">
+    <row r="484" spans="1:10">
       <c r="A484" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_host_of_the_dragon_emperor] rutabi</v>
@@ -25096,7 +25095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:10" hidden="1">
+    <row r="485" spans="1:10">
       <c r="A485" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_host_of_the_dragon_emperor] easterling_dragon_knight</v>
@@ -25129,7 +25128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:10" hidden="1">
+    <row r="486" spans="1:10">
       <c r="A486" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_host_of_the_dragon_emperor] rhunish_war_drake</v>
@@ -25162,7 +25161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:10" hidden="1">
+    <row r="487" spans="1:10">
       <c r="A487" s="8" t="str">
         <f t="shared" si="12"/>
         <v>[the_host_of_the_dragon_emperor] easterling_kataphrakt</v>
@@ -25195,7 +25194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1">
+    <row r="488" spans="1:10">
       <c r="A488" s="8" t="s">
         <v>2095</v>
       </c>
@@ -25227,7 +25226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:10" hidden="1">
+    <row r="489" spans="1:10">
       <c r="A489" s="8" t="str">
         <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C489, " ", "_")), "] ", LOWER(SUBSTITUTE(E489, " ", "_")))</f>
         <v>[the_host_of_the_dragon_emperor] dragon_cult_acolyte</v>
@@ -25260,7 +25259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:10" hidden="1">
+    <row r="490" spans="1:10">
       <c r="A490" s="8" t="str">
         <f>_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C490, " ", "_")), "] ", LOWER(SUBSTITUTE(E490, " ", "_")))</f>
         <v>[the_host_of_the_dragon_emperor] easterling_warrior</v>
@@ -25293,7 +25292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:10" hidden="1">
+    <row r="491" spans="1:10">
       <c r="A491" s="9" t="s">
         <v>2096</v>
       </c>
@@ -25325,7 +25324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:10" hidden="1">
+    <row r="492" spans="1:10">
       <c r="A492" s="8" t="str">
         <f t="shared" ref="A492:A523" si="13">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C492, " ", "_")), "] ", LOWER(SUBSTITUTE(E492, " ", "_")))</f>
         <v>[the_kingdom_of_khazad-dum] king's_champion</v>
@@ -25355,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="J492" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:10" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10">
       <c r="A493" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_khazad-dum] mardin</v>
@@ -25391,7 +25390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:10" hidden="1">
+    <row r="494" spans="1:10">
       <c r="A494" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_king</v>
@@ -25424,7 +25423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:10" hidden="1">
+    <row r="495" spans="1:10">
       <c r="A495" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_captain</v>
@@ -25457,7 +25456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:10" hidden="1">
+    <row r="496" spans="1:10">
       <c r="A496" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_khazad-dum] durin</v>
@@ -25490,7 +25489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:10" hidden="1">
+    <row r="497" spans="1:10">
       <c r="A497" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_khazad-dum] shieldbearer</v>
@@ -25523,7 +25522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:10" hidden="1">
+    <row r="498" spans="1:10">
       <c r="A498" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ballista</v>
@@ -25556,7 +25555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:10" hidden="1">
+    <row r="499" spans="1:10">
       <c r="A499" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_khazad-dum] vault_warden_team</v>
@@ -25589,7 +25588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:10" hidden="1">
+    <row r="500" spans="1:10">
       <c r="A500" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_khazad-dum] iron_guard</v>
@@ -25622,7 +25621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:10" hidden="1">
+    <row r="501" spans="1:10">
       <c r="A501" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_khazad-dum] khazad_guard</v>
@@ -25655,7 +25654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:10" hidden="1">
+    <row r="502" spans="1:10">
       <c r="A502" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_ranger</v>
@@ -25688,7 +25687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1">
+    <row r="503" spans="1:10">
       <c r="A503" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_khazad-dum] dwarf_warrior</v>
@@ -25721,7 +25720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:10" hidden="1">
+    <row r="504" spans="1:10">
       <c r="A504" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] king's_champion</v>
@@ -25751,10 +25750,10 @@
         <v>0</v>
       </c>
       <c r="J504" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:10" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10">
       <c r="A505" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] floi_stonehand</v>
@@ -25787,7 +25786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:10" hidden="1">
+    <row r="506" spans="1:10">
       <c r="A506" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] dwarf_king</v>
@@ -25820,7 +25819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:10" hidden="1">
+    <row r="507" spans="1:10">
       <c r="A507" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] dwarf_captain</v>
@@ -25853,7 +25852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:10" hidden="1">
+    <row r="508" spans="1:10">
       <c r="A508" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] balin</v>
@@ -25886,7 +25885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:10" hidden="1">
+    <row r="509" spans="1:10">
       <c r="A509" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] gimli</v>
@@ -25919,7 +25918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1">
+    <row r="510" spans="1:10">
       <c r="A510" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] shieldbearer</v>
@@ -25952,7 +25951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:10" hidden="1">
+    <row r="511" spans="1:10">
       <c r="A511" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] dwarf_ballista</v>
@@ -25985,7 +25984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:10" hidden="1">
+    <row r="512" spans="1:10">
       <c r="A512" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] vault_warden_team</v>
@@ -26018,7 +26017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:10" hidden="1">
+    <row r="513" spans="1:10">
       <c r="A513" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] iron_guard</v>
@@ -26051,7 +26050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:10" hidden="1">
+    <row r="514" spans="1:10">
       <c r="A514" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] khazad_guard</v>
@@ -26084,7 +26083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:10" hidden="1">
+    <row r="515" spans="1:10">
       <c r="A515" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] dwarf_ranger</v>
@@ -26117,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:10" hidden="1">
+    <row r="516" spans="1:10">
       <c r="A516" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_kingdom_of_moria] dwarf_warrior</v>
@@ -26150,7 +26149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:10" hidden="1">
+    <row r="517" spans="1:10">
       <c r="A517" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_men_of_the_west] elladan_&amp;_elrohir</v>
@@ -26183,7 +26182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1">
+    <row r="518" spans="1:10">
       <c r="A518" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_men_of_the_west] captain_of_dol_amroth</v>
@@ -26216,7 +26215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:10" hidden="1">
+    <row r="519" spans="1:10">
       <c r="A519" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_men_of_the_west] captain_of_minas_tirith</v>
@@ -26249,7 +26248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:10" hidden="1">
+    <row r="520" spans="1:10">
       <c r="A520" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_men_of_the_west] captain_of_rohan</v>
@@ -26282,7 +26281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:10" hidden="1">
+    <row r="521" spans="1:10">
       <c r="A521" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_men_of_the_west] aragorn,_king_elessar</v>
@@ -26315,7 +26314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:10" hidden="1">
+    <row r="522" spans="1:10">
       <c r="A522" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_men_of_the_west] prince_imrahil</v>
@@ -26348,7 +26347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:10" hidden="1">
+    <row r="523" spans="1:10">
       <c r="A523" s="8" t="str">
         <f t="shared" si="13"/>
         <v>[the_men_of_the_west] gandalf_the_white</v>
@@ -26381,7 +26380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:10" hidden="1">
+    <row r="524" spans="1:10">
       <c r="A524" s="8" t="str">
         <f t="shared" ref="A524:A555" si="14">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C524, " ", "_")), "] ", LOWER(SUBSTITUTE(E524, " ", "_")))</f>
         <v>[the_men_of_the_west] eomer</v>
@@ -26414,7 +26413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:10" hidden="1">
+    <row r="525" spans="1:10">
       <c r="A525" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_men_of_the_west] legolas</v>
@@ -26447,7 +26446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:10" hidden="1">
+    <row r="526" spans="1:10">
       <c r="A526" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_men_of_the_west] gimli</v>
@@ -26480,7 +26479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:10" hidden="1">
+    <row r="527" spans="1:10">
       <c r="A527" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_men_of_the_west] peregrin_took</v>
@@ -26513,7 +26512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:10" hidden="1">
+    <row r="528" spans="1:10">
       <c r="A528" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_men_of_the_west] meriadoc_brandybuck</v>
@@ -26546,7 +26545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:10" hidden="1">
+    <row r="529" spans="1:10">
       <c r="A529" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_men_of_the_west] beregond</v>
@@ -26579,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:10" hidden="1">
+    <row r="530" spans="1:10">
       <c r="A530" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_men_of_the_west] knight_of_dol_amroth</v>
@@ -26612,7 +26611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:10" hidden="1">
+    <row r="531" spans="1:10">
       <c r="A531" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_men_of_the_west] warrior_of_minas_tirith</v>
@@ -26645,7 +26644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:10" hidden="1">
+    <row r="532" spans="1:10">
       <c r="A532" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_men_of_the_west] warrior_of_rohan</v>
@@ -26678,7 +26677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:10" hidden="1">
+    <row r="533" spans="1:10">
       <c r="A533" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_misty_mountains] gwaihir</v>
@@ -26711,7 +26710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:10" hidden="1">
+    <row r="534" spans="1:10">
       <c r="A534" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_misty_mountains] great_eagle</v>
@@ -26744,7 +26743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:10" hidden="1">
+    <row r="535" spans="1:10">
       <c r="A535" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_rangers] halbarad</v>
@@ -26777,7 +26776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:10" hidden="1">
+    <row r="536" spans="1:10">
       <c r="A536" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_rangers] aragorn,_strider</v>
@@ -26810,7 +26809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:10" hidden="1">
+    <row r="537" spans="1:10">
       <c r="A537" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_rangers] arathorn</v>
@@ -26843,7 +26842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:10" hidden="1">
+    <row r="538" spans="1:10">
       <c r="A538" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_rangers] ranger_of_the_north</v>
@@ -26876,7 +26875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:10" hidden="1">
+    <row r="539" spans="1:10">
       <c r="A539" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_rangers] dunedain</v>
@@ -26909,7 +26908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:10" hidden="1">
+    <row r="540" spans="1:10">
       <c r="A540" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_return_of_the_king] herald_of_the_dead</v>
@@ -26942,7 +26941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:10" hidden="1">
+    <row r="541" spans="1:10">
       <c r="A541" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_return_of_the_king] aragorn,_strider</v>
@@ -26975,7 +26974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:10" hidden="1">
+    <row r="542" spans="1:10">
       <c r="A542" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_return_of_the_king] the_king_of_the_dead</v>
@@ -27008,7 +27007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:10" hidden="1">
+    <row r="543" spans="1:10">
       <c r="A543" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_return_of_the_king] legolas</v>
@@ -27041,7 +27040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:10" hidden="1">
+    <row r="544" spans="1:10">
       <c r="A544" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_return_of_the_king] gimli</v>
@@ -27074,7 +27073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:10" hidden="1">
+    <row r="545" spans="1:10">
       <c r="A545" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_return_of_the_king] rider_of_the_dead</v>
@@ -27107,7 +27106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:10" hidden="1">
+    <row r="546" spans="1:10">
       <c r="A546" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_return_of_the_king] warrior_of_the_dead</v>
@@ -27140,7 +27139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:10" hidden="1">
+    <row r="547" spans="1:10">
       <c r="A547" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_riders_of_theoden] deorwine</v>
@@ -27173,7 +27172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:10" hidden="1">
+    <row r="548" spans="1:10">
       <c r="A548" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_riders_of_theoden] elfhelm</v>
@@ -27206,7 +27205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:10" hidden="1">
+    <row r="549" spans="1:10">
       <c r="A549" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_riders_of_theoden] gamling</v>
@@ -27239,7 +27238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:10" hidden="1">
+    <row r="550" spans="1:10">
       <c r="A550" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_riders_of_theoden] captain_of_rohan</v>
@@ -27272,7 +27271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:10" hidden="1">
+    <row r="551" spans="1:10">
       <c r="A551" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_riders_of_theoden] theoden</v>
@@ -27305,7 +27304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:10" hidden="1">
+    <row r="552" spans="1:10">
       <c r="A552" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_riders_of_theoden] eomer</v>
@@ -27338,7 +27337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:10" hidden="1">
+    <row r="553" spans="1:10">
       <c r="A553" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_riders_of_theoden] dernhelm</v>
@@ -27371,7 +27370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:10" hidden="1">
+    <row r="554" spans="1:10">
       <c r="A554" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_riders_of_theoden] rohan_royal_guard</v>
@@ -27404,7 +27403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:10" hidden="1">
+    <row r="555" spans="1:10">
       <c r="A555" s="8" t="str">
         <f t="shared" si="14"/>
         <v>[the_riders_of_theoden] rider_of_rohan</v>
@@ -27437,7 +27436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:10" hidden="1">
+    <row r="556" spans="1:10">
       <c r="A556" s="8" t="str">
         <f t="shared" ref="A556:A587" si="15">_xlfn.CONCAT("[", LOWER(SUBSTITUTE(C556, " ", "_")), "] ", LOWER(SUBSTITUTE(E556, " ", "_")))</f>
         <v>[the_serpent_horde] war_mumak_of_harad</v>
@@ -27470,7 +27469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:10" hidden="1">
+    <row r="557" spans="1:10">
       <c r="A557" s="8" t="str">
         <f t="shared" si="15"/>
         <v>[the_serpent_horde] hasharin</v>
@@ -27503,7 +27502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:10" hidden="1">
+    <row r="558" spans="1:10">
       <c r="A558" s="8" t="str">
         <f t="shared" si="15"/>
         <v>[the_serpent_horde] raza,_fang_of_the_serpent</v>
@@ -27536,7 +27535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:10" hidden="1">
+    <row r="559" spans="1:10">
       <c r="A559" s="8" t="str">
         <f t="shared" si="15"/>
         <v>[the_serpent_horde] haradrim_king</v>
@@ -27569,7 +27568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:10" hidden="1">
+    <row r="560" spans="1:10">
       <c r="A560" s="8" t="str">
         <f t="shared" si="15"/>
         <v>[the_serpent_horde] haradrim_chieftain</v>
@@ -27602,7 +27601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:10" hidden="1">
+    <row r="561" spans="1:10">
       <c r="A561" s="8" t="str">
         <f t="shared" si="15"/>
         <v>[the_serpent_horde] haradrim_taskmaster</v>
@@ -27635,7 +27634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:10" hidden="1">
+    <row r="562" spans="1:10">
       <c r="A562" s="8" t="str">
         <f t="shared" si="15"/>
         <v>[the_serpent_horde] suladan</v>
@@ -27668,7 +27667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:10" hidden="1">
+    <row r="563" spans="1:10">
       <c r="A563" s="8" t="str">
         <f t="shared" si="15"/>
         <v>[the_serpent_horde] the_golden_king</v>
@@ -27701,7 +27700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:10" hidden="1">
+    <row r="564" spans="1:10">
       <c r="A564" s="8" t="str">
         <f t="shared" si="15"/>
         <v>[the_serpent_horde] the_betrayer</v>
@@ -27734,7 +27733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:10" hidden="1">
+    <row r="565" spans="1:10">
       <c r="A565" s="8" t="str">
         <f t="shared" si="15"/>
         <v>[the_serpent_horde] serpent_rider</v>
@@ -27767,7 +27766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:10" hidden="1">
+    <row r="566" spans="1:10">
       <c r="A566" s="8" t="str">
         <f t="shared" si="15"/>
         <v>[the_serpent_horde] haradrim_raider</v>
@@ -27800,7 +27799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:10" 